--- a/lod_analysis/excels/albums.xlsx
+++ b/lod_analysis/excels/albums.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="556">
   <si>
     <t>album_id</t>
   </si>
@@ -46,1471 +46,1642 @@
     <t>geonames_download_time</t>
   </si>
   <si>
-    <t>4ZDBQSIDIZRUBOG2OHcN3T</t>
-  </si>
-  <si>
-    <t>0ks45m1bsP2JsZpM5D2FFA</t>
-  </si>
-  <si>
-    <t>5szY4sBOSD6IFjFN1RtWTe</t>
-  </si>
-  <si>
-    <t>4DR0GWo7w2GJyQnFVa4jAB</t>
-  </si>
-  <si>
-    <t>58NXIEYqmq5dQHg9nV9duM</t>
-  </si>
-  <si>
-    <t>5JjnPCfpp6redrkKpXZAs8</t>
-  </si>
-  <si>
-    <t>07w0hGS9XUdFsPBvDHy16y</t>
-  </si>
-  <si>
-    <t>43crHBVr5O6Z71eLsvq0JG</t>
-  </si>
-  <si>
-    <t>3xqjaGS3zK0WQPLg6Qdb50</t>
-  </si>
-  <si>
-    <t>7D7V6M05UIOTjLdqbwRX0w</t>
-  </si>
-  <si>
-    <t>7wcMxzlZFIxccoeiSix0O2</t>
-  </si>
-  <si>
-    <t>6f4dhaPfZqf2JXewAvE4gq</t>
-  </si>
-  <si>
-    <t>1PxA0y3aRMejJGb0wJH9gS</t>
-  </si>
-  <si>
-    <t>7o4UsmV37Sg5It2Eb7vHzu</t>
-  </si>
-  <si>
-    <t>300egwhkQSsKEFLbZgFa36</t>
-  </si>
-  <si>
-    <t>6khFoLWnJZDQvZ7Pijym3b</t>
-  </si>
-  <si>
-    <t>1WLs1iVHFL0wboZpeZ0bFf</t>
-  </si>
-  <si>
-    <t>2tHCY2fDMi0NqeGZcAxNSc</t>
-  </si>
-  <si>
-    <t>6iJEtgHTEbVlSS5isIS71z</t>
-  </si>
-  <si>
-    <t>1hamGtmqitOROTKc0yNhow</t>
-  </si>
-  <si>
-    <t>0hFWapnP7orzXCMwNU5DuA</t>
-  </si>
-  <si>
-    <t>4WUZJZ6kam5iHdfhQIVuAr</t>
-  </si>
-  <si>
-    <t>0Te7OvzuUMnbsqCneIDUm6</t>
-  </si>
-  <si>
-    <t>3RjfiKRsIHB7wQ1L6KoDEz</t>
-  </si>
-  <si>
-    <t>1YjxZhd158jSm2906JqzXF</t>
-  </si>
-  <si>
-    <t>7D3XFJlfZIkmGWqZXm2X8z</t>
-  </si>
-  <si>
-    <t>7kW0cpKgSVsEqcc8xgbSb0</t>
-  </si>
-  <si>
-    <t>0cn6MHyx4YuZauaB7Pb66o</t>
-  </si>
-  <si>
-    <t>5U0pevIOTrPoDsN8YsBCBh</t>
-  </si>
-  <si>
-    <t>61IAfZngW0BgATiyHJPijP</t>
-  </si>
-  <si>
-    <t>3487OYBtnRl82qA6tfyWco</t>
+    <t>0oX4SealMgNXrvRDhqqOKg</t>
+  </si>
+  <si>
+    <t>1F6HoOK69lMDIb3ujvwlTX</t>
+  </si>
+  <si>
+    <t>6mUdeDZCsExyJLMdAfDuwh</t>
+  </si>
+  <si>
+    <t>5PW7EiELfwvPbYEwkSR56o</t>
+  </si>
+  <si>
+    <t>5thv3RCZIDkWQVGDicoLkF</t>
+  </si>
+  <si>
+    <t>15k99o4mZJ9mfpQGIOrZ45</t>
+  </si>
+  <si>
+    <t>6i6folBtxKV28WX3msQ4FE</t>
+  </si>
+  <si>
+    <t>0BHa0ePkvGAVKymB4FU58m</t>
+  </si>
+  <si>
+    <t>7ij8wQxCAexZiXZbMOHcxE</t>
+  </si>
+  <si>
+    <t>1XcA7EEpVRg3FpVbhWu9JV</t>
+  </si>
+  <si>
+    <t>1XkGORuUX2QGOEIL4EbJKm</t>
+  </si>
+  <si>
+    <t>6Jx4cGhWHewTcfKDJKguBQ</t>
+  </si>
+  <si>
+    <t>4J02KJzJbOKJCtqXQkaNKY</t>
+  </si>
+  <si>
+    <t>6it58NcwmKI9xz4xyJ9xNH</t>
+  </si>
+  <si>
+    <t>4ZsG3ifn9sIcrFT1ecw0gF</t>
+  </si>
+  <si>
+    <t>0W73XWYmWnUPTH07IablnH</t>
+  </si>
+  <si>
+    <t>3we7A7UllAuA6QH6U9jmHs</t>
+  </si>
+  <si>
+    <t>0wELDKiN6EnDFXc9HvvNPy</t>
+  </si>
+  <si>
+    <t>7xk1Tl6UZ8OALZkFEagPsM</t>
+  </si>
+  <si>
+    <t>4i3rAwPw7Ln2YrKDusaWyT</t>
+  </si>
+  <si>
+    <t>5UxqSH1Ez2fcNVLqvLjsgB</t>
+  </si>
+  <si>
+    <t>6mVLRZmHfO3CQIk5e1WXBL</t>
+  </si>
+  <si>
+    <t>1CvjjpvqVMoyprsf74bpYW</t>
+  </si>
+  <si>
+    <t>2TNGyJVlzMUsD5mry6qsw2</t>
+  </si>
+  <si>
+    <t>31Sx9uz9KqlvmX07Pvp0wN</t>
+  </si>
+  <si>
+    <t>0hQb1KT6L3iEYRkS5u8cjm</t>
+  </si>
+  <si>
+    <t>6uqQP2jsszOsS9b1VMcfid</t>
+  </si>
+  <si>
+    <t>1CVJMhFsgCZeOMk2wQKnwL</t>
+  </si>
+  <si>
+    <t>0V7TZQmJBgI81M9Z7GWxCI</t>
+  </si>
+  <si>
+    <t>6I67hq0sDpBE2qn0nOkVK1</t>
+  </si>
+  <si>
+    <t>6t4LdKTNWIOr2PZIB8tiZF</t>
+  </si>
+  <si>
+    <t>2U9ONknz1iFEK9drEKLx8v</t>
+  </si>
+  <si>
+    <t>57lJNxlrPSin9SySEnerNb</t>
+  </si>
+  <si>
+    <t>0GBrlPh90D25SQ6EJu4VtT</t>
+  </si>
+  <si>
+    <t>1MqmDK2xw4isOPhiUb9eXO</t>
+  </si>
+  <si>
+    <t>1qHVYbxQ6IS8YRviorKDJI</t>
+  </si>
+  <si>
+    <t>01sfgrNbnnPUEyz6GZYlt9</t>
+  </si>
+  <si>
+    <t>5ySxm9hxBNss01WCL7GLyQ</t>
+  </si>
+  <si>
+    <t>6iFMsJMHQ9zqty9vnRmycq</t>
+  </si>
+  <si>
+    <t>2F7tejLHzTqFq2XLol9ZGy</t>
+  </si>
+  <si>
+    <t>2p9gK2BcdrloHNJwarc9gc</t>
+  </si>
+  <si>
+    <t>6eRDE48ttoLqN2VfkEpPOJ</t>
+  </si>
+  <si>
+    <t>5XpEKORZ4y6OrCZSKsi46A</t>
+  </si>
+  <si>
+    <t>2cWBwpqMsDJC1ZUwz813lo</t>
+  </si>
+  <si>
+    <t>33hEDxsIVGf7R6wRdZBQOw</t>
+  </si>
+  <si>
+    <t>4QkB5FT0hN3KWQeeF5Bih5</t>
+  </si>
+  <si>
+    <t>6nxDQi0FeEwccEPJeNySoS</t>
+  </si>
+  <si>
+    <t>7DDzJCnzLdq6MhuRQlqx39</t>
+  </si>
+  <si>
+    <t>3UBY0Rsr5qPMpdOQ5zF0tv</t>
+  </si>
+  <si>
+    <t>7hktYMjRekLPK3BZRr4sIQ</t>
+  </si>
+  <si>
+    <t>4QT1dg8zQoHuXF2HZbWWEB</t>
+  </si>
+  <si>
+    <t>1CEODgTmTwLyabvwd7HBty</t>
+  </si>
+  <si>
+    <t>6YElUbHU0DsH8y9BcFB4xY</t>
+  </si>
+  <si>
+    <t>19AUoKWRAaQYrggVvdQnqq</t>
+  </si>
+  <si>
+    <t>1rYXSHYaxxQ9HclnAeVhxv</t>
+  </si>
+  <si>
+    <t>2DHGeuRTttjurZDb0pSjx6</t>
+  </si>
+  <si>
+    <t>2xChdOg0PvxzHzE1BooUpI</t>
+  </si>
+  <si>
+    <t>1azUkThwd2HfUDdeNeT147</t>
+  </si>
+  <si>
+    <t>0pF0oyuPNdOObniB1Ng0kW</t>
+  </si>
+  <si>
+    <t>0rSLgV8p5FzfnqlEk4GzxE</t>
+  </si>
+  <si>
+    <t>1wNDlgfrrLKInAgz5W4b2n</t>
+  </si>
+  <si>
+    <t>3vLaOYCNCzngDf8QdBg2V1</t>
+  </si>
+  <si>
+    <t>1SIpLwZu1R69coxKMH06kw</t>
+  </si>
+  <si>
+    <t>5sK78apv4yOoXjxRL4kOdJ</t>
+  </si>
+  <si>
+    <t>574xhx2X0G9MkqACxqi4cg</t>
+  </si>
+  <si>
+    <t>03kOqFjrxiwkgvj2ExN6ii</t>
+  </si>
+  <si>
+    <t>1s9tU91VJt4sU5owi29GD3</t>
+  </si>
+  <si>
+    <t>7ltvnXQCjQRwTlMy55XcCz</t>
+  </si>
+  <si>
+    <t>5Nwsra93UQYJ6xxcjcE10x</t>
+  </si>
+  <si>
+    <t>3lFQ9ihSNR5YD0yi0yTzdC</t>
+  </si>
+  <si>
+    <t>4VzzEviJGYUtAeSsJlI9QB</t>
+  </si>
+  <si>
+    <t>53tvjWbVNZKd3CvpENkzOC</t>
+  </si>
+  <si>
+    <t>5Mk8LGoWoPg0igqQXprzfR</t>
   </si>
   <si>
     <t>0gsiszk6JWYwAyGvaTTud4</t>
   </si>
   <si>
-    <t>3ARqpnmjMB5O8uihXOOxbW</t>
-  </si>
-  <si>
-    <t>6IvosVciDOQ9NAPaKwhtLY</t>
-  </si>
-  <si>
-    <t>23Kf2cl3kz7pFNKhl4iMp9</t>
-  </si>
-  <si>
-    <t>6hz9f6H7URtoigU517WjD6</t>
-  </si>
-  <si>
-    <t>4ZDwEvXIKxWdwhAQK8ndBU</t>
-  </si>
-  <si>
-    <t>0vv1zKShlm7WuawEup5Mf4</t>
-  </si>
-  <si>
-    <t>1yJqr0efi39dFYC1GkA1aI</t>
-  </si>
-  <si>
-    <t>39FF5RewRO5F3OoNlWSQik</t>
-  </si>
-  <si>
-    <t>6yJdQMlMkfYJFiSsL6764c</t>
-  </si>
-  <si>
-    <t>68pVw4aHEP73HmIufK0gvP</t>
-  </si>
-  <si>
-    <t>5HTX2DfIWtWuUdIDotpKwG</t>
-  </si>
-  <si>
-    <t>2OKtxM9AYk69WsXadZbN3i</t>
-  </si>
-  <si>
-    <t>3Ey9TgEz0LdFKFKKftpkN1</t>
-  </si>
-  <si>
-    <t>14EUES6TzmB5nuyLvxTo9b</t>
-  </si>
-  <si>
-    <t>5cCjmw6pGLHHKZ6zuOhg1Y</t>
-  </si>
-  <si>
-    <t>59Tni3gA1OczshFWTMxmbo</t>
-  </si>
-  <si>
-    <t>1C5xrwfzgDM0hz7Kb035V3</t>
-  </si>
-  <si>
-    <t>1mMgrxFYBUMKANGbapmXxi</t>
-  </si>
-  <si>
-    <t>4ZpfSlHwUXaL6kgFTL6hMk</t>
-  </si>
-  <si>
-    <t>2CbMgWfTfT4n80PjrDkbbt</t>
-  </si>
-  <si>
-    <t>5u0UdiircjbveLg8cs39iw</t>
-  </si>
-  <si>
-    <t>06GBUPJJk11dHKJ33jWmCc</t>
-  </si>
-  <si>
-    <t>5lOFvOWAdy9G6p44noRILU</t>
-  </si>
-  <si>
-    <t>7yQmrL4bms0JIWamjA2ok1</t>
-  </si>
-  <si>
-    <t>3kVZ0rQgW6yZpiTmDP2Bpm</t>
-  </si>
-  <si>
-    <t>0ApKaazNHf0gzjAYZauexq</t>
-  </si>
-  <si>
-    <t>2x2VoPa1pG2jSElA73a9Xa</t>
-  </si>
-  <si>
-    <t>1WzwZsb0LvVXhngbHjBfd9</t>
-  </si>
-  <si>
-    <t>7iqG1CTQwnil3TQ0Tiq9DD</t>
-  </si>
-  <si>
-    <t>38sCkVGoLKjqFcOrTKTEC4</t>
-  </si>
-  <si>
-    <t>6BFzzkyYdu8gvixMygEXPw</t>
-  </si>
-  <si>
-    <t>5l2xUBNPkPSZB0KVrEXANI</t>
-  </si>
-  <si>
-    <t>3qq44o8Qqvz5JQ7b5AevLT</t>
-  </si>
-  <si>
-    <t>5UGzaaihp7tX8hLwbxEJRT</t>
-  </si>
-  <si>
-    <t>3MVduTfdB4hSzMvTpspj33</t>
-  </si>
-  <si>
-    <t>3oMt2cUO9IIttONwd6eHRO</t>
-  </si>
-  <si>
-    <t>0ocWLhnTiUKSq8Ksa3FX4Z</t>
-  </si>
-  <si>
-    <t>21lOBQT94kjWSiYQbpm3RG</t>
-  </si>
-  <si>
-    <t>6hqietEuZCikevdO2oGTcx</t>
-  </si>
-  <si>
-    <t>4PERSgw7TXqpEZlIVN6zHr</t>
-  </si>
-  <si>
-    <t>3mr9etJ9IMRFRXAfLkGWcJ</t>
-  </si>
-  <si>
-    <t>2P28i4GUbF4lGMTGTJLKlL</t>
-  </si>
-  <si>
-    <t>6dXZbXxoboeN9Xmkjzu2hS</t>
-  </si>
-  <si>
-    <t>6QHLhOasL7wk8EduGT7iD8</t>
-  </si>
-  <si>
-    <t>43UPS43heoPmecwkeQhAnI</t>
-  </si>
-  <si>
-    <t>2BqLW9LGoxfwRCn1hP5vOq</t>
-  </si>
-  <si>
-    <t>3xwtnQJWIUviGR2BuSNM8a</t>
-  </si>
-  <si>
-    <t>7aC5SxTBOl3FNl3pdqZV4T</t>
-  </si>
-  <si>
-    <t>4Gfnly5CzMJQqkUFfoHaP3</t>
-  </si>
-  <si>
-    <t>7vfuTRXIAYJz5Uc8SddnTr</t>
-  </si>
-  <si>
-    <t>20mh1X1FQQidKMu2XypyMI</t>
-  </si>
-  <si>
-    <t>7FqHuAvmREiIwVXVpZ9ooP</t>
-  </si>
-  <si>
-    <t>4dhfdOEUI4tfqwdgouFTQA</t>
-  </si>
-  <si>
-    <t>6hPkbAV3ZXpGZBGUvL6jVM</t>
-  </si>
-  <si>
-    <t>4ebodSLpRqbuQjpGlDZglH</t>
-  </si>
-  <si>
-    <t>3A4zAmE5c4dUAAqEJz6hCH</t>
-  </si>
-  <si>
-    <t>6wjelWtfMaUQj9zCKNS3wa</t>
-  </si>
-  <si>
-    <t>0RySAmM6oDPGSE03X3dzi1</t>
-  </si>
-  <si>
-    <t>4rJu3hBFAUqIAQOlSStJzO</t>
-  </si>
-  <si>
-    <t>3Ubxq3xl0xzgKTyetggqbm</t>
-  </si>
-  <si>
-    <t>25wlsi7SWD8mFKxaEWGYuL</t>
-  </si>
-  <si>
-    <t>6yOWKkrlpmUWOC5yndULeq</t>
-  </si>
-  <si>
-    <t>1AB8tdwS9hY4iyulXexNab</t>
-  </si>
-  <si>
-    <t>0naBUL1S18t9eY9hR9YbDM</t>
-  </si>
-  <si>
-    <t>58l0lwDrcUTi3KJxCGcpFs</t>
-  </si>
-  <si>
-    <t>5TnRBGlkLkrz14wl2fkGWI</t>
-  </si>
-  <si>
-    <t>0XanoL4BiRd52WeYfDWCkA</t>
-  </si>
-  <si>
-    <t>4XHIjbhjRmqWlosjj5rqSI</t>
-  </si>
-  <si>
-    <t>Vol. 3: The Subliminal Verses</t>
-  </si>
-  <si>
-    <t>Hail to the King</t>
-  </si>
-  <si>
-    <t>Cowboys from Hell</t>
-  </si>
-  <si>
-    <t>Toxicity</t>
-  </si>
-  <si>
-    <t>Dirt</t>
-  </si>
-  <si>
-    <t>Roots</t>
-  </si>
-  <si>
-    <t>The Sickness (10th Anniversary Edition)</t>
-  </si>
-  <si>
-    <t>1000hp</t>
-  </si>
-  <si>
-    <t>Overkill (Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>Magma</t>
-  </si>
-  <si>
-    <t>Meliora</t>
-  </si>
-  <si>
-    <t>Sehnsucht</t>
-  </si>
-  <si>
-    <t>L.D. 50</t>
-  </si>
-  <si>
-    <t>Around the Fur</t>
-  </si>
-  <si>
-    <t>The Concrete Confessional</t>
-  </si>
-  <si>
-    <t>Leviathan</t>
-  </si>
-  <si>
-    <t>Antichrist Superstar</t>
-  </si>
-  <si>
-    <t>Mutter</t>
-  </si>
-  <si>
-    <t>As Daylight Dies (Special Edition)</t>
-  </si>
-  <si>
-    <t>Vengeance Falls (Special Edition)</t>
-  </si>
-  <si>
-    <t>All Hope Is Gone</t>
-  </si>
-  <si>
-    <t>Sinner</t>
-  </si>
-  <si>
-    <t>Ten Thousand Fists</t>
-  </si>
-  <si>
-    <t>Past, Present &amp; Future</t>
-  </si>
-  <si>
-    <t>Venom (Deluxe Edition)</t>
+    <t>52AeC4gwbxDfFlLHgK1ByD</t>
+  </si>
+  <si>
+    <t>6d5tBL8NLw1Jdhr8D2w3PF</t>
+  </si>
+  <si>
+    <t>6vC3YjRy755VljFSemBUu7</t>
+  </si>
+  <si>
+    <t>32iAEBstCjauDhyKpGjTuq</t>
+  </si>
+  <si>
+    <t>7bFYkItFQOcnBYAwgrcVy1</t>
+  </si>
+  <si>
+    <t>2rQ135imvelvp89D8eEZOi</t>
+  </si>
+  <si>
+    <t>10aiDpdFGyfCFEcqpx6XTq</t>
+  </si>
+  <si>
+    <t>3FiplT4vIgWCRwLZSn0EDd</t>
+  </si>
+  <si>
+    <t>5W9OT0a5iZlBr83a9WMKFY</t>
+  </si>
+  <si>
+    <t>78hVLZZJhaXgrnfXKc6yxF</t>
+  </si>
+  <si>
+    <t>6P3Fqm7z9wr5GeatpVZ5ut</t>
+  </si>
+  <si>
+    <t>1qwlxZTNLe1jq3b0iidlue</t>
+  </si>
+  <si>
+    <t>5gdoRB1AUsGnScCuZ8gmPp</t>
+  </si>
+  <si>
+    <t>3uQMzfrf4kUNGsCtmTtjPh</t>
+  </si>
+  <si>
+    <t>5G5rgQHzdQnw32SI0WjIo5</t>
+  </si>
+  <si>
+    <t>2YRKb8nnxH7FFe9Vwtd0Ql</t>
+  </si>
+  <si>
+    <t>13BmLGhVCLBn3XzKB8HIai</t>
+  </si>
+  <si>
+    <t>7gkfkNVykbrbob7D0VlalU</t>
+  </si>
+  <si>
+    <t>3FCGXFULVQiKJkFvo6hMFo</t>
+  </si>
+  <si>
+    <t>2xg7iIKoSqaDNpDbJnyCjY</t>
+  </si>
+  <si>
+    <t>2qmrRoUZQemrKFr9PBMDHd</t>
+  </si>
+  <si>
+    <t>6VIiHu2RCwWo4151YCG7ND</t>
+  </si>
+  <si>
+    <t>5kkPOwoE9ItngbGIF6m3A4</t>
+  </si>
+  <si>
+    <t>4PgleR09JVnm3zY1fW3XBA</t>
+  </si>
+  <si>
+    <t>0BvoIfpCiKSobLiXF7QOvN</t>
+  </si>
+  <si>
+    <t>6gmA371eyifTAne65ebsw7</t>
+  </si>
+  <si>
+    <t>Dangerous</t>
+  </si>
+  <si>
+    <t>Chinese Wall</t>
+  </si>
+  <si>
+    <t>Back In Black</t>
+  </si>
+  <si>
+    <t>The Cloud Room</t>
+  </si>
+  <si>
+    <t>Death Valley</t>
+  </si>
+  <si>
+    <t>Summer Pack</t>
+  </si>
+  <si>
+    <t>Bohemian Rhapsody (The Original Soundtrack)</t>
+  </si>
+  <si>
+    <t>Infest</t>
+  </si>
+  <si>
+    <t>Father of All...</t>
+  </si>
+  <si>
+    <t>DECEMBERUNDERGROUND</t>
+  </si>
+  <si>
+    <t>Favourite Worst Nightmare</t>
+  </si>
+  <si>
+    <t>Angles</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>Love Song Dedications</t>
+  </si>
+  <si>
+    <t>Throwing Copper</t>
+  </si>
+  <si>
+    <t>Best of 2001-2009</t>
+  </si>
+  <si>
+    <t>The Platinum Collection</t>
+  </si>
+  <si>
+    <t>Essential - 80's Love</t>
+  </si>
+  <si>
+    <t>So Much For The Afterglow</t>
+  </si>
+  <si>
+    <t>everything i wanted</t>
+  </si>
+  <si>
+    <t>Animalize</t>
+  </si>
+  <si>
+    <t>Splinter</t>
+  </si>
+  <si>
+    <t>Fanmail</t>
+  </si>
+  <si>
+    <t>Summer: The Original Hits</t>
+  </si>
+  <si>
+    <t>Life Thru A Lens</t>
+  </si>
+  <si>
+    <t>So (Remastered)</t>
+  </si>
+  <si>
+    <t>Pure... Dance Party</t>
+  </si>
+  <si>
+    <t>90s Mixtape</t>
+  </si>
+  <si>
+    <t>Shock Value</t>
+  </si>
+  <si>
+    <t>Vienna Greatest Hits</t>
+  </si>
+  <si>
+    <t>Viva Hate (2011 Remaster)</t>
+  </si>
+  <si>
+    <t>Backstreet's Back</t>
+  </si>
+  <si>
+    <t>Fashion Nugget</t>
+  </si>
+  <si>
+    <t>Slowhand 35th Anniversary</t>
+  </si>
+  <si>
+    <t>Untouchables</t>
+  </si>
+  <si>
+    <t>I'm an Albatraoz</t>
+  </si>
+  <si>
+    <t>Dua Lipa (Deluxe)</t>
+  </si>
+  <si>
+    <t>Millennium</t>
+  </si>
+  <si>
+    <t>Mama Africa</t>
+  </si>
+  <si>
+    <t>Global Warming: Meltdown (Deluxe Version)</t>
+  </si>
+  <si>
+    <t>death bed (coffee for your head)</t>
+  </si>
+  <si>
+    <t>In Silico</t>
+  </si>
+  <si>
+    <t>Norman Fucking Rockwell!</t>
+  </si>
+  <si>
+    <t>The Eminem Show</t>
+  </si>
+  <si>
+    <t>No Way Out (2014 Remaster)</t>
+  </si>
+  <si>
+    <t>Don't Worry About Me</t>
+  </si>
+  <si>
+    <t>Night Visions</t>
+  </si>
+  <si>
+    <t>The Seeds Of Love (Super Deluxe)</t>
+  </si>
+  <si>
+    <t>Bang Bang</t>
+  </si>
+  <si>
+    <t>The Invisible Band</t>
+  </si>
+  <si>
+    <t>Skiing Workout Mix</t>
+  </si>
+  <si>
+    <t>Viva La Vida or Death and All His Friends</t>
+  </si>
+  <si>
+    <t>Best Of (English Version)</t>
+  </si>
+  <si>
+    <t>High Voltage</t>
+  </si>
+  <si>
+    <t>Von Anfang An...Bis Jetzt !</t>
+  </si>
+  <si>
+    <t>West Ryder Pauper Lunatic Asylum</t>
+  </si>
+  <si>
+    <t>Rock n Roll Jesus</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>7/27 (Deluxe)</t>
+  </si>
+  <si>
+    <t>Closer</t>
+  </si>
+  <si>
+    <t>Greatest Hits</t>
+  </si>
+  <si>
+    <t>Uptown Special</t>
+  </si>
+  <si>
+    <t>May Death Never Stop You</t>
+  </si>
+  <si>
+    <t>Sunshine on Leith</t>
+  </si>
+  <si>
+    <t>Greatest Hits: My Prerogative</t>
+  </si>
+  <si>
+    <t>Move Along</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>More Monsters and Sprites EP</t>
+  </si>
+  <si>
+    <t>Nine Track Mind</t>
+  </si>
+  <si>
+    <t>The Open Door</t>
+  </si>
+  <si>
+    <t>Woodstock</t>
+  </si>
+  <si>
+    <t>Midnite Vultures</t>
+  </si>
+  <si>
+    <t>Follow The Leader</t>
+  </si>
+  <si>
+    <t>Urban Hymns (Remastered 2016)</t>
+  </si>
+  <si>
+    <t>Youthquake</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>I Love Rock'n'Roll!</t>
+  </si>
+  <si>
+    <t>One Hot Minute (Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>Supernatural (Remastered)</t>
+  </si>
+  <si>
+    <t>Sheryl Crow</t>
+  </si>
+  <si>
+    <t>Synchronicity (Remastered 2003)</t>
+  </si>
+  <si>
+    <t>Nena</t>
+  </si>
+  <si>
+    <t>Out of the Cellar</t>
+  </si>
+  <si>
+    <t>The Fame</t>
+  </si>
+  <si>
+    <t>Heartbreak Weather</t>
+  </si>
+  <si>
+    <t>Raise Your Glass</t>
+  </si>
+  <si>
+    <t>Get Rich Or Die Tryin'</t>
+  </si>
+  <si>
+    <t>A Collection Of Great Dance Songs</t>
+  </si>
+  <si>
+    <t>A Little Bit of Mambo</t>
+  </si>
+  <si>
+    <t>Dead End in Tokyo</t>
+  </si>
+  <si>
+    <t>Words</t>
+  </si>
+  <si>
+    <t>Moving Pictures (2011 Remaster)</t>
+  </si>
+  <si>
+    <t>Kernkraft 400 Single Mixes</t>
+  </si>
+  <si>
+    <t>Pelican West Plus</t>
+  </si>
+  <si>
+    <t>Shaman</t>
+  </si>
+  <si>
+    <t>24K Magic</t>
+  </si>
+  <si>
+    <t>Blondie 4(0)-Ever: Greatest Hits Deluxe Redux / Ghosts Of Download</t>
+  </si>
+  <si>
+    <t>Chun-Li</t>
+  </si>
+  <si>
+    <t>3fMbdgg4jU18AjLCKBhRSm</t>
+  </si>
+  <si>
+    <t>6ZNeppgfBLPUyugks9Yn1u</t>
+  </si>
+  <si>
+    <t>711MCceyCBcFnzjGY4Q7Un</t>
+  </si>
+  <si>
+    <t>4wucqyuotyHg3kBk1aMTTN</t>
+  </si>
+  <si>
+    <t>0J7U24vlOOIeMpuaO6Q85A</t>
+  </si>
+  <si>
+    <t>73sIBHcqh3Z3NyqHKZ7FOL</t>
+  </si>
+  <si>
+    <t>1dfeR4HaWDbWqFHLkxsg1d</t>
+  </si>
+  <si>
+    <t>4RddZ3iHvSpGV4dvATac9X</t>
+  </si>
+  <si>
+    <t>7oPftvlwr6VrsViSDV7fJY</t>
+  </si>
+  <si>
+    <t>19I4tYiChJoxEO5EuviXpz</t>
+  </si>
+  <si>
+    <t>7Ln80lUS6He07XvHI8qqHH</t>
+  </si>
+  <si>
+    <t>0epOFNiUfyON9EYx7Tpr6V</t>
+  </si>
+  <si>
+    <t>0X2BH1fck6amBIoJhDVmmJ</t>
+  </si>
+  <si>
+    <t>3cniTumSiUysiPWXapGx1i</t>
+  </si>
+  <si>
+    <t>6eoJpTIlcuxJNjV5fDzDJH</t>
+  </si>
+  <si>
+    <t>76ptJV8617638xrpeoUtzl</t>
+  </si>
+  <si>
+    <t>3CkvROUTQ6nRi9yQOcsB50</t>
+  </si>
+  <si>
+    <t>0gxyHStUsqpMadRV0Di1Qt</t>
+  </si>
+  <si>
+    <t>694QW15WkebjcrWgQHzRYF</t>
+  </si>
+  <si>
+    <t>6qqNVTkY8uBg9cP3Jd7DAH</t>
+  </si>
+  <si>
+    <t>07XSN3sPlIlB2L2XNcTwJw</t>
+  </si>
+  <si>
+    <t>5LfGQac0EIXyAN8aUwmNAQ</t>
+  </si>
+  <si>
+    <t>0TImkz4nPqjegtVSMZnMRq</t>
+  </si>
+  <si>
+    <t>2eogQKWWoohI3BSnoG7E2U</t>
+  </si>
+  <si>
+    <t>2HcwFjNelS49kFbfvMxQYw</t>
+  </si>
+  <si>
+    <t>7C4sUpWGlTy7IANjruj02I</t>
+  </si>
+  <si>
+    <t>3bmFPbLMiLxtR9tFrTcKcP</t>
+  </si>
+  <si>
+    <t>5N5RfI8FFXk4WQ8kkjE407</t>
+  </si>
+  <si>
+    <t>5Y5TRrQiqgUO4S36tzjIRZ</t>
+  </si>
+  <si>
+    <t>0hLd40hVpRDGENe4KGZLnW</t>
+  </si>
+  <si>
+    <t>3iTsJGG39nMg9YiolUgLMQ</t>
+  </si>
+  <si>
+    <t>5rSXSAkZ67PYJSvpUpkOr7</t>
+  </si>
+  <si>
+    <t>6A43Djmhbe9100UwnI7epV</t>
+  </si>
+  <si>
+    <t>6PAt558ZEZl0DmdXlnjMgD</t>
+  </si>
+  <si>
+    <t>3RNrq3jvMZxD9ZyoOZbQOD</t>
+  </si>
+  <si>
+    <t>5vCOdeiQt9LyzdI87kt5Sh</t>
+  </si>
+  <si>
+    <t>6M2wZ9GZgrQXHCFfjv46we</t>
+  </si>
+  <si>
+    <t>0oea1hwGMfUxZbLxJc1XUN</t>
+  </si>
+  <si>
+    <t>0TnOYISbd1XYRBk9myaseg</t>
+  </si>
+  <si>
+    <t>6bmlMHgSheBauioMgKv2tn</t>
+  </si>
+  <si>
+    <t>7MqnCTCAX6SsIYYdJCQj9B</t>
+  </si>
+  <si>
+    <t>00FQb4jTyendYWaN8pK0wa</t>
+  </si>
+  <si>
+    <t>7dGJo4pcD2V6oG8kP0tJRR</t>
+  </si>
+  <si>
+    <t>59wfkuBoNyhDMQGCljbUbA</t>
+  </si>
+  <si>
+    <t>7dxF7y4hlGFazdArMsxbEx</t>
+  </si>
+  <si>
+    <t>53XhwfbYqKCa1cC15pYq2q</t>
+  </si>
+  <si>
+    <t>4bthk9UfsYUYdcFyqxmSUU</t>
+  </si>
+  <si>
+    <t>2gsggkzM5R49q6jpPvazou</t>
+  </si>
+  <si>
+    <t>3bUwxJgNakzYKkqAVgZLlh</t>
+  </si>
+  <si>
+    <t>6eBYLQONaYZhZNAVK061t6</t>
+  </si>
+  <si>
+    <t>4gzpq5DPGxSnKTe4SA8HAU</t>
+  </si>
+  <si>
+    <t>46aNfN89JrOQTCy97GoCHa</t>
+  </si>
+  <si>
+    <t>7ip3CWlgPZbQHvgJpmcGSS</t>
+  </si>
+  <si>
+    <t>11wRdbnoYqRddKBrpHt4Ue</t>
+  </si>
+  <si>
+    <t>7dOBabd5O4CvKrg4iriHTM</t>
+  </si>
+  <si>
+    <t>4dpARuHxo51G3z768sgnrY</t>
+  </si>
+  <si>
+    <t>1l8Fu6IkuTP0U5QetQJ5Xt</t>
+  </si>
+  <si>
+    <t>69GGBxA162lTqCwzJG5jLp</t>
+  </si>
+  <si>
+    <t>5NGO30tJxFlKixkPSgXcFE</t>
+  </si>
+  <si>
+    <t>3hv9jJF3adDNsBSIQDqcjp</t>
+  </si>
+  <si>
+    <t>7FBcuc1gsnv6Y1nwFtNRCb</t>
+  </si>
+  <si>
+    <t>1A92IAcd7A6npCA33oGM5i</t>
+  </si>
+  <si>
+    <t>26dSoYclwsYLMAKD3tpOr4</t>
+  </si>
+  <si>
+    <t>3vAaWhdBR38Q02ohXqaNHT</t>
+  </si>
+  <si>
+    <t>1vCWHaC5f2uS3yhpwWbIA6</t>
+  </si>
+  <si>
+    <t>5he5w2lnU9x7JFhnwcekXX</t>
+  </si>
+  <si>
+    <t>6VuMaDnrHyPL1p4EHjYLi7</t>
+  </si>
+  <si>
+    <t>5nGIFgo0shDenQYSE0Sn7c</t>
+  </si>
+  <si>
+    <t>4kI8Ie27vjvonwaB2ePh8T</t>
+  </si>
+  <si>
+    <t>0L8ExT028jH3ddEcZwqJJ5</t>
+  </si>
+  <si>
+    <t>3vbKDsSS70ZX9D2OcvbZmS</t>
+  </si>
+  <si>
+    <t>2cGwlqi3k18jFpUyTrsR84</t>
+  </si>
+  <si>
+    <t>5WWSL6rElJeUk3Uc1S2RyD</t>
+  </si>
+  <si>
+    <t>3MZsBdqDrRTJihTHQrO6Dq</t>
+  </si>
+  <si>
+    <t>6eUKZXaKkcviH0Ku9w2n3V</t>
+  </si>
+  <si>
+    <t>0WwSkZ7LtFUFjGjMZBMt6T</t>
+  </si>
+  <si>
+    <t>6GI52t8N5F02MxU0g5U69P</t>
+  </si>
+  <si>
+    <t>4TKTii6gnOnUXQHyuo9JaD</t>
+  </si>
+  <si>
+    <t>6Tz0QRoe083BcOo2YbG9lV</t>
+  </si>
+  <si>
+    <t>3tufWJzpCiAGleBt5TkmTn</t>
+  </si>
+  <si>
+    <t>1HY2Jd0NmPuamShAr6KMms</t>
+  </si>
+  <si>
+    <t>1Hsdzj7Dlq2I7tHP7501T4</t>
+  </si>
+  <si>
+    <t>1KCSPY1glIKqW2TotWuXOR</t>
+  </si>
+  <si>
+    <t>3q7HBObVc0L8jNeTe5Gofh</t>
+  </si>
+  <si>
+    <t>0k17h0D3J5VfsdmQ1iZtE9</t>
+  </si>
+  <si>
+    <t>46lnlnlU0dXTDpoAUmH6Qx</t>
+  </si>
+  <si>
+    <t>3NTbOmzlj2cL86XFuDVFvZ</t>
+  </si>
+  <si>
+    <t>6GnCucI2uDaYj1j39GFxkn</t>
+  </si>
+  <si>
+    <t>2Hkut4rAAyrQxRdof7FVJq</t>
+  </si>
+  <si>
+    <t>7vFpNLbCXbBFs4kFBUlkSl</t>
+  </si>
+  <si>
+    <t>6imyM8T1Xbe8v2iZe41dR7</t>
+  </si>
+  <si>
+    <t>0du5cEVh5yTK9QJze8zA0C</t>
+  </si>
+  <si>
+    <t>4tpUmLEVLCGFr93o8hFFIB</t>
+  </si>
+  <si>
+    <t>0hCNtLu0JehylgoiP8L4Gh</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>Philip Bailey</t>
+  </si>
+  <si>
+    <t>AC/DC</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Childish Gambino</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Papa Roach</t>
+  </si>
+  <si>
+    <t>Green Day</t>
+  </si>
+  <si>
+    <t>AFI</t>
+  </si>
+  <si>
+    <t>Arctic Monkeys</t>
+  </si>
+  <si>
+    <t>The Strokes</t>
+  </si>
+  <si>
+    <t>Ellie Goulding</t>
+  </si>
+  <si>
+    <t>Cutting Crew</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>The Rasmus</t>
+  </si>
+  <si>
+    <t>Genesis</t>
+  </si>
+  <si>
+    <t>Rick Astley</t>
+  </si>
+  <si>
+    <t>Everclear</t>
+  </si>
+  <si>
+    <t>Billie Eilish</t>
+  </si>
+  <si>
+    <t>KISS</t>
+  </si>
+  <si>
+    <t>The Offspring</t>
+  </si>
+  <si>
+    <t>TLC</t>
+  </si>
+  <si>
+    <t>Donna Summer</t>
+  </si>
+  <si>
+    <t>Robbie Williams</t>
+  </si>
+  <si>
+    <t>Peter Gabriel</t>
+  </si>
+  <si>
+    <t>Matthew Wilder</t>
+  </si>
+  <si>
+    <t>Deep Blue Something</t>
+  </si>
+  <si>
+    <t>Timbaland</t>
+  </si>
+  <si>
+    <t>Falco</t>
+  </si>
+  <si>
+    <t>Morrissey</t>
+  </si>
+  <si>
+    <t>Backstreet Boys</t>
+  </si>
+  <si>
+    <t>CAKE</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
   </si>
   <si>
     <t>Korn</t>
   </si>
   <si>
-    <t>Vulgar Display of Power</t>
-  </si>
-  <si>
-    <t>Mezmerize</t>
-  </si>
-  <si>
-    <t>Issues</t>
-  </si>
-  <si>
-    <t>See You On the Other Side</t>
-  </si>
-  <si>
-    <t>Take A Look In The Mirror</t>
-  </si>
-  <si>
-    <t>Follow The Leader</t>
-  </si>
-  <si>
-    <t>The Path of Totality (Special Edition)</t>
-  </si>
-  <si>
-    <t>The Sickness</t>
-  </si>
-  <si>
-    <t>Asylum (Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>Indestructible (Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>One-X</t>
-  </si>
-  <si>
-    <t>Life Starts Now</t>
-  </si>
-  <si>
-    <t>Saturate</t>
-  </si>
-  <si>
-    <t>We Are Not Alone</t>
-  </si>
-  <si>
-    <t>Phobia (Explicit Version)</t>
-  </si>
-  <si>
-    <t>Shallow Bay: The Best Of Breaking Benjamin (Explicit)</t>
-  </si>
-  <si>
-    <t>The Way of the Fist</t>
-  </si>
-  <si>
-    <t>American Capitalist</t>
-  </si>
-  <si>
-    <t>The Wrong Side of Heaven and the Righteous Side of Hell, Vol. 1</t>
-  </si>
-  <si>
-    <t>The Wrong Side of Heaven and the Righteous Side of Hell, Vol. 2</t>
-  </si>
-  <si>
-    <t>Got Your Six (Deluxe)</t>
-  </si>
-  <si>
-    <t>Finding Beauty In Negative Spaces (Bonus Track Version)</t>
-  </si>
-  <si>
-    <t>Karma and Effect</t>
-  </si>
-  <si>
-    <t>Disclaimer II</t>
-  </si>
-  <si>
-    <t>Isolate And Medicate</t>
-  </si>
-  <si>
-    <t>Poison The Parish (Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>Disclaimer</t>
-  </si>
-  <si>
-    <t>Isolate And Medicate (Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>Slipknot</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Vol. 3 The Subliminal Verses</t>
-  </si>
-  <si>
-    <t>.5: The Gray Chapter (Special Edition)</t>
-  </si>
-  <si>
-    <t>ObZen</t>
-  </si>
-  <si>
-    <t>Koloss</t>
-  </si>
-  <si>
-    <t>The Violent Sleep of Reason</t>
-  </si>
-  <si>
-    <t>In Waves</t>
-  </si>
-  <si>
-    <t>Shogun</t>
-  </si>
-  <si>
-    <t>Silence in the Snow (Special Edition)</t>
-  </si>
-  <si>
-    <t>The Sin and the Sentence</t>
-  </si>
-  <si>
-    <t>The Last Hero</t>
-  </si>
-  <si>
-    <t>Fortress</t>
-  </si>
-  <si>
-    <t>AB III</t>
-  </si>
-  <si>
-    <t>Blackbird</t>
-  </si>
-  <si>
-    <t>One Day Remains</t>
-  </si>
-  <si>
-    <t>Hydrograd</t>
-  </si>
-  <si>
-    <t>Judas</t>
-  </si>
-  <si>
-    <t>The Serenity of Suffering</t>
-  </si>
-  <si>
-    <t>Heaven Upside Down</t>
-  </si>
-  <si>
-    <t>Guitar Gangsters &amp; Cadillac Blood</t>
-  </si>
-  <si>
-    <t>Seal The Deal &amp; Let's Boogie</t>
-  </si>
-  <si>
-    <t>Beyond Hell / Above Heaven</t>
-  </si>
-  <si>
-    <t>Faceless</t>
-  </si>
-  <si>
-    <t>Greatest Hits, Vol. 1</t>
-  </si>
-  <si>
-    <t>Meteora</t>
-  </si>
-  <si>
-    <t>Nightmare</t>
-  </si>
-  <si>
-    <t>Fallen</t>
-  </si>
-  <si>
-    <t>That's The Spirit</t>
-  </si>
-  <si>
-    <t>Sempiternal (Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>Hybrid Theory (Bonus Edition)</t>
-  </si>
-  <si>
-    <t>Appeal To Reason</t>
-  </si>
-  <si>
-    <t>Metallica</t>
-  </si>
-  <si>
-    <t>Infest (UK Version)</t>
-  </si>
-  <si>
-    <t>Awake</t>
-  </si>
-  <si>
-    <t>Unleashed</t>
-  </si>
-  <si>
-    <t>Crooked Teeth</t>
-  </si>
-  <si>
-    <t>Getting Away With Murder</t>
-  </si>
-  <si>
-    <t>The Oracle (Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>Scars &amp; Souvenirs</t>
-  </si>
-  <si>
-    <t>Welcome To The Masquerade</t>
-  </si>
-  <si>
-    <t>Avenged Sevenfold</t>
-  </si>
-  <si>
-    <t>Best Of</t>
-  </si>
-  <si>
-    <t>Back Into Your System (Explicit Version)</t>
-  </si>
-  <si>
-    <t>LIVING THINGS</t>
-  </si>
-  <si>
-    <t>05fG473iIaoy82BF1aGhL8</t>
-  </si>
-  <si>
-    <t>0nmQIMXWTXfhgOBdNzhGOs</t>
-  </si>
-  <si>
-    <t>14pVkFUHDL207LzLHtSA18</t>
-  </si>
-  <si>
-    <t>5eAWCfyUhZtHHtBdNk56l1</t>
-  </si>
-  <si>
-    <t>64tNsm6TnZe2zpcMVMOoHL</t>
-  </si>
-  <si>
-    <t>6JW8wliOEwaDZ231ZY7cf4</t>
-  </si>
-  <si>
-    <t>3TOqt5oJwL9BE2NG9MEwDa</t>
-  </si>
-  <si>
-    <t>6gZq1Q6bdOxsUPUG1TaFbF</t>
-  </si>
-  <si>
-    <t>1DFr97A9HnbV3SKTJFu62M</t>
-  </si>
-  <si>
-    <t>0GDGKpJFhVpcjIGF8N6Ewt</t>
-  </si>
-  <si>
-    <t>1Qp56T7n950O3EGMsSl81D</t>
-  </si>
-  <si>
-    <t>6wWVKhxIU2cEi0K81v7HvP</t>
-  </si>
-  <si>
-    <t>2Pfv2w8a20xzC7Dr7QXRqM</t>
-  </si>
-  <si>
-    <t>6Ghvu1VvMGScGpOUJBAHNH</t>
-  </si>
-  <si>
-    <t>17Mb968quDHpjCkIyq30QV</t>
-  </si>
-  <si>
-    <t>1Dvfqq39HxvCJ3GvfeIFuT</t>
-  </si>
-  <si>
-    <t>2VYQTNDsvvKN9wmU5W7xpj</t>
-  </si>
-  <si>
-    <t>37394IP6uhnjIpsawpMu4l</t>
-  </si>
-  <si>
-    <t>278ZYwGhdK6QTzE3MFePnP</t>
-  </si>
-  <si>
-    <t>1E4r4z7ivGUcSAnCbINJ9v</t>
-  </si>
-  <si>
-    <t>3HVdAiMNjYrQIKlOGxoGh5</t>
-  </si>
-  <si>
-    <t>7iWiAD5LLKyiox2grgfmUT</t>
-  </si>
-  <si>
-    <t>3RNrq3jvMZxD9ZyoOZbQOD</t>
-  </si>
-  <si>
-    <t>2xiIXseIJcq3nG7C8fHeBj</t>
-  </si>
-  <si>
-    <t>5BtHciL0e0zOP7prIHn3pP</t>
-  </si>
-  <si>
-    <t>5t28BP42x2axFnqOOMg3CM</t>
-  </si>
-  <si>
-    <t>6B5c4sch27tWHAGdarpPaW</t>
-  </si>
-  <si>
-    <t>3ggwAqZD3lyT2sbovlmfQY</t>
-  </si>
-  <si>
-    <t>4DWX7u8BV0vZIQSpJQQDWU</t>
-  </si>
-  <si>
-    <t>49qiE8dj4JuNdpYGRPdKbF</t>
-  </si>
-  <si>
-    <t>59CIPNdUfewexxn1CJEdp5</t>
-  </si>
-  <si>
-    <t>0L5fC7Ogm2YwgqVCRcF1bT</t>
-  </si>
-  <si>
-    <t>6XyY86QOPPrYVGvF9ch6wz</t>
-  </si>
-  <si>
-    <t>5nGIFgo0shDenQYSE0Sn7c</t>
-  </si>
-  <si>
-    <t>1Ffb6ejR6Fe5IamqA5oRUF</t>
-  </si>
-  <si>
-    <t>6Wr3hh341P84m3EI8qdn9O</t>
-  </si>
-  <si>
-    <t>2ye2Wgw4gimLv2eAKyk1NB</t>
-  </si>
-  <si>
-    <t>4RddZ3iHvSpGV4dvATac9X</t>
-  </si>
-  <si>
-    <t>49bzE5vRBRIota4qeHtQM8</t>
-  </si>
-  <si>
-    <t>74eX4C98E4FCrAMl39qRsJ</t>
-  </si>
-  <si>
-    <t>6GfiCQDFYANz5wUkSmb3Dr</t>
-  </si>
-  <si>
-    <t>3dXaa6jwM7B52GZpaJEIr5</t>
-  </si>
-  <si>
-    <t>5S6hjAxgxjsLylsTtMIimO</t>
-  </si>
-  <si>
-    <t>Pantera</t>
-  </si>
-  <si>
-    <t>System Of A Down</t>
-  </si>
-  <si>
-    <t>Alice In Chains</t>
-  </si>
-  <si>
-    <t>Sepultura</t>
-  </si>
-  <si>
-    <t>Disturbed</t>
-  </si>
-  <si>
-    <t>Godsmack</t>
-  </si>
-  <si>
-    <t>Motörhead</t>
-  </si>
-  <si>
-    <t>Gojira</t>
-  </si>
-  <si>
-    <t>Ghost</t>
-  </si>
-  <si>
-    <t>Rammstein</t>
-  </si>
-  <si>
-    <t>Mudvayne</t>
-  </si>
-  <si>
-    <t>Deftones</t>
-  </si>
-  <si>
-    <t>Hatebreed</t>
-  </si>
-  <si>
-    <t>Mastodon</t>
-  </si>
-  <si>
-    <t>Marilyn Manson</t>
-  </si>
-  <si>
-    <t>Killswitch Engage</t>
-  </si>
-  <si>
-    <t>Trivium</t>
-  </si>
-  <si>
-    <t>Drowning Pool</t>
-  </si>
-  <si>
-    <t>Rob Zombie</t>
-  </si>
-  <si>
-    <t>Bullet For My Valentine</t>
-  </si>
-  <si>
-    <t>Three Days Grace</t>
-  </si>
-  <si>
-    <t>Breaking Benjamin</t>
-  </si>
-  <si>
-    <t>Five Finger Death Punch</t>
-  </si>
-  <si>
-    <t>Seether</t>
-  </si>
-  <si>
-    <t>Meshuggah</t>
-  </si>
-  <si>
-    <t>Alter Bridge</t>
-  </si>
-  <si>
-    <t>Stone Sour</t>
-  </si>
-  <si>
-    <t>Fozzy</t>
-  </si>
-  <si>
-    <t>Volbeat</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
+    <t>AronChupa</t>
+  </si>
+  <si>
+    <t>Dua Lipa</t>
+  </si>
+  <si>
+    <t>Peter Tosh</t>
+  </si>
+  <si>
+    <t>Pitbull</t>
+  </si>
+  <si>
+    <t>Powfu</t>
+  </si>
+  <si>
+    <t>Pendulum</t>
+  </si>
+  <si>
+    <t>Lana Del Rey</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Diddy</t>
+  </si>
+  <si>
+    <t>Joey Ramone</t>
+  </si>
+  <si>
+    <t>Imagine Dragons</t>
+  </si>
+  <si>
+    <t>Tears For Fears</t>
+  </si>
+  <si>
+    <t>Jessie J</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Nina Sky</t>
+  </si>
+  <si>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>Tokio Hotel</t>
+  </si>
+  <si>
+    <t>Peter Schilling</t>
+  </si>
+  <si>
+    <t>Kasabian</t>
+  </si>
+  <si>
+    <t>Kid Rock</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>Fifth Harmony</t>
+  </si>
+  <si>
+    <t>The Chainsmokers</t>
+  </si>
+  <si>
+    <t>The Police</t>
+  </si>
+  <si>
+    <t>Mark Ronson</t>
+  </si>
+  <si>
+    <t>My Chemical Romance</t>
+  </si>
+  <si>
+    <t>The Proclaimers</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>The All-American Rejects</t>
+  </si>
+  <si>
+    <t>Avicii</t>
+  </si>
+  <si>
+    <t>Skrillex</t>
+  </si>
+  <si>
+    <t>Charlie Puth</t>
   </si>
   <si>
     <t>Evanescence</t>
   </si>
   <si>
-    <t>Bring Me The Horizon</t>
-  </si>
-  <si>
-    <t>Rise Against</t>
-  </si>
-  <si>
-    <t>Papa Roach</t>
-  </si>
-  <si>
-    <t>Skillet</t>
-  </si>
-  <si>
-    <t>Theory of a Deadman</t>
-  </si>
-  <si>
-    <t>Thousand Foot Krutch</t>
-  </si>
-  <si>
-    <t>Puddle Of Mudd</t>
-  </si>
-  <si>
-    <t>Saliva</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Slipknot/Vol-3-the-subliminal-verses', 'annotations': {'description': '&lt;p&gt;In 2003, Slipknot moved into The Mansion to work on the album. Initially, the band was unproductive; Corey Taylor was drinking heavily. Nevertheless, they wrote more than enough material for a new album—the band’s first to incorporate more traditional, melodic song structures, guitar solos, and acoustic guitars.&lt;/p&gt;\n\n&lt;p&gt;The album received generally positive reviews. It peaked within the top ten in album sales across eleven countries, and went Platinum in the United States. The band also received the Grammy Award for Best Metal Performance for the song &lt;a href="https://genius.com/Slipknot-before-i-forget-lyrics" rel="noopener" data-api_path="/songs/134527"&gt;“Before I Forget.”&lt;/a&gt; Roadrunner Records have listed the music video for &lt;a href="https://genius.com/Slipknot-duality-lyrics" rel="noopener" data-api_path="/songs/186578"&gt;“Duality”&lt;/a&gt; as the best music video in Roadrunner history.&lt;/p&gt;', 'producers': [{'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Anders Colsefni', 'url': 'https://genius.com/artists/Anders-colsefni'}, {'name': 'Chris Fehn', 'url': 'https://genius.com/artists/Chris-fehn'}, {'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}, {'name': 'Craig Jones', 'url': 'https://genius.com/artists/Craig-jones'}, {'name': 'Jim Root', 'url': 'https://genius.com/artists/Jim-root'}, {'name': 'Joey Jordison', 'url': 'https://genius.com/artists/Joey-jordison'}, {'name': 'Josh Brainard', 'url': 'https://genius.com/artists/Josh-brainard'}, {'name': 'Mick Thomson', 'url': 'https://genius.com/artists/Mick-thomson'}, {'name': 'Paul Gray', 'url': 'https://genius.com/artists/Paul-gray'}, {'name': 'Shawn Crahan', 'url': 'https://genius.com/artists/Shawn-crahan'}, {'name': 'Sid Wilson', 'url': 'https://genius.com/artists/Sid-wilson'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Avenged-sevenfold/Hail-to-the-king', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Hail to the King&lt;/em&gt; is Avenged Sevenfold’s sixth studio album. It is also the first album without &lt;strong&gt;&lt;a href="https://genius.com/artists/Jimmy-the-rev-sullivan" rel="noopener" data-api_path="/artists/1097966"&gt;The Rev&lt;/a&gt;&lt;/strong&gt;, since he had recorded all of his parts for &lt;em&gt;&lt;a href="https://genius.com/albums/Avenged-sevenfold/Nightmare" rel="noopener" data-api_path="/albums/40808"&gt;Nightmare&lt;/a&gt;&lt;/em&gt; before passing away.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.billboard.com/charts/billboard-200/2013-09-14" rel="noopener nofollow"&gt;The album reached #1 on Billboard 200&lt;/a&gt; a couple of weeks after its release.&lt;/p&gt;', 'producers': [{'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}, {'name': 'M. Shadows', 'url': 'https://genius.com/artists/M-shadows'}, {'name': 'Synyster Gates', 'url': 'https://genius.com/artists/Synyster-gates'}, {'name': 'Zacky Vengeance', 'url': 'https://genius.com/artists/Zacky-vengeance'}], 'writers': [{'name': 'Johnny Christ', 'url': 'https://genius.com/artists/Johnny-christ'}, {'name': 'Mr. Shadow', 'url': 'https://genius.com/artists/Mr-shadow'}, {'name': 'M. Shadows', 'url': 'https://genius.com/artists/M-shadows'}, {'name': 'Synyster Gates', 'url': 'https://genius.com/artists/Synyster-gates'}, {'name': 'Zacky Vengeance', 'url': 'https://genius.com/artists/Zacky-vengeance'}], 'labels': [{'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Pantera/Cowboys-from-hell', 'annotations': {'description': '&lt;p&gt;The first &lt;em&gt;true&lt;/em&gt; Pantera album (at least the first that they still acknowledge) and the one that catapulted them into heavy metal relevance. It is not quite like the groove metal they would later release, but at the same time a big departure from their former glam metal records, with a thrash metal-ish sound more than anything.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;While we were writing the songs for Cowboys from Hell, we were listening to a lot of different kinds of music, a lot of &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt;, &lt;a href="https://genius.com/artists/Slayer" rel="noopener" data-api_path="/artists/6596"&gt;Slayer&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mercyful-fate" rel="noopener" data-api_path="/artists/263406"&gt;Mercyful Fate&lt;/a&gt; and &lt;a href="https://genius.com/artists/Minor-threat" rel="noopener" data-api_path="/artists/17538"&gt;Minor Threat&lt;/a&gt;, and that changed our sound. (…) Since we didn’t have to play six shows a night anymore, we had more time to spend in the Abbotts\' studio [Pantego Sound], and we became total perfectionists. Vinnie would lay down all the drums, then Dime would play guitar. We’d put the bass on last. We turned all the drum channels off, and I just played along with Dime’s track. That became known as &lt;em&gt;the microscope&lt;/em&gt;. If something was off, we’d get a razorblade and cut and splice the tape. We didn’t have Pro Tools back then. And that’s what created our trademark sound, where the guitar and bass are just spot-on. By that point, Dime had already surpassed all of his influences as a player, (…) But playing with Pantera back then was even better. We were such good friends, and our chemistry was undeniable. Dime would make these riff tapes on his four-track and bring them in, and we’d turn them into songs. One day, Dime came in with this tape loop of a lick he played over and over in a high register. It drove us crazy, because he wouldn’t stop playing it. That’s what became &lt;em&gt;Cowboys from Hell&lt;/em&gt;, and it was the start of the power groove every band follows today. As much as you still hear that song, when it came out no radio stations would play it. One of my favorite memories is when we did &lt;em&gt;&lt;a href="https://genius.com/Pantera-cemetery-gates-lyrics" rel="noopener" data-api_path="/songs/215159"&gt;Cemetery Gates&lt;/a&gt;&lt;/em&gt;. Dime already had the riff in the song where it starts getting heavy, but we didn’t have an intro. One day, I picked up an acoustic guitar and messed around with a part, which we recorded. We recorded a piano in reverse so that it created this big swell of sound at the end of the section. When we put the acoustic intro together with the heavy part, there it was. That was huge for us, and that’s how all those sessions went. We were all working together with Terry Date, who we liked a lot, even though our first choice was Max Norman. But he canceled at the last minute and we got Terry, who we bonded with from the start.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;-&lt;a href="http://www.guitarworld.com/magazine-gw-archive-features-interviews/rex-brown-recalls-making-panteras-cowboys-hell-vulgar" rel="noopener nofollow"&gt;Rex Brown&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Dimebag Darrell', 'url': 'https://genius.com/artists/Dimebag-darrell'}, {'name': 'Jerry Abbott', 'url': 'https://genius.com/artists/Jerry-abbott'}, {'name': 'Phil Anselmo', 'url': 'https://genius.com/artists/Phil-anselmo'}, {'name': 'Rex Brown', 'url': 'https://genius.com/artists/Rex-brown'}, {'name': 'Terry Date', 'url': 'https://genius.com/artists/Terry-date'}, {'name': 'Vinnie Paul', 'url': 'https://genius.com/artists/Vinnie-paul'}], 'writers': [{'name': 'Dimebag Darrell', 'url': 'https://genius.com/artists/Dimebag-darrell'}, {'name': 'Phil Anselmo', 'url': 'https://genius.com/artists/Phil-anselmo'}, {'name': 'Rex Brown', 'url': 'https://genius.com/artists/Rex-brown'}, {'name': 'Vinnie Paul', 'url': 'https://genius.com/artists/Vinnie-paul'}], 'labels': [{'name': 'ATCO Records', 'url': 'https://genius.com/artists/Atco-records'}, {'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Rhino Atlantic', 'url': 'https://genius.com/artists/Rhino-atlantic'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/System-of-a-down/Toxicity', 'annotations': {'description': '&lt;p&gt;The second album released by heavy metal band System of a Down, Toxicity is arguably the band’s most popular album; it sold approximately 2,700,000 copies in the US alone, and contains three of the band’s biggest hits; &lt;a href="https://genius.com/System-of-a-down-chop-suey-lyrics" rel="noopener" data-api_path="/songs/88430"&gt;“Chop Suey!,”&lt;/a&gt; &lt;a href="https://genius.com/System-of-a-down-toxicity-lyrics" rel="noopener" data-api_path="/songs/80268"&gt;“Toxicity,”&lt;/a&gt; and &lt;a href="https://genius.com/System-of-a-down-aerials-lyrics" rel="noopener" data-api_path="/songs/94438"&gt;“Aerials.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The song “Chop Suey!” was put on the &lt;a href="https://en.wikipedia.org/wiki/2001_Clear_Channel_memorandum" rel="noopener nofollow"&gt;2001 Clear Channel memorandum&lt;/a&gt;, a list of “lyrically questionable” songs released after the 9/11 terrorist attacks.&lt;/p&gt;', 'producers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}, {'name': 'Serj Tankian', 'url': 'https://genius.com/artists/Serj-tankian'}], 'writers': [{'name': 'Andy Khachaturian', 'url': 'https://genius.com/artists/Andy-khachaturian'}, {'name': 'Arto Tunçboyacıyan', 'url': 'https://genius.com/artists/Arto-tuncboyacyan'}, {'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Serj Tankian', 'url': 'https://genius.com/artists/Serj-tankian'}, {'name': 'Shavo Odadjian', 'url': 'https://genius.com/artists/Shavo-odadjian'}], 'labels': [{'name': 'American Recordings', 'url': 'https://genius.com/artists/American-recordings'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Alice-in-chains/Dirt', 'annotations': {'description': '&lt;p&gt;&lt;i&gt;Dirt&lt;/i&gt; is the second studio effort by Seattle grunge band &lt;a href="https://genius.com/artists/Alice-in-chains" rel="noopener" data-api_path="/artists/32179"&gt;Alice in Chains&lt;/a&gt;, released on September 29, 1992 by &lt;a href="https://genius.com/artists/Columbia-records-legacy-recordings" rel="noopener" data-api_path="/artists/578526"&gt;Columbia Records&lt;/a&gt;. It was produced by &lt;a href="https://genius.com/artists/Dave-jerden" rel="noopener" data-api_path="/artists/37569"&gt;Dave Jerden&lt;/a&gt; (who previously worked on their 1990 debut, &lt;a href="https://genius.com/albums/Alice-in-chains/Facelift" rel="noopener" data-api_path="/albums/41376"&gt;&lt;i&gt;Facelift&lt;/i&gt;&lt;/a&gt;) and each member of Alice In Chains, which included singer &lt;a href="https://genius.com/artists/Layne-staley" rel="noopener" data-api_path="/artists/461445"&gt;Layne Staley&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Jerry-cantrell" rel="noopener" data-api_path="/artists/159296"&gt;Jerry Cantrell&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Sean-kinney" rel="noopener" data-api_path="/artists/977426"&gt;Sean Kinney&lt;/a&gt;, and bassist &lt;a href="https://genius.com/artists/Mike-starr" rel="noopener" data-api_path="/artists/1019104"&gt;Mike Starr&lt;/a&gt;. It would be the last album with the original lineup, as Starr was &lt;a href="https://www.answers.com/Q/What_happened_to_Mike_Starr_from_Alice_in_Chains" rel="noopener nofollow"&gt;fired&lt;/a&gt; in January 1993.&lt;/p&gt;\n\n&lt;p&gt;The album was recorded throughout a three-month period lasting from April to July of 1992, of which these sessions began during the first day of the &lt;a href="https://www-m.cnn.com/2013/09/18/us/los-angeles-riots-fast-facts/index.html?r=https%3A%2F%2Fwww.google.com%2F" rel="noopener nofollow"&gt;Los Angeles riots&lt;/a&gt; that were breaking out near the studio the band was recording at.&lt;/p&gt;\n\n&lt;p&gt;The lyrics concern subjects such as mortality, depression, anger, pain, relationships, war, anti-social behavior, and, most notably, drug addiction, with a primary focus on heroin (two of the album’s thirteen tracks, &lt;a href="https://genius.com/Alice-in-chains-junkhead-lyrics" rel="noopener" data-api_path="/songs/199916"&gt;“Junkhead”&lt;/a&gt; and &lt;a href="https://genius.com/Alice-in-chains-god-smack-lyrics" rel="noopener" data-api_path="/songs/199924"&gt;“God Smack,”&lt;/a&gt; explicitly reference heroin use and its effects). However, Cantrell told &lt;a href="https://merchlive.com/rip/" rel="noopener nofollow"&gt;&lt;i&gt;RIP&lt;/i&gt;&lt;/a&gt; magazine in 1993 that not all of the lyrics allude to drugs, stating:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I think &lt;a href="https://genius.com/Alice-in-chains-sickman-lyrics" rel="noopener" data-api_path="/songs/199922"&gt;“Sickman”&lt;/a&gt; is not that bad. I thought most of the hassle would come from “Junkhead” and “God Smack.” Those songs are put in sequence on the second side those five songs from “Junkhead” to &lt;a href="https://genius.com/Alice-in-chains-angry-chair-lyrics" rel="noopener" data-api_path="/songs/391256"&gt;“Angry Chair”&lt;/a&gt; for a reason: Because it tells a story. It starts out with a really young naive attitude with “Junkhead,” like drugs are great, sex is great, rock ‘n’ roll, yeah! Then, as it progresses, there’s a little bit of growing up and a little bit of a realization of what it’s about, and that ain’t what it’s about. I’ve been using this phrase a lot, but it makes a lot of sense: It’s really easy to die; it’s really hard to live. It takes a lot of guts to live. It doesn’t take a lot of guts to die. Those five and “Sickman” are the only ones talking about that type of mentality [drugs]. The rest of the stuff is not like that at all. &lt;a href="https://genius.com/Alice-in-chains-rain-when-i-die-lyrics" rel="noopener" data-api_path="/songs/340586"&gt;“Rain When I Die”&lt;/a&gt; is a song to a girl. There’s a lot of stuff on it. A good portion of it is a story, and it’s meant to be that way. It’s kind of overwhelming and unpleasant at times, unsettling maybe, but that’s why all those songs are together. Even if it’s disturbing, it’s not something anybody else needs to worry about or the way somebody else needs to live their life.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In addition to vocals from Staley and Cantrell, &lt;a href="https://genius.com/artists/Slayer" rel="noopener" data-api_path="/artists/6596"&gt;Slayer&lt;/a&gt; vocalist &lt;a href="https://genius.com/artists/Tom-araya" rel="noopener" data-api_path="/artists/258531"&gt;Tom Araya&lt;/a&gt; provides vocals for the album’s tenth track, the unlisted &lt;a href="https://genius.com/Alice-in-chains-iron-gland-lyrics" rel="noopener" data-api_path="/songs/783197"&gt;“Iron Gland.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;i&gt;Dirt&lt;/i&gt; received acclaim from critics and fans alike, with &lt;a href="https://www.allmusic.com/artist/steve-huey-mn0002165398" rel="noopener nofollow"&gt;Steve Huey&lt;/a&gt; of &lt;a href="https://www.allmusic.com/" rel="noopener nofollow"&gt;AllMusic&lt;/a&gt; hailing &lt;a href="https://www.allmusic.com/album/dirt-mw0000086457" rel="noopener nofollow"&gt;the album&lt;/a&gt; as their “major artistic statement and the closest they ever came to recording a flat-out masterpiece.”&lt;/p&gt;\n\n&lt;p&gt;A total of five singles were released from the album, consisting of &lt;a href="https://genius.com/Alice-in-chains-would-lyrics" rel="noopener" data-api_path="/songs/104577"&gt;Would?,”&lt;/a&gt; &lt;a href="https://genius.com/Alice-in-chains-them-bones-lyrics" rel="noopener" data-api_path="/songs/103949"&gt;“Them Bones,”&lt;/a&gt; the aforementioned “Angry Chair,” &lt;a href="https://genius.com/Alice-in-chains-rooster-lyrics" rel="noopener" data-api_path="/songs/103948"&gt;“Rooster,”&lt;/a&gt; and &lt;a href="https://genius.com/Alice-in-chains-down-in-a-hole-lyrics" rel="noopener" data-api_path="/songs/182172"&gt;“Down in a Hole.”&lt;/a&gt; They all had music videos to accompany them.&lt;/p&gt;\n\n&lt;p&gt;On October 17th, 1992, more than two weeks after its release, &lt;i&gt;Dirt&lt;/i&gt; peaked at No. 6 on the &lt;a href="https://www.billboard.com/music/alice-in-chains/chart-history/billboard-200/song/177616" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt; and stayed on the chart for 102 weeks (nearly two years) ending its run in mid-September of 1994. It has been certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=ALICE+IN+CHAINS&amp;amp;ti=DIRT&amp;amp;lab=&amp;amp;genre=&amp;amp;format=&amp;amp;date_option=release&amp;amp;from=&amp;amp;to=&amp;amp;award=&amp;amp;type=&amp;amp;category=&amp;amp;adv=SEARCH#search_section" rel="noopener nofollow"&gt;4x Platinum&lt;/a&gt; by the &lt;a href="https://www.riaa.com/" rel="noopener nofollow"&gt;RIAA&lt;/a&gt; for sales of (or exceeding) four million. It is the band’s highest-selling album to date.&lt;/p&gt;', 'producers': [{'name': 'Alice in Chains', 'url': 'https://genius.com/artists/Alice-in-chains'}, {'name': 'Dave Jerden', 'url': 'https://genius.com/artists/Dave-jerden'}, {'name': 'Rick Parashar', 'url': 'https://genius.com/artists/Rick-parashar'}], 'writers': [{'name': 'Jerry Cantrell', 'url': 'https://genius.com/artists/Jerry-cantrell'}, {'name': 'Layne Staley', 'url': 'https://genius.com/artists/Layne-staley'}, {'name': 'Mike Starr', 'url': 'https://genius.com/artists/Mike-starr'}, {'name': 'Sean Kinney', 'url': 'https://genius.com/artists/Sean-kinney'}, {'name': 'Tom Araya', 'url': 'https://genius.com/artists/Tom-araya'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Sepultura/Roots', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Roots&lt;/em&gt; is the sixth studio album by Brazilian heavy metal band Sepultura.  It was released in Europe on February 20, 1996 and in the U.S. three weeks later on March 12 by Roadrunner Records.&lt;/p&gt;\n\n&lt;p&gt;The album is a snapshot of the landscape of metal in the mid-‘90s, showcasing diverging influences, and featured mutliple guests.&lt;/p&gt;\n\n&lt;p&gt;The album was groundbreaking in mixing Sepultura’s already evolving “thrash -&amp;gt; groove metal sound evolution” (from  &lt;a href="https://genius.com/albums/Sepultura/Beneath-the-remains" rel="noopener" data-api_path="/albums/148762"&gt;&lt;em&gt;Beneath the Remains&lt;/em&gt;&lt;/a&gt; through to &lt;a href="https://genius.com/albums/Sepultura/Chaos-a-d" rel="noopener" data-api_path="/albums/133479"&gt;&lt;em&gt;Chaos A.D.&lt;/em&gt;&lt;/a&gt; with indiginous and tribal Brazilian music: &lt;a href="https://genius.com/artists/Carlinhos-brown" rel="noopener" data-api_path="/artists/164760"&gt;Carlinhos Brown&lt;/a&gt; is featured (in Portugese) on &lt;a href="https://genius.com/Sepultura-ratamahatta-lyrics" rel="noopener" data-api_path="/songs/1878896"&gt;“Ratamahatta”&lt;/a&gt;, the indiginous &lt;a href="https://en.wikipedia.org/wiki/Xavante" rel="noopener nofollow"&gt;Xavante tribe&lt;/a&gt; are featured, chanting on &lt;a href="https://genius.com/Sepultura-itsari-lyrics" rel="noopener" data-api_path="/songs/2031487"&gt;“Itsári”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Additionally, there is a clear “nu-metal” influence, with a packed guest line-up:&lt;br&gt;\n&lt;a href="https://genius.com/artists/Korn" rel="noopener" data-api_path="/artists/6578"&gt;Korn&lt;/a&gt; vocalist, &lt;a href="https://genius.com/artists/Jonathan-davis" rel="noopener" data-api_path="/artists/5936"&gt;Jonathan Davis&lt;/a&gt;; &lt;a href="https://genius.com/artists/Korn" rel="noopener" data-api_path="/artists/6578"&gt;Korn&lt;/a&gt; drummer, &lt;a href="https://genius.com/artists/David-silveria" rel="noopener" data-api_path="/artists/470129"&gt;David Silveria&lt;/a&gt;; &lt;a href="https://genius.com/artists/limp-bizkit" rel="noopener" data-api_path="/artists/8346"&gt;Limp Bizkit&lt;/a&gt; (and &lt;a href="https://genius.com/artists/House-of-pain" rel="noopener" data-api_path="/artists/942"&gt;House of Pain&lt;/a&gt; turntablist, &lt;a href="https://genius.com/artists/Dj-lethal" rel="noopener" data-api_path="/artists/7302"&gt;DJ Lethal&lt;/a&gt;) and the legendary &lt;a href="https://genius.com/artists/Faith-no-more" rel="noopener" data-api_path="/artists/3931"&gt;Faith No More&lt;/a&gt; and &lt;a href="https://genius.com/artists/Mr-bungle" rel="noopener" data-api_path="/artists/62761"&gt;Mr Bungle&lt;/a&gt; vocalist &lt;a href="https://genius.com/artists/Mike-patton" rel="noopener" data-api_path="/artists/197018"&gt;Mike Patton&lt;/a&gt; all making prominent appearances.&lt;/p&gt;\n\n&lt;p&gt;The album was produced by &lt;a href="https://genius.com/artists/Ross-robinson" rel="noopener" data-api_path="/artists/53061"&gt;Ross Robinson&lt;/a&gt;, who became synonomous with nu-metal, producing Korn’s &lt;a href="https://genius.com/albums/Korn/Korn" rel="noopener" data-api_path="/albums/30738"&gt;first&lt;/a&gt; &lt;a href="https://genius.com/albums/Korn/Life-is-peachy" rel="noopener" data-api_path="/albums/14412"&gt;three&lt;/a&gt; &lt;a href="https://genius.com/albums/Korn/Follow-the-leader" rel="noopener" data-api_path="/albums/5967"&gt;albums&lt;/a&gt;, &lt;a href="https://genius.com/Limp-bizkit-intro-three-dollar-bill-yall-lyrics" rel="noopener" data-api_path="/songs/2475569"&gt;Limp Bizkit’s&lt;/a&gt; &lt;a href="https://genius.com/albums/Limp-bizkit/Three-dollar-bill-y-all" rel="noopener" data-api_path="/albums/15568"&gt;debut&lt;/a&gt;, &lt;a href="https://genius.com/artists/Fear-factory" rel="noopener" data-api_path="/artists/8341"&gt;Fear Factory’s&lt;/a&gt; &lt;a href="https://genius.com/albums/Fear-factory/Concrete" rel="noopener" data-api_path="/albums/197325"&gt;first album demo&lt;/a&gt; as well as &lt;a href="https://genius.com/artists/Slipknot" rel="noopener" data-api_path="/artists/20222"&gt;Slipknot’s&lt;/a&gt; &lt;a href="https://genius.com/albums/Slipknot/Slipknot" rel="noopener" data-api_path="/albums/16908"&gt;first&lt;/a&gt; &lt;a href="https://genius.com/albums/Slipknot/Iowa" rel="noopener" data-api_path="/albums/37763"&gt;two&lt;/a&gt; albums (amongst countless other artists from the time)&lt;/p&gt;\n\n&lt;p&gt;It is the band’s last studio album to feature founding member and vocalist/rhythm guitarist Max Cavalera.  Cavalera left the band’s tour after the death of his stepson Dana Wells (aka D-Low); the band decided to continue without him.  The resulting drama was linked to the rest of the band reluctant to keep Max’s wife (D-Low’s mother) Gloria as band manager.  This last gig was released as the live album &lt;em&gt;Under a Pale Grey Sky&lt;/em&gt; in 2004.&lt;/p&gt;', 'producers': [{'name': 'Ross Robinson', 'url': 'https://genius.com/artists/Ross-robinson'}, {'name': 'Sepultura', 'url': 'https://genius.com/artists/Sepultura'}], 'writers': [{'name': 'Andreas Kisser', 'url': 'https://genius.com/artists/Andreas-kisser'}, {'name': 'Carlinhos Brown', 'url': 'https://genius.com/artists/Carlinhos-brown'}, {'name': 'Dana Wells', 'url': 'https://genius.com/artists/Dana-wells'}, {'name': 'DJ Lethal', 'url': 'https://genius.com/artists/Dj-lethal'}, {'name': 'Igor Cavalera', 'url': 'https://genius.com/artists/Igor-cavalera'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Max Cavalera', 'url': 'https://genius.com/artists/Max-cavalera'}, {'name': 'Paulo Jr.', 'url': 'https://genius.com/artists/Paulo-jr'}, {'name': 'Paulo Pinto, Jr.', 'url': 'https://genius.com/artists/Paulo-pinto-jr'}, {'name': 'Sepultura', 'url': 'https://genius.com/artists/Sepultura'}, {'name': 'Xavante Tribe', 'url': 'https://genius.com/artists/Xavante-tribe'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Disturbed/The-sickness', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Sickness&lt;/em&gt; is the debut studio album by American heavy metal band Disturbed, released on March 7, 2000. The album peaked at number 29 on the &lt;em&gt;Billboard&lt;/em&gt; 200, and has spent a total of 103 weeks on the chart as of June 2010.&lt;br&gt;\nUntil 2018, when &lt;em&gt;&lt;a href="https://genius.com/albums/Disturbed/Evolution" rel="noopener" data-api_path="/albums/454016"&gt;Evolution&lt;/a&gt;&lt;/em&gt; was released, it was the only one of Disturbed’s albums not to hit number one on the Billboard 200.&lt;br&gt;\nIt has been certified 4x platinum by the RIAA, with around 4,248,000 copies sold in the United States alone as of 2011, making it the band’s most successful album.&lt;/p&gt;\n\n&lt;p&gt;The album art shows the birth of a monster known as “The Sickness”.&lt;/p&gt;', 'producers': [{'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'Disturbed', 'url': 'https://genius.com/artists/Disturbed'}, {'name': 'Johnny K', 'url': 'https://genius.com/artists/Johnny-k'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}], 'writers': [{'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'Ian Stanley', 'url': 'https://genius.com/artists/Ian-stanley'}, {'name': 'Michael Wengren', 'url': 'https://genius.com/artists/Michael-wengren'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'Roland Orzabal', 'url': 'https://genius.com/artists/Roland-orzabal'}, {'name': 'Steve “Fuzz” Kmak', 'url': 'https://genius.com/artists/Steve-fuzz-kmak'}], 'labels': [{'name': 'Giant Records', 'url': 'https://genius.com/artists/Giant-records'}, {'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Godsmack/1000hp', 'annotations': {'description': '', 'producers': [{'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}, {'name': 'Sully Erna', 'url': 'https://genius.com/artists/Sully-erna'}], 'writers': [{'name': 'Robbie Merrill', 'url': 'https://genius.com/artists/Robbie-merrill'}, {'name': 'Shannon Larkin', 'url': 'https://genius.com/artists/Shannon-larkin'}, {'name': 'Sully Erna', 'url': 'https://genius.com/artists/Sully-erna'}, {'name': 'Tony Rombola', 'url': 'https://genius.com/artists/Tony-rombola'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Motorhead/Overkill', 'annotations': {'description': '&lt;p&gt;Overkill is the second album by Motörhead, released in 1979. It was their first for Bronze Records, and peaked at #24 on the UK charts. The album had a big impact in the British punk culture of that time.&lt;/p&gt;\n\n&lt;p&gt;This is the perfect Motorhead album, if someone wants to get started with Motorhead… Look no further.&lt;/p&gt;', 'producers': [{'name': 'Eddie Clarke', 'url': 'https://genius.com/artists/Eddie-clarke'}, {'name': 'Jimmy Miller', 'url': 'https://genius.com/artists/Jimmy-miller'}, {'name': 'Lemmy', 'url': 'https://genius.com/artists/Lemmy'}, {'name': 'Neil Richmond', 'url': 'https://genius.com/artists/Neil-richmond'}, {'name': 'Phil Taylor', 'url': 'https://genius.com/artists/Phil-taylor'}], 'writers': [{'name': 'Eddie Clarke', 'url': 'https://genius.com/artists/Eddie-clarke'}, {'name': 'Lemmy', 'url': 'https://genius.com/artists/Lemmy'}, {'name': 'Mick Farren', 'url': 'https://genius.com/artists/Mick-farren'}, {'name': 'Phil Taylor', 'url': 'https://genius.com/artists/Phil-taylor'}, {'name': 'Richard Berry', 'url': 'https://genius.com/artists/Richard-berry'}], 'labels': [{'name': 'Bronze Records', 'url': 'https://genius.com/artists/Bronze-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Gojira/Magma', 'annotations': {'description': '&lt;p&gt;In late 2014, &lt;a href="https://genius.com/artists/Gojira" rel="noopener" data-api_path="/artists/336117"&gt;Gojira&lt;/a&gt; began construction on their own studio in New York, and this entire album was recorded in their new studio. Some time during the recording however, the mother of lead vocalist Joe Duplantier and his brother, drummer Mario Duplantier became ill and passed away. Mario commented on the lyrical content of this album:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;When you read Joe’s lyrics, for me, I cry right away. They’re very deep and to the point. No bullshit. We recycle our sadness and depression in the music.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;It’s clear that the loss of the Duplantiers\' mother had a huge impact on this album. &lt;i&gt;Magma&lt;/i&gt; is a standout in the Gojira discography. It takes a more simplistic, experimental, and even progressive approach than the band’s previous records. Joe commented on this change of direction:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We want a short album. Something less epic than what we usually do. People’s attentions are shorter now. So a lot of the songs are four minutes.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;i&gt;Magma&lt;/i&gt; still features the signature heaviness and aggressive riffs that their fanbase has come to love, and this style can be found on tracks like &lt;i&gt;Silvera&lt;/i&gt;. Don’t be fooled though – this album boasts a wide array of more mellow music that threw fans for a loop. Many fans seem divided by this album due to its out of the ordinary sound by Gojira standards. It has been described as a mix of &lt;a href="https://genius.com/artists/Tool" rel="noopener" data-api_path="/artists/19326"&gt;Tool&lt;/a&gt; and &lt;a href="https://genius.com/artists/Mastodon" rel="noopener" data-api_path="/artists/14779"&gt;Mastodon&lt;/a&gt;, with the signature Gojira sound mixed in. Regardless, &lt;i&gt;Magma&lt;/i&gt; generally received great reviews across the board, adding another fantastic album to the band’s flawless catalog.&lt;/p&gt;', 'producers': [{'name': 'Joe Duplantier', 'url': 'https://genius.com/artists/Joe-duplantier'}], 'writers': [{'name': 'Christian Andreu', 'url': 'https://genius.com/artists/Christian-andreu'}, {'name': 'Jean-Michel Labadie', 'url': 'https://genius.com/artists/Jean-michel-labadie'}, {'name': 'Joe Duplantier', 'url': 'https://genius.com/artists/Joe-duplantier'}, {'name': 'Mario Duplantier', 'url': 'https://genius.com/artists/Mario-duplantier'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Ghost/Meliora', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Meliora&lt;/em&gt; is the third full-length studio album by Swedish heavy metal band Ghost BC. The album was released on August 21, 2015. It marked the retiring of lead vocalist Papa Emeritus II’s stage name, who now goes by Papa Emeritus III.&lt;/p&gt;\n\n&lt;p&gt;From &lt;a href="http://www.revolvermag.com/news/interview-ghosts-nameless-ghoul-talks-succession-of-papas.html" rel="noopener nofollow"&gt;&lt;em&gt;Revolver&lt;/em&gt; Magazine&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It has been widely reported that &lt;em&gt;Meliora&lt;/em&gt; marks the debut of a new singer, Papa Emeritus III, who is the successor of Papa Emeritus I and II— the vocalists on ‘&lt;em&gt;Opus Eponymous&lt;/em&gt;’ and ‘&lt;a href="https://genius.com/Ghost-bc-infestissuman-lyrics" rel="noopener"&gt;&lt;em&gt;Infestissumam&lt;/em&gt;&lt;/a&gt;,’ respectively. The band members are staunch in their assertion that they welcome a new singer with each album to mimic the Catholic Church’s succession of popes—even while conveniently ignoring the fact that it is clear to listeners that each Papa has sounded, well, exactly the same. And yet, Nameless Ghoul is only too happy to expound upon just how much Papa III differs from his ‘Infestissumam’ predecessor.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Klas Åhlund', 'url': 'https://genius.com/artists/Klas-ahlund'}, {'name': 'Nick Raskulinecz', 'url': 'https://genius.com/artists/Nick-raskulinecz'}, {'name': 'Tom Dalgety', 'url': 'https://genius.com/artists/Tom-dalgety'}], 'writers': [{'name': 'Ghost', 'url': 'https://genius.com/artists/Ghost'}, {'name': 'A Ghoul Writer', 'url': 'https://genius.com/artists/A-ghoul-writer'}, {'name': 'Gustaf Lindström', 'url': 'https://genius.com/artists/Gustaf-lindstrom'}, {'name': 'Johan Ingvar Lindström', 'url': 'https://genius.com/artists/Johan-ingvar-lindstrom'}, {'name': 'Klas Åhlund', 'url': 'https://genius.com/artists/Klas-ahlund'}, {'name': 'Martin Persner', 'url': 'https://genius.com/artists/Martin-persner'}, {'name': 'Tobias Forge', 'url': 'https://genius.com/artists/Tobias-forge'}], 'labels': [{'name': 'Loma Vista Recordings', 'url': 'https://genius.com/artists/Loma-vista-recordings'}, {'name': 'Rise Above Records', 'url': 'https://genius.com/artists/Rise-above-records'}, {'name': 'Spinefarm Records', 'url': 'https://genius.com/artists/Spinefarm-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Rammstein/Sehnsucht', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Sehnsucht&lt;/em&gt; (Engl. “Longing”) is the second album by German industrial metal band Rammstein, released on 22 August 1997.&lt;/p&gt;\n\n&lt;p&gt;The album booklet folds out to reveal six different covers, one for each band member (each photo depicting the member with bizarre facial-wear made out of ordinary kitchen objects like spatulas, spoons, forks, etc.). The cover most commonly seen features Till Lindemann with an egg-lifter worn as a muzzle and bent forks over his eyes worn as sunglasses. The cover art was created by Austrian artist &lt;a href="https://en.wikipedia.org/wiki/Gottfried_Helnwein" rel="noopener nofollow"&gt;Gottfried Helnwein&lt;/a&gt; who also created the cover for the Scorpions\' &lt;a href="https://genius.com/albums/Scorpions/Blackout" rel="noopener" data-api_path="/albums/114775"&gt;&lt;em&gt;Blackout&lt;/em&gt;&lt;/a&gt; album, which is very similar to the Sehnsucht cover and even the forks in both covers are the same. Sehnsucht is the only album entirely in German to be certified platinum by the RIAA in the US.&lt;/p&gt;', 'producers': [{'name': 'Jacob Hellner', 'url': 'https://genius.com/artists/Jacob-hellner'}, {'name': 'Rammstein', 'url': 'https://genius.com/artists/Rammstein'}], 'writers': [{'name': 'Christian Lorenz', 'url': 'https://genius.com/artists/Christian-lorenz'}, {'name': 'Christoph Schneider', 'url': 'https://genius.com/artists/Christoph-schneider'}, {'name': 'Jürgen Engler', 'url': 'https://genius.com/artists/Jurgen-engler'}, {'name': 'Martin L. Gore', 'url': 'https://genius.com/artists/Martin-l-gore'}, {'name': 'Oliver Riedel', 'url': 'https://genius.com/artists/Oliver-riedel'}, {'name': 'Orgasm Death Gimmick', 'url': 'https://genius.com/artists/Orgasm-death-gimmick'}, {'name': 'Paul Landers', 'url': 'https://genius.com/artists/Paul-landers'}, {'name': 'Richard Z. Kruspe', 'url': 'https://genius.com/artists/Richard-z-kruspe'}, {'name': 'Till Lindemann', 'url': 'https://genius.com/artists/Till-lindemann'}], 'labels': [{'name': 'London Records', 'url': 'https://genius.com/artists/London-records'}, {'name': 'Motor Music', 'url': 'https://genius.com/artists/Motor-music'}, {'name': 'Slash Records', 'url': 'https://genius.com/artists/Slash-records'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Mudvayne/L-d-50', 'annotations': {'description': '&lt;p&gt;Mudvayne’s debut produced by GGGarth. It features “Dig” and “Death Blooms” and peaked at #1 on the Billboard 200. The lyrics talk about science, self-reflection, addiction, among other topics. The name is a reference to median lethal dose, which kills 50% of animals tested in labs &lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;a href="https://simple.wikipedia.org/wiki/LD50"&gt;\n  &lt;div class="gray_container"&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;LD50 - Simple English Wikipedia, the free encyclopedia&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Wikipedia&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;The test was created by J.W. Trevan in 1927 but has been phased out. The U.S. Food and Drug Administration has begun to approve non-animal alternatives to LD50, in response to research cruelty concerns and the lack of validity/sensitivity of animal tests as they relate to humans.&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt; It got divided reviews from critics, but has since gained a major cult following.', 'producers': [{'name': 'Garth Richardson', 'url': 'https://genius.com/artists/Garth-richardson'}, {'name': 'Mudvayne', 'url': 'https://genius.com/artists/Mudvayne'}, {'name': 'Shawn Crahan', 'url': 'https://genius.com/artists/Shawn-crahan'}], 'writers': [{'name': 'Chad Gray', 'url': 'https://genius.com/artists/Chad-gray'}, {'name': 'Greg Tribbett', 'url': 'https://genius.com/artists/Greg-tribbett'}, {'name': 'Matthew McDonough', 'url': 'https://genius.com/artists/Matthew-mcdonough'}, {'name': 'Ryan Martinie', 'url': 'https://genius.com/artists/Ryan-martinie'}, {'name': 'Terrence McKenna', 'url': 'https://genius.com/artists/Terrence-mckenna'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Deftones/Around-the-fur', 'annotations': {'description': '&lt;p&gt;Deftones\' sophomore LP “&lt;em&gt;Around the Fur&lt;/em&gt;” was released in 1997, and spawned the singles &lt;a href="https://genius.com/Deftones-my-own-summer-shove-it-lyrics" rel="noopener" data-api_path="/songs/187358"&gt;“My Own Summer (Shove It)”&lt;/a&gt; and &lt;a href="https://genius.com/Deftones-be-quiet-and-drive-far-away-lyrics" rel="noopener" data-api_path="/songs/140251"&gt;Be Quiet And Drive (Far Away)&lt;/a&gt;. It contains everything from indecipherable lyrics in &lt;a href="http://rock.genius.com/Deftones-lhabia-lyrics" rel="noopener" data-api_path="/songs/187377"&gt;Lhabia&lt;/a&gt; to songs that simulate a &lt;a href="http://www.genius.com/1964224" rel="noopener" data-api_path="/referents/1964224"&gt;phone sex call with a rock star&lt;/a&gt;, and even some very deep, personal tracks. This album separated Deftones from the tidal wave of ‘90s nu-metal artists and cemented their place in metal. &lt;em&gt;Around the Fur&lt;/em&gt; has been cited as a “root” influence for the rock band &lt;a href="https://genius.com/artists/Muse" rel="noopener" data-api_path="/artists/13088"&gt;Muse&lt;/a&gt; and in live performances, who often uses the riff from “Headup” as an outro to their song &lt;a href="https://genius.com/Muse-new-born-lyrics" rel="noopener" data-api_path="/songs/87131"&gt;“New Born”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Deftones', 'url': 'https://genius.com/artists/Deftones'}, {'name': 'Terry Date', 'url': 'https://genius.com/artists/Terry-date'}], 'writers': [{'name': 'Abe Cunningham', 'url': 'https://genius.com/artists/Abe-cunningham'}, {'name': 'Chi Cheng', 'url': 'https://genius.com/artists/Chi-cheng'}, {'name': 'Chino Moreno', 'url': 'https://genius.com/artists/Chino-moreno'}, {'name': 'Max Cavalera', 'url': 'https://genius.com/artists/Max-cavalera'}, {'name': 'Stephen Carpenter', 'url': 'https://genius.com/artists/Stephen-carpenter'}], 'labels': [{'name': 'Maverick Recording Company', 'url': 'https://genius.com/artists/Maverick-recording-company'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Hatebreed/The-concrete-confessional', 'annotations': {'description': '', 'producers': [{'name': 'Chris “Zeuss” Harris', 'url': 'https://genius.com/artists/Chris-zeuss-harris'}, {'name': 'Jasta', 'url': 'https://genius.com/artists/Jasta'}], 'writers': [{'name': 'Chris Beattie', 'url': 'https://genius.com/artists/Chris-beattie'}, {'name': 'Chris “Zeuss” Harris', 'url': 'https://genius.com/artists/Chris-zeuss-harris'}, {'name': 'Frank Novinec', 'url': 'https://genius.com/artists/Frank-novinec'}, {'name': 'Hatebreed', 'url': 'https://genius.com/artists/Hatebreed'}, {'name': 'Jasta', 'url': 'https://genius.com/artists/Jasta'}, {'name': 'Matt Byrne', 'url': 'https://genius.com/artists/Matt-byrne'}, {'name': 'Wayne Lozinak', 'url': 'https://genius.com/artists/Wayne-lozinak'}], 'labels': [{'name': 'Nuclear Blast', 'url': 'https://genius.com/artists/Nuclear-blast'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Mastodon/Leviathan', 'annotations': {'description': '&lt;p&gt;Mastodon’s second and final album for Relapse Records and its first concept album. This LP is inspired by &lt;a href="https://genius.com/artists/Herman-melville" rel="noopener" data-api_path="/artists/22978"&gt;Herman Melville&lt;/a&gt;’s American classic &lt;a href="https://genius.com/albums/Herman-melville/Moby-dick" rel="noopener" data-api_path="/albums/19489"&gt;&lt;em&gt;Moby Dick&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The album was voted “Album of the Year” in 2004 by Kerrang!, Revolver and Terrorizer magazines.&lt;/p&gt;', 'producers': [{'name': 'Mastodon', 'url': 'https://genius.com/artists/Mastodon'}, {'name': 'Matt Bayles', 'url': 'https://genius.com/artists/Matt-bayles'}], 'writers': [{'name': 'Bill Kelliher', 'url': 'https://genius.com/artists/Bill-kelliher'}, {'name': 'Brann Dailor', 'url': 'https://genius.com/artists/Brann-dailor'}, {'name': 'Brent Hinds', 'url': 'https://genius.com/artists/Brent-hinds'}, {'name': 'Mastodon', 'url': 'https://genius.com/artists/Mastodon'}, {'name': 'Scott Kelly', 'url': 'https://genius.com/artists/Scott-kelly'}, {'name': 'Troy Sanders', 'url': 'https://genius.com/artists/Troy-sanders'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Marilyn-manson/Antichrist-superstar', 'annotations': {'description': '&lt;p&gt;Antichrist Superstar is the second full-length studio album by American rock band Marilyn Manson. It was released on October 8, 1996 in the US through Nothing and Interscope Records. The record’s success in mainstream charts propelled the band to a household name and overnight turned its frontman into an bonafide rock icon. The band’s anti-Christian stance as well as the transgressive and confrontational nature of their music, performance and appearance, led to numerous protests from religious and civic groups such as the American Family Association.&lt;br&gt;\nThe album’s concept is that of a rock opera, and the first installment in a trilogy that includes &lt;a href="https://genius.com/albums/Marilyn-manson/Mechanical-animals" rel="noopener" data-api_path="/albums/44130"&gt;Mechanical Animals&lt;/a&gt; and &lt;a href="https://genius.com/albums/Marilyn-manson/Holy-wood-in-the-shadow-of-the-valley-of-death" rel="noopener" data-api_path="/albums/47250"&gt;Holy Wood (In the Shadow of the Valley of Death)&lt;/a&gt;. After the release of Holy Wood, Manson revealed that the over-arching story within the trilogy is divulged when listening in reverse chronological order. Holy Wood, therefore, begins the story, followed by Mechanical Animals, and concluding with Antichrist Superstar.It was recorded at Nothing Studios in New Orleans and produced by the band’s frontman and Trent Reznor of Nine Inch Nails(&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;a href="http://www.mansonwiki.com/wiki/Antichrist_Superstar_album"&gt;\u200bhttp://www.mansonwiki.com/wiki/Antichrist_Superstar_album&lt;/a&gt;\n&lt;/div&gt;).&lt;br&gt;\nThe album’s title is a takeoff on Andrew Lloyd Webber’s 1971 musical Jesus Christ Superstar, and the album itself is divided into three cycles telling the story of the Worm rising to power and then turning to destruction and nihilism:&lt;br&gt;\nThe Heirophant – consisting of tracks 1 to 4, speaking of the suffering of the Worm and his wish to be one of the powerful and Beautiful people;&lt;br&gt;\nInauguration of the Worm – from track 5 to 11, which tells the story of the Worm morphing into an angel and growing in power;&lt;br&gt;\nDisintegrator Rising – from track 12 to 17, in which the Worm becomes a nihilistic and destructive being, seeking to bring the end of the world that created him.&lt;br&gt;\nThe two last cycles are named in reference to two films by avant-garde filmmaker Kenneth Anger: Inauguration of the Pleasure Dome and Lucifer Rising.&lt;br&gt;\nThe album, despite containing a gap of silence a few minutes long, is cyclical, as both opening and closing seconds include the distorted phrase “When you are suffering, know that I have betrayed you.” When the album is placed on loop, the pacing between the sentences matches that of the additional distorted recitation found in the preceding hidden track.', 'producers': [{'name': 'Dave Ogilvie', 'url': 'https://genius.com/artists/Dave-ogilvie'}, {'name': 'Marilyn Manson', 'url': 'https://genius.com/artists/Marilyn-manson'}, {'name': 'Sean Beavan', 'url': 'https://genius.com/artists/Sean-beavan'}, {'name': 'Trent Reznor', 'url': 'https://genius.com/artists/Trent-reznor'}], 'writers': [{'name': 'Daisy  Berkowitz', 'url': 'https://genius.com/artists/Daisy-berkowitz'}, {'name': 'Jeordie White', 'url': 'https://genius.com/artists/Jeordie-white'}, {'name': 'Madonna Wayne Gacy', 'url': 'https://genius.com/artists/Madonna-wayne-gacy'}, {'name': 'Marilyn Manson', 'url': 'https://genius.com/artists/Marilyn-manson'}, {'name': 'Trent Reznor', 'url': 'https://genius.com/artists/Trent-reznor'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Rammstein/Mutter', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/43933b868f6e1169e45ced9640a1c9f4.443x341x1.jpg" alt="" width="443" height="341" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Third album by German band &lt;a href="https://genius.com/artists/Rammstein" rel="noopener" data-api_path="/artists/16045"&gt;&lt;em&gt;Rammstein&lt;/em&gt;&lt;/a&gt;. It was released on 2 April 2001. Eleven tracks, like any &lt;em&gt;Rammstein&lt;/em&gt; album.&lt;/p&gt;\n\n&lt;p&gt;On one of two Japanese versions, the eleventh track, &lt;a href="https://genius.com/Rammstein-nebel-lyrics" rel="noopener" data-api_path="/songs/64585"&gt;“Nebel,”&lt;/a&gt; contains a hidden track named &lt;a href="https://genius.com/Rammstein-hallelujah-lyrics" rel="noopener" data-api_path="/songs/63624"&gt;“Hallelujah.”&lt;/a&gt;. This hidden track was also released as an individual track on another Japanese version, named “Halleluja” (without the “h”).&lt;/p&gt;', 'producers': [{'name': 'Jacob Hellner', 'url': 'https://genius.com/artists/Jacob-hellner'}, {'name': 'Rammstein', 'url': 'https://genius.com/artists/Rammstein'}], 'writers': [{'name': 'Christian Lorenz', 'url': 'https://genius.com/artists/Christian-lorenz'}, {'name': 'Christoph Schneider', 'url': 'https://genius.com/artists/Christoph-schneider'}, {'name': 'Oliver Riedel', 'url': 'https://genius.com/artists/Oliver-riedel'}, {'name': 'Paul Landers', 'url': 'https://genius.com/artists/Paul-landers'}, {'name': 'Richard Z. Kruspe', 'url': 'https://genius.com/artists/Richard-z-kruspe'}, {'name': 'Till Lindemann', 'url': 'https://genius.com/artists/Till-lindemann'}], 'labels': [{'name': 'Motor Music', 'url': 'https://genius.com/artists/Motor-music'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Killswitch-engage/As-daylight-dies', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;As Daylight Dies&lt;/em&gt; is Killswitch Engage’s fourth studio album, released through Roadrunner Records on November 21st, 2006.&lt;br&gt;\nThe album peaked at &lt;a href="https://www.billboard.com/music/killswitch-engage/chart-history" rel="noopener nofollow"&gt;#32 on the Billboard 200&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.revolvermag.com/music/attitude-over-perfection-killswitch-engage-talk-making-daylight-dies" rel="noopener nofollow"&gt;While making the record&lt;/a&gt; the band was fueled by cheap beer by producer and guitarist – Adam. He wanted to bring out the band’s attitude and let go of the perfection they were striving for with &lt;em&gt;&lt;a href="https://genius.com/albums/Killswitch-engage/The-end-of-heartache" rel="noopener" data-api_path="/albums/58373"&gt;The End Of Heartache&lt;/a&gt;&lt;/em&gt;.&lt;br&gt;\nOne of Adam’s quotes about making a record in the interview with Revolver:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It shouldn’t be science — it should be art.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The album’s best know single – “&lt;a href="https://genius.com/Killswitch-engage-my-curse-lyrics" rel="noopener" data-api_path="/songs/366848"&gt;My Curse&lt;/a&gt;”, is featured in the video game &lt;em&gt;&lt;a href="https://sv.wikipedia.org/wiki/Guitar_Hero_III:_Legends_of_Rock" rel="noopener nofollow"&gt;Guitar Hero III: Legends of Rock&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Adam Dutkiewicz', 'url': 'https://genius.com/artists/Adam-dutkiewicz'}, {'name': 'Joel Stroetzel', 'url': 'https://genius.com/artists/Joel-stroetzel'}], 'writers': [{'name': 'Adam Dutkiewicz', 'url': 'https://genius.com/artists/Adam-dutkiewicz'}, {'name': 'Dio', 'url': 'https://genius.com/artists/Dio'}, {'name': 'Howard Jones (Rock)', 'url': 'https://genius.com/artists/Howard-jones-rock'}, {'name': 'Joel Stroetzel', 'url': 'https://genius.com/artists/Joel-stroetzel'}, {'name': 'Justin Foley', 'url': 'https://genius.com/artists/Justin-foley'}, {'name': 'Killswitch Engage', 'url': 'https://genius.com/artists/Killswitch-engage'}, {'name': 'Mike D’Antonio', 'url': 'https://genius.com/artists/Mike-dantonio'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Trivium/Vengeance-falls', 'annotations': {'description': '', 'producers': [{'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}], 'writers': [{'name': 'Bill Berry', 'url': 'https://genius.com/artists/Bill-berry'}, {'name': 'Corey Beaulieu', 'url': 'https://genius.com/artists/Corey-beaulieu'}, {'name': 'Glenn Danzig', 'url': 'https://genius.com/artists/Glenn-danzig'}, {'name': 'Matthew K. Heafy', 'url': 'https://genius.com/artists/Matthew-k-heafy'}, {'name': 'Michael Stipe', 'url': 'https://genius.com/artists/Michael-stipe'}, {'name': 'Mike Mills (R.E.M.)', 'url': 'https://genius.com/artists/Mike-mills-rem'}, {'name': 'Nick Augusto', 'url': 'https://genius.com/artists/Nick-augusto'}, {'name': 'Paolo Gregoletto', 'url': 'https://genius.com/artists/Paolo-gregoletto'}, {'name': 'Peter Buck', 'url': 'https://genius.com/artists/Peter-buck'}, {'name': 'Trivium', 'url': 'https://genius.com/artists/Trivium'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Slipknot/All-hope-is-gone', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;All Hope Is Gone&lt;/em&gt; is the fourth studio LP from Slipknot. It is also the final album to feature the late &lt;a href="http://en.wikipedia.org/wiki/Paul_Gray_%28American_musician%29" rel="noopener nofollow"&gt;Paul Gray&lt;/a&gt; on bass and former drummer Joey Jordison. It debuted at #1 on the Billboard 200 and also has been certified Platinum. The album also spawned 5 singles with “All Hope Is Gone,” “Psychosocial,” “Dead Memories,” “Sulfur,” and “Snuff.”&lt;/p&gt;\n\n&lt;p&gt;All Hope is Gone is also the only studio LP from Slipknot to be completely recorded in the band’s hometown of Iowa. Members of Slipknot have later gone on the record to offer mixed opinions on the album.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;That’s the only record… the only album done in Iowa, and it’s my least favorite. No tension, no pain, just efficiency. Able to go home, able to sleep… that’s not good. That’s not good for what we do.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—&lt;a href="https://www.youtube.com/watch?v=A87KRoPR6Yg&amp;amp;t=18m22s" rel="noopener nofollow"&gt;Clown, Audibiography: Slipknot by Google Play&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s the least amount of time we spent on pre-production. Not one of my favorite records.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—&lt;a href="https://www.youtube.com/watch?v=A87KRoPR6Yg&amp;amp;t=19m20s" rel="noopener nofollow"&gt;Jim Root, Audibiography: Slipknot by Google Play&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;However, not all members shared this opinion.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I have to say that the band is at its peak; everyone—I mean everyone—is now completely involved in the writing process, and it’s a beautiful thing.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—&lt;a href="https://slipknot.fandom.com/wiki/All_Hope_Is_Gone" rel="noopener nofollow"&gt;Joey Jordison&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Chris Vrenna', 'url': 'https://genius.com/artists/Chris-vrenna'}, {'name': 'Clint Walsh', 'url': 'https://genius.com/artists/Clint-walsh'}, {'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}, {'name': 'Matt Sepanic', 'url': 'https://genius.com/artists/Matt-sepanic'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}, {'name': 'Slipknot', 'url': 'https://genius.com/artists/Slipknot'}], 'writers': [{'name': 'Chris Fehn', 'url': 'https://genius.com/artists/Chris-fehn'}, {'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}, {'name': 'Craig Jones', 'url': 'https://genius.com/artists/Craig-jones'}, {'name': 'Jim Root', 'url': 'https://genius.com/artists/Jim-root'}, {'name': 'Joey Jordison', 'url': 'https://genius.com/artists/Joey-jordison'}, {'name': 'Mick Thomson', 'url': 'https://genius.com/artists/Mick-thomson'}, {'name': 'Paul Gray', 'url': 'https://genius.com/artists/Paul-gray'}, {'name': 'Shawn Crahan', 'url': 'https://genius.com/artists/Shawn-crahan'}, {'name': 'Sid Wilson', 'url': 'https://genius.com/artists/Sid-wilson'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Drowning-pool/Sinner', 'annotations': {'description': '&lt;p&gt;Sinner is the debut studio album by Drowning Pool. It’s the band’s most popular album, being certified platinum in the same year it was released. This was due to “Bodies” which remains the band’s most well-known song. This is the only album to feature original lead singer Dave Williams, who died on August 14, 2002 from cardiomyopathy. The album debuted at #14 on the Billboard 200 chart. Drowning Pool released a reissue of the album called the “Unlucky 13th Anniversary Edition” in 2014. The album was put at #25 on Metal Descent’s list “The 25 Best Alternative Metal Albums”.&lt;/p&gt;', 'producers': [{'name': 'Jay Baumgardner', 'url': 'https://genius.com/artists/Jay-baumgardner'}], 'writers': [{'name': 'C.J. Pierce', 'url': 'https://genius.com/artists/Cj-pierce'}, {'name': 'Dave Williams (Singer)', 'url': 'https://genius.com/artists/Dave-williams-singer'}, {'name': 'Drowning Pool', 'url': 'https://genius.com/artists/Drowning-pool'}, {'name': 'Mike Luce', 'url': 'https://genius.com/artists/Mike-luce'}, {'name': 'Stevie Benton', 'url': 'https://genius.com/artists/Stevie-benton'}], 'labels': [{'name': 'The Bicycle Music Company', 'url': 'https://genius.com/artists/The-bicycle-music-company'}, {'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Disturbed/Ten-thousand-fists', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Ten Thousand Fists&lt;/em&gt; is the third studio album by American metal band Disturbed. It was released on September 20, 2005 and became Disturbed’s second consecutive number 1 debut on the Billboard 200 in the United States, shipping around 239,000 copies in its opening week. It has been certified Platinum by the RIAA and was also the band’s second number 1 release in New Zealand. It is also the first Disturbed album to not have the Parental Advisory label.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Ten Thousand Fists&lt;/em&gt; marks the first album with bassist John Moyer who replaced Steve Kmak following his dismissal in 2003. However, Moyer was considered a session musician during the time of recording, and only became a full-time member during the tour supporting the album. It would be the band’s third and final collaboration with mainstay producer Johnny K. He would later appear full-bodied in the music video for “Land of Confusion”.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Ten Thousand Fists&lt;/em&gt; is, as of 2010, Disturbed’s second highest selling album in the United States, with sales of around 1.9 million copies. &lt;em&gt;The Sickness&lt;/em&gt;, the band’s debut CD, has shifted sales of almost 4.2 million copies in the United States.&lt;/p&gt;\n\n&lt;p&gt;The album was dedicated to &lt;a href="https://en.wikipedia.org/wiki/Dimebag_Darrell" rel="noopener nofollow"&gt;Dimebag Darrell&lt;/a&gt; who was murdered the year before.&lt;/p&gt;', 'producers': [{'name': 'Disturbed', 'url': 'https://genius.com/artists/Disturbed'}, {'name': 'John “Jonny K” Karkazis', 'url': 'https://genius.com/artists/John-jonny-k-karkazis'}, {'name': 'Johnny K', 'url': 'https://genius.com/artists/Johnny-k'}, {'name': 'Johnny Karkazis', 'url': 'https://genius.com/artists/Johnny-karkazis'}], 'writers': [{'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'John Moyer', 'url': 'https://genius.com/artists/John-moyer'}, {'name': 'Michael Wengren', 'url': 'https://genius.com/artists/Michael-wengren'}, {'name': 'Mike Rutherford', 'url': 'https://genius.com/artists/Mike-rutherford'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'Phil Collins', 'url': 'https://genius.com/artists/Phil-collins'}, {'name': 'Tony Banks', 'url': 'https://genius.com/artists/Tony-banks'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Rob-zombie/Past-present-future', 'annotations': {'description': "&lt;p&gt;Past, Present &amp;amp; Future is a 2003 retrospective collection of the music of Rob Zombie. It includes selections of his work with White Zombie and his solo career, as well as two previously unreleased tracks. It won a Metal Edge Readers' Choice Award for Compilation Album of the Year.&lt;/p&gt;", 'producers': [{'name': 'Andy Wallace', 'url': 'https://genius.com/artists/Andy-wallace'}, {'name': 'Bryan Carlstrom', 'url': 'https://genius.com/artists/Bryan-carlstrom'}, {'name': 'Charlie Clouser', 'url': 'https://genius.com/artists/Charlie-clouser'}, {'name': 'Mark Snow', 'url': 'https://genius.com/artists/Mark-snow'}, {'name': 'Rob Zombie', 'url': 'https://genius.com/artists/Rob-zombie'}, {'name': 'Scott Humphrey', 'url': 'https://genius.com/artists/Scott-humphrey'}, {'name': 'Terry Date', 'url': 'https://genius.com/artists/Terry-date'}, {'name': 'Ulrich Wild', 'url': 'https://genius.com/artists/Ulrich-wild'}, {'name': 'White Zombie', 'url': 'https://genius.com/artists/White-zombie'}], 'writers': [{'name': 'Alice Cooper', 'url': 'https://genius.com/artists/Alice-cooper'}, {'name': 'Charlie Clouser', 'url': 'https://genius.com/artists/Charlie-clouser'}, {'name': 'Dee Dee Ramone', 'url': 'https://genius.com/artists/Dee-dee-ramone'}, {'name': 'Harry Wayne Casey', 'url': 'https://genius.com/artists/Harry-wayne-casey'}, {'name': 'Ivan DePrume', 'url': 'https://genius.com/artists/Ivan-deprume'}, {'name': 'Jay Yuenger', 'url': 'https://genius.com/artists/Jay-yuenger'}, {'name': 'Joey Ramone', 'url': 'https://genius.com/artists/Joey-ramone'}, {'name': 'Johnny Ramone', 'url': 'https://genius.com/artists/Johnny-ramone'}, {'name': 'John Tempesta', 'url': 'https://genius.com/artists/John-tempesta'}, {'name': 'Lionel Richie', 'url': 'https://genius.com/artists/Lionel-richie'}, {'name': 'Milan Williams', 'url': 'https://genius.com/artists/Milan-williams'}, {'name': 'Richard Finch', 'url': 'https://genius.com/artists/Richard-finch'}, {'name': 'Rob Zombie', 'url': 'https://genius.com/artists/Rob-zombie'}, {'name': 'Ronald LaPread', 'url': 'https://genius.com/artists/Ronald-lapread'}, {'name': 'Scott Humphrey', 'url': 'https://genius.com/artists/Scott-humphrey'}, {'name': 'Sean Yseult', 'url': 'https://genius.com/artists/Sean-yseult'}, {'name': 'Shauna Reynolds', 'url': 'https://genius.com/artists/Shauna-reynolds'}, {'name': 'Shirley Hanna-King', 'url': 'https://genius.com/artists/Shirley-hanna-king'}, {'name': 'Thomas McClary', 'url': 'https://genius.com/artists/Thomas-mcclary'}, {'name': 'Tommy Ramone', 'url': 'https://genius.com/artists/Tommy-ramone'}, {'name': 'Walter Orange', 'url': 'https://genius.com/artists/Walter-orange'}, {'name': 'White Zombie', 'url': 'https://genius.com/artists/White-zombie'}, {'name': 'William King', 'url': 'https://genius.com/artists/William-king'}], 'labels': [{'name': 'Fox Records', 'url': 'https://genius.com/artists/Fox-records'}, {'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}, {'name': 'Hollywood Records', 'url': 'https://genius.com/artists/Hollywood-records'}, {'name': 'Miramax Films', 'url': 'https://genius.com/artists/Miramax-films'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Bullet-for-my-valentine/Venom', 'annotations': {'description': '', 'producers': [{'name': 'Carl Bown', 'url': 'https://genius.com/artists/Carl-bown'}, {'name': 'Carl Brown', 'url': 'https://genius.com/artists/Carl-brown'}, {'name': 'Colin Richardson', 'url': 'https://genius.com/artists/Colin-richardson'}, {'name': 'Michael “Padge” Paget', 'url': 'https://genius.com/artists/Michael-padge-paget'}], 'writers': [{'name': 'Bullet for My Valentine', 'url': 'https://genius.com/artists/Bullet-for-my-valentine'}, {'name': 'Eddie Clarke', 'url': 'https://genius.com/artists/Eddie-clarke'}, {'name': 'Jason “Jay” James', 'url': 'https://genius.com/artists/Jason-jay-james'}, {'name': 'Lemmy', 'url': 'https://genius.com/artists/Lemmy'}, {'name': 'Matt Tuck', 'url': 'https://genius.com/artists/Matt-tuck'}, {'name': 'Michael “Moose” Thomas', 'url': 'https://genius.com/artists/Michael-moose-thomas'}, {'name': 'Michael “Padge” Paget', 'url': 'https://genius.com/artists/Michael-padge-paget'}, {'name': 'Phil Taylor', 'url': 'https://genius.com/artists/Phil-taylor'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Korn/The-essential-korn', 'annotations': {'description': '', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}, {'name': 'Frank Filipetti', 'url': 'https://genius.com/artists/Frank-filipetti'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Michael Beinhorn', 'url': 'https://genius.com/artists/Michael-beinhorn'}, {'name': 'Ross Robinson', 'url': 'https://genius.com/artists/Ross-robinson'}, {'name': 'Steve Thompson', 'url': 'https://genius.com/artists/Steve-thompson'}, {'name': 'Toby Wright', 'url': 'https://genius.com/artists/Toby-wright'}], 'writers': [{'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Dennis Shinn', 'url': 'https://genius.com/artists/Dennis-shinn'}, {'name': 'Fred Durst', 'url': 'https://genius.com/artists/Fred-durst'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Roger Waters', 'url': 'https://genius.com/artists/Roger-waters'}, {'name': 'Ryan Shuck', 'url': 'https://genius.com/artists/Ryan-shuck'}, {'name': 'Slimkid3', 'url': 'https://genius.com/artists/Slimkid3'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}, {'name': 'Sony Music Entertainment', 'url': 'https://genius.com/artists/Sony-music-entertainment'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Pantera/Vulgar-display-of-power', 'annotations': {'description': '&lt;p&gt;&lt;i&gt;Vulgar Display of Power&lt;/i&gt; is the sixth studio album by heavy metal band &lt;a href="https://genius.com/artists/Pantera" rel="noopener" data-api_path="/artists/63725"&gt;Pantera&lt;/a&gt;. Released on February 25, 1992 by &lt;a href="https://genius.com/artists/Atco-records" rel="noopener" data-api_path="/artists/1215267"&gt;ATCO Records&lt;/a&gt;, the album is often considered one of the most influential heavy metal albums of the 1990s, with &lt;a href="https://loudwire.com/" rel="noopener nofollow"&gt;&lt;i&gt;Loudwire&lt;/i&gt;&lt;/a&gt;’s &lt;a href="https://loudwire.com/top-hard-rock-metal-albums-1990s/" rel="noopener nofollow"&gt;list&lt;/a&gt; of the “Top 90 Hard Rock and Metal Albums of the 1990s” putting the album at No. 2. It continues the path first forged on their previous album, &lt;a href="https://genius.com/albums/Pantera/Cowboys-from-hell" rel="noopener" data-api_path="/albums/44637"&gt;&lt;i&gt;Cowboys from Hell&lt;/i&gt;&lt;/a&gt;, moving further away from the glam metal sound expressed on their first four albums and more towards a groove metal sound.&lt;/p&gt;\n\n&lt;p&gt;Production was handled by &lt;a href="https://genius.com/artists/Terry-date" rel="noopener" data-api_path="/artists/37572"&gt;Terry Date&lt;/a&gt;, who had also produced many other notable releases in the heavy metal and hard rock genres (including Pantera’s own aforementioned &lt;i&gt;Cowboys from Hell&lt;/i&gt;). The album’s title, meanwhile, was taken from a line in the iconic 1973 horror film &lt;a href="https://www.imdb.com/title/tt0070047/" rel="noopener nofollow"&gt;&lt;i&gt;The Exorcist&lt;/i&gt;&lt;/a&gt;. Bassist &lt;a href="https://genius.com/artists/Rex-brown" rel="noopener" data-api_path="/artists/755041"&gt;Rex Brown&lt;/a&gt; said of the album:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;That record came so naturally to us in the studio. We had just gotten off the road and the ‘Walks’ were already written in soundchecks. That record just flowed naturally and seamlessly out of us, because as a band, we were so tight coming out of playing non-stop. I remember the ‘Cowboys’ tour; we only had 38 days off in a year of touring. And then coming directly back in the studio with that fire and that hunger. It’s just an evolution, a natural process, when that came out. Where &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt; had dropped off in the late ‘80s, we saw it was a period of time where it might be our time. And timing had everything to do with it. The timing, the songs, the way the label marketed the band – everything that’s involved. It doesn’t just take four individuals and boom, you’re there.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;i&gt;Vulgar Display of Power&lt;/i&gt; was released to commercial and critical acclaim. In a 4.5/5 star &lt;a href="https://www.allmusic.com/album/vulgar-display-of-power-mw0000277671" rel="noopener nofollow"&gt;review&lt;/a&gt;, &lt;a href="https://www.allmusic.com/artist/steve-huey-mn0002165398" rel="noopener nofollow"&gt;Steve Huey&lt;/a&gt; of &lt;a href="https://www.allmusic.com/" rel="noopener nofollow"&gt;AllMusic&lt;/a&gt; hails the album as “a raw, pulverizing, insanely intense depiction of naked rage and hostility that drains its listeners and pounds them into submission.”&lt;/p&gt;\n\n&lt;p&gt;The album peaked at #44 on the &lt;a href="https://www.billboard.com/music/pantera/chart-history/billboard-200/song/177989" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt; and spent 80 weeks on the chart, becoming their best-selling album and being certified 2x Platinum by the &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=Pantera&amp;amp;ti=vulgar+display+of+power&amp;amp;lab=&amp;amp;genre=&amp;amp;format=&amp;amp;date_option=release&amp;amp;from=&amp;amp;to=&amp;amp;award=&amp;amp;type=&amp;amp;category=&amp;amp;adv=SEARCH#search_section" rel="noopener nofollow"&gt;RIAA&lt;/a&gt;. The album was propelled by the success of its four singles, &lt;a href="https://genius.com/Pantera-mouth-for-war-lyrics" rel="noopener" data-api_path="/songs/199194"&gt;“Mouth for War,”&lt;/a&gt; &lt;a href="https://genius.com/Pantera-this-love-lyrics" rel="noopener" data-api_path="/songs/199206"&gt;“This Love,”&lt;/a&gt; &lt;a href="https://genius.com/Pantera-hollow-lyrics" rel="noopener" data-api_path="/songs/200465"&gt;“Hollow,”&lt;/a&gt; and &lt;a href="https://genius.com/Pantera-walk-lyrics" rel="noopener" data-api_path="/songs/199201"&gt;“Walk,”&lt;/a&gt; the latter of which becoming one of their most recognizable songs.&lt;/p&gt;', 'producers': [{'name': 'Dimebag Darrell', 'url': 'https://genius.com/artists/Dimebag-darrell'}, {'name': 'Phil Anselmo', 'url': 'https://genius.com/artists/Phil-anselmo'}, {'name': 'Rex Brown', 'url': 'https://genius.com/artists/Rex-brown'}, {'name': 'Terry Date', 'url': 'https://genius.com/artists/Terry-date'}, {'name': 'Vinnie Paul', 'url': 'https://genius.com/artists/Vinnie-paul'}], 'writers': [{'name': 'Dimebag Darrell', 'url': 'https://genius.com/artists/Dimebag-darrell'}, {'name': 'Phil Anselmo', 'url': 'https://genius.com/artists/Phil-anselmo'}, {'name': 'Rex Brown', 'url': 'https://genius.com/artists/Rex-brown'}, {'name': 'Vinnie Paul', 'url': 'https://genius.com/artists/Vinnie-paul'}], 'labels': [{'name': 'ATCO Records', 'url': 'https://genius.com/artists/Atco-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/System-of-a-down/Mezmerize', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Mezmerize&lt;/em&gt; is &lt;a href="https://genius.com/artists/System-of-a-down" rel="noopener" data-api_path="/artists/16259"&gt;System of a Down’s&lt;/a&gt; 4th studio album, released on May 17th, 2005, and it hit #1 on Billboard 200 that year. It’s the first half of the double album &lt;em&gt;Mezmerize/&lt;/em&gt;&lt;a href="https://genius.com/albums/System-of-a-down/Hypnotize" rel="noopener" data-api_path="/albums/26057"&gt;&lt;em&gt;Hypnotize&lt;/em&gt;&lt;/a&gt;, the band’s last release. It features &lt;a href="https://genius.com/System-of-a-down-byob-lyrics" rel="noopener" data-api_path="/songs/75978"&gt;“B.Y.O.B.,”&lt;/a&gt; one of SOAD’s greatest hits.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/e9ca2da3a908ea030cd89841d553efa8.1000x504x1.jpg" alt="" width="1000" height="504" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/34cedcc743f687e474d4fd1296ca2288.1000x499x1.jpg" alt="" width="1000" height="499" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Serj Tankian', 'url': 'https://genius.com/artists/Serj-tankian'}], 'labels': [{'name': 'American Recordings', 'url': 'https://genius.com/artists/American-recordings'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Korn/Issues', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Issues&lt;/em&gt; was the band’s fourth studio album, and to date it has sold over 11 millions albums worldwide.&lt;/p&gt;\n\n&lt;p&gt;Released on November 16th, 1999.&lt;/p&gt;\n\n&lt;p&gt;For the album’s cover art, the band and MTV hosted a fan challenge. There were 4 finalists, 3 of which saw limited release, the “rag doll” being the final selection.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;2nd place:&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/0f8bd00b0c3f6c8456f44459a3171082.213x212x1.jpg" alt="" width="213" height="212" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;em&gt;3rd place:&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/48664938072ad925f3d339b203a13d67.211x210x1.jpg" alt="" width="211" height="210" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;em&gt;4th place:&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/df97baf2b65c223540acef79e67c6302.211x212x1.jpg" alt="" width="211" height="212" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;More unknown, the band selected a fifth place finalist for their CDs on the tour to promote the album:&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/f4a2ef89c296321e1d54e6fb934606ab.449x449x1.jpg" alt="" width="449" height="449" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Korn/See-you-on-the-other-side', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;See You on the Other Side&lt;/em&gt; is the seventh studio album by Korn. It was released on December 6, 2005, by Virgin Records. It is their first album without long-time guitarist &lt;a href="https://genius.com/artists/Head?direction=descend&amp;amp;amp;amp;amp;amp;amp;sort=pageviews" rel="noopener" data-api_path="/artists/3977"&gt;Brian “Head” Welch&lt;/a&gt; and the last album with original drummer &lt;a href="http://en.wikipedia.org/wiki/David_Silveria" rel="noopener nofollow"&gt;David Silveria&lt;/a&gt;. The album was first certified gold in the US on January 12, 2006; a subsequent platinum record certification was awarded on March 16, 2006. The album is best known for the involvement of renowned production team “The Matrix” who managed to give Korn’s sound more mainstream acceptability.&lt;/p&gt;', 'producers': [{'name': 'Atticus Ross', 'url': 'https://genius.com/artists/Atticus-ross'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Leo Ross', 'url': 'https://genius.com/artists/Leo-ross'}, {'name': 'The Matrix', 'url': 'https://genius.com/artists/The-matrix'}], 'writers': [{'name': 'Atticus Ross', 'url': 'https://genius.com/artists/Atticus-ross'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Graham Edwards', 'url': 'https://genius.com/artists/Graham-edwards'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Lauren Christy', 'url': 'https://genius.com/artists/Lauren-christy'}, {'name': 'The Matrix', 'url': 'https://genius.com/artists/The-matrix'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Roxanna Ross', 'url': 'https://genius.com/artists/Roxanna-ross'}, {'name': 'Scott Spock', 'url': 'https://genius.com/artists/Scott-spock'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Korn/Take-a-look-in-the-mirror', 'annotations': {'description': '&lt;p&gt;Sixth studio album, officially released on a Friday (which screwed up first week sales) November 21st, 2003. The album debuted on Billboard’s 200 at number 19 (the band’s lowest since their debut album in 1994). To date, it has sold over 2 million copies worldwide.&lt;/p&gt;\n\n&lt;p&gt;The album’s likely most significant fact is that it was founding member, guitar player Brian “Head” Welch’s final album with the band (who later rejoined 8 years later).&lt;/p&gt;', 'producers': [{'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}], 'writers': [{'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}, {'name': 'Nas', 'url': 'https://genius.com/artists/Nas'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}]}}</t>
+    <t>Portugal. The Man</t>
+  </si>
+  <si>
+    <t>Red Hot Chili Peppers</t>
+  </si>
+  <si>
+    <t>Beck</t>
+  </si>
+  <si>
+    <t>The Verve</t>
+  </si>
+  <si>
+    <t>Dead Or Alive</t>
+  </si>
+  <si>
+    <t>Joji</t>
+  </si>
+  <si>
+    <t>Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Dire Straits</t>
+  </si>
+  <si>
+    <t>Santana</t>
+  </si>
+  <si>
+    <t>Ratt</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Niall Horan</t>
+  </si>
+  <si>
+    <t>P!nk</t>
+  </si>
+  <si>
+    <t>50 Cent</t>
+  </si>
+  <si>
+    <t>Pink Floyd</t>
+  </si>
+  <si>
+    <t>Lou Bega</t>
+  </si>
+  <si>
+    <t>MAN WITH A MISSION</t>
+  </si>
+  <si>
+    <t>F.R. David</t>
+  </si>
+  <si>
+    <t>Rush</t>
+  </si>
+  <si>
+    <t>Zombie Nation</t>
+  </si>
+  <si>
+    <t>Haircut 100</t>
+  </si>
+  <si>
+    <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>Blondie</t>
+  </si>
+  <si>
+    <t>Nicki Minaj</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Michael-jackson/Dangerous', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Dangerous&lt;/em&gt; is Michael Jackson’s eighth studio album, released in 1991, and the first since &lt;a href="https://genius.com/albums/Michael-jackson/Forever-michael" rel="noopener" data-api_path="/albums/39261"&gt;&lt;em&gt;Forever, Michael&lt;/em&gt;&lt;/a&gt; not to be produced by &lt;a href="https://genius.com/artists/Quincy-jones" rel="noopener" data-api_path="/artists/2726"&gt;Quincy Jones&lt;/a&gt;. Instead, Jones had recommended New Jack Swing creator &lt;a href="https://genius.com/artists/Teddy-riley" rel="noopener" data-api_path="/artists/3540"&gt;Teddy Riley&lt;/a&gt; to produce the album for Michael, alongside Bruce Sweiden and Bill Bottrell.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Dangerous&lt;/em&gt; would also be the final album during Michael’s lifetime to sell over 30 million units, as the first wave of child abuse allegations occurred two years after the album’s release, and permanently stained his public reputation.&lt;/p&gt;\n\n&lt;p&gt;Fun Fact: “&lt;a href="https://genius.com/Michael-jackson-she-drives-me-wild-lyrics" rel="noopener" data-api_path="/songs/32777"&gt;She Drives Me Wild&lt;/a&gt;”, “&lt;a href="https://genius.com/Michael-jackson-remember-the-time-lyrics" rel="noopener" data-api_path="/songs/188401"&gt;Remember The Time&lt;/a&gt;”, “&lt;a href="https://genius.com/Michael-jackson-cant-let-her-get-away-lyrics" rel="noopener" data-api_path="/songs/188403"&gt;Can’t Let Her Get Away&lt;/a&gt;” were all inspired by Sali Richardson. Teddy speaks about these things in a interview below.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/u4zfoAviNuo?modestbranding=1&amp;amp;start=372&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Bruce Swedien', 'url': 'https://genius.com/artists/Bruce-swedien'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Teddy Riley', 'url': 'https://genius.com/artists/Teddy-riley'}], 'writers': [{'name': 'Aqil Davidson', 'url': 'https://genius.com/artists/Aqil-davidson'}, {'name': 'Bernard Belle', 'url': 'https://genius.com/artists/Bernard-belle'}, {'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Bruce Swedien', 'url': 'https://genius.com/artists/Bruce-swedien'}, {'name': 'Buz Kohan', 'url': 'https://genius.com/artists/Buz-kohan'}, {'name': 'Glen Ballard', 'url': 'https://genius.com/artists/Glen-ballard'}, {'name': 'Larry Grossman', 'url': 'https://genius.com/artists/Larry-grossman'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'René Moore', 'url': 'https://genius.com/artists/Rene-moore'}, {'name': 'Siedah Garrett', 'url': 'https://genius.com/artists/Siedah-garrett'}, {'name': 'Teddy Riley', 'url': 'https://genius.com/artists/Teddy-riley'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Philip-bailey/Chinese-wall', 'annotations': {'description': '', 'producers': [{'name': 'Phil Collins', 'url': 'https://genius.com/artists/Phil-collins'}], 'writers': [{'name': 'Barry Blue', 'url': 'https://genius.com/artists/Barry-blue'}, {'name': 'Billie Hughes', 'url': 'https://genius.com/artists/Billie-hughes'}, {'name': 'Chris Amoo', 'url': 'https://genius.com/artists/Chris-amoo'}, {'name': 'Clif Magness', 'url': 'https://genius.com/artists/Clif-magness'}, {'name': 'Davitt Sigerson', 'url': 'https://genius.com/artists/Davitt-sigerson'}, {'name': 'Eddie Amoo', 'url': 'https://genius.com/artists/Eddie-amoo'}, {'name': 'Gary Skardina', 'url': 'https://genius.com/artists/Gary-skardina'}, {'name': 'Glen Ballard', 'url': 'https://genius.com/artists/Glen-ballard'}, {'name': 'Jerry Knight', 'url': 'https://genius.com/artists/Jerry-knight'}, {'name': 'Julian Littman', 'url': 'https://genius.com/artists/Julian-littman'}, {'name': 'Lillie Mae Clarke', 'url': 'https://genius.com/artists/Lillie-mae-clarke'}, {'name': 'Marcella Detroit', 'url': 'https://genius.com/artists/Marcella-detroit'}, {'name': 'Marti Sharron', 'url': 'https://genius.com/artists/Marti-sharron'}, {'name': 'Nathan East', 'url': 'https://genius.com/artists/Nathan-east'}, {'name': 'Phil Collins', 'url': 'https://genius.com/artists/Phil-collins'}, {'name': 'Philip Bailey', 'url': 'https://genius.com/artists/Philip-bailey'}, {'name': 'Ralph Johnson', 'url': 'https://genius.com/artists/Ralph-johnson'}, {'name': 'Robin Smith', 'url': 'https://genius.com/artists/Robin-smith'}, {'name': 'Roxanne Joy Seeman', 'url': 'https://genius.com/artists/Roxanne-joy-seeman'}, {'name': 'Steven Mitchell', 'url': 'https://genius.com/artists/Steven-mitchell'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Ac-dc/Back-in-black', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Back in Black&lt;/em&gt; is an album by Australian hard rock band AC/DC. It is the 7th Australian and 6th internationally released studio album by the band.&lt;br&gt;\nReleased on 25 July 1980, &lt;em&gt;Back in Black&lt;/em&gt; was the first AC/DC album recorded without their former lead singer Bon Scott, who died on 19 February 1980 at the age of 33, and was dedicated to him. The band considered disbanding following Scott’s death, but they ultimately decided to continue and shortly thereafter hired Brian Johnson as their new lead singer and lyricist. Producer Robert John “Mutt” Lange, who had previously worked with AC/DC on &lt;em&gt;Highway to Hell&lt;/em&gt;, was again brought back in to produce.&lt;/p&gt;\n\n&lt;p&gt;Prominent singles include &lt;a href="https://genius.com/Ac-dc-hells-bells-lyrics" rel="noopener" data-api_path="/songs/75945"&gt;“Hells Bells,”&lt;/a&gt; &lt;a href="https://genius.com/Ac-dc-shoot-to-thrill-lyrics" rel="noopener" data-api_path="/songs/75946"&gt;“Shoot To Thrill,”&lt;/a&gt; &lt;a href="https://genius.com/Ac-dc-you-shook-me-all-night-long-lyrics" rel="noopener" data-api_path="/songs/75951"&gt;“You Shook Me All Night Long,”&lt;/a&gt; and of course &lt;a href="https://genius.com/Ac-dc-back-in-black-lyrics" rel="noopener" data-api_path="/songs/73849"&gt;“Back in Black.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The album was &lt;a href="http://www.riaa.com/goldandplatinum.php?content_selector=top-100-albums" rel="noopener nofollow"&gt;certified platinum 22x by the RIAA&lt;/a&gt;, which ranks the sixth highest on the all-time list.&lt;/p&gt;', 'producers': [{'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}], 'writers': [{'name': 'Angus Young', 'url': 'https://genius.com/artists/Angus-young'}, {'name': 'Brian Johnson', 'url': 'https://genius.com/artists/Brian-johnson'}, {'name': 'Malcolm Young', 'url': 'https://genius.com/artists/Malcolm-young'}], 'labels': [{'name': 'Albert Productions', 'url': 'https://genius.com/artists/Albert-productions'}, {'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'J. Albert and Son', 'url': 'https://genius.com/artists/J-albert-and-son'}, {'name': 'Leidseplein Presse', 'url': 'https://genius.com/artists/Leidseplein-presse'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-cloud-room/The-cloud-room', 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Lp/Death-valley-ep', 'annotations': {'description': '', 'producers': [{'name': 'Ben Romans', 'url': 'https://genius.com/artists/Ben-romans'}, {'name': 'David Thomas', 'url': 'https://genius.com/artists/David-thomas'}, {'name': 'Mike Del Rio', 'url': 'https://genius.com/artists/Mike-del-rio'}], 'writers': [{'name': 'Ben Romans', 'url': 'https://genius.com/artists/Ben-romans'}, {'name': 'David Thomas', 'url': 'https://genius.com/artists/David-thomas'}, {'name': 'Josh Record', 'url': 'https://genius.com/artists/Josh-record'}, {'name': 'LP', 'url': 'https://genius.com/artists/Lp'}, {'name': 'Mike Del Rio', 'url': 'https://genius.com/artists/Mike-del-rio'}, {'name': 'Nate Campany', 'url': 'https://genius.com/artists/Nate-campany'}], 'labels': [{'name': 'Vagrant Records', 'url': 'https://genius.com/artists/Vagrant-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Childish-gambino/Summer-pack', 'annotations': {'description': '&lt;p&gt;Early on July 11, without warning, Gambino shared &lt;a href="https://genius.com/Childish-gambino-summertime-magic-lyrics" rel="noopener" data-api_path="/songs/3831975"&gt;“Summertime Magic”&lt;/a&gt; and &lt;a href="https://genius.com/Childish-gambino-feels-like-summer-lyrics" rel="noopener" data-api_path="/songs/3831972"&gt;“Feels Like Summer.”&lt;/a&gt; The date is significant as it was released exactly in the middle of the summer.&lt;/p&gt;\n\n&lt;p&gt;The track “Summertime Magic” is the first official single from Gambino’s upcoming album that will be released through Wolf+Rothstein/RCA Records, and both records were co-written and co-produced by Gambino and longtime collaborator &lt;a href="https://genius.com/artists/Ludwig-goransson" rel="noopener" data-api_path="/artists/27935"&gt;Ludwig Göransson&lt;/a&gt;. The summer-centric cuts are bundled together on streaming services as a two-song single pack titled &lt;em&gt;Summer Pack&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Childish Gambino', 'url': 'https://genius.com/artists/Childish-gambino'}, {'name': 'Ludwig Göransson', 'url': 'https://genius.com/artists/Ludwig-goransson'}], 'writers': [{'name': 'Childish Gambino', 'url': 'https://genius.com/artists/Childish-gambino'}, {'name': 'Ludwig Göransson', 'url': 'https://genius.com/artists/Ludwig-goransson'}], 'labels': [{'name': '\u200bmcDJ Recording', 'url': 'https://genius.com/artists/Mcdj-recording'}, {'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}, {'name': 'Wolf + Rothstein', 'url': 'https://genius.com/artists/Wolf-rothstein'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Queen/Bohemian-rhapsody-the-original-soundtrack', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/14039054" rel="noopener" data-api_path="/referents/14039054"&gt;&lt;em&gt;Bohemian Rhapsody&lt;/em&gt;&lt;/a&gt; is the Oscar Award-winning &lt;a href="https://genius.com/artists/Freddie-mercury" rel="noopener" data-api_path="/artists/60493"&gt;Freddie Mercury&lt;/a&gt; biopic, released in the United Kingdom on October 23 and 24, 2018, and on November 2, 2018, in the United States. It captures the band’s original &lt;a href="https://genius.com/albums/Queen/Greatest-hits-uk" rel="noopener" data-api_path="/albums/128310"&gt;&lt;em&gt;Greatest Hits&lt;/em&gt;&lt;/a&gt; and landmark performances throughout their 20-year career. The major motion picture and accompanying soundtrack ignited a resurgence in the popularity of Queen’s music, driving the titular classic hit, 1975’s &lt;a href="https://genius.com/Queen-bohemian-rhapsody-lyrics" rel="noopener" data-api_path="/songs/1063"&gt;“Bohemian Rhapsody,”&lt;/a&gt; into its place as the &lt;a href="https://www.billboard.com/articles/business/streaming/8489673/queen-bohemian-rhapsody-20th-century-most-streamed-song" rel="noopener nofollow"&gt;20th Century’s most-streamed song&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Given Queen’s history of globe-trotting stadium spectacle, the movie shines a heavy spotlight on numbers culled from Queen’s live show. For example, mid-way through the film, a rendition of 1977’s &lt;a href="https://genius.com/Queen-we-will-rock-you-movie-mix-lyrics" rel="noopener" data-api_path="/songs/4006436"&gt;“We Will Rock You”&lt;/a&gt; morphs from its studio recording session into a live performance, augmenting the audience participation-factor that the group was famous for. The film’s centerpiece comprises &lt;a href="https://www.youtube.com/watch?v=pM2W7Kmnk_E" rel="noopener nofollow"&gt;cut scenes&lt;/a&gt; that detail the making of “Bohemian Rhapsody,” culminating in a &lt;a href="https://www.thewrap.com/bohemian-rhapsody-fact-check-label-resist-release-single/" rel="noopener nofollow"&gt;fictionalized encounter&lt;/a&gt; with a label executive who attempts to stifle the track’s release.&lt;/p&gt;\n\n&lt;p&gt;The soundtrack closes with one of Queen’s most beloved songs, 1979’s &lt;a href="https://genius.com/Queen-dont-stop-me-now-revisited-lyrics" rel="noopener" data-api_path="/songs/4006432"&gt;“Don’t Stop Me Now”&lt;/a&gt;—complete with new &lt;a href="https://genius.com/artists/Brian-may" rel="noopener" data-api_path="/artists/16631"&gt;Brian May&lt;/a&gt; guitar flourishes. The final track, &lt;a href="https://genius.com/Queen-the-show-must-go-on-2011-remaster-lyrics" rel="noopener" data-api_path="/songs/4006453"&gt;“The Show Must Go On,"&lt;/a&gt; is the appropriately anthemic coda to Mercury’s life; as well as the final cut on Queen’s last album, 1991’s &lt;a href="https://genius.com/albums/Queen/Innuendo" rel="noopener" data-api_path="/albums/16382"&gt;&lt;em&gt;Innuendo&lt;/em&gt;&lt;/a&gt;. Freddie Mercury succumbed to &lt;a href="https://www.theguardian.com/century/1990-1999/Story/0,,112639,00.html" rel="noopener nofollow"&gt;AIDS symptoms&lt;/a&gt; on November 24, 1991.&lt;/p&gt;', 'producers': [{'name': 'Brian May', 'url': 'https://genius.com/artists/Brian-may'}, {'name': 'David Bowie', 'url': 'https://genius.com/artists/David-bowie'}, {'name': 'David Richards', 'url': 'https://genius.com/artists/David-richards'}, {'name': 'Joshua J Macrae', 'url': 'https://genius.com/artists/Joshua-j-macrae'}, {'name': 'Justin Shirley-Smith', 'url': 'https://genius.com/artists/Justin-shirley-smith'}, {'name': 'Kris Fredriksson', 'url': 'https://genius.com/artists/Kris-fredriksson'}, {'name': 'Queen', 'url': 'https://genius.com/artists/Queen'}, {'name': 'Reinhold Mack', 'url': 'https://genius.com/artists/Reinhold-mack'}, {'name': 'Roberto Medina', 'url': 'https://genius.com/artists/Roberto-medina'}, {'name': 'Roger Taylor', 'url': 'https://genius.com/artists/Roger-taylor'}, {'name': 'Roy Thomas Baker', 'url': 'https://genius.com/artists/Roy-thomas-baker'}], 'writers': [{'name': 'Alfred Newman', 'url': 'https://genius.com/artists/Alfred-newman'}, {'name': 'Brian May', 'url': 'https://genius.com/artists/Brian-may'}, {'name': 'David Bowie', 'url': 'https://genius.com/artists/David-bowie'}, {'name': 'Freddie Mercury', 'url': 'https://genius.com/artists/Freddie-mercury'}, {'name': 'John Deacon', 'url': 'https://genius.com/artists/John-deacon'}, {'name': 'Roger Taylor', 'url': 'https://genius.com/artists/Roger-taylor'}, {'name': 'Tim Staffell', 'url': 'https://genius.com/artists/Tim-staffell'}], 'labels': [{'name': 'Elektra Records', 'url': 'https://genius.com/artists/Elektra-records'}, {'name': 'EMI Group Limited', 'url': 'https://genius.com/artists/Emi-group-limited'}, {'name': 'EMI UK', 'url': 'https://genius.com/artists/Emi-uk'}, {'name': 'Hollywood Records', 'url': 'https://genius.com/artists/Hollywood-records'}, {'name': 'Parlophone Records', 'url': 'https://genius.com/artists/Parlophone-records'}, {'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Papa-roach/Infest', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Infest&lt;/em&gt;, released on April 25, 2000, is the sophomore album by Vacaville, CA natives Papa Roach.&lt;/p&gt;\n\n&lt;p&gt;Much of the album contains rapping over Hard Rock and Metal melodies. This sub-genre has come to be known as nu-metal.&lt;/p&gt;\n\n&lt;p&gt;This album was nominated for a Best New Artist Grammy. &lt;em&gt;Infest&lt;/em&gt; sold over three million copies in U.S., making it the 20th highest-selling album of 2000 in the United States. It sold seven million copies worldwide, peaking at #5 on the Billboard charts.&lt;/p&gt;', 'producers': [{'name': 'Jay Baumgardner', 'url': 'https://genius.com/artists/Jay-baumgardner'}], 'writers': [{'name': 'Dave Buckner', 'url': 'https://genius.com/artists/Dave-buckner'}, {'name': 'Jacoby Shaddix', 'url': 'https://genius.com/artists/Jacoby-shaddix'}, {'name': 'Jerry Horton', 'url': 'https://genius.com/artists/Jerry-horton'}, {'name': 'Tobin Esperance', 'url': 'https://genius.com/artists/Tobin-esperance'}], 'labels': [{'name': 'DreamWorks Records', 'url': 'https://genius.com/artists/Dreamworks-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Green-day/Father-of-all-motherfuckers', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Father of All Motherfuckers&lt;/em&gt; (often shortened to &lt;em&gt;Father of All…&lt;/em&gt; as a &lt;a href="https://www.merriam-webster.com/dictionary/G-rated" rel="noopener nofollow"&gt;G rated&lt;/a&gt; title for media and promotion), Green Day’s thirteenth studio album, comes after the critically acclaimed 2016 &lt;a href="https://genius.com/albums/Green-day/Revolution-radio" rel="noopener" data-api_path="/albums/163170"&gt;&lt;em&gt;Revolution Radio&lt;/em&gt;&lt;/a&gt;. Lyrically, &lt;a href="https://www.youtube.com/watch?v=9xtAYY04_p0" rel="noopener nofollow"&gt;according to Armstrong&lt;/a&gt;, the record holds no specific theme; it’s a conglomerate mess of ‘not giving a fuck’. The first single &lt;a href="https://genius.com/Green-day-father-of-all-lyrics" rel="noopener" data-api_path="/songs/4856630"&gt;“Father of All…”&lt;/a&gt; was released on September 10, 2019, alongside the announcement of the &lt;a href="https://www.billboard.com/articles/business/8529565/hella-mega-tour-green-day-fall-out-boy-weezer-dates" rel="noopener nofollow"&gt;&lt;em&gt;Hella Mega Tour&lt;/em&gt;&lt;/a&gt; with &lt;a href="https://genius.com/artists/Fall-out-boy" rel="noopener" data-api_path="/artists/7811"&gt;Fall Out Boy&lt;/a&gt; and &lt;a href="https://genius.com/artists/Weezer" rel="noopener" data-api_path="/artists/12925"&gt;Weezer&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The album was originally believed to be a “fuck you” to &lt;a href="https://genius.com/artists/Warner-music-group-nashville" rel="noopener" data-api_path="/artists/1112276"&gt;Warner Music&lt;/a&gt; and &lt;a href="https://genius.com/artists/Reprise-records" rel="noopener" data-api_path="/artists/1096096"&gt;Reprise&lt;/a&gt;, the labels Green Day have been signed to for several years since their breakout album &lt;a href="https://genius.com/albums/Green-day/Dookie" rel="noopener" data-api_path="/albums/14245"&gt;&lt;i&gt;Dookie&lt;/i&gt;&lt;/a&gt;. Apparently, they had one last album in their contract, so they decided to release this record, a 26-minute exit statement (since an album is considered an LP when it’s over 25 minutes) with only 10 tracks, and then release something else on their own. This all started after several leaks and snipped apparently showed Green Day in the studio recording an album titled &lt;a href="https://genius.com/albums/Panicland/Magnum-opus-of-the-inglorious-kind" rel="noopener" data-api_path="/albums/598931"&gt;&lt;em&gt;Magnum Opus of the Inglorious Kind&lt;/em&gt;&lt;/a&gt;. This was actually a prank made by the band &lt;a href="https://genius.com/artists/Panicland" rel="noopener" data-api_path="/artists/1015328"&gt;Panicland&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/HgbAAuDLutY?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;The second single &lt;a href="https://genius.com/Green-day-fire-ready-aim-lyrics" rel="noopener" data-api_path="/songs/4911310"&gt;“Fire, Ready, Aim,”&lt;/a&gt; which debuted on October 10&lt;sup&gt;th&lt;/sup&gt;, sees the band’s entrance into a &lt;a href="https://www.nhl.com/news/nhl-green-day-two-year-partnership/c-309587012" rel="noopener nofollow"&gt;2-year-partnership contract with the NHL&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The third single &lt;a href="https://genius.com/Green-day-oh-yeah-lyrics" rel="noopener" data-api_path="/songs/5157354"&gt;“Oh Yeah!,”&lt;/a&gt; which was originally titled “Bulletproof Backpack”, released January 16&lt;sup&gt;th&lt;/sup&gt;.&lt;/p&gt;', 'producers': [{'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}, {'name': 'Butch Walker', 'url': 'https://genius.com/artists/Butch-walker'}, {'name': 'Chris Dugan', 'url': 'https://genius.com/artists/Chris-dugan'}, {'name': 'Green Day', 'url': 'https://genius.com/artists/Green-day'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}], 'writers': [{'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Afi/Decemberunderground', 'annotations': {'description': '&lt;p&gt;“Decemberunderground” is the seventh studio album by &lt;a href="https://genius.com/artists/Afi" rel="noopener" data-api_path="/artists/36520"&gt;AFI&lt;/a&gt;, which was released on June 6, 2006 through &lt;a href="https://genius.com/artists/Interscope-records" rel="noopener" data-api_path="/artists/143490"&gt;Interscope Records&lt;/a&gt;. There are three singles featured in the album, which include &lt;a href="https://genius.com/Afi-miss-murder-lyrics" rel="noopener" data-api_path="/songs/221444"&gt;Miss Murder&lt;/a&gt;, &lt;a href="https://genius.com/Afi-love-like-winter-lyrics" rel="noopener" data-api_path="/songs/748583"&gt;Love Like Winter&lt;/a&gt;, and &lt;a href="https://genius.com/Afi-the-missing-frame-lyrics" rel="noopener" data-api_path="/songs/775292"&gt;The Missing Frame&lt;/a&gt;. The album debuted number one on the &lt;a href="https://genius.com/artists/Billboard" rel="noopener" data-api_path="/artists/34510"&gt;Billboard&lt;/a&gt; 200, which had 182,000 copies sold by the first week. Decemberunderground was certified gold by RIAA (Recording Industry Association of America) on August 30, 2006. In March 2007, AFI went on a short west coast tour based on the album. Also, as of September 2009, there were about 993,000 copies sold of the album in the United States. To add along, Decemberunderground hit platinum in April 2013.&lt;/p&gt;', 'producers': [{'name': 'Jerry Finn', 'url': 'https://genius.com/artists/Jerry-finn'}], 'writers': [{'name': 'Adam Carson', 'url': 'https://genius.com/artists/Adam-carson'}, {'name': 'AFI', 'url': 'https://genius.com/artists/Afi'}, {'name': 'Davey Havok', 'url': 'https://genius.com/artists/Davey-havok'}, {'name': 'Hunter Burgan', 'url': 'https://genius.com/artists/Hunter-burgan'}, {'name': 'Jade Puget', 'url': 'https://genius.com/artists/Jade-puget'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Arctic-monkeys/Favourite-worst-nightmare', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Favourite Worst Nightmare&lt;/em&gt; is Arctic Monkeys\' second studio album, and a follow up to the grimy, uncut &lt;a href="https://genius.com/albums/Arctic-monkeys/Whatever-people-say-i-am-that-s-what-i-m-not" rel="noopener" data-api_path="/albums/13108"&gt;&lt;em&gt;Whatever People Say I Am, That’s What I’m Not&lt;/em&gt;&lt;/a&gt;. The album was an ambitious step forward from their debut, with much cleaner sounds and tighter hooks. The melodies are reminiscent of influences from &lt;a href="https://genius.com/artists/The-strokes" rel="noopener" data-api_path="/artists/12524"&gt;The Strokes&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-smiths" rel="noopener" data-api_path="/artists/16669"&gt;The Smiths&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Frontman Alex Turner explained the album title &lt;a href="https://www.uncut.co.uk/features/alex-turner-q-a-42884/" rel="noopener nofollow"&gt;during an interview for UNCUT&lt;/a&gt;.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;This time it’s from a lyric in one of the songs. I’ve been finding it hard to describe, actually. But there’s a lyric in the ’D is for Dangerous\' song, and it seemed to tick all the boxes for what we were after in a title. As far as concerns what is your favourite worst nightmare, I think I’d describe it by saying it’s like someone with a gambling addiction – they get something out of it, but they know it’s bad for them. But in the song it’s more to do with… a woman.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In the same interview, he described the recording process:&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;The recording of the first one was a swift thing, because we had all the songs and the order and everything all planned. We’d also played all of those songs live, and we’d had some of them for a year, even then. With these songs, we hadn’t played the before recording them – we’ve played them at three gigs so far, six of the ones off the record and one B-side.&lt;/p&gt;\n\n&lt;p&gt;We spent a bit more time, because we’re a bit more into sounds – there’d be bits, or guitar sounds that we liked, and wanted to do bits like that. The drum sounds we wanted to get sounding really fat. We did a session with [producers] James Ford and Mike Crossley on the last record and got on really well, and wanted to do something else – all year round I was thinking, ‘I want to try with them two…’. They were very involved in getting the sounds.&lt;/p&gt;\n&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;em&gt;Favourite Worst Nightmare&lt;/em&gt; &lt;a href="https://www.billboard.com/music/arctic-monkeys/chart-history/billboard-200/song/527331" rel="noopener nofollow"&gt;peaked at #7&lt;/a&gt; on the Billboard 200, about three weeks after its initial release. The LP stayed on the chart for 8 weeks.&lt;/p&gt;', 'producers': [{'name': 'James Ford', 'url': 'https://genius.com/artists/James-ford'}, {'name': 'Mike Crossey', 'url': 'https://genius.com/artists/Mike-crossey'}], 'writers': [{'name': 'Alex Turner', 'url': 'https://genius.com/artists/Alex-turner'}, {'name': 'Johanna Bennett', 'url': 'https://genius.com/artists/Johanna-bennett'}, {'name': 'Jon McClure', 'url': 'https://genius.com/artists/Jon-mcclure'}], 'labels': [{'name': 'Domino Recording Company', 'url': 'https://genius.com/artists/Domino-recording-company'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-strokes/Angles', 'annotations': {'description': '&lt;p&gt;Angles is the fourth studio album by The Strokes, released on March 18, 2011.&lt;/p&gt;\n\n&lt;p&gt;5 years following the polarizing and raw First Impressions of Earth in 2006, The Strokes take a more pop direction with a lot of variety between tracks on Angles.&lt;/p&gt;\n\n&lt;p&gt;The recording during Angles proved to be difficult. Julian Casablancas who previously had written most of the Strokes material had stepped back a bit to allow the rest of the band pick up songwriting duties. .He did this by recording vocals separately in New York and sending them to the band electronically. Nick Valensi is quoted describing the situation as incredibly frustrating, and that he wouldn’t do another record if it was done again. Albert Hammond Jr. drug abuse and resulting rehab was also another hurdle in recording.&lt;/p&gt;\n\n&lt;p&gt;It was generally well received by the media and contains many fan favorites such as “Machu Picchu”, “Under Cover of Darkness, "Taken For a Fool”, and “Life Is Simple In the Moonlight.&lt;/p&gt;', 'producers': [{'name': 'Gus Oberg', 'url': 'https://genius.com/artists/Gus-oberg'}, {'name': 'Joe Chiccarelli', 'url': 'https://genius.com/artists/Joe-chiccarelli'}, {'name': 'The Strokes', 'url': 'https://genius.com/artists/The-strokes'}], 'writers': [{'name': 'Albert Hammond Jr.', 'url': 'https://genius.com/artists/Albert-hammond-jr'}, {'name': 'Fabrizio Moretti', 'url': 'https://genius.com/artists/Fabrizio-moretti'}, {'name': 'Julian Casablancas', 'url': 'https://genius.com/artists/Julian-casablancas'}, {'name': 'Nick Valensi', 'url': 'https://genius.com/artists/Nick-valensi'}, {'name': 'Nikolai Fraiture', 'url': 'https://genius.com/artists/Nikolai-fraiture'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Ellie-goulding/Burn-remixes', 'annotations': {'description': '', 'producers': [{'name': 'Magic Man', 'url': 'https://genius.com/artists/Magic-man'}, {'name': 'Maths Time Joy', 'url': 'https://genius.com/artists/Maths-time-joy'}, {'name': 'Mat Zo', 'url': 'https://genius.com/artists/Mat-zo'}, {'name': 'Tiësto', 'url': 'https://genius.com/artists/Tiesto'}], 'writers': [{'name': 'Brent Kutzle', 'url': 'https://genius.com/artists/Brent-kutzle'}, {'name': 'Ellie Goulding', 'url': 'https://genius.com/artists/Ellie-goulding'}, {'name': 'Greg Kurstin', 'url': 'https://genius.com/artists/Greg-kurstin'}, {'name': 'Noel Zancanella', 'url': 'https://genius.com/artists/Noel-zancanella'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Live-band/Throwing-copper', 'annotations': {'description': '&lt;p&gt;Produced by Jerry Harrison of &lt;a href="https://genius.com/artists/Talking-heads" rel="noopener" data-api_path="/artists/13347"&gt;Talking Heads&lt;/a&gt;, to date the album has sold over eight million copies. Purchase your’s &lt;a href="http://www.amazon.com/Throwing-Copper-Live/dp/B000003BR4" rel="noopener nofollow"&gt;here&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Jerry Harrison', 'url': 'https://genius.com/artists/Jerry-harrison'}, {'name': 'LIVE (Band)', 'url': 'https://genius.com/artists/Live-band'}], 'writers': [{'name': 'Chad Gracey', 'url': 'https://genius.com/artists/Chad-gracey'}, {'name': 'Chad Taylor', 'url': 'https://genius.com/artists/Chad-taylor'}, {'name': 'Ed Kowalczyk', 'url': 'https://genius.com/artists/Ed-kowalczyk'}, {'name': 'LIVE (Band)', 'url': 'https://genius.com/artists/Live-band'}, {'name': 'Patrick Dahlheimer', 'url': 'https://genius.com/artists/Patrick-dahlheimer'}], 'labels': [{'name': 'Radioactive Records', 'url': 'https://genius.com/artists/Radioactive-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-rasmus/Best-of-the-rasmus-20012009', 'annotations': {'description': '', 'producers': [{'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'Harry Sommerdahl', 'url': 'https://genius.com/artists/Harry-sommerdahl'}, {'name': 'Martin Hansen', 'url': 'https://genius.com/artists/Martin-hansen'}, {'name': 'Mikael Nord', 'url': 'https://genius.com/artists/Mikael-nord'}], 'writers': [{'name': 'Aki Hakala', 'url': 'https://genius.com/artists/Aki-hakala'}, {'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'Eero Heinonen', 'url': 'https://genius.com/artists/Eero-heinonen'}, {'name': 'Harry Sommerdahl', 'url': 'https://genius.com/artists/Harry-sommerdahl'}, {'name': 'James Michael', 'url': 'https://genius.com/artists/James-michael'}, {'name': 'Lauri', 'url': 'https://genius.com/artists/Lauri'}, {'name': 'Pauli Rantasalmi', 'url': 'https://genius.com/artists/Pauli-rantasalmi'}, {'name': 'The Rasmus', 'url': 'https://genius.com/artists/The-rasmus'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Everclear/So-much-for-the-afterglow', 'annotations': {'description': '&lt;p&gt;Everclear’s third studio album remains their best-selling album to date, likely because it launched the band into mainstream air and video play, attracting many new fans. The band toned down their heavy sound slightly, but so many of the lyrics could be interpreted in ways that made a number of people relate to them, making them willing to shout along with songs that may have been slightly louder and crunchier than what they normally listened to.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;So Much for the Afterglow&lt;/em&gt; delivered a number of popular, relatable singles: “&lt;a href="https://genius.com/Everclear-everything-to-everyone-lyrics" rel="noopener" data-api_path="/songs/2141204"&gt;Everything to Everyone&lt;/a&gt;”, “&lt;a href="https://genius.com/Everclear-i-will-buy-you-a-new-life-lyrics" rel="noopener" data-api_path="/songs/416685"&gt;I Will Buy You a New Life&lt;/a&gt;”, “&lt;a href="https://genius.com/Everclear-father-of-mine-lyrics" rel="noopener" data-api_path="/songs/85560"&gt;Father of Mine&lt;/a&gt;”, “&lt;a href="https://genius.com/Everclear-so-much-for-the-afterglow-lyrics" rel="noopener" data-api_path="/songs/738298"&gt;So Much for the Afterglow&lt;/a&gt;”, and “&lt;a href="https://genius.com/Everclear-one-hit-wonder-lyrics" rel="noopener" data-api_path="/songs/939402"&gt;One Hit Wonder&lt;/a&gt;.”&lt;/p&gt;', 'producers': [{'name': 'Art Alexakis', 'url': 'https://genius.com/artists/Art-alexakis'}, {'name': 'Neal Avron', 'url': 'https://genius.com/artists/Neal-avron'}], 'writers': [{'name': 'Art Alexakis', 'url': 'https://genius.com/artists/Art-alexakis'}, {'name': 'Craig Montoya', 'url': 'https://genius.com/artists/Craig-montoya'}, {'name': 'Greg Eklund', 'url': 'https://genius.com/artists/Greg-eklund'}, {'name': 'Nobuyoshi Koshibe', 'url': 'https://genius.com/artists/Nobuyoshi-koshibe'}, {'name': 'Peter Fernandez', 'url': 'https://genius.com/artists/Peter-fernandez'}, {'name': 'Rick Nielsen', 'url': 'https://genius.com/artists/Rick-nielsen'}, {'name': 'Tom Petersson', 'url': 'https://genius.com/artists/Tom-petersson'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Kiss/Animalize', 'annotations': {'description': '', 'producers': [{'name': 'Paul Stanley', 'url': 'https://genius.com/artists/Paul-stanley'}], 'writers': [{'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'Eric Carr', 'url': 'https://genius.com/artists/Eric-carr'}, {'name': 'Gene Simmons', 'url': 'https://genius.com/artists/Gene-simmons'}, {'name': 'Jean Beauvoir', 'url': 'https://genius.com/artists/Jean-beauvoir'}, {'name': 'Mitch Weissman', 'url': 'https://genius.com/artists/Mitch-weissman'}, {'name': 'Paul Stanley', 'url': 'https://genius.com/artists/Paul-stanley'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-offspring/Splinter', 'annotations': {'description': '&lt;p&gt;“Splinter” is the seventh studio released album by &lt;a href="https://genius.com/artists/The-offspring" rel="noopener" data-api_path="/artists/8353"&gt;The Offspring&lt;/a&gt;, Released on December 9, 2003.&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'Dexter Holland', 'url': 'https://genius.com/artists/Dexter-holland'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Tlc/Fanmail', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;FanMail&lt;/em&gt; is TLC’s third studio album. It was released on February 23, 1999 by LaFace Records. The title of the album is a tribute to their fans who sent them fan mail during their five year gap between their previous album, &lt;em&gt;CrazySexyCool&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;FanMail&lt;/em&gt; debuted at number one on the US Billboard 200, selling approximately 318,000 copies in its first week of release, and spent five weeks at number one.&lt;/p&gt;\n\n&lt;p&gt;The album received 8 Grammy nominations at the 42nd Annual Grammy Awards, including one for Album of the Year, and won three. As of 2000, the album has been certified 6× Platinum by the RIAA, and has sold over 14 million copies worldwide.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;FanMail&lt;/em&gt; is TLC’s second best-selling album after 1994’s &lt;em&gt;CrazySexyCool&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Babyface', 'url': 'https://genius.com/artists/Babyface'}, {'name': 'Dallas Austin', 'url': 'https://genius.com/artists/Dallas-austin'}, {'name': 'Daryl Simmons', 'url': 'https://genius.com/artists/Daryl-simmons'}, {'name': 'Debra Killings', 'url': 'https://genius.com/artists/Debra-killings'}, {'name': 'Jermaine Dupri', 'url': 'https://genius.com/artists/Jermaine-dupri'}, {'name': 'Jimmy Jam &amp; Terry Lewis', 'url': 'https://genius.com/artists/Jimmy-jam-and-terry-lewis'}, {'name': 'Kevin Briggs', 'url': 'https://genius.com/artists/Kevin-briggs'}, {'name': 'Rico Lumpkins', 'url': 'https://genius.com/artists/Rico-lumpkins'}], 'writers': [{'name': 'Babyface', 'url': 'https://genius.com/artists/Babyface'}, {'name': 'Chilli', 'url': 'https://genius.com/artists/Chilli'}, {'name': 'Dallas Austin', 'url': 'https://genius.com/artists/Dallas-austin'}, {'name': 'Daryl Simmons', 'url': 'https://genius.com/artists/Daryl-simmons'}, {'name': 'Diane Warren', 'url': 'https://genius.com/artists/Diane-warren'}, {'name': 'Donna Summer', 'url': 'https://genius.com/artists/Donna-summer'}, {'name': 'Giorgio Moroder', 'url': 'https://genius.com/artists/Giorgio-moroder'}, {'name': 'Jermaine Dupri', 'url': 'https://genius.com/artists/Jermaine-dupri'}, {'name': 'Jimmy Jam &amp; Terry Lewis', 'url': 'https://genius.com/artists/Jimmy-jam-and-terry-lewis'}, {'name': 'Kandi', 'url': 'https://genius.com/artists/Kandi'}, {'name': 'Kevin Briggs', 'url': 'https://genius.com/artists/Kevin-briggs'}, {'name': 'Lisa “Left Eye” Lopes', 'url': 'https://genius.com/artists/Lisa-left-eye-lopes'}, {'name': 'Marshall Lorenzo Martin', 'url': 'https://genius.com/artists/Marshall-lorenzo-martin'}, {'name': 'Pete Bellotte', 'url': 'https://genius.com/artists/Pete-bellotte'}, {'name': 'Rick James', 'url': 'https://genius.com/artists/Rick-james'}, {'name': 'Tamara Savage', 'url': 'https://genius.com/artists/Tamara-savage'}, {'name': 'Tameka “Tiny” Harris', 'url': 'https://genius.com/artists/Tameka-tiny-harris'}, {'name': 'T-Boz', 'url': 'https://genius.com/artists/T-boz'}, {'name': 'Tony “Prof-T” Tolbert', 'url': 'https://genius.com/artists/Tony-prof-t-tolbert'}, {'name': 'War', 'url': 'https://genius.com/artists/War'}], 'labels': [{'name': 'LaFace Records', 'url': 'https://genius.com/artists/Laface-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Robbie-williams/Life-thru-a-lens', 'annotations': {'description': '&lt;p&gt;Robbie’s first solo album, released September 29, 1997.&lt;/p&gt;\n\n&lt;p&gt;Although doing moderately well at first, after the hit success of &lt;a href="https://genius.com/Robbie-williams-angels-lyrics" rel="noopener" data-api_path="/songs/122487"&gt;“Angels”,&lt;/a&gt; the album steadily climbed to number one in the UK charts. Nowadays, it’s Robbie’s fourth best-selling album.&lt;/p&gt;\n\n&lt;p&gt;Other singles are &lt;a href="https://genius.com/Robbie-williams-lazy-days-lyrics" rel="noopener" data-api_path="/songs/1215059"&gt;“Lazy Days”,&lt;/a&gt; &lt;a href="https://genius.com/Robbie-williams-south-of-the-border-lyrics" rel="noopener" data-api_path="/songs/1528234"&gt;“South of the Border”,&lt;/a&gt; &lt;a href="https://genius.com/Robbie-williams-old-before-i-die-lyrics" rel="noopener" data-api_path="/songs/1629181"&gt;“Old Before I Die”&lt;/a&gt; and &lt;a href="https://genius.com/Robbie-williams-let-me-entertain-you-lyrics" rel="noopener" data-api_path="/songs/124111"&gt;“Let Me Entertain You”.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}, {'name': 'Steve Power', 'url': 'https://genius.com/artists/Steve-power'}], 'writers': [{'name': 'Antony Genn', 'url': 'https://genius.com/artists/Antony-genn'}, {'name': 'Chris Lowe', 'url': 'https://genius.com/artists/Chris-lowe'}, {'name': 'Colin Moulding', 'url': 'https://genius.com/artists/Colin-moulding'}, {'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'Eric Bazilian', 'url': 'https://genius.com/artists/Eric-bazilian'}, {'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}, {'name': 'Martin Slattery', 'url': 'https://genius.com/artists/Martin-slattery'}, {'name': 'Neil Tennant', 'url': 'https://genius.com/artists/Neil-tennant'}, {'name': 'Pablo Cook', 'url': 'https://genius.com/artists/Pablo-cook'}, {'name': 'Ray Heffernan', 'url': 'https://genius.com/artists/Ray-heffernan'}, {'name': 'Richard Hawley', 'url': 'https://genius.com/artists/Richard-hawley'}, {'name': 'Robbie Williams', 'url': 'https://genius.com/artists/Robbie-williams'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Timbaland/Shock-value', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Shock Value&lt;/em&gt; is the second studio album by American producer, &lt;a href="https://genius.com/artists/Timbaland" rel="noopener" data-api_path="/artists/112"&gt;Timbaland&lt;/a&gt;, released on April 3, 2007 by &lt;a href="http://mosleymusicgroup.com/about/" rel="noopener nofollow"&gt;Mosley Music Group&lt;/a&gt; (distributed by Interscope Records) and Blackground Records. It features a variety of artists such as &lt;a href="https://genius.com/artists/Fall-out-boy" rel="noopener" data-api_path="/artists/7811"&gt;Fall Out Boy&lt;/a&gt;, Justin Timberlake, &lt;a href="https://genius.com/artists/The-hives" rel="noopener" data-api_path="/artists/7812"&gt;The Hives&lt;/a&gt;, Keri Hilson, Nelly Furtado, &lt;a href="https://genius.com/artists/Missy-elliott" rel="noopener" data-api_path="/artists/1529"&gt;Missy Elliott&lt;/a&gt;, &lt;a href="https://genius.com/artists/50-cent" rel="noopener" data-api_path="/artists/108"&gt;50 Cent&lt;/a&gt;, &lt;a href="https://genius.com/artists/Tony-yayo" rel="noopener" data-api_path="/artists/556"&gt;Tony Yayo&lt;/a&gt;, &lt;a href="https://genius.com/artists/Dr-dre" rel="noopener" data-api_path="/artists/123"&gt;Dr. Dre&lt;/a&gt;, OneRepublic, &lt;a href="https://genius.com/artists/Elton-john" rel="noopener" data-api_path="/artists/560"&gt;Elton John&lt;/a&gt;, &lt;a href="https://genius.com/artists/Magoo" rel="noopener" data-api_path="/artists/7793"&gt;Magoo&lt;/a&gt; and &lt;a href="https://genius.com/artists/Nicole-scherzinger" rel="noopener" data-api_path="/artists/2829"&gt;Nicole Scherzinger&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The project became a phenomenon in the musician’s career, reaching at its peak number five in United States, number two in the United Kingdom and Canada, and number four in Poland, Denmark and New Zealand. It also topped the Australian, Austrian and Irish album charts.&lt;/p&gt;\n\n&lt;p&gt;Five singles were released to promote &lt;em&gt;Shock Value&lt;/em&gt;.&lt;br&gt;\nThe &lt;a href="https://www.grammy.com/grammys/artists/tim-mosley" rel="noopener nofollow"&gt;Grammy-nominated&lt;/a&gt; &lt;a href="https://genius.com/Timbaland-give-it-to-me-lyrics" rel="noopener" data-api_path="/songs/30280"&gt;“Give It to Me”&lt;/a&gt; featured frequent collaborators &lt;a href="https://genius.com/artists/Justin-timberlake" rel="noopener" data-api_path="/artists/334"&gt;Justin Timberlake&lt;/a&gt; and &lt;a href="https://genius.com/artists/Nelly-furtado" rel="noopener" data-api_path="/artists/1505"&gt;Nelly Furtado&lt;/a&gt; and was released on February 6, 2007. It became his only #1 single in the US to date, but &lt;a href="http://www.mtv.com/news/1554268/i-had-to-speak-up-scott-storch-responds-to-timbalands-jabs/" rel="noopener nofollow"&gt;spawned a controversy&lt;/a&gt; between the producer and &lt;a href="https://genius.com/artists/Scott-storch" rel="noopener" data-api_path="/artists/10233"&gt;Scott Storch&lt;/a&gt;, saying in his verse:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’m a real producer and you just a piano man&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The fan-favourite second single, &lt;a href="https://genius.com/Timbaland-the-way-i-are-lyrics" rel="noopener" data-api_path="/songs/30290"&gt;“The Way I Are”&lt;/a&gt; featured vocals from &lt;a href="https://genius.com/artists/Keri-hilson" rel="noopener" data-api_path="/artists/759"&gt;Keri Hillson&lt;/a&gt; and &lt;a href="https://genius.com/artists/Doe" rel="noopener" data-api_path="/artists/1788989"&gt;D.O.E.&lt;/a&gt;. It made its official premiere at the beginning of July the same year, reaching #1 in the United Kingdom, Scotland, Australia, Canada, Hungary, Denmark, Norway, and the Top 5 in 14 countries.&lt;/p&gt;\n\n&lt;p&gt;The soul-ish inspired third single featuring &lt;a href="https://genius.com/artists/Onerepublic" rel="noopener" data-api_path="/artists/934"&gt;OneRepublic&lt;/a&gt;, &lt;a href="https://genius.com/Timbaland-apologize-lyrics" rel="noopener" data-api_path="/songs/1830"&gt;“Apologize,”&lt;/a&gt; dropped in September, receiving major commercial success and peaking at #1 on 16 charts.&lt;/p&gt;\n\n&lt;p&gt;The final two, albeit less popular, singles were &lt;a href="https://genius.com/Timbaland-scream-lyrics" rel="noopener" data-api_path="/songs/75683"&gt;“Scream”&lt;/a&gt; and &lt;a href="https://genius.com/Timbaland-throw-it-on-me-lyrics" rel="noopener" data-api_path="/songs/30285"&gt;“Throw It on Me,”&lt;/a&gt; dropping shortly before the release of the album.&lt;/p&gt;', 'producers': [{'name': 'Boss Beats', 'url': 'https://genius.com/artists/Boss-beats'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'Elton John', 'url': 'https://genius.com/artists/Elton-john'}, {'name': 'Greg Wells', 'url': 'https://genius.com/artists/Greg-wells'}, {'name': 'Hannon Lane', 'url': 'https://genius.com/artists/Hannon-lane'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Walter Millsap III', 'url': 'https://genius.com/artists/Walter-millsap-iii'}], 'writers': [{'name': '50 Cent', 'url': 'https://genius.com/artists/50-cent'}, {'name': 'Adam Bravin', 'url': 'https://genius.com/artists/Adam-bravin'}, {'name': 'Amar', 'url': 'https://genius.com/artists/Amar'}, {'name': 'Attitude', 'url': 'https://genius.com/artists/Attitude'}, {'name': 'Candice Nelson', 'url': 'https://genius.com/artists/Candice-nelson'}, {'name': 'Claydes Smith', 'url': 'https://genius.com/artists/Claydes-smith'}, {'name': 'The Clutch (Songwriting Team)', 'url': 'https://genius.com/artists/The-clutch-songwriting-team'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'D.O.E. (Rapper)', 'url': 'https://genius.com/artists/Doe-rapper'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Dwight Watson', 'url': 'https://genius.com/artists/Dwight-watson'}, {'name': 'Elton John', 'url': 'https://genius.com/artists/Elton-john'}, {'name': 'Eumir Deodato', 'url': 'https://genius.com/artists/Eumir-deodato'}, {'name': 'Frank Greenfield', 'url': 'https://genius.com/artists/Frank-greenfield'}, {'name': 'Garland “Sebastian” Mosley', 'url': 'https://genius.com/artists/Garland-sebastian-mosley'}, {'name': 'George Brown', 'url': 'https://genius.com/artists/George-brown'}, {'name': 'Hannon Lane', 'url': 'https://genius.com/artists/Hannon-lane'}, {'name': 'James “J.T.” Taylor', 'url': 'https://genius.com/artists/James-jt-taylor'}, {'name': 'James Moore', 'url': 'https://genius.com/artists/James-moore'}, {'name': 'JAY-Z', 'url': 'https://genius.com/artists/Jay-z'}, {'name': 'Jim Beanz', 'url': 'https://genius.com/artists/Jim-beanz'}, {'name': 'Justin Timberlake', 'url': 'https://genius.com/artists/Justin-timberlake'}, {'name': 'Justin Warfield', 'url': 'https://genius.com/artists/Justin-warfield'}, {'name': 'Keri Hilson', 'url': 'https://genius.com/artists/Keri-hilson'}, {'name': 'Khalis Bayyan', 'url': 'https://genius.com/artists/Khalis-bayyan'}, {'name': 'Kurtis Blow', 'url': 'https://genius.com/artists/Kurtis-blow'}, {'name': 'Lamar Van Sciver', 'url': 'https://genius.com/artists/Lamar-van-sciver'}, {'name': '“Legs” Larry Smith (musician)', 'url': 'https://genius.com/artists/Legs-larry-smith-musician'}, {'name': 'Magoo', 'url': 'https://genius.com/artists/Magoo'}, {'name': 'M.I.A.', 'url': 'https://genius.com/artists/Mia'}, {'name': 'Missy Elliott', 'url': 'https://genius.com/artists/Missy-elliott'}, {'name': 'Nelly Furtado', 'url': 'https://genius.com/artists/Nelly-furtado'}, {'name': 'Nina Simone', 'url': 'https://genius.com/artists/Nina-simone'}, {'name': 'Patrick Stump', 'url': 'https://genius.com/artists/Patrick-stump'}, {'name': 'Pete Wentz', 'url': 'https://genius.com/artists/Pete-wentz'}, {'name': 'Randy Fitzsimmons', 'url': 'https://genius.com/artists/Randy-fitzsimmons'}, {'name': 'Robert Ford Jr.', 'url': 'https://genius.com/artists/Robert-ford-jr'}, {'name': 'Robert “Kool” Bell', 'url': 'https://genius.com/artists/Robert-kool-bell'}, {'name': 'Robert Spike Mickens', 'url': 'https://genius.com/artists/Robert-spike-mickens'}, {'name': 'Russell Simmons', 'url': 'https://genius.com/artists/Russell-simmons'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Six2', 'url': 'https://genius.com/artists/Six2'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Tony Yayo', 'url': 'https://genius.com/artists/Tony-yayo'}, {'name': 'Walter Millsap III', 'url': 'https://genius.com/artists/Walter-millsap-iii'}], 'labels': [{'name': 'Blackground Records', 'url': 'https://genius.com/artists/Blackground-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Mosley Music Group', 'url': 'https://genius.com/artists/Mosley-music-group'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'XL Recordings', 'url': 'https://genius.com/artists/Xl-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Morrissey/Viva-hate', 'annotations': {'description': '&lt;p&gt;After his former band &lt;a href="https://genius.com/artists/The-smiths" rel="noopener" data-api_path="/artists/16669"&gt;The Smiths&lt;/a&gt; split, Morrissey found himself alone. He contacted former Smiths producers: Stephen Street, Vini Reilly, and Andrew Paresi, and recorded the album &lt;em&gt;Viva Hate&lt;/em&gt; to be released just six months after the final Smiths\' album. &lt;em&gt;Viva Hate&lt;/em&gt; peaked number #1 in the UK.&lt;/p&gt;\n\n&lt;p&gt;The album was re-issued twice, in 1997 with eight added bonus tracks and a new cover and again in 2012, with the original tracklist bar one track, which had been changed at the request of Morrissey.&lt;/p&gt;', 'producers': [{'name': 'Alan Winstanley', 'url': 'https://genius.com/artists/Alan-winstanley'}, {'name': 'Clive Langer', 'url': 'https://genius.com/artists/Clive-langer'}, {'name': 'Mick Ronson', 'url': 'https://genius.com/artists/Mick-ronson'}, {'name': 'Stephen Street', 'url': 'https://genius.com/artists/Stephen-street'}, {'name': 'Steve Lillywhite', 'url': 'https://genius.com/artists/Steve-lillywhite'}], 'writers': [{'name': 'Alain Whyte', 'url': 'https://genius.com/artists/Alain-whyte'}, {'name': 'Andy Rourke', 'url': 'https://genius.com/artists/Andy-rourke'}, {'name': 'Gary Day', 'url': 'https://genius.com/artists/Gary-day'}, {'name': 'Mark E. Nevin', 'url': 'https://genius.com/artists/Mark-e-nevin'}, {'name': 'Morrissey', 'url': 'https://genius.com/artists/Morrissey'}, {'name': 'Stephen Street', 'url': 'https://genius.com/artists/Stephen-street'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Backstreet-boys/Backstreets-back', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;&lt;em&gt;Backstreet’s Back&lt;/em&gt;&lt;/strong&gt; is the second studio album by the &lt;a href="https://genius.com/artists/Backstreet-boys" rel="noopener" data-api_path="/artists/8415"&gt;Backstreet Boys&lt;/a&gt;, released internationally August 11, 1997 by &lt;a href="https://genius.com/artists/Jive-records" rel="noopener" data-api_path="/artists/649293"&gt;Jive Records&lt;/a&gt; and Trans Continental Records, with the exception of United States. It was a follow-up to their successful &lt;a href="https://genius.com/albums/Backstreet-boys/Backstreet-boys-int" rel="noopener" data-api_path="/albums/73506"&gt;&lt;em&gt;self-titled international debut&lt;/em&gt;&lt;/a&gt;. Some songs from this album and the debut album were compiled into a &lt;a href="https://genius.com/albums/Backstreet-boys/Backstreet-boys-u-s" rel="noopener" data-api_path="/albums/386526"&gt;&lt;em&gt;second self-titled album&lt;/em&gt;&lt;/a&gt; released only in the US.&lt;/p&gt;\n\n&lt;p&gt;There were a few differences between the versions of songs released on this album and the American album. The album also contained the same enhanced section as the American release. The first track recorded for the album was a cover of “&lt;a href="https://genius.com/Backstreet-boys-set-adrift-on-memory-bliss-lyrics" rel="noopener" data-api_path="/songs/328812"&gt;Set Adrift on Memory Bliss&lt;/a&gt;”, which was recorded alongside a new song, “&lt;a href="https://genius.com/Backstreet-boys-if-you-stay-lyrics" rel="noopener" data-api_path="/songs/329037"&gt;If You Stay&lt;/a&gt;”, which did not make the final track listing of the album. “Who Do You Love” was performed live but never released as a studio track. The three singles released from this album became three of their most successful and remembered singles.&lt;/p&gt;', 'producers': [{'name': 'Brian Littrell', 'url': 'https://genius.com/artists/Brian-littrell'}, {'name': 'David Kreuger', 'url': 'https://genius.com/artists/David-kreuger'}, {'name': 'Denniz PoP', 'url': 'https://genius.com/artists/Denniz-pop'}, {'name': '“Fitz” Gerald Scott', 'url': 'https://genius.com/artists/Fitz-gerald-scott'}, {'name': 'Full Force', 'url': 'https://genius.com/artists/Full-force'}, {'name': 'Kristian Lundin', 'url': 'https://genius.com/artists/Kristian-lundin'}, {'name': 'Larry “Rock” Campbell', 'url': 'https://genius.com/artists/Larry-rock-campbell'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Mookie', 'url': 'https://genius.com/artists/Mookie'}, {'name': 'Per Magnusson', 'url': 'https://genius.com/artists/Per-magnusson'}, {'name': 'P.M. Dawn', 'url': 'https://genius.com/artists/Pm-dawn'}, {'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}, {'name': 'Timmy Allen', 'url': 'https://genius.com/artists/Timmy-allen'}], 'writers': [{'name': 'Brian Littrell', 'url': 'https://genius.com/artists/Brian-littrell'}, {'name': 'Denniz PoP', 'url': 'https://genius.com/artists/Denniz-pop'}, {'name': '“Fitz” Gerald Scott', 'url': 'https://genius.com/artists/Fitz-gerald-scott'}, {'name': 'Full Force', 'url': 'https://genius.com/artists/Full-force'}, {'name': 'Gary Baker', 'url': 'https://genius.com/artists/Gary-baker'}, {'name': 'Gary Kemp', 'url': 'https://genius.com/artists/Gary-kemp'}, {'name': 'Herbie Crichlow', 'url': 'https://genius.com/artists/Herbie-crichlow'}, {'name': 'Jolyon Skinner', 'url': 'https://genius.com/artists/Jolyon-skinner'}, {'name': 'Larry Campbell', 'url': 'https://genius.com/artists/Larry-campbell'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Prince Be', 'url': 'https://genius.com/artists/Prince-be'}, {'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}, {'name': 'Tetsuya Komuro', 'url': 'https://genius.com/artists/Tetsuya-komuro'}, {'name': 'Timmy Allen', 'url': 'https://genius.com/artists/Timmy-allen'}, {'name': 'Wayne Perry', 'url': 'https://genius.com/artists/Wayne-perry'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Cake/Fashion-nugget', 'annotations': {'description': '&lt;p&gt;Fashion Nugget is the second studio album by Cake, an alternative rock band from Sacramento, California. It was released in 1996, and contains 14 songs. “The Distance” became one of the band’s biggest hits. On December 9, 1996, the album was certified gold by the RIAA, and the next year, the album was certified platinum for shipments of one million copies&lt;/p&gt;', 'producers': [{'name': 'CAKE', 'url': 'https://genius.com/artists/Cake'}], 'writers': [{'name': 'Dino Fekaris', 'url': 'https://genius.com/artists/Dino-fekaris'}, {'name': 'Freddie Perren', 'url': 'https://genius.com/artists/Freddie-perren'}, {'name': 'Greg Brown', 'url': 'https://genius.com/artists/Greg-brown'}, {'name': 'Joe Davis', 'url': 'https://genius.com/artists/Joe-davis'}, {'name': 'John McCrea', 'url': 'https://genius.com/artists/John-mccrea'}, {'name': 'Osvaldo Farrés', 'url': 'https://genius.com/artists/Osvaldo-farres'}, {'name': 'Todd Roper', 'url': 'https://genius.com/artists/Todd-roper'}, {'name': 'Victor Damiani', 'url': 'https://genius.com/artists/Victor-damiani'}, {'name': 'Vincent DiFiore', 'url': 'https://genius.com/artists/Vincent-difiore'}, {'name': 'Willie Nelson', 'url': 'https://genius.com/artists/Willie-nelson'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Eric-clapton/Slowhand', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Slowhand&lt;/em&gt; is Clapton’s fifth solo studio album and was released in 1977.&lt;/p&gt;\n\n&lt;p&gt;The album was named after Eric Clapton’s nickname, which he got fom Giorgio Gomelsky, manager of &lt;a href="https://genius.com/artists/The-yardbirds" rel="noopener" data-api_path="/artists/134224"&gt;The Yardbirds&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;On my guitar I used light-gauge guitar strings, with a very thin first string, which made it easier to bend the notes, and it was not uncommon during the most frenetic bits of playing for me to break at least one string. During the pause while I was changing my string, the frenzied audience would often break into a slow handclap, inspiring Giorgio to dream up the nickname of ‘Slowhand’ Clapton.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Two hit singles were released from the album (‘Wonderful Tonigt’ and ‘Lay Down Sally’) and a deluxe version of the album was released in 2012.&lt;/p&gt;\n\n&lt;p&gt;Eric looks back on the making of the album in an &lt;a href="http://www.rollingstone.com/music/features/eric-clapton-talks-making-of-slowhand-spontaneous-new-lp-20160517" rel="noopener nofollow"&gt;interview&lt;/a&gt; with Rolling Stone Magazine from 2016:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was a haven, a sanctuary. The music counterbalanced the difficulty in my personal life. The strength of Slowhand was in the people playing together – [bassist] Carl Radle, [drummer] Dickie Sims, [guitarist] Jamie Oldaker. That unit was on fire. That was the power of Slowhand. And it was Glyn seeing that energy in the room and harnessing it, making it work as a recording session.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Eric Clapton', 'url': 'https://genius.com/artists/Eric-clapton'}, {'name': 'Glyn Johns', 'url': 'https://genius.com/artists/Glyn-johns'}, {'name': 'Simon Climie', 'url': 'https://genius.com/artists/Simon-climie'}, {'name': 'Tom Dowd', 'url': 'https://genius.com/artists/Tom-dowd'}], 'writers': [{'name': 'Albhy Galuten', 'url': 'https://genius.com/artists/Albhy-galuten'}, {'name': 'Arthur “Big Boy” Crudup', 'url': 'https://genius.com/artists/Arthur-big-boy-crudup'}, {'name': 'Bobby Whitlock', 'url': 'https://genius.com/artists/Bobby-whitlock'}, {'name': 'Bob Dylan', 'url': 'https://genius.com/artists/Bob-dylan'}, {'name': 'Bob Marley', 'url': 'https://genius.com/artists/Bob-marley'}, {'name': 'Don Robey', 'url': 'https://genius.com/artists/Don-robey'}, {'name': 'Don Williams', 'url': 'https://genius.com/artists/Don-williams'}, {'name': 'Eric Clapton', 'url': 'https://genius.com/artists/Eric-clapton'}, {'name': 'George Harrison', 'url': 'https://genius.com/artists/George-harrison'}, {'name': 'George Terry', 'url': 'https://genius.com/artists/George-terry'}, {'name': 'Gordon Lightfoot', 'url': 'https://genius.com/artists/Gordon-lightfoot'}, {'name': 'Jim Gordon', 'url': 'https://genius.com/artists/Jim-gordon'}, {'name': 'J.J. Cale', 'url': 'https://genius.com/artists/Jj-cale'}, {'name': 'Joe Medwick Veasey', 'url': 'https://genius.com/artists/Joe-medwick-veasey'}, {'name': 'John Martyn', 'url': 'https://genius.com/artists/John-martyn'}, {'name': 'Marcella Detroit', 'url': 'https://genius.com/artists/Marcella-detroit'}, {'name': 'Steve Winwood', 'url': 'https://genius.com/artists/Steve-winwood'}, {'name': 'T-Bone Walker', 'url': 'https://genius.com/artists/T-bone-walker'}, {'name': 'Traditional', 'url': 'https://genius.com/artists/Traditional'}], 'labels': [{'name': '\u200bBushbranch Productions', 'url': 'https://genius.com/artists/Bushbranch-productions'}, {'name': 'Mercury Studios', 'url': 'https://genius.com/artists/Mercury-studios'}, {'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}, {'name': 'RSO Records, Inc.', 'url': 'https://genius.com/artists/Rso-records-inc'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Korn/Untouchables', 'annotations': {'description': '&lt;p&gt;Fifth studio album from the band and to date has sold over 5 million copies worldwide. The album debuted at number 2 on the Billboard 200 (beat only by Eminem’s &lt;em&gt;The Eminem Show&lt;/em&gt;) and showed a decline in the band’s overall sales. The group, as well as record label, blamed an internet leak for the decline.&lt;/p&gt;\n\n&lt;p&gt;One of the more interesting facts about the album is that it took well over a year to write and the total cost of the album was around $750,000 to pay for the recording and to keep their crew on retainer for two years.&lt;/p&gt;', 'producers': [{'name': 'Michael Beinhorn', 'url': 'https://genius.com/artists/Michael-beinhorn'}], 'writers': [{'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Backstreet-boys/Millennium', 'annotations': {'description': "&lt;p&gt;&lt;em&gt;Millennium&lt;/em&gt; is the Backstreet Boys' second U.S. album (and third overall). It was released on May 18, 1999. It includes hits like “Larger Than Life”, “Show Me the Meaning of Being Lonely” and their signature song, “I Want It That Way”.&lt;/p&gt;\n\n&lt;p&gt;The album shipped 11 million copies in the U.S. alone in 1999, ultimately going on to sell over 40 million worldwide.&lt;/p&gt;", 'producers': [{'name': 'A.J. McLean', 'url': 'https://genius.com/artists/Aj-mclean'}, {'name': 'Billy Chapin', 'url': 'https://genius.com/artists/Billy-chapin'}, {'name': 'Brian Bennett', 'url': 'https://genius.com/artists/Brian-bennett'}, {'name': 'Edwin “Tony” Nicholas', 'url': 'https://genius.com/artists/Edwin-tony-nicholas'}, {'name': '“Fitz” Gerald Scott', 'url': 'https://genius.com/artists/Fitz-gerald-scott'}, {'name': 'Full Force', 'url': 'https://genius.com/artists/Full-force'}, {'name': 'Kristian Lundin', 'url': 'https://genius.com/artists/Kristian-lundin'}, {'name': 'Larry “Rock” Campbell', 'url': 'https://genius.com/artists/Larry-rock-campbell'}, {'name': 'Mattias Gustafsson', 'url': 'https://genius.com/artists/Mattias-gustafsson'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Rami', 'url': 'https://genius.com/artists/Rami'}, {'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}, {'name': 'Stephen Lipson', 'url': 'https://genius.com/artists/Stephen-lipson'}, {'name': 'Timmy Allen', 'url': 'https://genius.com/artists/Timmy-allen'}], 'writers': [{'name': 'A.J. McLean', 'url': 'https://genius.com/artists/Aj-mclean'}, {'name': 'Andreas Carlsson', 'url': 'https://genius.com/artists/Andreas-carlsson'}, {'name': 'Andrew Fromm', 'url': 'https://genius.com/artists/Andrew-fromm'}, {'name': 'Billy Chapin', 'url': 'https://genius.com/artists/Billy-chapin'}, {'name': 'Brian Bennett', 'url': 'https://genius.com/artists/Brian-bennett'}, {'name': 'Brian Littrell', 'url': 'https://genius.com/artists/Brian-littrell'}, {'name': 'Butch Johnson', 'url': 'https://genius.com/artists/Butch-johnson'}, {'name': 'Full Force', 'url': 'https://genius.com/artists/Full-force'}, {'name': 'Gary Baker', 'url': 'https://genius.com/artists/Gary-baker'}, {'name': 'Herbie Crichlow', 'url': 'https://genius.com/artists/Herbie-crichlow'}, {'name': 'Jason Blume', 'url': 'https://genius.com/artists/Jason-blume'}, {'name': 'Joe Thomas', 'url': 'https://genius.com/artists/Joe-thomas'}, {'name': 'Kevin Richardson', 'url': 'https://genius.com/artists/Kevin-richardson'}, {'name': 'Kristian Lundin', 'url': 'https://genius.com/artists/Kristian-lundin'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Nick Carter', 'url': 'https://genius.com/artists/Nick-carter'}, {'name': 'Rami', 'url': 'https://genius.com/artists/Rami'}, {'name': 'Sandy Linzer', 'url': 'https://genius.com/artists/Sandy-linzer'}, {'name': 'Thomas Smith', 'url': 'https://genius.com/artists/Thomas-smith'}, {'name': 'Timmy Allen', 'url': 'https://genius.com/artists/Timmy-allen'}, {'name': 'Wayne Perry', 'url': 'https://genius.com/artists/Wayne-perry'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Peter-tosh/Mama-africa', 'annotations': {'description': '', 'producers': [{'name': 'Chris Kimsey', 'url': 'https://genius.com/artists/Chris-kimsey'}, {'name': 'Peter Tosh', 'url': 'https://genius.com/artists/Peter-tosh'}], 'writers': [{'name': 'Chuck Berry', 'url': 'https://genius.com/artists/Chuck-berry'}, {'name': 'Jellybean', 'url': 'https://genius.com/artists/Jellybean'}, {'name': 'Peter Tosh', 'url': 'https://genius.com/artists/Peter-tosh'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Pitbull/Global-warming-meltdown', 'annotations': {'description': '&lt;p&gt;&lt;i&gt;Global Warming: Meltdown&lt;/i&gt; is the reissued version of Pitbull’s seventh studio album, &lt;a href="https://genius.com/albums/Pitbull/Global-warming" rel="noopener" data-api_path="/albums/360279"&gt;&lt;em&gt;Global Warming&lt;/em&gt;&lt;/a&gt;, which was originally released a year prior on November 13, 2012. The reissued version found its release on November 22, 2013 via RCA Records.&lt;/p&gt;\n\n&lt;p&gt;The album features both a new cover art, along with a combination of both the original version of &lt;em&gt;Global Warming&lt;/em&gt;, as well as &lt;a href="https://genius.com/albums/Pitbull/Meltdown-ep" rel="noopener" data-api_path="/albums/177690"&gt;&lt;em&gt;Meltdown&lt;/em&gt;&lt;/a&gt;, an extended play released on the same day. The five songs on the EP (tracks 13-17) replaced the last four tracks of the original album.&lt;/p&gt;', 'producers': [{'name': 'Adam Messinger', 'url': 'https://genius.com/artists/Adam-messinger'}, {'name': 'Afrojack', 'url': 'https://genius.com/artists/Afrojack'}, {'name': 'Bass ill Euro', 'url': 'https://genius.com/artists/Bass-ill-euro'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Big Syphe', 'url': 'https://genius.com/artists/Big-syphe'}, {'name': 'Buddha (Producer)', 'url': 'https://genius.com/artists/Buddha-producer'}, {'name': 'BURNS', 'url': 'https://genius.com/artists/Burns'}, {'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}, {'name': 'Cirkut', 'url': 'https://genius.com/artists/Cirkut'}, {'name': 'Danny Mercer', 'url': 'https://genius.com/artists/Danny-mercer'}, {'name': 'DJ Class', 'url': 'https://genius.com/artists/Dj-class'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}, {'name': 'The Messengers', 'url': 'https://genius.com/artists/The-messengers'}, {'name': 'MK', 'url': 'https://genius.com/artists/Mk'}, {'name': 'Nasri', 'url': 'https://genius.com/artists/Nasri'}, {'name': 'Nick Seeley', 'url': 'https://genius.com/artists/Nick-seeley'}, {'name': 'Pitbull', 'url': 'https://genius.com/artists/Pitbull'}, {'name': 'Polow da Don', 'url': 'https://genius.com/artists/Polow-da-don'}, {'name': 'RL Grime', 'url': 'https://genius.com/artists/Rl-grime'}, {'name': 'Sermstyle', 'url': 'https://genius.com/artists/Sermstyle'}, {'name': 'Sir Nolan', 'url': 'https://genius.com/artists/Sir-nolan'}, {'name': 'SoFLY &amp; Nius', 'url': 'https://genius.com/artists/Sofly-and-nius'}, {'name': 'StarGate', 'url': 'https://genius.com/artists/Stargate'}, {'name': 'TJR', 'url': 'https://genius.com/artists/Tjr'}, {'name': 'Tuxedo', 'url': 'https://genius.com/artists/Tuxedo'}], 'writers': [{'name': 'Aaron Davis Arnold', 'url': 'https://genius.com/artists/Aaron-davis-arnold'}, {'name': 'Adam Messinger', 'url': 'https://genius.com/artists/Adam-messinger'}, {'name': 'Afrojack', 'url': 'https://genius.com/artists/Afrojack'}, {'name': 'Antonio Romero Monge', 'url': 'https://genius.com/artists/Antonio-romero-monge'}, {'name': 'Bebe Black', 'url': 'https://genius.com/artists/Bebe-black'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Breyan Isaac', 'url': 'https://genius.com/artists/Breyan-isaac'}, {'name': 'Buddha (Producer)', 'url': 'https://genius.com/artists/Buddha-producer'}, {'name': 'Buddy Hankerson', 'url': 'https://genius.com/artists/Buddy-hankerson'}, {'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}, {'name': 'Chantal Kreviazuk', 'url': 'https://genius.com/artists/Chantal-kreviazuk'}, {'name': 'Charles Carter', 'url': 'https://genius.com/artists/Charles-carter'}, {'name': 'Chris Brown', 'url': 'https://genius.com/artists/Chris-brown'}, {'name': 'Christina Aguilera', 'url': 'https://genius.com/artists/Christina-aguilera'}, {'name': 'Christopher Jackson', 'url': 'https://genius.com/artists/Christopher-jackson'}, {'name': 'Cirkut', 'url': 'https://genius.com/artists/Cirkut'}, {'name': 'Daniel Woods', 'url': 'https://genius.com/artists/Daniel-woods'}, {'name': 'Danny Mercer', 'url': 'https://genius.com/artists/Danny-mercer'}, {'name': 'David Baerwald', 'url': 'https://genius.com/artists/David-baerwald'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}, {'name': 'Enrique Iglesias', 'url': 'https://genius.com/artists/Enrique-iglesias'}, {'name': 'Ester Dean', 'url': 'https://genius.com/artists/Ester-dean'}, {'name': 'Greg Errico', 'url': 'https://genius.com/artists/Greg-errico'}, {'name': 'Jake One', 'url': 'https://genius.com/artists/Jake-one'}, {'name': 'Jennifer Lopez', 'url': 'https://genius.com/artists/Jennifer-lopez'}, {'name': 'Keri Oskar', 'url': 'https://genius.com/artists/Keri-oskar'}, {'name': 'Kesha', 'url': 'https://genius.com/artists/Kesha'}, {'name': 'Kevin Gilbert', 'url': 'https://genius.com/artists/Kevin-gilbert'}, {'name': 'Lee Oskar', 'url': 'https://genius.com/artists/Lee-oskar'}, {'name': 'Magne Furuholmen', 'url': 'https://genius.com/artists/Magne-furuholmen'}, {'name': 'Mayer Hawthorne', 'url': 'https://genius.com/artists/Mayer-hawthorne'}, {'name': 'MK', 'url': 'https://genius.com/artists/Mk'}, {'name': 'Monica Rustgi', 'url': 'https://genius.com/artists/Monica-rustgi'}, {'name': 'Morten Harket', 'url': 'https://genius.com/artists/Morten-harket'}, {'name': 'Nasri', 'url': 'https://genius.com/artists/Nasri'}, {'name': 'Nius', 'url': 'https://genius.com/artists/Nius'}, {'name': 'Omar Tavarez', 'url': 'https://genius.com/artists/Omar-tavarez'}, {'name': 'Paul Waaktaar-Savoy', 'url': 'https://genius.com/artists/Paul-waaktaar-savoy'}, {'name': 'Pebe Sebert', 'url': 'https://genius.com/artists/Pebe-sebert'}, {'name': 'Pitbull', 'url': 'https://genius.com/artists/Pitbull'}, {'name': 'Priscilla Renea', 'url': 'https://genius.com/artists/Priscilla-renea'}, {'name': 'Rafael Ruiz', 'url': 'https://genius.com/artists/Rafael-ruiz'}, {'name': 'Roger Parker', 'url': 'https://genius.com/artists/Roger-parker'}, {'name': 'Schowi', 'url': 'https://genius.com/artists/Schowi'}, {'name': 'Sensato', 'url': 'https://genius.com/artists/Sensato'}, {'name': 'Sermstyle', 'url': 'https://genius.com/artists/Sermstyle'}, {'name': 'Shellback', 'url': 'https://genius.com/artists/Shellback'}, {'name': 'Sheryl Crow', 'url': 'https://genius.com/artists/Sheryl-crow'}, {'name': 'Shylton Fernandes', 'url': 'https://genius.com/artists/Shylton-fernandes'}, {'name': 'Sir Nolan', 'url': 'https://genius.com/artists/Sir-nolan'}, {'name': 'SoFLY', 'url': 'https://genius.com/artists/Sofly'}, {'name': 'StarGate', 'url': 'https://genius.com/artists/Stargate'}, {'name': 'Steve Arrington', 'url': 'https://genius.com/artists/Steve-arrington'}, {'name': 'TJR', 'url': 'https://genius.com/artists/Tjr'}, {'name': 'Tommy Swish', 'url': 'https://genius.com/artists/Tommy-swish'}, {'name': 'Urales Vargas', 'url': 'https://genius.com/artists/Urales-vargas'}, {'name': 'Usher', 'url': 'https://genius.com/artists/Usher'}, {'name': 'Wyn Cooper', 'url': 'https://genius.com/artists/Wyn-cooper'}, {'name': 'Özgür Yelmen', 'url': 'https://genius.com/artists/Ozgur-yelmen'}], 'labels': [{'name': 'Mr. 305 Records', 'url': 'https://genius.com/artists/Mr-305-records'}, {'name': 'Polo Grounds Music', 'url': 'https://genius.com/artists/Polo-grounds-music'}, {'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Pendulum/In-silico', 'annotations': {'description': '&lt;p&gt;The expression “in silico”, from which the album title is derived, is used to mean “performed on computer or via computer simulation”, however group member Gareth McGrillen also commented on the way it plays upon Nirvana’s well-known album title In Utero (meaning “born naturally” or “of the uterus”) and thus carries extra shades of meaning related to being “born synthetically”,[2] thus explaining the album’s cover motif of a baby or fetus displayed inside a circular design representing a synthetic ovum. – from &lt;a href="https://en.wikipedia.org/wiki/In_Silico_%28Pendulum_album%29" rel="noopener nofollow"&gt;Wikipedia&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Gareth McGrillen', 'url': 'https://genius.com/artists/Gareth-mcgrillen'}, {'name': 'Pendulum', 'url': 'https://genius.com/artists/Pendulum'}, {'name': 'Rob Swire', 'url': 'https://genius.com/artists/Rob-swire'}], 'writers': [{'name': 'Bernd Burhoff', 'url': 'https://genius.com/artists/Bernd-burhoff'}, {'name': 'Jens Oettrich', 'url': 'https://genius.com/artists/Jens-oettrich'}, {'name': 'Oliver Froning', 'url': 'https://genius.com/artists/Oliver-froning'}, {'name': 'Pendulum', 'url': 'https://genius.com/artists/Pendulum'}, {'name': 'Rob Swire', 'url': 'https://genius.com/artists/Rob-swire'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Lana-del-rey/Norman-fucking-rockwell', 'annotations': {'description': '&lt;p&gt;Lana Del Rey announced her sixth studio album during an interview with Annie Mac after the premiere of &lt;a href="https://genius.com/Lana-del-rey-mariners-apartment-complex-lyrics" rel="noopener" data-api_path="/songs/3945416"&gt;“Mariners Apartment Complex,”&lt;/a&gt; the lead single for her upcoming project, on September 12th, 2018. She later confirmed the title of the record in a conversation with Zane Lowe after the premiere of her second single &lt;a href="https://genius.com/Lana-del-rey-venice-bitch-lyrics" rel="noopener" data-api_path="/songs/3953493"&gt;“Venice Bitch,”&lt;/a&gt; on September 18th.&lt;/p&gt;\n\n&lt;p&gt;Lana has allegedly been working on the album since December 2017, with new collaborator and producer &lt;a href="https://genius.com/artists/Jack-antonoff" rel="noopener" data-api_path="/artists/264329"&gt;Jack Antonoff&lt;/a&gt;. She said that the album might be released in the first quarter of 2019, after publishing a little poetry book she’s been working on titled &lt;em&gt;Violet Bent Backwards Over the Grass&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Del Rey mentioned that the new album experiments with surf elements, electric guitars and Laurel Canyon sounds, adding that she was inspired by the &lt;a href="https://genius.com/artists/Red-hot-chili-peppers" rel="noopener" data-api_path="/artists/1460"&gt;Red Hot Chili Peppers&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Lana spoke about the story/inspiration behind the album and its &lt;a href="https://genius.com/Lana-del-rey-norman-fucking-rockwell-lyrics" rel="noopener" data-api_path="/songs/3965734"&gt;title track&lt;/a&gt; during her interview with Beats Radio 1’s Zane Lowe:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s called &lt;em&gt;Norman Fucking Rockwell!&lt;/em&gt;, it was the album title since March. I mean, working with Jack I was in a little bit of a lighter mood ‘cause he’s so funny, so the &lt;a href="https://genius.com/Lana-del-rey-norman-fucking-rockwell-lyrics" rel="noopener" data-api_path="/songs/3965734"&gt;title track&lt;/a&gt; and it are kind of about this guy who like, he is such a genius artist but he thinks he’s the shit and he knows it, and like he won’t shut talking about it. The narrative goes on and on. It’s so awesome I ended up with, you know, like, being creative on a pipe story or whatever. I just like the title track so much, that I was like, \'Okay, definitely want the record to be called that.’&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In an interview with Vanity Fair, Lana talked about the concept of the album saying:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was weird how that actual title came to me. I was riffing over a couple of chords that Jack was playing for the title track, which ended up being called “Norman Fucking Rockwell.” It was kind of an exclamation mark: so this is the American dream, right now. This is where we’re at—Norman fucking Rockwell. We’re going to go to Mars, and Trump is president, all right. Me and Jack, we just joke around constantly about all the random headlines we might see that week, so it’s a slight cultural reference. But it’s not a cynical thing, really. To me, it’s hopeful, to see everything as a little bit funnier. The chaos of the culture is interesting, and I’m hopeful that there’s room for there to be some movement and excitement within it.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;On July 31st, she officially announced that &lt;em&gt;Norman Fucking Rockwell!&lt;/em&gt; would be released on August 30th, 2019, in multiple posts on her social media platforms. She also released the &lt;a href="https://www.instagram.com/p/B0lnEZIh0DZ/?utm_source=ig_web_button_share_sheet" rel="noopener nofollow"&gt;tracklist&lt;/a&gt; along with the album cover.&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;blockquote class="twitter-tweet"&gt;&lt;a href="https://twitter.com/lanadelrey/status/1156597134239531008?ref_src=embedly"&gt;&lt;/a&gt;&lt;/blockquote&gt;\n&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Dean Reid', 'url': 'https://genius.com/artists/Dean-reid'}, {'name': 'Happy Perez', 'url': 'https://genius.com/artists/Happy-perez'}, {'name': 'Jack Antonoff', 'url': 'https://genius.com/artists/Jack-antonoff'}, {'name': 'Kieron Menzies', 'url': 'https://genius.com/artists/Kieron-menzies'}, {'name': 'Lana Del Rey', 'url': 'https://genius.com/artists/Lana-del-rey'}, {'name': 'Louis Bell', 'url': 'https://genius.com/artists/Louis-bell'}, {'name': 'Mighty Mike', 'url': 'https://genius.com/artists/Mighty-mike'}, {'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}, {'name': '\u200bwatt', 'url': 'https://genius.com/artists/Watt'}, {'name': 'Zach Dawes', 'url': 'https://genius.com/artists/Zach-dawes'}], 'writers': [{'name': 'Ad-Rock', 'url': 'https://genius.com/artists/Ad-rock'}, {'name': 'Bradley Nowell', 'url': 'https://genius.com/artists/Bradley-nowell'}, {'name': 'Dorothy Heyward', 'url': 'https://genius.com/artists/Dorothy-heyward'}, {'name': 'DuBose Heyward', 'url': 'https://genius.com/artists/Dubose-heyward'}, {'name': 'George Gershwin', 'url': 'https://genius.com/artists/George-gershwin'}, {'name': 'Ira Gershwin', 'url': 'https://genius.com/artists/Ira-gershwin'}, {'name': 'Jack Antonoff', 'url': 'https://genius.com/artists/Jack-antonoff'}, {'name': 'Lana Del Rey', 'url': 'https://genius.com/artists/Lana-del-rey'}, {'name': 'Louis Bell', 'url': 'https://genius.com/artists/Louis-bell'}, {'name': 'Marshall Goodman', 'url': 'https://genius.com/artists/Marshall-goodman'}, {'name': 'MCA', 'url': 'https://genius.com/artists/Mca'}, {'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}, {'name': '\u200bwatt', 'url': 'https://genius.com/artists/Watt'}, {'name': 'Zach Dawes', 'url': 'https://genius.com/artists/Zach-dawes'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Polydor Records', 'url': 'https://genius.com/artists/Polydor-records'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Eminem/The-eminem-show', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Eminem Show&lt;/em&gt; is the 4th studio album from the Detroit MC, and the third and final of his “Persona Trilogy” which started with &lt;a href="https://genius.com/albums/Eminem/The-slim-shady-lp" rel="noopener" data-api_path="/albums/11166"&gt;&lt;em&gt;The Slim Shady LP&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The Slim Shady LP saw Eminem taking on a cartoonish, immature and ultra violent persona. The follow up, &lt;a href="https://genius.com/albums/Eminem/The-marshall-mathers-lp" rel="noopener" data-api_path="/albums/2873"&gt;&lt;em&gt;Marshall Mathers LP&lt;/em&gt;&lt;/a&gt; spoke more about how he as a person (i.e. Marshall Mathers) was being characterized by the media, politicians, and the general public, some of whom interpreted his music as literal.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;The Eminem Show&lt;/em&gt; sees Em taking a step back, looking at the wild success of his first two albums and the impact that they had on him and on others. It shows Em for the first time embracing himself as the super-star he’d become, and all the issues this caused. In &lt;a href="http://www1.excite.com/home/music/music_artFeat/0,16111,artFeat_launch_209795,00.html" rel="noopener nofollow"&gt;his own words&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I was watching some interviews that I had did back last year, and I was talking about how my life is kind of like &lt;em&gt;The Jerry Springer Show&lt;/em&gt; and my life is like a show and this and that. And I just hit me like, “Huh, why not? &lt;em&gt;The Eminem Show&lt;/em&gt;!”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;15 years later Eminem expanded further on this, &lt;a href="https://genius.com/a/eminem-explains-how-the-truman-show-helped-inspire-the-eminem-show" rel="noopener" data-api_path="/articles/2394"&gt;explaining&lt;/a&gt; how inspiration for the album also came from the 1998 film &lt;a href="https://www.imdb.com/title/tt0120382/" rel="noopener nofollow"&gt;&lt;em&gt;The Truman Show&lt;/em&gt;&lt;/a&gt;, the premise of which being a man unaware that he is living his life on a fictional television show.&lt;/p&gt;\n\n&lt;p&gt;For the first time Eminem made it clear to the public that he was conscious as to the effect his music was having on others, detailing this on tracks like &lt;a href="https://genius.com/Eminem-white-america-lyrics" rel="noopener" data-api_path="/songs/1931"&gt;“White America”&lt;/a&gt;, &lt;a href="https://genius.com/Eminem-without-me-lyrics" rel="noopener" data-api_path="/songs/811"&gt;“Without Me”&lt;/a&gt; and &lt;a href="https://genius.com/Eminem-sing-for-the-moment-lyrics" rel="noopener" data-api_path="/songs/1010"&gt;“Sing for the Moment”&lt;/a&gt;. This showcased Em’s growth into a more mature, introspective artist. The inclusion of &lt;a href="https://genius.com/Eminem-hailies-song-lyrics" rel="noopener" data-api_path="/songs/1202"&gt;a love song to his daughter&lt;/a&gt; further cemented this growth.&lt;/p&gt;\n\n&lt;p&gt;Notably absent from the album are songs designed to shock, or incite controversy for the sake of it. Eminem dialed back the antics to prove that he was capable of making a more serious, thought provoking album. However plenty of anger and lyrical wit spilled-over from his previous albums, best exemplified on &lt;a href="https://genius.com/Eminem-soldier-lyrics" rel="noopener" data-api_path="/songs/2069"&gt;“Soldier”&lt;/a&gt;, &lt;a href="https://genius.com/Eminem-till-i-collapse-lyrics" rel="noopener" data-api_path="/songs/440"&gt;“Till I Collapse”&lt;/a&gt;, and &lt;a href="https://genius.com/Eminem-superman-lyrics" rel="noopener" data-api_path="/songs/564"&gt;“Superman”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Another departure from his previous two records is the production. Em relied less on Dr. Dre and had a greater hand in the albums production, notably on tracks like &lt;a href="https://genius.com/Eminem-sing-for-the-moment-lyrics" rel="noopener" data-api_path="/songs/1010"&gt;“Sing for the Moment”&lt;/a&gt; and &lt;a href="https://genius.com/Eminem-square-dance-lyrics" rel="noopener" data-api_path="/songs/1373"&gt;“Square Dance”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Sales wise the album picked up where &lt;em&gt;The Marshall Mathers LP&lt;/em&gt; left off, shipping over a million copies in its first official week and eventually going diamond: one of only &lt;a href="https://www.complex.com/music/ranking-the-7-diamond-selling-rap-albums/mc-hammer-please-hammer-dont-hurt-em" rel="noopener nofollow"&gt;seven rap albums to achieve this accolade&lt;/a&gt;, and Eminem’s second entry. The album also received the &lt;a href="http://www.metacritic.com/music/the-marshall-mathers-lp/eminem" rel="noopener nofollow"&gt;highest praise from critics&lt;/a&gt; relative to the rest of his work.&lt;/p&gt;', 'producers': [{'name': '\u200bdEnAun', 'url': 'https://genius.com/artists/Denaun'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Eminem', 'url': 'https://genius.com/artists/Eminem'}, {'name': 'Jeff Bass', 'url': 'https://genius.com/artists/Jeff-bass'}], 'writers': [{'name': 'Anne Dudley', 'url': 'https://genius.com/artists/Anne-dudley'}, {'name': 'Bizarre', 'url': 'https://genius.com/artists/Bizarre'}, {'name': 'Brian May', 'url': 'https://genius.com/artists/Brian-may'}, {'name': '\u200bdEnAun', 'url': 'https://genius.com/artists/Denaun'}, {'name': 'DJ Head', 'url': 'https://genius.com/artists/Dj-head'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Eminem', 'url': 'https://genius.com/artists/Eminem'}, {'name': 'Jeff Bass', 'url': 'https://genius.com/artists/Jeff-bass'}, {'name': 'Kuniva', 'url': 'https://genius.com/artists/Kuniva'}, {'name': 'Luis Resto', 'url': 'https://genius.com/artists/Luis-resto'}, {'name': 'Malcolm McLaren', 'url': 'https://genius.com/artists/Malcolm-mclaren'}, {'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}, {'name': 'Nate Dogg', 'url': 'https://genius.com/artists/Nate-dogg'}, {'name': 'Obie Trice', 'url': 'https://genius.com/artists/Obie-trice'}, {'name': 'Paul Rosenberg', 'url': 'https://genius.com/artists/Paul-rosenberg'}, {'name': 'Proof', 'url': 'https://genius.com/artists/Proof'}, {'name': 'Ron “NEFF-U” Feemster', 'url': 'https://genius.com/artists/Ron-neff-u-feemster'}, {'name': 'Shawn Baumgardner', 'url': 'https://genius.com/artists/Shawn-baumgardner'}, {'name': 'Steve Berman', 'url': 'https://genius.com/artists/Steve-berman'}, {'name': 'Steve King', 'url': 'https://genius.com/artists/Steve-king'}, {'name': 'Steven Tyler', 'url': 'https://genius.com/artists/Steven-tyler'}, {'name': 'Swifty McVay', 'url': 'https://genius.com/artists/Swifty-mcvay'}, {'name': 'Trevor Horn', 'url': 'https://genius.com/artists/Trevor-horn'}, {'name': 'Urban Kris', 'url': 'https://genius.com/artists/Urban-kris'}], 'labels': [{'name': 'Aftermath Entertainment', 'url': 'https://genius.com/artists/Aftermath-entertainment'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Shady Records', 'url': 'https://genius.com/artists/Shady-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Diddy/No-way-out', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;No Way Out&lt;/em&gt; is the debut studio album by American hip-hop artist Puff Daddy, released on July 22, 1997 through record label Bad Boy Records. The label also receives official crediting on the album as “The Family”, and the album’s guest appearances are largely made up of the label’s artists. Production is largely handled by Puff Daddy (real name Sean Combs) and various members of production group The Hitmen.&lt;/p&gt;\n\n&lt;p&gt;The album, executively produced by Combs himself, &lt;a href="https://genius.com/artists/The-notorious-b-i-g" rel="noopener" data-api_path="/artists/22"&gt;The Notorious B.I.G.&lt;/a&gt; and Deric &lt;a href="https://genius.com/artists/D-dot" rel="noopener" data-api_path="/artists/6708"&gt;“D-Dot”&lt;/a&gt; Angelettie of The Hitmen, is predominantly rap-based, although it features generally introspective content, largely focused on close friend The Notorious B.I.G.’s killing on March 9, 1997: however, the album features several more aggressive and positive songs recorded before the shooting. Originally titled “Hell Up In Harlem,” the album underwent several changes after the death of his close friend emotionally affected Combs, who postponed the album in order to record several of the album’s more emotional songs.&lt;/p&gt;\n\n&lt;p&gt;Upon its release, &lt;em&gt;No Way Out&lt;/em&gt; was a significant commercial success, particularly in the United States where it reached number one on the Billboard 200 in its first week of release, selling 561,000 copies. It also produced five commercially successful singles, the most successful of these being the worldwide hit &lt;a href="https://genius.com/Puff-daddy-ill-be-missing-you-lyrics" rel="noopener" data-api_path="/songs/1360"&gt;“I’ll Be Missing You”&lt;/a&gt;, a tribute song aimed at The Notorious B.I.G., which became the first rap song ever to debut at number one on the Billboard Hot 100, and remained at the top of the chart for eleven consecutive weeks, whilst topping several other charts worldwide. The other four singles, the Billboard hits “Can’t Nobody Hold Me Down,” “It’s All About the Benjamins,” “Been Around the World” and “Victory,” were also commercially successful, with all of them, except for the latter, peaking in the top two positions of the Billboard Hot 100.&lt;/p&gt;\n\n&lt;p&gt;The album also received generally mixed to positive reviews from music critics, who generally wrote positively about its emotional feel and its production, but were divided in their reviews towards Puff Daddy’s rapping and songwriting.&lt;/p&gt;\n\n&lt;p&gt;On September 7, 2000, the album was certified septuple platinum by the Recording Industry Association of America for sales of 7,000,000+ copies: to date, it remains Combs\' most commercially successful album. The album earned Combs five nominations at the 40th Grammy Awards in 1998, where he won the Grammy Award for Best Rap Album.&lt;/p&gt;', 'producers': [{'name': 'Carlos “6 July” Broady', 'url': 'https://genius.com/artists/Carlos-6-july-broady'}, {'name': 'Deric “D-Dot” Angelettie', 'url': 'https://genius.com/artists/Deric-d-dot-angelettie'}, {'name': 'Diddy', 'url': 'https://genius.com/artists/Diddy'}, {'name': 'Havoc', 'url': 'https://genius.com/artists/Havoc'}, {'name': 'Jay Waxx', 'url': 'https://genius.com/artists/Jay-waxx'}, {'name': 'Jaz-O', 'url': 'https://genius.com/artists/Jaz-o'}, {'name': 'J-Dub', 'url': 'https://genius.com/artists/J-dub'}, {'name': 'Nashiem Myrick', 'url': 'https://genius.com/artists/Nashiem-myrick'}, {'name': 'Rashad Smith', 'url': 'https://genius.com/artists/Rashad-smith'}, {'name': 'Ron “Amen-Ra” Lawrence', 'url': 'https://genius.com/artists/Ron-amen-ra-lawrence'}, {'name': 'Stevie J', 'url': 'https://genius.com/artists/Stevie-j'}, {'name': 'Yogi (hip-hop producer)', 'url': 'https://genius.com/artists/Yogi-hip-hop-producer'}], 'writers': [{'name': 'Albert E. Brumley', 'url': 'https://genius.com/artists/Albert-e-brumley'}, {'name': 'Alisa Peoples', 'url': 'https://genius.com/artists/Alisa-peoples'}, {'name': 'Andy Morris', 'url': 'https://genius.com/artists/Andy-morris'}, {'name': 'Bill Conti', 'url': 'https://genius.com/artists/Bill-conti'}, {'name': 'Billy Beck', 'url': 'https://genius.com/artists/Billy-beck'}, {'name': 'Black Rob', 'url': 'https://genius.com/artists/Black-rob'}, {'name': 'Carlos “6 July” Broady', 'url': 'https://genius.com/artists/Carlos-6-july-broady'}, {'name': 'Carl Thomas', 'url': 'https://genius.com/artists/Carl-thomas'}, {'name': 'Cavin Yarbrough', 'url': 'https://genius.com/artists/Cavin-yarbrough'}, {'name': 'Clarence “Satch” Satchell', 'url': 'https://genius.com/artists/Clarence-satch-satchell'}, {'name': 'Clifton ‘’Jiggs’’ Chase', 'url': 'https://genius.com/artists/Clifton-jiggs-chase'}, {'name': 'Daron Jones', 'url': 'https://genius.com/artists/Daron-jones'}, {'name': 'Deric “D-Dot” Angelettie', 'url': 'https://genius.com/artists/Deric-d-dot-angelettie'}, {'name': 'Diddy', 'url': 'https://genius.com/artists/Diddy'}, {'name': 'Duke Bootee', 'url': 'https://genius.com/artists/Duke-bootee'}, {'name': 'Ed Townsend', 'url': 'https://genius.com/artists/Ed-townsend'}, {'name': 'Faith Evans', 'url': 'https://genius.com/artists/Faith-evans'}, {'name': 'Foxy Brown', 'url': 'https://genius.com/artists/Foxy-brown'}, {'name': 'Gerry Goffin', 'url': 'https://genius.com/artists/Gerry-goffin'}, {'name': 'Grandmaster Melle Mel', 'url': 'https://genius.com/artists/Grandmaster-melle-mel'}, {'name': 'Greg Prestopino', 'url': 'https://genius.com/artists/Greg-prestopino'}, {'name': 'Ian Devaney', 'url': 'https://genius.com/artists/Ian-devaney'}, {'name': 'Jadakiss', 'url': 'https://genius.com/artists/Jadakiss'}, {'name': 'James Roger Williams', 'url': 'https://genius.com/artists/James-roger-williams'}, {'name': 'Janis Ian', 'url': 'https://genius.com/artists/Janis-ian'}, {'name': 'JAY-Z', 'url': 'https://genius.com/artists/Jay-z'}, {'name': 'Jonah Ellis', 'url': 'https://genius.com/artists/Jonah-ellis'}, {'name': 'Jon Astrop', 'url': 'https://genius.com/artists/Jon-astrop'}, {'name': 'Larry Johnson', 'url': 'https://genius.com/artists/Larry-johnson'}, {'name': 'Les Baxter', 'url': 'https://genius.com/artists/Les-baxter'}, {'name': 'Lil’ Kim', 'url': 'https://genius.com/artists/Lil-kim'}, {'name': 'Linda Laurie', 'url': 'https://genius.com/artists/Linda-laurie'}, {'name': 'Lisa Stansfield', 'url': 'https://genius.com/artists/Lisa-stansfield'}, {'name': 'Lonnie Simmons', 'url': 'https://genius.com/artists/Lonnie-simmons'}, {'name': 'Marshall “Rock” Jones', 'url': 'https://genius.com/artists/Marshall-rock-jones'}, {'name': 'Marvin Gaye', 'url': 'https://genius.com/artists/Marvin-gaye'}, {'name': 'Marvin Pierce', 'url': 'https://genius.com/artists/Marvin-pierce'}, {'name': 'Ma$e', 'url': 'https://genius.com/artists/Ma-e'}, {'name': 'Matthew Wilder', 'url': 'https://genius.com/artists/Matthew-wilder'}, {'name': 'Michael Jonzun', 'url': 'https://genius.com/artists/Michael-jonzun'}, {'name': 'Michael Masser', 'url': 'https://genius.com/artists/Michael-masser'}, {'name': 'Nashiem Myrick', 'url': 'https://genius.com/artists/Nashiem-myrick'}, {'name': 'The Notorious', 'url': 'https://genius.com/artists/The-notorious'}, {'name': 'The Notorious B.I.G.', 'url': 'https://genius.com/artists/The-notorious-big'}, {'name': 'Ralph Middlebrooks', 'url': 'https://genius.com/artists/Ralph-middlebrooks'}, {'name': 'Rashad Smith', 'url': 'https://genius.com/artists/Rashad-smith'}, {'name': 'Ron “Amen-Ra” Lawrence', 'url': 'https://genius.com/artists/Ron-amen-ra-lawrence'}, {'name': 'Ron Lawrence', 'url': 'https://genius.com/artists/Ron-lawrence'}, {'name': 'Sauce Money', 'url': 'https://genius.com/artists/Sauce-money'}, {'name': 'Sheek Louch', 'url': 'https://genius.com/artists/Sheek-louch'}, {'name': 'Stevie J', 'url': 'https://genius.com/artists/Stevie-j'}, {'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}, {'name': 'Styles P', 'url': 'https://genius.com/artists/Styles-p'}, {'name': 'Sugarfoot', 'url': 'https://genius.com/artists/Sugarfoot'}, {'name': 'Sylvia Robinson', 'url': 'https://genius.com/artists/Sylvia-robinson'}, {'name': 'Terri Etlinger', 'url': 'https://genius.com/artists/Terri-etlinger'}, {'name': 'Twista', 'url': 'https://genius.com/artists/Twista'}, {'name': 'Wilson Turbinton', 'url': 'https://genius.com/artists/Wilson-turbinton'}], 'labels': [{'name': 'Arista Records', 'url': 'https://genius.com/artists/Arista-records'}, {'name': 'Bad Boy Entertainment', 'url': 'https://genius.com/artists/Bad-boy-entertainment'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Joey-ramone/Dont-worry-about-me', 'annotations': {'description': '', 'producers': [{'name': 'Daniel Rey', 'url': 'https://genius.com/artists/Daniel-rey'}], 'writers': [{'name': 'Bob Thiele', 'url': 'https://genius.com/artists/Bob-thiele'}, {'name': 'George David Weiss', 'url': 'https://genius.com/artists/George-david-weiss'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Imagine-dragons/Night-visions', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Night Visions&lt;/em&gt; is the debut studio album for American alt-rock band, Imagine Dragons. The album is defined by the success of hit singles &lt;a href="https://genius.com/Imagine-dragons-radioactive-lyrics" rel="noopener" data-api_path="/songs/98754"&gt;“Radioactive”&lt;/a&gt; and &lt;a href="https://genius.com/Imagine-dragons-demons-lyrics" rel="noopener" data-api_path="/songs/109206"&gt;“Demons”&lt;/a&gt;, the former of which held the record for the &lt;a href="https://www.billboard.com/articles/columns/rock/9615436/dan-reynolds-imagine-dragons-radioactive-weeknd" rel="noopener nofollow"&gt;longest song to chart on the Hot 100 in Billboard history&lt;/a&gt; for seven years. The band’s debut effort is also one of the ten longest-charting albums on the Billboard 200 at &lt;a href="https://www.billboard.com/music/imagine-dragons/chart-history/billboard-200/song/757410" rel="noopener nofollow"&gt;over 300 weeks&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The album, along with its singles, are defined by genre-blurring, anthemic tracks, complete with quiet verses and soaring &lt;a href="https://genius.com/Imagine-dragons-on-top-of-the-world-lyrics" rel="noopener" data-api_path="/songs/109209"&gt;choruses of triumph&lt;/a&gt; and &lt;a href="https://genius.com/Imagine-dragons-bleeding-out-lyrics" rel="noopener" data-api_path="/songs/110210"&gt;anguish&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Alex da Kid', 'url': 'https://genius.com/artists/Alex-da-kid'}, {'name': 'Brandon Darner', 'url': 'https://genius.com/artists/Brandon-darner'}, {'name': 'Daniel Platzman', 'url': 'https://genius.com/artists/Daniel-platzman'}, {'name': 'Dan Reynolds', 'url': 'https://genius.com/artists/Dan-reynolds'}, {'name': 'Imagine Dragons', 'url': 'https://genius.com/artists/Imagine-dragons'}, {'name': 'Wayne Sermon', 'url': 'https://genius.com/artists/Wayne-sermon'}], 'writers': [{'name': 'Alex da Kid', 'url': 'https://genius.com/artists/Alex-da-kid'}, {'name': 'Andrew Tolman', 'url': 'https://genius.com/artists/Andrew-tolman'}, {'name': 'Ben McKee', 'url': 'https://genius.com/artists/Ben-mckee'}, {'name': 'Brittany Tolman', 'url': 'https://genius.com/artists/Brittany-tolman'}, {'name': 'Daniel Platzman', 'url': 'https://genius.com/artists/Daniel-platzman'}, {'name': 'Dan Reynolds', 'url': 'https://genius.com/artists/Dan-reynolds'}, {'name': 'Imagine Dragons', 'url': 'https://genius.com/artists/Imagine-dragons'}, {'name': 'Josh Mosser', 'url': 'https://genius.com/artists/Josh-mosser'}, {'name': 'Wayne Sermon', 'url': 'https://genius.com/artists/Wayne-sermon'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'KIDinaKORNER', 'url': 'https://genius.com/artists/Kidinakorner'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Tears-for-fears/The-seeds-of-love', 'annotations': {'description': '', 'producers': [{'name': 'Dave Bascombe', 'url': 'https://genius.com/artists/Dave-bascombe'}, {'name': 'Tears for Fears', 'url': 'https://genius.com/artists/Tears-for-fears'}], 'writers': [{'name': 'Curt Smith', 'url': 'https://genius.com/artists/Curt-smith'}, {'name': 'Dave Bascombe', 'url': 'https://genius.com/artists/Dave-bascombe'}, {'name': 'Ian Stanley', 'url': 'https://genius.com/artists/Ian-stanley'}, {'name': 'Nicky Holland', 'url': 'https://genius.com/artists/Nicky-holland'}, {'name': 'Roland Orzabal', 'url': 'https://genius.com/artists/Roland-orzabal'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Jessie-j-ariana-grande-and-nicki-minaj/Bang-bang-remixes', 'annotations': {'description': '&lt;p&gt;These are the official remixes of Bang Bang as appeared on Spotify and Apple Music.&lt;/p&gt;', 'producers': [{'name': '3LAU', 'url': 'https://genius.com/artists/3lau'}, {'name': 'Dada Life', 'url': 'https://genius.com/artists/Dada-life'}, {'name': 'Gramercy', 'url': 'https://genius.com/artists/Gramercy'}, {'name': 'Imanos', 'url': 'https://genius.com/artists/Imanos'}, {'name': 'Kat Krazy', 'url': 'https://genius.com/artists/Kat-krazy'}, {'name': 'Super Stylers', 'url': 'https://genius.com/artists/Super-stylers'}], 'writers': [{'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Nicki Minaj', 'url': 'https://genius.com/artists/Nicki-minaj'}, {'name': 'Rickard Göransson', 'url': 'https://genius.com/artists/Rickard-goransson'}, {'name': 'Savan Kotecha', 'url': 'https://genius.com/artists/Savan-kotecha'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Travis/The-invisible-band', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Invisible Band&lt;/em&gt; is the third studio album by Scottish rock band Travis. It was first released on 11 June 2001 in the United Kingdom by Independiente and a day later in the United States by Epic Records.&lt;br&gt;\nThe title of the album makes reference to the band’s feelings regarding ‘music being more important than the band making it’. Band frontman &lt;a href="https://genius.com/artists/Fran-healy" rel="noopener" data-api_path="/artists/354157"&gt;Fran Healy&lt;/a&gt; stated in an interview that the album’s title referred to the band’s status in ‘having famous songs, but not being famous themselves’. The album spent four weeks at the top of the UK Albums Chart, selling more copies in that time than The Man Who managed in half a year.&lt;/p&gt;', 'producers': [{'name': 'Nigel Godrich', 'url': 'https://genius.com/artists/Nigel-godrich'}, {'name': 'Steve Orchard', 'url': 'https://genius.com/artists/Steve-orchard'}, {'name': 'Travis', 'url': 'https://genius.com/artists/Travis'}], 'writers': [{'name': 'Andy Dunlop', 'url': 'https://genius.com/artists/Andy-dunlop'}, {'name': 'Dougie Payne', 'url': 'https://genius.com/artists/Dougie-payne'}, {'name': 'Fran Healy', 'url': 'https://genius.com/artists/Fran-healy'}], 'labels': [{'name': 'Independiente', 'url': 'https://genius.com/artists/Independiente'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Coldplay/Viva-la-vida-or-death-and-all-his-friends', 'annotations': {'description': '&lt;p&gt;The fourth studio album of Coldplay, released June 2008, and debuting at number 1 on the &lt;em&gt;US Billboard 200&lt;/em&gt;. In fact, it made it to number 1 in twenty three separate countries, on its way to selling 11 million copies worldwide.  This was helped by the huge smash hit singles &lt;a href="https://genius.com/Coldplay-viva-la-vida-lyrics" rel="noopener" data-api_path="/songs/49192"&gt;“Viva La Vida,”&lt;/a&gt; &lt;a href="https://genius.com/Coldplay-lovers-in-japan-lyrics" rel="noopener" data-api_path="/songs/77991"&gt;“Lovers In Japan,”&lt;/a&gt; and &lt;a href="https://genius.com/Coldplay-lost-lyrics" rel="noopener" data-api_path="/songs/78578"&gt;“Lost.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In Spanish, the phrase translates to “Long Live Life,” and the theme of the record settles closely to this statement. The lyrics trace lead singer Chris Martin’s journey across the globe, both through love and his physical footprint. “Lovers In Japan,” &lt;a href="https://genius.com/Coldplay-chinese-sleep-chant-lyrics" rel="noopener" data-api_path="/songs/78836"&gt;“Chinese Sleep Chant”&lt;/a&gt; and &lt;a href="https://genius.com/Coldplay-cemeteries-of-london-lyrics" rel="noopener" data-api_path="/songs/78838"&gt;“Cemeteries of London”&lt;/a&gt; all make use of geographic locations, while the opening track &lt;a href="https://genius.com/Coldplay-life-in-technicolor-lyrics" rel="noopener" data-api_path="/songs/436577"&gt;“Life in Technicolor”&lt;/a&gt; is basically a blueprint for the ensuing songs and albums in Coldplay’s career.&lt;/p&gt;\n\n&lt;p&gt;Legend &lt;a href="https://genius.com/artists/Brian-eno" rel="noopener" data-api_path="/artists/29972"&gt;Brian Eno&lt;/a&gt; was on hand for the production, and all of the songs were written by the Coldplay members. A “tour edition DVD” was released alongisde the record, which included videos for all five singles.&lt;/p&gt;\n\n&lt;p&gt;Coldplay weren’t coy on the meanings behind each track, providing &lt;a href="http://www.mtv.com/news/1589032/coldplay-give-track-by-track-tour-of-viva-la-vida-explain-handclaps-tack-pianos-and-the-number-42/" rel="noopener nofollow"&gt;&lt;em&gt;MTV&lt;/em&gt;&lt;/a&gt; with a track-by-track break down of the record. In a &lt;a href="https://www.youtube.com/watch?v=ru8iY_sIHf0" rel="noopener nofollow"&gt;&lt;em&gt;CBC&lt;/em&gt; interview Chris says:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The sound of this record to me is the sound of Guy, Will and Jonny taking back the glory. Which makes me very happy. We reached the stage where we thought we can’t get much bigger so we had to get better. Quality over quantity, we need to practise a bit and improve.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The title of the album is, interestingly enough, inspired by an artwork of the same name by Frida Kahlo, whom Chris Martin adores. The painting of watermelons was discovered by the band in Mexico in early 2007, and found great admiration by the group.&lt;/p&gt;', 'producers': [{'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}, {'name': 'Jon Hopkins', 'url': 'https://genius.com/artists/Jon-hopkins'}, {'name': 'Markus Dravs', 'url': 'https://genius.com/artists/Markus-dravs'}, {'name': 'Rik Simpson', 'url': 'https://genius.com/artists/Rik-simpson'}], 'writers': [{'name': 'Chris Martin', 'url': 'https://genius.com/artists/Chris-martin'}, {'name': 'Guy Berryman', 'url': 'https://genius.com/artists/Guy-berryman'}, {'name': 'Jon Hopkins', 'url': 'https://genius.com/artists/Jon-hopkins'}, {'name': 'Jonny Buckland', 'url': 'https://genius.com/artists/Jonny-buckland'}, {'name': 'Will Champion', 'url': 'https://genius.com/artists/Will-champion'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'Parlophone Records', 'url': 'https://genius.com/artists/Parlophone-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Peter-schilling/Von-anfang-an-bis-jetzt-das-ultimativ-beste', 'annotations': {'description': '', 'producers': [{'name': 'Armin Sabol', 'url': 'https://genius.com/artists/Armin-sabol'}, {'name': 'Peter Schilling', 'url': 'https://genius.com/artists/Peter-schilling'}], 'writers': [{'name': 'Peter Schilling', 'url': 'https://genius.com/artists/Peter-schilling'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Kasabian/West-ryder-pauper-lunatic-asylum', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;West Ryder Pauper Lunatic Asylum&lt;/em&gt; is the third studio album by British indie rock band Kasabian, which was released on 5 June 2009. It is also the first album by the band to not feature &lt;a href="https://genius.com/artists/Christopher-karloff" rel="noopener" data-api_path="/artists/385451"&gt;Christopher Karloff&lt;/a&gt;, the band’s leading songwriter, following his departure during the writing stages of Kasabian’s second album, &lt;a href="https://genius.com/albums/Kasabian/Empire" rel="noopener" data-api_path="/albums/84290"&gt;&lt;em&gt;Empire&lt;/em&gt;&lt;/a&gt;. Lead guitarist &lt;a href="https://genius.com/artists/Sergio-pizzorno" rel="noopener" data-api_path="/artists/152469"&gt;Sergio Pizzorno&lt;/a&gt; took over as the main force behind the band’s song writing.&lt;/p&gt;\n\n&lt;p&gt;The album was nominated for the 2009 Mercury Prize. In October 2009, it was voted the best album of the year by Q Magazine.&lt;/p&gt;', 'producers': [{'name': 'Automator', 'url': 'https://genius.com/artists/Automator'}, {'name': 'Dan the Automator', 'url': 'https://genius.com/artists/Dan-the-automator'}, {'name': 'Sergio Pizzorno', 'url': 'https://genius.com/artists/Sergio-pizzorno'}], 'writers': [{'name': 'Sergio Pizzorno', 'url': 'https://genius.com/artists/Sergio-pizzorno'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Kid-rock/Rock-n-roll-jesus', 'annotations': {'description': '', 'producers': [{'name': 'Kid Rock', 'url': 'https://genius.com/artists/Kid-rock'}, {'name': 'Marlon Young', 'url': 'https://genius.com/artists/Marlon-young'}, {'name': 'Mike E. Clark', 'url': 'https://genius.com/artists/Mike-e-clark'}, {'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}], 'writers': [{'name': 'Bobcat', 'url': 'https://genius.com/artists/Bobcat'}, {'name': 'David Allan Coe', 'url': 'https://genius.com/artists/David-allan-coe'}, {'name': 'Dwayne Simon', 'url': 'https://genius.com/artists/Dwayne-simon'}, {'name': 'Ed King', 'url': 'https://genius.com/artists/Ed-king'}, {'name': 'Gary Rossington', 'url': 'https://genius.com/artists/Gary-rossington'}, {'name': 'Jason Krause', 'url': 'https://genius.com/artists/Jason-krause'}, {'name': 'John Eddie', 'url': 'https://genius.com/artists/John-eddie'}, {'name': 'Johnny Van Zant', 'url': 'https://genius.com/artists/Johnny-van-zant'}, {'name': 'Kenny Tudrick', 'url': 'https://genius.com/artists/Kenny-tudrick'}, {'name': 'Kid Rock', 'url': 'https://genius.com/artists/Kid-rock'}, {'name': 'LeRoy Marinell', 'url': 'https://genius.com/artists/Leroy-marinell'}, {'name': 'LL Cool J', 'url': 'https://genius.com/artists/Ll-cool-j'}, {'name': 'Marlon Young', 'url': 'https://genius.com/artists/Marlon-young'}, {'name': 'Uncle Kracker', 'url': 'https://genius.com/artists/Uncle-kracker'}, {'name': 'Waddy Wachtel', 'url': 'https://genius.com/artists/Waddy-wachtel'}, {'name': 'Warren Zevon', 'url': 'https://genius.com/artists/Warren-zevon'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Top Dog Records', 'url': 'https://genius.com/artists/Top-dog-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Adele/21', 'annotations': {'description': '&lt;p&gt;The once-in-a-lifetime smash success, &lt;em&gt;21&lt;/em&gt; signifies the return of the ballad into popular favor. It’s the most sucessful and arguably the most significant record of the ‘10s. &lt;em&gt;21&lt;/em&gt; is an essential breakup album; the &lt;a href="https://genius.com/albums/Carole-king/Tapestry" rel="noopener" data-api_path="/albums/33366"&gt;&lt;em&gt;Tapestry&lt;/em&gt;&lt;/a&gt; of the modern day.&lt;/p&gt;\n\n&lt;p&gt;It’s loaded with record-setting, ultra memorable tracks. The genre-crossing &lt;a href="https://genius.com/Adele-rolling-in-the-deep-lyrics" rel="noopener" data-api_path="/songs/61289"&gt;“Rolling In The Deep”&lt;/a&gt;, sentimental &lt;a href="https://genius.com/Adele-someone-like-you-lyrics" rel="noopener" data-api_path="/songs/51294"&gt;“Someone Like You”&lt;/a&gt;, vocally challenging &lt;a href="https://genius.com/Adele-set-fire-to-the-rain-lyrics" rel="noopener" data-api_path="/songs/62493"&gt;“Set Fire to the Rain”&lt;/a&gt;, the regretful &lt;a href="https://genius.com/Adele-turning-tables-lyrics" rel="noopener" data-api_path="/songs/61580"&gt;“Turning Tables”&lt;/a&gt;, bluesy &lt;a href="https://genius.com/Adele-take-it-all-lyrics" rel="noopener" data-api_path="/songs/57210"&gt;“Take It All”&lt;/a&gt;, a cover of &lt;a href="https://genius.com/artists/The-cure" rel="noopener" data-api_path="/artists/15758"&gt;The Cure’s&lt;/a&gt; &lt;a href="https://genius.com/The-cure-lovesong-lyrics" rel="noopener" data-api_path="/songs/61506"&gt;“Lovesong”&lt;/a&gt;…&lt;em&gt;21&lt;/em&gt; is heartbreak at its finest.&lt;/p&gt;\n\n&lt;p&gt;The personal record has clearly translated from person to person. Reigning as one of the best selling albums of all time and the highest selling album of the decade with a reported 31 million copies sold, &lt;em&gt;21&lt;/em&gt; continues to touch hearts &amp;amp; conjure melancholy to this day. It is truly the definition of a timeless record.&lt;/p&gt;', 'producers': [{'name': 'Adele', 'url': 'https://genius.com/artists/Adele'}, {'name': 'Dan Wilson', 'url': 'https://genius.com/artists/Dan-wilson'}, {'name': 'Fraser T. Smith', 'url': 'https://genius.com/artists/Fraser-t-smith'}, {'name': 'Jim Abbiss', 'url': 'https://genius.com/artists/Jim-abbiss'}, {'name': 'Paul Epworth', 'url': 'https://genius.com/artists/Paul-epworth'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}], 'writers': [{'name': 'Adele', 'url': 'https://genius.com/artists/Adele'}, {'name': 'The Cure', 'url': 'https://genius.com/artists/The-cure'}, {'name': 'Dan Wilson', 'url': 'https://genius.com/artists/Dan-wilson'}, {'name': 'Eg White', 'url': 'https://genius.com/artists/Eg-white'}, {'name': 'Fraser T. Smith', 'url': 'https://genius.com/artists/Fraser-t-smith'}, {'name': 'Greg Wells', 'url': 'https://genius.com/artists/Greg-wells'}, {'name': 'Paul Epworth', 'url': 'https://genius.com/artists/Paul-epworth'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'XL Recordings', 'url': 'https://genius.com/artists/Xl-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Fifth-harmony/7-27', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;7/27&lt;/em&gt; is the second studio album by American girl group Fifth Harmony. It was originally scheduled to be released on May 20th, 2016 but was later pushed back to May 27 to match the “27” part of the release date.&lt;/p&gt;\n\n&lt;p&gt;The album’s lead single, &lt;a href="https://genius.com/Fifth-harmony-work-from-home-lyrics" rel="noopener" data-api_path="/songs/2427392"&gt;“Work from Home”&lt;/a&gt;, was released on February 26, 2016, and peaked at #4 on the Billboard Hot 100, surpassing the #12 peak of &lt;a href="https://genius.com/Fifth-harmony-worth-it-lyrics" rel="noopener" data-api_path="/songs/669122"&gt;“Worth It”&lt;/a&gt; to become their highest-peaking single ever.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.ew.com/article/2016/03/25/fifth-harmony-727-interview-1" rel="noopener nofollow"&gt;In an interview with &lt;em&gt;Entertainment Weekly&lt;/em&gt;&lt;/a&gt;, Normani said the album was more “personal” and that they had “a lot more creative say” in it than their debut, &lt;a href="https://genius.com/albums/Fifth-harmony/Reflection" rel="noopener" data-api_path="/albums/117788"&gt;&lt;em&gt;Reflection.&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The album features guest vocals from &lt;a href="https://genius.com/artists/Ty-dolla-sign" rel="noopener" data-api_path="/artists/25005"&gt;Ty Dolla $ign&lt;/a&gt;, &lt;a href="https://genius.com/artists/Fetty-wap" rel="noopener" data-api_path="/artists/216609"&gt;Fetty Wap&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Missy-elliot" rel="noopener"&gt;Missy Elliott.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Aaron Pearce', 'url': 'https://genius.com/artists/Aaron-pearce'}, {'name': 'Alexander Kronlund', 'url': 'https://genius.com/artists/Alexander-kronlund'}, {'name': 'Ammo', 'url': 'https://genius.com/artists/Ammo'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'BloodPop®', 'url': 'https://genius.com/artists/Bloodpop'}, {'name': 'DallasK', 'url': 'https://genius.com/artists/Dallask'}, {'name': 'German (Producer)', 'url': 'https://genius.com/artists/German-producer'}, {'name': 'Gladius', 'url': 'https://genius.com/artists/Gladius'}, {'name': 'Jack Antonoff', 'url': 'https://genius.com/artists/Jack-antonoff'}, {'name': 'Kygo', 'url': 'https://genius.com/artists/Kygo'}, {'name': 'Lukas “Lulou” Loules', 'url': 'https://genius.com/artists/Lukas-lulou-loules'}, {'name': 'The Monsters &amp; Strangerz', 'url': 'https://genius.com/artists/The-monsters-and-strangerz'}, {'name': 'Play Picasso', 'url': 'https://genius.com/artists/Play-picasso'}, {'name': 'StarGate', 'url': 'https://genius.com/artists/Stargate'}, {'name': 'TBHits', 'url': 'https://genius.com/artists/Tbhits'}], 'writers': [{'name': 'Aaron Pearce', 'url': 'https://genius.com/artists/Aaron-pearce'}, {'name': 'Alexander Kronlund', 'url': 'https://genius.com/artists/Alexander-kronlund'}, {'name': 'Ally Brooke', 'url': 'https://genius.com/artists/Ally-brooke'}, {'name': 'Ammo', 'url': 'https://genius.com/artists/Ammo'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'BloodPop®', 'url': 'https://genius.com/artists/Bloodpop'}, {'name': 'Brian Gold', 'url': 'https://genius.com/artists/Brian-gold'}, {'name': 'Brian Lee', 'url': 'https://genius.com/artists/Brian-lee'}, {'name': 'Camila Cabello', 'url': 'https://genius.com/artists/Camila-cabello'}, {'name': 'Cass Lowe', 'url': 'https://genius.com/artists/Cass-lowe'}, {'name': 'Clifton Dillon', 'url': 'https://genius.com/artists/Clifton-dillon'}, {'name': 'DallasK', 'url': 'https://genius.com/artists/Dallask'}, {'name': 'Dinah Jane', 'url': 'https://genius.com/artists/Dinah-jane'}, {'name': 'Eskeerdo', 'url': 'https://genius.com/artists/Eskeerdo'}, {'name': 'Fetty Wap', 'url': 'https://genius.com/artists/Fetty-wap'}, {'name': 'German (Producer)', 'url': 'https://genius.com/artists/German-producer'}, {'name': 'Gladius', 'url': 'https://genius.com/artists/Gladius'}, {'name': 'Handel Tucker', 'url': 'https://genius.com/artists/Handel-tucker'}, {'name': 'Herbert Harris', 'url': 'https://genius.com/artists/Herbert-harris'}, {'name': 'Jack Antonoff', 'url': 'https://genius.com/artists/Jack-antonoff'}, {'name': 'Jared Cotter', 'url': 'https://genius.com/artists/Jared-cotter'}, {'name': 'JHart', 'url': 'https://genius.com/artists/Jhart'}, {'name': 'Jordan K. Johnson', 'url': 'https://genius.com/artists/Jordan-k-johnson'}, {'name': 'Jude Demorest', 'url': 'https://genius.com/artists/Jude-demorest'}, {'name': 'Julia Michaels', 'url': 'https://genius.com/artists/Julia-michaels'}, {'name': 'Justin Tranter', 'url': 'https://genius.com/artists/Justin-tranter'}, {'name': 'Kygo', 'url': 'https://genius.com/artists/Kygo'}, {'name': 'Lauren Jauregui', 'url': 'https://genius.com/artists/Lauren-jauregui'}, {'name': 'Leroy Romans', 'url': 'https://genius.com/artists/Leroy-romans'}, {'name': 'Linton “TJ” White', 'url': 'https://genius.com/artists/Linton-tj-white'}, {'name': 'LSR', 'url': 'https://genius.com/artists/Lsr'}, {'name': 'Lukas “Lulou” Loules', 'url': 'https://genius.com/artists/Lukas-lulou-loules'}, {'name': 'Mad Cobra', 'url': 'https://genius.com/artists/Mad-cobra'}, {'name': 'MarcLo', 'url': 'https://genius.com/artists/Marclo'}, {'name': 'Mario Antonia Dunwell', 'url': 'https://genius.com/artists/Mario-antonia-dunwell'}, {'name': 'Mikkel Storleer Eriksen', 'url': 'https://genius.com/artists/Mikkel-storleer-eriksen'}, {'name': 'Missy Elliott', 'url': 'https://genius.com/artists/Missy-elliott'}, {'name': 'Negin Djafari', 'url': 'https://genius.com/artists/Negin-djafari'}, {'name': 'Normani', 'url': 'https://genius.com/artists/Normani'}, {'name': 'Peoples', 'url': 'https://genius.com/artists/Peoples'}, {'name': 'Play Picasso', 'url': 'https://genius.com/artists/Play-picasso'}, {'name': 'Priscilla Renea', 'url': 'https://genius.com/artists/Priscilla-renea'}, {'name': 'Richard Foulks', 'url': 'https://genius.com/artists/Richard-foulks'}, {'name': 'Simon Wilcox', 'url': 'https://genius.com/artists/Simon-wilcox'}, {'name': 'Sir Nolan', 'url': 'https://genius.com/artists/Sir-nolan'}, {'name': 'Sly Dunbar', 'url': 'https://genius.com/artists/Sly-dunbar'}, {'name': 'StarGate', 'url': 'https://genius.com/artists/Stargate'}, {'name': 'Stefan Johnson', 'url': 'https://genius.com/artists/Stefan-johnson'}, {'name': 'Tinashe', 'url': 'https://genius.com/artists/Tinashe'}, {'name': 'Tor Erik Hermansen', 'url': 'https://genius.com/artists/Tor-erik-hermansen'}, {'name': 'Tory Lanez', 'url': 'https://genius.com/artists/Tory-lanez'}, {'name': 'Ty Dolla $ign', 'url': 'https://genius.com/artists/Ty-dolla-sign'}, {'name': 'Victoria Monét', 'url': 'https://genius.com/artists/Victoria-monet'}, {'name': 'Vybz Kartel', 'url': 'https://genius.com/artists/Vybz-kartel'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-chainsmokers/Closer-remixes', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Closer (feat. Halsey) (Remixes)&lt;/em&gt; were released on iTunes on September 23rd 2016. Remixers include: Wuki, Shaun Frank, R3hab, and Robotaki.&lt;/p&gt;', 'producers': [{'name': 'ARMNHMR', 'url': 'https://genius.com/artists/Armnhmr'}, {'name': 'R3HAB', 'url': 'https://genius.com/artists/R3hab'}, {'name': 'Robotaki', 'url': 'https://genius.com/artists/Robotaki'}, {'name': 'Shaun Frank', 'url': 'https://genius.com/artists/Shaun-frank'}, {'name': 'T-Mass', 'url': 'https://genius.com/artists/T-mass'}, {'name': 'Wuki', 'url': 'https://genius.com/artists/Wuki'}], 'writers': [{'name': 'Alex Pall', 'url': 'https://genius.com/artists/Alex-pall'}, {'name': 'Andrew Taggart', 'url': 'https://genius.com/artists/Andrew-taggart'}, {'name': 'The Chainsmokers', 'url': 'https://genius.com/artists/The-chainsmokers'}, {'name': 'Frederic Kennett', 'url': 'https://genius.com/artists/Frederic-kennett'}, {'name': 'Halsey', 'url': 'https://genius.com/artists/Halsey'}, {'name': 'Isaac Slade', 'url': 'https://genius.com/artists/Isaac-slade'}, {'name': 'Joe King', 'url': 'https://genius.com/artists/Joe-king'}, {'name': 'Shaun Frank', 'url': 'https://genius.com/artists/Shaun-frank'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-police/Greatest-hits', 'annotations': {'description': '', 'producers': [{'name': 'Hugh Padgham', 'url': 'https://genius.com/artists/Hugh-padgham'}, {'name': 'Nigel Gray', 'url': 'https://genius.com/artists/Nigel-gray'}, {'name': 'The Police', 'url': 'https://genius.com/artists/The-police'}], 'writers': [{'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Mark-ronson/Uptown-special', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Uptown Special&lt;/em&gt; will be remembered for one of the all time great pop singles, &lt;a href="https://genius.com/Mark-ronson-uptown-funk-lyrics" rel="noopener" data-api_path="/songs/576123"&gt;“Uptown Funk”&lt;/a&gt; featuring Bruno Mars. Ronson’s sound isn’t always so maximalist, and the record revels in its more understated tones and melodies, hugely informed by 70’s Jazz and 80’s Disco.&lt;/p&gt;\n\n&lt;p&gt;But you can’t deny the pull of a genuine classic single. The album was helped to number 5 on the &lt;em&gt;US Billboard 200&lt;/em&gt;, easily Mark’s most successful US release. It’s also the first time he’d struck number 1 in the UK.&lt;/p&gt;\n\n&lt;p&gt;Ronson &lt;a href="http://www.spin.com/g00/2015/01/mark-ronson-uptown-special-funk-bruno-mars-interview/?i10c.referrer=https%3A%2F%2Fwww.google.com.au%2F" rel="noopener nofollow"&gt;told &lt;em&gt;Spin&lt;/em&gt;:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I always come back to: Stevie Wonder, Chaka Khan, great late-’70s, early-’80s R&amp;amp;B.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Boys Noize', 'url': 'https://genius.com/artists/Boys-noize'}, {'name': 'Bruno Mars', 'url': 'https://genius.com/artists/Bruno-mars'}, {'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'James Ford', 'url': 'https://genius.com/artists/James-ford'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}, {'name': 'Riton', 'url': 'https://genius.com/artists/Riton'}], 'writers': [{'name': 'Alex Greenwald', 'url': 'https://genius.com/artists/Alex-greenwald'}, {'name': 'Andrew Wyatt', 'url': 'https://genius.com/artists/Andrew-wyatt'}, {'name': 'Brody Brown', 'url': 'https://genius.com/artists/Brody-brown'}, {'name': 'Bruno Mars', 'url': 'https://genius.com/artists/Bruno-mars'}, {'name': 'Charlie Wilson', 'url': 'https://genius.com/artists/Charlie-wilson'}, {'name': 'Chris Vatalaro', 'url': 'https://genius.com/artists/Chris-vatalaro'}, {'name': 'Devon Gallaspy', 'url': 'https://genius.com/artists/Devon-gallaspy'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'Homer Steinweiss', 'url': 'https://genius.com/artists/Homer-steinweiss'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Kevin Parker', 'url': 'https://genius.com/artists/Kevin-parker'}, {'name': 'Kurupt', 'url': 'https://genius.com/artists/Kurupt'}, {'name': 'Lonnie Simmons', 'url': 'https://genius.com/artists/Lonnie-simmons'}, {'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}, {'name': 'Michael Chabon', 'url': 'https://genius.com/artists/Michael-chabon'}, {'name': 'Mystikal', 'url': 'https://genius.com/artists/Mystikal'}, {'name': 'Nate Dogg', 'url': 'https://genius.com/artists/Nate-dogg'}, {'name': 'Nick Movshon', 'url': 'https://genius.com/artists/Nick-movshon'}, {'name': 'Pal Joey', 'url': 'https://genius.com/artists/Pal-joey'}, {'name': 'Philip Lawrence', 'url': 'https://genius.com/artists/Philip-lawrence'}, {'name': 'Robert Wilson (The Gap Band)', 'url': 'https://genius.com/artists/Robert-wilson-the-gap-band'}, {'name': 'Ronnie Wilson', 'url': 'https://genius.com/artists/Ronnie-wilson'}, {'name': 'Rudy Taylor', 'url': 'https://genius.com/artists/Rudy-taylor'}, {'name': 'Rufus Wainwright', 'url': 'https://genius.com/artists/Rufus-wainwright'}, {'name': 'Snoop Dogg', 'url': 'https://genius.com/artists/Snoop-dogg'}, {'name': 'Thomas Brenneck', 'url': 'https://genius.com/artists/Thomas-brenneck'}, {'name': 'Trinidad James', 'url': 'https://genius.com/artists/Trinidad-james'}, {'name': 'Warren\xa0G', 'url': 'https://genius.com/artists/Warren-g'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/My-chemical-romance/May-death-never-stop-you', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;May Death Never Stop You&lt;/em&gt; is a compilation of My Chemical Romance’s greatest hits, spanning the band’s career from 2002-2013. It was released on March 25, 2014, over a year after the band announced their breakup.&lt;/p&gt;\n\n&lt;p&gt;The album opens with the previously unrelased track &lt;a href="https://genius.com/my-chemical-romance-fake-your-death-lyrics" rel="noopener" data-api_path="/songs/366546"&gt;“Fake Your Death,”&lt;/a&gt; which is followed by fifteen of their greatest hits and three demo recordings. &lt;a href="https://genius.com/my-chemical-romance-skylines-and-turnstiles-lyrics" rel="noopener" data-api_path="/songs/91304"&gt;“Skylines and Turnstiles”&lt;/a&gt; and &lt;a href="https://genius.com/my-chemical-romance-cubicles-lyrics" rel="noopener" data-api_path="/songs/320090"&gt;“Cubicles”&lt;/a&gt; retained their names, while &lt;a href="https://genius.com/my-chemical-romance-knives-sorrow-demo-lyrics" rel="noopener" data-api_path="/songs/1630829"&gt;“Knives / Sorrow”&lt;/a&gt; became &lt;a href="https://genius.com/my-chemical-romance-our-lady-of-sorrows-lyrics" rel="noopener" data-api_path="/songs/91302"&gt;“Our Lady of Sorrows.”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Alex Saavedra', 'url': 'https://genius.com/artists/Alex-saavedra'}, {'name': 'Doug McKean', 'url': 'https://genius.com/artists/Doug-mckean'}, {'name': 'Eyeball Records', 'url': 'https://genius.com/artists/Eyeball-records'}, {'name': 'Geoff Rickly', 'url': 'https://genius.com/artists/Geoff-rickly'}, {'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}, {'name': 'My Chemical Romance', 'url': 'https://genius.com/artists/My-chemical-romance'}, {'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}], 'writers': [{'name': 'Bob Bryar', 'url': 'https://genius.com/artists/Bob-bryar'}, {'name': 'Frank Iero', 'url': 'https://genius.com/artists/Frank-iero'}, {'name': 'Gerard Way', 'url': 'https://genius.com/artists/Gerard-way'}, {'name': 'James Dewees', 'url': 'https://genius.com/artists/James-dewees'}, {'name': 'Matt Pelissier', 'url': 'https://genius.com/artists/Matt-pelissier'}, {'name': 'Mikey Way', 'url': 'https://genius.com/artists/Mikey-way'}, {'name': 'My Chemical Romance', 'url': 'https://genius.com/artists/My-chemical-romance'}, {'name': 'Ray Toro', 'url': 'https://genius.com/artists/Ray-toro'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-proclaimers/Sunshine-on-leith', 'annotations': {'description': '', 'producers': [{'name': 'Pete Wingfield', 'url': 'https://genius.com/artists/Pete-wingfield'}], 'writers': [{'name': 'Charlie Reid', 'url': 'https://genius.com/artists/Charlie-reid'}, {'name': 'Craig Reid', 'url': 'https://genius.com/artists/Craig-reid'}, {'name': 'Danny Dill, Marijohn Wilkin', 'url': 'https://genius.com/artists/Danny-dill-marijohn-wilkin'}, {'name': 'Roger Miller', 'url': 'https://genius.com/artists/Roger-miller'}, {'name': 'Steve Earle', 'url': 'https://genius.com/artists/Steve-earle'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Britney-spears/Greatest-hits-my-prerogative', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;“Greatest Hits: My Prerogative”&lt;/em&gt; is the first greatest hits album by Britney Spears. It was released on November 8, 2004. The compilation was released in two different formats, a standard edition and a limited edition containing a bonus disc with remixes.&lt;/p&gt;\n\n&lt;p&gt;The album includes three new tracks, a cover of Bobby Brown’s &lt;a href="https://genius.com/Britney-spears-my-prerogative-lyrics" rel="noopener" data-api_path="/songs/193864"&gt;&lt;em&gt;“My Prerogative”&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/Britney-spears-do-somethin-lyrics" rel="noopener" data-api_path="/songs/193768"&gt;&lt;em&gt;“Do Somethin\'”&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/Britney-spears-ive-just-begun-having-my-fun-lyrics" rel="noopener" data-api_path="/songs/193663"&gt;&lt;em&gt;“I’ve Just Begun (Having My Fun)”&lt;/em&gt;&lt;/a&gt;, which was released digitally in August 2004.&lt;/p&gt;', 'producers': [{'name': 'Bloodshy &amp; Avant', 'url': 'https://genius.com/artists/Bloodshy-and-avant'}, {'name': 'David Kreuger', 'url': 'https://genius.com/artists/David-kreuger'}, {'name': 'Guy Sigsworth', 'url': 'https://genius.com/artists/Guy-sigsworth'}, {'name': 'Jörgen Elofsson', 'url': 'https://genius.com/artists/Jorgen-elofsson'}, {'name': 'Kristian Lundin', 'url': 'https://genius.com/artists/Kristian-lundin'}, {'name': 'Mark Taylor', 'url': 'https://genius.com/artists/Mark-taylor'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'The Neptunes', 'url': 'https://genius.com/artists/The-neptunes'}, {'name': 'Per Magnusson', 'url': 'https://genius.com/artists/Per-magnusson'}, {'name': 'Rami', 'url': 'https://genius.com/artists/Rami'}, {'name': 'R. Kelly', 'url': 'https://genius.com/artists/R-kelly'}, {'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}, {'name': 'Rodney Jerkins', 'url': 'https://genius.com/artists/Rodney-jerkins'}, {'name': 'Tricky Stewart', 'url': 'https://genius.com/artists/Tricky-stewart'}], 'writers': [{'name': 'Alan Merrill', 'url': 'https://genius.com/artists/Alan-merrill'}, {'name': 'Alexander Kronlund', 'url': 'https://genius.com/artists/Alexander-kronlund'}, {'name': 'Andreas Carlsson', 'url': 'https://genius.com/artists/Andreas-carlsson'}, {'name': 'Angela Hunte', 'url': 'https://genius.com/artists/Angela-hunte'}, {'name': 'Annette Stamatelatos', 'url': 'https://genius.com/artists/Annette-stamatelatos'}, {'name': 'Bloodshy', 'url': 'https://genius.com/artists/Bloodshy'}, {'name': 'Bloodshy &amp; Avant', 'url': 'https://genius.com/artists/Bloodshy-and-avant'}, {'name': 'Bobby Brown', 'url': 'https://genius.com/artists/Bobby-brown'}, {'name': 'Britney Spears', 'url': 'https://genius.com/artists/Britney-spears'}, {'name': 'Cathy Dennis', 'url': 'https://genius.com/artists/Cathy-dennis'}, {'name': 'Chad Hugo', 'url': 'https://genius.com/artists/Chad-hugo'}, {'name': 'David Kreuger', 'url': 'https://genius.com/artists/David-kreuger'}, {'name': 'Dido', 'url': 'https://genius.com/artists/Dido'}, {'name': 'Gary O’Brien', 'url': 'https://genius.com/artists/Gary-obrien'}, {'name': 'Gene Griffin', 'url': 'https://genius.com/artists/Gene-griffin'}, {'name': 'Henrik Jonback', 'url': 'https://genius.com/artists/Henrik-jonback'}, {'name': 'Jake Hooker', 'url': 'https://genius.com/artists/Jake-hooker'}, {'name': 'Jörgen Elofsson', 'url': 'https://genius.com/artists/Jorgen-elofsson'}, {'name': 'Keith Scott', 'url': 'https://genius.com/artists/Keith-scott'}, {'name': 'Kristian Lundin', 'url': 'https://genius.com/artists/Kristian-lundin'}, {'name': 'Lisa Greene', 'url': 'https://genius.com/artists/Lisa-greene'}, {'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Michelle Bell', 'url': 'https://genius.com/artists/Michelle-bell'}, {'name': 'Penelope Magnet', 'url': 'https://genius.com/artists/Penelope-magnet'}, {'name': 'Per Magnusson', 'url': 'https://genius.com/artists/Per-magnusson'}, {'name': 'Pharrell Williams', 'url': 'https://genius.com/artists/Pharrell-williams'}, {'name': 'Pontus Winnberg', 'url': 'https://genius.com/artists/Pontus-winnberg'}, {'name': 'Rami', 'url': 'https://genius.com/artists/Rami'}, {'name': 'R. Kelly', 'url': 'https://genius.com/artists/R-kelly'}, {'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}, {'name': 'Shania Twain', 'url': 'https://genius.com/artists/Shania-twain'}, {'name': 'Stephen Lee', 'url': 'https://genius.com/artists/Stephen-lee'}, {'name': 'Steve Anderson [Brothers In Rhythm]', 'url': 'https://genius.com/artists/Steve-anderson-brothers-in-rhythm'}, {'name': 'Thabiso “Tab” Nkhereanye', 'url': 'https://genius.com/artists/Thabiso-tab-nkhereanye'}, {'name': 'The-Dream', 'url': 'https://genius.com/artists/The-dream'}, {'name': 'Tricky Stewart', 'url': 'https://genius.com/artists/Tricky-stewart'}], 'labels': [{'name': 'Jive Records', 'url': 'https://genius.com/artists/Jive-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-all-american-rejects/Move-along', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Move Along&lt;/em&gt; is the second album by the American pop punk band The All-American Rejects, released on July 12, 2005 via Interscope Records. Writing for the album &lt;a href="http://www.mtv.com/news/1479678/all-american-rejects-make-the-honeymoon-last-on-time-stands-still/" rel="noopener nofollow"&gt;began&lt;/a&gt; in 2003.&lt;/p&gt;\n\n&lt;p&gt;The album produced a total of three singles: &lt;a href="https://genius.com/The-all-american-rejects-dirty-little-secret-lyrics" rel="noopener" data-api_path="/songs/77010"&gt;“Dirty Little Secret”&lt;/a&gt;, &lt;a href="https://genius.com/The-all-american-rejects-move-along-lyrics" rel="noopener" data-api_path="/songs/116101"&gt;“Move Along”&lt;/a&gt;, and &lt;a href="https://genius.com/The-all-american-rejects-it-ends-tonight-lyrics" rel="noopener" data-api_path="/songs/397654"&gt;“It Ends Tonight”&lt;/a&gt;, which all peaked within the top 15 of the Billboard Hot 100.&lt;/p&gt;', 'producers': [{'name': 'The All-American Rejects', 'url': 'https://genius.com/artists/The-all-american-rejects'}, {'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Nick Wheeler', 'url': 'https://genius.com/artists/Nick-wheeler'}, {'name': 'Tyson Ritter', 'url': 'https://genius.com/artists/Tyson-ritter'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Avicii/True-avicii-by-avicii', 'annotations': {'description': '&lt;p&gt;This is an album Tim made with remixes of his own original songs.&lt;/p&gt;', 'producers': [{'name': 'Ash Pournouri', 'url': 'https://genius.com/artists/Ash-pournouri'}, {'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}, {'name': 'CAZZETTE', 'url': 'https://genius.com/artists/Cazzette'}, {'name': 'Jens Siverstedt', 'url': 'https://genius.com/artists/Jens-siverstedt'}, {'name': 'Nile Rodgers', 'url': 'https://genius.com/artists/Nile-rodgers'}], 'writers': [{'name': 'Adam Lambert', 'url': 'https://genius.com/artists/Adam-lambert'}, {'name': 'Aloe Blacc', 'url': 'https://genius.com/artists/Aloe-blacc'}, {'name': 'ANOHNI', 'url': 'https://genius.com/artists/Anohni'}, {'name': 'Arash Pournouri', 'url': 'https://genius.com/artists/Arash-pournouri'}, {'name': 'Ash Pournouri', 'url': 'https://genius.com/artists/Ash-pournouri'}, {'name': 'Audra Mae', 'url': 'https://genius.com/artists/Audra-mae'}, {'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}, {'name': 'Bruce Driscoll', 'url': 'https://genius.com/artists/Bruce-driscoll'}, {'name': 'Egbert Nathaniel Dawkins', 'url': 'https://genius.com/artists/Egbert-nathaniel-dawkins'}, {'name': 'Erica Driscoll', 'url': 'https://genius.com/artists/Erica-driscoll'}, {'name': 'Jonas Knutsson', 'url': 'https://genius.com/artists/Jonas-knutsson'}, {'name': 'Josh Krajcik', 'url': 'https://genius.com/artists/Josh-krajcik'}, {'name': 'MØ', 'url': 'https://genius.com/artists/M'}, {'name': 'Mac Davis', 'url': 'https://genius.com/artists/Mac-davis'}, {'name': 'Mike Einziger', 'url': 'https://genius.com/artists/Mike-einziger'}, {'name': 'Nile Rodgers', 'url': 'https://genius.com/artists/Nile-rodgers'}, {'name': 'Peter Dyer', 'url': 'https://genius.com/artists/Peter-dyer'}, {'name': 'Salem Al Fakir', 'url': 'https://genius.com/artists/Salem-al-fakir'}, {'name': 'Sterling Fox', 'url': 'https://genius.com/artists/Sterling-fox'}, {'name': 'Veronica Maggio', 'url': 'https://genius.com/artists/Veronica-maggio'}, {'name': 'Vincent Pontare', 'url': 'https://genius.com/artists/Vincent-pontare'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Charlie-puth/Nine-track-mind', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Nine Track Mind&lt;/em&gt; is the debut album by singer-songwriter &lt;a href="https://genius.com/artists/Charlie-puth" rel="noopener" data-api_path="/artists/250301"&gt;Charlie Puth&lt;/a&gt;. It was originally set to drop on November 6th, 2015, but its release date was moved to January 29th, 2016. It includes the nearly-top-twenty single &lt;a href="https://genius.com/Charlie-puth-marvin-gaye-lyrics" rel="noopener" data-api_path="/songs/706298"&gt;“Marvin Gaye,”&lt;/a&gt; a duet with Charlie’s friend &lt;a href="https://genius.com/artists/Meghan-trainor" rel="noopener" data-api_path="/artists/201194"&gt;Meghan Trainor,&lt;/a&gt; which peaked at 21.&lt;/p&gt;\n\n&lt;p&gt;The title is a play on the phrase &lt;a href="http://www.urbandictionary.com/define.php?term=one-track%20mind" rel="noopener nofollow"&gt;“one track mind,”&lt;/a&gt; which means that someone concentrates on one thing and allow it to replace all other thoughts. Ironically, the album has twelve songs on it.&lt;/p&gt;\n\n&lt;p&gt;Deluxe tracks &lt;a href="https://genius.com/charlie-puth-does-it-feel-lyrics" rel="noopener" data-api_path="/songs/2905476"&gt;“Does It Feel”&lt;/a&gt; and &lt;a href="https://genius.com/charlie-puth-river-lyrics" rel="noopener" data-api_path="/songs/2905473"&gt;“River”&lt;/a&gt; were released the night of November 10th, 2016.&lt;/p&gt;', 'producers': [{'name': 'Andrew Cedar', 'url': 'https://genius.com/artists/Andrew-cedar'}, {'name': 'Charlie Puth', 'url': 'https://genius.com/artists/Charlie-puth'}, {'name': 'DJ Frank E', 'url': 'https://genius.com/artists/Dj-frank-e'}, {'name': 'Geoffro Cause', 'url': 'https://genius.com/artists/Geoffro-cause'}, {'name': 'Infamous', 'url': 'https://genius.com/artists/Infamous'}, {'name': 'Jesse Shatkin', 'url': 'https://genius.com/artists/Jesse-shatkin'}, {'name': 'Johan Carlsson', 'url': 'https://genius.com/artists/Johan-carlsson'}, {'name': 'J.R. Rotem', 'url': 'https://genius.com/artists/Jr-rotem'}, {'name': 'Kevin Weaver', 'url': 'https://genius.com/artists/Kevin-weaver'}, {'name': 'Matt Prime', 'url': 'https://genius.com/artists/Matt-prime'}, {'name': 'Mike Caren', 'url': 'https://genius.com/artists/Mike-caren'}, {'name': 'Red Triangle', 'url': 'https://genius.com/artists/Red-triangle'}], 'writers': [{'name': 'Andrew Cedar', 'url': 'https://genius.com/artists/Andrew-cedar'}, {'name': 'Bonnie McKee', 'url': 'https://genius.com/artists/Bonnie-mckee'}, {'name': 'Breyan Isaac', 'url': 'https://genius.com/artists/Breyan-isaac'}, {'name': 'Charlie Puth', 'url': 'https://genius.com/artists/Charlie-puth'}, {'name': 'Dann Hume', 'url': 'https://genius.com/artists/Dann-hume'}, {'name': 'David Brook', 'url': 'https://genius.com/artists/David-brook'}, {'name': 'DJ Frank E', 'url': 'https://genius.com/artists/Dj-frank-e'}, {'name': 'Eskeerdo', 'url': 'https://genius.com/artists/Eskeerdo'}, {'name': 'Geoffro Cause', 'url': 'https://genius.com/artists/Geoffro-cause'}, {'name': 'Giorgio Tuinfort', 'url': 'https://genius.com/artists/Giorgio-tuinfort'}, {'name': 'Infamous', 'url': 'https://genius.com/artists/Infamous'}, {'name': 'Jack Martello', 'url': 'https://genius.com/artists/Jack-martello'}, {'name': 'Jacob Kasher', 'url': 'https://genius.com/artists/Jacob-kasher'}, {'name': 'Jacob Luttrell', 'url': 'https://genius.com/artists/Jacob-luttrell'}, {'name': 'JHart', 'url': 'https://genius.com/artists/Jhart'}, {'name': 'Johan Carlsson', 'url': 'https://genius.com/artists/Johan-carlsson'}, {'name': 'Josh Hardy', 'url': 'https://genius.com/artists/Josh-hardy'}, {'name': 'Josh Kear', 'url': 'https://genius.com/artists/Josh-kear'}, {'name': 'J.R. Rotem', 'url': 'https://genius.com/artists/Jr-rotem'}, {'name': 'Julie Frost', 'url': 'https://genius.com/artists/Julie-frost'}, {'name': 'Marc E. Bassy', 'url': 'https://genius.com/artists/Marc-e-bassy'}, {'name': 'Matt Prime', 'url': 'https://genius.com/artists/Matt-prime'}, {'name': 'MoZella', 'url': 'https://genius.com/artists/Mozella'}, {'name': 'Nick Seeley', 'url': 'https://genius.com/artists/Nick-seeley'}, {'name': 'Phoebe Lou', 'url': 'https://genius.com/artists/Phoebe-lou'}, {'name': 'PJ', 'url': 'https://genius.com/artists/Pj'}, {'name': 'Red Triangle', 'url': 'https://genius.com/artists/Red-triangle'}, {'name': 'Ross Golan', 'url': 'https://genius.com/artists/Ross-golan'}, {'name': 'Ruby Pickens Tartt', 'url': 'https://genius.com/artists/Ruby-pickens-tartt'}, {'name': 'Selena Gomez', 'url': 'https://genius.com/artists/Selena-gomez'}, {'name': 'Shy Carter', 'url': 'https://genius.com/artists/Shy-carter'}, {'name': 'Thomas Troelsen', 'url': 'https://genius.com/artists/Thomas-troelsen'}, {'name': 'Vera Hall', 'url': 'https://genius.com/artists/Vera-hall'}, {'name': 'Wiz Khalifa', 'url': 'https://genius.com/artists/Wiz-khalifa'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Evanescence/The-open-door', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Open Door&lt;/em&gt; is the second studio album by Evanescence. It was released on 25 September 2006.&lt;/p&gt;\n\n&lt;p&gt;Musically, it’s heavier than the band’s debut album, &lt;a href="https://genius.com/albums/Evanescence/Fallen" rel="noopener" data-api_path="/albums/15242"&gt;&lt;em&gt;Fallen&lt;/em&gt;&lt;/a&gt;. Most of the songs were written by &lt;a href="https://genius.com/artists/Amy-lee" rel="noopener" data-api_path="/artists/30669"&gt;Amy Lee&lt;/a&gt; and &lt;a href="https://genius.com/artists/Terry-balsamo" rel="noopener" data-api_path="/artists/990390"&gt;Terry Balsamo&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In an interview, Lee said:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I feel like I’ve got that out of my system. I’m happy. I feel good now. I feel free. That’s why the album is called &lt;em&gt;The Open Door&lt;/em&gt; because I feel like all the doors in my life I pushed open, and now I can do whatever I want.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The initial date for the record to be made available for purchase was in March 2006, but was changed as a result of Balsamo’s stroke.&lt;/p&gt;\n\n&lt;p&gt;More than a “break up record”, Lee &lt;a href="http://evanescencecrew.wixsite.com/evanescencecrew/single-post/2016/12/02/Amy-Lee-talks-about-Evanescences-The-Open-Door-on-Kerrang-Magazine" rel="noopener nofollow"&gt;sees&lt;/a&gt; it as “[a] breaking up with lots of things and a lot of people. I hear myself singing for freedom, and standing up for myself instead of being a broken little girl sitting in the corner, crying about how hard life is, which you can hear a little bit of on &lt;em&gt;Fallen&lt;/em&gt;. It’s me standing up and taking control.”&lt;/p&gt;\n\n&lt;p&gt;The album was preceded by the number-one singles &lt;a href="https://genius.com/Evanescence-call-me-when-youre-sober-lyrics" rel="noopener" data-api_path="/songs/218580"&gt;“Call Me When You’re Sober”&lt;/a&gt; and &lt;a href="https://genius.com/Evanescence-lithium-lyrics" rel="noopener" data-api_path="/songs/183356"&gt;“Lithium.”&lt;/a&gt; It has three B-sides: &lt;a href="https://genius.com/Evanescence-the-last-song-im-wasting-on-you-lyrics" rel="noopener" data-api_path="/songs/218591"&gt;“The Last Song I’m Wasting on You”&lt;/a&gt;, &lt;a href="https://genius.com/Evanescence-together-again-lyrics" rel="noopener" data-api_path="/songs/218628"&gt;“Together Again”&lt;/a&gt;, and &lt;a href="https://genius.com/Evanescence-if-you-dont-mind-lyrics" rel="noopener" data-api_path="/songs/218619"&gt;“If You Don’t Mind”.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}], 'writers': [{'name': 'Amy Lee', 'url': 'https://genius.com/artists/Amy-lee'}, {'name': 'John LeCompt', 'url': 'https://genius.com/artists/John-lecompt'}, {'name': 'Terry Balsamo', 'url': 'https://genius.com/artists/Terry-balsamo'}, {'name': 'Wolfgang Amadeus Mozart', 'url': 'https://genius.com/artists/Wolfgang-amadeus-mozart'}], 'labels': [{'name': 'Craft Recordings', 'url': 'https://genius.com/artists/Craft-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Portugal-the-man/Woodstock', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Portugal-the-man" rel="noopener" data-api_path="/artists/52078"&gt;Portugal. The Man&lt;/a&gt;’s much-anticipated 8th album, &lt;em&gt;Woodstock&lt;/em&gt;, dropped on June 16th, 2017. It is their third album since signing to Atlantic, following &lt;a href="https://genius.com/albums/Portugal-the-man/Evil-friends" rel="noopener" data-api_path="/albums/34587"&gt;&lt;em&gt;Evil Friends&lt;/em&gt;&lt;/a&gt; (2013) and their label debut &lt;a href="https://genius.com/albums/Portugal-the-man/In-the-mountain-in-the-cloud" rel="noopener" data-api_path="/albums/40183"&gt;&lt;em&gt;In the Mountain, In the Cloud&lt;/em&gt;&lt;/a&gt; (2011).&lt;/p&gt;\n\n&lt;p&gt;The inspiration for the title came from &lt;a href="https://genius.com/artists/John-baldwin-gourley" rel="noopener" data-api_path="/artists/1052731"&gt;Gourley&lt;/a&gt;’s interest in Woodstock, the revolutionary music festival from 1969, &lt;a href="http://www.billboard.com/articles/columns/rock/7832910/portugal-the-man-woodstock-interview" rel="noopener nofollow"&gt;kindled by finding his father’s original ticket stub&lt;/a&gt;. This influenced him to make protest music akin to the kind that so powerfully emerged in the mid-late ‘60s in response to the  Vietnam War. Gourley stated that he was “trying to write music that would help people feel they’re not alone, even if they’re angry or feeling lost. This video is our way of saying that we’re all in this together.”&lt;/p&gt;\n\n&lt;p&gt;This appeal to our common humanity is reflected on the single “&lt;a href="https://genius.com/Portugal-the-man-number-one-lyrics" rel="noopener" data-api_path="/songs/3070304"&gt;Number One ft. Son Little and Richie Havens&lt;/a&gt;,” which samples the very song that opened Woodstock, and became one of its most iconic performances, &lt;a href="https://genius.com/artists/Richie-havens" rel="noopener" data-api_path="/artists/47243"&gt;Richie Haven&lt;/a&gt;’s “&lt;a href="https://genius.com/Richie-havens-freedom-lyrics" rel="noopener" data-api_path="/songs/143833"&gt;Freedom (Motherless Child)&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;Musically, this record contains a remarkable diversity of genres: psych-rock, radio-friendly pop, funk rock, programmed beats, hip-hop and rap (sampling on “&lt;a href="https://genius.com/Portugal-the-man-number-one-lyrics" rel="noopener" data-api_path="/songs/3070304"&gt;Number One&lt;/a&gt;,” a rap verse by &lt;a href="https://genius.com/artists/Fatlip" rel="noopener" data-api_path="/artists/63"&gt;Fatlip&lt;/a&gt; on “&lt;a href="https://genius.com/Portugal-the-man-mr-lonely-lyrics" rel="noopener" data-api_path="/songs/3123017"&gt;Mr. Lonely&lt;/a&gt;”). “&lt;a href="https://genius.com/Portugal-the-man-noise-pollution-version-a-vocal-up-mix-13-lyrics" rel="noopener" data-api_path="/songs/2922120"&gt;Noise Pollution&lt;/a&gt;” features &lt;a href="https://genius.com/artists/John-baldwin-gourley" rel="noopener" data-api_path="/artists/1052731"&gt;Gourley&lt;/a&gt; rapping his verses and was produced by &lt;a href="https://genius.com/artists/Mike-d" rel="noopener" data-api_path="/artists/109644"&gt;Mike D&lt;/a&gt; of &lt;a href="https://genius.com/artists/Beastie-boys" rel="noopener" data-api_path="/artists/329"&gt;Beastie Boys&lt;/a&gt;, a group that &lt;a href="https://genius.com/artists/John-baldwin-gourley" rel="noopener" data-api_path="/artists/1052731"&gt;Gourley&lt;/a&gt; and &lt;a href="https://genius.com/artists/Zachary-carothers" rel="noopener" data-api_path="/artists/1127179"&gt;Zach Carothers&lt;/a&gt; bonded around growing up in Alaska (“&lt;a href="https://genius.com/Portugal-the-man-feel-it-still-lyrics" rel="noopener" data-api_path="/songs/3008446"&gt;Feel It Still&lt;/a&gt;” references 1986, the year &lt;a href="https://genius.com/albums/Beastie-boys/Licensed-to-ill" rel="noopener" data-api_path="/albums/659"&gt;&lt;em&gt;Licensed to Ill&lt;/em&gt;&lt;/a&gt; came out). The band continued to benefit from the creative direction of &lt;a href="https://genius.com/artists/Danger-mouse" rel="noopener" data-api_path="/artists/8957"&gt;Danger Mouse&lt;/a&gt;, and the sound they cultivated with him on &lt;a href="https://genius.com/albums/Portugal-the-man/Evil-friends" rel="noopener" data-api_path="/albums/34587"&gt;&lt;em&gt;Evil Friends&lt;/em&gt;&lt;/a&gt; can be heard on a number of tracks (e.g. the orchestral/choral outro to “&lt;a href="https://genius.com/Portugal-the-man-number-one-lyrics" rel="noopener" data-api_path="/songs/3070304"&gt;Number One&lt;/a&gt;.”) It’s worth noting as well that &lt;a href="https://genius.com/artists/Zoe-manville" rel="noopener" data-api_path="/artists/1040125"&gt;Zoe Manville&lt;/a&gt; contributes a significant amount of vocals, perhaps the most on a &lt;a href="https://genius.com/artists/Portugal-the-man" rel="noopener" data-api_path="/artists/52078"&gt;Portugal. The Man&lt;/a&gt; record since &lt;a href="https://genius.com/albums/Portugal-the-man/The-satanic-satanist" rel="noopener" data-api_path="/albums/40073"&gt;&lt;em&gt;The Satanic Satanist&lt;/em&gt;&lt;/a&gt; or &lt;a href="https://genius.com/albums/Portugal-the-man/American-ghetto" rel="noopener" data-api_path="/albums/40184"&gt;&lt;em&gt;American Ghetto&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Lyrically, the album tackles a variety of topics, from the pains of growing up (“&lt;a href="https://genius.com/Portugal-the-man-easy-tiger-lyrics" rel="noopener" data-api_path="/songs/3122955"&gt;Easy Tiger&lt;/a&gt;”), to climate change (“&lt;a href="https://genius.com/Portugal-the-man-tidal-wave-lyrics" rel="noopener" data-api_path="/songs/3123057"&gt;Tidal Wave&lt;/a&gt;”), to our celebrity culture (&lt;a href="https://genius.com/Portugal-the-man-rich-friends-lyrics" rel="noopener" data-api_path="/songs/3121114"&gt;Rich Friends&lt;/a&gt;,“  ”&lt;a href="https://genius.com/Portugal-the-man-keep-on-lyrics" rel="noopener" data-api_path="/songs/3122978"&gt;Keep On&lt;/a&gt;“), to the Charlie Hebdo massacre in Paris in 2015 (”&lt;a href="https://genius.com/Portugal-the-man-noise-pollution-version-a-vocal-up-mix-13-lyrics" rel="noopener" data-api_path="/songs/2922120"&gt;Noise Pollution&lt;/a&gt;“), and to courageous optimism in the face of all this adversity (”&lt;a href="https://genius.com/Portugal-the-man-number-one-lyrics" rel="noopener" data-api_path="/songs/3070304"&gt;Number One&lt;/a&gt;“).&lt;/p&gt;\n\n&lt;p&gt;To mark the release of the album, &lt;a href="https://www.instagram.com/p/BVZzsN3BeEQ/" rel="noopener nofollow"&gt;the band posted the cover art with the following caption to their Instagram&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Friends. We know, we get it, 4 years and 10 days have gone by since we put a record out. 35280 hours. A. Fucking. Eternity. We’ve been growing, getting stronger, claws sharper. We wanted to give you our best. So here it is- WOODSTOCK, our ten finest. From us to you. THANK YOU for riding along with us. We’re all in this together…&lt;br&gt;\nLove, P.TM&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Asa Taccone', 'url': 'https://genius.com/artists/Asa-taccone'}, {'name': 'Casey Bates', 'url': 'https://genius.com/artists/Casey-bates'}, {'name': 'Danger Mouse', 'url': 'https://genius.com/artists/Danger-mouse'}, {'name': 'John Gourley', 'url': 'https://genius.com/artists/John-gourley'}, {'name': 'John Hill', 'url': 'https://genius.com/artists/John-hill'}, {'name': 'Mickey Hart', 'url': 'https://genius.com/artists/Mickey-hart'}, {'name': 'Mike D', 'url': 'https://genius.com/artists/Mike-d'}, {'name': 'Sonny DiPerri', 'url': 'https://genius.com/artists/Sonny-diperri'}, {'name': 'STINT', 'url': 'https://genius.com/artists/Stint'}], 'writers': [{'name': 'Ammar Malik', 'url': 'https://genius.com/artists/Ammar-malik'}, {'name': 'Asa Taccone', 'url': 'https://genius.com/artists/Asa-taccone'}, {'name': 'Brian Holland', 'url': 'https://genius.com/artists/Brian-holland'}, {'name': 'Carla Azar', 'url': 'https://genius.com/artists/Carla-azar'}, {'name': 'Casper', 'url': 'https://genius.com/artists/Casper'}, {'name': 'Danger Mouse', 'url': 'https://genius.com/artists/Danger-mouse'}, {'name': 'Eric Howk', 'url': 'https://genius.com/artists/Eric-howk'}, {'name': 'Eugene Goreshter', 'url': 'https://genius.com/artists/Eugene-goreshter'}, {'name': 'Fatlip', 'url': 'https://genius.com/artists/Fatlip'}, {'name': 'Freddie Gorman', 'url': 'https://genius.com/artists/Freddie-gorman'}, {'name': 'Greg Edwards', 'url': 'https://genius.com/artists/Greg-edwards'}, {'name': 'Jason Kreher', 'url': 'https://genius.com/artists/Jason-kreher'}, {'name': 'Jason Sechrist', 'url': 'https://genius.com/artists/Jason-sechrist'}, {'name': 'John Gourley', 'url': 'https://genius.com/artists/John-gourley'}, {'name': 'John Hill', 'url': 'https://genius.com/artists/John-hill'}, {'name': 'Kalenna', 'url': 'https://genius.com/artists/Kalenna'}, {'name': 'Kid Harpoon', 'url': 'https://genius.com/artists/Kid-harpoon'}, {'name': 'Kyle O’Quin', 'url': 'https://genius.com/artists/Kyle-oquin'}, {'name': 'Mickey Hart', 'url': 'https://genius.com/artists/Mickey-hart'}, {'name': 'Nick Koenig', 'url': 'https://genius.com/artists/Nick-koenig'}, {'name': 'Portugal. The Man', 'url': 'https://genius.com/artists/Portugal-the-man'}, {'name': 'Richie Havens', 'url': 'https://genius.com/artists/Richie-havens'}, {'name': 'Robert Bateman', 'url': 'https://genius.com/artists/Robert-bateman'}, {'name': 'Rodney Jerkins', 'url': 'https://genius.com/artists/Rodney-jerkins'}, {'name': 'STINT', 'url': 'https://genius.com/artists/Stint'}, {'name': 'Zachary Carothers', 'url': 'https://genius.com/artists/Zachary-carothers'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Red-hot-chili-peppers/Greatest-hits', 'annotations': {'description': '&lt;p&gt;The &lt;a href="https://genius.com/artists/Red-hot-chili-peppers" rel="noopener" data-api_path="/artists/1460"&gt;Red Hot Chili Peppers&lt;/a&gt;‘ &lt;em&gt;Greatest Hits&lt;/em&gt; album was released in 2003, featuring most, but not all, of their Warner Records singles since &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Blood-sugar-sex-magik" rel="noopener" data-api_path="/albums/16011"&gt;Blood Sugar Sex Magic&lt;/a&gt;&lt;/em&gt; (1991), along with two new songs, and one track from the EMI days, the &lt;a href="https://genius.com/artists/Stevie-wonder" rel="noopener" data-api_path="/artists/1602"&gt;Stevie Wonder&lt;/a&gt; cover “Higher Ground”. The last one is the only track not produced by  &lt;a href="https://genius.com/artists/Rick-rubin" rel="noopener" data-api_path="/artists/27794"&gt;Rick Rubin&lt;/a&gt;, a longtime friend and producer of Chili Pepper albums.&lt;/p&gt;\n\n&lt;p&gt;Some of the absences in the CD are featured in the DVD version with the music videos from the period:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;&lt;p&gt;From &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/One-hot-minute" rel="noopener" data-api_path="/albums/19418"&gt;One Hot Minute&lt;/a&gt;&lt;/em&gt; (1995):&lt;br&gt;\n&lt;a href="https://genius.com/Red-hot-chili-peppers-aeroplane-lyrics" rel="noopener" data-api_path="/songs/198205"&gt;“Aeroplane”&lt;/a&gt;&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;From &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Californication" rel="noopener" data-api_path="/albums/11888"&gt;Californication&lt;/a&gt;&lt;/em&gt; (1999):&lt;br&gt;\n&lt;a href="https://genius.com/Red-hot-chili-peppers-around-the-world-lyrics" rel="noopener" data-api_path="/songs/54310"&gt;“Around the World”&lt;/a&gt;&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;From &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/By-the-way" rel="noopener" data-api_path="/albums/20513"&gt;By the Way&lt;/a&gt;&lt;/em&gt; (2002): &lt;a href="https://genius.com/Red-hot-chili-peppers-cant-stop-lyrics" rel="noopener" data-api_path="/songs/3228"&gt;“Can’t Stop”&lt;/a&gt;, &lt;a href="https://genius.com/Red-hot-chili-peppers-the-zephyr-song-lyrics" rel="noopener" data-api_path="/songs/110634"&gt;“The Zephyr Song”&lt;/a&gt;&lt;/p&gt;&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;p&gt;Two songs recorded for the record were also included, with &lt;a href="https://genius.com/Red-hot-chili-peppers-fortune-faded-lyrics" rel="noopener" data-api_path="/songs/372222"&gt;“Fortune Faded”&lt;/a&gt; becoming a minor chart hit internationally, and &lt;a href="https://genius.com/Red-hot-chili-peppers-fortune-faded-lyrics" rel="noopener" data-api_path="/songs/372222"&gt;“Save The Population”&lt;/a&gt; added as a non-single. There were allegedly part of an &lt;a href="http://www.moderndrummer.com/site/current-issue-2/" rel="noopener nofollow"&gt;entire album&lt;/a&gt; of material that was meant to be released, but that the band felt was too outdated.&lt;/p&gt;\n\n&lt;p&gt;The compilation was a huge international success, going Platinum in 10 different regions, including 6x platinum in Australia. It only made it to number 18 on the US &lt;em&gt;Billboard&lt;/em&gt; album charts.&lt;/p&gt;', 'producers': [{'name': 'Michael Beinhorn', 'url': 'https://genius.com/artists/Michael-beinhorn'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Anthony Kiedis', 'url': 'https://genius.com/artists/Anthony-kiedis'}, {'name': 'Chad Smith', 'url': 'https://genius.com/artists/Chad-smith'}, {'name': 'Dave Navarro', 'url': 'https://genius.com/artists/Dave-navarro'}, {'name': 'Flea', 'url': 'https://genius.com/artists/Flea'}, {'name': 'John Frusciante', 'url': 'https://genius.com/artists/John-frusciante'}, {'name': 'Stevie Wonder', 'url': 'https://genius.com/artists/Stevie-wonder'}], 'labels': [{'name': 'EMI America', 'url': 'https://genius.com/artists/Emi-america'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}, {'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Beck/Midnite-vultures', 'annotations': {'description': '&lt;p&gt;Taking a wild turn from psychedelia, &lt;em&gt;Midnite Vultures&lt;/em&gt; is all about funk, electronica, and soul, with a dash of &lt;a href="https://genius.com/artists/Beck" rel="noopener" data-api_path="/artists/2073"&gt;Beck&lt;/a&gt;’s high voice. It’s about as crazy as you can get in El Lay.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Beck-sexx-laws-lyrics" rel="noopener" data-api_path="/songs/87531"&gt;“Sexx Laws”&lt;/a&gt;, the opener, blares fat brass soul and funk, with Beck’s psychedelic, high voice. &lt;a href="https://genius.com/Beck-get-real-paid-lyrics" rel="noopener" data-api_path="/songs/461983"&gt;“Get Real Paid”&lt;/a&gt;, a sampled, bubbly electronica track, mixes dance and nonsense like an ice cream, while &lt;a href="https://genius.com/Beck-nicotine-and-gravy-lyrics" rel="noopener" data-api_path="/songs/461967"&gt;“Nicotine &amp;amp; Gravy”&lt;/a&gt; is a funky back-road of psychedelia and drugs, &lt;a href="https://genius.com/Beck-pressure-zone-lyrics" rel="noopener" data-api_path="/songs/462011"&gt;“Pressure Zone”&lt;/a&gt; is a rocky road of hard rock and weird life. The closer, &lt;a href="https://genius.com/Beck-debra-lyrics" rel="noopener" data-api_path="/songs/269970"&gt;“Debra”&lt;/a&gt;, makes Beck want to grab &lt;a href="https://genius.com/artists/Prince" rel="noopener" data-api_path="/artists/660"&gt;Prince&lt;/a&gt;’s crown of funk, and closes on his signature falsetto.&lt;/p&gt;', 'producers': [{'name': 'Beck', 'url': 'https://genius.com/artists/Beck'}, {'name': 'Dust Brothers', 'url': 'https://genius.com/artists/Dust-brothers'}, {'name': 'Fernando Garibay', 'url': 'https://genius.com/artists/Fernando-garibay'}, {'name': 'Mickey Petralia', 'url': 'https://genius.com/artists/Mickey-petralia'}, {'name': 'Tony Hoffer', 'url': 'https://genius.com/artists/Tony-hoffer'}], 'writers': [{'name': 'Beck', 'url': 'https://genius.com/artists/Beck'}, {'name': 'Buzz Clifford', 'url': 'https://genius.com/artists/Buzz-clifford'}, {'name': 'Ed Greene', 'url': 'https://genius.com/artists/Ed-greene'}, {'name': 'E.Z. Mike', 'url': 'https://genius.com/artists/Ez-mike'}, {'name': 'King Gizmo', 'url': 'https://genius.com/artists/King-gizmo'}, {'name': 'Tony Hoffer', 'url': 'https://genius.com/artists/Tony-hoffer'}], 'labels': []}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/albums/Korn/Follow-the-leader', 'annotations': {'description': '&lt;p&gt;In early 1998, Korn began work on their third album &lt;em&gt;Follow The Leader&lt;/em&gt; in an atmosphere &lt;a href="http://www.blabbermouth.net/news/korn-interviewed-by-u-k-s-scuzz-video/" rel="noopener nofollow"&gt;loaded with&lt;/a&gt; excessive alcohol, drugs and sex. Instead of using producer Ross Robinson as they’d done on their first two albums, the band chose Steve Thompson and Toby Wright and recorded at NRG Recording Studios in LA.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Follow The Leader&lt;/em&gt;, featuring cover art by award-winning comic book artist Todd MacFarlane, debuted at #1 in the US on the strength of the band’s already-established following combined with the success of the new album’s lead single “Got The Life”. Despite the track only &lt;a href="https://www.billboard.com/music/Korn/chart-history/hot-mainstream-rock-tracks/3" rel="noopener nofollow"&gt;reaching #15&lt;/a&gt; on the Rock Chart, it became so popular on MTV’s fan-fueled &lt;em&gt;Total Request Live&lt;/em&gt; that the channel eventually &lt;a href="http://exclaim.ca/music/article/korn-its_still_on" rel="noopener nofollow"&gt;forcibly retired it&lt;/a&gt; from the show.&lt;/p&gt;\n\n&lt;p&gt;The album’s second single “Freak On A Leash” surpassed its first single, &lt;a href="https://www.billboard.com/music/Korn/chart-history/hot-mainstream-rock-tracks" rel="noopener nofollow"&gt;reaching #10&lt;/a&gt; on the Rock Chart. The track was &lt;a href="https://www.grammy.com/grammys/artists/korn" rel="noopener nofollow"&gt;nominated for a Grammy&lt;/a&gt; for Best Metal Performance that year and its video, featuring more artwork by MacFarlane, won for Best Short Form Music Video.&lt;/p&gt;\n\n&lt;p&gt;Both singles reached the top 30 &lt;a href="http://www.officialcharts.com/artist/355/korn/" rel="noopener nofollow"&gt;in the UK&lt;/a&gt; and were &lt;a href="http://www.aria.com.au/pages/aria-charts-accreditations-singles-1999.htm" rel="noopener nofollow"&gt;certified gold in Australia&lt;/a&gt;, pushing the band into international stardom and moving them out of clubs and into packed arenas. Frontman Jonathan Davis &lt;a href="http://exclaim.ca/music/article/korn-its_still_on" rel="noopener nofollow"&gt;commented&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;(The album’s success) freaked everyone in the band out. We went through a crazy adjustment period. We used to be able to go out in the crowd and talk to people and suddenly I needed a bodyguard to go anywhere.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In the fall of 1998, Korn set out on their first annual Family Values Tour with openers Limp Bizkit, Ice Cube, Rammstein, Incubus and Orgy. It is credited with helping &lt;em&gt;Follow The Leader&lt;/em&gt; reach 5x platinum in the US. As of 2016, the album had &lt;a href="http://exclaim.ca/music/article/korn-its_still_on" rel="noopener nofollow"&gt;sold over 14 million copies&lt;/a&gt; worldwide.&lt;/p&gt;', 'producers': [{'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Steve Thompson', 'url': 'https://genius.com/artists/Steve-thompson'}, {'name': 'Toby Wright', 'url': 'https://genius.com/artists/Toby-wright'}], 'writers': [{'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'Cheech Marin', 'url': 'https://genius.com/artists/Cheech-marin'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Fred Durst', 'url': 'https://genius.com/artists/Fred-durst'}, {'name': 'Gaye Delorme', 'url': 'https://genius.com/artists/Gaye-delorme'}, {'name': 'Ice Cube', 'url': 'https://genius.com/artists/Ice-cube'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Slimkid3', 'url': 'https://genius.com/artists/Slimkid3'}, {'name': 'Tommy Chong', 'url': 'https://genius.com/artists/Tommy-chong'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}]}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/albums/Korn/The-path-of-totality', 'annotations': {'description': '&lt;p&gt;“The Path Of Totality” is KoRn’s tenth studio album.  It is the last album recorded without long time guitarist Brian “Head” Welch, as he would return for the band’s 2013 album, “The Paradigm Shift”.&lt;/p&gt;\n\n&lt;p&gt;For the album, the band hired various dubstep musicians to produce different tracks on the record.  As a result, it is regarded as KoRn’s “Dubstep Album.”&lt;/p&gt;\n\n&lt;p&gt;The album’s title comes from the phrase, “path of totality”, designating the strip of land, marked on a map, within which a solar eclipse is visible as total. Outside of that strip, the eclipse is partial or not visible at all.  The band chose this title, because it was symbolic of how if whatever producer hadn’t come in at whatever specific time the did, and everything didn’t line up perfectly, the album wouldn’t have been heard the same way.&lt;/p&gt;', 'producers': [{'name': '12th Planet', 'url': 'https://genius.com/artists/12th-planet'}, {'name': 'Datsik', 'url': 'https://genius.com/artists/Datsik'}, {'name': 'Downlink', 'url': 'https://genius.com/artists/Downlink'}, {'name': 'Excision', 'url': 'https://genius.com/artists/Excision'}, {'name': 'Feed Me', 'url': 'https://genius.com/artists/Feed-me'}, {'name': 'Flinch', 'url': 'https://genius.com/artists/Flinch'}, {'name': 'Jim Monti', 'url': 'https://genius.com/artists/Jim-monti'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Kill The Noise', 'url': 'https://genius.com/artists/Kill-the-noise'}, {'name': 'Noisia', 'url': 'https://genius.com/artists/Noisia'}, {'name': 'Skrillex', 'url': 'https://genius.com/artists/Skrillex'}], 'writers': [{'name': '12th Planet', 'url': 'https://genius.com/artists/12th-planet'}, {'name': 'Downlink', 'url': 'https://genius.com/artists/Downlink'}, {'name': 'Excision', 'url': 'https://genius.com/artists/Excision'}, {'name': 'Feed Me', 'url': 'https://genius.com/artists/Feed-me'}, {'name': 'Flinch', 'url': 'https://genius.com/artists/Flinch'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Kill The Noise', 'url': 'https://genius.com/artists/Kill-the-noise'}, {'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Noisia', 'url': 'https://genius.com/artists/Noisia'}, {'name': 'Ray Luzier', 'url': 'https://genius.com/artists/Ray-luzier'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Skrillex', 'url': 'https://genius.com/artists/Skrillex'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Disturbed/Asylum', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Asylum&lt;/em&gt; is the fifth studio album by American heavy metal band Disturbed. &lt;em&gt;Asylum&lt;/em&gt; is meant to take a fresh direction in the band’s music career, while remaining consistent with the band’s previous albums.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=sCvZhT6_Eqo" rel="noopener nofollow"&gt;Most of the lyrical content was inspired by&lt;/a&gt; aspects of frontman David Draiman’s life prior to making the album. The album was released on August 31, 2010 in the United States through Reprise Records. A tour in support of the album, titled the Asylum Tour, started in late August 2010. Asylum is also the third consecutive Disturbed album to not feature the Parental Advisory label (although the deluxe version on iTunes is marked explicit for live versions of their earlier material from &lt;em&gt;The Sickness&lt;/em&gt;).&lt;/p&gt;\n\n&lt;p&gt;Asylum debuted at number-one on the Billboard 200 chart with sales of approximately 179,000 according to Nielsen Soundscan. This is the fourth consecutive number-one album in the U.S. for Disturbed. The other two bands ever to accomplish this feat in the Soundscan era are metal band Metallica and folk rock/jam band Dave Matthews Band.&lt;/p&gt;', 'producers': [{'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}], 'writers': [{'name': 'Adam Clayton', 'url': 'https://genius.com/artists/Adam-clayton'}, {'name': 'Bono', 'url': 'https://genius.com/artists/Bono'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'The Edge (Guitarist)', 'url': 'https://genius.com/artists/The-edge-guitarist'}, {'name': 'Larry Mullen Jr.', 'url': 'https://genius.com/artists/Larry-mullen-jr'}, {'name': 'Michael Wengren', 'url': 'https://genius.com/artists/Michael-wengren'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'Steve “Fuzz” Kmak', 'url': 'https://genius.com/artists/Steve-fuzz-kmak'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Disturbed/Indestructible', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Indestructible&lt;/em&gt; is the fourth studio album by the American heavy metal band Disturbed. A &lt;a href="http://www.411mania.com/music/album_reviews/76871" rel="noopener nofollow"&gt;self-produced effort&lt;/a&gt;, &lt;em&gt;Indestructible&lt;/em&gt; is the first Disturbed album that did not feature Johnny K, the producer of Disturbed’s previous three albums, &lt;em&gt;The Sickness&lt;/em&gt;, &lt;em&gt;Believe&lt;/em&gt;, and &lt;em&gt;Ten Thousand Fists&lt;/em&gt;. &lt;em&gt;Indestructible&lt;/em&gt; is also the third consecutive Disturbed album to debut at number-one on the Billboard 200.&lt;/p&gt;\n\n&lt;p&gt;The album features significantly darker themes than any of Disturbed’s previous work, according to the band. Some of the lyrical themes involve actual experiences that vocalist David Draiman had endured over the course of the past few years prior to making the album, including “bad relationships”, a motorcycle accident that he was involved with, and an incident of suicide. To match the aggressive attitude and nature of said themes, Draiman told the other band members to create darker, more textural music than they have before. Despite these themes, the title track, “Indestructible”, is meant to encourage those in the military that are fighting in wars and boost their morale.&lt;/p&gt;', 'producers': [{'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'Disturbed', 'url': 'https://genius.com/artists/Disturbed'}, {'name': 'John Moyer', 'url': 'https://genius.com/artists/John-moyer'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}], 'writers': [{'name': 'Bill Gould', 'url': 'https://genius.com/artists/Bill-gould'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'Disturbed', 'url': 'https://genius.com/artists/Disturbed'}, {'name': 'Jim B. Martin', 'url': 'https://genius.com/artists/Jim-b-martin'}, {'name': 'Michael Bordin', 'url': 'https://genius.com/artists/Michael-bordin'}, {'name': 'Michael Patton', 'url': 'https://genius.com/artists/Michael-patton'}, {'name': 'Michael Wengren', 'url': 'https://genius.com/artists/Michael-wengren'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'Roddy Bottum', 'url': 'https://genius.com/artists/Roddy-bottum'}, {'name': 'Steve “Fuzz” Kmak', 'url': 'https://genius.com/artists/Steve-fuzz-kmak'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Three-days-grace/Life-starts-now', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Life Starts Now&lt;/em&gt; is the third studio album by Canadian rock band Three Days Grace.&lt;/p&gt;\n\n&lt;p&gt;After being on the road for five years with Three Days Grace, bassist Brad Walst stated, “We all came home and got a hard dose of life,” which the band then used to create a more “musically in-depth and personal album”.&lt;/p&gt;\n\n&lt;p&gt;The album debuted at number three on the Billboard 200, selling 79,000 copies in the U.S. in its first week, thus becoming the band’s highest-charting album to date.&lt;/p&gt;\n\n&lt;p&gt;The album went platinum in the United States on &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;se=Life+Starts+Now#search_section" rel="noopener nofollow"&gt;February 12th, 2018&lt;/a&gt; and 2x Platinum in Canada on &lt;a href="https://musiccanada.com/gold-platinum/?_gp_search=Three%20Days%20Grace" rel="noopener nofollow"&gt;September 13th, 2018&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Three Days Grace', 'url': 'https://genius.com/artists/Three-days-grace'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Breaking-benjamin/Saturate', 'annotations': {'description': '', 'producers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}, {'name': 'Ulrich Wild', 'url': 'https://genius.com/artists/Ulrich-wild'}], 'writers': [{'name': 'Alexander Ayuli', 'url': 'https://genius.com/artists/Alexander-ayuli'}, {'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}, {'name': 'Rudolph Tambala', 'url': 'https://genius.com/artists/Rudolph-tambala'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Breaking-benjamin/We-are-not-alone', 'annotations': {'description': '&lt;p&gt;&lt;i&gt;We Are Not Alone&lt;/i&gt; is the second full-length studio album from American rock band Breaking Benjamin. It was first released on 28th June 2004 through Hollywood Records in North America, then on 15th September 2004 in Japan and finally 10th October 2007 in Europe.&lt;/p&gt;\n\n&lt;p&gt;The singles from the album include &lt;a href="https://genius.com/Breaking-benjamin-so-cold-lyrics" rel="noopener" data-api_path="/songs/2000405"&gt;“So Cold”&lt;/a&gt;, &lt;a href="https://genius.com/Breaking-benjamin-sooner-or-later-lyrics" rel="noopener" data-api_path="/songs/424574"&gt;“Sooner Or Later”&lt;/a&gt; and the full-band version of &lt;a href="https://genius.com/Breaking-benjamin-rain-lyrics" rel="noopener" data-api_path="/songs/424617"&gt;“Rain”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The album sold 48,000 copies in its first week of sales and was certified platinum by the RIAA on 13th June 2005.&lt;/p&gt;', 'producers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}, {'name': 'Breaking Benjamin', 'url': 'https://genius.com/artists/Breaking-benjamin'}, {'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Aaron Fink', 'url': 'https://genius.com/artists/Aaron-fink'}, {'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}, {'name': 'Billy Corgan', 'url': 'https://genius.com/artists/Billy-corgan'}, {'name': 'Breaking Benjamin', 'url': 'https://genius.com/artists/Breaking-benjamin'}, {'name': 'Jeremy Hummel', 'url': 'https://genius.com/artists/Jeremy-hummel'}, {'name': 'Mark Klepaski', 'url': 'https://genius.com/artists/Mark-klepaski'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Breaking-benjamin/Phobia', 'annotations': {'description': '&lt;p&gt;Phobia is the third studio album by Breaking Benjamin.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://genius.com/Breaking-benjamin-intro-lyrics" rel="noopener" data-api_path="/songs/79076"&gt;intro track&lt;/a&gt; features the sound effects of an airport, namely a flight attendant announcing standard safety procedures and the sound of an airplane making its ascent, alluding to Benjamin Burnley’s fear of flying, hence the inspiration for the album’s name: “Phobia”&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Aaron Fink', 'url': 'https://genius.com/artists/Aaron-fink'}, {'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}, {'name': 'Breaking Benjamin', 'url': 'https://genius.com/artists/Breaking-benjamin'}, {'name': 'Mark James Klepaski', 'url': 'https://genius.com/artists/Mark-james-klepaski'}, {'name': 'Mark Klepaski', 'url': 'https://genius.com/artists/Mark-klepaski'}], 'labels': [{'name': 'Hollywood Records', 'url': 'https://genius.com/artists/Hollywood-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Five-finger-death-punch/The-way-of-the-fist', 'annotations': {'description': '&lt;p&gt;The first album from Five Finger Death Punch. It was released in 2007, and re-released in 2008. Then it was re-released in 2010, as the “Iron Fist Edition”. This version of the album has different artwork.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/e102565d3e0ccad9f941e96baedb68e9.275x275x1.jpg" alt="" width="275" height="275" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Leopold Ross', 'url': 'https://genius.com/artists/Leopold-ross'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'writers': [{'name': 'Darrell Roberts', 'url': 'https://genius.com/artists/Darrell-roberts'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Leopold Ross', 'url': 'https://genius.com/artists/Leopold-ross'}, {'name': 'Matt Snell', 'url': 'https://genius.com/artists/Matt-snell'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Firm Music', 'url': 'https://genius.com/artists/Firm-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Five-finger-death-punch/American-capitalist', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;American Capitalist&lt;/em&gt; is the 2011 album from American metal group Five Finger Death Punch. It boasts arguably the most absurd album cover in existence.&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Seether/Finding-beauty-in-negative-spaces', 'annotations': {'description': '', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Dale Stewart', 'url': 'https://genius.com/artists/Dale-stewart'}, {'name': 'John Humphrey', 'url': 'https://genius.com/artists/John-humphrey'}, {'name': 'Shaun Morgan', 'url': 'https://genius.com/artists/Shaun-morgan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Seether/Karma-and-effect', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Karma and Effect&lt;/em&gt; is the fourth (third as a Seether) studio album of the band.&lt;/p&gt;\n\n&lt;p&gt;It has received a &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;se=seether+karma#search_section" rel="noopener nofollow"&gt;Gold&lt;/a&gt; certification by the the RIAA, received positive reviews, and managed to reach &lt;a href="https://www.billboard.com/music/seether/chart-history/billboard-200" rel="noopener nofollow"&gt;#8&lt;/a&gt; on the Billboard’s 200 chart.&lt;/p&gt;\n\n&lt;p&gt;The album also contains a hidden song—&lt;a href="https://genius.com/Seether-interlude-outro-kom-saam-met-my-lyrics" rel="noopener" data-api_path="/songs/1324149"&gt;“Interlude/Outro (Kom Saam Met My)”&lt;/a&gt;—not listed on the tracklist on the physical copies of the album. The song is separated from previous one (track #13) by almost 5 minutes of silence, and is sung in &lt;a href="https://www.britannica.com/topic/Afrikaans-language" rel="noopener nofollow"&gt;Afrikaans&lt;/a&gt;, the native language of the most of Seether’s band members.&lt;/p&gt;\n\n&lt;p&gt;This was the final release with guitarist &lt;a href="https://genius.com/artists/Pat-callahan" rel="noopener" data-api_path="/artists/1139708"&gt;Pat Callahan&lt;/a&gt; before he left the band a year later.&lt;/p&gt;\n\n&lt;p&gt;Singles released from &lt;em&gt;Karma and Effect&lt;/em&gt;:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;&lt;a href="https://genius.com/albums/Seether/Remedy-single" rel="noopener" data-api_path="/albums/568391"&gt;“Remedy,”&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/Seether-truth-lyrics" rel="noopener" data-api_path="/songs/1044126"&gt;“Truth,”&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/Seether-the-gift-lyrics" rel="noopener" data-api_path="/songs/1368610"&gt;“The Gift.”&lt;/a&gt;&lt;/li&gt;\n&lt;/ul&gt;', 'producers': [{'name': 'Bob Marlette', 'url': 'https://genius.com/artists/Bob-marlette'}], 'writers': [{'name': 'Dale Stewart', 'url': 'https://genius.com/artists/Dale-stewart'}, {'name': 'John Humphrey', 'url': 'https://genius.com/artists/John-humphrey'}, {'name': 'Pat Callahan', 'url': 'https://genius.com/artists/Pat-callahan'}, {'name': 'Seether', 'url': 'https://genius.com/artists/Seether'}, {'name': 'Shaun Morgan', 'url': 'https://genius.com/artists/Shaun-morgan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Seether/Disclaimer-ii', 'annotations': {'description': '', 'producers': [{'name': 'Bob Marlette', 'url': 'https://genius.com/artists/Bob-marlette'}, {'name': 'Jay Baumgardner', 'url': 'https://genius.com/artists/Jay-baumgardner'}], 'writers': [{'name': 'Dale Stewart', 'url': 'https://genius.com/artists/Dale-stewart'}, {'name': 'Dave Cohoe', 'url': 'https://genius.com/artists/Dave-cohoe'}, {'name': 'James A. Johnston', 'url': 'https://genius.com/artists/James-a-johnston'}, {'name': 'Shaun Morgan', 'url': 'https://genius.com/artists/Shaun-morgan'}, {'name': 'Tyronne Morris', 'url': 'https://genius.com/artists/Tyronne-morris'}], 'labels': [{'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Seether/Isolate-and-medicate', 'annotations': {'description': '&lt;p&gt;“Isolate and Medicate” is the sixth studio album by South African post-grunge band Seether. It was released on 1 July 2014 by The Bicycle Music Company, in association with Concord Music Group and Spinefarm Records. It is the first Seether album to be released on a vinyl LP.&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'Dale Stewart', 'url': 'https://genius.com/artists/Dale-stewart'}, {'name': 'John Humphrey', 'url': 'https://genius.com/artists/John-humphrey'}, {'name': 'Shaun Morgan', 'url': 'https://genius.com/artists/Shaun-morgan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Seether/Poison-the-parish', 'annotations': {'description': '&lt;p&gt;Poison the Parish is the seventh studio album by South African rock band Seether. It was released on 12 May 2017. It is the band’s first album to feature a new band logo on the cover. The first single, “Let You Down” was released on 23 February 2017. On 23 March, the band released a new track titled “Stoke the Fire”. On 13 April, “Nothing Left” was released. On 5 May, “Count Me Out” was released. On 9 August, the album’s second single, “Betray and Degrade” was released.&lt;/p&gt;\n\n&lt;p&gt;When asked about the “heavier” elements of the album, vocalist Shaun Morgan replied;&lt;/p&gt;\n\n&lt;p&gt;“…a lot of the time, we were dealing with the record company that wanted the band to…sound slightly more radio-friendly, in terms of possibly pushing us toward an alternative direction. Alternative used to be something that was the category [we were] in. That’s no longer the case. Now, it’s more that guitars are less of a player in the music, and it’s more Imagine Dragons and Lorde and stuff like that. We don’t fit the alternative category anymore. That was something that the [record] label wanted us quite desperately to try [to be a part of], and I think the producers steered us in that direction as well. It all makes sense, in some respect. They had a plan that we just weren’t privy to. The whole point, for me, was to reclaim the fact that we’re a rock band and it’s what we’ll always be, and until the alternative label shifts back to the kind of rock bands that have guitar and vocals, that’s just what we’ll be.”&lt;/p&gt;', 'producers': [{'name': 'Shaun Morgan', 'url': 'https://genius.com/artists/Shaun-morgan'}], 'writers': [{'name': 'Shaun Morgan', 'url': 'https://genius.com/artists/Shaun-morgan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Seether/Disclaimer', 'annotations': {'description': '', 'producers': [{'name': 'Jay Baumgardner', 'url': 'https://genius.com/artists/Jay-baumgardner'}], 'writers': [{'name': 'Dale Stewart', 'url': 'https://genius.com/artists/Dale-stewart'}, {'name': 'Dave Cohoe', 'url': 'https://genius.com/artists/Dave-cohoe'}, {'name': 'Shaun Morgan', 'url': 'https://genius.com/artists/Shaun-morgan'}, {'name': 'Tyronne Morris', 'url': 'https://genius.com/artists/Tyronne-morris'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Slipknot/Iowa', 'annotations': {'description': '&lt;p&gt;Released in 2001 and considered the darkest time in Slipknot’s career, this is their most extensive record. Everyone in the group had their problems, such as Corey having the drug addiction, abused alcohol, as well as others having the same issues. Mick Thomson wanted the album to be even more substantial than the first album, and he pulled that off well.&lt;/p&gt;\n\n&lt;p&gt;Facts:&lt;/p&gt;\n\n&lt;ol&gt;\n&lt;li&gt;515 is the area code of Des Moines.&lt;/li&gt;\n&lt;li&gt;In 515, Sid is yelling “Death,” as his grandfather died earlier that week, and needed to let it all out.&lt;/li&gt;\n&lt;li&gt;In the making of the song &lt;a href="https://genius.com/Slipknot-iowa-lyrics" rel="noopener" data-api_path="/songs/404137"&gt;“Iowa,”&lt;/a&gt; Corey stripped naked in the sound booth and used broken glass to cut himself while recording.&lt;/li&gt;\n&lt;/ol&gt;', 'producers': [{'name': 'Ross Robinson', 'url': 'https://genius.com/artists/Ross-robinson'}, {'name': 'Slipknot', 'url': 'https://genius.com/artists/Slipknot'}], 'writers': [{'name': 'Chris Fehn', 'url': 'https://genius.com/artists/Chris-fehn'}, {'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}, {'name': 'Craig Jones', 'url': 'https://genius.com/artists/Craig-jones'}, {'name': 'Jim Root', 'url': 'https://genius.com/artists/Jim-root'}, {'name': 'Joey Jordison', 'url': 'https://genius.com/artists/Joey-jordison'}, {'name': 'Mick Thomson', 'url': 'https://genius.com/artists/Mick-thomson'}, {'name': 'Paul Gray', 'url': 'https://genius.com/artists/Paul-gray'}, {'name': 'Shawn Crahan', 'url': 'https://genius.com/artists/Shawn-crahan'}, {'name': 'Sid Wilson', 'url': 'https://genius.com/artists/Sid-wilson'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Slipknot/5-the-gray-chapter', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;.5 The Gray Chapter&lt;/em&gt; is &lt;a href="https://genius.com/artists/Slipknot" rel="noopener" data-api_path="/artists/20222"&gt;Slipknot&lt;/a&gt;’s fifth studio album. It is their first album after a period of six years and the first album to not feature Paul Gray, who this album is a tribute to, and not to feature Joey Jordison. The album brings back the Slipknot sound of Vol 3: The Subliminal Verses and Iowa. The album was critically acclaimed and commercially successful and debuted at number one of the Billboard 200.&lt;/p&gt;', 'producers': [{'name': 'Greg Fidelman', 'url': 'https://genius.com/artists/Greg-fidelman'}, {'name': 'Slipknot', 'url': 'https://genius.com/artists/Slipknot'}], 'writers': [{'name': 'Alessandro Venturella', 'url': 'https://genius.com/artists/Alessandro-venturella'}, {'name': 'Chris Fehn', 'url': 'https://genius.com/artists/Chris-fehn'}, {'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}, {'name': 'Craig Jones', 'url': 'https://genius.com/artists/Craig-jones'}, {'name': 'Jay Weinberg', 'url': 'https://genius.com/artists/Jay-weinberg'}, {'name': 'Jim Root', 'url': 'https://genius.com/artists/Jim-root'}, {'name': 'Mick Thomson', 'url': 'https://genius.com/artists/Mick-thomson'}, {'name': 'Shawn Crahan', 'url': 'https://genius.com/artists/Shawn-crahan'}, {'name': 'Sid Wilson', 'url': 'https://genius.com/artists/Sid-wilson'}, {'name': 'Slipknot', 'url': 'https://genius.com/artists/Slipknot'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Meshuggah/Obzen', 'annotations': {'description': '', 'producers': [{'name': 'Meshuggah', 'url': 'https://genius.com/artists/Meshuggah'}], 'writers': [{'name': 'Fredrik Thordendal', 'url': 'https://genius.com/artists/Fredrik-thordendal'}, {'name': 'Tomas Haake', 'url': 'https://genius.com/artists/Tomas-haake'}], 'labels': [{'name': 'Nuclear Blast', 'url': 'https://genius.com/artists/Nuclear-blast'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Meshuggah/Koloss', 'annotations': {'description': '&lt;p&gt;Koloss is Meshuggah’s seventh album. It was released in late March of 2012 by the record label Nuclear Blast. The album debuted at number 17 in the United States, with first week sales of 18,342 copies, the band’s and record label’s highest position on the charts.&lt;/p&gt;', 'producers': [{'name': 'Daniel Bergstrand', 'url': 'https://genius.com/artists/Daniel-bergstrand'}, {'name': 'Meshuggah', 'url': 'https://genius.com/artists/Meshuggah'}], 'writers': [{'name': 'Mårten Hagström', 'url': 'https://genius.com/artists/Marten-hagstrom'}, {'name': 'Tomas Haake', 'url': 'https://genius.com/artists/Tomas-haake'}], 'labels': [{'name': 'Nuclear Blast', 'url': 'https://genius.com/artists/Nuclear-blast'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Meshuggah/The-violent-sleep-of-reason', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Violent Sleep of Reason&lt;/em&gt; is Meshuggah’s eighth album. It is the first album of theirs recorded live. Drummer Tomas Haake explained it as an attempt to replicate their organic feel as a band and not to be “too perfect”.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;em&gt;ObZen&lt;/em&gt; and &lt;em&gt;Koloss&lt;/em&gt; are great albums but, to me, they are a little too perfect. It didn’t really capture what we sounded like honestly…But where we recorded live you get to hear the push and pull, one person might be a little ahead and the other might be a little behind. If you kill that, you can kill the energy.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The album title is loosely inspired by the etching &lt;a href="http://www.abcgallery.com/G/goya/goya135.JPG" rel="noopener nofollow"&gt;&lt;em&gt;The Sleep of Reason Produces Monsters&lt;/em&gt;&lt;/a&gt; by Spanish artist Francisco Goya (c.1799).&lt;/p&gt;', 'producers': [{'name': 'Meshuggah', 'url': 'https://genius.com/artists/Meshuggah'}, {'name': 'Tue Madsen', 'url': 'https://genius.com/artists/Tue-madsen'}], 'writers': [{'name': 'Mårten Hagström', 'url': 'https://genius.com/artists/Marten-hagstrom'}, {'name': 'Tomas Haake', 'url': 'https://genius.com/artists/Tomas-haake'}], 'labels': [{'name': 'Nuclear Blast', 'url': 'https://genius.com/artists/Nuclear-blast'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Trivium/In-waves', 'annotations': {'description': '', 'producers': [{'name': 'Colin Richardson', 'url': 'https://genius.com/artists/Colin-richardson'}, {'name': 'Mark Lewis', 'url': 'https://genius.com/artists/Mark-lewis'}, {'name': 'Martyn “Ginge” Ford', 'url': 'https://genius.com/artists/Martyn-ginge-ford'}, {'name': 'Trivium', 'url': 'https://genius.com/artists/Trivium'}], 'writers': [{'name': 'Corey Beaulieu', 'url': 'https://genius.com/artists/Corey-beaulieu'}, {'name': 'Evan Seinfeld', 'url': 'https://genius.com/artists/Evan-seinfeld'}, {'name': 'Matthew K. Heafy', 'url': 'https://genius.com/artists/Matthew-k-heafy'}, {'name': 'Max Cavalera', 'url': 'https://genius.com/artists/Max-cavalera'}, {'name': 'Paolo Gregoletto', 'url': 'https://genius.com/artists/Paolo-gregoletto'}, {'name': 'Trivium', 'url': 'https://genius.com/artists/Trivium'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Trivium/Shogun', 'annotations': {'description': '', 'producers': [{'name': 'Nick Raskulinecz', 'url': 'https://genius.com/artists/Nick-raskulinecz'}], 'writers': [{'name': 'Corey Beaulieu', 'url': 'https://genius.com/artists/Corey-beaulieu'}, {'name': 'Matthew K. Heafy', 'url': 'https://genius.com/artists/Matthew-k-heafy'}, {'name': 'Paolo Gregoletto', 'url': 'https://genius.com/artists/Paolo-gregoletto'}, {'name': 'Steve Harris', 'url': 'https://genius.com/artists/Steve-harris'}, {'name': 'Trivium', 'url': 'https://genius.com/artists/Trivium'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Trivium/Silence-in-the-snow', 'annotations': {'description': '&lt;p&gt;2015’s Silence in the Snow is Trivium’s seventh studio album. It is their only album to not include any harsh vocals.&lt;/p&gt;', 'producers': [{'name': 'Ihsahn', 'url': 'https://genius.com/artists/Ihsahn'}, {'name': 'Michael “Elvis” Baskette', 'url': 'https://genius.com/artists/Michael-elvis-baskette'}], 'writers': [{'name': 'Corey Beaulieu', 'url': 'https://genius.com/artists/Corey-beaulieu'}, {'name': 'Ihsahn', 'url': 'https://genius.com/artists/Ihsahn'}, {'name': 'Mat Madiro', 'url': 'https://genius.com/artists/Mat-madiro'}, {'name': 'Matthew K. Heafy', 'url': 'https://genius.com/artists/Matthew-k-heafy'}, {'name': 'Michael “Elvis” Baskette', 'url': 'https://genius.com/artists/Michael-elvis-baskette'}, {'name': 'Paolo Gregoletto', 'url': 'https://genius.com/artists/Paolo-gregoletto'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Trivium/The-sin-and-the-sentence', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Sin and the Sentence&lt;/em&gt; is Trivium’s eighth studio album, and it was released on October 20th, 2017 through &lt;a href="https://genius.com/artists/Roadrunner-records" rel="noopener" data-api_path="/artists/290010"&gt;Roadrunner Records&lt;/a&gt;. Frontman &lt;a href="https://genius.com/artists/Matt-heafy" rel="noopener" data-api_path="/artists/224748"&gt;Matt Heafy’s&lt;/a&gt; screaming/growling vocals returned on this album after being completely absent on 2015’s &lt;a href="https://genius.com/albums/Trivium/Silence-in-the-snow" rel="noopener" data-api_path="/albums/131965"&gt;&lt;em&gt;Silence in the Snow&lt;/em&gt;&lt;/a&gt;. In addition, &lt;em&gt;The Sin and the Sentence&lt;/em&gt; is Alex Bent’s first album with Trivium. Bent, the former drummer for &lt;a href="https://genius.com/artists/Battlecross" rel="noopener" data-api_path="/artists/361008"&gt;Battlecross,&lt;/a&gt; is Trivium’s fifth drummer.&lt;/p&gt;\n\n&lt;p&gt;After touring for nearly two years in support of &lt;em&gt;Silence in the Snow&lt;/em&gt;, Trivium returned to the studio in early 2017 to begin recording &lt;em&gt;The Sin and the Sentence&lt;/em&gt;. On July 31st, the band dropped their first single from the album, &lt;a href="https://genius.com/Trivium-the-sin-and-the-sentence-lyrics" rel="noopener" data-api_path="/songs/3180672"&gt;“The Sin and the Sentence”&lt;/a&gt;, which was accompanied by a &lt;a href="https://www.youtube.com/watch?v=RAoKcM54Q1Y" rel="noopener nofollow"&gt;music video&lt;/a&gt;. Ten pieces of unique artwork were posted on &lt;a href="https://www.instagram.com/p/BX-_vSNjGXW/?hl=en&amp;amp;taken-by=triviumband" rel="noopener nofollow"&gt;the band’s Instagram&lt;/a&gt; in August, and each belonged to a specific song on the album. The teasing came to an end on August 24th, when Trivium unleashed &lt;a href="https://genius.com/Trivium-the-heart-from-your-hate-lyrics" rel="noopener" data-api_path="/songs/3209183"&gt;“The Heart from Your Hate”&lt;/a&gt; and &lt;a href="https://www.youtube.com/watch?v=Fwr1Z7uyXz4" rel="noopener nofollow"&gt;its video&lt;/a&gt;. Finally, the third single, &lt;a href="https://genius.com/Trivium-betrayer-lyrics" rel="noopener" data-api_path="/songs/3276706"&gt;“Betrayer”&lt;/a&gt;, came out on October 16th, just before the album’s release. The singles garnered a very positive reception from Trivium fans.&lt;/p&gt;\n\n&lt;p&gt;Following &lt;em&gt;The Sin and the Sentence&lt;/em&gt;’s release, the album received overwhelmingly positive reviews from metal critics. &lt;a href="http://loudwire.com/trivium-the-sin-and-the-sentence-album-review/" rel="noopener nofollow"&gt;Loudwire’s review&lt;/a&gt; of the album concluded with, “Their songwriting and musicianship are as strong as they have ever been, with The Sin and the Sentence delivering a quality listen from beginning to end”. &lt;a href="http://www.metalsucks.net/2017/10/23/review-triviums-the-sin-and-the-sentence-is-among-their-best-ever/" rel="noopener nofollow"&gt;MetalSucks awarded&lt;/a&gt; Trivium a 4.5/5 score for the album, stating, “The Sin and the Sentence is one of the best mainstream metal records (for lack of a better phrase) you’ll hear in all of 2017. It’s also one of the finest in the band’s now quite extensive catalogue…”&lt;/p&gt;\n\n&lt;p&gt;Musically, &lt;em&gt;The Sin and the Sentence&lt;/em&gt; is a one-stop shop for all of Trivium’s past musical styles. 7-string guitars are used on the album. The thrash metal of &lt;a href="https://genius.com/albums/Trivium/The-crusade/" rel="noopener" data-api_path="/albums/115199"&gt;&lt;em&gt;The Crusade&lt;/em&gt;&lt;/a&gt;, the groove metal of &lt;em&gt;Silence in the Snow&lt;/em&gt;, the progressive metal of &lt;a href="https://genius.com/albums/Trivium/Shogun" rel="noopener" data-api_path="/albums/83259"&gt;&lt;em&gt;Shogun&lt;/em&gt;&lt;/a&gt;, and the metalcore of &lt;a href="https://genius.com/albums/Trivium/Ascendancy" rel="noopener" data-api_path="/albums/115198"&gt;&lt;em&gt;Ascendancy&lt;/em&gt;&lt;/a&gt; all make appearances throughout the album.&lt;/p&gt;', 'producers': [{'name': 'Josh Wilbur', 'url': 'https://genius.com/artists/Josh-wilbur'}], 'writers': [{'name': 'Alex Bent', 'url': 'https://genius.com/artists/Alex-bent'}, {'name': 'Corey Beaulieu', 'url': 'https://genius.com/artists/Corey-beaulieu'}, {'name': 'Matthew K. Heafy', 'url': 'https://genius.com/artists/Matthew-k-heafy'}, {'name': 'Paolo Gregoletto', 'url': 'https://genius.com/artists/Paolo-gregoletto'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Alter-bridge/The-last-hero', 'annotations': {'description': '&lt;p&gt;“The Last Hero” is the fifth studio album by Alter Bridge. Release date: October 7, 2016, by Napalm Records.&lt;br&gt;\nIt was produced by longtime collaborator &lt;a href="https://genius.com/artists/Michael-elvis-baskette" rel="noopener" data-api_path="/artists/124471"&gt;Michael “Elvis” Baskette&lt;/a&gt; (SLASH, TREMONTI, TRIVIUM) and mastered by Grammy Award winner &lt;a href="https://genius.com/artists/Ted-jensen" rel="noopener" data-api_path="/artists/638693"&gt;Ted Jensen&lt;/a&gt;.&lt;br&gt;\nThe album’s first single, “Show Me a Leader”, was released digitally and to rock radio on July 26, 2016.&lt;br&gt;\nThe Last Hero was written during the winter of 2015 while both singer Myles Kennedy and guitarist Mark Tremonti were on tour with their respective projects, &lt;a href="https://genius.com/artists/Slash" rel="noopener" data-api_path="/artists/10939"&gt;Slash featuring Myles Kennedy &amp;amp; The Conspirators&lt;/a&gt; and &lt;a href="https://genius.com/artists/Tremonti" rel="noopener" data-api_path="/artists/368050"&gt;Tremonti&lt;/a&gt;, with the recording process being finished during the spring of 2016.&lt;/p&gt;', 'producers': [{'name': 'Ben Grosse', 'url': 'https://genius.com/artists/Ben-grosse'}, {'name': 'Michael “Elvis” Baskette', 'url': 'https://genius.com/artists/Michael-elvis-baskette'}, {'name': 'Ted Jensen', 'url': 'https://genius.com/artists/Ted-jensen'}], 'writers': [{'name': 'Alter Bridge', 'url': 'https://genius.com/artists/Alter-bridge'}, {'name': 'Brian Marshall', 'url': 'https://genius.com/artists/Brian-marshall'}, {'name': 'Mark Tremonti', 'url': 'https://genius.com/artists/Mark-tremonti'}, {'name': 'Myles Kennedy', 'url': 'https://genius.com/artists/Myles-kennedy'}, {'name': 'Scott Phillips', 'url': 'https://genius.com/artists/Scott-phillips'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Alter-bridge/Fortress', 'annotations': {'description': "&lt;p&gt;Fortress is the fourth studio album by the American rock band Alter Bridge, released by Roadrunner Records on September 25, 2013.[1] Michael Baskette, who produced Alter Bridge’s previous two albums, Blackbird (2007) and AB III (2010), returned as the producer. The album was widely acclaimed, with several critics calling it the band’s best album to date and giving praise to each of the band members' musical skills displayed on the record.&lt;/p&gt;", 'producers': [{'name': 'Michael “Elvis” Baskette', 'url': 'https://genius.com/artists/Michael-elvis-baskette'}], 'writers': [{'name': 'Alter Bridge', 'url': 'https://genius.com/artists/Alter-bridge'}, {'name': 'Brian Marshall', 'url': 'https://genius.com/artists/Brian-marshall'}, {'name': 'Mark Tremonti', 'url': 'https://genius.com/artists/Mark-tremonti'}, {'name': 'Myles Kennedy', 'url': 'https://genius.com/artists/Myles-kennedy'}, {'name': 'Scott Phillips', 'url': 'https://genius.com/artists/Scott-phillips'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Alter-bridge/Ab-iii', 'annotations': {'description': '&lt;p&gt;AB III is the third studio album by the rock band Alter Bridge, released on October 8, 2010. Produced by Michael Baskette, the album is a departure from the band’s first two albums, lyrically because it is a loose concept album dealing with darker lyrical themes of struggling with faith, and musically due to its more dynamic and progressive sound.&lt;/p&gt;', 'producers': [{'name': 'Michael “Elvis” Baskette', 'url': 'https://genius.com/artists/Michael-elvis-baskette'}], 'writers': [{'name': 'Alter Bridge', 'url': 'https://genius.com/artists/Alter-bridge'}, {'name': 'Brian Marshall', 'url': 'https://genius.com/artists/Brian-marshall'}, {'name': 'Mark Tremonti', 'url': 'https://genius.com/artists/Mark-tremonti'}, {'name': 'Myles Kennedy', 'url': 'https://genius.com/artists/Myles-kennedy'}, {'name': 'Scott Phillips', 'url': 'https://genius.com/artists/Scott-phillips'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Alter-bridge/Blackbird', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Blackbird&lt;/em&gt; is the second studio album by rock band Alter Bridge, released on October 9, 2007.&lt;/p&gt;\n\n&lt;p&gt;While a large majority of the songs on &lt;a href="https://genius.com/albums/Alter-bridge/One-day-remains" rel="noopener" data-api_path="/albums/47064"&gt;&lt;em&gt;One Day Remains&lt;/em&gt;&lt;/a&gt; were written before Myles Kennedy came on board, this time around it was a collaborative effort with Tremonti and Kennedy sharing the songwriting duties, while all four band members worked on the arrangements. All four members have songwriting credits on the album.&lt;/p&gt;', 'producers': [{'name': 'Michael “Elvis” Baskette', 'url': 'https://genius.com/artists/Michael-elvis-baskette'}], 'writers': [{'name': 'Brian Marshall', 'url': 'https://genius.com/artists/Brian-marshall'}, {'name': 'Mark Tremonti', 'url': 'https://genius.com/artists/Mark-tremonti'}, {'name': 'Myles Kennedy', 'url': 'https://genius.com/artists/Myles-kennedy'}, {'name': 'Scott Phillips', 'url': 'https://genius.com/artists/Scott-phillips'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Alter-bridge/One-day-remains', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;&lt;em&gt;“One Day Remains”&lt;/em&gt;&lt;/strong&gt; is the debut album by heavy metal band &lt;a href="https://genius.com/artists/Alter-bridge" rel="noopener" data-api_path="/artists/75162"&gt;Alter Bridge&lt;/a&gt;.&lt;br&gt;\nReleased in 2004, it was the first effort that featured three of the members of rock band &lt;a href="https://genius.com/artists/Creed" rel="noopener" data-api_path="/artists/13217"&gt;Creed&lt;/a&gt; since its disbandment, namely &lt;a href="https://genius.com/artists/Mark-tremonti" rel="noopener" data-api_path="/artists/359858"&gt;Mark Tremonti&lt;/a&gt; (lead guitar), &lt;a href="https://genius.com/artists/Brian-marshall" rel="noopener" data-api_path="/artists/793733"&gt;Brian Marshall&lt;/a&gt; (bass) and &lt;a href="https://genius.com/artists/Scott-phillips" rel="noopener" data-api_path="/artists/793732"&gt;Scott Phillips&lt;/a&gt; (drums), and adding vocalist and rhythm guitarist &lt;a href="https://genius.com/artists/Myles-kennedy" rel="noopener" data-api_path="/artists/176315"&gt;Myles Kennedy&lt;/a&gt; from defunct rock band &lt;a href="https://genius.com/artists/The-mayfield-four" rel="noopener" data-api_path="/artists/362463"&gt;The Mayfield Four&lt;/a&gt; to the mix.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/92b74a62fe469a2d1518a6a39ce4b9cd.387x500x1.jpg" alt="" width="387" height="500" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;(pictured : November ‘04 issue of “Metal Edge Magazine” featuring Alter Bridge on the cover)&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;This album gained mainstream media attention thanks to the tracks &lt;a href="https://genius.com/Alter-bridge-metalingus-lyrics" rel="noopener" data-api_path="/songs/232398"&gt;&lt;em&gt;“Metalingus”&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/Alter-bridge-shed-my-skin-lyrics" rel="noopener" data-api_path="/songs/688329"&gt;&lt;em&gt;“Shed My Skin”&lt;/em&gt;&lt;/a&gt;, the former being used as the &lt;a href="https://youtu.be/lx_ZijEQ29w" rel="noopener nofollow"&gt;entrance theme of professional wrestler Adam “Edge” Copeland&lt;/a&gt;, while the latter was featured in the &lt;a href="https://genius.com/albums/Various-artists/Fantastic-4-the-album" rel="noopener" data-api_path="/albums/355905"&gt;&lt;em&gt;soundtrack&lt;/em&gt;&lt;/a&gt; for the 2005 movie adaptation of the &lt;em&gt;Fantastic Four&lt;/em&gt; super-hero comic ; as well as commercially successful singles such as &lt;a href="https://genius.com/Alter-bridge-broken-wings-lyrics" rel="noopener" data-api_path="/songs/232401"&gt;&lt;em&gt;“Broken Wings”&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/Alter-bridge-open-your-eyes-lyrics" rel="noopener" data-api_path="/songs/232369"&gt;&lt;em&gt;“Open Your Eyes”&lt;/em&gt;&lt;/a&gt;. &lt;a href="https://genius.com/Alter-bridge-in-loving-memory-lyrics" rel="noopener" data-api_path="/songs/547759"&gt;&lt;em&gt;“In Loving Memory”&lt;/em&gt;&lt;/a&gt; is another very popular song although it was never released as a single, just like &lt;em&gt;“Metalingus”&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Alter Bridge', 'url': 'https://genius.com/artists/Alter-bridge'}, {'name': 'Ben Grosse', 'url': 'https://genius.com/artists/Ben-grosse'}], 'writers': [{'name': 'Brian Marshall', 'url': 'https://genius.com/artists/Brian-marshall'}, {'name': 'Mark Tremonti', 'url': 'https://genius.com/artists/Mark-tremonti'}, {'name': 'Myles Kennedy', 'url': 'https://genius.com/artists/Myles-kennedy'}, {'name': 'Scott Phillips', 'url': 'https://genius.com/artists/Scott-phillips'}], 'labels': [{'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Stone-sour/Hydrograd', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;&lt;a href="https://loudwire.com/corey-taylor-story-stone-sour-hydrograd-title/" rel="noopener nofollow"&gt;Hydrograd&lt;/a&gt;&lt;/em&gt; is Stone Sour’s sixth studio album, released in 2017.&lt;br&gt;\nThe album’s name comes from a time when Corey was running through an older-style airport and misread a sign at a gate. He thought it said “Hydrograd”, so had to stop and make sure what it actually said. It turned out that the sign didn’t even start with an “H”. But he thought it sounded cool and named the album after it.&lt;/p&gt;\n\n&lt;p&gt;The album was recorded live as a band in the studio. Because the band wanted the listeners to get the feeling they got when recording the demos together in a garage.&lt;/p&gt;\n\n&lt;p&gt;Singles “&lt;a href="https://genius.com/Stone-sour-fabuless-lyrics" rel="noopener" data-api_path="/songs/3068667"&gt;Fabuless&lt;/a&gt;” and “&lt;a href="https://genius.com/Stone-sour-song-3-lyrics" rel="noopener" data-api_path="/songs/3068749"&gt;Song #3&lt;/a&gt;” was released prior to the album to show the listeners the two sides of the album. With “Fabuless” being a heavy song and “Song #3” being more of a rock love song.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/sWePgL9NUE0?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Jay Ruston', 'url': 'https://genius.com/artists/Jay-ruston'}, {'name': 'Stone Sour', 'url': 'https://genius.com/artists/Stone-sour'}], 'writers': [{'name': 'Alex Van Halen', 'url': 'https://genius.com/artists/Alex-van-halen'}, {'name': 'Brad Wilk', 'url': 'https://genius.com/artists/Brad-wilk'}, {'name': 'Chris Cornell', 'url': 'https://genius.com/artists/Chris-cornell'}, {'name': 'Christian Martucci', 'url': 'https://genius.com/artists/Christian-martucci'}, {'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}, {'name': 'David Lee Roth', 'url': 'https://genius.com/artists/David-lee-roth'}, {'name': 'Eddie Van Halen', 'url': 'https://genius.com/artists/Eddie-van-halen'}, {'name': 'John Cowan', 'url': 'https://genius.com/artists/John-cowan'}, {'name': 'Johny Chow', 'url': 'https://genius.com/artists/Johny-chow'}, {'name': 'Josh Rand', 'url': 'https://genius.com/artists/Josh-rand'}, {'name': 'Michael Anthony (Bassist)', 'url': 'https://genius.com/artists/Michael-anthony-bassist'}, {'name': 'Roy Mayorga', 'url': 'https://genius.com/artists/Roy-mayorga'}, {'name': 'Stone Sour', 'url': 'https://genius.com/artists/Stone-sour'}, {'name': 'Tim Commerford', 'url': 'https://genius.com/artists/Tim-commerford'}, {'name': 'Tom Morello', 'url': 'https://genius.com/artists/Tom-morello'}, {'name': 'Zack de la Rocha', 'url': 'https://genius.com/artists/Zack-de-la-rocha'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Fozzy/Judas', 'annotations': {'description': "&lt;p&gt;Judas is the seventh studio album by the American heavy metal band Fozzy. It is scheduled for release on October 13, 2017 through Century Media Records. The album’s title track was released as the lead single from the album on May 5, 2017. The second single, “Drinkin' with Jesus” was released on September 15, 2017.&lt;/p&gt;", 'producers': [{'name': 'Johnny Andrews', 'url': 'https://genius.com/artists/Johnny-andrews'}, {'name': 'Richard Ward', 'url': 'https://genius.com/artists/Richard-ward'}], 'writers': [{'name': 'Chris Irvine', 'url': 'https://genius.com/artists/Chris-irvine'}, {'name': 'Chris Jericho', 'url': 'https://genius.com/artists/Chris-jericho'}, {'name': 'Hyro The Hero', 'url': 'https://genius.com/artists/Hyro-the-hero'}, {'name': 'Johnny Andrews', 'url': 'https://genius.com/artists/Johnny-andrews'}, {'name': 'Justin Cordle', 'url': 'https://genius.com/artists/Justin-cordle'}, {'name': 'Matt Walst', 'url': 'https://genius.com/artists/Matt-walst'}, {'name': 'Richard Ward', 'url': 'https://genius.com/artists/Richard-ward'}, {'name': 'Rich Ward', 'url': 'https://genius.com/artists/Rich-ward'}, {'name': 'Simon Olds', 'url': 'https://genius.com/artists/Simon-olds'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Korn/The-serenity-of-suffering', 'annotations': {'description': '', 'producers': [{'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Nick Raskulinecz', 'url': 'https://genius.com/artists/Nick-raskulinecz'}], 'writers': [{'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Ray Luzier', 'url': 'https://genius.com/artists/Ray-luzier'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Sluggo', 'url': 'https://genius.com/artists/Sluggo'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Marilyn-manson/Heaven-upside-down', 'annotations': {'description': '&lt;p&gt;&lt;i&gt;Heaven Upside Down&lt;/i&gt; (working title &lt;em&gt;SAY10&lt;/em&gt;) is the title of the tenth studio album by Marilyn Manson, released on October 6, 2017.&lt;/p&gt;\n\n&lt;p&gt;“&lt;a href="https://genius.com/Marilyn-manson-we-know-where-you-fucking-live-lyrics" rel="noopener" data-api_path="/songs/3074485"&gt;WE KNOW WHERE YOU FUCKING LIVE&lt;/a&gt;” released as the lead-off single on September 11. The song features a somewhat new sound for Manson while being more aggressive than on his few last records. The second single “&lt;a href="https://genius.com/Marilyn-manson-kill4me-lyrics" rel="noopener" data-api_path="/songs/3220255"&gt;KILL4ME&lt;/a&gt;” was released on September 20th, followed by the third single “&lt;a href="https://genius.com/Marilyn-manson-tattooed-in-reverse-lyrics" rel="noopener" data-api_path="/songs/3227353"&gt;Tattooed in Reverse&lt;/a&gt;” on  March 22th 2018.&lt;/p&gt;', 'producers': [{'name': 'Tyler Bates', 'url': 'https://genius.com/artists/Tyler-bates'}], 'writers': [{'name': 'Marilyn Manson', 'url': 'https://genius.com/artists/Marilyn-manson'}, {'name': 'Tyler Bates', 'url': 'https://genius.com/artists/Tyler-bates'}], 'labels': [{'name': 'Loma Vista Recordings', 'url': 'https://genius.com/artists/Loma-vista-recordings'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Volbeat/Guitar-gangsters-cadillac-blood', 'annotations': {'description': '&lt;blockquote&gt;&lt;p&gt;Well, [coming up with the album’s title] all started when I needed a good album title for the third album and then I heard &lt;a href="https://genius.com/artists/Social-distortion" rel="noopener" data-api_path="/artists/59648"&gt;Mike Ness&lt;/a&gt; singing &lt;em&gt;&lt;a href="https://genius.com/Social-distortion-nickels-and-dimes-lyrics" rel="noopener" data-api_path="/songs/1482334"&gt;I’m A Guitar Gangster Without A Tune&lt;/a&gt;&lt;/em&gt;, or something like that. I thought about the words ‘guitar gangster’, and suddenly I had these pictures and ideas running in my head, and I came up with the album title &lt;em&gt;Guitar Gangsters &amp;amp; Cadillac Blood&lt;/em&gt;.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;-&lt;a href="http://espyrock.com/interviews/interview-volbeat" rel="noopener nofollow"&gt;Michael Poulsen&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s a small story about a guy who wakes up in the desert with shooting holes in his body. He’s laying in his Cadillac. He’s bleeding. When the law enforcement comes, the car and the guy are gone. He’s going to this city that you can’t find on any map or anything. The whole idea for this guy, Cadillac Blood, is he believes he can find his killer in that city. He performs as a musician and every night he stands on stage, he’s looking at the people in the bar trying to figure out who’s the killer. That’s the story going on on that album.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;-&lt;a href="http://noisecreep.com/volbeat-insist-guitar-gangsters-and-cadillac-blood-isnt-a-con/" rel="noopener nofollow"&gt;Michael Poulsen&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;7 of the songs on the album tell the story of this ‘guitar gangster’, whom the band would often continue to write songs about. The album isn’t a concept album however, because there’s still 7 other songs on the album.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Volbeat’s not a concept band. We’re a band with lots of different styles and stories. It’s definitely not a concept album.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;-&lt;a href="http://noisecreep.com/volbeat-insist-guitar-gangsters-and-cadillac-blood-isnt-a-con/" rel="noopener nofollow"&gt;Michael Poulsen&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Jacob Hansen', 'url': 'https://genius.com/artists/Jacob-hansen'}], 'writers': [{'name': 'Anders Kjølholm', 'url': 'https://genius.com/artists/Anders-kjlholm'}, {'name': 'Hank Williams', 'url': 'https://genius.com/artists/Hank-williams'}, {'name': 'Jimmy Work', 'url': 'https://genius.com/artists/Jimmy-work'}, {'name': 'Jon Larsen', 'url': 'https://genius.com/artists/Jon-larsen'}, {'name': 'Michael Poulsen', 'url': 'https://genius.com/artists/Michael-poulsen'}, {'name': 'Thomas Bredahl', 'url': 'https://genius.com/artists/Thomas-bredahl'}], 'labels': [{'name': 'Mascot Records', 'url': 'https://genius.com/artists/Mascot-records'}, {'name': 'Rebel Monster Records', 'url': 'https://genius.com/artists/Rebel-monster-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Volbeat/Seal-the-deal-let-s-boogie', 'annotations': {'description': '', 'producers': [{'name': 'Jacob Hansen', 'url': 'https://genius.com/artists/Jacob-hansen'}, {'name': 'Michael Poulsen', 'url': 'https://genius.com/artists/Michael-poulsen'}, {'name': 'Rob Caggiano', 'url': 'https://genius.com/artists/Rob-caggiano'}], 'writers': [{'name': 'Johan Olsen', 'url': 'https://genius.com/artists/Johan-olsen'}, {'name': 'Jon Larsen', 'url': 'https://genius.com/artists/Jon-larsen'}, {'name': 'Michael Poulsen', 'url': 'https://genius.com/artists/Michael-poulsen'}, {'name': 'Ray Carlisle', 'url': 'https://genius.com/artists/Ray-carlisle'}, {'name': 'Rob Caggiano', 'url': 'https://genius.com/artists/Rob-caggiano'}, {'name': 'Terry Anderson', 'url': 'https://genius.com/artists/Terry-anderson'}], 'labels': [{'name': 'Republic Records', 'url': 'https://genius.com/artists/Republic-records'}, {'name': 'U.M.G Records', 'url': 'https://genius.com/artists/Umg-records'}, {'name': 'Vertigo Records', 'url': 'https://genius.com/artists/Vertigo-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Volbeat/Beyond-hell-above-heaven', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;&lt;a href="https://www.volbeat.dk/en/history/part-5---7-.html" rel="noopener nofollow"&gt;Beyond Hell/Above Heaven&lt;/a&gt;&lt;/em&gt; is the fourth album released by Volbeat. It is by critics regarded as Volbeat’s breakthrough album, after it had shown the metal world what that special combination of rockabilly and metal was.&lt;/p&gt;\n\n&lt;p&gt;Vocalist/guitarist Michael Poulsen’s words on the album:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was different but still held true to the Volbeat style. We had fast, slow and mid-tempo songs. We still blended different styles of punk, rock\'n\'roll, rockabilly, metal, heavy metal, thrash metal, and country.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Jacob Hansen', 'url': 'https://genius.com/artists/Jacob-hansen'}], 'writers': [{'name': 'Glenn Danzig', 'url': 'https://genius.com/artists/Glenn-danzig'}, {'name': 'Jon Larsen', 'url': 'https://genius.com/artists/Jon-larsen'}, {'name': 'Mark “Barney” Greenway', 'url': 'https://genius.com/artists/Mark-barney-greenway'}, {'name': 'Michael Poulsen', 'url': 'https://genius.com/artists/Michael-poulsen'}, {'name': 'Thomas Bredahl', 'url': 'https://genius.com/artists/Thomas-bredahl'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Godsmack/Faceless', 'annotations': {'description': '', 'producers': [{'name': 'David Bottrill', 'url': 'https://genius.com/artists/David-bottrill'}, {'name': 'Sully Erna', 'url': 'https://genius.com/artists/Sully-erna'}], 'writers': [{'name': 'Sully Erna', 'url': 'https://genius.com/artists/Sully-erna'}, {'name': 'Tony Rombola', 'url': 'https://genius.com/artists/Tony-rombola'}], 'labels': [{'name': 'Republic Records', 'url': 'https://genius.com/artists/Republic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Korn/Greatest-hits-vol-1', 'annotations': {'description': '&lt;p&gt;Korn’s Greatest Hits Vol. 1 album is a collection of their most popular songs. Also including two covers. “Another Brick In The Wall” by Pink Floyd and “Word Up!” by Cameo.&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}, {'name': 'Frank Filipetti', 'url': 'https://genius.com/artists/Frank-filipetti'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Michael Beinhorn', 'url': 'https://genius.com/artists/Michael-beinhorn'}, {'name': 'Ross Robinson', 'url': 'https://genius.com/artists/Ross-robinson'}, {'name': 'Steve Thompson', 'url': 'https://genius.com/artists/Steve-thompson'}, {'name': 'Toby Wright', 'url': 'https://genius.com/artists/Toby-wright'}], 'writers': [{'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Dennis Shinn', 'url': 'https://genius.com/artists/Dennis-shinn'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Larry Blackmon', 'url': 'https://genius.com/artists/Larry-blackmon'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Roger Waters', 'url': 'https://genius.com/artists/Roger-waters'}, {'name': 'Ryan Shuck', 'url': 'https://genius.com/artists/Ryan-shuck'}, {'name': 'Thomas Jenkins', 'url': 'https://genius.com/artists/Thomas-jenkins'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}, {'name': 'Legacy Recordings', 'url': 'https://genius.com/artists/Legacy-recordings'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Linkin-park/Meteora', 'annotations': {'description': '&lt;p&gt;Having sold over 27 million copies worldwide and being seven times platinum-certified by the RIAA, &lt;em&gt;Meteora&lt;/em&gt; is just Linkin Park’s second studio album. It features five singles, namely “&lt;a href="https://genius.com/Linkin-park-somewhere-i-belong-lyrics" rel="noopener" data-api_path="/songs/85506"&gt;Somewhere I Belong&lt;/a&gt;,” “&lt;a href="https://genius.com/Linkin-park-faint-lyrics" rel="noopener" data-api_path="/songs/134095"&gt;Faint&lt;/a&gt;,” “&lt;a href="https://genius.com/Linkin-park-breaking-the-habit-lyrics" rel="noopener" data-api_path="/songs/56658"&gt;Breaking the Habit&lt;/a&gt;,” “&lt;a href="https://genius.com/Linkin-park-from-the-inside-lyrics" rel="noopener" data-api_path="/songs/167791"&gt;From the Inside&lt;/a&gt;,” and the chart-breaking single “&lt;a href="https://genius.com/Linkin-park-numb-lyrics" rel="noopener" data-api_path="/songs/74998"&gt;Numb&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.artistdirect.com/entertainment-news/article/chester-bennington-of-linkin-park-looks-back-on-meteora/10784064" rel="noopener nofollow"&gt;Chester Bennington said about the album&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We knew what we wanted, and we knew how to execute to a certain degree. However, we were also just going for it. We didn’t really care about what anybody else was doing. We also didn’t care whether or not the songs fit together stylistically as a whole or a collection of songs. It was more like, “This riff is sick!” Then, we’d just scream over it, and the next song would be a mid-tempo ballad and you’d sing the way that song needed to be sang. We were testing. We were students in college. We were in the lab, and we happened to stumble across something everybody liked and it worked. I think Meteora was an extension of that.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;He also said in &lt;a href="https://web.archive.org/web/20151017030709/http://www.mtv.com/bands/l/linkin_park/news_feature_030404/index2.jhtml" rel="noopener nofollow"&gt;another interview&lt;/a&gt; with &lt;a href="https://en.wikipedia.org/wiki/MTV" rel="noopener nofollow"&gt;MTV&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We don’t talk about situations, we talk about the emotions behind the situations. Mike and I are two different people, so we can’t sing about the same things, but we both know about frustration and anger and loneliness and love and happiness, and we can relate on that level.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Released in 2003, many songs from &lt;em&gt;Meteora&lt;/em&gt; seem to have developed new meaning after &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennington&lt;/a&gt;’s &lt;a href="https://genius.com/a/linkin-park-singer-chester-bennington-has-passed-away" rel="noopener" data-api_path="/articles/2842"&gt;suicide&lt;/a&gt; in July 2017. It is only now that we notice the elements of depression and anger present throughout the album. Who cares about the price until we have to pay anyways?&lt;/p&gt;', 'producers': [{'name': 'Don Gilmore', 'url': 'https://genius.com/artists/Don-gilmore'}, {'name': 'Linkin Park', 'url': 'https://genius.com/artists/Linkin-park'}], 'writers': [{'name': 'Brad Delson', 'url': 'https://genius.com/artists/Brad-delson'}, {'name': 'Chester Bennington', 'url': 'https://genius.com/artists/Chester-bennington'}, {'name': 'Dave Farrell', 'url': 'https://genius.com/artists/Dave-farrell'}, {'name': 'Linkin Park', 'url': 'https://genius.com/artists/Linkin-park'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Mr. Hahn', 'url': 'https://genius.com/artists/Mr-hahn'}, {'name': 'Rob Bourdon', 'url': 'https://genius.com/artists/Rob-bourdon'}], 'labels': [{'name': 'Machine Shop Records', 'url': 'https://genius.com/artists/Machine-shop-records'}, {'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Avenged-sevenfold/Nightmare', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Nightmare&lt;/em&gt; is the fifth studio album of the heavy metal band &lt;a href="https://genius.com/artists/Avenged-sevenfold" rel="noopener" data-api_path="/artists/20710"&gt;Avenged Sevenfold&lt;/a&gt;. It was released July 26th, 2010.&lt;br&gt;\n&lt;a href="https://www.revolvermag.com/music/avenged-sevenfolds-nightmare-tragedy-and-triumph-behind-2010-no-1-album" rel="noopener nofollow"&gt;Originally&lt;/a&gt;, &lt;em&gt;Nightmare&lt;/em&gt; was supposed to be a long and adventurous album, with a dark story they were gonna take their fans on a journey – with the theme of the world’s state in subjects like economy, racism, schools and religion.&lt;/p&gt;\n\n&lt;p&gt;However, with the passing of the band’s drummer and best friend, Jimmy “The Rev” Sullivan, the album turned out differently. All the music for the album was done and demoed by mid December 2009, the lyrics was not done yet.&lt;/p&gt;\n\n&lt;p&gt;A few days after The Rev’s passing, Shadows pushes the band to finish the record they were doing. &lt;a href="https://www.revolvermag.com/music/avenged-sevenfolds-nightmare-tragedy-and-triumph-behind-2010-no-1-album" rel="noopener nofollow"&gt;On which Johhny Christ says&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;As we started to talk about it, we started to realize that we have a full record and a lot of these songs — I mean, Jimmy’s had a part in every song and a lot of the songs are 100 percent his. He probably wrote about 60 percent of this record, himself.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The band felt Jimmy had left them with a gift he wanted the world to hear, so they decided to finish the album.&lt;br&gt;\nFor the recording of the album, one of Jimmy’s idols – Mike Portnoy, ex-drummer for &lt;a href="https://genius.com/artists/Dream-theater" rel="noopener" data-api_path="/artists/19712"&gt;Dream Theater&lt;/a&gt;, who had reached out to the band with his condolences, was chosen to do his drumming. And according to the band, he was probably the only one who could pull of Jimmy’s work.&lt;/p&gt;\n\n&lt;p&gt;The whole album serves as a tribute to Jimmy. The band did some changes to the stuff he had written before releasing it, but according to them it’s what Jimmy would have wanted, since he used to say to them:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Oh, I’ve got all these ideas, but I just can\'t… You guys Avenged-Sevenfoldify it.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;And they did.&lt;/p&gt;', 'producers': [{'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}, {'name': 'M. Shadows', 'url': 'https://genius.com/artists/M-shadows'}, {'name': 'Synyster Gates', 'url': 'https://genius.com/artists/Synyster-gates'}, {'name': 'Zacky Vengeance', 'url': 'https://genius.com/artists/Zacky-vengeance'}], 'writers': [{'name': 'Avenged Sevenfold', 'url': 'https://genius.com/artists/Avenged-sevenfold'}, {'name': 'Jimmy “The Rev” Sullivan', 'url': 'https://genius.com/artists/Jimmy-the-rev-sullivan'}, {'name': 'Johnny Christ', 'url': 'https://genius.com/artists/Johnny-christ'}, {'name': 'Jonathan Seward', 'url': 'https://genius.com/artists/Jonathan-seward'}, {'name': 'M. Shadows', 'url': 'https://genius.com/artists/M-shadows'}, {'name': 'Rev', 'url': 'https://genius.com/artists/Rev'}, {'name': 'Synyster Gates', 'url': 'https://genius.com/artists/Synyster-gates'}, {'name': 'Zacky Vengeance', 'url': 'https://genius.com/artists/Zacky-vengeance'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Evanescence/Fallen', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Fallen&lt;/em&gt; is the debut studio album by &lt;a href="https://genius.com/artists/Evanescence" rel="noopener" data-api_path="/artists/17912"&gt;Evanescence&lt;/a&gt;, released on 4 March 2003.&lt;/p&gt;\n\n&lt;p&gt;Frontwoman Amy Lee stated:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We’ve all fallen, but at the same time we’re not broken. There is the hint that we are going to get up again.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The songs deal with “longing, sadness, solitude, anger, and pain” as pointed out by Amy Lee in a &lt;a href="http://galeria.evanescence.com.br/displayimage.php?album=1500&amp;amp;pos=2" rel="noopener nofollow"&gt;&lt;em&gt;Rock Sound&lt;/em&gt; interview&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Amy told on Evanescence’s &lt;a href="https://web.archive.org/web/20030202045622/http://evanescence.com/bio/index.html" rel="noopener nofollow"&gt;bio&lt;/a&gt; on their website in early 2003:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The point of this whole record and band is to let people know that they’re not alone in dealing with bad feelings or pain or anything that they go through. That’s life and that’s human. They’re not alone, and we’re going through it, too.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The album has sold over 17 million copies worldwide and contains hits like &lt;a href="https://genius.com/Evanescence-bring-me-to-life-lyrics" rel="noopener" data-api_path="/songs/67202"&gt;“Bring Me to Life”&lt;/a&gt; and &lt;a href="https://genius.com/Evanescence-my-immortal-lyrics" rel="noopener" data-api_path="/songs/113158"&gt;“My Immortal”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;For its 10th anniversary, the band released a limited edition purple vinyl version of &lt;em&gt;Fallen&lt;/em&gt;, including three B-sides: &lt;a href="https://genius.com/Evanescence-farther-away-lyrics" rel="noopener" data-api_path="/songs/218564"&gt;“Farther Away”&lt;/a&gt;, &lt;a href="https://genius.com/Evanescence-missing-lyrics" rel="noopener" data-api_path="/songs/218571"&gt;“Missing”&lt;/a&gt;, and &lt;a href="https://genius.com/Evanescence-breathe-no-more-lyrics" rel="noopener" data-api_path="/songs/186397"&gt;“Breathe No More”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Ben Moody', 'url': 'https://genius.com/artists/Ben-moody'}, {'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}], 'writers': [{'name': 'Amy Lee', 'url': 'https://genius.com/artists/Amy-lee'}, {'name': 'Ben Moody', 'url': 'https://genius.com/artists/Ben-moody'}, {'name': 'David Hodges', 'url': 'https://genius.com/artists/David-hodges'}, {'name': 'John LeCompt', 'url': 'https://genius.com/artists/John-lecompt'}, {'name': 'Rocky Gray', 'url': 'https://genius.com/artists/Rocky-gray'}], 'labels': [{'name': 'Craft Recordings', 'url': 'https://genius.com/artists/Craft-recordings'}, {'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Bring-me-the-horizon/Thats-the-spirit', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;That’s The Spirit&lt;/em&gt; is BMTH’s fifth studio album. It shows a development of the sound introduced on 2013’s &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Sempiternal" rel="noopener" data-api_path="/albums/29438"&gt;&lt;em&gt;Sempiternal&lt;/em&gt;&lt;/a&gt;, moving away from the metal and deathcore style of older material. Frontman &lt;a href="https://genius.com/artists/Oli-sykes" rel="noopener" data-api_path="/artists/1007693"&gt;Oli Sykes&lt;/a&gt; cited a wider range of influences such as &lt;a href="https://genius.com/artists/janes-addiction" rel="noopener" data-api_path="/artists/30312"&gt;Jane’s Addiction,&lt;/a&gt; &lt;a href="https://genius.com/artists/Radiohead" rel="noopener" data-api_path="/artists/604"&gt;Radiohead,&lt;/a&gt; and &lt;a href="https://genius.com/artists/Interpol" rel="noopener" data-api_path="/artists/21128"&gt;Interpol&lt;/a&gt; on this record. Critics have praised this evolution, even as many fans expressed disappointment in the less heavy, stadium-friendly sound.&lt;/p&gt;\n\n&lt;p&gt;The album was self-produced by keyboardist Jordan Fish and Oli. The title is a reference to the refrain of &lt;a href="https://genius.com/7270226" rel="noopener" data-api_path="/referents/7270226"&gt;“Happy Song,”&lt;/a&gt; which ironically samples a high school pep rally.&lt;/p&gt;\n\n&lt;p&gt;The theme of the album is the “celebration of depression” and how depression is often romanticised according to Oli.&lt;/p&gt;', 'producers': [{'name': 'Jordan Fish', 'url': 'https://genius.com/artists/Jordan-fish'}, {'name': 'Oli Sykes', 'url': 'https://genius.com/artists/Oli-sykes'}], 'writers': [{'name': 'Jordan Fish', 'url': 'https://genius.com/artists/Jordan-fish'}, {'name': 'Lee Malia', 'url': 'https://genius.com/artists/Lee-malia'}, {'name': 'Matt Kean', 'url': 'https://genius.com/artists/Matt-kean'}, {'name': 'Matt Nicholls', 'url': 'https://genius.com/artists/Matt-nicholls'}, {'name': 'Oli Sykes', 'url': 'https://genius.com/artists/Oli-sykes'}], 'labels': [{'name': 'Sony Music UK', 'url': 'https://genius.com/artists/Sony-music-uk'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Bring-me-the-horizon/Sempiternal', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Sempiternal&lt;/em&gt; is BMTH’s fourth studio album and introduced a change in the band’s musical direction. Following the unceremonious departure of rhythm guitarist &lt;a href="https://genius.com/artists/Jona-weinhofen" rel="noopener" data-api_path="/artists/1113940"&gt;Jona Weinhofen,&lt;/a&gt; the introduction of keyboardist and producer &lt;a href="https://genius.com/artists/Jordan-fish" rel="noopener" data-api_path="/artists/566546"&gt;Jordan Fish&lt;/a&gt; had a huge impact on the final record. This included a wide range of film score, electronic and pop influences. BMTH had always incorporated electronic elements in their music, but these elements were included in the foundation of the songwriting for the first time on &lt;em&gt;Sempiternal&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Oli explained the album’s concept as a process of realisation for every song to lead into the next. The term &lt;a href="https://www.google.com/search?ei=knfoXIblI9LV5gKCjrGACw&amp;amp;q=sempiternal+meaning&amp;amp;oq=Sempiternal+&amp;amp;gs_l=psy-ab.1.2.35i39j0j0i67j0j0i67j0l4j0i67.13061.13061..14955...0.0..0.192.192.0j1......0....1..gws-wiz.......0i71.8J5RG2FCtwo" rel="noopener nofollow"&gt;“Sempiternal”&lt;/a&gt; is an old Latin word meaning “eternal, unchanging.”&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;[In a way] It’s too hard to say what the album’s about and that’s why it’s called &lt;em&gt;Sempiternal&lt;/em&gt;, which means ever-lasting journey and that’s why our logo is called &lt;a href="https://en.wikipedia.org/wiki/Overlapping_circles_grid#Modern_usage" rel="noopener nofollow"&gt;“The Flower of Life.”&lt;/a&gt; That’s sacred geometry and it basically represents everything that goes on in the universe.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Four singles were released from &lt;em&gt;Sempiternal&lt;/em&gt;: &lt;a href="https://genius.com/Bring-me-the-horizon-shadow-moses-lyrics" rel="noopener" data-api_path="/songs/123844"&gt;“Shadow Moses,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-sleepwalking-lyrics" rel="noopener" data-api_path="/songs/123839"&gt;“Sleepwalking,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-can-you-feel-my-heart-lyrics" rel="noopener" data-api_path="/songs/123828"&gt;“Can You Feel My Heart”&lt;/a&gt; and &lt;a href="https://genius.com/Bring-me-the-horizon-go-to-hell-for-heavens-sake-lyrics" rel="noopener" data-api_path="/songs/123843"&gt;“Go to Hell, for Heaven’s Sake.”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Terry Date', 'url': 'https://genius.com/artists/Terry-date'}], 'writers': [{'name': 'Jordan Fish', 'url': 'https://genius.com/artists/Jordan-fish'}, {'name': 'Lee Malia', 'url': 'https://genius.com/artists/Lee-malia'}, {'name': 'Matt Kean', 'url': 'https://genius.com/artists/Matt-kean'}, {'name': 'Matt Nicholls', 'url': 'https://genius.com/artists/Matt-nicholls'}, {'name': 'Oli Sykes', 'url': 'https://genius.com/artists/Oli-sykes'}], 'labels': [{'name': 'Epitaph Records', 'url': 'https://genius.com/artists/Epitaph-records'}, {'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}, {'name': 'Sony Music Entertainment', 'url': 'https://genius.com/artists/Sony-music-entertainment'}, {'name': 'Sony Music UK', 'url': 'https://genius.com/artists/Sony-music-uk'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Linkin-park/Hybrid-theory', 'annotations': {'description': '&lt;p&gt;Considered by various critics as a staple of &lt;a href="https://en.wikipedia.org/wiki/Nu_metal" rel="noopener nofollow"&gt;nu-metal&lt;/a&gt;, Linkin Park’s 2000 full-length debut &lt;em&gt;Hybrid Theory&lt;/em&gt; seamlessly blends raw hip-hop with an alternative sound, and &lt;a href="http://www.billboard.com/charts/billboard-200/2002-01-12" rel="noopener nofollow"&gt;obtained the number-two spot on the Billboard Hot 100&lt;/a&gt; and peaked within the top-ten of several countries. Named after the &lt;a href="https://genius.com/Linkin-park/Hybrid-theory-ep" rel="noopener"&gt;&lt;em&gt;Hybrid Theory EP&lt;/em&gt;&lt;/a&gt;, the Agoura Hills band’s underground sound is heavily used as an influence throughout the fourteen-track project.&lt;/p&gt;\n\n&lt;p&gt;The album was recorded during the spring and summer of 2000 at &lt;a href="https://en.wikipedia.org/wiki/NRG_Recording_Studios" rel="noopener nofollow"&gt;NRG Studios&lt;/a&gt;. Additionally, the project was led by four singles: &lt;a href="https://genius.com/Linkin-park-one-step-closer-lyrics" rel="noopener" data-api_path="/songs/72377"&gt;“One Step Closer”&lt;/a&gt;, &lt;a href="https://genius.com/Linkin-park-crawling-lyrics" rel="noopener" data-api_path="/songs/72379"&gt;“Crawling”&lt;/a&gt;, &lt;a href="https://genius.com/Linkin-park-papercut-lyrics" rel="noopener" data-api_path="/songs/67584"&gt;“Papercut”&lt;/a&gt;, and &lt;a href="https://genius.com/Linkin-park-in-the-end-lyrics" rel="noopener" data-api_path="/songs/49719"&gt;“In the End”&lt;/a&gt;. Inspired by bands such as &lt;a href="https://genius.com/artists/Depeche-mode" rel="noopener" data-api_path="/artists/943"&gt;Depeche Mode&lt;/a&gt;, &lt;a href="https://genius.com/artists/Deftones" rel="noopener" data-api_path="/artists/14195"&gt;Deftones&lt;/a&gt;, &lt;a href="https://genius.com/artists/Stone-temple-pilots" rel="noopener" data-api_path="/artists/32087"&gt;Stone Temple Pilots&lt;/a&gt;, &lt;a href="https://genius.com/artists/U2" rel="noopener" data-api_path="/artists/23895"&gt;U2&lt;/a&gt;, and even the rap group &lt;a href="https://genius.com/artists/The-roots" rel="noopener" data-api_path="/artists/244"&gt;The Roots&lt;/a&gt;, its lyrical content touches on themes that lead singer &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennigton&lt;/a&gt; experienced throughout his childhood: child neglect, drug and alcohol abuse, paranoia, and the divorce of his parents.&lt;/p&gt;\n\n&lt;p&gt;Linkin Park’s debut album &lt;a href="https://web.archive.org/web/20141020174352/http://www.downloadfestival.co.uk/news/linkin-park-announced-saturday-headliner-fall-out-boy-main-support" rel="noopener nofollow"&gt;has sold over 30 million copies worldwide as of 2014&lt;/a&gt;, and has not only found success through its fans; it was listed in Robert Dimery’s &lt;a href="https://en.wikipedia.org/wiki/1001_Albums_You_Must_Hear_Before_You_Die" rel="noopener nofollow"&gt;&lt;em&gt;1001 Albums You Must Hear Before You Die&lt;/em&gt;&lt;/a&gt; and &lt;a href="http://www.newsweek.com/chester-bennington-linkin-park-hybrid-639964" rel="noopener nofollow"&gt;was nominated for Best Rock Album at the 44th Grammys in 2002&lt;/a&gt;. All of its songs were remixed and re-released on Linkin Park’s 2002 album &lt;a href="https://genius.com/Linkin-park/Reanimation" rel="noopener"&gt;&lt;em&gt;Reanimation&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;For the Japan and special edition releases, two bonus B-sides were released as an incentive to purchase those editions: “&lt;a href="https://genius.com/Linkin-park-my-december-lyrics" rel="noopener" data-api_path="/songs/194721"&gt;My December&lt;/a&gt;” and “&lt;a href="https://genius.com/Linkin-park-high-voltage-mike-shinoda-remix-lyrics" rel="noopener" data-api_path="/songs/31954"&gt;High Voltage&lt;/a&gt;”.&lt;/p&gt;', 'producers': [{'name': 'Don Gilmore', 'url': 'https://genius.com/artists/Don-gilmore'}], 'writers': [{'name': 'Brad Delson', 'url': 'https://genius.com/artists/Brad-delson'}, {'name': 'Chester Bennington', 'url': 'https://genius.com/artists/Chester-bennington'}, {'name': 'Dave Farrell', 'url': 'https://genius.com/artists/Dave-farrell'}, {'name': 'David Farrell', 'url': 'https://genius.com/artists/David-farrell'}, {'name': 'Dust Brothers', 'url': 'https://genius.com/artists/Dust-brothers'}, {'name': 'Linkin Park', 'url': 'https://genius.com/artists/Linkin-park'}, {'name': 'Mark Wakefield', 'url': 'https://genius.com/artists/Mark-wakefield'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Mr. Hahn', 'url': 'https://genius.com/artists/Mr-hahn'}, {'name': 'Rob Bourdon', 'url': 'https://genius.com/artists/Rob-bourdon'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Rise-against/Appeal-to-reason', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Appeal To Reason&lt;/em&gt; is the fifth studio album by American rock band Rise Against.&lt;/p&gt;\n\n&lt;p&gt;The album produced three singles, including “&lt;a href="https://genius.com/Rise-against-re-education-through-labor-lyrics" rel="noopener" data-api_path="/songs/64936"&gt;Re-Education (Through Labor)&lt;/a&gt;,” “&lt;a href="https://genius.com/Rise-against-audience-of-one-lyrics" rel="noopener" data-api_path="/songs/85019"&gt;Audience Of One&lt;/a&gt;,” and “&lt;a href="https://genius.com/Rise-against-savior-lyrics" rel="noopener" data-api_path="/songs/64353"&gt;Savior&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;A lot of the album deals with America’s political issues. On “&lt;a href="https://genius.com/Rise-against-kotov-syndrome-lyrics" rel="noopener" data-api_path="/songs/480150"&gt;Kotov Syndrome&lt;/a&gt;,” McIlrath shows his disgust with those in authority over America, and claims that while they &lt;em&gt;say&lt;/em&gt; they’re keeping the peace, they’re doing the exact opposite. On “&lt;a href="https://genius.com/Rise-against-hero-of-war-lyrics" rel="noopener" data-api_path="/songs/74607"&gt;Hero Of War&lt;/a&gt;,”—a song that was confused as the album’s third single—we hear the story of an Iraq war veteran looking back on his difficulties during the war. “&lt;a href="https://genius.com/Rise-against-collapse-post-amerika-lyrics" rel="noopener" data-api_path="/songs/384162"&gt;Collapse (Post-Amerika)&lt;/a&gt;” warns its listeners against global warming, and the impending end times of the world.&lt;/p&gt;\n\n&lt;p&gt;When discussing the album’s political theme, &lt;a href="http://www.artistdirect.com/nad/news/article/0,,4894898,00.html" rel="noopener nofollow"&gt;McIlrath told ARTISTdirect&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I hope for the day that there is nothing to sing about. I long to live in that world. But it’s not happening. The reason I started this band, and the reason I still do it, is that I still open a paper and say, “Holy Shit! Are you kidding me? Is this really happening? Are people voting for things like Proposition 8? Is this America? Are we still in Iraq and in a place that people think a white versus a black president is a big deal?” There is so much to address through music. There is plenty we need to learn from. One of these wars will teach us not to get into another one, because we have amnesia about the previous ones.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The album reached number three on the U.S. &lt;em&gt;Billboard&lt;/em&gt; 200, and is the band’s second highest charting album today.&lt;/p&gt;', 'producers': [{'name': 'Bill Stevenson', 'url': 'https://genius.com/artists/Bill-stevenson'}, {'name': 'Jason Livermore', 'url': 'https://genius.com/artists/Jason-livermore'}], 'writers': [{'name': 'Brandon Barnes', 'url': 'https://genius.com/artists/Brandon-barnes'}, {'name': 'Joe Principe', 'url': 'https://genius.com/artists/Joe-principe'}, {'name': 'Joseph Principe', 'url': 'https://genius.com/artists/Joseph-principe'}, {'name': 'Tim McIlrath', 'url': 'https://genius.com/artists/Tim-mcilrath'}, {'name': 'Zach Blair', 'url': 'https://genius.com/artists/Zach-blair'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Papa-roach/Infest', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Infest&lt;/em&gt;, released on April 25, 2000, is the sophomore album by Vacaville, CA natives Papa Roach.&lt;/p&gt;\n\n&lt;p&gt;Much of the album contains rapping over Hard Rock and Metal melodies. This sub-genre has come to be known as nu-metal.&lt;/p&gt;\n\n&lt;p&gt;This album was nominated for a Best New Artist Grammy. &lt;em&gt;Infest&lt;/em&gt; sold over three million copies in U.S., making it the 20th highest-selling album of 2000 in the United States. It sold seven million copies worldwide, peaking at #5 on the Billboard charts.&lt;/p&gt;', 'producers': [{'name': 'Jay Baumgardner', 'url': 'https://genius.com/artists/Jay-baumgardner'}], 'writers': [{'name': 'Dave Buckner', 'url': 'https://genius.com/artists/Dave-buckner'}, {'name': 'Jacoby Shaddix', 'url': 'https://genius.com/artists/Jacoby-shaddix'}, {'name': 'Jerry Horton', 'url': 'https://genius.com/artists/Jerry-horton'}, {'name': 'Tobin Esperance', 'url': 'https://genius.com/artists/Tobin-esperance'}], 'labels': [{'name': 'DreamWorks Records', 'url': 'https://genius.com/artists/Dreamworks-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Skillet/Awake', 'annotations': {'description': '', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Brian Howes', 'url': 'https://genius.com/artists/Brian-howes'}, {'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}, {'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}, {'name': 'John Cooper', 'url': 'https://genius.com/artists/John-cooper'}, {'name': 'Korey Cooper', 'url': 'https://genius.com/artists/Korey-cooper'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Skillet/Unleashed', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Unleashed&lt;/em&gt; is Skillet’s 9th studio album  which was released August 5th, 2016. &lt;a href="https://genius.com/artists/John-cooper" rel="noopener" data-api_path="/artists/180422"&gt;John Cooper&lt;/a&gt; described the album:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I wanted to make an album that could make people feel the music. I always aim to write songs to which people can relate, but this time I wanted to see not only how the songs would connect lyrically, but also how they’d connect musically.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;h3&gt;Unleashed Podcast:&lt;/h3&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/p532I_8qjnk?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Brian Howes', 'url': 'https://genius.com/artists/Brian-howes'}, {'name': 'Jerricho Scroggins', 'url': 'https://genius.com/artists/Jerricho-scroggins'}, {'name': 'Kane Churko', 'url': 'https://genius.com/artists/Kane-churko'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Seth Mosley', 'url': 'https://genius.com/artists/Seth-mosley'}, {'name': 'X O’Connor', 'url': 'https://genius.com/artists/X-oconnor'}], 'writers': [{'name': 'Jason Ingram', 'url': 'https://genius.com/artists/Jason-ingram'}, {'name': 'John Cooper', 'url': 'https://genius.com/artists/John-cooper'}, {'name': 'Kane Churko', 'url': 'https://genius.com/artists/Kane-churko'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Korey Cooper', 'url': 'https://genius.com/artists/Korey-cooper'}, {'name': 'Mia Fieldes', 'url': 'https://genius.com/artists/Mia-fieldes'}, {'name': 'Sam Tinnesz', 'url': 'https://genius.com/artists/Sam-tinnesz'}, {'name': 'Seth Mosley', 'url': 'https://genius.com/artists/Seth-mosley'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'BMG', 'url': 'https://genius.com/artists/Bmg'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Papa-roach/Crooked-teeth', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Crooked Teeth&lt;/em&gt; is the ninth studio album of the Californian band Papa Roach. The record was released on May 19, 2017 and was produced by &lt;a href="https://genius.com/artists/Nicholas-ras-furlong" rel="noopener" data-api_path="/artists/671432"&gt;RAS&lt;/a&gt; and &lt;a href="https://genius.com/artists/Colin-brittain" rel="noopener" data-api_path="/artists/1045648"&gt;Colin Brittain&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Jacoby Shaddix described the style of &lt;em&gt;Crooked Teeth&lt;/em&gt; as follows&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I think looking at the landscape of rock music right now, we just kind of felt like we were getting too much lumped into the pack. Not that we sound just like every other band, but we just felt like rock has become, for us, just a little bit homogenized. And we were, like, ‘All right, we need to break out of this box and do something different.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Colin Brittain', 'url': 'https://genius.com/artists/Colin-brittain'}, {'name': 'Jason Evigan', 'url': 'https://genius.com/artists/Jason-evigan'}, {'name': 'Nick Furlong', 'url': 'https://genius.com/artists/Nick-furlong'}, {'name': 'Spankox', 'url': 'https://genius.com/artists/Spankox'}], 'writers': [{'name': 'Anthony Esperance', 'url': 'https://genius.com/artists/Anthony-esperance'}, {'name': 'Colin Brittain', 'url': 'https://genius.com/artists/Colin-brittain'}, {'name': 'Dark Waves', 'url': 'https://genius.com/artists/Dark-waves'}, {'name': 'Jacoby Shaddix', 'url': 'https://genius.com/artists/Jacoby-shaddix'}, {'name': 'Jason Evigan', 'url': 'https://genius.com/artists/Jason-evigan'}, {'name': 'Jerry Horton', 'url': 'https://genius.com/artists/Jerry-horton'}, {'name': 'Machine Gun Kelly', 'url': 'https://genius.com/artists/Machine-gun-kelly'}, {'name': 'Mitchell Marlow', 'url': 'https://genius.com/artists/Mitchell-marlow'}, {'name': 'Nick Furlong', 'url': 'https://genius.com/artists/Nick-furlong'}, {'name': 'Papa Roach', 'url': 'https://genius.com/artists/Papa-roach'}, {'name': 'Skylar Grey', 'url': 'https://genius.com/artists/Skylar-grey'}, {'name': 'Tobin Esperance', 'url': 'https://genius.com/artists/Tobin-esperance'}], 'labels': [{'name': 'Better Noise Music', 'url': 'https://genius.com/artists/Better-noise-music'}, {'name': 'Eleven Seven Music', 'url': 'https://genius.com/artists/Eleven-seven-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Papa-roach/Getting-away-with-murder', 'annotations': {'description': '', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Dave Buckner', 'url': 'https://genius.com/artists/Dave-buckner'}, {'name': 'Jacoby Shaddix', 'url': 'https://genius.com/artists/Jacoby-shaddix'}, {'name': 'Jerry Horton', 'url': 'https://genius.com/artists/Jerry-horton'}, {'name': 'Jerry Horton Jr', 'url': 'https://genius.com/artists/Jerry-horton-jr'}, {'name': 'Tobin Esperance', 'url': 'https://genius.com/artists/Tobin-esperance'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Godsmack/The-oracle', 'annotations': {'description': '', 'producers': [{'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}, {'name': 'John Kurzweg', 'url': 'https://genius.com/artists/John-kurzweg'}, {'name': 'Sully Erna', 'url': 'https://genius.com/artists/Sully-erna'}], 'writers': [{'name': 'James Shannon Larkin', 'url': 'https://genius.com/artists/James-shannon-larkin'}, {'name': 'Robbie Merrill', 'url': 'https://genius.com/artists/Robbie-merrill'}, {'name': 'Rob Merrill', 'url': 'https://genius.com/artists/Rob-merrill'}, {'name': 'Salvatore P. Erna', 'url': 'https://genius.com/artists/Salvatore-p-erna'}, {'name': 'Shannon Larkin', 'url': 'https://genius.com/artists/Shannon-larkin'}, {'name': 'Sully Erna', 'url': 'https://genius.com/artists/Sully-erna'}, {'name': 'Tony Rombola', 'url': 'https://genius.com/artists/Tony-rombola'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Theory/Scars-souvenirs', 'annotations': {'description': '', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Chris Daughtry', 'url': 'https://genius.com/artists/Chris-daughtry'}, {'name': 'Christine Connolly', 'url': 'https://genius.com/artists/Christine-connolly'}, {'name': 'Dave Brenner', 'url': 'https://genius.com/artists/Dave-brenner'}, {'name': 'Dean Back', 'url': 'https://genius.com/artists/Dean-back'}, {'name': 'Joey Dandeneau', 'url': 'https://genius.com/artists/Joey-dandeneau'}, {'name': 'Kara DioGuardi', 'url': 'https://genius.com/artists/Kara-dioguardi'}, {'name': 'Tyler Connolly', 'url': 'https://genius.com/artists/Tyler-connolly'}, {'name': 'Zac Maloy', 'url': 'https://genius.com/artists/Zac-maloy'}], 'labels': [{'name': '604 Records', 'url': 'https://genius.com/artists/604-records'}, {'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Thousand-foot-krutch/Welcome-to-the-masquerade', 'annotations': {'description': '&lt;p&gt;Thousand Foot Krutch takes a hard rock hammer to this universal matter of hidden emotions-confronting what lies beneath us and, in turn, burning off some major tension on its fifth studio album, &lt;em&gt;Welcome to the Masquerade&lt;/em&gt;. McNevan &lt;a href="http://web.archive.org/web/20110210132920/http://thousandfootkrutch.com/bio/tfk_bio" rel="noopener nofollow"&gt;revealed&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We all wear masks. We hide what we don’t want people to know we’re thinking or feeling. And that’s easy to get away with when life is so busy. A lot of times, we have no idea what’s really going on in the life of the person right beside us.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Aaron Sprinkle', 'url': 'https://genius.com/artists/Aaron-sprinkle'}], 'writers': [{'name': 'Joel Bruyere', 'url': 'https://genius.com/artists/Joel-bruyere'}, {'name': 'Steve Augustine', 'url': 'https://genius.com/artists/Steve-augustine'}, {'name': 'Steve Augustine, Joel Bruyere, &amp; Trevor McNevan', 'url': 'https://genius.com/artists/Steve-augustine-joel-bruyere-and-trevor-mcnevan'}, {'name': 'Trevor McNevan', 'url': 'https://genius.com/artists/Trevor-mcnevan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Avenged-sevenfold/Avenged-sevenfold', 'annotations': {'description': '&lt;p&gt;Avenged Sevenfold’s self-titled fourth album, released on October 30th, 2007, is shown to be more experimental, with many features with many different instruments that are not typically found in the metal genre. Songs such as &lt;a href="https://genius.com/Avenged-sevenfold-dear-god-lyrics" rel="noopener" data-api_path="/songs/229221"&gt;“Dear God”&lt;/a&gt; are reminiscent of country love ballads, &lt;a href="https://genius.com/Avenged-sevenfold-a-little-piece-of-heaven-lyrics" rel="noopener" data-api_path="/songs/75240"&gt;“A Little Piece of Heaven”&lt;/a&gt; features a symphony, and &lt;a href="https://genius.com/Avenged-sevenfold-lost-lyrics" rel="noopener" data-api_path="/songs/75239"&gt;“Lost”&lt;/a&gt; even features some auto-tune.&lt;/p&gt;\n\n&lt;p&gt;The album is one of the bands most notable, with over 1,120,250 copies sold worldwide. Multiple music videos for the album’s singles even have a high view count on YouTube, with the “Dear God” video having over 86,500,000 views, making it the most viewed music video off the self-titled on the &lt;a href="https://www.youtube.com/user/avengedsevenfold" rel="noopener nofollow"&gt;official Avenged Sevenfold channel&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Avenged Sevenfold', 'url': 'https://genius.com/artists/Avenged-sevenfold'}], 'writers': [{'name': 'Jimmy “The Rev” Sullivan', 'url': 'https://genius.com/artists/Jimmy-the-rev-sullivan'}, {'name': 'Johnny Christ', 'url': 'https://genius.com/artists/Johnny-christ'}, {'name': 'M. Shadows', 'url': 'https://genius.com/artists/M-shadows'}, {'name': 'Synyster Gates', 'url': 'https://genius.com/artists/Synyster-gates'}, {'name': 'Zacky Vengeance', 'url': 'https://genius.com/artists/Zacky-vengeance'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Puddle-of-mudd/Best-of-puddle-of-mudd', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Best of Puddle of Mudd&lt;/em&gt; is the first ‘best of’ collection from the rock band Puddle of Mudd. The collection features several tracks from their first four major label studio albums.&lt;/p&gt;', 'producers': [{'name': 'Brian Howes', 'url': 'https://genius.com/artists/Brian-howes'}, {'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}, {'name': 'John Kurzweg', 'url': 'https://genius.com/artists/John-kurzweg'}, {'name': 'Michael “Elvis” Baskette', 'url': 'https://genius.com/artists/Michael-elvis-baskette'}, {'name': 'Puddle of Mudd', 'url': 'https://genius.com/artists/Puddle-of-mudd'}], 'writers': [{'name': 'Brad Stewart', 'url': 'https://genius.com/artists/Brad-stewart'}, {'name': 'Brian Howes', 'url': 'https://genius.com/artists/Brian-howes'}, {'name': 'Christian Stone', 'url': 'https://genius.com/artists/Christian-stone'}, {'name': 'Douglas Ardito', 'url': 'https://genius.com/artists/Douglas-ardito'}, {'name': 'Jimmy Allen', 'url': 'https://genius.com/artists/Jimmy-allen'}, {'name': 'Paul Phillips', 'url': 'https://genius.com/artists/Paul-phillips'}, {'name': 'Tony Battaglia', 'url': 'https://genius.com/artists/Tony-battaglia'}, {'name': 'Wes Scantlin', 'url': 'https://genius.com/artists/Wes-scantlin'}], 'labels': [{'name': 'Flawless Records', 'url': 'https://genius.com/artists/Flawless-records'}, {'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Saliva/Back-into-your-system', 'annotations': {'description': '&lt;p&gt;Back into Your System is the third studio album by Saliva. It reached #19 on Billboard 200 and was certified Gold by the RIAA since release.&lt;/p&gt;\n\n&lt;p&gt;Back into Your System spawned its first single, “Always” in late 2002 and reached #51 on the Billboard Hot 100 and #1 on the Modern Rock Tracks chart. Its second single was “Rest In Pieces” making several Billboard charts in 2003 and their third single “Raise Up” reached #29 on Mainstream Rock chart.&lt;/p&gt;', 'producers': [{'name': 'Bob Marlette', 'url': 'https://genius.com/artists/Bob-marlette'}], 'writers': [{'name': 'Bob Marlette', 'url': 'https://genius.com/artists/Bob-marlette'}, {'name': 'Chris D’Abaldo', 'url': 'https://genius.com/artists/Chris-dabaldo'}, {'name': 'Chris Marlette', 'url': 'https://genius.com/artists/Chris-marlette'}, {'name': 'Dave Novotny', 'url': 'https://genius.com/artists/Dave-novotny'}, {'name': 'David Novotny', 'url': 'https://genius.com/artists/David-novotny'}, {'name': 'James Michael', 'url': 'https://genius.com/artists/James-michael'}, {'name': 'Josey Scott', 'url': 'https://genius.com/artists/Josey-scott'}, {'name': 'Nikki Sixx', 'url': 'https://genius.com/artists/Nikki-sixx'}, {'name': 'Paul Crosby', 'url': 'https://genius.com/artists/Paul-crosby'}, {'name': 'Wayne Swinny', 'url': 'https://genius.com/artists/Wayne-swinny'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Linkin-park/Living-things', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://wiki.lpassociation.com/index.php?title=Living_Things" rel="noopener nofollow"&gt;Living Things&lt;/a&gt; is the fifth studio album released by Linkin Park. It was released under Warner Bros. Records and Machine Shop Recordings on June 20, 2012, in Japan and throughout the rest of the world during the following week. Production was handled by Mike Shinoda and Rick Rubin, who both co-produced Minutes to Midnight in 2007, and A Thousand Suns in 2010.&lt;br&gt;\nThe band states that Living Things combines elements from their previous four studio albums to create a new sound. They also stated that they finally felt they were in “familiar territory” and “comfortable in [their] own skin” after years of experimentation that resulted in their two previous studio albums, “Minutes to Midnight” and “A Thousand Suns”.[3][4][5] “Living Things” was chosen as the album’s title because of the numerous personal topics on the album.[6]&lt;br&gt;\nThe lead single for the album, “Burn It Down”, was sent to radio and released to digital music retailers on April 16, 2012. “Living Things” debuted at number one on Billboard 200 with sales of 223,000 copies in the United States in its opening week. The second single for the album, “Lost in the Echo”, was released on October 19, 2012. The third single for the album, “Castle of Glass”, was released in its physical format on February 1, 2013, and digitally to iTunes on March 22, 2013. The album has sold 2.5 million copies worldwide as of December 2013.&lt;/p&gt;', 'producers': [{'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Brad Delson', 'url': 'https://genius.com/artists/Brad-delson'}, {'name': 'Chester Bennington', 'url': 'https://genius.com/artists/Chester-bennington'}, {'name': 'Dave Farrell', 'url': 'https://genius.com/artists/Dave-farrell'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Mr. Hahn', 'url': 'https://genius.com/artists/Mr-hahn'}, {'name': 'Rob Bourdon', 'url': 'https://genius.com/artists/Rob-bourdon'}], 'labels': [{'name': 'Bros. Music 2', 'url': 'https://genius.com/artists/Bros-music-2'}, {'name': 'Warner Bros. Records Inc. for the U.S.', 'url': 'https://genius.com/artists/Warner-bros-records-inc-for-the-us'}, {'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Hail_to_the_King_(Avenged_Sevenfold_album)', 'album_name': 'Hail to the King (album, Avenged Sevenfold)', 'artist': 'http://dbpedia.org/resource/Avenged_Sevenfold', 'artist_name': 'Avenged Sevenfold', 'wiki': 'http://en.wikipedia.org/wiki/Hail_to_the_King_(Avenged_Sevenfold_album)', 'hometown': 'http://dbpedia.org/resource/Huntington_Beach,_California', 'abstract': 'Hail to the King is the sixth studio album by American heavy metal band Avenged Sevenfold, released on August 27, 2013, through Warner Bros. Records. The album was produced by Mike Elizondo. Hail to the King is the only Avenged Sevenfold album to feature drummer Arin Ilejay, prior to his departure in July 2015. It is also the first Avenged Sevenfold album without musical contributions from Ilejay\'s late predecessor, Jimmy "The Rev" Sullivan; the bonus track, "St. James", was written in his memory. The album was a commercial and critical success, reaching number 1 on the Billboard 200. This marks Avenged Sevenfold\'s second album to top the Billboard chart (the first being Nightmare), as well as their first to reach number 1 in the UK, topping the UK Albums Chart. It also topped the Canadian, Brazilian, Finnish and Irish album charts. Also, the album spawned two number 1 singles on Billboard\'s Mainstream Rock, Hail to the King, and Shepherd of Fire. The former spent 11 weeks on the top of the chart. On April 15, 2021 the album was certified Platinum by the RIAA for sales of over 1,000,000 copies.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Cowboys_from_Hell:_The_Videos', 'album_name': 'Cowboys from Hell: The Videos', 'artist': 'http://dbpedia.org/resource/Pantera', 'artist_name': 'Pantera', 'wiki': 'http://en.wikipedia.org/wiki/Cowboys_from_Hell:_The_Videos', 'hometown': 'http://dbpedia.org/resource/Arlington,_Texas', 'abstract': "Cowboys from Hell: The Videos is the first home video (not counting the self released Hot 'n Heavy Home Vid) by American heavy metal band Pantera. It was released on VHS on April 2, 1991."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Toxicity_(album)', 'album_name': 'Toxicity', 'artist': 'http://dbpedia.org/resource/System_of_a_Down', 'artist_name': 'System of a Down', 'wiki': 'http://en.wikipedia.org/wiki/Toxicity_(album)', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'abstract': 'Toxicity is the second studio album by Armenian-American heavy metal band System of a Down, released on September 4, 2001, through American Recordings and Columbia Records. Expanding on their 1998 eponymous debut, it incorporated more melody, harmonies, and singing than the band\'s aforementioned album. Categorized primarily as alternative metal and nu metal, Toxicity features elements of multiple genres including folk, progressive rock, jazz, Armenian music and Greek music, including prominent use of instruments such as the sitar, banjo, keyboards, and piano. It contains a wide array of political and non-political themes, such as mass incarceration, the CIA, the environment, police brutality, drug addiction, scientific reductionism, and groupies. Toxicity was recorded at Cello Studios in Hollywood, California. Over 30 songs were recorded, but the band narrowed the number of songs on the album to 14. The album peaked at number one on both the Billboard 200 and the Canadian Albums Chart, sold 220,000 copies in its first week of release, was certified triple-platinum by the Recording Industry Association of America in November 2002, and has sold at least 2,700,000 copies in the United States. All of Toxicity\'s singles reached the Billboard Hot 100. The final single, "Aerials", went to number one on both the Mainstream Rock Tracks and the Modern Rock Tracks charts. Toxicity received mainly positive ratings and reviews from critics, among them perfect ratings from AllMusic, Kerrang!, and Blabbermouth.net. Many critics praised the album\'s sound and innovation. The promotional shows for Toxicity resulted in a number of controversial incidents. A six-hour riot ensued at a free concert in Hollywood the day before the album\'s release as a result of the show\'s cancellation due to an overcrowded show; the crowd in attendance was estimated to be at least twice the size which was expected. Another scheduled System of a Down performance was canceled to prevent a similar riot, and the band then toured with Slipknot. Bassist Shavo Odadjian was harassed, ethnically insulted, and physically beaten by guards when he tried to enter backstage at a concert in October 2001. Regardless, the tour was successful, and System of a Down later co-headlined a leg of Slipknot\'s Iowa World Tour.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Dirt_(Alice_in_Chains_album)', 'album_name': 'Dirt (альбом)', 'artist': 'http://dbpedia.org/resource/Alice_in_Chains', 'artist_name': 'Alice in Chains', 'wiki': 'http://en.wikipedia.org/wiki/Dirt_(Alice_in_Chains_album)', 'hometown': 'http://dbpedia.org/resource/Seattle', 'abstract': 'Dirt is the second studio album by the American rock band Alice in Chains, released on September 29, 1992, through Columbia Records. Peaking at No. 6 on the Billboard 200 chart, the album was also well received by music critics. It has since been certified four-times platinum by the RIAA and gone on to sell five million copies worldwide, making Dirt the band\'s highest selling album to date. It is the band\'s last album recorded with all four original members, as bassist Mike Starr was fired from the band in January 1993. The album spawned five singles: "Would?", "Them Bones", "Angry Chair", "Rooster", and "Down in a Hole"; all with accompanying music videos. Dirt was nominated for a Grammy Award for Best Hard Rock Performance. The music video for "Would?" was nominated for an MTV Video Music Award for Best Video from a Film, as the song was featured on the soundtrack to Cameron Crowe\'s 1992 film Singles. The songs on the album focused on depression, pain, anger, anti-social behavior, relationships, drug addiction (primarily heroin), war, death, and other emotionally charged topics. The track "Iron Gland" features Tom Araya from Slayer on vocals. Most of the music from the album was written by guitarist Jerry Cantrell, but for the first time vocalist Layne Staley wrote two songs by himself: "Hate to Feel" and "Angry Chair", both also feature Staley on guitar. Rolling Stone listed the album at No. 26 on its list of the 100 Greatest Metal Albums of All Time. Dirt was included in the 2005 book 1001 Albums You Must Hear Before You Die. It was voted "Kerrang! Critic\'s Choice Album of the Year". Guitar World named Dirt as the best guitar album of 1992. Loudwire named it as one of the best Metal albums of the 1990s, and Rolling Stone ranked it at No. 6 on its list of "50 Greatest Grunge Albums" in 2019. Alice in Chains\' fourth studio album, Black Gives Way to Blue, was released on the 17th anniversary of Dirt, on September 29, 2009.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Roots_(Sepultura_album)', 'album_name': 'Roots (Sepultura album)', 'artist': 'http://dbpedia.org/resource/Sepultura', 'artist_name': 'Sepultura', 'wiki': 'http://en.wikipedia.org/wiki/Roots_(Sepultura_album)', 'hometown': 'http://dbpedia.org/resource/Minas_Gerais', 'abstract': 'Roots is the sixth studio album by Brazilian metal band Sepultura. It was released in Europe on February 20, 1996 and in the U.S. three weeks later on March 12 by Roadrunner Records. It is the band\'s last studio album to feature founding member and vocalist/rhythm guitarist Max Cavalera. Following the shift to slower tempos and Latin-tinged rhythms on the album Chaos A.D., Roots delves even further into Brazilian musical textures and features significant contributions from iconic Brazilian musician Carlinhos Brown, who guided and arranged the sections throughout the album that feature ensemble percussion playing. Both in sound and overall aesthetic, Roots is also a conscious nod to Brazil\'s marginalized indigenous population and cultures. The song "Itsári" features a Xavante chant that re-appears on the song "Born Stubborn" and serves as a loose thematic thread for the whole album, which on the whole showcases the band\'s increased affinity for experimentation and collaboration. "Lookaway" features guest appearances by Korn vocalist Jonathan Davis, then-Korn drummer David Silveria, House of Pain/Limp Bizkit turntablist DJ Lethal, and Faith No More/Mr. Bungle vocalist Mike Patton. Riff-wise, Roots also draws influence from the then-surging nu metal movement, specifically Korn (whose first two albums were also produced by Roots producer Ross Robinson) and Deftones. After leaving the band, Max Cavalera would continue to pursue the nu metal and "world" stylings of Roots with his solo project Soulfly. Since its release, Roots has sold over two million copies worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/The_Sickness', 'album_name': 'The Sickness', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/The_Sickness', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': "The Sickness is the debut studio album by American heavy metal band Disturbed. It was released on March 7, 2000, by Giant and Reprise Records. The album peaked at number 29 on the US Billboard 200, and spent a total of 103 weeks on the chart. It was Disturbed's only album to not hit number one on the US Billboard 200 until their seventh album Evolution debuted at number 4 in 2018. In 2018, The Sickness was certified five times platinum by the RIAA for shipments of over five million copies in the US, making it the band's most successful album."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/1000hp_(album)', 'album_name': '1000hp', 'artist': 'http://dbpedia.org/resource/Godsmack', 'artist_name': 'Godsmack', 'wiki': 'http://en.wikipedia.org/wiki/1000hp_(album)', 'hometown': 'http://dbpedia.org/resource/Lawrence,_Massachusetts', 'abstract': "1000 hp, stylized as 1000HP, is the sixth studio album by American rock band Godsmack. It is a follow up to the band's 2010 gold-selling album The Oracle and was released on August 5, 2014."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Overkill_(Motörhead_album)', 'album_name': 'Overkill (àlbum)', 'artist': 'http://dbpedia.org/resource/Motörhead', 'artist_name': 'Motörhead', 'wiki': 'http://en.wikipedia.org/wiki/Overkill_(Motörhead_album)', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': 'Overkill is the second studio album by British rock band Motörhead, released on 24 March 1979. It was the band\'s first album with Bronze Records. Kerrang! magazine listed the album at number 46 among the "100 Greatest Heavy Metal Albums of All Time". American thrash metal band Overkill was named after this album.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Magma_(Gojira_album)', 'album_name': 'Magma (álbum de Gojira)', 'artist': 'http://dbpedia.org/resource/Gojira_(band)', 'artist_name': 'Gojira', 'wiki': 'http://en.wikipedia.org/wiki/Magma_(Gojira_album)', 'hometown': 'http://dbpedia.org/resource/Landes_(department)', 'abstract': 'Magma is the sixth studio album from the French metal band Gojira. The album was released on 17 June 2016 through Roadrunner Records. The album was recorded at the band\'s studio in New York City, and was produced by Joe Duplantier, mixed by Johann Meyer and mastered by Ted Jensen. The album has been noted as a stylistic departure from the band\'s previous albums, featuring a more accessible atmospheric sound and more prominent use of clean vocals. The album sold 17,000 copies in its first week of release in the United States, charting at number 24 on the Billboard 200, making Magma the band\'s highest sales and chart debut until Fortitude. Magma had sold 400,000 copies worldwide in its first eight months. The album was nominated for Best Rock Album, and the single "Silvera" was nominated for Best Metal Performance at the 59th Annual Grammy Awards.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Meliora_(album)', 'album_name': 'Meliora', 'artist': 'http://dbpedia.org/resource/Ghost_(Swedish_band)', 'artist_name': 'Ghost', 'wiki': 'http://en.wikipedia.org/wiki/Meliora_(album)', 'hometown': 'http://dbpedia.org/resource/Linköping', 'abstract': 'Meliora (Latin for "the pursuit of something better") is the third studio album by Swedish rock band Ghost. The album was produced by Klas Åhlund and released on August 21, 2015. The album was generally well received, placing on several music publications\' lists of the best heavy metal albums of the year and winning Best Hard Rock/Metal Album at the 2015 Grammis Awards. Lead single "Cirice" won the 2016 Grammy Award for Best Metal Performance. In September 2016, the band released a special edition of the album, called Meliora Redux.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Sehnsucht_(Rammstein_album)', 'album_name': 'Sehnsucht', 'artist': 'http://dbpedia.org/resource/Rammstein', 'artist_name': 'Rammstein', 'wiki': 'http://en.wikipedia.org/wiki/Sehnsucht_(Rammstein_album)', 'hometown': 'http://dbpedia.org/resource/Berlin', 'abstract': 'Sehnsucht (German pronunciation: [ˈzeːnˌzʊxt]; "Desire") is the second studio album by German Neue Deutsche Härte band Rammstein. It was released on 22 August 1997 through Motor Music in Europe and Slash Records in the United States. It is the only album entirely in German to be certified platinum by the RIAA in the US. The album peaked at No. 1 on the Austrian and German charts. In 2020, Metal Hammer included it in their list of top 10 1997 albums.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/L.D._50_(album)', 'album_name': 'L.D. 50', 'artist': 'http://dbpedia.org/resource/Mudvayne', 'artist_name': 'Mudvayne', 'wiki': 'http://en.wikipedia.org/wiki/L.D._50_(album)', 'hometown': 'http://dbpedia.org/resource/Peoria,_Illinois', 'abstract': 'L.D. 50 is the debut studio album by American heavy metal band Mudvayne. Released in 2000, it is the band\'s first release on Epic Records, following the independently-released extended play Kill, I Oughtta. The album was co-produced by Garth Richardson and Mudvayne, and executive produced by Steve Richards and Slipknot member Shawn "Clown" Crahan. The band\'s elaborate visual appearance resulted in increased recognition of the band, and L.D. 50 peaked at No. 85 on the Billboard 200. While initially receiving mixed critical reception on release, the album would gain praise from critics over time for its technical and heavy style of music.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Around_the_Fur', 'album_name': 'Around the Fur', 'artist': 'http://dbpedia.org/resource/Deftones', 'artist_name': 'Deftones', 'wiki': 'http://en.wikipedia.org/wiki/Around_the_Fur', 'hometown': 'http://dbpedia.org/resource/Sacramento,_California', 'abstract': 'Around the Fur is the second studio album by American alternative metal band Deftones, released on October 28, 1997, by Maverick Records. The songs "My Own Summer (Shove It)" and "Be Quiet and Drive (Far Away)" were released as singles with accompanying music videos. The album was certified Gold by the RIAA in June 1999, and was eventually certified Platinum in 2011.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/The_Concrete_Confessional', 'album_name': 'The Concrete Confessional', 'artist': 'http://dbpedia.org/resource/Hatebreed', 'artist_name': 'Hatebreed', 'wiki': 'http://en.wikipedia.org/wiki/The_Concrete_Confessional', 'hometown': 'http://dbpedia.org/resource/Bridgeport,_Connecticut', 'abstract': 'The Concrete Confessional is the seventh studio album by American metalcore band Hatebreed. It was released on May 13, 2016, via Nuclear Blast and was produced by Chris "Zeuss" Harris.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Leviathan_(Mastodon_album)', 'album_name': 'Leviathan (album)', 'artist': 'http://dbpedia.org/resource/Mastodon_(band)', 'artist_name': 'Mastodon', 'wiki': 'http://en.wikipedia.org/wiki/Leviathan_(Mastodon_album)', 'hometown': 'http://dbpedia.org/resource/Atlanta', 'abstract': 'Leviathan is the second album by American heavy metal band Mastodon, released in 2004 on Relapse Records. It is Mastodon\'s first concept album, loosely based on the 1851 novel Moby-Dick by Herman Melville. The songs "Iron Tusk", "Blood and Thunder", "I Am Ahab" and "Seabeast" were released as singles. Three magazines awarded the album Album of the Year in 2004: Revolver, Kerrang! and Terrorizer. In 2009 and 2015 MetalSucks named Leviathan the best metal album of the 21st century. Leviathan was also released with an audio DVD of DVD-Video format in a limited edition set with a black and gold slipcase. The album brought Mastodon widespread critical acclaim and together with the ensuing tour greatly extended their fan base. It sold 106,000 copies by September 2006. Guitarist Bill Kelliher considers this album a representation of the water element, in keeping with the elemental tetralogy of the band\'s first four albums.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Antichrist_Superstar', 'album_name': 'Antichrist Superstar', 'artist': 'http://dbpedia.org/resource/Marilyn_Manson_(band)', 'artist_name': 'Marilyn Manson', 'wiki': 'http://en.wikipedia.org/wiki/Antichrist_Superstar', 'hometown': 'http://dbpedia.org/resource/Fort_Lauderdale,_Florida', 'abstract': 'Antichrist Superstar is the second studio album by American rock band Marilyn Manson. It was released on October 8, 1996, by Nothing and Interscope Records. It was recorded at Nothing Studios in New Orleans and produced by the band\'s eponymous vocalist along with Sean Beavan, former Skinny Puppy producer Dave Ogilvie and Trent Reznor of Nine Inch Nails. The recording of the album was marred by excessive drug use, which provoked a high level of antagonism between band members. Consequently, it was their last release to feature contributions from founding guitarist Daisy Berkowitz, who acrimoniously quit partway through recording. A rock opera and a concept album, Antichrist Superstar was the first installment in a trilogy which included succeeding releases Mechanical Animals (1998) and Holy Wood (In the Shadow of the Valley of Death) (2000). The central storyline on the album revolved around a supernatural being who seizes all power from humanity in order to initiate an apocalyptic end event; a populist demagogue who is driven solely by resentment, misanthropy, and despair, he uses his newfound position to destroy the world. The record can be seen as a social critique, utilizing this premise as a metaphor for the perceived fascist elements of the conservative political movement and the Christian right in North America. Preceded by "The Beautiful People", whose music video received three nominations at the 1997 MTV Video Music Awards, the album was both a critical and commercial success. Lorraine Ali of Rolling Stone credited Antichrist Superstar with ending the dominance of grunge within popular music. In the years since its release, various publications have listed it among the best albums of the 1990s. The album debuted at number three on the Billboard 200, and has sold almost two million copies in the United States alone. As of 2011, worldwide album sales had surpassed over seven million copies. The album was supported by the controversial "Dead to the World Tour", which was heavily criticized by elements of the Christian right. Nearly every North American venue the band visited was picketed by religious organizations, predominantly because of unfounded, exaggerated claims of onstage drug use, bestiality, and Satanic rituals, including animal and even human sacrifice. The band also found itself the target of congressional hearings, which attempted to implicate the group in a fan\'s suicide. Several previously unreleased recordings were issued on soundtracks throughout 1997, including "Apple of Sodom" and "Long Hard Road Out of Hell".'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Mutter_(album)', 'album_name': 'Mutter (Rammstein)', 'artist': 'http://dbpedia.org/resource/Rammstein', 'artist_name': 'Rammstein', 'wiki': 'http://en.wikipedia.org/wiki/Mutter_(album)', 'hometown': 'http://dbpedia.org/resource/Berlin', 'abstract': 'Mutter (German pronunciation: [ˈmʊtɐ]; English: "Mother") is the third album by German Neue Deutsche Härte band Rammstein. It was released on 2 April 2001 through Motor and Universal Music. The album\'s cover image is a photograph of a dead fetus, which was taken by Daniel &amp; Geo Fuchs. The album has yielded six singles which, to date, are the most released from any Rammstein album.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/As_Daylight_Dies', 'album_name': 'As Daylight Dies', 'artist': 'http://dbpedia.org/resource/Killswitch_Engage', 'artist_name': 'Killswitch Engage', 'wiki': 'http://en.wikipedia.org/wiki/As_Daylight_Dies', 'hometown': 'http://dbpedia.org/resource/Westfield,_Massachusetts', 'abstract': 'As Daylight Dies is the fourth studio album by American metalcore band Killswitch Engage. It was released on November 21, 2006 through Roadrunner Records. It was produced by Adam Dutkiewicz and Joel Stroetzel.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Vengeance_Falls', 'album_name': 'Vengeance Falls', 'artist': 'http://dbpedia.org/resource/Trivium_(band)', 'artist_name': 'Trivium', 'wiki': 'http://en.wikipedia.org/wiki/Vengeance_Falls', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'abstract': 'Vengeance Falls is the sixth studio album by American heavy metal band Trivium. It was released October 10, 2013, in Japan, October 14, 2013, in UK, and October 15, 2013, in US through Roadrunner Records and was produced by David Draiman, the lead vocalist of the band Disturbed. It is the second and last album to feature drummer Nick Augusto before his departure from the band in May 2014.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/All_Hope_Is_Gone', 'album_name': 'All Hope Is Gone (musikalbum)', 'artist': 'http://dbpedia.org/resource/Slipknot_(band)', 'artist_name': 'Slipknot', 'wiki': 'http://en.wikipedia.org/wiki/All_Hope_Is_Gone', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'abstract': 'All Hope Is Gone is the fourth studio album by American heavy metal band Slipknot, released on August 20, 2008 by Roadrunner Records. The album was published in two versions: the standard album in a CD case and a special edition packaged in a six-fold digipak containing three bonus tracks, a 40 page booklet, and a bonus DVD with a documentary of the album\'s recording. Preparation for the album began in 2007, while recording started in February 2008 in the band\'s home state of Iowa. Before the album\'s launch, Slipknot released a series of promotional images and audio samples from the album through various websites. All Hope Is Gone was considered the band\'s most eclectic-sounding album at the time of release, incorporating elements from their previous three. The album shows Slipknot completely abandoning the nu metal genre, moving to a groove metal style. Songs such as the opening track "Gematria (The Killing Name)" and the title track espouse the band\'s more brutal, death metal-influenced edge, reminiscent of songs such as "(sic)" from their debut self-titled album; slow burning, "trippy" elements such as "Gehenna", recalling "Skin Ticket" from their second album Iowa; and more tragic, sentimental tracks such as "Dead Memories" and "Snuff". Lyrically, All Hope Is Gone centers on themes such as anger, disaffection, obsession, and the music industry. The album name also features a more prominent focus on politics than their previous albums. Slipknot promoted All Hope Is Gone on a world tour and at the Mayhem Festival. Generally well received by critics, the album reached the top position on nine record charts worldwide, including the Billboard 200—the first Slipknot album to do so. It was certified platinum by the RIAA on August 10, 2010 for shipments in excess of 1,000,000 albums in the United States. With a runtime of 57 minutes and 57 seconds, it is Slipknot\'s shortest studio album to date. It is also the band\'s final studio album to feature their full original lineup with two longtime members: bassist and founding member Paul Gray, who was found dead in an Iowa hotel on May 24, 2010, almost two years after the album\'s release, and drummer Joey Jordison, who was fired from the group in December 2013 and died in his sleep on July 26, 2021.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Sinner_(Drowning_Pool_album)', 'album_name': 'Sinner (álbum)', 'artist': 'http://dbpedia.org/resource/Drowning_Pool', 'artist_name': 'Drowning Pool', 'wiki': 'http://en.wikipedia.org/wiki/Sinner_(Drowning_Pool_album)', 'hometown': 'http://dbpedia.org/resource/Dallas', 'abstract': 'Sinner is the debut studio album by the American rock band Drowning Pool, released on June 5, 2001 by Wind-up Records. It is considered to be the band\'s most popular album, being certified platinum in the same year that it was released. This was due at least in part to "Bodies" which remains the band\'s most well-known song. This is the only studio album by the band to feature original lead singer Dave Williams. While touring in support of Sinner, he died on August 14, 2002 from cardiomyopathy. The album debuted at number 14 on the Billboard 200 chart. Drowning Pool released a reissue of the album called the "Unlucky 13th Anniversary Edition" in 2014. The album was put at no. 25 on Metal Descent\'s list "The 25 Best Alternative Metal Albums". Their songs "Mute", "Told You So", and "Reminded" were featured on Dragon Ball Z: Cooler\'s Revenge.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Ten_Thousand_Fists', 'album_name': 'Ten Thousand Fists', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Ten_Thousand_Fists', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': 'Ten Thousand Fists is the third studio album by American heavy metal band Disturbed. It was released on September 20, 2005 and became Disturbed\'s second consecutive number 1 debut on the Billboard 200 in the United States, shipping around 239,000 copies in its opening week. It has been certified platinum by the RIAA and was also the band\'s second number 1 release in New Zealand. It is also the first Disturbed album to not have the Parental Advisory label. Ten Thousand Fists marks the first album with bassist John Moyer who replaced Steve Kmak following his dismissal in 2003. However, Moyer was considered a session musician during the time of recording, and only became a full-time member during the tour supporting the album. It would be the band\'s third and final collaboration with mainstay producer Johnny K. In addition, Ten Thousand Fists is also the first album to feature their now-famous mascot The Guy on the cover; he would later appear full-bodied in the music video for the band\'s "Land of Confusion" cover. Ten Thousand Fists is, as of 2010, Disturbed\'s second highest selling album in the United States, with sales of around 1.9 million copies. The Sickness, the band\'s debut CD, has shifted sales of almost 4.2 million copies in the United States. The album was dedicated to Dimebag Darrell, who was murdered the year before the album\'s release.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Past,_Present_&amp;_Future_(Rob_Zombie_album)', 'album_name': 'Past, Present &amp; Future (Rob Zombie)', 'artist': 'http://dbpedia.org/resource/Rob_Zombie', 'artist_name': 'Rob Zombie', 'wiki': 'http://en.wikipedia.org/wiki/Past,_Present_&amp;_Future_(Rob_Zombie_album)', 'abstract': "Past, Present &amp; Future is a 2003 retrospective collection of the music of Rob Zombie. It includes selections of his work with White Zombie and his solo career, as well as two previously unreleased tracks. It won a Metal Edge Readers' Choice Award for Compilation Album of the Year. The explicit version includes a bonus DVD with ten of Rob Zombie's / White Zombie's music videos; all are edited versions."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Follow_the_Leader_(Korn_album)', 'album_name': 'Follow the Leader (álbum de Korn)', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Follow_the_Leader_(Korn_album)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': 'Follow the Leader (stylized as FOLLOW The LEADEЯ) is the third studio album by American nu metal band Korn. The album was released on August 18, 1998, through Immortal/Epic. This was their first album not produced by Ross Robinson. Instead, it was produced by Steve Thompson and Toby Wright. The album peaked at number one on four charts, including the Billboard 200 with 268,000 units sold in its first week of release, Follow the Leader is considered by members of Korn to be the band\'s most commercially–successful album, being certified five-times Platinum by the RIAA. Its singles "Got the Life", and "Freak on a Leash", both charted on more than three charts, and their music videos are considered to be the first music videos retired from MTV, most notably the MTV show Total Request Live. The album generally received positive reviews by critics and sold around 14 million copies worldwide. Korn was praised by AllMusic saying the album is "an effective follow-up to their first two alt-metal landmarks." The Family Values Tour promoted the album, along with its five singles. The song "Freak on a Leash" was nominated for nine MTV Video Music Awards, and won for the Best Rock Video award, as well as Best Editing. The music video for "Freak on a Leash" won Best Short Form Music Video at the 2000 Grammy Awards.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Vulgar_Display_of_Power', 'album_name': 'Vulgar Display of Power', 'artist': 'http://dbpedia.org/resource/Pantera', 'artist_name': 'Pantera', 'wiki': 'http://en.wikipedia.org/wiki/Vulgar_Display_of_Power', 'hometown': 'http://dbpedia.org/resource/Arlington,_Texas', 'abstract': 'Vulgar Display of Power is the sixth studio album by American heavy metal band Pantera. Released on February 25, 1992 through Atco Records, it was the band\'s second collaboration with producer Terry Date, after having previously worked with him on their breakthrough album Cowboys from Hell (1990). The album was well received by both critics and fans, and is Pantera\'s highest selling album to date and would eventually be certified double platinum. It is often considered one of the most influential heavy metal albums of the 1990s. In 2017, Rolling Stone ranked Vulgar Display of Power 10th on their list of \'The 100 Greatest Metal Albums of All Time\'. Several of its tracks have become among the band\'s best known, such as "Mouth for War", "A New Level", "Walk", "Fucking Hostile", and "This Love".'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Mezmerize_(album)', 'album_name': 'Mezmerize', 'artist': 'http://dbpedia.org/resource/System_of_a_Down', 'artist_name': 'System of a Down', 'wiki': 'http://en.wikipedia.org/wiki/Mezmerize_(album)', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'abstract': "Mezmerize is the fourth studio album by Armenian-American heavy metal band System of a Down, released on May 17, 2005, by American Recordings and Columbia Records. Upon its release, the album received widespread acclaim from critics. At a length of just over 36 minutes, Mezmerize is the band's shortest studio album."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Issues_(Korn_album)', 'album_name': 'Issues', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Issues_(Korn_album)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': "Issues is the fourth studio album by American nu metal band Korn. It was released on November 16, 1999 through Immortal Records. The album was promoted throughout 2000 by the band's highly successful Sick and Twisted Tour."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/See_You_on_the_Other_Side_(Korn_album)', 'album_name': 'See You on the Other Side', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/See_You_on_the_Other_Side_(Korn_album)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': 'See You on the Other Side is the seventh studio album by American nu metal band Korn. It was released on December 6, 2005, by Virgin Records. It is their first album as a quartet after the departure of long-time guitarist Brian "Head" Welch and the last album with original drummer David Silveria before he had departed from the band in December 2006. The album was first certified gold in the United States on January 12, 2006; a subsequent platinum record certification was awarded on March 16, 2006. The album is best known for the involvement of renowned production team The Matrix, who had previously worked with pop acts like Avril Lavigne, Britney Spears, and Shakira. The Matrix\'s direction gave Korn\'s music a different sound.The album features layout design and an original painting by the American surrealist/gothic painter David Stoupakis on the cover. Eleven more paintings by the artist appear as additional artwork on the deluxe special edition.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Take_a_Look_in_the_Mirror', 'album_name': 'Take a Look in the Mirror', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Take_a_Look_in_the_Mirror', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': 'Take a Look in the Mirror is the sixth studio album by American nu metal band Korn. Released on November 21, 2003 through Epic Records, it is the last Korn studio album to feature their full original lineup, as their original guitarist Brian "Head" Welch left the band in February 2005 until his return in 2013 (with the release of their 2013 album The Paradigm Shift). It was also the last studio album by Korn under the Epic and Immortal labels.'}</t>
+    <t>{'url': 'https://genius.com/albums/The-verve/Urban-hymns', 'annotations': {'description': '&lt;p&gt;1997 is considered to be the end of Britpop’s popularity, with Oasis\' &lt;em&gt;&lt;a href="https://genius.com/albums/Oasis/Be-here-now" rel="noopener" data-api_path="/albums/22543"&gt;Be Here Now&lt;/a&gt;&lt;/em&gt; bombing and Blur changing their sound with their self-titled album. The release of this album can be considered to be a fantastic close to one of Britain’s most beloved music genres.&lt;/p&gt;', 'producers': [{'name': 'Chris Potter', 'url': 'https://genius.com/artists/Chris-potter'}, {'name': 'Martin Glover', 'url': 'https://genius.com/artists/Martin-glover'}, {'name': 'The Verve', 'url': 'https://genius.com/artists/The-verve'}], 'writers': [{'name': 'Nick McCabe', 'url': 'https://genius.com/artists/Nick-mccabe'}, {'name': 'Peter Salisbury', 'url': 'https://genius.com/artists/Peter-salisbury'}, {'name': 'Richard Ashcroft', 'url': 'https://genius.com/artists/Richard-ashcroft'}, {'name': 'Simon Jones', 'url': 'https://genius.com/artists/Simon-jones'}], 'labels': [{'name': 'Hut Records', 'url': 'https://genius.com/artists/Hut-records'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Dead-or-alive/Youthquake', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Youthquake&lt;/em&gt; was Dead or Alive’s second album, and their breakthrough into commercial success.&lt;/p&gt;\n\n&lt;p&gt;It was anchored by the international dance hit &lt;a href="https://genius.com/Dead-or-alive-you-spin-me-round-like-a-record-lyrics" rel="noopener" data-api_path="/songs/787799"&gt;You Spin Me Round (Like A Record)&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Stock Aitken &amp; Waterman', 'url': 'https://genius.com/artists/Stock-aitken-and-waterman'}, {'name': 'Matt Aitken', 'url': 'https://genius.com/artists/Matt-aitken'}, {'name': 'Mike Stock', 'url': 'https://genius.com/artists/Mike-stock'}, {'name': 'Pete Waterman', 'url': 'https://genius.com/artists/Pete-waterman'}], 'writers': [{'name': 'Mike Percy', 'url': 'https://genius.com/artists/Mike-percy'}, {'name': 'Pete Burns', 'url': 'https://genius.com/artists/Pete-burns'}, {'name': 'Steve Coy', 'url': 'https://genius.com/artists/Steve-coy'}, {'name': 'Tim Lever', 'url': 'https://genius.com/artists/Tim-lever'}, {'name': 'Wayne Hussey', 'url': 'https://genius.com/artists/Wayne-hussey'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Red-hot-chili-peppers/One-hot-minute', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;One Hot Minute&lt;/em&gt; is the sixth RHCP studio album, their only with &lt;a href="https://genius.com/artists/Dave-navarro" rel="noopener" data-api_path="/artists/27020"&gt;Dave Navarro&lt;/a&gt;, who had replaced &lt;a href="https://genius.com/artists/John-frusciante" rel="noopener" data-api_path="/artists/1695"&gt;John Frusciante&lt;/a&gt; –  which made a considerable difference in the sound of the band. It contains fewer sexual themes than previous records and explores darker subject matters, such as drug use, depression, anguish, and grief.&lt;br&gt;\nIt also re-integrated use of heavy metal guitar riffs.&lt;/p&gt;\n\n&lt;p&gt;It was released on September 12, 1995, on Warner Bros. Records, and marked a reunion with &lt;a href="https://genius.com/artists/Rick-rubin" rel="noopener" data-api_path="/artists/27794"&gt;Rick Rubin&lt;/a&gt;, producer of their breakthrough smash &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Blood-sugar-sex-magik" rel="noopener" data-api_path="/albums/16011"&gt;Blood Sugar Sex Magik&lt;/a&gt;&lt;/em&gt; – whose worldwide sucess led to Frusciante’s departure in the first place.&lt;br&gt;\nThe vocalist &lt;a href="https://genius.com/artists/Anthony-kiedis" rel="noopener" data-api_path="/artists/582309"&gt;Anthony Kiedis&lt;/a&gt;, who had resumed addictions to cocaine and heroin in 1994 after being sober for more than five years, approached his lyricism with a reflective outlook on drugs and their harsh effects.&lt;/p&gt;\n\n&lt;p&gt;Overall, &lt;em&gt;One Hot Minute&lt;/em&gt; was a commercial disappointment, despite producing three hit singles and reaching number four on the Billboard 200 chart. It sold less than half as many copies as its predecessor and received much less critical acclaim. Navarro was ultimately fired from the band in 1998, due to creative differences.&lt;/p&gt;', 'producers': [{'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Anthony Kiedis', 'url': 'https://genius.com/artists/Anthony-kiedis'}, {'name': 'Chad Smith', 'url': 'https://genius.com/artists/Chad-smith'}, {'name': 'Dave Navarro', 'url': 'https://genius.com/artists/Dave-navarro'}, {'name': 'Flea', 'url': 'https://genius.com/artists/Flea'}], 'labels': [{'name': 'Megaforce Records', 'url': 'https://genius.com/artists/Megaforce-records'}, {'name': 'Nuclear Blast', 'url': 'https://genius.com/artists/Nuclear-blast'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Sheryl-crow/The-very-best-of-sheryl-crow', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Very Best of Sheryl Crow&lt;/em&gt; is a greatest hits album by American singer-songwriter Sheryl Crow, first released on October 13, 2003 in the United Kingdom and November 4, 2003 in the United States.&lt;/p&gt;\n\n&lt;p&gt;The compilation features some of her biggest hits from her four previous albums &lt;a href="https://genius.com/albums/Sheryl-crow/Tuesday-night-music-club" rel="noopener" data-api_path="/albums/108147"&gt;&lt;em&gt;Tuesday Night Music Club&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Sheryl-crow/Sheryl-crow" rel="noopener" data-api_path="/albums/112320"&gt;&lt;em&gt;Sheryl Crow&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Sheryl-crow/The-globe-sessions" rel="noopener" data-api_path="/albums/118344"&gt;&lt;em&gt;The Globe Sessions&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/Sheryl-crow/C-mon-c-mon" rel="noopener" data-api_path="/albums/110758"&gt;&lt;em&gt;C\'mon, C\'mon&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Jeff Trott', 'url': 'https://genius.com/artists/Jeff-trott'}, {'name': 'John Shanks', 'url': 'https://genius.com/artists/John-shanks'}, {'name': 'Kid Rock', 'url': 'https://genius.com/artists/Kid-rock'}, {'name': 'Sheryl Crow', 'url': 'https://genius.com/artists/Sheryl-crow'}], 'writers': [{'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Brian MacLeod', 'url': 'https://genius.com/artists/Brian-macleod'}, {'name': 'Cat Stevens', 'url': 'https://genius.com/artists/Cat-stevens'}, {'name': 'David Baerwald', 'url': 'https://genius.com/artists/David-baerwald'}, {'name': 'David Ricketts', 'url': 'https://genius.com/artists/David-ricketts'}, {'name': 'Jeff Trott', 'url': 'https://genius.com/artists/Jeff-trott'}, {'name': 'John Shanks', 'url': 'https://genius.com/artists/John-shanks'}, {'name': 'Kevin Gilbert', 'url': 'https://genius.com/artists/Kevin-gilbert'}, {'name': 'Kid Rock', 'url': 'https://genius.com/artists/Kid-rock'}, {'name': 'Sheryl Crow', 'url': 'https://genius.com/artists/Sheryl-crow'}, {'name': 'Wyn Cooper', 'url': 'https://genius.com/artists/Wyn-cooper'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-police/Synchronicity', 'annotations': {'description': '&lt;p&gt;1983’s &lt;em&gt;Synchronicity&lt;/em&gt; catapulted The Police into the arenas of the world on the strength of amazing singles like &lt;a href="http://rock.genius.com/The-police-every-breath-you-take-lyrics" rel="noopener" data-api_path="/songs/129806"&gt;“Every Breath You Take”&lt;/a&gt; and &lt;a href="http://rock.genius.com/The-police-king-of-pain-lyrics" rel="noopener" data-api_path="/songs/239726"&gt;“King of Pain.”&lt;/a&gt; The making of the album was a rough process, with drummer Stewart Copeland and guitarist Andy Summers playing session musicians to main songwriter Sting’s compositions, and the turmoil caused by this change in band dynamics would ultimately cause them to go on an indefinite hiatus after touring for the album.&lt;/p&gt;', 'producers': [{'name': 'Hugh Padgham', 'url': 'https://genius.com/artists/Hugh-padgham'}, {'name': 'Jeff Ayeroff', 'url': 'https://genius.com/artists/Jeff-ayeroff'}, {'name': 'Norman Moore', 'url': 'https://genius.com/artists/Norman-moore'}, {'name': 'The Police', 'url': 'https://genius.com/artists/The-police'}], 'writers': [{'name': 'Andy Summers', 'url': 'https://genius.com/artists/Andy-summers'}, {'name': 'Stewart Copeland', 'url': 'https://genius.com/artists/Stewart-copeland'}, {'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Nena/Nena', 'annotations': {'description': '', 'producers': [{'name': 'Manne Praeker', 'url': 'https://genius.com/artists/Manne-praeker'}, {'name': 'Reinhold Heil', 'url': 'https://genius.com/artists/Reinhold-heil'}], 'writers': [{'name': 'Carlo Karges', 'url': 'https://genius.com/artists/Carlo-karges'}, {'name': 'Jürgen Dehmel', 'url': 'https://genius.com/artists/Jurgen-dehmel'}, {'name': 'Jörn-Uwe Fahrenkrog-Petersen', 'url': 'https://genius.com/artists/Jorn-uwe-fahrenkrog-petersen'}, {'name': 'Manne Praeker', 'url': 'https://genius.com/artists/Manne-praeker'}, {'name': 'Nena', 'url': 'https://genius.com/artists/Nena'}, {'name': 'Nena Kerner', 'url': 'https://genius.com/artists/Nena-kerner'}, {'name': 'Rolf Brendel', 'url': 'https://genius.com/artists/Rolf-brendel'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Sony Music Entertainment', 'url': 'https://genius.com/artists/Sony-music-entertainment'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Ratt/Out-of-the-cellar', 'annotations': {'description': '', 'producers': [{'name': 'Beau Hill', 'url': 'https://genius.com/artists/Beau-hill'}], 'writers': [{'name': 'Beau Hill', 'url': 'https://genius.com/artists/Beau-hill'}, {'name': 'Joey Cristofanilli', 'url': 'https://genius.com/artists/Joey-cristofanilli'}, {'name': 'Juan Croucier', 'url': 'https://genius.com/artists/Juan-croucier'}, {'name': 'Robbin Crosby', 'url': 'https://genius.com/artists/Robbin-crosby'}, {'name': 'Stephen Pearcy', 'url': 'https://genius.com/artists/Stephen-pearcy'}, {'name': 'Warren DeMartini', 'url': 'https://genius.com/artists/Warren-demartini'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Lady-gaga/The-fame', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Fame&lt;/em&gt; is the debut studio album by &lt;a href="https://genius.com/artists/Lady-gaga" rel="noopener" data-api_path="/artists/447"&gt;Lady Gaga&lt;/a&gt;, released on August 19th, 2008.&lt;/p&gt;\n\n&lt;p&gt;The first two singles released, “&lt;a href="https://genius.com/lady-gaga-just-dance-lyrics" rel="noopener" data-api_path="/songs/51012"&gt;Just Dance&lt;/a&gt;” and “&lt;a href="https://genius.com/Lady-gaga-poker-face" rel="noopener"&gt;Poker Face&lt;/a&gt;” were highly acclaimed as international successes, topping the charts around the world.&lt;/p&gt;\n\n&lt;p&gt;With influences of 80’s pop music, &lt;em&gt;The Fame&lt;/em&gt;’s synth- and dance-pop musicality cannot be ignored. The album is the ultimate personification of the adoration of fame, with other subjects incorporated into its message such as sex, drugs, and love.&lt;/p&gt;\n\n&lt;p&gt;In 2013, &lt;em&gt;The Fame&lt;/em&gt; grabbed the last place on the list of the &lt;a href="http://www.rollingstone.com/music/lists/the-100-greatest-debut-albums-of-all-time-20130322/the-fame-19691231" rel="noopener nofollow"&gt;“100 Greatest Debut Albums of All-Time”&lt;/a&gt; by Rolling Stone. The LP has won several awards since its release, and was nominated for five Grammy Awards at the 52nd Grammy Awards, taking home the award for Best Electronic/Dance Album and the Best Dance Recording for “Poker Face.” At the &lt;a href="http://news.bbc.co.uk/2/hi/entertainment/8519276.stm" rel="noopener nofollow"&gt;BRIT Awards&lt;/a&gt;, it was named the Best International Album.&lt;/p&gt;\n\n&lt;p&gt;According to &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8497475/lady-gaga-sales-streams-ariana-grande-ask-billboard" rel="noopener nofollow"&gt;Billboard&lt;/a&gt;, as of February 10, 2019, &lt;em&gt;The Fame&lt;/em&gt; has sold a total of 4.8 million copies in the United States.&lt;/p&gt;', 'producers': [{'name': 'Brian Kierulf', 'url': 'https://genius.com/artists/Brian-kierulf'}, {'name': 'Joshua Schwartz', 'url': 'https://genius.com/artists/Joshua-schwartz'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'Martin Kierszenbaum', 'url': 'https://genius.com/artists/Martin-kierszenbaum'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Rob Fusari', 'url': 'https://genius.com/artists/Rob-fusari'}, {'name': 'Space Cowboy', 'url': 'https://genius.com/artists/Space-cowboy'}], 'writers': [{'name': 'Akon', 'url': 'https://genius.com/artists/Akon'}, {'name': 'Bilal “The Chef” Hajji', 'url': 'https://genius.com/artists/Bilal-the-chef-hajji'}, {'name': 'Brian Kierulf', 'url': 'https://genius.com/artists/Brian-kierulf'}, {'name': 'Calvin Gaines', 'url': 'https://genius.com/artists/Calvin-gaines'}, {'name': 'Charlotte Thersen', 'url': 'https://genius.com/artists/Charlotte-thersen'}, {'name': 'Flo Rida', 'url': 'https://genius.com/artists/Flo-rida'}, {'name': 'Joshua Schwartz', 'url': 'https://genius.com/artists/Joshua-schwartz'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'Martin Kierszenbaum', 'url': 'https://genius.com/artists/Martin-kierszenbaum'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Rob Fusari', 'url': 'https://genius.com/artists/Rob-fusari'}, {'name': 'Space Cowboy', 'url': 'https://genius.com/artists/Space-cowboy'}, {'name': 'Tom Kafafian', 'url': 'https://genius.com/artists/Tom-kafafian'}], 'labels': [{'name': 'Cherrytree Records', 'url': 'https://genius.com/artists/Cherrytree-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'KonLive', 'url': 'https://genius.com/artists/Konlive'}, {'name': 'Konvict Muzik', 'url': 'https://genius.com/artists/Konvict-muzik'}, {'name': 'Streamline', 'url': 'https://genius.com/artists/Streamline'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Niall-horan/Heartbreak-weather', 'annotations': {'description': '&lt;p&gt;Heartbreak Weather is the second solo album from former &lt;a href="https://genius.com/artists/One-direction" rel="noopener" data-api_path="/artists/19657"&gt;One Direction&lt;/a&gt; band member Niall Horan, released on March 13, 2020. According to Niall’s &lt;a href="https://www.instagram.com/p/B9qNzywnw0K/" rel="noopener nofollow"&gt;Instagram post&lt;/a&gt; , the writing for this album began in October 2018.&lt;/p&gt;\n\n&lt;p&gt;“&lt;a href="https://genius.com/Niall-horan-nice-to-meet-ya-lyrics" rel="noopener" data-api_path="/songs/4764371"&gt;Nice to Meet Ya&lt;/a&gt;” was the first single released from this album on October 4, 2019. “&lt;a href="https://genius.com/Niall-horan-put-a-little-love-on-me-lyrics" rel="noopener" data-api_path="/songs/4764373"&gt;Put a Little Love On Me&lt;/a&gt;” was the second single, released in December of 2019. The third single, “&lt;a href="https://genius.com/Niall-horan-no-judgement-lyrics" rel="noopener" data-api_path="/songs/4919970"&gt;No Judgement&lt;/a&gt;”, was released on February 7, 2020. On April 21, “&lt;a href="https://genius.com/Niall-horan-black-and-white-lyrics" rel="noopener" data-api_path="/songs/5242549"&gt;Black and White&lt;/a&gt;” was released as fourth and final single.&lt;/p&gt;\n\n&lt;p&gt;In October 2019, Niall &lt;a href="https://www.rollingstone.com/music/music-news/niall-horan-nice-to-meet-ya-north-american-tour-dates-906067" rel="noopener nofollow"&gt;announced&lt;/a&gt; the Nice to Meet Ya Tour to promote the album. Scheduled to run North America, Europe, Latin America and Oceania throughout, &lt;a href="https://www.soundhealthandlastingwealth.com/health-news/niall-horan-has-cancelled-his-world-tour" rel="noopener nofollow"&gt;it was postponed&lt;/a&gt; due to the COVID-19 pandemic.&lt;/p&gt;', 'producers': [{'name': 'AFTERHRS', 'url': 'https://genius.com/artists/Afterhrs'}, {'name': 'Daniel Bryer', 'url': 'https://genius.com/artists/Daniel-bryer'}, {'name': 'Greg Kurstin', 'url': 'https://genius.com/artists/Greg-kurstin'}, {'name': 'Jamie Scott', 'url': 'https://genius.com/artists/Jamie-scott'}, {'name': 'John Ryan', 'url': 'https://genius.com/artists/John-ryan'}, {'name': 'Julian Bunetta', 'url': 'https://genius.com/artists/Julian-bunetta'}, {'name': 'Noah Conrad', 'url': 'https://genius.com/artists/Noah-conrad'}, {'name': 'Teddy Geiger', 'url': 'https://genius.com/artists/Teddy-geiger'}, {'name': 'Tobias Jesso Jr.', 'url': 'https://genius.com/artists/Tobias-jesso-jr'}], 'writers': [{'name': 'Amy Allen', 'url': 'https://genius.com/artists/Amy-allen'}, {'name': 'Daniel Bryer', 'url': 'https://genius.com/artists/Daniel-bryer'}, {'name': 'Eskeerdo', 'url': 'https://genius.com/artists/Eskeerdo'}, {'name': 'Greg Kurstin', 'url': 'https://genius.com/artists/Greg-kurstin'}, {'name': 'Jamie Scott', 'url': 'https://genius.com/artists/Jamie-scott'}, {'name': 'John Ryan', 'url': 'https://genius.com/artists/John-ryan'}, {'name': 'Julian Bunetta', 'url': 'https://genius.com/artists/Julian-bunetta'}, {'name': 'Mike Needle', 'url': 'https://genius.com/artists/Mike-needle'}, {'name': 'MoZella', 'url': 'https://genius.com/artists/Mozella'}, {'name': 'Niall Horan', 'url': 'https://genius.com/artists/Niall-horan'}, {'name': 'Noah Conrad', 'url': 'https://genius.com/artists/Noah-conrad'}, {'name': 'RuthAnne', 'url': 'https://genius.com/artists/Ruthanne'}, {'name': 'Scott Harris', 'url': 'https://genius.com/artists/Scott-harris'}, {'name': 'Teddy Geiger', 'url': 'https://genius.com/artists/Teddy-geiger'}, {'name': 'Tobias Jesso Jr.', 'url': 'https://genius.com/artists/Tobias-jesso-jr'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/50-cent/Get-rich-or-die-tryin', 'annotations': {'description': '&lt;p&gt;Debuting atop the Billboard 200, 50 Cent’s debut album is a Grammy-nominated, multi-platinum-selling smash that showcases his hypnotic singsong flow, accentuated with both New York and southern drawls, and propelled him to be one of the biggest rap and pop stars in the world.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/50-cent-in-da-club-lyrics" rel="noopener" data-api_path="/songs/233"&gt;“In Da Club,”&lt;/a&gt; the chart-topping, platinum, lead single produced by &lt;a href="https://genius.com/artists/Dr-Dre" rel="noopener" data-api_path="/artists/123"&gt;Dr. Dre&lt;/a&gt; and &lt;a href="https://genius.com/artists/Mike-Elizondo" rel="noopener" data-api_path="/artists/34793"&gt;Mike Elizondo&lt;/a&gt; would, within two months, became the most listened to song in radio history.&lt;/p&gt;\n\n&lt;p&gt;Featuring all-star production by &lt;a href="https://genius.com/artists/Eminem" rel="noopener" data-api_path="/artists/45"&gt;Eminem&lt;/a&gt;, &lt;a href="https://genius.com/artists/Rockwilder" rel="noopener" data-api_path="/artists/27816"&gt;Rockwilder&lt;/a&gt;, &lt;a href="https://genius.com/artists/Megahertz" rel="noopener" data-api_path="/artists/33267"&gt;Megahertz&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Mr-porter" rel="noopener" data-api_path="/artists/509"&gt;Mr. Porter&lt;/a&gt;, among others. &lt;em&gt;Get Rich or Die Tryin\'&lt;/em&gt; also spawned the #1 hits “&lt;a href="https://genius.com/50-cent-21-questions-lyrics" rel="noopener" data-api_path="/songs/168"&gt;21 Questions&lt;/a&gt;,” featuring &lt;a href="https://genius.com/artists/Nate-dogg" rel="noopener" data-api_path="/artists/149"&gt;Nate Dogg&lt;/a&gt;, and “&lt;a href="https://genius.com/50-cent-pimp-lyrics" rel="noopener" data-api_path="/songs/634"&gt;P.I.M.P.&lt;/a&gt;,” featuring &lt;a href="https://genius.com/artists/Snoop%20Dogg" rel="noopener" data-api_path="/artists/46"&gt;Snoop-Dogg&lt;/a&gt;, &lt;a href="https://genius.com/artists/Lloyd-banks" rel="noopener" data-api_path="/artists/255"&gt;Lloyd Banks&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Young-Buck" rel="noopener" data-api_path="/artists/402"&gt;Young Buck&lt;/a&gt;. It also contained the hit singles, &lt;a href="https://genius.com/50-cent-patiently-waiting-lyrics" rel="noopener" data-api_path="/songs/335"&gt;“Patiently Waiting,”&lt;/a&gt; &lt;a href="https://genius.com/50-cent-if-i-cant-lyrics" rel="noopener" data-api_path="/songs/1098"&gt;“If I Can’t,”&lt;/a&gt; and the bluesy, reggae-esque &lt;a href="https://genius.com/50-cent-many-men-wish-death-lyrics" rel="noopener" data-api_path="/songs/1684"&gt;“Many Men (Wish Death).”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Darrell “Digga” Branch', 'url': 'https://genius.com/artists/Darrell-digga-branch'}, {'name': '\u200bdEnAun', 'url': 'https://genius.com/artists/Denaun'}, {'name': 'Dirty Swift', 'url': 'https://genius.com/artists/Dirty-swift'}, {'name': 'DJ Quik', 'url': 'https://genius.com/artists/Dj-quik'}, {'name': 'DJ Rad', 'url': 'https://genius.com/artists/Dj-rad'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Eminem', 'url': 'https://genius.com/artists/Eminem'}, {'name': 'J-Praize', 'url': 'https://genius.com/artists/J-praize'}, {'name': 'Luis Resto', 'url': 'https://genius.com/artists/Luis-resto'}, {'name': 'Megahertz', 'url': 'https://genius.com/artists/Megahertz'}, {'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}, {'name': 'Rashad Smith', 'url': 'https://genius.com/artists/Rashad-smith'}, {'name': 'Red Spyda', 'url': 'https://genius.com/artists/Red-spyda'}, {'name': 'Rob “Reef” Tewlow', 'url': 'https://genius.com/artists/Rob-reef-tewlow'}, {'name': 'Rockwilder', 'url': 'https://genius.com/artists/Rockwilder'}, {'name': 'Sean Blaze', 'url': 'https://genius.com/artists/Sean-blaze'}, {'name': 'Sha Money XL', 'url': 'https://genius.com/artists/Sha-money-xl'}, {'name': 'Terence Dudley', 'url': 'https://genius.com/artists/Terence-dudley'}], 'writers': [{'name': '50 Cent', 'url': 'https://genius.com/artists/50-cent'}, {'name': 'Brandon Parrott', 'url': 'https://genius.com/artists/Brandon-parrott'}, {'name': 'Brian Kierulf', 'url': 'https://genius.com/artists/Brian-kierulf'}, {'name': 'Carl Hampton', 'url': 'https://genius.com/artists/Carl-hampton'}, {'name': 'Conrad Almonacy', 'url': 'https://genius.com/artists/Conrad-almonacy'}, {'name': 'Darrell “Digga” Branch', 'url': 'https://genius.com/artists/Darrell-digga-branch'}, {'name': '\u200bdEnAun', 'url': 'https://genius.com/artists/Denaun'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Eminem', 'url': 'https://genius.com/artists/Eminem'}, {'name': 'Freddie Perren', 'url': 'https://genius.com/artists/Freddie-perren'}, {'name': 'Homer Banks', 'url': 'https://genius.com/artists/Homer-banks'}, {'name': 'Jimmie Cameron', 'url': 'https://genius.com/artists/Jimmie-cameron'}, {'name': 'Joshua Schwartz', 'url': 'https://genius.com/artists/Joshua-schwartz'}, {'name': 'J-Praize', 'url': 'https://genius.com/artists/J-praize'}, {'name': 'Keni St. Lewis', 'url': 'https://genius.com/artists/Keni-st-lewis'}, {'name': 'Kevin Risto', 'url': 'https://genius.com/artists/Kevin-risto'}, {'name': 'Lloyd Banks', 'url': 'https://genius.com/artists/Lloyd-banks'}, {'name': 'Luis Resto', 'url': 'https://genius.com/artists/Luis-resto'}, {'name': 'Megahertz', 'url': 'https://genius.com/artists/Megahertz'}, {'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}, {'name': 'Rashad Smith', 'url': 'https://genius.com/artists/Rashad-smith'}, {'name': 'Raymond Jackson', 'url': 'https://genius.com/artists/Raymond-jackson'}, {'name': 'Red Spyda', 'url': 'https://genius.com/artists/Red-spyda'}, {'name': 'Rob “Reef” Tewlow', 'url': 'https://genius.com/artists/Rob-reef-tewlow'}, {'name': 'Rockwilder', 'url': 'https://genius.com/artists/Rockwilder'}, {'name': 'Ron “NEFF-U” Feemster', 'url': 'https://genius.com/artists/Ron-neff-u-feemster'}, {'name': 'Sean Henderson', 'url': 'https://genius.com/artists/Sean-henderson'}, {'name': 'Sha Money XL', 'url': 'https://genius.com/artists/Sha-money-xl'}, {'name': 'Snoop Dogg', 'url': 'https://genius.com/artists/Snoop-dogg'}, {'name': 'Terence Dudley', 'url': 'https://genius.com/artists/Terence-dudley'}, {'name': 'Tommy Coster', 'url': 'https://genius.com/artists/Tommy-coster'}, {'name': 'Tony Yayo', 'url': 'https://genius.com/artists/Tony-yayo'}, {'name': 'Vella M. Cameron', 'url': 'https://genius.com/artists/Vella-m-cameron'}, {'name': 'Young Buck', 'url': 'https://genius.com/artists/Young-buck'}], 'labels': [{'name': 'Aftermath Entertainment', 'url': 'https://genius.com/artists/Aftermath-entertainment'}, {'name': 'G-Unit', 'url': 'https://genius.com/artists/G-unit'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Shady Records', 'url': 'https://genius.com/artists/Shady-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Pink-floyd/A-collection-of-great-dance-songs', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;A Collection of Great Dance Songs&lt;/em&gt; is a compilation album by &lt;a href="https://genius.com/artists/Pink-floyd" rel="noopener" data-api_path="/artists/694"&gt;Pink Floyd&lt;/a&gt; released on 23 November 1981. It was hastily compiled by &lt;a href="https://genius.com/artists/David-gilmour" rel="noopener" data-api_path="/artists/33622"&gt;David Gilmour&lt;/a&gt; &lt;a href="https://books.google.com.br/books?id=kob468t1j6oC&amp;amp;pg=PT188" rel="noopener nofollow"&gt;to fulfill a contractual demand, as the label wanted to release something for Christmas.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The title is facetious, given that Pink Floyd are not known for making particularly danceable music. This is perhaps evidenced by the album art, which featured a photograph of ballroom dancers anchored to the ground so they cannot move.&lt;/p&gt;\n\n&lt;p&gt;The album contains alternative mixes of &lt;a href="https://genius.com/Pink-floyd-shine-on-you-crazy-diamond-parts-1-5-lyrics" rel="noopener" data-api_path="/songs/1394"&gt;“Shine On You Crazy Diamond”&lt;/a&gt; (which comprises parts 1, 2, 4 and 7) edited down for time reasons, and &lt;a href="https://genius.com/Pink-floyd-another-brick-in-the-wall-part-ii-lyrics" rel="noopener" data-api_path="/songs/106641"&gt;“Another Brick in the Wall (Part 2)”&lt;/a&gt; (which combines the intro from the single mix with the album version which fades out during the “if you don’t eat your meat” ending). Also, the track &lt;a href="https://genius.com/Pink-floyd-money-lyrics" rel="noopener" data-api_path="/songs/72193"&gt;“Money”&lt;/a&gt; was re-recorded as Capitol Records refused to license the track to Columbia/CBS Records. &lt;a href="https://genius.com/artists/David-gilmour" rel="noopener" data-api_path="/artists/33622"&gt;David Gilmour&lt;/a&gt; re-recorded the track himself playing all of the drums, guitars, keyboards, bass guitar and vocals and co-producing the song with &lt;a href="https://genius.com/artists/James-guthrie" rel="noopener" data-api_path="/artists/33623"&gt;James Guthrie&lt;/a&gt;. &lt;a href="https://genius.com/artists/Dick-parry" rel="noopener" data-api_path="/artists/988791"&gt;Dick Parry&lt;/a&gt; reprised his saxophone role on the track. There are some differences between the re-recorded version and the original; mainly in the saxophone and guitar solos and the overall use of reverb and Gilmour repeating “away” at the end instead of the high pitch scat singing on the original. The drumming is noticeably different from &lt;a href="https://genius.com/artists/Nick-mason" rel="noopener" data-api_path="/artists/174898"&gt;Nick Mason’s&lt;/a&gt;, especially during the guitar solo, with very little of the tom-tom fills heard on the original.&lt;/p&gt;', 'producers': [{'name': 'Pink Floyd', 'url': 'https://genius.com/artists/Pink-floyd'}], 'writers': [{'name': 'David Gilmour', 'url': 'https://genius.com/artists/David-gilmour'}, {'name': 'Nick Mason', 'url': 'https://genius.com/artists/Nick-mason'}, {'name': 'Richard Wright', 'url': 'https://genius.com/artists/Richard-wright'}, {'name': 'Roger Waters', 'url': 'https://genius.com/artists/Roger-waters'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Lou-bega/A-little-bit-of-mambo', 'annotations': {'description': '', 'producers': [{'name': 'D. Fact', 'url': 'https://genius.com/artists/D-fact'}, {'name': 'Donald Fact', 'url': 'https://genius.com/artists/Donald-fact'}, {'name': 'Frank Lio', 'url': 'https://genius.com/artists/Frank-lio'}, {'name': 'Goar B', 'url': 'https://genius.com/artists/Goar-b'}], 'writers': [{'name': 'D. Fact', 'url': 'https://genius.com/artists/D-fact'}, {'name': 'Donald Fact', 'url': 'https://genius.com/artists/Donald-fact'}, {'name': 'Frank Lio', 'url': 'https://genius.com/artists/Frank-lio'}, {'name': 'Lou Bega', 'url': 'https://genius.com/artists/Lou-bega'}, {'name': 'Pérez Prado', 'url': 'https://genius.com/artists/Perez-prado'}, {'name': 'Zippy Davids', 'url': 'https://genius.com/artists/Zippy-davids'}], 'labels': [{'name': 'BMG', 'url': 'https://genius.com/artists/Bmg'}, {'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Man-with-a-mission/Dead-end-in-tokyo', 'annotations': {'description': '', 'producers': [{'name': 'DJ Santa Monica', 'url': 'https://genius.com/artists/Dj-santa-monica'}, {'name': 'Jean-Ken Johnny', 'url': 'https://genius.com/artists/Jean-ken-johnny'}, {'name': 'MAN WITH A MISSION', 'url': 'https://genius.com/artists/Man-with-a-mission'}, {'name': '中野雅之 (Masayuki Nakano)', 'url': 'https://genius.com/artists/Masayuki-nakano'}, {'name': 'Patrick Stump', 'url': 'https://genius.com/artists/Patrick-stump'}, {'name': 'ソニーミュージック (Sony Music Japan)', 'url': 'https://genius.com/artists/Sony-music-japan'}], 'writers': [{'name': 'Jean-Ken Johnny', 'url': 'https://genius.com/artists/Jean-ken-johnny'}, {'name': 'Kamikaze Boy', 'url': 'https://genius.com/artists/Kamikaze-boy'}, {'name': 'Patrick Stump', 'url': 'https://genius.com/artists/Patrick-stump'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Fr-david/Words', 'annotations': {'description': '', 'producers': [{'name': 'Frédéric Leibovitz', 'url': 'https://genius.com/artists/Frederic-leibovitz'}], 'writers': [{'name': 'F.R. David', 'url': 'https://genius.com/artists/Fr-david'}, {'name': 'Richelle Dassin', 'url': 'https://genius.com/artists/Richelle-dassin'}, {'name': 'Robert Fitoussi', 'url': 'https://genius.com/artists/Robert-fitoussi'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Rush/Moving-pictures', 'annotations': {'description': '&lt;p&gt;After going on a tour in the U.S., Canada, and the U.K. in support of &lt;em&gt;&lt;a href="https://genius.com/albums/Rush/Permanent-waves" rel="noopener" data-api_path="/albums/39667"&gt;Permanent Waves&lt;/a&gt;&lt;/em&gt;, the band wanted to work on a follow-up instead of a live album, which is what they were scheduled to do. The bulk of the instrumentals were written and composed during sound checks while on tour, with Peart writing the lyrics while in the studio. That album, titled &lt;em&gt;Moving Pictures&lt;/em&gt;, would become the band’s best selling album, and feature some of their most iconic songs including “&lt;a href="https://genius.com/Rush-tom-sawyer-lyrics" rel="noopener" data-api_path="/songs/73033"&gt;Tom Sawyer&lt;/a&gt;” and the instrumental track “&lt;a href="https://genius.com/Rush-yyz-lyrics" rel="noopener" data-api_path="/songs/142069"&gt;YYZ&lt;/a&gt;”.&lt;/p&gt;', 'producers': [{'name': 'Rush', 'url': 'https://genius.com/artists/Rush'}, {'name': 'Terry Brown', 'url': 'https://genius.com/artists/Terry-brown'}], 'writers': [{'name': 'Alex Lifeson', 'url': 'https://genius.com/artists/Alex-lifeson'}, {'name': 'Geddy Lee', 'url': 'https://genius.com/artists/Geddy-lee'}, {'name': 'Neil Peart', 'url': 'https://genius.com/artists/Neil-peart'}, {'name': 'Pye Dubois', 'url': 'https://genius.com/artists/Pye-dubois'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Santana/Shaman', 'annotations': {'description': '', 'producers': [{'name': 'Anders Bagge', 'url': 'https://genius.com/artists/Anders-bagge'}, {'name': 'Andrés Munera', 'url': 'https://genius.com/artists/Andres-munera'}, {'name': 'Arnthor Birgisson', 'url': 'https://genius.com/artists/Arnthor-birgisson'}, {'name': 'Carlos Santana', 'url': 'https://genius.com/artists/Carlos-santana'}, {'name': 'Citizen Cope', 'url': 'https://genius.com/artists/Citizen-cope'}, {'name': 'Clive Davis', 'url': 'https://genius.com/artists/Clive-davis'}, {'name': 'Cory Rooney', 'url': 'https://genius.com/artists/Cory-rooney'}, {'name': 'Dallas Austin', 'url': 'https://genius.com/artists/Dallas-austin'}, {'name': 'Dan Shea', 'url': 'https://genius.com/artists/Dan-shea'}, {'name': 'Dido', 'url': 'https://genius.com/artists/Dido'}, {'name': 'Fernando “Toby” Tobon', 'url': 'https://genius.com/artists/Fernando-toby-tobon'}, {'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}, {'name': 'J. B. Eckl', 'url': 'https://genius.com/artists/J-b-eckl'}, {'name': 'Jean-Yves “Jeeve” Ducornet', 'url': 'https://genius.com/artists/Jean-yves-jeeve-ducornet'}, {'name': 'Jerry Duplessis', 'url': 'https://genius.com/artists/Jerry-duplessis'}, {'name': 'José Gaviria', 'url': 'https://genius.com/artists/Jose-gaviria'}, {'name': 'KC Porter', 'url': 'https://genius.com/artists/Kc-porter'}, {'name': 'Kike Santander', 'url': 'https://genius.com/artists/Kike-santander'}, {'name': 'Klaus Derendorf', 'url': 'https://genius.com/artists/Klaus-derendorf'}, {'name': 'Lester Mendez', 'url': 'https://genius.com/artists/Lester-mendez'}, {'name': 'Michael Shrieve', 'url': 'https://genius.com/artists/Michael-shrieve'}, {'name': 'P.O.D.', 'url': 'https://genius.com/artists/Pod'}, {'name': 'Rollo Armstrong', 'url': 'https://genius.com/artists/Rollo-armstrong'}, {'name': 'Wyclef Jean', 'url': 'https://genius.com/artists/Wyclef-jean'}], 'writers': [{'name': 'Alejandro Lerner', 'url': 'https://genius.com/artists/Alejandro-lerner'}, {'name': 'Anders Bagge', 'url': 'https://genius.com/artists/Anders-bagge'}, {'name': 'Angélique Kidjo', 'url': 'https://genius.com/artists/Angelique-kidjo'}, {'name': 'Arnthor Birgisson', 'url': 'https://genius.com/artists/Arnthor-birgisson'}, {'name': 'Carlos Santana', 'url': 'https://genius.com/artists/Carlos-santana'}, {'name': 'Chad Kroeger', 'url': 'https://genius.com/artists/Chad-kroeger'}, {'name': 'Citizen Cope', 'url': 'https://genius.com/artists/Citizen-cope'}, {'name': 'Claude Jean', 'url': 'https://genius.com/artists/Claude-jean'}, {'name': 'Cory Rooney', 'url': 'https://genius.com/artists/Cory-rooney'}, {'name': 'Dallas Austin', 'url': 'https://genius.com/artists/Dallas-austin'}, {'name': 'Dido', 'url': 'https://genius.com/artists/Dido'}, {'name': 'Gabo Szabó', 'url': 'https://genius.com/artists/Gabo-szabo'}, {'name': 'Governor Washington', 'url': 'https://genius.com/artists/Governor-washington'}, {'name': 'Greg DiGiovine', 'url': 'https://genius.com/artists/Greg-digiovine'}, {'name': 'Gregg Alexander', 'url': 'https://genius.com/artists/Gregg-alexander'}, {'name': 'Hermann Nau', 'url': 'https://genius.com/artists/Hermann-nau'}, {'name': 'Javier Vázquez', 'url': 'https://genius.com/artists/Javier-vazquez'}, {'name': 'J. B. Eckl', 'url': 'https://genius.com/artists/J-b-eckl'}, {'name': 'Jean-Yves “Jeeve” Ducornet', 'url': 'https://genius.com/artists/Jean-yves-jeeve-ducornet'}, {'name': 'Jerry Duplessis', 'url': 'https://genius.com/artists/Jerry-duplessis'}, {'name': 'J. Hebrail', 'url': 'https://genius.com/artists/J-hebrail'}, {'name': 'John P*Nut Harrison', 'url': 'https://genius.com/artists/John-pnut-harrison'}, {'name': 'Karl Perazzo', 'url': 'https://genius.com/artists/Karl-perazzo'}, {'name': 'KC Porter', 'url': 'https://genius.com/artists/Kc-porter'}, {'name': 'Klaus Derendorf', 'url': 'https://genius.com/artists/Klaus-derendorf'}, {'name': 'Lester Mendez', 'url': 'https://genius.com/artists/Lester-mendez'}, {'name': 'Macy Gray', 'url': 'https://genius.com/artists/Macy-gray'}, {'name': 'Marcos Curiel', 'url': 'https://genius.com/artists/Marcos-curiel'}, {'name': 'Michael Shrieve', 'url': 'https://genius.com/artists/Michael-shrieve'}, {'name': 'Raul Rekow', 'url': 'https://genius.com/artists/Raul-rekow'}, {'name': 'Richie Rome', 'url': 'https://genius.com/artists/Richie-rome'}, {'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}, {'name': 'Rob Thomas', 'url': 'https://genius.com/artists/Rob-thomas'}, {'name': 'Roger Eugene', 'url': 'https://genius.com/artists/Roger-eugene'}, {'name': 'Rollo Armstrong', 'url': 'https://genius.com/artists/Rollo-armstrong'}, {'name': 'Simon Climie', 'url': 'https://genius.com/artists/Simon-climie'}, {'name': 'Sonny Sandoval', 'url': 'https://genius.com/artists/Sonny-sandoval'}, {'name': 'Traa Daniels', 'url': 'https://genius.com/artists/Traa-daniels'}, {'name': 'Walter Afanasieff', 'url': 'https://genius.com/artists/Walter-afanasieff'}, {'name': 'Wuv Bernardo', 'url': 'https://genius.com/artists/Wuv-bernardo'}, {'name': 'Wyclef Jean', 'url': 'https://genius.com/artists/Wyclef-jean'}, {'name': 'Yves Joseph', 'url': 'https://genius.com/artists/Yves-joseph'}, {'name': 'Yvon Andre', 'url': 'https://genius.com/artists/Yvon-andre'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Bruno-mars/24k-magic', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;24K Magic&lt;/em&gt;, released November 18, 2016, is Bruno’s third album, and his first in the four years since 2012’s &lt;a href="https://genius.com/albums/Bruno-mars/Unorthodox-jukebox" rel="noopener" data-api_path="/albums/493008"&gt;&lt;em&gt;Unorthodox Jukebox&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The 80’s funk inspired, lead single is the album’s title track “24K Magic.” Being more-rapped-than-sung, it has a lot in common with Bruno’s swaggy 2014 hit &lt;a href="https://genius.com/Mark-ronson-uptown-funk-lyrics" rel="noopener" data-api_path="/songs/576123"&gt;“Uptown Funk”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Mark-ronson" rel="noopener" data-api_path="/artists/8231"&gt;Mark Ronson&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In an interview with Zane Lowe for Radio Beats 1 Bruno admitted, “You hear these ’90s influences on the whole album,” but &lt;em&gt;24K Magic&lt;/em&gt; spends more time revisiting the ‘80s than anything else, revisiting the styles of &lt;a href="https://genius.com/artists/New-edition" rel="noopener" data-api_path="/artists/2030"&gt;New Edition&lt;/a&gt;, &lt;a href="https://genius.com/artists/Bobby-brown" rel="noopener" data-api_path="/artists/3542"&gt;Bobby Brown&lt;/a&gt;, &lt;a href="https://genius.com/artists/Babyface" rel="noopener" data-api_path="/artists/1336"&gt;Babyface&lt;/a&gt;, and &lt;a href="https://genius.com/artists/The-gap-band" rel="noopener" data-api_path="/artists/55371"&gt;The Gap Band&lt;/a&gt; on many of the tracks. The album even restricts its tracklist to a lean 9 songs, which was the standard for albums in the early \'80s.&lt;/p&gt;\n\n&lt;p&gt;Bruno refers multiple times to the album as a whole organic work that has to be listened together, all the songs are connected to each other, on the same wave. Bruno also talked about making a film:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;With this album, I wanted to make a movie,” he said. “A real movie. I told myself, ‘We’re gonna have a screenplay and we’re gonna go to that.\'&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;em&gt;24K Magic&lt;/em&gt; won the Grammy Awards for Best R&amp;amp;B Album and the Album of the Year at the &lt;a href="https://www.grammy.com/grammys/news/2018-grammy-awards-complete-winners-list-updated" rel="noopener nofollow"&gt;2018 Grammys&lt;/a&gt; held on Jan. 28, 2018.&lt;/p&gt;', 'producers': [{'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Shampoo Press &amp; Curl', 'url': 'https://genius.com/artists/Shampoo-press-and-curl'}, {'name': 'The Stereotypes', 'url': 'https://genius.com/artists/The-stereotypes'}], 'writers': [{'name': 'Babyface', 'url': 'https://genius.com/artists/Babyface'}, {'name': 'Brody Brown', 'url': 'https://genius.com/artists/Brody-brown'}, {'name': 'Bruno Mars', 'url': 'https://genius.com/artists/Bruno-mars'}, {'name': 'Carl “Groove” Martin', 'url': 'https://genius.com/artists/Carl-groove-martin'}, {'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'Homer Steinweiss', 'url': 'https://genius.com/artists/Homer-steinweiss'}, {'name': 'James Fauntleroy', 'url': 'https://genius.com/artists/James-fauntleroy'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Jeremy Reeves', 'url': 'https://genius.com/artists/Jeremy-reeves'}, {'name': 'Jonathan Yip', 'url': 'https://genius.com/artists/Jonathan-yip'}, {'name': 'Marc Gay', 'url': 'https://genius.com/artists/Marc-gay'}, {'name': 'Philip Lawrence', 'url': 'https://genius.com/artists/Philip-lawrence'}, {'name': 'Ra Charm', 'url': 'https://genius.com/artists/Ra-charm'}, {'name': 'Ray Romulus', 'url': 'https://genius.com/artists/Ray-romulus'}, {'name': 'T-Pain', 'url': 'https://genius.com/artists/T-pain'}, {'name': 'Trevor Lawrence Jr.', 'url': 'https://genius.com/artists/Trevor-lawrence-jr'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Dangerous_(Michael_Jackson_album)', 'album_name': 'Dangerous (album Michael Jackson)', 'artist': 'http://dbpedia.org/resource/Michael_Jackson', 'artist_name': 'Michael Jackson', 'wiki': 'http://en.wikipedia.org/wiki/Dangerous_(Michael_Jackson_album)', 'abstract': 'Dangerous is the eighth studio album by American singer Michael Jackson. It was released by Epic Records on November 26, 1991. Co-produced by Jackson, Bill Bottrell, Teddy Riley, and Bruce Swedien, the album was Jackson\'s first since Forever, Michael (1975) to not be produced by longtime collaborator Quincy Jones. Featured appearances include Heavy D, Princess Stéphanie of Monaco, Slash and Wreckx-n-Effect. The album incorporates R&amp;B, pop and new jack swing, a new genre in vogue at the time. Elements of industrial, funk, hip hop, electronic, gospel, classical and rock are also featured. Twelve of the album\'s fourteen songs were written or co-written by Jackson, discussing topics like racism, poverty, romance, self-improvement, and the welfare of children and the world. An experimental work, Dangerous is considered an artistic change for Jackson, with his music focusing to more socially conscious material, and a broader range of sounds and styles. It features catchy pop hooks and choruses while also introducing underground sounds to a mainstream audience. The album\'s tone is noted by critics as gritty and urban, with sounds including synthetic basslines, scratching, and drum machine percussion, as well as unconventional sounds like honking vehicle horns, sliding chains, swinging gates, breaking glass, and clanking metal. Throughout the album Jackson also implements beatboxing, scat singing, and finger snapping. Dangerous debuted at number one on the US Billboard 200 Top Albums chart and in thirteen other countries, selling 5 million copies worldwide in its first week and was the best-selling album worldwide of 1992. Nine singles premiered between November 1991 and December 1993, including two exclusively released outside the United States. The album produced four singles that reached the top ten of the Billboard Hot 100: "Remember the Time", "In the Closet", "Will You Be There" and the number-one single "Black or White". The Dangerous World Tour grossed $100 million (equivalent to $177 million in 2019), making it one of the highest-grossing tours of the 1990s. Dangerous is one of the best-selling albums of all time having sold over 32 million copies worldwide, and was certified 8× platinum by the Recording Industry Association of America (RIAA) in August 2018. Dangerous received worldwide critical acclaim, and it influenced contemporary pop and R&amp;B artists. It has been included in several publications\' lists of the greatest albums of all time. At the 1993 Grammy Awards, it received four Grammy Award nominations, winning Best Engineered Album, Non-Classical, while Jackson was awarded the Grammy Legend Award. Jackson won three American Music Awards at the 1993 American Music Awards, including the inaugural International Artist Award. Jackson also received Billboard Music Awards for Best Worldwide Album and Best Worldwide Single for "Black or White".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Chinese_Wall_(album)', 'album_name': 'Chinese Wall', 'artist': 'http://dbpedia.org/resource/Philip_Bailey', 'artist_name': 'Philip Bailey', 'wiki': 'http://en.wikipedia.org/wiki/Chinese_Wall_(album)', 'abstract': 'Chinese Wall is the third solo album by American singer Philip Bailey, released on the Columbia Records label in October 1984. Chinese Wall has been certified gold in the US on March 11, 1985. The album reached number 22 and number 10 on the Billboard 200 and Top R&amp;B/Hip-Hop Albums charts respectively and it was ranked as the 63rd most successful album of 1985 on the Billboard 200. In 1986 the album gave Bailey a Grammy Award nomination for Best R&amp;B Vocal Performance, Male, while "Easy Lover", the duet with Phil Collins (who produced the album), earned a nomination for Best Pop Performance by a Duo or Group With Vocals.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Back_in_Black', 'album_name': 'Back in Black', 'artist': 'http://dbpedia.org/resource/AC/DC', 'artist_name': 'AC/DC', 'wiki': 'http://en.wikipedia.org/wiki/Back_in_Black', 'hometown': 'http://dbpedia.org/resource/New_South_Wales', 'abstract': 'Back in Black is the seventh studio album by Australian rock band AC/DC. It was released on 25 July 1980 by Albert Productions and Atlantic Records. It is the band\'s first album to feature lead singer Brian Johnson, following the death of previous lead singer Bon Scott. After the commercial breakthrough of their 1979 album Highway to Hell, AC/DC was planning to record a follow-up, but in February 1980, Scott died from alcohol poisoning after a drinking binge. Instead of disbanding, they decided to continue on and recruited Johnson, who was previously vocalist for Geordie. The album was composed by Johnson, Angus and Malcolm Young, and recorded over seven weeks in the Bahamas from April to May 1980 with producer Robert John "Mutt" Lange, who had worked on their previous album. Following its completion, the group mixed Back in Black at Electric Lady Studios in New York City. The album\'s all-black cover was designed as a "sign of mourning" for Scott. As their sixth international studio release, Back in Black was an unprecedented success. It has sold an estimated 50 million copies worldwide, and is the second best-selling album in music history. The band supported the album with a yearlong world tour, cementing them among the most popular music acts of the early 1980s. The album also received positive critical reception during its initial release, and it has since been included on numerous lists of "greatest" albums. Since its original release, the album has been reissued and remastered multiple times, most recently for digital distribution. On 9 December 2019, it was certified 25x Platinum by the Recording Industry Association of America (RIAA).'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Cloud_Room_(album)', 'album_name': 'The Cloud Room (album)', 'artist': 'http://dbpedia.org/resource/The_Cloud_Room', 'artist_name': 'The Cloud Room', 'wiki': 'http://en.wikipedia.org/wiki/The_Cloud_Room_(album)', 'hometown': 'http://dbpedia.org/resource/Brooklyn', 'abstract': 'The Cloud Room is the first album by The Cloud Room, released in 2005. The album track, "Hey Now Now", was used in advertising for the carbonated drink Pepsi, which helped the band win a large group of fans.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Infest_(album)', 'album_name': 'Infest (album)', 'artist': 'http://dbpedia.org/resource/Papa_Roach', 'artist_name': 'Papa Roach', 'wiki': 'http://en.wikipedia.org/wiki/Infest_(album)', 'hometown': 'http://dbpedia.org/resource/Vacaville,_California', 'abstract': 'Infest is the second studio album and major-label debut by the American rock band Papa Roach. It was released on April 25, 2000, through DreamWorks Records, and became the 20th highest-selling album of 2000 in the United States. The sound of the album is nu metal and rap metal. Many of the album songs contains rapping and hip hop influences. It was certified 3× Platinum in the U.S. on July 18, 2001, and peaked at No. 5 on the Billboard 200 chart. This album earned the band a Grammy nomination for Best New Artist. It is their best-selling album to date. Papa Roach got together and performed the album live in studio to stream worldwide on June 20, 2020. The whole performance was released on YouTube on September 15, 2020.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Decemberunderground', 'album_name': 'Decemberunderground', 'artist': 'http://dbpedia.org/resource/AFI_(band)', 'artist_name': 'AFI', 'wiki': 'http://en.wikipedia.org/wiki/Decemberunderground', 'hometown': 'http://dbpedia.org/resource/Ukiah,_California', 'abstract': 'Decemberunderground (stylized in all caps; read as December Underground) is the seventh studio album by American rock band AFI. The album was released on June 6, 2006, through Interscope Records. The album was supported by three singles, "Miss Murder", "Love Like Winter" and "The Missing Frame".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Favourite_Worst_Nightmare', 'album_name': 'Favourite Worst Nightmare', 'artist': 'http://dbpedia.org/resource/Arctic_Monkeys', 'artist_name': 'Arctic Monkeys', 'wiki': 'http://en.wikipedia.org/wiki/Favourite_Worst_Nightmare', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'abstract': 'Favourite Worst Nightmare is the second studio album by English rock band Arctic Monkeys, released on 18 April 2007 by Domino Recording Company. Recorded in east London\'s Miloco Studios with producers James Ford and Mike Crossey, the album was preceded by the release of "Brianstorm" on 16 April 2007. This is the band\'s first album with bassist Nick O\'Malley, replacing their previous bassist Andy Nicholson, who left the band before the North America tour of the band\'s debut studio album. In comparison to the band\'s debut album Whatever People Say I Am, That\'s What I\'m Not, the album is considered more ambitious, with ambient sounds and expanded drum rhythms being introduced. Like Arctic Monkey\'s debut, Favourite Worst Nightmare was a widespread critical success, with critics highlighting the band\'s new emotional depth and Turner\'s matured songwriting. NME and Uncut ranked it the second-best album of 2007, while Dutch publication OOR named it the best of 2007. In retrospect, the album is considered the start of the band\'s change of sound with each of their albums after their debut. In its first week of release, the album sold over 227,000 copies, going straight to number one in the UK Albums Chart. "Brianstorm" and "Fluorescent Adolescent" were also both hits on the UK Singles Chart, with the former reaching number two on the chart. In the United States, the album debuted at number seven on the Billboard 200, selling around 44,000 copies in its first week. The album has since gone 3× platinum in the UK. It was nominated for the 2007 Mercury Prize and won Best British Album at the 2008 BRIT Awards.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Angles_(The_Strokes_album)', 'album_name': 'Angles (album)', 'artist': 'http://dbpedia.org/resource/The_Strokes', 'artist_name': 'The Strokes', 'wiki': 'http://en.wikipedia.org/wiki/Angles_(The_Strokes_album)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'abstract': "Angles is the fourth studio album by American rock band The Strokes. It was released on March 18, 2011, through RCA Records. It was the group's first album in over five years, following First Impressions of Earth (2005)."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Throwing_Copper', 'album_name': 'Throwing Copper', 'artist': 'http://dbpedia.org/resource/Live_(band)', 'artist_name': 'Live', 'wiki': 'http://en.wikipedia.org/wiki/Throwing_Copper', 'hometown': 'http://dbpedia.org/resource/York,_Pennsylvania', 'abstract': "Throwing Copper is the third studio album by American alternative rock band Live, released on April 26, 1994, on former MCA Records subsidiary Radioactive Records. It was produced by Jerry Harrison of Talking Heads and was recorded at Pachyderm Recording Studio. Throwing Copper has generally been regarded as Live's best album, having sold over 8 million copies and certified 8× platinum by the Recording Industry Association of America."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Best_of_The_Rasmus_2001–2009', 'album_name': 'Best of 2001-2009', 'artist': 'http://dbpedia.org/resource/The_Rasmus', 'artist_name': 'The Rasmus', 'wiki': 'http://en.wikipedia.org/wiki/Best_of_The_Rasmus_2001–2009', 'hometown': 'http://dbpedia.org/resource/Finland', 'abstract': 'Best of The Rasmus 2001–2009, also referred to as Best of.. 2001-2009 is a compilation album by the Finnish alternative rock band The Rasmus, it was released on November 2, 2009.The album contains the best songs between 2001 and 2009. While most of the songs were already released, it features a new unreleased song called "October &amp; April" which features vocals by Anette Olzon from Nightwish. This song was recorded during the same time as the other songs from the band\'s latest studio album Black Roses, but wasn\'t included as it didn\'t follow the album concept. "Open My Eyes", appearing in acoustic live version on this album, is a b-side of the single Shot and originally taken from the UK edition of the album Hide from the Sun (2005).'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/So_Much_for_the_Afterglow', 'album_name': 'So Much for the Afterglow', 'artist': 'http://dbpedia.org/resource/Everclear_(band)', 'artist_name': 'Everclear', 'wiki': 'http://en.wikipedia.org/wiki/So_Much_for_the_Afterglow', 'hometown': 'http://dbpedia.org/resource/Portland,_Oregon', 'abstract': 'So Much for the Afterglow is the third studio album by American alternative rock band Everclear, released on October 7, 1997. It contained the singles "Everything to Everyone", "I Will Buy You a New Life", "Father of Mine", "So Much for the Afterglow", and "One Hit Wonder". "Everything to Everyone", "I Will Buy You A New Life" and "Father of Mine," received heavy rotation on MTV\'s Total Request Live and launched Everclear into mainstream popularity in the late-90s. So Much for the Afterglow provided Everclear with their only Grammy nomination to date, a Best Rock Instrumental nod in 1998 for "El Distorto de Melodica." So Much for the Afterglow remains Everclear\'s best selling album with a 2x Platinum certification by the RIAA in 1998. In January 2016, independent record label Intervention Records released a vinyl reissue of So Much for the Afterglow. The reissue was the first time that the album was mastered using high-resolution archives and was pressed on 180-gram vinyl at record pressing plant RTI then packaged in a gate-fold jacket that was printed at Stoughton Printing Company.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Animalize', 'album_name': 'Animalize', 'artist': 'http://dbpedia.org/resource/Kiss_(band)', 'artist_name': 'Kiss', 'wiki': 'http://en.wikipedia.org/wiki/Animalize', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'abstract': 'Animalize is the twelfth studio album by American rock band Kiss. It was released on September 13, 1984, by Mercury Records. The album marked the only appearance by lead guitarist Mark St. John, who replaced Vinnie Vincent in April 1984.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Splinter_(Offspring_album)', 'album_name': 'Splinter', 'artist': 'http://dbpedia.org/resource/The_Offspring', 'artist_name': 'The Offspring', 'wiki': 'http://en.wikipedia.org/wiki/Splinter_(Offspring_album)', 'hometown': 'http://dbpedia.org/resource/Garden_Grove,_California', 'abstract': 'Splinter is the seventh studio album by American punk rock band the Offspring, released on December 9, 2003, by Columbia Records. It was the first album the band released without drummer Ron Welty. Although not as successful as the Offspring\'s previous albums, Splinter received gold certification two months after its release. The album received average reviews, but still sold reasonably well, debuting at number 30 on the US Billboard 200 with around 87,000 copies sold in its first week. "Hit That" and "(Can\'t Get My) Head Around You" were the only two singles to accompany the album; "Spare Me the Details" was also released as a single, but charted only in New Zealand.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/FanMail', 'album_name': 'FanMail', 'artist': 'http://dbpedia.org/resource/TLC_(group)', 'artist_name': 'TLC', 'wiki': 'http://en.wikipedia.org/wiki/FanMail', 'hometown': 'http://dbpedia.org/resource/Atlanta', 'abstract': 'FanMail is the third studio album by American girl group TLC. It was released on February 23, 1999, by LaFace and Arista Records. The album title is a tribute to TLC\'s fans who sent them fan mail during their hiatus. FanMail debuted at number one on the US Billboard 200, selling 318,000 copies in its first week of release, and spent five weeks at number one. The album received eight nominations at the 42nd Annual Grammy Awards, including one for Album of the Year, winning three. It has been certified six-times platinum by the Recording Industry Association of America (RIAA), and has sold 10 million copies worldwide. FanMail is TLC\'s second best-selling album after their 1994 studio album CrazySexyCool. To promote the album, TLC embarked on their first concert tour titled the FanMail Tour. It was the group\'s final album released in Lisa "Left Eye" Lopes\' lifetime before she died on April 25, 2002, as she was killed in a car crash prior to the release of their fourth studio album 3D (2002).'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Shock_Value_II', 'album_name': 'Shock Value II', 'artist': 'http://dbpedia.org/resource/Timbaland', 'artist_name': 'Timbaland', 'wiki': 'http://en.wikipedia.org/wiki/Shock_Value_II', 'abstract': 'Shock Value II is the third studio album by American record producer and rapper Timbaland. It serves as the sequel of the platinum-selling album Shock Value (2007) which topped charts worldwide and received 16 platinum certifications. Initially slated for a 2008 release, the project was pushed into 2009 and tentatively confirmed for November 23, 2009 through Blackground Records, however, it was pushed back once more and finally released on December 7, 2009 in the UK and December 8 in the US.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Viva_Hate', 'album_name': 'Viva Hate', 'artist': 'http://dbpedia.org/resource/Morrissey', 'artist_name': 'Morrissey', 'wiki': 'http://en.wikipedia.org/wiki/Viva_Hate', 'abstract': 'Viva Hate is the debut solo studio album by English singer Morrissey. It was released on 14 March 1988 by HMV, six months after the final album by the Smiths, Strangeways, Here We Come.'}</t>
+  </si>
+  <si>
+    <t>{'album': "http://dbpedia.org/resource/Backstreet's_Back", 'album_name': "Backstreet's Back", 'artist': 'http://dbpedia.org/resource/Backstreet_Boys', 'artist_name': 'Backstreet Boys', 'wiki': "http://en.wikipedia.org/wiki/Backstreet's_Back", 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'abstract': 'Backstreet\'s Back is the second studio album by the Backstreet Boys, released internationally August 11, 1997 by Jive Records and Trans Continental Records, with the exception of United States. It was a follow-up to their successful debut album Backstreet Boys (1996). Some songs from this album and the debut album were compiled into a second self-titled album, Backstreet Boys (1997), which was released only in the US. There were a few differences between the versions of songs released on this album and the American album. The album also contained the same enhanced section as the American release. The first track recorded for the album was a cover of "Set Adrift on Memory Bliss", which was recorded alongside a new song, "If You Stay", which did not make the final track listing of the album. "Who Do You Love" was performed live but never released as a studio track. The three singles released from this album became three of their most successful and remembered singles.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Slowhand', 'album_name': 'Slowhand', 'artist': 'http://dbpedia.org/resource/Eric_Clapton', 'artist_name': 'Eric Clapton', 'wiki': 'http://en.wikipedia.org/wiki/Slowhand', 'abstract': 'Slowhand is the fifth full-length studio album by Eric Clapton. Released on 25 November 1977 by RSO Records, and titled after Clapton\'s nickname, it is one of his most commercially and critically successful studio albums. Slowhand produced the two hit singles "Lay Down Sally" and "Wonderful Tonight", reached various international music charts and was honoured with numerous awards and recording certifications. In 2012, a deluxe edition was released to celebrate the album\'s 35th anniversary.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Untouchables_(album)', 'album_name': 'Untouchables', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Untouchables_(album)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': 'Untouchables is the fifth studio album by American nu metal band Korn. The album was officially released on June 11, 2002 and featured the Grammy-winning single "Here to Stay". Untouchables debuted at number two on the Billboard 200 with 434,000 copies sold during its first week, second only to Eminem\'s The Eminem Show. The album received positive reviews from music critics. It was certified platinum on July 11, 2002, and has sold at least 1.4 million copies in the United States.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Dua_Lipa_(album)', 'album_name': 'Dua Lipa', 'artist': 'http://dbpedia.org/resource/Dua_Lipa', 'artist_name': 'Dua Lipa', 'wiki': 'http://en.wikipedia.org/wiki/Dua_Lipa_(album)', 'abstract': 'Dua Lipa is the debut studio album by the English singer Dua Lipa. Originally intended to be released in September 2016, the album was released through Warner Bros. Records on 2 June 2017, following several delays in order to add new songs. Lipa had relocated from Kosovo to London at the age of fifteen to pursue a career in music. She took a gap year after finishing school and used social media as a platform to begin, influenced by the discovery of Justin Bieber. After working as a model and waitress, she was introduced to Ben Mawson of TAP Management, who signed the singer to a management and publishing deal which led her to signing a record deal with Warner Bros. Work on the album began with Lipa partaking in an artist development phase in 2013. Of the 25 songs included on all editions of the album, Lipa co-wrote 21. She worked with a variety of writers and producers, finding a kindred spirit with Stephen "Koz" Kozmeniuk who produced several tracks. Work on the album took place between London, Los Angeles, Toronto and New York, and was finished in 2017. Described by Lipa as dark pop, progressive pop and "dance-crying", Dua Lipa is a dance-pop, electropop and R&amp;B record with elements of disco, hip hop and tropical house. This sound features hip hop-influenced verses with heavy flow and truthful lyrics, alongside a pop chorus. The album is very diverse and balances between stripped-back ballads and upbeat tracks. It features electronic instrumentation and rock vocals. The album\'s lyrics are inspired by sadness and include themes of female empowerment, relationships and heartbreak and has several biblical references. Lipa was inspired by several artists on the album, originally intending to create a sound merging that of J. Cole and Nelly Furtado. The album includes guest appearances from Miguel and Coldplay frontman Chris Martin. Dua Lipa was supported by eight singles, including the UK top 10 singles "Be the One" and "IDGAF" as well as the UK number one single and US top 10 single, "New Rules". Lipa promoted the album with appearances at several award shows, television programs and festivals. Additionally, the singer embarked on 2016 UK Tour, Hotter than Hell tour, US and Europe Tour and the Self-Titled Tour throughout 2016, 2017 and 2018, while also supporting Troye Sivan, Bruno Mars and Coldplay on their respective tours. In October 2018, Lipa reissued the album, subtitled the Complete Edition, adding seven B-sides. Of these included Lipa\'s previously released, UK top 15 collaborations, "One Kiss" with Calvin Harris, "Electricity" with Silk City, "Scared to Be Lonely" with Martin Garrix and "No Lie" by Sean Paul featuring the singer. The former of the four spent eight weeks atop the UK Singles Chart. It also added Blackpink collaboration "Kiss and Make Up" which was released as a promotional single. Dua Lipa was met with generally favourable reviews from music critics. Many praised Lipa\'s vocals and the album\'s high-quality sound. It appeared on numerous year-end lists, including ones published by Billboard and Rolling Stone. The album was nominated for British Album of the Year at the Brit Awards, whilst "New Rules", "IDGAF" and "One Kiss" were all nominated for British Single of the Year, the latter of which won. The album also helped Lipa win the Grammy Award for Best New Artist. "Electricity" won the Grammy Award for Best Dance Recording. Dua Lipa was a commercially successful sleeper hit, reaching peak popularity in 2018. It reached the top 10 of charts in fourteen countries including the UK, where it reached the third position. Additionally, it is certified multi-platinum in six countries, including being awarded a double platinum certification in the UK. As of February 2021, Dua Lipa has sales figures of six million units worldwide. It is the most-streamed album by a female artist on Spotify.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Millennium_(Backstreet_Boys_album)', 'album_name': 'Millennium (álbum de Backstreet Boys)', 'artist': 'http://dbpedia.org/resource/Backstreet_Boys', 'artist_name': 'Backstreet Boys', 'wiki': 'http://en.wikipedia.org/wiki/Millennium_(Backstreet_Boys_album)', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'abstract': 'Millennium is the third studio album (second in the United States) by American boy band Backstreet Boys, released by Jive Records on May 18, 1999. It was a highly anticipated follow-up to both their US debut album, and their second internationally released album. It was their first album to be released in both the US and internationally in the same form, at the same time. Millennium held the record for most shipments in one year, with 11 million shipments sold in the United States in 1999. It was nominated for five Grammy Awards and became one of the best-selling albums of all time, selling 24 million copies worldwide. The Backstreet Boys promoted Millennium through the Into the Millennium Tour, which became one of the fastest-grossing tours of all time.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/In_Silico_(Pendulum_album)', 'album_name': 'In Silico (album)', 'artist': 'http://dbpedia.org/resource/Pendulum_(Australian_band)', 'artist_name': 'Pendulum', 'wiki': 'http://en.wikipedia.org/wiki/In_Silico_(Pendulum_album)', 'hometown': 'http://dbpedia.org/resource/Perth', 'abstract': 'In Silico is the second studio album by Australian drum and bass band Pendulum, released in Australia and Europe on 12 May 2008 by Warner Bros. Records and in the United States a day later by Atlantic Records. The album represents a change in sound for the band from their debut album Hold Your Colour away from drum and bass, incorporating more rock and electronic influences. The album peaked at number 2 on the UK Albums Chart on 18 May 2008. Singles from the album include "Granite", "Propane Nightmares", "The Other Side" and "Showdown". Mini discs of the song "The Tempest" were thrown out to the audience of the "Project Rev" live show. The expression "in silico", from which the album\'s title is derived, means performed on computer or via computer simulation. However group member Gareth McGrillen also commented on the way it plays upon Nirvana\'s well-known album title In Utero (which means born naturally or of the uterus) and thus carries extra shades of meaning related to being "born synthetically", thus explaining the album\'s cover design of a baby or fetus displayed inside a circular design representing a synthetic ovum.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Norman_Fucking_Rockwell!', 'album_name': 'Norman Fucking Rockwell!', 'artist': 'http://dbpedia.org/resource/Lana_Del_Rey', 'artist_name': 'Lana Del Rey', 'wiki': 'http://en.wikipedia.org/wiki/Norman_Fucking_Rockwell!', 'abstract': 'Norman Fucking Rockwell! is the sixth studio album by American singer-songwriter Lana Del Rey. It was released on August 30, 2019, by Polydor and Interscope Records. The album was primarily produced by Del Rey and Jack Antonoff, with additional contributions from Zach Dawes, Andrew Watt and longtime Del Rey collaborator Rick Nowels. Musically, Norman Fucking Rockwell! features a soft rock sound consisting of psych-rock jams and piano ballads, and features references to various classic rock artists. The name of the album is a reference to the painter and illustrator Norman Rockwell. The first singles from the album, "Mariners Apartment Complex" and "Venice Bitch", were released in September 2018, followed by "Hope Is a Dangerous Thing for a Woman like Me to Have – but I Have It", "Doin\' Time", "The Greatest", and "Norman Fucking Rockwell" in 2019. Norman Fucking Rockwell! received widespread critical acclaim, and was nominated for Album of the Year at the 62nd Annual Grammy Awards, while the title track was nominated for Song of the Year. It was listed by several publications as one of the best albums of the decade, and in the years following its release, of all time. To promote the album, Del Rey embarked on a concert tour, titled The Norman Fucking Rockwell! Tour.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Eminem_Show', 'album_name': 'The Eminem Show', 'artist': 'http://dbpedia.org/resource/Eminem', 'artist_name': 'Eminem', 'wiki': 'http://en.wikipedia.org/wiki/The_Eminem_Show', 'abstract': 'The Eminem Show is the fourth studio album by American rapper Eminem. After it had originally scheduled for release on June 4, 2002, the album was released on May 26, 2002, by Aftermath Entertainment, Shady Records, and Interscope Records due to pirating and bootlegging of it. The album saw Eminem take a substantially more predominant production role; most of it was self-produced, with his longtime collaborator Jeff Bass, and Dr. Dre being the album\'s executive producer. It features guest appearances from Obie Trice, D12, Dr. Dre, Nate Dogg, Dina Rae and Eminem\'s daughter Hailie Jade Scott-Mathers. The album incorporates a heavier use of rap rock than Eminem\'s previous albums, and its themes are predominantly based on Eminem\'s prominence in hip hop culture, as well as his ambivalent thoughts of fame. The album also features political commentary on the United States, including references to 9/11, Osama bin Laden, the War on terror, President George W. Bush, Lynne Cheney and Tipper Gore. Due to its less satirical and shock factor lyrical approach, The Eminem Show was regarded as Eminem\'s most personal album at the time and a step back from the Slim Shady alter ego. Widely considered the most anticipated album of 2002, The Eminem Show debuted at number one on the Billboard 200 and stood there for six non-consecutive weeks. It sold over 1.3 million copies in its second week in the US, where it registered a full week of sales. It also topped the UK Albums Chart for five consecutive weeks. It produced four commercially successful singles, "Without Me", "Cleanin\' Out My Closet", "Superman", and "Sing for the Moment". The album was met with positive critical reviews, with praise directed at Eminem\'s mature, introspective lyricism and the album\'s experimental production. The Eminem Show was both the best-selling album of 2002 in the United States and the best-selling album worldwide of 2002. It was certified Diamond by the Recording Industry Association of America (RIAA), and its worldwide sales of 27 million copies make it one of the best-selling albums of all time and the second best-selling album of the 21st century. At the 2003 Grammy Awards, it was nominated for Album of the Year and won Best Rap Album, while "Without Me" won Best Music Video. Blender, Muzik and LAUNCH named it the best album of 2002, and several publications named it among the best albums of the 2000s decade.'}</t>
+  </si>
+  <si>
+    <t>{'album': "http://dbpedia.org/resource/Don't_Worry_About_Me", 'album_name': "Don't Worry About Me", 'artist': 'http://dbpedia.org/resource/Joey_Ramone', 'artist_name': 'Joey Ramone', 'wiki': "http://en.wikipedia.org/wiki/Don't_Worry_About_Me", 'abstract': 'Don\'t Worry About Me is the debut album released by Joey Ramone as a solo artist. It was released posthumously in 2002, less than a year after his death. The album was produced by Daniel Rey, who also did most of the guitar work. Rey had previously produced three of the Ramones\' albums, between 1987 and 1995. The album includes two covers: "What a Wonderful World," originally performed by Louis Armstrong, and "1969," originally performed by the Stooges. "What a Wonderful World" was used for the ending credits of Michael Moore\'s film Bowling for Columbine. A DualDisc version of the album was released on November 19, 2002. It included the album in the DVD-Audio format, which is in 5.1 surround sound, as well as the music video for "What a Wonderful World" (directed by Debbie Harry) and other material. Don\'t Worry About Me peaked at #21 on the Billboard 200.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Night_Visions', 'album_name': 'Night Visions', 'artist': 'http://dbpedia.org/resource/Imagine_Dragons', 'artist_name': 'Imagine Dragons', 'wiki': 'http://en.wikipedia.org/wiki/Night_Visions', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': "Night Visions is the debut studio album by American pop rock band Imagine Dragons. It was released on September 4, 2012, through KIDinaKORNER and Interscope Records. The extended version was released on February 12, 2013, adding three more songs and the UK release of the album was on March 26, 2013. Recorded between 2010 and 2012, the album was primarily produced by the band themselves, as well as English hip-hop producer Alex da Kid and Brandon Darner from the American indie rock group The Envy Corps. It was mastered by Joe LaPorta. According to frontman Dan Reynolds, the album took three years to finish, with six of the album's tracks being previously released on multiple EPs. Musically, Night Visions exhibits influences of folk, hip hop and pop. The album received generally mixed reviews from music critics upon release. However, it debuted at number two on the Billboard 200 in the United States, selling more than 83,000 copies within its first week where it has since been certified double Platinum. It also peaked at the summit of the Billboard Alternative Albums and Rock Albums charts, as well as in the top ten albums in Australia, Austria, Canada, Germany, Ireland, Mexico, Netherlands, New Zealand, Norway, Portugal, Sweden, Switzerland, and United Kingdom. Night Visions appeared in the Billboard 200 top 10 in 2012, 2013, and 2014. The album became the fourth best-selling album of 2013 in the US. It was nominated for the Juno Award for International Album of the Year (2014) and won the Billboard Music Award for Top Rock Album (2014)."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Seeds_of_Love', 'album_name': 'The Seeds of Love', 'artist': 'http://dbpedia.org/resource/Tears_for_Fears', 'artist_name': 'Tears for Fears', 'wiki': 'http://en.wikipedia.org/wiki/The_Seeds_of_Love', 'hometown': 'http://dbpedia.org/resource/England', 'abstract': 'The Seeds of Love is the third studio album by the British rock/pop band Tears for Fears, released on 25 September 1989. The album, which reportedly cost over £1 million (GBP) to produce (equivalent to £2.5 million in 2020), retained the band\'s epic sound while incorporating influences ranging from jazz and soul to Beatlesque pop, of which the latter is most evident on the hit single "Sowing the Seeds of Love". Further singles from the album include "Woman in Chains", a duet with Oleta Adams; and "Advice for the Young at Heart", both of which reached the top 40 in several countries. The Seeds of Love was an international success, entering the UK Albums Chart at number one and reaching the top ten in numerous other countries including the US. It has been certified Gold or Platinum in several territories including the United Kingdom, the United States, France, Germany, Canada, and the Netherlands. Despite its success, personal tensions during recording led to band members Curt Smith and Roland Orzabal splitting up at the conclusion of their 1990 world tour, with Orzabal remaining as the band\'s sole official member until the two reunited in the early 2000s.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Invisible_Band', 'album_name': 'The Invisible Band', 'artist': 'http://dbpedia.org/resource/Travis_(band)', 'artist_name': 'Travis', 'wiki': 'http://en.wikipedia.org/wiki/The_Invisible_Band', 'hometown': 'http://dbpedia.org/resource/Glasgow', 'abstract': "The Invisible Band is the third studio album by Scottish rock band Travis. It was first released on 11 June 2001 in the United Kingdom by Independiente and a day later in the United States by Epic Records. The title of the album makes reference to the band's feelings regarding music being more important than the band making it. Band frontman Fran Healy stated in an interview that the album's title referred to the band's status of having famous songs, but not being famous themselves. The album spent four weeks at the top of the UK Albums Chart, selling more copies in that time than their previous album, The Man Who, managed in half a year. The Invisible Band was another strong seller from the band following their previous album, The Man Who, eventually becoming with 97th best-selling album of the 2000s decade in the United Kingdom."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Viva_la_Vida_or_Death_and_All_His_Friends', 'album_name': 'Viva la Vida or Death and All His Friends', 'artist': 'http://dbpedia.org/resource/Coldplay', 'artist_name': 'Coldplay', 'wiki': 'http://en.wikipedia.org/wiki/Viva_la_Vida_or_Death_and_All_His_Friends', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': 'Viva la Vida or Death and All His Friends, often referred to as simply Viva la Vida, is the fourth studio album by British rock band Coldplay, released on 12 June 2008 on the Parlophone label. The album was named after a Spanish phrase that best translates into English as "Long live life". Lyrically, the album contains references to love, life, death and war. Recording sessions for the album took place during June 2007 to April 2008 and featured production by Jon Hopkins, Rik Simpson, Markus Dravs, and Brian Eno. The album was Coldplay\'s first to be produced by Eno, and also their first album to not be produced by long-time Coldplay producer, Ken Nelson. The band forced themselves to explore new styles, as Eno required every song on the album to sound different. Development of the album delayed the release date several times. The album cover of Viva la Vida is the 1830 painting Liberty Leading the People by Eugène Delacroix. Viva la Vida was both a critical and commercial success. Five songs were released in promotion of the album; "Violet Hill" and "Viva la Vida" in May 2008, "Lovers in Japan" and "Lost!" in November 2008, and "Strawberry Swing" in September 2009. "Viva la Vida" became the band\'s first song to reach number one in both the United States and the United Kingdom. It won Best Rock Album at the 2009 Grammy Awards and was also nominated for Album of the Year. It was the best selling album of 2008. By 2011, the album had sold more than 10 million copies worldwide.Viva la Vida was re-released on 25 November 2008 in a deluxe edition containing the original album and the Prospekt\'s March EP, which contained another hit, "Life in Technicolor II".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Best_Of_(Tokio_Hotel_album)', 'album_name': 'Best Of (Tokio Hotel)', 'artist': 'http://dbpedia.org/resource/Tokio_Hotel', 'artist_name': 'Tokio Hotel', 'wiki': 'http://en.wikipedia.org/wiki/Best_Of_(Tokio_Hotel_album)', 'hometown': 'http://dbpedia.org/resource/Magdeburg', 'abstract': 'Best Of TH is the first compilation album by German rock band Tokio Hotel, it was released December 14, 2010 internationally, and in Germany on December 13, 2010. The album is composed of songs from their studio albums Schrei (2005), Zimmer 483 (2007), Scream (2007) and Humanoid (2009), plus two previously unreleased songs; the first, "Mädchen aus dem All", was originally recorded to be released on Schrei while the second song, "Hurricanes And Suns", was recorded in 2009. It was released in three major formats: standard edition, German and English; and a limited deluxe edition, including both German and English editions and a bonus DVD comprising the majority of Tokio Hotel\'s music videos and the "Making Of" videos for selected music videos.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/High_Voltage_(1976_album)', 'album_name': 'High Voltage', 'artist': 'http://dbpedia.org/resource/AC/DC', 'artist_name': 'AC/DC', 'wiki': 'http://en.wikipedia.org/wiki/High_Voltage_(1976_album)', 'hometown': 'http://dbpedia.org/resource/New_South_Wales', 'abstract': 'High Voltage is the first internationally released studio album by Australian hard rock band AC/DC. It contains tracks from their first two previous Australia-only issued albums: High Voltage and T.N.T. (both from 1975). Originally released internationally on 30 April 1976 on Atlantic Records and in the US on 14 May 1976 on ATCO Records, this edition of High Voltage has proven popular, selling three million units in the US alone. However, initially the album was panned by some critics upon its release, including a review by Rolling Stone magazine\'s Billy Altman that called it an "all-time low" for the hard rock genre. It was re-released in 2003 as part of the AC/DC Remasters series.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/West_Ryder_Pauper_Lunatic_Asylum', 'album_name': 'West Ryder Pauper Lunatic Asylum', 'artist': 'http://dbpedia.org/resource/Kasabian', 'artist_name': 'Kasabian', 'wiki': 'http://en.wikipedia.org/wiki/West_Ryder_Pauper_Lunatic_Asylum', 'hometown': 'http://dbpedia.org/resource/Leicester', 'abstract': 'West Ryder Pauper Lunatic Asylum is the third studio album by British indie rock band Kasabian, which was released on 5 June 2009. It was the band\'s first album not to feature Christopher Karloff, the band\'s lead guitarist and songwriter who departed during the writing stages of Empire (2006). Rhythm guitarist Sergio Pizzorno became lead songwriter and co-producer for the band. It is also their first album to feature guitar contributions from Tim Carter, who would become the band\'s touring guitarist in 2013 and a full-fledged member of the band in 2021. West Ryder Pauper Lunatic Asylum debuted at number one in the United Kingdom, giving Kasabian their second number-one album in that country, and spawned four singles: "Fire", "Where Did All the Love Go?", "Underdog" and "Vlad the Impaler". It also charted within the top 40 in countries like Australia, France, Ireland and New Zealand. The album was nominated for the 2009 Mercury Prize. In October 2009, it was voted the best album of the year by Q Magazine.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Rock_n_Roll_Jesus', 'album_name': 'Rock N Roll Jesus', 'artist': 'http://dbpedia.org/resource/Kid_Rock', 'artist_name': 'Kid Rock', 'wiki': 'http://en.wikipedia.org/wiki/Rock_n_Roll_Jesus', 'abstract': 'Rock n Roll Jesus is the seventh studio album by Kid Rock, released on October 9, 2007. Rob Cavallo co-produced the album with Rock. Mike E. Clark produced the track "All Summer Long". The album was not available at the iTunes Store in an act of protest by Kid Rock regarding a royalties dispute. It was nominated for two Grammy Awards for Best Rock Album and Best Male Vocal Performance for "All Summer Long" at the 2009 Grammy Awards. "All Summer Long" from the album was named the official theme song for WWE Backlash 2008 as well as "So Hott" for WrestleMania XXV and "New Orleans" for WrestleMania 34.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/21_(Adele_album)', 'album_name': '21 (아델의 음반)', 'artist': 'http://dbpedia.org/resource/Adele', 'artist_name': 'Adele', 'wiki': 'http://en.wikipedia.org/wiki/21_(Adele_album)', 'abstract': '21 is the second studio album by English singer-songwriter Adele. It was released on 24 January 2011 in Europe by XL Recordings and on 22 February 2011 in North America by Columbia Records. The album was named after the age of the singer during its production. 21 shares the Motown/soul influences of her 2008 debut album 19, but also draws influence from the American country and Southern blues music that Adele started listening to while on the North American leg of her tour An Evening with Adele. Composed in the aftermath of the singer\'s separation from her then partner, the album exemplifies the near dormant tradition of the confessional singer-songwriter, exploring themes of heartbreak, healing and forgiveness. Adele began writing 21 in April 2009, when still involved in the relationship that subsequently inspired the record. Looking to deviate from the brooding sound of her first album, she had intended to compose a more upbeat and contemporary follow-up. However, studio sessions ended prematurely due to a lack of inspiration. She resumed production immediately after the breakdown of her relationship, channelling her heartbreak and depression into her songs. Adele collaborated with various songwriters and producers, including Columbia Records co-president Rick Rubin, Paul Epworth, Ryan Tedder, Jim Abbiss, and Dan Wilson. A sleeper hit, 21 defied the modest commercial expectations of Adele\'s independent record label XL. It topped record charts in more than 30 countries and became the world\'s best-selling album of the year for both 2011 and 2012, helping to revitalise the lagging sales of the global music industry. In the United Kingdom, it is the best-selling album of the 21st century, the fourth best-selling album of all time, and the best-selling album by a solo artist of all time, while its 23-week tenure atop the UK Albums Chart is the longest by a female solo artist. In the United States, it is the best performing Billboard 200 album of all time, holding the top position for 24 weeks, longer than any other album since 1985 and the longest by a female solo artist in Billboard 200 history. It was certified Diamond by the Recording Industry Association of America (RIAA), denoting sales of over 10 million copies in the US. In addition, three of the five singles released in its promotion – "Rolling in the Deep", "Someone like You" and "Set Fire to the Rain" – became international number-one songs, while "Rumour Has It" charted in the top 20 in countries across Europe and North America. With sales of over 31 million copies worldwide, 21 is the best-selling album of the 21st century, and one of the best-selling albums of all time. Praised for its understated production, vintage aesthetic, and Adele\'s vocal performance, 21 was shortlisted for the 2011 Mercury Prize, and won the 2012 Grammy Award for Album of the Year and the Brit Award for British Album of the Year. It has since been ranked amongst the Rolling Stone\'s 500 Greatest Albums of All Time, and is included in the book 1001 Albums You Must Hear Before You Die.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/7/27', 'album_name': '7/27', 'artist': 'http://dbpedia.org/resource/Fifth_Harmony', 'artist_name': 'Fifth Harmony', 'wiki': 'http://en.wikipedia.org/wiki/7/27', 'hometown': 'http://dbpedia.org/resource/Miami', 'abstract': '7/27 is the second studio album by American girl group Fifth Harmony, released by Syco Music and Epic Records on May 27, 2016. The record is the follow-up to the group\'s debut studio album Reflection. Its lyrics discuss themes of female empowerment and love. It features guest appearances by American R&amp;B and hip hop artists Ty Dolla Sign, Fetty Wap and Missy Elliott, and collaborations with producers Jack Antonoff, Kygo and Norwegian duo Stargate. 7/27 is primarily a pop, tropical house and R&amp;B record that includes elements of reggae, funk, electronic dance music, hip hop and trap. Unlike the genres explored on Reflection, 7/27\'s songs incorporate new genres like tropical house. This is the final Fifth Harmony album to feature Camila Cabello before her music group retirement in December 2016 to pursue a solo career. The album debuted at number 4 on the US Billboard 200, becoming the group\'s highest charting album in the US to date, and selling 74,000 equivalent album units. 7/27 earned the group its first top-five entry in the United Kingdom, where it peaked at number 3, and a top-five entry in Canada where it peaked at number one. Elsewhere, it peaked in the top fives of sixteen other countries, reaching number one in Spain and Brazil. To further promote the album, Fifth Harmony embarked on its second headlining concert tour, The 7/27 Tour, which visited North and South America, Europe and Asia. 7/27 received generally positive reviews from contemporary music critics. "Work from Home" featuring Ty Dolla Sign, the album\'s lead single, was released on February 26, 2016. It peaked at number four on the Billboard Hot 100, becoming the group\'s highest charting single in the United States and the first top-five entry from an all-female group to chart in ten years since "Buttons" by The Pussycat Dolls. Since its release, the song has charted in the top five of twenty-two countries. The second single, "All in My Head (Flex)" featuring Fetty Wap, charted in the top 25 of the US Billboard Hot 100 and sixteen other countries. Two promotional singles, "The Life" and "Write on Me", were made available before the album\'s release. The third single from the album, "That\'s My Girl", was sent to contemporary hit radio on September 27, 2016.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Greatest_Hits_(The_Police_album)', 'album_name': 'Greatest Hits (The Police album)', 'artist': 'http://dbpedia.org/resource/The_Police', 'artist_name': 'The Police', 'wiki': 'http://en.wikipedia.org/wiki/Greatest_Hits_(The_Police_album)', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': 'Greatest Hits is a compilation album of songs by the Police, released in September 1992. It is the band\'s second compilation album following Every Breath You Take: The Singles. In contrast with its predecessor, it features all 14 original UK top 20 chart singles and five UK number-ones released by the band from 1978 to 1984, including the two missing singles from the previous 1986 compilation, "Synchronicity II" and the original version of "Don\'t Stand So Close to Me" which had been replaced with the 1986 re-recording. The album also includes two bonus album tracks, "The Bed\'s Too Big Without You" and "Tea in the Sahara". The cover photograph was by Duane Michals and it was taken at the time of the Synchronicity album. The inner sleeve featured a collage of pictures of the band shot by different photographers during their career, including Miles Copeland, Peter Baylis, Adrian Boot, Akihiro Takayama, Anton Corbijn, Danny Quatrochi, Gabor Scott, Janette Beckman, Kim Turner, Michael Ross, Watal Asanuma and Andy Summers. The album failed to chart in the US but spent 36 weeks in the UK Album Charts, where it peaked at number 10. It also peaked at number one on Official New Zealand Music Chart and at number four in Norway.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/May_Death_Never_Stop_You', 'album_name': 'May Death Never Stop You', 'artist': 'http://dbpedia.org/resource/My_Chemical_Romance', 'artist_name': 'My Chemical Romance', 'wiki': 'http://en.wikipedia.org/wiki/May_Death_Never_Stop_You', 'hometown': 'http://dbpedia.org/resource/Newark,_New_Jersey', 'abstract': 'May Death Never Stop You (or May Death Never Stop You: The Greatest Hits 2001–2013) is the first greatest hits compilation album by My Chemical Romance, spanning the band\'s entire career up to that point. It is the only album to feature keyboardist James Dewees as an official member of the band, playing on the album\'s lead single, "Fake Your Death."'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Sunshine_on_Leith_(album)', 'album_name': 'Sunshine on Leith (musikalbum)', 'artist': 'http://dbpedia.org/resource/The_Proclaimers', 'artist_name': 'The Proclaimers', 'wiki': 'http://en.wikipedia.org/wiki/Sunshine_on_Leith_(album)', 'hometown': 'http://dbpedia.org/resource/Auchtermuchty', 'abstract': 'Sunshine on Leith is the second studio album by Scottish folk rock duo The Proclaimers, released in August 1988 through Chrysalis Records. The record spawned four singles: "I\'m Gonna Be (500 Miles)", which topped charts in Australia, New Zealand and Iceland; "Sunshine on Leith", a ballad that has become an anthem for Scottish football club Hibernian F.C.; the No. 3 Australian hit "I\'m on My Way"; and the Australian-exclusive "Then I Met You". The non-single "Cap in Hand" also came to prominence in 2014 with the Scottish Independence referendum. Sunshine on Leith marked a departure from the minimalist acoustics of the group\'s 1987 debut This Is The Story, toward a rock-oriented full band sound, and was a major worldwide hit, particular in Australia where it was described as the band\'s "biggest success", reaching No. 2 in the ARIA Charts and being 1989\'s 12th highest-seller. The album peaked at No. 3 and No. 6 in New Zealand and the United Kingdom respectively, while also charting in Canada and Sweden, ultimately selling over 2 million copies worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Greatest_Hits:_My_Prerogative_(video)', 'album_name': 'Greatest Hits: My Prerogative (DVD)', 'artist': 'http://dbpedia.org/resource/Britney_Spears', 'artist_name': 'Britney Spears', 'wiki': 'http://en.wikipedia.org/wiki/Greatest_Hits:_My_Prerogative_(video)', 'abstract': 'Greatest Hits: My Prerogative is the seventh video album by American recording artist Britney Spears. Designed by Jim Swaffield, the highly interactive collection was released on November 9, 2004 through Jive Records, accompanying the greatest hits album of the same title. The collection contains all of Spears\' music videos from 1998 to 2004, including unreleased material from the shoot of "Outrageous". It also contains alternate versions of the music videos with never before seen footage. The video received positive reviews from critics, who complimented the quality of the audio and the image and also deemed Spears as the ultimate video performer. Greatest Hits: My Prerogative debuted atop of the ARIA Top 40 Music DVD, number two on Hungarian Top 20 DVD and Japanese Oricon Video Chart, and number three on the US Billboard Top Music Videos. It was also certified double platinum in Argentina by the Argentine Chamber of Phonograms and Videograms Producers (CAPIF), in Australia by the Australian Recording Industry Association (ARIA) and in the United States by the Recording Industry Association of America (RIAA).'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/True_(Avicii_album)', 'album_name': 'True (musikalbum av Avicii)', 'artist': 'http://dbpedia.org/resource/Avicii', 'artist_name': 'Avicii', 'wiki': 'http://en.wikipedia.org/wiki/True_(Avicii_album)', 'abstract': 'True is the debut studio album by Swedish electronic music producer Avicii, released on 13 September 2013 by PRMD Music and Island Records. Avicii said that sonically, the album would move away from his earlier house music sound on previous records by incorporating elements of other genres such as country music. True was preceded by the release of the Aloe Blacc-assisted "Wake Me Up" that featured a rare Marantz Enhanced Digital Stereo audio track and topped several charts around the world, and "You Make Me", which features vocals from Swedish artist Salem Al Fakir. True debuted at number two on the UK Albums Chart and peaked within the top-ten of at least ten countries; it subsequently re-peaked at number two on the chart in February 2014. On 24 March 2014, Avicii released a remixed version of the album titled True (Avicii by Avicii). A two-disc edition, comprising the standard 10-track edition alongside the remix album featuring a new album cover, was released in June 2014.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Nine_Track_Mind', 'album_name': 'Nine Track Mind', 'artist': 'http://dbpedia.org/resource/Charlie_Puth', 'artist_name': 'Charlie Puth', 'wiki': 'http://en.wikipedia.org/wiki/Nine_Track_Mind', 'abstract': 'Nine Track Mind is the debut studio album by American singer Charlie Puth. It was released on January 29, 2016, by Artist Partner Group and Atlantic Records, after being scheduled to be released on November 6, 2015. The album\'s lead single, "Marvin Gaye", which features Meghan Trainor, was originally released as Some Type of Love\'s only single on February 10, 2015, and peaked at number 21 on the Billboard Hot 100 , while topping the charts in various countries including France, Ireland, New Zealand, and the United Kingdom. The album\'s second single, "One Call Away", was released on August 20, 2015, reaching number 12 on the Billboard Hot 100. On May 24, 2016, Puth released the third and final single "We Don\'t Talk Anymore", featuring Selena Gomez, with it having peaked at number 9 on the Billboard Hot 100. A music video for "Dangerously" was released on November 2, 2016. Upon release, Nine Track Mind was a commercial success, peaking at number 6 on the Billboard 200. The album received negative reviews from critics, who criticized the simplistic production, overt focus on love ballads, and Puth\'s vocal performance. Puth himself has confessed that he was disappointed at how the album turned out.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Open_Door', 'album_name': 'The Open Door', 'artist': 'http://dbpedia.org/resource/Evanescence', 'artist_name': 'Evanescence', 'wiki': 'http://en.wikipedia.org/wiki/The_Open_Door', 'hometown': 'http://dbpedia.org/resource/Little_Rock,_Arkansas', 'abstract': 'The Open Door is the second studio album by American rock band Evanescence, released on September 25, 2006, by Wind-up Records. The album was initially set to be released in March 2006, but was postponed as a result of guitarist Terry Balsamo\'s stroke, the loss of the band\'s former manager, and Will Boyd\'s and Ben Moody\'s departure from the group. The record symbolizes a new beginning for the band, incorporating new elements into their previous musical styles, including symphonic metal, as well as the use of choirs on several songs. The writing process for the album took over 18 months to complete; most of the songs were written by Amy Lee and Terry Balsamo, while production was handled by Dave Fortman. The Open Door received mostly positive reviews from music critics, who generally praised its lyrical content and the instrumentation accompanied by Lee\'s vocals. Some critics gave negative reviews regarding the band\'s sound, which differs from that of the band\'s previous album, Fallen (2003). The record was nominated at the 50th Grammy Awards for Best Hard Rock Performance for "Sweet Sacrifice". The band also won in the category of Album of the Year at the 2007 MTV Australia Video Music Awards. The Open Door debuted at number one on the Billboard 200, selling more than 447,000 copies in its first week. It topped the charts in Australia, Europe, Germany, Greece and Switzerland, and reached the top five in over 15 countries. The album was certified platinum by the Recording Industry Association of America (RIAA) just over a month after its release, and has since been certified double platinum. The record has sold more than five million copies worldwide. "Call Me When You\'re Sober" was released digitally as the album\'s lead single on September 14, 2006. It peaked at number 10 on the Billboard Hot 100 and charted in the top 20 of several charts internationally. "Lithium" was released as the second single on January 1, 2007, and "Sweet Sacrifice" was released as the third international single from the album on May 5, 2007. "Good Enough" was released on December 14, 2007. The Open Door was supported by two worldwide tours, The Open Door Tour and the Evanescence Tour.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Woodstock_(Portugal._The_Man_album)', 'album_name': 'Woodstock (Portugal. The Man album)', 'artist': 'http://dbpedia.org/resource/Portugal._The_Man', 'artist_name': 'Portugal. The Man', 'wiki': 'http://en.wikipedia.org/wiki/Woodstock_(Portugal._The_Man_album)', 'hometown': 'http://dbpedia.org/resource/Wasilla,_Alaska', 'abstract': 'Woodstock is the eighth full-length album by American rock band Portugal. The Man, released on June 16, 2017 through Atlantic Records.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Greatest_Hits_(Red_Hot_Chili_Peppers_album)', 'album_name': 'Greatest Hits (album, Red Hot Chili Peppers)', 'artist': 'http://dbpedia.org/resource/Red_Hot_Chili_Peppers', 'artist_name': 'Red Hot Chili Peppers', 'wiki': 'http://en.wikipedia.org/wiki/Greatest_Hits_(Red_Hot_Chili_Peppers_album)', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': 'Greatest Hits is the second compilation album by the Red Hot Chili Peppers. It was released on November 18, 2003, by Warner Bros. Records. Aside from their cover of "Higher Ground", all songs on the compilation are from their tenure on Warner Bros. Records from 1991 to 2002, in addition to two newly recorded songs. Greatest Hits was released along with a separately sold DVD containing most of their music videos from the same time period. The album was released with Copy Control protection system in some European markets, but not in the United States.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Midnite_Vultures', 'album_name': 'Midnite Vultures', 'artist': 'http://dbpedia.org/resource/Beck', 'artist_name': 'Beck', 'wiki': 'http://en.wikipedia.org/wiki/Midnite_Vultures', 'abstract': "Midnite Vultures is the seventh studio album by American musician Beck, released on November 23, 1999 by DGC Records. While similar to most of Beck's previous albums in its exploration of widely varying styles, it did not achieve the same blockbuster success as his breakthrough album Odelay, but was still critically acclaimed and commercially successful."}</t>
   </si>
   <si>
     <t>{'album': 'http://dbpedia.org/resource/Follow_the_Leader_(Korn_album)', 'album_name': 'Follow the Leader', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Follow_the_Leader_(Korn_album)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': 'Follow the Leader (stylized as FOLLOW The LEADEЯ) is the third studio album by American nu metal band Korn. The album was released on August 18, 1998, through Immortal/Epic. This was their first album not produced by Ross Robinson. Instead, it was produced by Steve Thompson and Toby Wright. The album peaked at number one on four charts, including the Billboard 200 with 268,000 units sold in its first week of release, Follow the Leader is considered by members of Korn to be the band\'s most commercially–successful album, being certified five-times Platinum by the RIAA. Its singles "Got the Life", and "Freak on a Leash", both charted on more than three charts, and their music videos are considered to be the first music videos retired from MTV, most notably the MTV show Total Request Live. The album generally received positive reviews by critics and sold around 14 million copies worldwide. Korn was praised by AllMusic saying the album is "an effective follow-up to their first two alt-metal landmarks." The Family Values Tour promoted the album, along with its five singles. The song "Freak on a Leash" was nominated for nine MTV Video Music Awards, and won for the Best Rock Video award, as well as Best Editing. The music video for "Freak on a Leash" won Best Short Form Music Video at the 2000 Grammy Awards.'}</t>
   </si>
   <si>
-    <t>{'album': 'http://dbpedia.org/resource/The_Path_of_Totality', 'album_name': 'The Path of Totality', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/The_Path_of_Totality', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': 'The Path of Totality is the tenth studio album by American nu metal band Korn. It was released on December 2, 2011 in Europe and December 6, 2011 in the US. The album was produced by various electronic music producers such as Skrillex, Noisia, Excision and various other independent producers. "Get Up!", is one of three tracks produced by Skrillex, and was released as a digital download on May 6, 2011. "Narcissistic Cannibal" was released as the second single on October 18, 2011. Regarding the album, vocalist Jonathan Davis stated: "I want to trail-blaze. I want to change things. I want to do things we\'re not supposed to do. I want to create art that\'s different and not conform to what\'s going on. We didn\'t make a dubstep album. We made a Korn album." The album was made available for pre-order on Amazon and iTunes on October 21, 2011; as well as special bundle packages available on Korn.com. Revolver has named The Path of Totality album of the year in their 100th issue. Korn was also inducted into the Kerrang! Hall of Fame during the 2011 Kerrang! Awards.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Asylum_(Disturbed_album)', 'album_name': 'Asylum (album Disturbed)', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Asylum_(Disturbed_album)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': "Asylum is the fifth studio album by American heavy metal band Disturbed. It was released on August 31, 2010, in the United States through Reprise Records. The album is meant to take a fresh direction in the band's music career, while remaining consistent with the band's previous albums. Most of the lyrical content was inspired by aspects of frontman David Draiman's life prior to making the album. Asylum is also the third consecutive Disturbed album to not feature the Parental Advisory label (although the deluxe version on iTunes is marked explicit for live versions of their earlier material from The Sickness). A tour in support of the album, titled the Asylum Tour, started in late August 2010. Asylum debuted at number one on the Billboard 200 chart with sales of approximately 179,000 according to Nielsen Soundscan. This is the fourth consecutive number one album in the U.S. for Disturbed. The other two bands ever to accomplish this feat in the Soundscan era are metal band Metallica and folk rock/jam band Dave Matthews Band. On March 31, 2011, Asylum was certified Gold by the Recording Industry Association of America (RIAA)."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Live_&amp;_Indestructible', 'album_name': 'Live &amp; Indestructible', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Live_&amp;_Indestructible', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': 'Live &amp; Indestructible is an extended play (EP) by American heavy metal band Disturbed. It was released on September 30, 2008 exclusively through iTunes Store and on October 7, 2008 via other online retailers. It features three live tracks from Disturbed\'s first online concert at Deep Rock Drive and includes the music video for Indestructible\'s third official single and title track, "Indestructible". The EP was also sold at Hot Topic stores exclusively in CD format, featuring an alternative cover. This version features an extra song, "Stupify", and lacks the music video for "Indestructible".'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/One-X', 'album_name': 'One-X', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/One-X', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'abstract': "One-X is the second studio album by Canadian rock band Three Days Grace. It was produced by Howard Benson and is the band's first album recorded as a four-piece band, as Barry Stock joined the group and took over lead guitar from lead singer Adam Gontier. It is their first and only album under Sony BMG, the successor to Sony Music Entertainment's original roots and Bertelsmann Music Group. The Sony BMG joint venture was dropped in 2008, which led to Bertelsmann's Sony BMG stake going back to Sony. One-X was released on June 13, 2006. The album was both a critical and financial success, being certified triple-platinum in both the U.S. and Canada."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Life_Starts_Now', 'album_name': 'Life Starts Now', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Life_Starts_Now', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'abstract': "Life Starts Now is the third studio album by Canadian rock band Three Days Grace. The album was released on September 22, 2009. The album was produced by Howard Benson. This is the second time in a row the band has worked with him, after the commercially successful One-X. Life Starts Now expresses a lighter lyrical mood compared to the band's previous album. It is the first Three Days Grace album to be released under Sony Music Entertainment and the last to be released through Jive Records, as Sony disbanded the label in 2011."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Saturate_(Breaking_Benjamin_album)', 'album_name': 'Saturate (album)', 'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/Saturate_(Breaking_Benjamin_album)', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'abstract': 'Saturate is the debut studio album by American rock band Breaking Benjamin. It was released on August 27, 2002. The album features three singles, including "Polyamorous", "Skin", and "Medicate". The album was certified gold by the RIAA on September 15, 2015.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/We_Are_Not_Alone_(Breaking_Benjamin_album)', 'album_name': 'We Are Not Alone', 'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/We_Are_Not_Alone_(Breaking_Benjamin_album)', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'abstract': 'We Are Not Alone is the second studio album by American rock band Breaking Benjamin. It was released on June 29, 2004. Three singles were released from the album, "So Cold", "Sooner or Later", and the full-band version of "Rain", as opposed to the original version in which the only instrument used is an acoustic guitar, which came out near the end of June 2005. The album name is a reference to the novel of the same name. We Are Not Alone sold 48,000 copies on its first week and was certified platinum by the RIAA on June 13, 2005. It is the first Breaking Benjamin album to receive a Parental Advisory label. A Live EP was released with limited editions of the album, containing live recorded versions of "Sugarcoat," "Water," "Medicate," and "Next to Nothing" from their first album Saturate. We Are Not Alone is the last studio album to feature drummer Jeremy Hummel. The track "Firefly" was featured in the 2004 video games WWE SmackDown! vs. Raw and WWE Day of Reckoning. According to AllMusic critic Johnny Loftus, the album stylistically incorporates early Tool\'s sound through post-grunge\'s more accessible melodics.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Phobia_(Breaking_Benjamin_album)', 'album_name': 'Phobia (álbum de Breaking Benjamin)', 'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/Phobia_(Breaking_Benjamin_album)', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'abstract': 'Phobia is the third studio album by American rock band Breaking Benjamin. It was recorded at The Barbershop Studios in Hopatcong, New Jersey, and released on August 8, 2006, through Hollywood Records and in Europe on November 21, 2007.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/The_Way_of_the_Fist', 'album_name': 'The Way of the Fist', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/The_Way_of_the_Fist', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': "The Way of the Fist is the debut studio album by American heavy metal band Five Finger Death Punch, released on July 31, 2007. The album sold 3,800 copies in its first week of release. The Way of the Fist made its Billboard 200 debut on August 18, 2007 at No. 199 and peaked at No. 107. It has been certified Gold for selling in excess of 500,000 copies as of April 13, 2011. This is the band's only release with guitarist Darrell Roberts."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/American_Capitalist', 'album_name': 'American Capitalist', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/American_Capitalist', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': 'American Capitalist is the third studio album by American heavy metal band Five Finger Death Punch, released on October 11, 2011. It is the band\'s first album not to feature bassist Matt Snell, as he departed from the band in December 2010. The first single from the album entitled "Under and Over It", was released on July 27, 2011. The album debuted at number three on the Billboard 200 and sold more than 90,000 copies in the first week of release. In September 2012, the album was certified gold by the RIAA with sales of at least 500,000 copies. In 2012, the album won a RadioContraband Rock Radio Award for Album of the Year, and the single "Coming Down" won the award for Song of the Year. As of 2017, the album was certified platinum by the Recording Industry Association of America (RIAA) with sales of at least 1,000,000 copies.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Finding_Beauty_in_Negative_Spaces', 'album_name': 'Finding Beauty in Negative Spaces', 'artist': 'http://dbpedia.org/resource/Seether', 'artist_name': 'Seether', 'wiki': 'http://en.wikipedia.org/wiki/Finding_Beauty_in_Negative_Spaces', 'hometown': 'http://dbpedia.org/resource/Pretoria', 'abstract': 'Finding Beauty in Negative Spaces is the fourth studio album by South African rock band Seether. The album was released in South Africa and Switzerland on 19 October 2007, and released worldwide on 23 October 2007. It is the first album by the band without lead guitarist Pat Callahan. The cover artwork was designed by David Ho, the same artist who designed the Vicious Delicious cover for Infected Mushroom. The covers apparently display the same character: Candice the Ghost. Three singles, "Fake It", "Rise Above This" and "Breakdown" have been released from the album with all three being top 10 singles, the former two reaching the top position on several Billboard charts, despite generally negative reviews from critics, scoring a 39 out of 100 on Metacritic. The album was reissued in 2009, featuring a fourth single, a cover of George Michael\'s "Careless Whisper", as the final single from the album.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Karma_and_Effect', 'album_name': 'Karma and Effect', 'artist': 'http://dbpedia.org/resource/Seether', 'artist_name': 'Seether', 'wiki': 'http://en.wikipedia.org/wiki/Karma_and_Effect', 'hometown': 'http://dbpedia.org/resource/Pretoria', 'abstract': 'Karma and Effect is the third studio album by South African rock band Seether. It was released on 24 May 2005 by Wind-up Records. It is certified platinum in the US and gold in Canada. Upon release, the album debuted in the top 10 in many countries around the world and the first single "Remedy" held the top spot on the Billboard Mainstream Rock Tracks chart. Following singles "Truth," and "The Gift", though not to the same extent, also found success on rock radio. Since its release the album has sold 635,413 units in the U.S. and nearly 800,000 worldwide. This is the band\'s second and final release with lead guitarist Pat Callahan, before his departure a year later.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Disclaimer_II', 'album_name': 'Disclaimer II', 'artist': 'http://dbpedia.org/resource/Seether', 'artist_name': 'Seether', 'wiki': 'http://en.wikipedia.org/wiki/Disclaimer_II', 'hometown': 'http://dbpedia.org/resource/Pretoria', 'abstract': 'Disclaimer II is the second studio album by South African rock band Seether. It is a recompilation of the band\'s first album, Disclaimer, from 2002. Although the 12 tracks from the original album are present, they have been slightly remixed and differ from the original. Also, the majority of the remixed tracks feature additional lead guitar melodies with the addition of a permanent lead guitarist to the band\'s line-up prior to the release of the album. This is also the first Seether album to feature contributions from their current drummer John Humphrey. In Europe, the album includes four tracks more than its predecessor; in the United States, the album has eight extra tracks, some of which had been previously released on soundtracks, such as "Hang On," which had been featured on the 2003 Daredevil soundtrack and "Out of My Way," which had been featured on the soundtrack to the 2003 horror film Freddy vs. Jason. "Fine Again" also appeared on Madden NFL 2003 and 1080° Avalanche. A primary reason for the reworking of Disclaimer was the popularity of "Broken." Originally a simple acoustic ballad, it was remade into an electric, duet version with vocals by Evanescence frontwoman Amy Lee, who was dating Seether frontman Shaun Morgan at the time. This new version was originally featured on the 2004 Punisher soundtrack and had an accompanying music video. Both the US and European releases include the new rendition of "Broken," and Disclaimer II subsequently became Seether\'s most successful album commercially. The song "Sold Me" was used for WWE\'s Bad Blood pay per view, along with WWE also using "Out of My Way" as the entrance theme of Zach Gowen. The song "Take Me Away" is an acoustic version of a track from their first independent album (originally as Saron Gas), Fragile (2000).'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Isolate_and_Medicate', 'album_name': 'Isolate and Medicate', 'artist': 'http://dbpedia.org/resource/Seether', 'artist_name': 'Seether', 'wiki': 'http://en.wikipedia.org/wiki/Isolate_and_Medicate', 'hometown': 'http://dbpedia.org/resource/Pretoria', 'abstract': 'Isolate and Medicate (stylised as isolate and medicate) is the sixth studio album by South African rock band Seether. It was released on 1 July 2014 by The Bicycle Music Company, in association with Concord Music Group and Spinefarm Records. It is the first Seether album to be released on a vinyl LP.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Poison_the_Parish', 'album_name': 'Poison the Parish', 'artist': 'http://dbpedia.org/resource/Seether', 'artist_name': 'Seether', 'wiki': 'http://en.wikipedia.org/wiki/Poison_the_Parish', 'hometown': 'http://dbpedia.org/resource/Pretoria', 'abstract': 'Poison the Parish is the seventh studio album by South African rock band Seether. It was released on 12 May 2017. It is the band\'s first album to feature a new band logo on the cover. The first single, "Let You Down" was released on 23 February 2017. On 23 March 2017, the band released a new track titled "Stoke the Fire". On 13 April 2017, "Nothing Left" was released. On 5 May 2017, "Count Me Out" was released. On 9 August 2017, the album\'s second single, "Betray and Degrade" was released. On 8 April 2018, the album\'s third single, "Against the Wall", was released.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Slipknot_discography', 'album_name': 'Discografia de Slipknot', 'artist': 'http://dbpedia.org/resource/Slipknot_(band)', 'artist_name': 'Slipknot', 'wiki': 'http://en.wikipedia.org/wiki/Slipknot_discography', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'abstract': 'The American heavy metal band Slipknot has released six studio albums, two live albums, one compilation album, one demo album, twenty-six singles, five video albums and twenty-seven music videos. They released We Are Not Your Kind on August 9, 2019. Formed in Des Moines, Iowa in 1995, Slipknot originally featured vocalist and percussionist Anders Colsefni, guitarists Donnie Steele and Josh "Gnar" Brainard, bassist Paul Gray, drummer Joey Jordison, and percussionist and backing vocalist Shawn "Clown" Crahan. The original lineup released its first demo Mate. Feed. Kill. Repeat. in 1996, before undergoing a number of lineup changes over the next few years. Finalising its lineup as a nine-piece consisting of Corey Taylor (vocals), Mick Thomson, Jim Root (both guitars), Paul Gray (bass), Joey Jordison (drums), Shawn "Clown" Crahan, Chris Fehn (both percussion), Sid Wilson (turntables) and Craig Jones (samples), Slipknot signed with Roadrunner Records and released its self-titled debut album in June 1999. Slipknot reached number 51 on the US Billboard 200, and has since been certified double platinum by the Recording Industry Association of America (RIAA). The band followed this up in 2001 with Iowa, which reached number 3 on the Billboard 200 and topped the UK Albums Chart. Slipknot also released its first two videos during this period – Welcome to Our Neighborhood, a collection of music videos and live footage, in 1999, and Disasterpieces, a live concert recorded in London, in 2002. After a short hiatus, Slipknot returned in 2004 with its third studio album Vol. 3: (The Subliminal Verses), which reached number 2 on the Billboard 200. The album was supported by a successful lead single in "Duality", which reached the top 10 of both the US Billboard Alternative Songs and Mainstream Rock charts. Later singles "Vermilion" and "Before I Forget" also registered on both charts. The band\'s first live album, 9.0: Live, followed the next year and reached the top 20 of the Billboard 200. Third video album Voliminal: Inside the Nine was released in December 2006. 2008\'s All Hope Is Gone, Slipknot\'s fourth studio album, was the band\'s first to top the Billboard 200, as well as several album charts in other regions. "Psychosocial", "Dead Memories" and "Snuff" all reached the Billboard Alternative Songs top 20. On May 24, 2010, founding member Paul Gray died of an "accidental overdose of morphine and fentanyl" and in September 2010 the band dedicated its fourth video album (sic)nesses to the deceased bassist, which documented their performance at Download Festival in 2009. The release topped the Music Video charts in the US and the UK. A compilation album, Antennas to Hell, followed in 2012. After returning to touring in 2011 with former guitarist Donnie Steele on bass, Slipknot also parted ways with Joey Jordison in 2013 in controversial circumstances. The group resurfaced in 2014 with Alessandro Venturella on bass and Jay Weinberg on drums, releasing the Gray-dedicated .5: The Gray Chapter in October that year, which followed All Hope Is Gone in topping the Billboard 200. As of March 2019, Slipknot has sold 30 million units of records worldwide. On July 26, 2021, founding member Joey Jordison died in his sleep.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Iowa_(album)', 'album_name': 'Iowa (album)', 'artist': 'http://dbpedia.org/resource/Slipknot_(band)', 'artist_name': 'Slipknot', 'wiki': 'http://en.wikipedia.org/wiki/Iowa_(album)', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'abstract': 'Iowa is the second studio album by the American heavy metal band Slipknot. Released by Roadrunner Records on August 28, 2001, it was produced by Ross Robinson and Slipknot. The title derives from the band\'s home state, Iowa, which members have stated is one of their greatest sources of inspiration. With much anticipation for the album following the success of their 1999 self-titled debut, pressures on the band were high. Their relationships with each other suffered and this was later described as the darkest time of their career. It was also the first full album to feature guitarist Jim Root after only appearing on two songs from their previous album. Despite troubles within the band and with Iowa\'s development, Slipknot promoted it for almost a year. Iowa was a major success, premiering in the top tens of nine countries. Generally positively received, it includes some of their notable songs, such as "Disasterpiece", "The Heretic Anthem", "People = Shit" and the Grammy-nominated "Left Behind" and "My Plague". More technical than their debut, Iowa is considered the band\'s heaviest and darkest album. It has been certified Platinum in the United Kingdom, the United States and Canada. With a runtime of 66 minutes and 19 seconds, Iowa is the band\'s longest album. In addition to being their longest album, it also contains their longest song to date, the title track. A special edition of Iowa was reissued on November 1, 2011 to celebrate its tenth anniversary. It was accompanied by full live audio of the hit DVD Disasterpieces and a film entitled Goat directed by Shawn Crahan, with the four music videos, never-seen-before interviews and footage from the Iowa period.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/ObZen', 'album_name': 'ObZen', 'artist': 'http://dbpedia.org/resource/Meshuggah', 'artist_name': 'Meshuggah', 'wiki': 'http://en.wikipedia.org/wiki/ObZen', 'hometown': 'http://dbpedia.org/resource/Umeå', 'abstract': 'obZen is the sixth album by Swedish heavy metal band Meshuggah. It was released in Europe on March 7th, 2008, and in North America on March 11, 2008 through Nuclear Blast. Tomas Haake made his return as the studio drummer for the record after the Drumkit from Hell drum software was used on Catch Thirtythree. It is also the first album on which bassist Dick Lovgren performs on an album, despite having been a member of the band since 2004; this is due to the bass having been digitally programmed on the previous album, Catch Thirtythree, and the bass having been performed by guitarist Fredrik Thordendal on the previous I ep. The release of the album was followed by their first world tour. A video was filmed for a shorter version of the song "Bleed". A two-disc vinyl re-issue was released on March 22, 2019 through Nuclear Blast.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Koloss', 'album_name': 'Koloss', 'artist': 'http://dbpedia.org/resource/Meshuggah', 'artist_name': 'Meshuggah', 'wiki': 'http://en.wikipedia.org/wiki/Koloss', 'hometown': 'http://dbpedia.org/resource/Umeå', 'abstract': 'Koloss is the seventh album by Swedish metal band Meshuggah, released on 23 March 2012 in Germany, on 26 March in the rest of Europe, and on March 27 in North America, by Nuclear Blast.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/The_Violent_Sleep_of_Reason', 'album_name': 'The Violent Sleep of Reason', 'artist': 'http://dbpedia.org/resource/Meshuggah', 'artist_name': 'Meshuggah', 'wiki': 'http://en.wikipedia.org/wiki/The_Violent_Sleep_of_Reason', 'hometown': 'http://dbpedia.org/resource/Umeå', 'abstract': 'The Violent Sleep of Reason is the eighth full-length album by Swedish progressive metal band Meshuggah. It was released on 7 October 2016 via Nuclear Blast. This album was recorded live in the studio, simultaneously with all members, rather than recording each instrument separately as is more common for modern recording. The band announced the new album, its title, and track list via Blabbermouth.net and Revolver magazine on 5 August 2016.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/In_Waves', 'album_name': 'In Waves', 'artist': 'http://dbpedia.org/resource/Trivium_(band)', 'artist_name': 'Trivium', 'wiki': 'http://en.wikipedia.org/wiki/In_Waves', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'abstract': 'In Waves is the fifth studio album by American heavy metal band Trivium. It was released worldwide on various dates August 2, 2011, and August 9, 2011, through Roadrunner Records and was produced by Colin Richardson and Martyn "Ginge" Ford.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Shogun_(Trivium_album)', 'album_name': 'Shogun (álbum)', 'artist': 'http://dbpedia.org/resource/Trivium_(band)', 'artist_name': 'Trivium', 'wiki': 'http://en.wikipedia.org/wiki/Shogun_(Trivium_album)', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'abstract': 'Shogun (将軍, Shōgun) is the fourth studio album by American heavy metal band Trivium. The album was released worldwide on various dates between September 23, 2008, and October 1, 2008, through Roadrunner Records. It is their last release to feature drummer Travis Smith. Work on the album is noted to have begun with producer Nick Raskulinecz in October 2007, with the band stating that they chose not to work with Jason Suecof again as they wanted to explore new ideas.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Silence_in_the_Snow', 'album_name': 'Silence in the Snow', 'artist': 'http://dbpedia.org/resource/Trivium_(band)', 'artist_name': 'Trivium', 'wiki': 'http://en.wikipedia.org/wiki/Silence_in_the_Snow', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'abstract': 'Silence in the Snow is the seventh studio album by American heavy metal band Trivium. It was released on October 2, 2015, through Roadrunner Records. It is the first and only album to feature third drummer Mat Madiro, who joined the band in May 2014 and before he had departed from the band in December 2015. It is the band\'s only album to date to not feature any harsh vocals. Michael "Elvis" Baskette was hired as the producer whom the band had met while recording In Waves album back in 2011. The band premiered "Silence in the Snow" and "Blind Leading the Blind" on their headlining performance on Bloodstock Open Air. "Blind Leading the Blind" was later released as a single on YouTube August 13, 2015. On August 21, 2015, a music video was released on YouTube for "Blind Leading the Blind". The third single "Until the World Goes Cold" premiered on Octane on August 26, 2015. The music video premiered on YouTube the day after. The single landed on No. 10 at Top 10 Active Rock chart in February 2016, making it first ever Trivium single in the Top 10. On September 25, 2015, a week prior the worldwide release, the entire album (including two bonus tracks) was officially streamed on Octane. Heafy, Beaulieu and Gregoletto were also participating in the radio program, breaking down the meaning of songs and commenting on the songwriting process. The fourth single "Dead and Gone" was released with its music video on March 10, 2016.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/The_Sin_and_the_Sentence', 'album_name': 'The Sin and the Sentence', 'artist': 'http://dbpedia.org/resource/Trivium_(band)', 'artist_name': 'Trivium', 'wiki': 'http://en.wikipedia.org/wiki/The_Sin_and_the_Sentence', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'abstract': 'The Sin and the Sentence is the eighth studio album by American heavy metal band Trivium. It was released on October 20, 2017, through Roadrunner Records and was produced by Josh Wilbur. The album is the first to feature fifth drummer Alex Bent (formerly of Battlecross and currently of Brain Drill and Dragonlord), who replaced drummer Paul Wandtke. With the release of the album\'s title track, this album would also mark the return of frontman Matt Heafy\'s screaming vocals since the band\'s 2013 album Vengeance Falls, which were completely absent from the band\'s previous album Silence in the Snow due to an injury which caused Heafy to blow out his voice. Upon its release, the album received critical acclaim, with the song "Betrayer" being nominated at 61st Annual Grammy Awards in 2019 for Best Metal Performance.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/The_Last_Hero_(album)', 'album_name': 'The Last Hero', 'artist': 'http://dbpedia.org/resource/Alter_Bridge', 'artist_name': 'Alter Bridge', 'wiki': 'http://en.wikipedia.org/wiki/The_Last_Hero_(album)', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'abstract': 'The Last Hero is the fifth studio album by the American rock band Alter Bridge, released on October 7, 2016, by Napalm Records worldwide except in North America, where it was released on the band\'s own vanity label. It was produced by longtime collaborator Michael "Elvis" Baskette. The album\'s first single, "Show Me a Leader", was released digitally and to rock radio on July 26, 2016. On September 8, 2016, "My Champion" was released as the album\'s second single. The album\'s third single, "Poison In Your Veins", was released on June 12, 2017.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Fortress_(Alter_Bridge_album)', 'album_name': 'Fortress (Alter Bridge album)', 'artist': 'http://dbpedia.org/resource/Alter_Bridge', 'artist_name': 'Alter Bridge', 'wiki': 'http://en.wikipedia.org/wiki/Fortress_(Alter_Bridge_album)', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'abstract': 'Fortress is the fourth studio album by the American rock band Alter Bridge, released by Roadrunner Records on September 25, 2013. Michael Baskette, who produced Alter Bridge\'s previous two albums, Blackbird (2007) and AB III (2010), returned as the producer. It was released by Roadrunner Records worldwide except in the United States, where it was self-released on October 8, 2013, through EMI. The lead single, "Addicted to Pain", was released on August 12, 2013. The album was widely acclaimed, with several critics calling it the band\'s best album to date and giving praise to each of the band members\' musical skills displayed on the record.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/AB_III', 'album_name': 'AB III', 'artist': 'http://dbpedia.org/resource/Alter_Bridge', 'artist_name': 'Alter Bridge', 'wiki': 'http://en.wikipedia.org/wiki/AB_III', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'abstract': 'AB III is the third studio album by the rock band Alter Bridge, released on October 8, 2010. Produced by Michael Baskette, the album is a departure from the band\'s first two albums; lyrically, it is a loose concept album dealing with darker lyrical themes of struggling with faith, while musically, the album\'s sound is more dynamic and progressive than previous recordings. AB III is also the first Alter Bridge album to be released on Roadrunner Records, making it the band\'s third consecutive album to be released on a different label. The album was released on Roadrunner Records worldwide except North America, where it was self-released on Alter Bridge Recordings via Capitol Records. The first single off the album, "Isolation", is the band\'s most successful single to date and was released on September 26, 2010, in the United Kingdom and November 9, 2010 in the United States. AB III received acclaim from music critics; for example, Artistdirect called it a "masterpiece". The album was certified Silver by the British Phonographic Industry, the same certification as Alter Bridge\'s 2007 album Blackbird.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Blackbird_(Alter_Bridge_album)', 'album_name': 'Blackbird (álbum)', 'artist': 'http://dbpedia.org/resource/Alter_Bridge', 'artist_name': 'Alter Bridge', 'wiki': 'http://en.wikipedia.org/wiki/Blackbird_(Alter_Bridge_album)', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'abstract': 'Blackbird is the second studio album by American rock band Alter Bridge, released on October 5, 2007. The first single, "Rise Today", was released on July 30, 2007. The album peaked at number 13 on the Billboard 200, selling 47,000 copies in its first week on the charts. As of December 2008, Blackbird has sold 227,000 copies. Despite receiving poor marketing and generally low mainstream success, initial critical reception towards the album was mostly positive, with music critics praising the songwriting and musicianship. The album was certified Silver by the British Phonographic Industry.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/One_Day_Remains', 'album_name': 'One Day Remains', 'artist': 'http://dbpedia.org/resource/Alter_Bridge', 'artist_name': 'Alter Bridge', 'wiki': 'http://en.wikipedia.org/wiki/One_Day_Remains', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'abstract': 'One Day Remains is the debut studio album by the American rock band Alter Bridge, released on August 10, 2004, on Wind-up Records. The album was produced by Ben Grosse, making it the band\'s only album to not be produced by Michael "Elvis" Baskette as of 2020; additionally, it is the only release by the band on which lead singer Myles Kennedy does not play guitar. It has been certified Gold in the United States as of November 2004, with worldwide sales reaching 750,000. It is said the album received its name from the band members\' attitudes that life should be lived as if only one day remains. Guitarist Mark Tremonti also said in an interview that the title is a reference to the title cards that appeared in the 2001 movie Donnie Darko, and it is one of the names the band considered using before settling with Alter Bridge.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Hydrograd', 'album_name': 'Hydrograd', 'artist': 'http://dbpedia.org/resource/Stone_Sour', 'artist_name': 'Stone Sour', 'wiki': 'http://en.wikipedia.org/wiki/Hydrograd', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'abstract': 'Hydrograd is the sixth and most recent studio album by American rock band Stone Sour. Recorded at Sphere Studios in Los Angeles, it is the follow-up to the band\'s 2012–2013 double concept album, House of Gold &amp; Bones Part 1 and 2. It was released worldwide on June 30, 2017 via Roadrunner Records. Hydrograd also had a special album premier with commentary on each song from frontman Corey Taylor on June 29, 2017 on Octane (Sirius XM). Two singles were released in promotion of the album ahead of its release: "Fabuless" and "Song #3". A third single, "Rose Red Violent Blue (This Song Is Dumb &amp; So Am I)", was released on September 13, 2017. On October 24, 2017, Hydrograd won the award for Hard Rock Album of the Year at the Loudwire Music Awards. On April 4, 2018, the album\'s fourth single, “St. Marie” was released. Hydrograd is the first album to be produced without founding guitarist Jim Root, as he departed Stone Sour in 2014 to focus more on his and Corey\'s other band Slipknot. On August 23, 2018, the album\'s fifth single, "Knievel Has Landed" has been released. Hydrograd is the last album before singer Corey Taylor announced that Stone Sour will enter an indefinite hiatus on August 10, 2020.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Judas_(album)', 'album_name': 'Judas (album)', 'artist': 'http://dbpedia.org/resource/Fozzy', 'artist_name': 'Fozzy', 'wiki': 'http://en.wikipedia.org/wiki/Judas_(album)', 'hometown': 'http://dbpedia.org/resource/Atlanta', 'abstract': 'Judas is the seventh studio album by the American heavy metal band Fozzy, released on October 13, 2017 through Century Media Records. The album\'s title track was released as the lead single from the album on May 5, 2017. Ahead of the album release, two additional songs were made available on streaming services: "Drinkin\' with Jesus" on September 15, 2017, and "Painless" on September 29, 2017. The lead single was a minor radio hit, spending 26 weeks on the Mainstream Rock chart and peaking at No. 5. The song also hit No. 1 on the Sirius/XM Octane charts. "Judas" was the official theme song for NXT TakeOver: Chicago and lead singer Chris Jericho uses the song as his entrance theme for his appearances in New Japan Pro-Wrestling and All Elite Wrestling. "Painless" was the official theme song for NXT TakeOver: Chicago II the following year.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/The_Serenity_of_Suffering', 'album_name': 'The Serenity of Suffering', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/The_Serenity_of_Suffering', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': 'The Serenity of Suffering is the twelfth studio album by American nu metal band Korn. It was released on October 21, 2016. According to guitarist Brian Welch, it is "heavier than anyone\'s heard us in a long time" and it contains their most intense vocals and music in recent times.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Heaven_Upside_Down', 'album_name': 'Heaven Upside Down', 'artist': 'http://dbpedia.org/resource/Marilyn_Manson_(band)', 'artist_name': 'Marilyn Manson', 'wiki': 'http://en.wikipedia.org/wiki/Heaven_Upside_Down', 'hometown': 'http://dbpedia.org/resource/Fort_Lauderdale,_Florida', 'abstract': 'Heaven Upside Down is the tenth studio album by American rock band Marilyn Manson. It was released on October 6, 2017 by Loma Vista Recordings and Caroline International. The record had the working title Say10 and was initially due to be issued on Valentine\'s Day. However, the release was delayed by numerous events, most notably the death of Marilyn Manson\'s father Hugh Warner, who died during production and to whom the album was later dedicated. The record features many of the same musicians who performed on the band\'s previous album, The Pale Emperor (2015), including producer Tyler Bates and drummer Gil Sharone. Despite Manson\'s early implications, long-time bassist Twiggy Ramirez did not participate on the album. He left the group following a sexual assault allegation by a former girlfriend. "We Know Where You Fucking Live" was released as a single in September, shortly followed by "Kill4Me", which became the band\'s highest-peaking entry on Billboard\'s Mainstream Rock Chart. The music videos for the album featured celebrities including Johnny Depp, Courtney Love and Lisa Marie Presley. The single "Tattooed in Reverse" also entered Mainstream Rock, making Heaven Upside Down their first album since 1998\'s Mechanical Animals to chart more than one song there. The album received positive reviews from music critics upon release, with multiple publications saying it continued a creative resurgence that began with their previous album. It was also a commercial success, debuting at number eight on the Billboard 200 and charting in the top ten in most of the major markets. In Australia, it was their highest-charting album since Mechanical Animals, and was their first top 10 studio album in the United Kingdom since The Golden Age of Grotesque (2003). Manson suffered several injuries that delayed the Heaven Upside Down Tour. The band embarked on two co-headlining tours with Rob Zombie: Twins of Evil: The Second Coming Tour and Twins of Evil: Hell Never Dies Tour. To promote the former, the two bands collaborated on a cover of the Beatles song "Helter Skelter". Manson issued three other covers on soundtracks during the album\'s promotional cycle: "Stigmata", "God\'s Gonna Cut You Down" and "Cry Little Sister".'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Guitar_Gangsters_&amp;_Cadillac_Blood', 'album_name': 'Guitar Gangsters &amp; Cadillac Blood', 'artist': 'http://dbpedia.org/resource/Volbeat', 'artist_name': 'Volbeat', 'wiki': 'http://en.wikipedia.org/wiki/Guitar_Gangsters_&amp;_Cadillac_Blood', 'hometown': 'http://dbpedia.org/resource/Copenhagen', 'abstract': "Guitar Gangsters &amp; Cadillac Blood is the third studio album by Danish rock band Volbeat, released on 1 September 2008. It reached the #1 position on both the Danish and Finnish album charts, staying on the former for 35 consecutive weeks, while also briefly reappearing on it in 2014. The album also charted highly in several other countries. Guitar Gangsters &amp; Cadillac Blood is the follow-up to Rock the Rebel/Metal the Devil, which achieved platinum status in Denmark, and cemented Volbeat's popularity in Denmark as well as increasing their popularity in nearby countries considerably."}</t>
-  </si>
-  <si>
-    <t>{'album': "http://dbpedia.org/resource/Seal_the_Deal_&amp;_Let's_Boogie", 'album_name': "Seal the Deal &amp; Let's Boogie", 'artist': 'http://dbpedia.org/resource/Volbeat', 'artist_name': 'Volbeat', 'wiki': "http://en.wikipedia.org/wiki/Seal_the_Deal_&amp;_Let's_Boogie", 'hometown': 'http://dbpedia.org/resource/Copenhagen', 'abstract': "Seal the Deal &amp; Let's Boogie is the sixth studio album by Danish rock band Volbeat. The album was released on 3 June 2016. It is the first album not to feature Anders Kjølholm who left in November the previous year."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Beyond_Hell/Above_Heaven', 'album_name': 'Beyond Hell / Above Heaven', 'artist': 'http://dbpedia.org/resource/Volbeat', 'artist_name': 'Volbeat', 'wiki': 'http://en.wikipedia.org/wiki/Beyond_Hell/Above_Heaven', 'hometown': 'http://dbpedia.org/resource/Copenhagen', 'abstract': 'Beyond Hell/Above Heaven is the fourth studio album by Danish rock band Volbeat. The album was released on 10 September 2010 on EMI in Denmark, on Vertigo in the rest of Europe, and on Republic in the United States. The title refers to the overall theme of the album, continuing the storyline of Guitar Gangsters &amp; Cadillac Blood. This was the first Volbeat album to chart on the Billboard 200, and was certified Gold by the RIAA on 22 March 2016.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Faceless', 'album_name': 'Faceless (album)', 'artist': 'http://dbpedia.org/resource/Godsmack', 'artist_name': 'Godsmack', 'wiki': 'http://en.wikipedia.org/wiki/Faceless', 'hometown': 'http://dbpedia.org/resource/Lawrence,_Massachusetts', 'abstract': 'Faceless is the third studio album by American rock band Godsmack. The album introduced drummer Shannon Larkin, former drummer for Ugly Kid Joe. The album was released on April 8, 2003. The songs "I Stand Alone" and "Straight Out of Line" had Grammy nominations for \'Best Rock Song\' and, \'Best Hard Rock Performance\' respectively.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Greatest_Hits_Vol._1_(Korn_album)', 'album_name': 'Greatest Hits, Vol. 1 (альбом Korn)', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Greatest_Hits_Vol._1_(Korn_album)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': 'Greatest Hits Vol. 1 is a compilation album released by American nu metal band Korn in October 2004. The album features select tracks from their first six studio albums presented in reverse chronological order. There are two previously unreleased songs on the compilation: a cover of Cameo\'s "Word Up!" and a compilation of all three parts of Pink Floyd\'s "Another Brick in the Wall" and "Goodbye Cruel World". These were the final songs recorded with their full original lineup, as their former guitarist Brian Welch, who leaves the band shortly after the album\'s release in February the following year, until his return in 2013. Greatest Hits Vol. 1 debuted and peaked at number four on the Billboard 200, achieving a Platinum certification by the RIAA. For unspecified reasons Korn left off three of their hits, "Thoughtless", "No Place to Hide" and "Good God" but included songs "Trash" and "Twist" on the album, though neither were released as singles. The version of "Freak on a Leash" on this album features an extended intro. Because of this, the back cover lists the length of the track as being 4:15 (the length of the album version on Follow the Leader), when the length of the version on this album is 4:27.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Nightmare_(Avenged_Sevenfold_album)', 'album_name': 'Nightmare (album Avenged Sevenfold)', 'artist': 'http://dbpedia.org/resource/Avenged_Sevenfold', 'artist_name': 'Avenged Sevenfold', 'wiki': 'http://en.wikipedia.org/wiki/Nightmare_(Avenged_Sevenfold_album)', 'hometown': 'http://dbpedia.org/resource/Huntington_Beach,_California', 'abstract': 'Nightmare is the fifth studio album by American heavy metal band Avenged Sevenfold. It was released on July 27, 2010 through Warner Bros. Records. It was produced by Mike Elizondo, mixed in New York City by audio engineer Andy Wallace, and mastered by Ted Jensen. Nightmare is Avenged Sevenfold\'s first album recorded without Jimmy "The Rev" Sullivan performing drums on all the songs due to his death in December 2009. However, he did write parts that were used for the final recordings, making this the last album he would write on, The Rev\'s vocals are still on the album as a tribute to him. The rest of the drum tracks were handled by Dream Theater drummer Mike Portnoy, who also played with the band for all their tours through the end of 2010. They then hired drummer Arin Ilejay, who played with the band from 2011 to 2015. The album debuted at number one in the Billboard 200 in the United States and was certified Platinum by the RIAA. As of December 2016, the album has sold 964,000 copies in the United States. The cover of the album features a tribute to Jimmy "The Rev" Sullivan, the tombstone reads "FOREVER" with emphasis on "REV".'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Fallen_(Evanescence_album)', 'album_name': 'Fallen', 'artist': 'http://dbpedia.org/resource/Evanescence', 'artist_name': 'Evanescence', 'wiki': 'http://en.wikipedia.org/wiki/Fallen_(Evanescence_album)', 'hometown': 'http://dbpedia.org/resource/Little_Rock,_Arkansas', 'abstract': 'Fallen is the debut studio album by American rock band Evanescence, released on March 4, 2003, by Wind-up and Epic Records. After releasing several EPs and a demo CD, the group signed to Wind-up in January 2001. Writing songs for Fallen started near the time of the band\'s formation; several of the songs that would feature on the album appeared on the band\'s earlier releases. Fallen was recorded between August and December 2002 in several locations, including Conway Recording Studios in Hollywood, California. This was followed by a two-week period of mixing at Conway Recording Studios in North Hollywood. It is Evanescence\'s only album to feature guitarist Ben Moody, who left the band later in 2003. Fallen is the band\'s most commercially successful album to date, selling over 8 million copies in the United States and over 17 million copies worldwide, making it one of the best-selling albums of the 21st century. It debuted at number seven on the Billboard 200 with 141,000 copies sold in its first week, peaking at number three in June 2003. The album topped the charts in more than ten countries, and has been certified seven-times platinum by the Recording Industry Association of America (RIAA). Fallen received generally positive reviews from music critics. Fallen yielded four singles: "Bring Me to Life", "My Immortal", "Going Under", and "Everybody\'s Fool". "Bring Me to Life" and "My Immortal" charted in over ten countries, including Australia, the United Kingdom, and the United States. The album earned Evanescence five nominations at the 46th Grammy Awards: Album of the Year, Best Rock Album, Best Rock Song, Best Hard Rock Performance, and Best New Artist. The band won in the latter two categories. At the following year\'s ceremony, the album garnered an additional nomination for Best Pop Performance by a Duo or Group with Vocals for "My Immortal". To further promote the album, Evanescence embarked on their first headlining concert tour, the Fallen Tour, in 2004. A live album from this concert was released the same year, titled Anywhere but Home.'}</t>
-  </si>
-  <si>
-    <t>{'album': "http://dbpedia.org/resource/That's_the_Spirit", 'album_name': "That's the Spirit", 'artist': 'http://dbpedia.org/resource/Bring_Me_the_Horizon', 'artist_name': 'Bring Me the Horizon', 'wiki': "http://en.wikipedia.org/wiki/That's_the_Spirit", 'hometown': 'http://dbpedia.org/resource/Sheffield', 'abstract': "That's the Spirit is the fifth studio album by British rock band Bring Me the Horizon. The album was released on 11 September 2015, and marks a departure from the group's metalcore roots, in favour of a less aggressive alternative rock and metal style. The album debuted at number one in Australia and Canada, as well as number two on the UK Albums Chart and the US Billboard 200. The album received universal acclaim from music critics."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Sempiternal_(album)', 'album_name': 'Sempiternal', 'artist': 'http://dbpedia.org/resource/Bring_Me_the_Horizon', 'artist_name': 'Bring Me the Horizon', 'wiki': 'http://en.wikipedia.org/wiki/Sempiternal_(album)', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'abstract': 'Sempiternal is the fourth studio album by British rock band Bring Me the Horizon. It was released on 1 April 2013 worldwide through RCA Records, a subsidiary label of Sony Music, and 2 April 2013 in the United States and Canada through Epitaph Records. It is the first album to feature former Worship keyboardist Jordan Fish and the first with guitarist Lee Malia playing lead and rhythm. Written and recorded throughout 2012, Sempiternal showed the band pull diverse influences from electronic music, ambient music and pop. "Sempiternal" is an archaic English word denoting the concept of "everlasting time" that can never actually come to pass. It stems from the Latin word "sempiternus" (a concatenation of root "semper" and suffix "aeternum"). The album spawned four singles ("Shadow Moses"; "Sleepwalking"; "Go to Hell, for Heaven\'s Sake"; and "Can You Feel My Heart"). The album made its debut at No. 3 on the UK Album Chart and is their second successive album to top the ARIA Charts in Australia. It also managed to reach No. 11 on the US Billboard 200 with 27,522 first week sales, making Sempiternal the band\'s highest charting album in America until That\'s the Spirit debuted at No. 2 in 2015. Upon its release, the album received critical acclaim.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Appeal_to_Reason_(album)', 'album_name': 'Appeal to Reason', 'artist': 'http://dbpedia.org/resource/Rise_Against', 'artist_name': 'Rise Against', 'wiki': 'http://en.wikipedia.org/wiki/Appeal_to_Reason_(album)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': 'Appeal to Reason is the fifth studio album by American rock band Rise Against. It was released on October 7, 2008. A melodic hardcore album, Appeal to Reason marked a musical shift from the gritty punk sound that had previously defined the band\'s career to what some have viewed as a more radio-friendly sound, with greater emphasis on production and bigger, more anthemic choruses. The album\'s lyrics primarily focus on political issues in the United States, such as the Iraq War and the Bush administration. Rise Against began recording Appeal to Reason in January 2008 at the Blasting Room in Fort Collins, Colorado. Producers Bill Stevenson and Jason Livermore incorporated soft tones into many of the songs to elicit a darker feel to the music. It is the band\'s first album with guitarist Zach Blair. Appeal to Reason debuted at number three on the Billboard 200, and was Rise Against\'s highest charting album until the release of Endgame in 2011. The album sold 64,700 copies in its first week of release, and was eventually certified gold by the Recording Industry Association of America, denoting shipments of 500,000 copies. The album produced three singles: "Re-Education (Through Labor)", "Audience of One", and "Savior". All three songs charted highly on the Modern Rock Tracks chart; "Savior" in particular, held the record for the most consecutive weeks spent on both the Hot Rock Songs and Modern Rock Tracks charts, with sixty-three and sixty-five weeks respectively.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Metallica_(album)', 'album_name': 'Metallica (album)', 'artist': 'http://dbpedia.org/resource/Metallica', 'artist_name': 'Metallica', 'wiki': 'http://en.wikipedia.org/wiki/Metallica_(album)', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'abstract': 'Metallica is the fifth studio album by American heavy metal band Metallica. Released on August 12, 1991, by Elektra Records, it is commonly referred to as The Black Album because of its packaging design. Its recording took place at One on One Studios in Los Angeles over an eight-month span that frequently found Metallica at odds with their new producer Bob Rock. The album marked a change in the band\'s music from the thrash metal style of their previous four albums to a slower, heavier, and more refined sound. Metallica promoted Metallica with a series of tours. They also released five singles to promote the album: "Enter Sandman", "The Unforgiven", "Nothing Else Matters", "Wherever I May Roam", and "Sad but True", all of which have been considered to be among the band\'s best-known songs. The song "Don\'t Tread on Me" was also issued to rock radio shortly after the album\'s release but did not receive a commercial single release. Metallica received widespread critical acclaim and became the band\'s best-selling album. It debuted at number one in ten countries and spent four consecutive weeks at the top of the Billboard 200, making it Metallica\'s first album to top the album charts. Metallica is one of the best-selling albums worldwide, and also one of the best-selling albums in the United States since Nielsen SoundScan tracking began. The album was certified 16× platinum by the Recording Industry Association of America (RIAA) in 2012, and has sold over sixteen million copies in the United States, being the first album in the SoundScan era to do so. Metallica played Metallica in its entirety during the 2012 European Black Album Tour. In 2020, the album was ranked number 235 on Rolling Stone\'s The 500 Greatest Albums of All Time list. In December 2019, Metallica became the fourth release in American history to enter the 550-week milestone on the Billboard 200. It also became the second longest-charting traditional title in history, and the second to spend 550 weeks on the album charts.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Infest_(album)', 'album_name': 'Infest (album)', 'artist': 'http://dbpedia.org/resource/Papa_Roach', 'artist_name': 'Papa Roach', 'wiki': 'http://en.wikipedia.org/wiki/Infest_(album)', 'hometown': 'http://dbpedia.org/resource/Vacaville,_California', 'abstract': 'Infest is the second studio album and major-label debut by the American rock band Papa Roach. It was released on April 25, 2000, through DreamWorks Records, and became the 20th highest-selling album of 2000 in the United States. The sound of the album is nu metal and rap metal. Many of the album songs contains rapping and hip hop influences. It was certified 3× Platinum in the U.S. on July 18, 2001, and peaked at No. 5 on the Billboard 200 chart. This album earned the band a Grammy nomination for Best New Artist. It is their best-selling album to date. Papa Roach got together and performed the album live in studio to stream worldwide on June 20, 2020. The whole performance was released on YouTube on September 15, 2020.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Awake_and_Remixed_EP', 'album_name': 'Awake and Remixed EP', 'artist': 'http://dbpedia.org/resource/Skillet_(band)', 'artist_name': 'Skillet', 'wiki': 'http://en.wikipedia.org/wiki/Awake_and_Remixed_EP', 'hometown': 'http://dbpedia.org/resource/Memphis,_Tennessee', 'abstract': 'Awake and Remixed EP is the EP album from the Christian rock band Skillet. All songs are remixed versions from their previous album, Awake. It was released on March 22, 2011 and debuted at No. 98 on the Billboard 200.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Unleashed_(Skillet_album)', 'album_name': 'Unleashed (album, Skillet)', 'artist': 'http://dbpedia.org/resource/Skillet_(band)', 'artist_name': 'Skillet', 'wiki': 'http://en.wikipedia.org/wiki/Unleashed_(Skillet_album)', 'hometown': 'http://dbpedia.org/resource/Memphis,_Tennessee', 'abstract': 'Unleashed is the ninth studio album by American Christian rock band Skillet, released on August 5, 2016. The album was announced on May 20, 2016, and a lyric video was released for the track "Feel Invincible" at the same time on the band\'s YouTube channel. Six days later, the band released a lyric video for the track "Stars" on their YouTube channel. The album was certified gold on December 4, 2018, selling 500,000 copies.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Crooked_Teeth_(album)', 'album_name': 'Crooked Teeth', 'artist': 'http://dbpedia.org/resource/Papa_Roach', 'artist_name': 'Papa Roach', 'wiki': 'http://en.wikipedia.org/wiki/Crooked_Teeth_(album)', 'hometown': 'http://dbpedia.org/resource/Vacaville,_California', 'abstract': 'Crooked Teeth is the ninth studio album by American rock band Papa Roach. It was released on May 19, 2017 through Eleven Seven Music. Crooked Teeth debuted at number 20 in the US and UK.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Getting_Away_with_Murder_(album)', 'album_name': 'Getting Away with Murder (album)', 'artist': 'http://dbpedia.org/resource/Papa_Roach', 'artist_name': 'Papa Roach', 'wiki': 'http://en.wikipedia.org/wiki/Getting_Away_with_Murder_(album)', 'hometown': 'http://dbpedia.org/resource/Vacaville,_California', 'abstract': "Getting Away with Murder is the fourth and third major-label album by the American rock band Papa Roach. The album was a departure from the band's previous works, showcasing an alternative rock and hard rock sound instead of a nu metal and rap metal sound. Unlike their previous albums, the album features no rapping and instead only features Jacoby Shaddix singing. It was released on August 31, 2004 via Geffen Records and has been certified Gold in Canada and Platinum in America. Getting Away with Murder peaked at number 17 on the Billboard 200."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/The_Oracle_(Godsmack_album)', 'album_name': 'The Oracle', 'artist': 'http://dbpedia.org/resource/Godsmack', 'artist_name': 'Godsmack', 'wiki': 'http://en.wikipedia.org/wiki/The_Oracle_(Godsmack_album)', 'hometown': 'http://dbpedia.org/resource/Lawrence,_Massachusetts', 'abstract': "The Oracle is the fifth studio album by American rock band Godsmack, released in the United States on May 4, 2010. It is the first Godsmack album to be produced by Dave Fortman. The Oracle marks the first Godsmack studio album to be released since 2006's IV. The span of over four years between the fourth album and The Oracle marks the longest gap between studio albums in Godsmack's career. It received generally favorable critical reviews and became the band's third consecutive album to reach number one on the Billboard 200."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Scars_&amp;_Souvenirs', 'album_name': 'Scars &amp; Souvenirs', 'artist': 'http://dbpedia.org/resource/Theory_of_a_Deadman', 'artist_name': 'Theory of a Deadman', 'wiki': 'http://en.wikipedia.org/wiki/Scars_&amp;_Souvenirs', 'hometown': 'http://dbpedia.org/resource/North_Delta', 'abstract': 'Scars &amp; Souvenirs is the third album by Canadian rock band Theory of a Deadman, and was released on April 1, 2008. It has so far been the band\'s most successful album to date and has spawned many hit singles. A special edition CD/DVD of the album was released on October 20, 2009. It features bonus and acoustic tracks (some were released on the iTunes version of the album), the band\'s entire video catalog, and numerous making-of and behind-the-scenes features. Bonus video includes "Haciendas," Tyler\'s special send-up of MTV\'s Cribs.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Welcome_to_the_Masquerade', 'album_name': 'Welcome to the Masquerade', 'artist': 'http://dbpedia.org/resource/Thousand_Foot_Krutch', 'artist_name': 'Thousand Foot Krutch', 'wiki': 'http://en.wikipedia.org/wiki/Welcome_to_the_Masquerade', 'hometown': 'http://dbpedia.org/resource/Peterborough,_Ontario', 'abstract': 'Welcome to the Masquerade is the fifth studio album by Canadian Christian hard rock band Thousand Foot Krutch. It was released on September 8, 2009. Trevor McNevan, the band\'s frontman, has stated, "Yeah, I think the new record is definitely more aggressive. In some areas, it\'s the heaviest we\'ve ever been." The album entered the Billboard 200 at No. 35 and the Christian Album charts at No. 2.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Avenged_Sevenfold_(album)', 'album_name': 'Avenged Sevenfold (àlbum)', 'artist': 'http://dbpedia.org/resource/Avenged_Sevenfold', 'artist_name': 'Avenged Sevenfold', 'wiki': 'http://en.wikipedia.org/wiki/Avenged_Sevenfold_(album)', 'hometown': 'http://dbpedia.org/resource/Huntington_Beach,_California', 'abstract': 'Avenged Sevenfold (also known as The White Album) is the fourth studio album by American heavy metal band Avenged Sevenfold, released on October 30, 2007, through Warner Bros. and Hopeless Records. It is their last studio album to fully feature drummer The Rev, who died in December 2009 during the production of the follow-up album, Nightmare. Originally slated for an October 16 release, it was delayed by two weeks in order to provide more time to complete bonus material and production for the record. The album debuted at number 4 on the Billboard 200. On May 4, 2021, it was certified platinum by the Recording Industry Association of America (RIAA). The band supported the album with a tour, beginning a day before the release of the album and ending in 2009. Although critical reception to the album was mixed compared to previous releases, Avenged Sevenfold won the Kerrang! Award for Best Album in 2008. In addition, the album was included in Kerrang!\'s "666 Albums You Must Hear Before You Die". As of 2014, it has sold over 960,161 copies in the United States and 152,123 copies in the United Kingdom.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Best_of_Puddle_of_Mudd', 'album_name': 'Best of Puddle of Mudd', 'artist': 'http://dbpedia.org/resource/Puddle_of_Mudd', 'artist_name': 'Puddle of Mudd', 'wiki': 'http://en.wikipedia.org/wiki/Best_of_Puddle_of_Mudd', 'hometown': 'http://dbpedia.org/resource/Kansas_City,_Missouri', 'abstract': 'Best of Puddle of Mudd is the first "best of" collection from the band Puddle of Mudd. It was released on November 2, 2010 as part of Universal Music Enterprises\'s "Icon" Series of Compilation Albums. It contains tracks from their first four major label albums, plus "Bleed" from The Punisher soundtrack.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Back_into_Your_System', 'album_name': 'Back into Your System', 'artist': 'http://dbpedia.org/resource/Saliva_(band)', 'artist_name': 'Saliva', 'wiki': 'http://en.wikipedia.org/wiki/Back_into_Your_System', 'hometown': 'http://dbpedia.org/resource/Bartlett,_Tennessee', 'abstract': 'Back into Your System is the third studio album by American rock band Saliva. It reached number 19 on the Billboard 200 and was certified Gold by the Recording Industry Association of America (RIAA) since its release. Back into Your System spawned its first single, "Always" in late 2002 and reached number 51 on the Billboard Hot 100 and number 1 on the Modern Rock Tracks chart. Its second single was "Rest In Pieces" making several Billboard charts in 2003 and later launching their third single "Raise Up", reaching number 29 on the Mainstream Rock chart.'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Huntington Beach, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dwyer_Middle_School', 'place': 'http://sws.geonames.org/5358705/', 'postal_code': '92648', 'geo_link': 'http://www.geonames.org/5346952/ethel-dwyer-middle-school.html', 'lat': '33.69277777777778', 'long': '-118.00027777777778', 'population': '189992'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Arlington, Texas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Arlington%2C_Texas', 'place': 'http://sws.geonames.org/4671240/', 'postal_code': '76015', 'geo_link': 'http://www.geonames.org/4671240/arlington.html', 'lat': '32.705', 'long': '-97.12277777777778', 'population': '365438'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Glendale, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Glendale%2C_California', 'place': 'http://sws.geonames.org/5352423/', 'postal_code': '91208', 'geo_link': 'http://www.geonames.org/5352423/glendale.html', 'lat': '34.14611111111111', 'long': '-118.255', 'population': '191719'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Minas Gerais', 'country_code': 'BR', 'wiki': 'http://en.wikipedia.org/wiki/Minas_Gerais', 'place': 'http://sws.geonames.org/3457153/', 'geo_link': 'http://www.geonames.org/3457153/minas-gerais.html', 'lat': '-18', 'long': '-43.95', 'population': '19595309'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Chicago', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Chicago', 'place': 'http://sws.geonames.org/4887398/', 'postal_code': '60633', 'geo_link': 'http://www.geonames.org/4887398/chicago.html', 'lat': '41.83694444444444', 'long': '-87.68472222222222', 'population': '2695598'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Lawrence, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Lawrence%2C_Massachusetts', 'place': 'http://sws.geonames.org/4941720/', 'postal_code': '01841', 'geo_link': 'http://www.geonames.org/4941720/lawrence.html', 'lat': '42.706944444444446', 'long': '-71.16361111111111', 'population': '76377'}</t>
+    <t>{'album': 'http://dbpedia.org/resource/Youthquake_(album)', 'album_name': 'Youthquake', 'artist': 'http://dbpedia.org/resource/Dead_or_Alive_(band)', 'artist_name': 'Dead or Alive', 'wiki': 'http://en.wikipedia.org/wiki/Youthquake_(album)', 'hometown': 'http://dbpedia.org/resource/Liverpool', 'abstract': 'Youthquake is the second album by the British pop group Dead or Alive, released in May 1985. The album was their commercial breakthrough in Europe and the United States, due to the lead single "You Spin Me Round (Like a Record)", which was a UK number-one hit and a top 20 hit in the United States. Additional single releases from the album included "Lover Come Back to Me", "In Too Deep" and "My Heart Goes Bang (Get Me to the Doctor)". This was Dead or Alive\'s first collaboration with the Stock Aitken Waterman production team. Youthquake was re-released in the UK on compact disc in 1994, with the two bonus tracks that were previously included on the original CD and cassette versions of the album. Recent US and Japanese reissues have reverted to the original vinyl track listing. The album peaked at No. 9 in the UK and was certified Gold by the BPI for sales of over 100,000 copies. It also peaked at No. 31 in the US and was certified Gold by the RIAA for sales over 500,000.In Canada the album peaked at No. 8 and was certified platinum. The album cover was taken by fashion photographer Mario Testino.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/One_Hot_Minute', 'album_name': 'One Hot Minute', 'artist': 'http://dbpedia.org/resource/Red_Hot_Chili_Peppers', 'artist_name': 'Red Hot Chili Peppers', 'wiki': 'http://en.wikipedia.org/wiki/One_Hot_Minute', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': 'One Hot Minute is the sixth studio album by American rock band Red Hot Chili Peppers, released on September 12, 1995 by Warner Bros. Records. The worldwide success of the band\'s previous album Blood Sugar Sex Magik (1991) caused guitarist John Frusciante to become uncomfortable with their popularity, eventually quitting mid-tour in 1992. Vocalist Anthony Kiedis, who had resumed addictions to cocaine and heroin in 1994 after being sober for more than five years, approached his lyricism with a reflective outlook on drugs and their harsh effects. It is the only studio album to feature Dave Navarro as the band\'s guitarist; Navarro joined the band in 1993 after a series of short-term replacements for Frusciante. The album was produced by Rick Rubin, who had also produced the band\'s previous album. One Hot Minute sold more than two million copies and was certified multi-platinum, and reached number four on the US Billboard 200. It also spawned three hit singles: "Warped", "My Friends" and "Aeroplane". Nevertheless, it was considered a commercial disappointment, because it sold fewer than half as many copies as Blood Sugar Sex Magik and received much less acclaim. Navarro was fired in 1998 due to his drug use.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Sheryl_Crow_(album)', 'album_name': 'Sheryl Crow', 'artist': 'http://dbpedia.org/resource/Sheryl_Crow', 'artist_name': 'Sheryl Crow', 'wiki': 'http://en.wikipedia.org/wiki/Sheryl_Crow_(album)', 'abstract': 'Sheryl Crow is the second studio album by American singer Sheryl Crow, released on September 24, 1996 by A&amp;M Records. Unlike its predecessor Tuesday Night Music Club, which was written by a casual collective formed by Crow and several other musicians, Sheryl Crow was entirely produced by Crow, who wrote most of the songs alone or with only one collaborator. Most of the album was recorded at Kingsway Studios in New Orleans, Louisiana. The album covers topics of American life, relationship breakups, and moral and ethical issues, while encompassing a variety of music genres such as rock, blues, alternative rock, country, and folk. Sheryl Crow was a commercial success, being certified 3× platinum by the RIAA and 3× platinum by the BPI. It also reached No. 6 on the US Billboard Top 200 chart and produced five singles, including the international hit "If It Makes You Happy". The album received very positive reviews from critics, who praised its intricate production and Crow\'s louder and more assured singing. At the 39th Annual Grammy Awards, the album was awarded Best Rock Album and Crow received the Best Female Rock Vocal Performance award for "If It Makes You Happy". Retrospectively, it is often regarded as Crow\'s best album.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Synchronicity_(The_Police_album)', 'album_name': 'Synchronicity', 'artist': 'http://dbpedia.org/resource/The_Police', 'artist_name': 'The Police', 'wiki': 'http://en.wikipedia.org/wiki/Synchronicity_(The_Police_album)', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': 'Synchronicity is the fifth and final studio album by English rock band the Police, released on 17 June 1983 by A&amp;M Records. The band\'s most successful release, the album includes the hit singles "Every Breath You Take", "King of Pain", "Wrapped Around Your Finger", and "Synchronicity II". The album\'s title and much of the material for the songs were inspired by Arthur Koestler\'s The Roots of Coincidence. At the 1984 Grammy Awards the album was nominated for a total of five awards, including Album of the Year, and won three. At the time of its release and following its tour, the Police\'s popularity was at such a high that they were arguably, according to BBC and The Guardian, the "biggest band in the world". Synchronicity reached number one on both the UK Albums Chart and the US Billboard 200, and sold over eight million copies in the US. The album was widely acclaimed by critics. Praise centred on its cohesive merging of disparate genres and sonic experimentation. Rolling Stone described "each cut on Synchronicity [as] not simply a song but a miniature, discrete soundtrack". It has since been included in the magazine\'s lists of the "100 Best Albums of the Eighties" and the "500 Greatest Albums of All Time". In 2009, Synchronicity was inducted into the Grammy Hall of Fame.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Nena_feat._Nena', 'album_name': 'Nena feat. Nena', 'artist': 'http://dbpedia.org/resource/Nena', 'artist_name': 'Nena', 'wiki': 'http://en.wikipedia.org/wiki/Nena_feat._Nena', 'abstract': 'Nena feat. Nena, also known as 20 Jahre – Das Jubiläums-Album (20 Years – The Anniversary Album) is a studio album by German pop singer Nena. It contains new versions of her hits, some of them are duets with other singers, including Kim Wilde, Joachim Witt and Udo Lindenberg. The album was first released in 2002 with a red cover and reissued with a blue cover in 2003. Both releases exist in either standard or limited edition, the latter being supplemented with a bonus CD of live tracks. The songs on the bonus CD are also reworked, suggesting that Nena may have planned to update more of her back-catalogue, although there have been no further releases in this vein.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Out_of_the_Cellar', 'album_name': 'Out of the Cellar', 'artist': 'http://dbpedia.org/resource/Ratt', 'artist_name': 'Ratt', 'wiki': 'http://en.wikipedia.org/wiki/Out_of_the_Cellar', 'hometown': 'http://dbpedia.org/resource/San_Diego,__California', 'abstract': 'Out of the Cellar is the debut studio album by American glam metal band Ratt. Released in 1984, it was an immediate success, with wide airplay on radio and heavy rotation on MTV of its singles, especially the major hit "Round and Round". The album is certified as triple platinum by the RIAA. The album brought Ratt to the top of the glam metal scene in Los Angeles. Ratt\'s later work would never surpass the success of Out of the Cellar. According to interviews with Beau Hill that were shot for the film Hair I Go Again, Tom Allom was originally slated to produce the record, before the novice Hill was brought in.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Fame', 'album_name': 'The Fame', 'artist': 'http://dbpedia.org/resource/Lady_Gaga', 'artist_name': 'Lady Gaga', 'wiki': 'http://en.wikipedia.org/wiki/The_Fame', 'abstract': 'The Fame is the debut studio album by American singer Lady Gaga. It was released on August 19, 2008, by Interscope Records. After joining Kon Live Distribution and Cherrytree Records in 2008, Gaga began working on the album with different producers, primarily RedOne, Martin Kierszenbaum, and Rob Fusari. Musically, The Fame is an electropop, synth-pop, and dance-pop album that displays influences from 1980s music. Lyrically, it visualizes Gaga\'s love of fame in general, while also dealing with subjects such as love, sex, money, drugs, and sexual identity. The album was primarily promoted through The Fame Ball Tour and multiple television appearances, and was reissued as a deluxe edition with The Fame Monster on November 18, 2009. The album received generally favorable reviews from critics, who commended its lyrical content, Gaga\'s musicianship and vocal ability. It was a commercial success, topping the charts in several countries including the United Kingdom, Canada, Germany, Ireland, Poland, and Switzerland. In the United States, it peaked at number two on the Billboard 200, and also topped the Dance/Electronic Albums chart for 150 non-consecutive weeks, the most time on top in history. The Fame became the fifth best-selling album of 2009, and has sold over 4.9 million copies in the United States as of January 2019. Combined with The Fame Monster, the album had sold over 18 million copies worldwide as of August 2019. Gaga promoted the album with many television performances, award shows and also in her first headlining tour, The Fame Ball Tour in 2009. The first two singles "Just Dance" and "Poker Face" gained international success, topping the charts in several countries worldwide including the United States, the United Kingdom, and Australia. The subsequent singles "LoveGame" and "Paparazzi" were commercial successes as well, charting within the top-ten of over ten countries worldwide. "Eh, Eh (Nothing Else I Can Say)" had a limited single release, while "Beautiful, Dirty, Rich" and "Boys Boys Boys" served as promotional singles. The Fame has won multiple awards since its release. In the United States, the album was nominated for a total of five Grammy Awards at the 52nd Grammy Awards, including the Grammy Award for Album of the Year. It won the Grammy Award for Best Electronic/Dance Album and the Grammy Award for Best Dance Recording for the single "Poker Face", and also won Best International Album at the 2010 Brit Awards. In 2013, Rolling Stone named The Fame as one of the "100 Greatest Debut Albums of All-Time". As of 2018, it is the 12th biggest album of all time on the Billboard 200 in the United States.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Heartbreak_Weather', 'album_name': 'Heartbreak Weather', 'artist': 'http://dbpedia.org/resource/Niall_Horan', 'artist_name': 'Niall Horan', 'wiki': 'http://en.wikipedia.org/wiki/Heartbreak_Weather', 'abstract': 'Heartbreak Weather is the second studio album by Irish singer Niall Horan. It was released through Capitol Records on 13 March 2020, three years after its predecessor Flicker. It was promoted with four singles: "Nice to Meet Ya", "Put a Little Love on Me", "No Judgement" and "Black and White". On the Billboard 200 chart, Heartbreak Weather debuted at number 4, marking Horan\'s second top-10 album in the United States. The album also debuted at number 1 on the Irish and UK album charts, marking Horan\'s first UK number one album as a solo artist.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/A_Collection_of_Great_Dance_Songs', 'album_name': 'A Collection of Great Dance Songs', 'artist': 'http://dbpedia.org/resource/Pink_Floyd', 'artist_name': 'Pink Floyd', 'wiki': 'http://en.wikipedia.org/wiki/A_Collection_of_Great_Dance_Songs', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': 'A Collection of Great Dance Songs is a compilation album by English rock band Pink Floyd. It was released on 23 November 1981 in the United Kingdom by Harvest Records and in the United States by Columbia Records.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/A_Little_Bit_of_Mambo', 'album_name': 'A Little Bit of Mambo', 'artist': 'http://dbpedia.org/resource/Lou_Bega', 'artist_name': 'Lou Bega', 'wiki': 'http://en.wikipedia.org/wiki/A_Little_Bit_of_Mambo', 'abstract': 'A Little Bit of Mambo is the debut album by Lou Bega released in 1999, propelled by the success of the single "Mambo No. 5 (A Little Bit of...)".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Moving_Pictures_(Rush_album)', 'album_name': 'Moving Pictures (album)', 'artist': 'http://dbpedia.org/resource/Rush_(band)', 'artist_name': 'Rush', 'wiki': 'http://en.wikipedia.org/wiki/Moving_Pictures_(Rush_album)', 'hometown': 'http://dbpedia.org/resource/Ontario', 'abstract': 'Moving Pictures is the eighth studio album by Canadian progressive rock band Rush, released on February 12, 1981 through Anthem Records. After touring to support their previous album, Permanent Waves (1980), the band started to write and record new material in August 1980 with co-producer Terry Brown. They continued to write songs with a more radio-friendly format, featuring tighter song structures and songs of shorter length compared to their earlier albums. Moving Pictures received a positive reception from current and retrospective music critics and became an instant commercial success, reaching number one in Canada and number 3 in both the United States and the United Kingdom. It remains Rush\'s highest-selling album in the United States, with 5 million copies sold. "Limelight", "Tom Sawyer" and "Vital Signs" were released as singles across 1981, and the instrumental "YYZ" was nominated for a Grammy Award for Best Rock Instrumental Performance. Rush auditioned some of the songs on a tour before recording the album (September 11 to October 1, 1980), and supported the album on tour from February to July 1981.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Shaman_(album)', 'album_name': 'Shaman (Album)', 'artist': 'http://dbpedia.org/resource/Santana_(band)', 'artist_name': 'Santana', 'wiki': 'http://en.wikipedia.org/wiki/Shaman_(album)', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': 'Shaman is the nineteenth studio album by Santana. Shaman was released on October 22, 2002, and debuted at number 1 on the Billboard 200 with first week sales of 298,973. It was certified Double Platinum by the RIAA and Gold in Greece. The first single of the album was "The Game of Love", featuring Michelle Branch. "Why Don\'t You &amp; I", featuring Chad Kroeger of Nickelback, was also re-recorded as a single in 2003, which featured Alex Band of The Calling. Like the previous album, Supernatural, Shaman features various famous rock, hip hop, and pop artists, as well as Spanish opera star, Plácido Domingo. The album is Santana\'s longest studio release to date.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/24K_Magic_(album)', 'album_name': '24K Magic (album)', 'artist': 'http://dbpedia.org/resource/Bruno_Mars', 'artist_name': 'Bruno Mars', 'wiki': 'http://en.wikipedia.org/wiki/24K_Magic_(album)', 'abstract': '24K Magic (stylized as XXIVK Magic) is the third studio album recorded by American singer and songwriter Bruno Mars. It was released by Atlantic Records on November 18, 2016. Mars reunited with Philip Lawrence and Christopher Brody Brown, who composed the album under their joint alias Shampoo Press &amp; Curl. Mars enlisted new composers including the Stereotypes and James Fauntleroy. Recording sessions for 24K Magic took place between late 2015 and September 2016 at Glenwood Place Studios in Burbank, California. Several critics said 24K Magic was crafted from elements of R&amp;B, soul, funk, pop and new jack swing. Mars was inspired to create an album on which he could capture the sound of 1990s R&amp;B, that he listened and danced to during his childhood. He wanted to make people dance and have the same enjoyment he had. The lyrics of 24K Magic explore themes similar to those of its predecessor, Unorthodox Jukebox (2012), including money and sex. According to Mars, although he was able to convince Atlantic Records of the album\'s sound, they were initially hesitant. 24K Magic debuted at number two on the Billboard 200 chart with first-week sales of 231,000 equivalent album units and became Mars\'s first number-one album on the US Top R&amp;B/Hip-Hop Albums. It also peaked at number two in Canada, France and New Zealand, and produced five singles: "24K Magic", "That\'s What I Like", and "Finesse" (remix featuring Cardi B), which were commercially successful while "Versace on the Floor" charted moderately in various countries and "Chunky" had a limited release. "That\'s What I Like" reached number one on the Billboard Hot 100, becoming Mars\'s seventh number-one song on the US. The album was certified triple platinum by the Recording Industry Association of America (RIAA) and Recorded Music NZ (RMNZ), as well as triple platinum by Music Canada (MC) and Syndicat National de l\'Édition Phonographique (SNEP). Critical responses to 24K Magic were generally favorable; many reviewers noticed the change of style, focusing on contemporary R&amp;B and the improvement on the production. Others criticized the detachment from the casual listener and the lack of "vulnerability" from his previous ballads. At the 2018 Grammy Awards 24K Magic won seven Grammy Awards, including Album of the Year and Best R&amp;B Album, whilst the title track won Record of the Year and "That\'s What I Like" won Song of The Year at the same ceremony. Several publications listed the album as one of the best records of the year and the Associated Press named it as the tenth-best album of the 2010s. The album was also promoted through the 24K Magic World Tour (2017–2018).'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Blondie_4(0)_Ever', 'album_name': 'Blondie 4(0) Ever', 'artist': 'http://dbpedia.org/resource/Blondie_(band)', 'artist_name': 'Blondie', 'wiki': 'http://en.wikipedia.org/wiki/Blondie_4(0)_Ever', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'abstract': 'Blondie 4(0) Ever is a double album by American rock band Blondie. It was released on May 12, 2014, by Noble ID in celebration of the band\'s 40th anniversary. The two-disc package consists of Greatest Hits Deluxe Redux, a collection of re-recordings of Blondie\'s past singles, and the band\'s tenth studio album, Ghosts of Download. The latter spawned three singles: "A Rose by Any Name", "Sugar on the Side", and "I Want to Drag You Around".'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'New South Wales', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/New_South_Wales', 'place': 'http://sws.geonames.org/2155400/', 'geo_link': 'http://www.geonames.org/2155400/state-of-new-south-wales.html', 'lat': '32.16166666666667', 'long': '146', 'population': '6917658'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Brooklyn', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Brooklyn', 'place': 'http://sws.geonames.org/6941775/', 'postal_code': '11217', 'geo_link': 'http://www.geonames.org/5110302/brooklyn.html', 'lat': '40.69277777777778', 'long': '-73.99027777777778', 'population': '2300664'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Vacaville, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Vacaville%2C_California', 'place': 'http://sws.geonames.org/5405228/', 'postal_code': '95688', 'geo_link': 'http://www.geonames.org/5405228/vacaville.html', 'lat': '38.35388888888889', 'long': '-121.97277777777778', 'population': '92428'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Ukiah, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Ukiah%2C_California', 'place': 'http://sws.geonames.org/5404476/', 'postal_code': '95482', 'geo_link': 'http://www.geonames.org/5404476/ukiah.html', 'lat': '39.15027777777778', 'long': '-123.20777777777778', 'population': '16075'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sheffield', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Sheffield', 'place': 'http://sws.geonames.org/3333193/', 'geo_link': 'http://www.geonames.org/2638077/sheffield.html', 'lat': '53.38361111111111', 'long': '-1.4669444444444444', 'population': '447047'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'York, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/York%2C_Pennsylvania', 'place': 'http://sws.geonames.org/4562407/', 'postal_code': '17402', 'geo_link': 'http://www.geonames.org/4562407/york.html', 'lat': '39.96277777777778', 'long': '-76.72805555555556', 'population': '43718'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Finland', 'country_code': 'FI', 'wiki': 'http://en.wikipedia.org/wiki/Finland', 'place': 'http://sws.geonames.org/660013/', 'geo_link': 'http://www.geonames.org/660013/republic-of-finland.html', 'lat': '64', 'long': '26', 'population': '5244000'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Portland, Oregon', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9F%D0%BE%D1%80%D1%82%D0%BB%D0%B5%D0%BD%D0%B4', 'place': 'http://sws.geonames.org/5746545/', 'postal_code': '97217', 'geo_link': 'http://www.geonames.org/5746545/portland.html', 'lat': '45.52', 'long': '-122.68194444444444', 'population': '583776'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Garden Grove, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Garden_Grove%2C_California', 'place': 'http://sws.geonames.org/5351515/', 'postal_code': '92844', 'geo_link': 'http://www.geonames.org/5351515/garden-grove.html', 'lat': '33.778888888888886', 'long': '-117.96027777777778', 'population': '170883'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Atlanta', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Atlanta', 'place': 'http://sws.geonames.org/4180439/', 'postal_code': '30305', 'geo_link': 'http://www.geonames.org/4180439/atlanta.html', 'lat': '33.755', 'long': '-84.39', 'population': '420003'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Orlando, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Orlando%2C_Florida', 'place': 'http://sws.geonames.org/4167147/', 'postal_code': '32832', 'geo_link': 'http://www.geonames.org/4167147/orlando.html', 'lat': '28.41583333333333', 'long': '-81.29888888888888', 'population': '238300'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Bakersfield, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bakersfield%2C_California', 'place': 'http://sws.geonames.org/5325738/', 'postal_code': '93308', 'geo_link': 'http://www.geonames.org/5325738/bakersfield.html', 'lat': '35.36666666666667', 'long': '-119.01666666666667', 'population': '347483'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Perth', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Perth', 'place': 'http://sws.geonames.org/2063523/', 'geo_link': 'http://www.geonames.org/2063523/perth.html', 'lat': '31.952222222222222', 'long': '115.85888888888888', 'population': '1896548'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Las Vegas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Las_Vegas', 'place': 'http://sws.geonames.org/5506956/', 'postal_code': '89106', 'geo_link': 'http://www.geonames.org/5506956/las-vegas.html', 'lat': '36.175', 'long': '-115.13638888888889', 'population': '583756'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'England', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/England', 'place': 'http://sws.geonames.org/6269131/', 'geo_link': 'http://www.geonames.org/6269131/england.html', 'lat': '51.5', 'long': '-0.11666666666666667', 'population': '50000000'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Glasgow', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Glasgow', 'place': 'http://sws.geonames.org/3333231/', 'geo_link': 'http://www.geonames.org/2648579/glasgow.html', 'lat': '55.858', 'long': '-4.259', 'population': '610268'}</t>
   </si>
   <si>
     <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Landes (department)', 'country_code': 'FR', 'wiki': 'http://en.wikipedia.org/wiki/Landes_(department)', 'place': 'http://sws.geonames.org/3007866/', 'geo_link': 'http://www.geonames.org/3007866/departement-des-landes.html', 'lat': '44', 'long': '-0.8333333333333334', 'population': '392592'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Linköping', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Link%C3%B6ping', 'place': 'http://sws.geonames.org/2694762/', 'geo_link': 'http://www.geonames.org/2694762/linkoeping.html', 'lat': '58.41583333333333', 'long': '15.625277777777777', 'population': '96732'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Berlin', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Berlin', 'place': 'http://sws.geonames.org/6547383/', 'postal_code': '10967', 'geo_link': 'http://www.geonames.org/2950157/land-berlin.html', 'lat': '52.5', 'long': '13.145833333333334', 'population': '3426354'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Peoria, Illinois', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Peoria%2C_Illinois', 'place': 'http://sws.geonames.org/4905687/', 'postal_code': '61638', 'geo_link': 'http://www.geonames.org/4905687/peoria.html', 'lat': '40.72083333333333', 'long': '-89.60944444444445', 'population': '115007'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sacramento, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A2%D0%B0%D0%B8%D0%BD%D1%81%D1%82%D0%B2%D0%BE', 'place': 'http://sws.geonames.org/5389489/', 'postal_code': '94258', 'geo_link': 'http://www.geonames.org/5389489/sacramento.html', 'lat': '38.55555555555556', 'long': '-121.46888888888888', 'population': '466488'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bridgeport, Connecticut', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bridgeport%2C_Connecticut', 'place': 'http://sws.geonames.org/5282804/', 'postal_code': '06610', 'geo_link': 'http://www.geonames.org/5282804/bridgeport.html', 'lat': '41.18638888888889', 'long': '-73.19555555555556', 'population': '144229'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Atlanta', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Atlanta', 'place': 'http://sws.geonames.org/4180439/', 'postal_code': '30305', 'geo_link': 'http://www.geonames.org/4180439/atlanta.html', 'lat': '33.755', 'long': '-84.39', 'population': '420003'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Fort Lauderdale, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Fort_Lauderdale%2C_Florida', 'place': 'http://sws.geonames.org/4155966/', 'postal_code': '33320', 'geo_link': 'http://www.geonames.org/4155966/fort-lauderdale.html', 'lat': '26.133333333333333', 'long': '-80.15', 'population': '165521'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Westfield, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Westfield%2C_Massachusetts', 'place': 'http://sws.geonames.org/4955190/', 'postal_code': '01085', 'geo_link': 'http://www.geonames.org/4955190/westfield.html', 'lat': '42.125', 'long': '-72.75', 'population': '41094'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Orlando, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Orlando%2C_Florida', 'place': 'http://sws.geonames.org/4167147/', 'postal_code': '32832', 'geo_link': 'http://www.geonames.org/4167147/orlando.html', 'lat': '28.41583333333333', 'long': '-81.29888888888888', 'population': '238300'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Des Moines, Iowa', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Des_Moines%2C_Iowa', 'place': 'http://sws.geonames.org/4853828/', 'postal_code': '50333', 'geo_link': 'http://www.geonames.org/4853828/des-moines.html', 'lat': '41.590833333333336', 'long': '-93.62083333333334', 'population': '203433'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Dallas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dallas', 'place': 'http://sws.geonames.org/4684888/', 'postal_code': '75221', 'geo_link': 'http://www.geonames.org/4684888/dallas.html', 'lat': '32.77583333333333', 'long': '-96.79666666666667', 'population': '1197816'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bakersfield, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bakersfield%2C_California', 'place': 'http://sws.geonames.org/5325738/', 'postal_code': '93308', 'geo_link': 'http://www.geonames.org/5325738/bakersfield.html', 'lat': '35.36666666666667', 'long': '-119.01666666666667', 'population': '347483'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Wilkes-Barre, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Wilkes-Barre%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5219488/', 'geo_link': 'http://www.geonames.org/5219488/wilkes-barre.html', 'lat': '41.24444444444445', 'long': '-75.87805555555556', 'population': '41498'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Las Vegas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Las_Vegas', 'place': 'http://sws.geonames.org/5506956/', 'postal_code': '89106', 'geo_link': 'http://www.geonames.org/5506956/las-vegas.html', 'lat': '36.175', 'long': '-115.13638888888889', 'population': '583756'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Pretoria', 'country_code': 'ZA', 'wiki': 'http://en.wikipedia.org/wiki/Pretoria', 'place': 'http://sws.geonames.org/964137/', 'geo_link': 'http://www.geonames.org/964137/pretoria.html', 'lat': '-25.746111111111112', 'long': '28.188055555555554', 'population': '1619438'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Umeå', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Ume%C3%A5', 'place': 'http://sws.geonames.org/602150/', 'geo_link': 'http://www.geonames.org/602150/umea.html', 'lat': '63.825', 'long': '20.26388888888889', 'population': '74005'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Copenhagen', 'country_code': 'DK', 'wiki': 'http://en.wikipedia.org/wiki/Copenhagen', 'place': 'http://sws.geonames.org/2618425/', 'geo_link': 'http://www.geonames.org/2618425/copenhagen.html', 'lat': '55.67611111111111', 'long': '12.568333333333333', 'population': '1153615'}</t>
+    <t>{'place_name': 'Magdeburg', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Magdeburg', 'place': 'http://sws.geonames.org/2874545/', 'geo_link': 'http://www.geonames.org/2874544/landeshauptstadt-magdeburg.html', 'lat': '52.13333333333333', 'long': '11.616666666666667', 'population': '229924'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Leicester', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Leicester', 'place': 'http://sws.geonames.org/3333165/', 'geo_link': 'http://www.geonames.org/2644668/leicester.html', 'lat': '52.63333333333333', 'long': '-1.1333333333333333', 'population': '339239'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Miami', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Miami', 'place': 'http://sws.geonames.org/4164138/', 'postal_code': '33176', 'geo_link': 'http://www.geonames.org/4164138/miami.html', 'lat': '25.775277777777777', 'long': '-80.2088888888889', 'population': '399457'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Newark, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Newark%2C_New_Jersey', 'place': 'http://sws.geonames.org/5101798/', 'postal_code': '07191', 'geo_link': 'http://www.geonames.org/5101798/newark.html', 'lat': '40.72422', 'long': '-74.172574', 'population': '277140'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Auchtermuchty', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Auchtermuchty', 'place': 'http://sws.geonames.org/2656799/', 'geo_link': 'http://www.geonames.org/2656799/auchtermuchty.html', 'lat': '56.289754', 'long': '-3.23745', 'population': '2023'}</t>
   </si>
   <si>
     <t>{'place_name': 'Little Rock, Arkansas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Little_Rock%2C_Arkansas', 'place': 'http://sws.geonames.org/4119403/', 'postal_code': '72223', 'geo_link': 'http://www.geonames.org/4119403/little-rock.html', 'lat': '34.736111111111114', 'long': '-92.33111111111111', 'population': '193524'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Sheffield', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Sheffield', 'place': 'http://sws.geonames.org/3333193/', 'geo_link': 'http://www.geonames.org/2638077/sheffield.html', 'lat': '53.38361111111111', 'long': '-1.4669444444444444', 'population': '447047'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Vacaville, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Vacaville%2C_California', 'place': 'http://sws.geonames.org/5405228/', 'postal_code': '95688', 'geo_link': 'http://www.geonames.org/5405228/vacaville.html', 'lat': '38.35388888888889', 'long': '-121.97277777777778', 'population': '92428'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Memphis, Tennessee', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BC%D1%84%D0%B8%D1%81_%28%D0%A2%D0%B5%D0%BD%D0%BD%D0%B5%D1%81%D1%81%D0%B8%29', 'place': 'http://sws.geonames.org/4641239/', 'postal_code': '38173', 'geo_link': 'http://www.geonames.org/4641239/memphis.html', 'lat': '35.1175', 'long': '-89.97111111111111', 'population': '646889'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Peterborough, Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Peterborough%2C_Ontario', 'place': 'http://sws.geonames.org/6101645/', 'geo_link': 'http://www.geonames.org/6101645/peterborough.html', 'lat': '44.3', 'long': '-78.31666666666666', 'population': '75877'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Kansas City, Missouri', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Kansas_City%2C_Missouri', 'place': 'http://sws.geonames.org/4393217/', 'postal_code': '64196', 'geo_link': 'http://www.geonames.org/4393217/kansas-city.html', 'lat': '39.09972222222222', 'long': '-94.57833333333333', 'population': '459787'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bartlett, Tennessee', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bartlett%2C_Tennessee', 'place': 'http://sws.geonames.org/4604183/', 'geo_link': 'http://www.geonames.org/4604183/bartlett.html', 'lat': '35.223055555555554', 'long': '-89.8411111111111', 'population': '54613'}</t>
+    <t>{'place_name': 'Wasilla, Alaska', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Wasilla%2C_Alaska', 'place': 'http://sws.geonames.org/5877641/', 'postal_code': '99654', 'geo_link': 'http://www.geonames.org/5877641/wasilla.html', 'lat': '61.58166666666666', 'long': '-149.4525', 'population': '7831'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Liverpool', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Liverpool', 'place': 'http://sws.geonames.org/3333167/', 'geo_link': 'http://www.geonames.org/2644210/liverpool.html', 'lat': '53.4', 'long': '-2.9833333333333334', 'population': '468945'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Ontario', 'place': 'http://sws.geonames.org/6093943/', 'geo_link': 'http://www.geonames.org/6093943/ontario.html', 'lat': '50.0', 'long': '-85.0', 'population': '12861940'}</t>
   </si>
 </sst>
 </file>
@@ -1929,19 +2100,22 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>302</v>
       </c>
       <c r="F2" t="s">
-        <v>291</v>
+        <v>393</v>
+      </c>
+      <c r="G2" t="s">
+        <v>468</v>
       </c>
       <c r="I2">
-        <v>0.9216549396514893</v>
+        <v>1.858938932418823</v>
       </c>
       <c r="J2">
-        <v>30.44615650177002</v>
+        <v>16.49571347236633</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1958,28 +2132,25 @@
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
-        <v>292</v>
+        <v>394</v>
       </c>
       <c r="G3" t="s">
-        <v>380</v>
-      </c>
-      <c r="H3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="I3">
-        <v>1.249703645706177</v>
+        <v>1.140616416931152</v>
       </c>
       <c r="J3">
-        <v>12.12213826179504</v>
+        <v>5.029794931411743</v>
       </c>
       <c r="K3">
-        <v>0.09372305870056152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1993,28 +2164,28 @@
         <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>395</v>
       </c>
       <c r="G4" t="s">
-        <v>381</v>
+        <v>470</v>
       </c>
       <c r="H4" t="s">
-        <v>466</v>
+        <v>528</v>
       </c>
       <c r="I4">
-        <v>0.9685208797454834</v>
+        <v>1.218483448028564</v>
       </c>
       <c r="J4">
-        <v>8.93532657623291</v>
+        <v>34.36764287948608</v>
       </c>
       <c r="K4">
-        <v>0.1250309944152832</v>
+        <v>0.1246824264526367</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2028,28 +2199,28 @@
         <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E5" t="s">
-        <v>253</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="G5" t="s">
-        <v>382</v>
+        <v>471</v>
       </c>
       <c r="H5" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="I5">
-        <v>1.109142303466797</v>
+        <v>1.31239914894104</v>
       </c>
       <c r="J5">
-        <v>0.1405949592590332</v>
+        <v>8.732454776763916</v>
       </c>
       <c r="K5">
-        <v>0.07783961296081543</v>
+        <v>0.1248507499694824</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2063,28 +2234,22 @@
         <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="F6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G6" t="s">
-        <v>383</v>
-      </c>
-      <c r="H6" t="s">
-        <v>468</v>
+        <v>397</v>
       </c>
       <c r="I6">
-        <v>0.8747932910919189</v>
+        <v>1.249437808990479</v>
       </c>
       <c r="J6">
-        <v>9.763333320617676</v>
+        <v>31.83625888824463</v>
       </c>
       <c r="K6">
-        <v>0.1095662117004395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2098,28 +2263,22 @@
         <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="F7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G7" t="s">
-        <v>384</v>
-      </c>
-      <c r="H7" t="s">
-        <v>469</v>
+        <v>398</v>
       </c>
       <c r="I7">
-        <v>0.8436732292175293</v>
+        <v>1.530887603759766</v>
       </c>
       <c r="J7">
-        <v>9.154093027114868</v>
+        <v>51.51906251907349</v>
       </c>
       <c r="K7">
-        <v>0.1248400211334229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2133,28 +2292,22 @@
         <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="F8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G8" t="s">
-        <v>385</v>
-      </c>
-      <c r="H8" t="s">
-        <v>470</v>
+        <v>399</v>
       </c>
       <c r="I8">
-        <v>1.015444278717041</v>
+        <v>1.749452114105225</v>
       </c>
       <c r="J8">
-        <v>8.951480388641357</v>
+        <v>31.02481937408447</v>
       </c>
       <c r="K8">
-        <v>0.09388422966003418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2168,28 +2321,28 @@
         <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>298</v>
+        <v>400</v>
       </c>
       <c r="G9" t="s">
-        <v>386</v>
+        <v>472</v>
       </c>
       <c r="H9" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="I9">
-        <v>0.874807596206665</v>
+        <v>1.171327829360962</v>
       </c>
       <c r="J9">
-        <v>12.37206673622131</v>
+        <v>11.79424023628235</v>
       </c>
       <c r="K9">
-        <v>0.1091251373291016</v>
+        <v>0.124969482421875</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2203,28 +2356,22 @@
         <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E10" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="F10" t="s">
-        <v>299</v>
-      </c>
-      <c r="G10" t="s">
-        <v>387</v>
-      </c>
-      <c r="H10" t="s">
-        <v>472</v>
+        <v>401</v>
       </c>
       <c r="I10">
-        <v>1.249704360961914</v>
+        <v>7.326408863067627</v>
       </c>
       <c r="J10">
-        <v>10.37276077270508</v>
+        <v>30.21163845062256</v>
       </c>
       <c r="K10">
-        <v>0.1093506813049316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2238,28 +2385,28 @@
         <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="F11" t="s">
-        <v>300</v>
+        <v>402</v>
       </c>
       <c r="G11" t="s">
-        <v>388</v>
+        <v>473</v>
       </c>
       <c r="H11" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="I11">
-        <v>0.8435142040252686</v>
+        <v>1.390554666519165</v>
       </c>
       <c r="J11">
-        <v>12.46580123901367</v>
+        <v>10.02910304069519</v>
       </c>
       <c r="K11">
-        <v>0.0937657356262207</v>
+        <v>0.1559717655181885</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2273,28 +2420,28 @@
         <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E12" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="F12" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
       <c r="G12" t="s">
-        <v>389</v>
+        <v>474</v>
       </c>
       <c r="H12" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="I12">
-        <v>1.57775092124939</v>
+        <v>7.341856002807617</v>
       </c>
       <c r="J12">
-        <v>10.46627497673035</v>
+        <v>12.02826380729675</v>
       </c>
       <c r="K12">
-        <v>0.1093490123748779</v>
+        <v>0.1094634532928467</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2308,28 +2455,28 @@
         <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E13" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="F13" t="s">
-        <v>302</v>
+        <v>404</v>
       </c>
       <c r="G13" t="s">
-        <v>390</v>
+        <v>475</v>
       </c>
       <c r="H13" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="I13">
-        <v>0.8435451984405518</v>
+        <v>1.359286308288574</v>
       </c>
       <c r="J13">
-        <v>8.24804949760437</v>
+        <v>7.919924736022949</v>
       </c>
       <c r="K13">
-        <v>0.171839714050293</v>
+        <v>0.09373164176940918</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2343,28 +2490,22 @@
         <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E14" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="F14" t="s">
-        <v>303</v>
-      </c>
-      <c r="G14" t="s">
-        <v>391</v>
-      </c>
-      <c r="H14" t="s">
-        <v>476</v>
+        <v>405</v>
       </c>
       <c r="I14">
-        <v>1.202850580215454</v>
+        <v>1.343462944030762</v>
       </c>
       <c r="J14">
-        <v>10.0601499080658</v>
+        <v>31.35257697105408</v>
       </c>
       <c r="K14">
-        <v>0.09369897842407227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2378,28 +2519,19 @@
         <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>263</v>
-      </c>
-      <c r="F15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G15" t="s">
-        <v>392</v>
-      </c>
-      <c r="H15" t="s">
-        <v>477</v>
+        <v>314</v>
       </c>
       <c r="I15">
-        <v>1.233810663223267</v>
+        <v>0.3903002738952637</v>
       </c>
       <c r="J15">
-        <v>8.43549370765686</v>
+        <v>31.97678256034851</v>
       </c>
       <c r="K15">
-        <v>0.09373164176940918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2413,28 +2545,28 @@
         <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E16" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="F16" t="s">
-        <v>305</v>
+        <v>406</v>
       </c>
       <c r="G16" t="s">
-        <v>393</v>
+        <v>476</v>
       </c>
       <c r="H16" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="I16">
-        <v>1.062251567840576</v>
+        <v>1.109367847442627</v>
       </c>
       <c r="J16">
-        <v>12.18488955497742</v>
+        <v>10.56024074554443</v>
       </c>
       <c r="K16">
-        <v>0.109346866607666</v>
+        <v>0.1090846061706543</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2448,28 +2580,28 @@
         <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E17" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F17" t="s">
-        <v>306</v>
+        <v>407</v>
       </c>
       <c r="G17" t="s">
-        <v>394</v>
+        <v>477</v>
       </c>
       <c r="H17" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="I17">
-        <v>1.062243223190308</v>
+        <v>1.359223127365112</v>
       </c>
       <c r="J17">
-        <v>10.8098738193512</v>
+        <v>11.41894602775574</v>
       </c>
       <c r="K17">
-        <v>0.1094174385070801</v>
+        <v>0.09380722045898438</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2483,28 +2615,19 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E18" t="s">
-        <v>266</v>
-      </c>
-      <c r="F18" t="s">
-        <v>307</v>
-      </c>
-      <c r="G18" t="s">
-        <v>395</v>
-      </c>
-      <c r="H18" t="s">
-        <v>480</v>
+        <v>317</v>
       </c>
       <c r="I18">
-        <v>1.249741554260254</v>
+        <v>0.5933821201324463</v>
       </c>
       <c r="J18">
-        <v>8.733072519302368</v>
+        <v>31.36756587028503</v>
       </c>
       <c r="K18">
-        <v>0.1093485355377197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2518,28 +2641,19 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F19" t="s">
-        <v>308</v>
-      </c>
-      <c r="G19" t="s">
-        <v>396</v>
-      </c>
-      <c r="H19" t="s">
-        <v>475</v>
+        <v>318</v>
       </c>
       <c r="I19">
-        <v>1.296631336212158</v>
+        <v>6.404762268066406</v>
       </c>
       <c r="J19">
-        <v>16.15238571166992</v>
+        <v>31.66557478904724</v>
       </c>
       <c r="K19">
-        <v>0.1092929840087891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2556,25 +2670,25 @@
         <v>226</v>
       </c>
       <c r="E20" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="F20" t="s">
-        <v>309</v>
+        <v>408</v>
       </c>
       <c r="G20" t="s">
-        <v>397</v>
+        <v>478</v>
       </c>
       <c r="H20" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="I20">
-        <v>1.155972719192505</v>
+        <v>1.171596050262451</v>
       </c>
       <c r="J20">
-        <v>10.80991268157959</v>
+        <v>10.70056319236755</v>
       </c>
       <c r="K20">
-        <v>0.09375786781311035</v>
+        <v>0.1249721050262451</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2591,25 +2705,16 @@
         <v>227</v>
       </c>
       <c r="E21" t="s">
-        <v>268</v>
-      </c>
-      <c r="F21" t="s">
-        <v>310</v>
-      </c>
-      <c r="G21" t="s">
-        <v>398</v>
-      </c>
-      <c r="H21" t="s">
-        <v>482</v>
+        <v>320</v>
       </c>
       <c r="I21">
-        <v>1.218695402145386</v>
+        <v>0.4376657009124756</v>
       </c>
       <c r="J21">
-        <v>12.02819609642029</v>
+        <v>52.73725962638855</v>
       </c>
       <c r="K21">
-        <v>0.09370899200439453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2623,28 +2728,28 @@
         <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="E22" t="s">
-        <v>164</v>
+        <v>321</v>
       </c>
       <c r="F22" t="s">
-        <v>311</v>
+        <v>409</v>
       </c>
       <c r="G22" t="s">
-        <v>399</v>
+        <v>479</v>
       </c>
       <c r="H22" t="s">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="I22">
-        <v>1.40617561340332</v>
+        <v>1.062246561050415</v>
       </c>
       <c r="J22">
-        <v>11.7940845489502</v>
+        <v>10.29444074630737</v>
       </c>
       <c r="K22">
-        <v>0.1090924739837646</v>
+        <v>0.09372901916503906</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2658,28 +2763,28 @@
         <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E23" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="F23" t="s">
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="G23" t="s">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="H23" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="I23">
-        <v>1.108989953994751</v>
+        <v>0.9841516017913818</v>
       </c>
       <c r="J23">
-        <v>8.763556003570557</v>
+        <v>9.420422792434692</v>
       </c>
       <c r="K23">
-        <v>0.1093406677246094</v>
+        <v>0.109328031539917</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2693,28 +2798,28 @@
         <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E24" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="F24" t="s">
-        <v>313</v>
+        <v>411</v>
       </c>
       <c r="G24" t="s">
-        <v>401</v>
+        <v>481</v>
       </c>
       <c r="H24" t="s">
-        <v>470</v>
+        <v>538</v>
       </c>
       <c r="I24">
-        <v>1.202843427658081</v>
+        <v>1.54671049118042</v>
       </c>
       <c r="J24">
-        <v>9.857171297073364</v>
+        <v>10.48187708854675</v>
       </c>
       <c r="K24">
-        <v>0.09372806549072266</v>
+        <v>0.1090867519378662</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2728,22 +2833,16 @@
         <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F25" t="s">
-        <v>314</v>
-      </c>
-      <c r="G25" t="s">
-        <v>402</v>
+        <v>324</v>
       </c>
       <c r="I25">
-        <v>1.952662706375122</v>
+        <v>0.4532079696655273</v>
       </c>
       <c r="J25">
-        <v>4.514553785324097</v>
+        <v>30.99258279800415</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2760,19 +2859,19 @@
         <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E26" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="F26" t="s">
-        <v>315</v>
+        <v>412</v>
       </c>
       <c r="I26">
-        <v>1.140391111373901</v>
+        <v>1.328066110610962</v>
       </c>
       <c r="J26">
-        <v>31.66478276252747</v>
+        <v>31.78908395767212</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2789,28 +2888,19 @@
         <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" t="s">
-        <v>316</v>
-      </c>
-      <c r="G27" t="s">
-        <v>403</v>
-      </c>
-      <c r="H27" t="s">
-        <v>485</v>
+        <v>326</v>
       </c>
       <c r="I27">
-        <v>1.562247753143311</v>
+        <v>0.4842982292175293</v>
       </c>
       <c r="J27">
-        <v>12.02841258049011</v>
+        <v>30.55539584159851</v>
       </c>
       <c r="K27">
-        <v>0.1250793933868408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2824,28 +2914,19 @@
         <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="E28" t="s">
-        <v>252</v>
-      </c>
-      <c r="F28" t="s">
-        <v>317</v>
-      </c>
-      <c r="G28" t="s">
-        <v>404</v>
-      </c>
-      <c r="H28" t="s">
-        <v>466</v>
+        <v>327</v>
       </c>
       <c r="I28">
-        <v>1.249706268310547</v>
+        <v>0.4217417240142822</v>
       </c>
       <c r="J28">
-        <v>10.02886128425598</v>
+        <v>0.1874537467956543</v>
       </c>
       <c r="K28">
-        <v>0.109365701675415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2859,28 +2940,19 @@
         <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="E29" t="s">
-        <v>253</v>
-      </c>
-      <c r="F29" t="s">
-        <v>318</v>
-      </c>
-      <c r="G29" t="s">
-        <v>405</v>
-      </c>
-      <c r="H29" t="s">
-        <v>467</v>
+        <v>328</v>
       </c>
       <c r="I29">
-        <v>7.248281955718994</v>
+        <v>0.4218101501464844</v>
       </c>
       <c r="J29">
-        <v>10.96615481376648</v>
+        <v>31.25823259353638</v>
       </c>
       <c r="K29">
-        <v>0.09373092651367188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2894,28 +2966,25 @@
         <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>329</v>
       </c>
       <c r="F30" t="s">
-        <v>319</v>
+        <v>413</v>
       </c>
       <c r="G30" t="s">
-        <v>406</v>
-      </c>
-      <c r="H30" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I30">
-        <v>1.280942916870117</v>
+        <v>2.327591419219971</v>
       </c>
       <c r="J30">
-        <v>11.73160004615784</v>
+        <v>17.29275107383728</v>
       </c>
       <c r="K30">
-        <v>0.124967098236084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2929,28 +2998,19 @@
         <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" t="s">
-        <v>320</v>
-      </c>
-      <c r="G31" t="s">
-        <v>407</v>
-      </c>
-      <c r="H31" t="s">
-        <v>485</v>
+        <v>330</v>
       </c>
       <c r="I31">
-        <v>1.140568971633911</v>
+        <v>0.5622186660766602</v>
       </c>
       <c r="J31">
-        <v>15.54320788383484</v>
+        <v>30.24282574653625</v>
       </c>
       <c r="K31">
-        <v>0.1091363430023193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2964,28 +3024,25 @@
         <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>331</v>
       </c>
       <c r="F32" t="s">
-        <v>321</v>
+        <v>414</v>
       </c>
       <c r="G32" t="s">
-        <v>408</v>
-      </c>
-      <c r="H32" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I32">
-        <v>1.780830860137939</v>
+        <v>1.233855485916138</v>
       </c>
       <c r="J32">
-        <v>10.29443979263306</v>
+        <v>29.71187305450439</v>
       </c>
       <c r="K32">
-        <v>0.09372758865356445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2999,28 +3056,28 @@
         <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>332</v>
       </c>
       <c r="F33" t="s">
-        <v>322</v>
+        <v>415</v>
       </c>
       <c r="G33" t="s">
-        <v>409</v>
+        <v>484</v>
       </c>
       <c r="H33" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="I33">
-        <v>1.609269618988037</v>
+        <v>1.9213707447052</v>
       </c>
       <c r="J33">
-        <v>9.04448938369751</v>
+        <v>31.82153677940369</v>
       </c>
       <c r="K33">
-        <v>0.09370183944702148</v>
+        <v>0.1247568130493164</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3034,28 +3091,22 @@
         <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>333</v>
       </c>
       <c r="F34" t="s">
-        <v>323</v>
-      </c>
-      <c r="G34" t="s">
-        <v>410</v>
-      </c>
-      <c r="H34" t="s">
-        <v>485</v>
+        <v>416</v>
       </c>
       <c r="I34">
-        <v>1.187222003936768</v>
+        <v>1.234210968017578</v>
       </c>
       <c r="J34">
-        <v>10.01319193840027</v>
+        <v>31.21151447296143</v>
       </c>
       <c r="K34">
-        <v>0.1250293254852295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3069,28 +3120,25 @@
         <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="E35" t="s">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>417</v>
       </c>
       <c r="G35" t="s">
-        <v>385</v>
-      </c>
-      <c r="H35" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="I35">
-        <v>0.9062602519989014</v>
+        <v>1.671481609344482</v>
       </c>
       <c r="J35">
-        <v>0.3903188705444336</v>
+        <v>16.30863499641418</v>
       </c>
       <c r="K35">
-        <v>0.06247782707214355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3104,28 +3152,28 @@
         <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="E36" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="F36" t="s">
-        <v>324</v>
+        <v>418</v>
       </c>
       <c r="G36" t="s">
-        <v>411</v>
+        <v>486</v>
       </c>
       <c r="H36" t="s">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="I36">
-        <v>1.186957836151123</v>
+        <v>1.530887365341187</v>
       </c>
       <c r="J36">
-        <v>9.451508045196533</v>
+        <v>8.341774702072144</v>
       </c>
       <c r="K36">
-        <v>0.09377622604370117</v>
+        <v>0.1249687671661377</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3139,28 +3187,19 @@
         <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="E37" t="s">
-        <v>256</v>
-      </c>
-      <c r="F37" t="s">
-        <v>325</v>
-      </c>
-      <c r="G37" t="s">
-        <v>412</v>
-      </c>
-      <c r="H37" t="s">
-        <v>470</v>
+        <v>336</v>
       </c>
       <c r="I37">
-        <v>1.155974864959717</v>
+        <v>0.4061410427093506</v>
       </c>
       <c r="J37">
-        <v>11.9034378528595</v>
+        <v>30.25913715362549</v>
       </c>
       <c r="K37">
-        <v>0.09402704238891602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3174,22 +3213,22 @@
         <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E38" t="s">
-        <v>272</v>
+        <v>337</v>
       </c>
       <c r="G38" t="s">
-        <v>413</v>
+        <v>487</v>
       </c>
       <c r="I38">
-        <v>0.5624802112579346</v>
+        <v>0.5467441082000732</v>
       </c>
       <c r="J38">
-        <v>12.23144936561584</v>
+        <v>34.10131406784058</v>
       </c>
       <c r="K38">
-        <v>0.0936129093170166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3203,25 +3242,28 @@
         <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E39" t="s">
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="F39" t="s">
-        <v>326</v>
+        <v>419</v>
       </c>
       <c r="G39" t="s">
-        <v>414</v>
+        <v>488</v>
+      </c>
+      <c r="H39" t="s">
+        <v>539</v>
       </c>
       <c r="I39">
-        <v>1.171771287918091</v>
+        <v>1.718262434005737</v>
       </c>
       <c r="J39">
-        <v>10.96616172790527</v>
+        <v>10.34195733070374</v>
       </c>
       <c r="K39">
-        <v>0.09356689453125</v>
+        <v>0.1248211860656738</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3235,28 +3277,22 @@
         <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="E40" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
       <c r="F40" t="s">
-        <v>327</v>
-      </c>
-      <c r="G40" t="s">
-        <v>415</v>
-      </c>
-      <c r="H40" t="s">
-        <v>486</v>
+        <v>420</v>
       </c>
       <c r="I40">
-        <v>1.140358924865723</v>
+        <v>1.062222957611084</v>
       </c>
       <c r="J40">
-        <v>9.872650146484375</v>
+        <v>0.125232458114624</v>
       </c>
       <c r="K40">
-        <v>0.1093437671661377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3270,28 +3306,22 @@
         <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E41" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="F41" t="s">
-        <v>328</v>
-      </c>
-      <c r="G41" t="s">
-        <v>416</v>
-      </c>
-      <c r="H41" t="s">
-        <v>486</v>
+        <v>421</v>
       </c>
       <c r="I41">
-        <v>1.093502998352051</v>
+        <v>1.609149694442749</v>
       </c>
       <c r="J41">
-        <v>9.029115200042725</v>
+        <v>31.02375388145447</v>
       </c>
       <c r="K41">
-        <v>0.09371638298034668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3305,28 +3335,19 @@
         <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="E42" t="s">
-        <v>273</v>
-      </c>
-      <c r="F42" t="s">
-        <v>329</v>
-      </c>
-      <c r="G42" t="s">
-        <v>417</v>
-      </c>
-      <c r="H42" t="s">
-        <v>486</v>
+        <v>340</v>
       </c>
       <c r="I42">
-        <v>1.155944585800171</v>
+        <v>0.4840312004089355</v>
       </c>
       <c r="J42">
-        <v>10.23195791244507</v>
+        <v>53.19126462936401</v>
       </c>
       <c r="K42">
-        <v>0.1093802452087402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3340,19 +3361,28 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="E43" t="s">
-        <v>273</v>
+        <v>341</v>
+      </c>
+      <c r="F43" t="s">
+        <v>422</v>
+      </c>
+      <c r="G43" t="s">
+        <v>489</v>
+      </c>
+      <c r="H43" t="s">
+        <v>541</v>
       </c>
       <c r="I43">
-        <v>0.4373958110809326</v>
+        <v>1.077906847000122</v>
       </c>
       <c r="J43">
-        <v>31.53941440582275</v>
+        <v>11.65371894836426</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>0.09373354911804199</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3366,28 +3396,25 @@
         <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="E44" t="s">
-        <v>274</v>
+        <v>342</v>
       </c>
       <c r="F44" t="s">
-        <v>330</v>
+        <v>423</v>
       </c>
       <c r="G44" t="s">
-        <v>418</v>
-      </c>
-      <c r="H44" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="I44">
-        <v>1.359350919723511</v>
+        <v>2.124421358108521</v>
       </c>
       <c r="J44">
-        <v>11.388512134552</v>
+        <v>18.4799633026123</v>
       </c>
       <c r="K44">
-        <v>0.1092000007629395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3401,28 +3428,25 @@
         <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="E45" t="s">
-        <v>274</v>
+        <v>343</v>
       </c>
       <c r="F45" t="s">
-        <v>331</v>
+        <v>424</v>
       </c>
       <c r="G45" t="s">
-        <v>419</v>
-      </c>
-      <c r="H45" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="I45">
-        <v>1.109150409698486</v>
+        <v>2.421303033828735</v>
       </c>
       <c r="J45">
-        <v>9.685168266296387</v>
+        <v>21.19818878173828</v>
       </c>
       <c r="K45">
-        <v>0.109349250793457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3436,16 +3460,19 @@
         <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="E46" t="s">
-        <v>274</v>
+        <v>344</v>
+      </c>
+      <c r="F46" t="s">
+        <v>425</v>
       </c>
       <c r="I46">
-        <v>2.405450344085693</v>
+        <v>1.905767917633057</v>
       </c>
       <c r="J46">
-        <v>31.49251627922058</v>
+        <v>31.80572962760925</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3462,16 +3489,22 @@
         <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="E47" t="s">
-        <v>274</v>
+        <v>345</v>
+      </c>
+      <c r="F47" t="s">
+        <v>426</v>
+      </c>
+      <c r="G47" t="s">
+        <v>492</v>
       </c>
       <c r="I47">
-        <v>0.453016996383667</v>
+        <v>1.07785177230835</v>
       </c>
       <c r="J47">
-        <v>31.44591927528381</v>
+        <v>4.452084064483643</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3488,19 +3521,28 @@
         <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="E48" t="s">
-        <v>274</v>
+        <v>346</v>
+      </c>
+      <c r="F48" t="s">
+        <v>427</v>
+      </c>
+      <c r="G48" t="s">
+        <v>493</v>
+      </c>
+      <c r="H48" t="s">
+        <v>542</v>
       </c>
       <c r="I48">
-        <v>0.4842665195465088</v>
+        <v>1.671539783477783</v>
       </c>
       <c r="J48">
-        <v>31.77439379692078</v>
+        <v>0.1249728202819824</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>0.1093318462371826</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3514,28 +3556,28 @@
         <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="E49" t="s">
-        <v>275</v>
+        <v>347</v>
       </c>
       <c r="F49" t="s">
-        <v>332</v>
+        <v>428</v>
       </c>
       <c r="G49" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="H49" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="I49">
-        <v>1.202841997146606</v>
+        <v>1.124739646911621</v>
       </c>
       <c r="J49">
-        <v>9.528789043426514</v>
+        <v>21.18229937553406</v>
       </c>
       <c r="K49">
-        <v>0.09393024444580078</v>
+        <v>0.1094937324523926</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3549,28 +3591,22 @@
         <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="E50" t="s">
-        <v>275</v>
+        <v>348</v>
       </c>
       <c r="F50" t="s">
-        <v>333</v>
-      </c>
-      <c r="G50" t="s">
-        <v>421</v>
-      </c>
-      <c r="H50" t="s">
-        <v>488</v>
+        <v>429</v>
       </c>
       <c r="I50">
-        <v>1.187214136123657</v>
+        <v>1.124732494354248</v>
       </c>
       <c r="J50">
-        <v>9.591491460800171</v>
+        <v>30.64900016784668</v>
       </c>
       <c r="K50">
-        <v>0.09371614456176758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3584,28 +3620,28 @@
         <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>275</v>
+        <v>349</v>
       </c>
       <c r="F51" t="s">
-        <v>334</v>
+        <v>430</v>
       </c>
       <c r="G51" t="s">
-        <v>422</v>
+        <v>495</v>
       </c>
       <c r="H51" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="I51">
-        <v>1.296567916870117</v>
+        <v>1.124746799468994</v>
       </c>
       <c r="J51">
-        <v>10.87242817878723</v>
+        <v>9.732079744338989</v>
       </c>
       <c r="K51">
-        <v>0.1093533039093018</v>
+        <v>0.09372282028198242</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3619,28 +3655,19 @@
         <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="E52" t="s">
-        <v>275</v>
-      </c>
-      <c r="F52" t="s">
-        <v>335</v>
-      </c>
-      <c r="G52" t="s">
-        <v>423</v>
-      </c>
-      <c r="H52" t="s">
-        <v>488</v>
+        <v>350</v>
       </c>
       <c r="I52">
-        <v>1.124736785888672</v>
+        <v>0.4374008178710938</v>
       </c>
       <c r="J52">
-        <v>12.04402637481689</v>
+        <v>31.82058835029602</v>
       </c>
       <c r="K52">
-        <v>0.1093478202819824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3654,28 +3681,28 @@
         <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E53" t="s">
-        <v>275</v>
+        <v>351</v>
       </c>
       <c r="F53" t="s">
-        <v>336</v>
+        <v>431</v>
       </c>
       <c r="G53" t="s">
-        <v>424</v>
+        <v>496</v>
       </c>
       <c r="H53" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="I53">
-        <v>1.046846389770508</v>
+        <v>1.718374252319336</v>
       </c>
       <c r="J53">
-        <v>11.13777661323547</v>
+        <v>11.1230788230896</v>
       </c>
       <c r="K53">
-        <v>0.1093497276306152</v>
+        <v>0.1090860366821289</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3689,28 +3716,25 @@
         <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="E54" t="s">
-        <v>275</v>
-      </c>
-      <c r="F54" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="G54" t="s">
-        <v>422</v>
+        <v>497</v>
       </c>
       <c r="H54" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="I54">
-        <v>1.359055042266846</v>
+        <v>0.3907742500305176</v>
       </c>
       <c r="J54">
-        <v>10.32556700706482</v>
+        <v>11.55883359909058</v>
       </c>
       <c r="K54">
-        <v>0.09383797645568848</v>
+        <v>0.09375429153442383</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3724,28 +3748,25 @@
         <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="E55" t="s">
-        <v>275</v>
-      </c>
-      <c r="F55" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="G55" t="s">
-        <v>423</v>
+        <v>498</v>
       </c>
       <c r="H55" t="s">
-        <v>488</v>
+        <v>528</v>
       </c>
       <c r="I55">
-        <v>0.7186789512634277</v>
+        <v>0.5001006126403809</v>
       </c>
       <c r="J55">
-        <v>0.1249997615814209</v>
+        <v>32.02374577522278</v>
       </c>
       <c r="K55">
-        <v>1.530643224716187</v>
+        <v>0.1093888282775879</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3759,25 +3780,22 @@
         <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="E56" t="s">
-        <v>164</v>
-      </c>
-      <c r="G56" t="s">
-        <v>425</v>
-      </c>
-      <c r="H56" t="s">
-        <v>483</v>
+        <v>353</v>
+      </c>
+      <c r="F56" t="s">
+        <v>432</v>
       </c>
       <c r="I56">
-        <v>0.4686398506164551</v>
+        <v>1.046893119812012</v>
       </c>
       <c r="J56">
-        <v>8.826161623001099</v>
+        <v>30.88305568695068</v>
       </c>
       <c r="K56">
-        <v>0.1093447208404541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3791,28 +3809,28 @@
         <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E57" t="s">
-        <v>164</v>
+        <v>354</v>
       </c>
       <c r="F57" t="s">
-        <v>338</v>
+        <v>433</v>
       </c>
       <c r="G57" t="s">
-        <v>426</v>
+        <v>499</v>
       </c>
       <c r="H57" t="s">
-        <v>483</v>
+        <v>547</v>
       </c>
       <c r="I57">
-        <v>1.28093957901001</v>
+        <v>1.140511274337769</v>
       </c>
       <c r="J57">
-        <v>8.810407161712646</v>
+        <v>10.68474221229553</v>
       </c>
       <c r="K57">
-        <v>0.1093599796295166</v>
+        <v>0.09380292892456055</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3826,19 +3844,22 @@
         <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E58" t="s">
-        <v>164</v>
+        <v>355</v>
       </c>
       <c r="F58" t="s">
-        <v>291</v>
+        <v>434</v>
+      </c>
+      <c r="G58" t="s">
+        <v>500</v>
       </c>
       <c r="I58">
-        <v>0.8747560977935791</v>
+        <v>1.390296697616577</v>
       </c>
       <c r="J58">
-        <v>0.1250085830688477</v>
+        <v>3.061779737472534</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -3855,19 +3876,22 @@
         <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E59" t="s">
-        <v>164</v>
+        <v>356</v>
       </c>
       <c r="F59" t="s">
-        <v>339</v>
+        <v>435</v>
+      </c>
+      <c r="G59" t="s">
+        <v>501</v>
       </c>
       <c r="I59">
-        <v>1.124740600585938</v>
+        <v>1.90655779838562</v>
       </c>
       <c r="J59">
-        <v>30.99340200424194</v>
+        <v>16.7145664691925</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3884,28 +3908,28 @@
         <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="E60" t="s">
-        <v>276</v>
+        <v>357</v>
       </c>
       <c r="F60" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="G60" t="s">
-        <v>427</v>
+        <v>502</v>
       </c>
       <c r="H60" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="I60">
-        <v>1.140357732772827</v>
+        <v>1.671698331832886</v>
       </c>
       <c r="J60">
-        <v>16.35553526878357</v>
+        <v>9.732227087020874</v>
       </c>
       <c r="K60">
-        <v>0.09369730949401855</v>
+        <v>0.1247513294219971</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3919,28 +3943,22 @@
         <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="E61" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
       <c r="F61" t="s">
-        <v>341</v>
-      </c>
-      <c r="G61" t="s">
-        <v>428</v>
-      </c>
-      <c r="H61" t="s">
-        <v>489</v>
+        <v>437</v>
       </c>
       <c r="I61">
-        <v>1.187201976776123</v>
+        <v>1.124739170074463</v>
       </c>
       <c r="J61">
-        <v>9.857043743133545</v>
+        <v>31.00829339027405</v>
       </c>
       <c r="K61">
-        <v>0.09375452995300293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3954,28 +3972,28 @@
         <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="E62" t="s">
-        <v>276</v>
+        <v>359</v>
       </c>
       <c r="F62" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="G62" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="H62" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="I62">
-        <v>1.249735355377197</v>
+        <v>1.093761920928955</v>
       </c>
       <c r="J62">
-        <v>10.55976247787476</v>
+        <v>11.65328311920166</v>
       </c>
       <c r="K62">
-        <v>0.1093130111694336</v>
+        <v>0.09369897842407227</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3989,28 +4007,22 @@
         <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="E63" t="s">
-        <v>268</v>
+        <v>360</v>
       </c>
       <c r="F63" t="s">
-        <v>343</v>
-      </c>
-      <c r="G63" t="s">
-        <v>430</v>
-      </c>
-      <c r="H63" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="I63">
-        <v>1.093490600585938</v>
+        <v>0.9216408729553223</v>
       </c>
       <c r="J63">
-        <v>10.06040811538696</v>
+        <v>31.03952026367188</v>
       </c>
       <c r="K63">
-        <v>0.1093034744262695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4024,28 +4036,28 @@
         <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="E64" t="s">
-        <v>268</v>
+        <v>361</v>
       </c>
       <c r="F64" t="s">
-        <v>344</v>
+        <v>440</v>
       </c>
       <c r="G64" t="s">
-        <v>431</v>
+        <v>504</v>
       </c>
       <c r="H64" t="s">
-        <v>482</v>
+        <v>549</v>
       </c>
       <c r="I64">
-        <v>1.156179904937744</v>
+        <v>1.764985799789429</v>
       </c>
       <c r="J64">
-        <v>11.90336108207703</v>
+        <v>12.38754081726074</v>
       </c>
       <c r="K64">
-        <v>0.1248359680175781</v>
+        <v>0.1095037460327148</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4059,28 +4071,28 @@
         <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="E65" t="s">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="F65" t="s">
-        <v>345</v>
+        <v>441</v>
       </c>
       <c r="G65" t="s">
-        <v>432</v>
+        <v>505</v>
       </c>
       <c r="H65" t="s">
-        <v>482</v>
+        <v>550</v>
       </c>
       <c r="I65">
-        <v>1.155977249145508</v>
+        <v>1.077866077423096</v>
       </c>
       <c r="J65">
-        <v>13.13730025291443</v>
+        <v>11.9043128490448</v>
       </c>
       <c r="K65">
-        <v>0.09394574165344238</v>
+        <v>0.1249754428863525</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4094,28 +4106,25 @@
         <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="E66" t="s">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="F66" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="G66" t="s">
-        <v>433</v>
-      </c>
-      <c r="H66" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="I66">
-        <v>1.187192678451538</v>
+        <v>2.124491214752197</v>
       </c>
       <c r="J66">
-        <v>9.169707536697388</v>
+        <v>17.0894820690155</v>
       </c>
       <c r="K66">
-        <v>0.1093769073486328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4129,28 +4138,22 @@
         <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="E67" t="s">
-        <v>277</v>
+        <v>364</v>
       </c>
       <c r="F67" t="s">
-        <v>347</v>
-      </c>
-      <c r="G67" t="s">
-        <v>434</v>
-      </c>
-      <c r="H67" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="I67">
-        <v>1.062253952026367</v>
+        <v>3.093012094497681</v>
       </c>
       <c r="J67">
-        <v>11.16960430145264</v>
+        <v>32.10201573371887</v>
       </c>
       <c r="K67">
-        <v>0.1093482971191406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4161,31 +4164,28 @@
         <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="E68" t="s">
-        <v>277</v>
+        <v>365</v>
       </c>
       <c r="F68" t="s">
-        <v>347</v>
+        <v>444</v>
       </c>
       <c r="G68" t="s">
-        <v>434</v>
-      </c>
-      <c r="H68" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="I68">
-        <v>0.7032239437103271</v>
+        <v>0.9060320854187012</v>
       </c>
       <c r="J68">
-        <v>0.1249585151672363</v>
+        <v>19.23011183738708</v>
       </c>
       <c r="K68">
-        <v>0.07784938812255859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4196,31 +4196,22 @@
         <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="E69" t="s">
-        <v>277</v>
-      </c>
-      <c r="F69" t="s">
-        <v>348</v>
-      </c>
-      <c r="G69" t="s">
-        <v>435</v>
-      </c>
-      <c r="H69" t="s">
-        <v>482</v>
+        <v>366</v>
       </c>
       <c r="I69">
-        <v>1.015385150909424</v>
+        <v>0.4217703342437744</v>
       </c>
       <c r="J69">
-        <v>15.74627304077148</v>
+        <v>30.63338828086853</v>
       </c>
       <c r="K69">
-        <v>0.1249706745147705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4231,31 +4222,28 @@
         <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="E70" t="s">
-        <v>277</v>
+        <v>367</v>
       </c>
       <c r="F70" t="s">
-        <v>349</v>
+        <v>445</v>
       </c>
       <c r="G70" t="s">
-        <v>436</v>
-      </c>
-      <c r="H70" t="s">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="I70">
-        <v>1.077872276306152</v>
+        <v>1.952654123306274</v>
       </c>
       <c r="J70">
-        <v>9.732075929641724</v>
+        <v>3.967820405960083</v>
       </c>
       <c r="K70">
-        <v>0.1093459129333496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4266,31 +4254,31 @@
         <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="E71" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
       <c r="F71" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="G71" t="s">
-        <v>437</v>
+        <v>509</v>
       </c>
       <c r="H71" t="s">
-        <v>482</v>
+        <v>551</v>
       </c>
       <c r="I71">
-        <v>1.109111309051514</v>
+        <v>1.296569585800171</v>
       </c>
       <c r="J71">
-        <v>9.232190132141113</v>
+        <v>9.092021942138672</v>
       </c>
       <c r="K71">
-        <v>0.09372997283935547</v>
+        <v>0.1251847743988037</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4301,31 +4289,31 @@
         <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="E72" t="s">
-        <v>277</v>
+        <v>369</v>
       </c>
       <c r="F72" t="s">
-        <v>351</v>
+        <v>447</v>
       </c>
       <c r="G72" t="s">
-        <v>438</v>
+        <v>510</v>
       </c>
       <c r="H72" t="s">
-        <v>482</v>
+        <v>552</v>
       </c>
       <c r="I72">
-        <v>1.218228816986084</v>
+        <v>1.74984073638916</v>
       </c>
       <c r="J72">
-        <v>11.04426336288452</v>
+        <v>33.33560132980347</v>
       </c>
       <c r="K72">
-        <v>0.1249709129333496</v>
+        <v>0.1250107288360596</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4336,31 +4324,31 @@
         <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D73" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="E73" t="s">
-        <v>278</v>
+        <v>370</v>
       </c>
       <c r="F73" t="s">
-        <v>352</v>
+        <v>448</v>
       </c>
       <c r="G73" t="s">
-        <v>439</v>
+        <v>511</v>
       </c>
       <c r="H73" t="s">
-        <v>483</v>
+        <v>553</v>
       </c>
       <c r="I73">
-        <v>1.312199831008911</v>
+        <v>2.03098464012146</v>
       </c>
       <c r="J73">
-        <v>12.57538199424744</v>
+        <v>10.74742984771729</v>
       </c>
       <c r="K73">
-        <v>0.09372472763061523</v>
+        <v>0.09351563453674316</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4374,28 +4362,25 @@
         <v>181</v>
       </c>
       <c r="D74" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="E74" t="s">
-        <v>279</v>
+        <v>371</v>
       </c>
       <c r="F74" t="s">
-        <v>353</v>
+        <v>449</v>
       </c>
       <c r="G74" t="s">
-        <v>440</v>
-      </c>
-      <c r="H74" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="I74">
-        <v>1.10911226272583</v>
+        <v>1.749585866928101</v>
       </c>
       <c r="J74">
-        <v>9.76331090927124</v>
+        <v>15.55881786346436</v>
       </c>
       <c r="K74">
-        <v>0.09372687339782715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4409,28 +4394,28 @@
         <v>182</v>
       </c>
       <c r="D75" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E75" t="s">
-        <v>135</v>
+        <v>335</v>
       </c>
       <c r="F75" t="s">
-        <v>354</v>
+        <v>450</v>
       </c>
       <c r="G75" t="s">
-        <v>441</v>
+        <v>513</v>
       </c>
       <c r="H75" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="I75">
-        <v>1.202834367752075</v>
+        <v>1.515533208847046</v>
       </c>
       <c r="J75">
-        <v>11.24733924865723</v>
+        <v>9.388171195983887</v>
       </c>
       <c r="K75">
-        <v>0.1093528270721436</v>
+        <v>0.1093161106109619</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4444,28 +4429,22 @@
         <v>183</v>
       </c>
       <c r="D76" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="E76" t="s">
-        <v>266</v>
+        <v>372</v>
       </c>
       <c r="F76" t="s">
-        <v>355</v>
-      </c>
-      <c r="G76" t="s">
-        <v>442</v>
-      </c>
-      <c r="H76" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="I76">
-        <v>1.968285799026489</v>
+        <v>1.499414205551147</v>
       </c>
       <c r="J76">
-        <v>9.935161590576172</v>
+        <v>30.27480149269104</v>
       </c>
       <c r="K76">
-        <v>0.1093401908874512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4479,28 +4458,28 @@
         <v>184</v>
       </c>
       <c r="D77" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="E77" t="s">
-        <v>280</v>
+        <v>373</v>
       </c>
       <c r="F77" t="s">
-        <v>356</v>
+        <v>452</v>
       </c>
       <c r="G77" t="s">
-        <v>443</v>
+        <v>514</v>
       </c>
       <c r="H77" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="I77">
-        <v>1.405920743942261</v>
+        <v>0.9215002059936523</v>
       </c>
       <c r="J77">
-        <v>14.82519268989563</v>
+        <v>0.1252002716064453</v>
       </c>
       <c r="K77">
-        <v>0.1093540191650391</v>
+        <v>0.09372448921203613</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4514,28 +4493,19 @@
         <v>185</v>
       </c>
       <c r="D78" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="E78" t="s">
-        <v>280</v>
-      </c>
-      <c r="F78" t="s">
-        <v>357</v>
-      </c>
-      <c r="G78" t="s">
-        <v>444</v>
-      </c>
-      <c r="H78" t="s">
-        <v>490</v>
+        <v>374</v>
       </c>
       <c r="I78">
-        <v>1.030998468399048</v>
+        <v>0.5155036449432373</v>
       </c>
       <c r="J78">
-        <v>11.80970144271851</v>
+        <v>31.41460967063904</v>
       </c>
       <c r="K78">
-        <v>0.1093547344207764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4545,32 +4515,24 @@
       <c r="B79" t="s">
         <v>87</v>
       </c>
-      <c r="C79" t="s">
-        <v>186</v>
+      <c r="C79">
+        <f/>
+        <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="E79" t="s">
-        <v>280</v>
-      </c>
-      <c r="F79" t="s">
-        <v>358</v>
-      </c>
-      <c r="G79" t="s">
-        <v>445</v>
-      </c>
-      <c r="H79" t="s">
-        <v>490</v>
+        <v>375</v>
       </c>
       <c r="I79">
-        <v>1.140356540679932</v>
+        <v>0.5467448234558105</v>
       </c>
       <c r="J79">
-        <v>10.21634745597839</v>
+        <v>46.37965250015259</v>
       </c>
       <c r="K79">
-        <v>0.09371805191040039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4581,31 +4543,22 @@
         <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="E80" t="s">
-        <v>257</v>
-      </c>
-      <c r="F80" t="s">
-        <v>359</v>
-      </c>
-      <c r="G80" t="s">
-        <v>446</v>
-      </c>
-      <c r="H80" t="s">
-        <v>471</v>
+        <v>376</v>
       </c>
       <c r="I80">
-        <v>1.280944347381592</v>
+        <v>0.4374589920043945</v>
       </c>
       <c r="J80">
-        <v>9.810205936431885</v>
+        <v>52.86347246170044</v>
       </c>
       <c r="K80">
-        <v>0.109325647354126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4616,31 +4569,31 @@
         <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D81" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="E81" t="s">
-        <v>135</v>
+        <v>370</v>
       </c>
       <c r="F81" t="s">
-        <v>360</v>
+        <v>453</v>
       </c>
       <c r="G81" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="H81" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="I81">
-        <v>1.390294313430786</v>
+        <v>5.639532804489136</v>
       </c>
       <c r="J81">
-        <v>9.732075214385986</v>
+        <v>8.65416955947876</v>
       </c>
       <c r="K81">
-        <v>0.1093509197235107</v>
+        <v>0.09372520446777344</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4651,22 +4604,19 @@
         <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D82" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E82" t="s">
-        <v>281</v>
-      </c>
-      <c r="F82" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="I82">
-        <v>0.9841451644897461</v>
+        <v>0.4061543941497803</v>
       </c>
       <c r="J82">
-        <v>0.1562111377716064</v>
+        <v>31.10201239585876</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -4680,31 +4630,28 @@
         <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="E83" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F83" t="s">
-        <v>362</v>
+        <v>454</v>
       </c>
       <c r="G83" t="s">
-        <v>448</v>
-      </c>
-      <c r="H83" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="I83">
-        <v>1.187215328216553</v>
+        <v>1.437162399291992</v>
       </c>
       <c r="J83">
-        <v>10.57561993598938</v>
+        <v>3.233610391616821</v>
       </c>
       <c r="K83">
-        <v>0.1249752044677734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4715,31 +4662,31 @@
         <v>92</v>
       </c>
       <c r="C84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="E84" t="s">
-        <v>282</v>
+        <v>359</v>
       </c>
       <c r="F84" t="s">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="G84" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H84" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="I84">
-        <v>0.9060416221618652</v>
+        <v>1.234315633773804</v>
       </c>
       <c r="J84">
-        <v>11.38793253898621</v>
+        <v>8.747694492340088</v>
       </c>
       <c r="K84">
-        <v>0.1093513965606689</v>
+        <v>0.09372544288635254</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4750,31 +4697,28 @@
         <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D85" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="E85" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="F85" t="s">
-        <v>364</v>
+        <v>456</v>
       </c>
       <c r="G85" t="s">
-        <v>450</v>
-      </c>
-      <c r="H85" t="s">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="I85">
-        <v>1.359057664871216</v>
+        <v>1.203079700469971</v>
       </c>
       <c r="J85">
-        <v>9.70082426071167</v>
+        <v>3.358352899551392</v>
       </c>
       <c r="K85">
-        <v>0.1249654293060303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4785,31 +4729,28 @@
         <v>94</v>
       </c>
       <c r="C86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D86" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="E86" t="s">
-        <v>283</v>
+        <v>378</v>
       </c>
       <c r="F86" t="s">
-        <v>365</v>
+        <v>457</v>
       </c>
       <c r="G86" t="s">
-        <v>451</v>
-      </c>
-      <c r="H86" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="I86">
-        <v>2.889946222305298</v>
+        <v>1.09348726272583</v>
       </c>
       <c r="J86">
-        <v>11.4191734790802</v>
+        <v>9.607096195220947</v>
       </c>
       <c r="K86">
-        <v>0.09372615814208984</v>
+        <v>0.09372854232788086</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4820,22 +4761,25 @@
         <v>95</v>
       </c>
       <c r="C87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D87" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="E87" t="s">
-        <v>281</v>
+        <v>379</v>
       </c>
       <c r="F87" t="s">
-        <v>366</v>
+        <v>458</v>
+      </c>
+      <c r="G87" t="s">
+        <v>520</v>
       </c>
       <c r="I87">
-        <v>1.437381267547607</v>
+        <v>1.405647039413452</v>
       </c>
       <c r="J87">
-        <v>31.7742657661438</v>
+        <v>17.29282450675964</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -4849,31 +4793,28 @@
         <v>96</v>
       </c>
       <c r="C88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D88" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="E88" t="s">
-        <v>284</v>
+        <v>380</v>
       </c>
       <c r="F88" t="s">
-        <v>367</v>
+        <v>459</v>
       </c>
       <c r="G88" t="s">
-        <v>452</v>
-      </c>
-      <c r="H88" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="I88">
-        <v>1.468420267105103</v>
+        <v>1.499678373336792</v>
       </c>
       <c r="J88">
-        <v>8.404268980026245</v>
+        <v>16.77794480323792</v>
       </c>
       <c r="K88">
-        <v>0.1091063022613525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4884,28 +4825,22 @@
         <v>97</v>
       </c>
       <c r="C89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D89" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="E89" t="s">
-        <v>196</v>
-      </c>
-      <c r="G89" t="s">
-        <v>453</v>
-      </c>
-      <c r="H89" t="s">
-        <v>493</v>
+        <v>381</v>
       </c>
       <c r="I89">
-        <v>0.4532845020294189</v>
+        <v>0.4686403274536133</v>
       </c>
       <c r="J89">
-        <v>9.966376543045044</v>
+        <v>30.4773952960968</v>
       </c>
       <c r="K89">
-        <v>0.1093134880065918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4916,31 +4851,25 @@
         <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D90" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="E90" t="s">
-        <v>285</v>
+        <v>382</v>
       </c>
       <c r="F90" t="s">
-        <v>368</v>
-      </c>
-      <c r="G90" t="s">
-        <v>454</v>
-      </c>
-      <c r="H90" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="I90">
-        <v>1.140567064285278</v>
+        <v>1.921418428421021</v>
       </c>
       <c r="J90">
-        <v>11.38793253898621</v>
+        <v>52.23741316795349</v>
       </c>
       <c r="K90">
-        <v>0.1091389656066895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4951,31 +4880,31 @@
         <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D91" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="E91" t="s">
-        <v>286</v>
+        <v>383</v>
       </c>
       <c r="F91" t="s">
-        <v>369</v>
+        <v>461</v>
       </c>
       <c r="G91" t="s">
-        <v>455</v>
+        <v>522</v>
       </c>
       <c r="H91" t="s">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="I91">
-        <v>5.201887845993042</v>
+        <v>2.03076958656311</v>
       </c>
       <c r="J91">
-        <v>9.716454744338989</v>
+        <v>8.810651779174805</v>
       </c>
       <c r="K91">
-        <v>0.1249716281890869</v>
+        <v>0.1249692440032959</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4986,31 +4915,28 @@
         <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D92" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="E92" t="s">
-        <v>286</v>
+        <v>384</v>
       </c>
       <c r="F92" t="s">
-        <v>370</v>
+        <v>462</v>
       </c>
       <c r="G92" t="s">
-        <v>456</v>
-      </c>
-      <c r="H92" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="I92">
-        <v>1.484028816223145</v>
+        <v>1.078088521957397</v>
       </c>
       <c r="J92">
-        <v>9.841425895690918</v>
+        <v>4.124483823776245</v>
       </c>
       <c r="K92">
-        <v>0.1093478202819824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -5021,31 +4947,25 @@
         <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D93" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="E93" t="s">
-        <v>285</v>
+        <v>385</v>
       </c>
       <c r="F93" t="s">
-        <v>371</v>
-      </c>
-      <c r="G93" t="s">
-        <v>457</v>
-      </c>
-      <c r="H93" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="I93">
-        <v>1.718337774276733</v>
+        <v>1.062248468399048</v>
       </c>
       <c r="J93">
-        <v>9.825832605361938</v>
+        <v>30.14911603927612</v>
       </c>
       <c r="K93">
-        <v>0.09369778633117676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -5056,31 +4976,25 @@
         <v>102</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D94" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="E94" t="s">
-        <v>285</v>
+        <v>386</v>
       </c>
       <c r="F94" t="s">
-        <v>372</v>
-      </c>
-      <c r="G94" t="s">
-        <v>458</v>
-      </c>
-      <c r="H94" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="I94">
-        <v>1.187466859817505</v>
+        <v>1.077881574630737</v>
       </c>
       <c r="J94">
-        <v>9.903637409210205</v>
+        <v>30.27409267425537</v>
       </c>
       <c r="K94">
-        <v>0.1094036102294922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5091,31 +5005,31 @@
         <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D95" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="E95" t="s">
-        <v>257</v>
+        <v>387</v>
       </c>
       <c r="F95" t="s">
-        <v>373</v>
+        <v>465</v>
       </c>
       <c r="G95" t="s">
-        <v>459</v>
+        <v>524</v>
       </c>
       <c r="H95" t="s">
-        <v>471</v>
+        <v>555</v>
       </c>
       <c r="I95">
-        <v>1.124738693237305</v>
+        <v>1.343648195266724</v>
       </c>
       <c r="J95">
-        <v>10.34128451347351</v>
+        <v>9.966379642486572</v>
       </c>
       <c r="K95">
-        <v>0.1405744552612305</v>
+        <v>0.1247551441192627</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5126,28 +5040,22 @@
         <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D96" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="E96" t="s">
-        <v>287</v>
-      </c>
-      <c r="F96" t="s">
-        <v>374</v>
-      </c>
-      <c r="G96" t="s">
-        <v>460</v>
+        <v>388</v>
       </c>
       <c r="I96">
-        <v>1.202839374542236</v>
+        <v>0.4996480941772461</v>
       </c>
       <c r="J96">
-        <v>13.26323485374451</v>
+        <v>31.96130967140198</v>
       </c>
       <c r="K96">
-        <v>0.1093490123748779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5158,31 +5066,22 @@
         <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D97" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="E97" t="s">
-        <v>288</v>
-      </c>
-      <c r="F97" t="s">
-        <v>375</v>
-      </c>
-      <c r="G97" t="s">
-        <v>461</v>
-      </c>
-      <c r="H97" t="s">
-        <v>496</v>
+        <v>389</v>
       </c>
       <c r="I97">
-        <v>1.093492031097412</v>
+        <v>0.4844937324523926</v>
       </c>
       <c r="J97">
-        <v>11.52852535247803</v>
+        <v>30.3372642993927</v>
       </c>
       <c r="K97">
-        <v>0.124969482421875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5193,31 +5092,31 @@
         <v>106</v>
       </c>
       <c r="C98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D98" t="s">
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="E98" t="s">
-        <v>205</v>
+        <v>377</v>
       </c>
       <c r="F98" t="s">
-        <v>376</v>
+        <v>466</v>
       </c>
       <c r="G98" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="H98" t="s">
-        <v>465</v>
+        <v>553</v>
       </c>
       <c r="I98">
-        <v>1.296564102172852</v>
+        <v>5.857747793197632</v>
       </c>
       <c r="J98">
-        <v>8.451130628585815</v>
+        <v>10.66936278343201</v>
       </c>
       <c r="K98">
-        <v>0.09372615814208984</v>
+        <v>0.1093473434448242</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5228,31 +5127,28 @@
         <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D99" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="E99" t="s">
-        <v>289</v>
+        <v>390</v>
       </c>
       <c r="F99" t="s">
-        <v>377</v>
+        <v>467</v>
       </c>
       <c r="G99" t="s">
-        <v>463</v>
-      </c>
-      <c r="H99" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="I99">
-        <v>1.249923229217529</v>
+        <v>1.06241250038147</v>
       </c>
       <c r="J99">
-        <v>10.24757719039917</v>
+        <v>15.16836404800415</v>
       </c>
       <c r="K99">
-        <v>0.1091303825378418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5263,31 +5159,28 @@
         <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D100" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="E100" t="s">
-        <v>290</v>
-      </c>
-      <c r="F100" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="G100" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="H100" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="I100">
-        <v>1.031007051467896</v>
+        <v>4.374193429946899</v>
       </c>
       <c r="J100">
-        <v>12.76260995864868</v>
+        <v>12.82508444786072</v>
       </c>
       <c r="K100">
-        <v>0.109346866607666</v>
+        <v>0.1247386932373047</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5298,22 +5191,19 @@
         <v>109</v>
       </c>
       <c r="C101" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D101" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="E101" t="s">
-        <v>281</v>
-      </c>
-      <c r="F101" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="I101">
-        <v>1.234081268310547</v>
+        <v>0.421562671661377</v>
       </c>
       <c r="J101">
-        <v>30.88332295417786</v>
+        <v>51.80091190338135</v>
       </c>
       <c r="K101">
         <v>0</v>

--- a/lod_analysis/excels/albums.xlsx
+++ b/lod_analysis/excels/albums.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="580">
   <si>
     <t>album_id</t>
   </si>
@@ -46,1642 +46,1714 @@
     <t>geonames_download_time</t>
   </si>
   <si>
-    <t>0oX4SealMgNXrvRDhqqOKg</t>
+    <t>4zhigAhPwqp43XVHBiVeQI</t>
+  </si>
+  <si>
+    <t>4mkvtXQd6rD7zuAHhexEvb</t>
+  </si>
+  <si>
+    <t>3Qf4H3NYSp3BMIRe6WOyOA</t>
+  </si>
+  <si>
+    <t>1b9KEBOO7A5awr16aCd6VP</t>
+  </si>
+  <si>
+    <t>54Vh6c1F07fMJ93b63G9p8</t>
+  </si>
+  <si>
+    <t>7LPfdVDw4uXf9Bw5LQDESf</t>
+  </si>
+  <si>
+    <t>44BtGGBJohrvoKVzmi1wij</t>
+  </si>
+  <si>
+    <t>7qvA0kf1dkmR1As2gOnBPn</t>
+  </si>
+  <si>
+    <t>6KMkuqIwKkwUhUYRPL6dUc</t>
   </si>
   <si>
     <t>1F6HoOK69lMDIb3ujvwlTX</t>
   </si>
   <si>
-    <t>6mUdeDZCsExyJLMdAfDuwh</t>
+    <t>5U0pevIOTrPoDsN8YsBCBh</t>
+  </si>
+  <si>
+    <t>1xC5ZY2CNi8t1GbYSRwoUm</t>
+  </si>
+  <si>
+    <t>5yrouz3mmUWSsCufl1tLUJ</t>
+  </si>
+  <si>
+    <t>1SPzhFzjXrz9OXLP2rKg1C</t>
+  </si>
+  <si>
+    <t>2fYhqwDWXjbpjaIJPEfKFw</t>
+  </si>
+  <si>
+    <t>2hnbP6FxyvLBzUVZn9EFa2</t>
+  </si>
+  <si>
+    <t>5bHhH3k4p4ugORIb3q9BHd</t>
+  </si>
+  <si>
+    <t>1JXjYl5WVr3wFgV3DMIHMl</t>
+  </si>
+  <si>
+    <t>3tx8gQqWbGwqIGZHqDNrGe</t>
+  </si>
+  <si>
+    <t>64vPyY759lLETSt8rvc7Sf</t>
+  </si>
+  <si>
+    <t>5y6wlw1LnqFnQFruMeiwGU</t>
+  </si>
+  <si>
+    <t>34y7m68F7rN9ou6m5GWohR</t>
+  </si>
+  <si>
+    <t>4p9dVvZDaZliSjTCbFRhJy</t>
+  </si>
+  <si>
+    <t>77jAfTh3KH9K2reMOmTgOh</t>
+  </si>
+  <si>
+    <t>7q0dYnAjmqZBJLhMBre8aL</t>
+  </si>
+  <si>
+    <t>31Sx9uz9KqlvmX07Pvp0wN</t>
+  </si>
+  <si>
+    <t>0PMasrHdpaoIRuHuhHp72O</t>
+  </si>
+  <si>
+    <t>0X1muonPHLSGzU6g3dZx7M</t>
+  </si>
+  <si>
+    <t>6vC3YjRy755VljFSemBUu7</t>
+  </si>
+  <si>
+    <t>0nPBJGadOVJw8e0cem1aG5</t>
+  </si>
+  <si>
+    <t>1vHvJVBK0WnpbYFw4f4UTD</t>
+  </si>
+  <si>
+    <t>2rQ135imvelvp89D8eEZOi</t>
+  </si>
+  <si>
+    <t>4bTjdxhRRUiWfwj200f9Kl</t>
+  </si>
+  <si>
+    <t>0E4xv5gPjykrwBgBZzI8XG</t>
+  </si>
+  <si>
+    <t>1zbH0DnpYxaoqTojXNLQb6</t>
+  </si>
+  <si>
+    <t>3VfBy3QX5peTfME0UxzZ2P</t>
+  </si>
+  <si>
+    <t>14eK347GdWO4mBBx78tsut</t>
+  </si>
+  <si>
+    <t>1hxraaWEf3wFnJxADf8Dge</t>
+  </si>
+  <si>
+    <t>0OhU7nCAKZN8TwtWKAxvtT</t>
+  </si>
+  <si>
+    <t>5G3I9bLpCZxK4XeLyJ69iu</t>
+  </si>
+  <si>
+    <t>6yEuIwTQpciH1qtj7mP5GK</t>
+  </si>
+  <si>
+    <t>0FRgdvEBohgk5trS7lEndW</t>
+  </si>
+  <si>
+    <t>6GYIy1SuhPDrugCZ5yNeQy</t>
+  </si>
+  <si>
+    <t>6cdbsUYFysGXOh5fqWpIuR</t>
+  </si>
+  <si>
+    <t>3RKhRsifs4RWrqvWV1YpPY</t>
+  </si>
+  <si>
+    <t>77TzWDecQ5yRx3QxFFfTh2</t>
+  </si>
+  <si>
+    <t>1CwTQl3oL06qrjTithl9lB</t>
+  </si>
+  <si>
+    <t>0Ip2GlQPoAIgdkqCO2YkMa</t>
+  </si>
+  <si>
+    <t>4zHriUoFVrq0YZ2kIEOkIW</t>
+  </si>
+  <si>
+    <t>7wY4F8EMGYNP61hfZDY1OP</t>
+  </si>
+  <si>
+    <t>4SxhwzlhAfa0FgYHrGfGz8</t>
+  </si>
+  <si>
+    <t>03dlqdFWY9gwJxGl3AREVy</t>
+  </si>
+  <si>
+    <t>3xXwaj6hVwx0pnLtMCHZdC</t>
+  </si>
+  <si>
+    <t>6s84u2TUpR3wdUv4NgKA2j</t>
+  </si>
+  <si>
+    <t>5LbHbwejgZXRZAgzVAjkhj</t>
+  </si>
+  <si>
+    <t>0RhPpU4BvtF44qdvFnGQuh</t>
+  </si>
+  <si>
+    <t>6MJlXwm9rJV1sWBhNKIZG0</t>
+  </si>
+  <si>
+    <t>2EpuND32cO7CX0gXZl2NB6</t>
+  </si>
+  <si>
+    <t>78guAsers0klWl6RwzgDLd</t>
+  </si>
+  <si>
+    <t>2jnV6ytZOmt71iEC5xHEYz</t>
+  </si>
+  <si>
+    <t>1jcYwZsN7JEve9xsq9BuUX</t>
+  </si>
+  <si>
+    <t>24TAupSNVWSAHL0R7n71vm</t>
+  </si>
+  <si>
+    <t>0Xks5v0dve8Gh2tRHIekjo</t>
+  </si>
+  <si>
+    <t>6TJmQnO44YE5BtTxH8pop1</t>
+  </si>
+  <si>
+    <t>2Gf7TGoOt6FyRi7p32OzUM</t>
+  </si>
+  <si>
+    <t>7vN82vd1Vq44fjlhjfvHJp</t>
+  </si>
+  <si>
+    <t>2HaqChIDc5go3qxVunBDK0</t>
+  </si>
+  <si>
+    <t>64Kgf1EOogoo1FoZBvjS2h</t>
+  </si>
+  <si>
+    <t>31mnNcl6CzIcX8j9n75vYZ</t>
+  </si>
+  <si>
+    <t>3xmKWmqJFoXS22tePO3mgd</t>
+  </si>
+  <si>
+    <t>2FUsvD1bw53HGOjAg56vRD</t>
+  </si>
+  <si>
+    <t>1oWxRkI4V9d3hH3PqWpx9H</t>
+  </si>
+  <si>
+    <t>2g5XqE2hMjLdgFT2QBNK1h</t>
+  </si>
+  <si>
+    <t>13BmLGhVCLBn3XzKB8HIai</t>
+  </si>
+  <si>
+    <t>6JdX9MGiEMypqYLMKyIE8a</t>
+  </si>
+  <si>
+    <t>0JeyP8r2hBxYIoxXv11XiX</t>
+  </si>
+  <si>
+    <t>4HUUHHXBXImwksfbSPqE7q</t>
+  </si>
+  <si>
+    <t>2R7iJz5uaHjLEVnMkloO18</t>
+  </si>
+  <si>
+    <t>3ly9T2L4pqTZijFgQssd3x</t>
+  </si>
+  <si>
+    <t>2p9gK2BcdrloHNJwarc9gc</t>
+  </si>
+  <si>
+    <t>2bsemtYlVfVAQODavrDkS4</t>
+  </si>
+  <si>
+    <t>2jPDRf0wI6wWrtrHiO1xkO</t>
+  </si>
+  <si>
+    <t>1qwlxZTNLe1jq3b0iidlue</t>
+  </si>
+  <si>
+    <t>09asAAZJ7rXedp9J8wqvBR</t>
+  </si>
+  <si>
+    <t>01sfgrNbnnPUEyz6GZYlt9</t>
+  </si>
+  <si>
+    <t>7fRrTyKvE4Skh93v97gtcU</t>
+  </si>
+  <si>
+    <t>10v912xgTZbjAtYfyKWJCS</t>
+  </si>
+  <si>
+    <t>37he52Ye10gETvnot9bC2t</t>
+  </si>
+  <si>
+    <t>6VsJamdhvYKcnpwHAKULI0</t>
+  </si>
+  <si>
+    <t>0dZB8UHYsM7jKmm7ByzAVq</t>
+  </si>
+  <si>
+    <t>41TUivD915ztiKgyu99H9T</t>
+  </si>
+  <si>
+    <t>4mMan8IGNJUhZ6du15ki5T</t>
   </si>
   <si>
     <t>5PW7EiELfwvPbYEwkSR56o</t>
   </si>
   <si>
-    <t>5thv3RCZIDkWQVGDicoLkF</t>
-  </si>
-  <si>
-    <t>15k99o4mZJ9mfpQGIOrZ45</t>
-  </si>
-  <si>
-    <t>6i6folBtxKV28WX3msQ4FE</t>
-  </si>
-  <si>
-    <t>0BHa0ePkvGAVKymB4FU58m</t>
-  </si>
-  <si>
-    <t>7ij8wQxCAexZiXZbMOHcxE</t>
-  </si>
-  <si>
-    <t>1XcA7EEpVRg3FpVbhWu9JV</t>
-  </si>
-  <si>
-    <t>1XkGORuUX2QGOEIL4EbJKm</t>
-  </si>
-  <si>
-    <t>6Jx4cGhWHewTcfKDJKguBQ</t>
-  </si>
-  <si>
-    <t>4J02KJzJbOKJCtqXQkaNKY</t>
-  </si>
-  <si>
-    <t>6it58NcwmKI9xz4xyJ9xNH</t>
-  </si>
-  <si>
-    <t>4ZsG3ifn9sIcrFT1ecw0gF</t>
-  </si>
-  <si>
-    <t>0W73XWYmWnUPTH07IablnH</t>
-  </si>
-  <si>
-    <t>3we7A7UllAuA6QH6U9jmHs</t>
-  </si>
-  <si>
-    <t>0wELDKiN6EnDFXc9HvvNPy</t>
-  </si>
-  <si>
-    <t>7xk1Tl6UZ8OALZkFEagPsM</t>
-  </si>
-  <si>
-    <t>4i3rAwPw7Ln2YrKDusaWyT</t>
-  </si>
-  <si>
-    <t>5UxqSH1Ez2fcNVLqvLjsgB</t>
-  </si>
-  <si>
-    <t>6mVLRZmHfO3CQIk5e1WXBL</t>
-  </si>
-  <si>
-    <t>1CvjjpvqVMoyprsf74bpYW</t>
-  </si>
-  <si>
-    <t>2TNGyJVlzMUsD5mry6qsw2</t>
-  </si>
-  <si>
-    <t>31Sx9uz9KqlvmX07Pvp0wN</t>
-  </si>
-  <si>
-    <t>0hQb1KT6L3iEYRkS5u8cjm</t>
-  </si>
-  <si>
-    <t>6uqQP2jsszOsS9b1VMcfid</t>
-  </si>
-  <si>
-    <t>1CVJMhFsgCZeOMk2wQKnwL</t>
-  </si>
-  <si>
-    <t>0V7TZQmJBgI81M9Z7GWxCI</t>
-  </si>
-  <si>
-    <t>6I67hq0sDpBE2qn0nOkVK1</t>
-  </si>
-  <si>
-    <t>6t4LdKTNWIOr2PZIB8tiZF</t>
-  </si>
-  <si>
-    <t>2U9ONknz1iFEK9drEKLx8v</t>
-  </si>
-  <si>
-    <t>57lJNxlrPSin9SySEnerNb</t>
-  </si>
-  <si>
-    <t>0GBrlPh90D25SQ6EJu4VtT</t>
-  </si>
-  <si>
-    <t>1MqmDK2xw4isOPhiUb9eXO</t>
-  </si>
-  <si>
-    <t>1qHVYbxQ6IS8YRviorKDJI</t>
-  </si>
-  <si>
-    <t>01sfgrNbnnPUEyz6GZYlt9</t>
-  </si>
-  <si>
-    <t>5ySxm9hxBNss01WCL7GLyQ</t>
-  </si>
-  <si>
-    <t>6iFMsJMHQ9zqty9vnRmycq</t>
-  </si>
-  <si>
-    <t>2F7tejLHzTqFq2XLol9ZGy</t>
-  </si>
-  <si>
-    <t>2p9gK2BcdrloHNJwarc9gc</t>
-  </si>
-  <si>
-    <t>6eRDE48ttoLqN2VfkEpPOJ</t>
-  </si>
-  <si>
-    <t>5XpEKORZ4y6OrCZSKsi46A</t>
-  </si>
-  <si>
-    <t>2cWBwpqMsDJC1ZUwz813lo</t>
-  </si>
-  <si>
-    <t>33hEDxsIVGf7R6wRdZBQOw</t>
-  </si>
-  <si>
-    <t>4QkB5FT0hN3KWQeeF5Bih5</t>
-  </si>
-  <si>
-    <t>6nxDQi0FeEwccEPJeNySoS</t>
+    <t>5ENrI2pojxE4XhSmncl4cz</t>
+  </si>
+  <si>
+    <t>0f7R0jf0pcTb6K6IVVPcMD</t>
   </si>
   <si>
     <t>7DDzJCnzLdq6MhuRQlqx39</t>
   </si>
   <si>
-    <t>3UBY0Rsr5qPMpdOQ5zF0tv</t>
-  </si>
-  <si>
-    <t>7hktYMjRekLPK3BZRr4sIQ</t>
-  </si>
-  <si>
-    <t>4QT1dg8zQoHuXF2HZbWWEB</t>
-  </si>
-  <si>
-    <t>1CEODgTmTwLyabvwd7HBty</t>
-  </si>
-  <si>
-    <t>6YElUbHU0DsH8y9BcFB4xY</t>
-  </si>
-  <si>
-    <t>19AUoKWRAaQYrggVvdQnqq</t>
-  </si>
-  <si>
-    <t>1rYXSHYaxxQ9HclnAeVhxv</t>
-  </si>
-  <si>
-    <t>2DHGeuRTttjurZDb0pSjx6</t>
-  </si>
-  <si>
-    <t>2xChdOg0PvxzHzE1BooUpI</t>
-  </si>
-  <si>
-    <t>1azUkThwd2HfUDdeNeT147</t>
-  </si>
-  <si>
-    <t>0pF0oyuPNdOObniB1Ng0kW</t>
-  </si>
-  <si>
-    <t>0rSLgV8p5FzfnqlEk4GzxE</t>
-  </si>
-  <si>
-    <t>1wNDlgfrrLKInAgz5W4b2n</t>
-  </si>
-  <si>
-    <t>3vLaOYCNCzngDf8QdBg2V1</t>
-  </si>
-  <si>
-    <t>1SIpLwZu1R69coxKMH06kw</t>
-  </si>
-  <si>
-    <t>5sK78apv4yOoXjxRL4kOdJ</t>
-  </si>
-  <si>
-    <t>574xhx2X0G9MkqACxqi4cg</t>
-  </si>
-  <si>
-    <t>03kOqFjrxiwkgvj2ExN6ii</t>
-  </si>
-  <si>
-    <t>1s9tU91VJt4sU5owi29GD3</t>
-  </si>
-  <si>
-    <t>7ltvnXQCjQRwTlMy55XcCz</t>
-  </si>
-  <si>
-    <t>5Nwsra93UQYJ6xxcjcE10x</t>
-  </si>
-  <si>
-    <t>3lFQ9ihSNR5YD0yi0yTzdC</t>
-  </si>
-  <si>
-    <t>4VzzEviJGYUtAeSsJlI9QB</t>
-  </si>
-  <si>
-    <t>53tvjWbVNZKd3CvpENkzOC</t>
-  </si>
-  <si>
-    <t>5Mk8LGoWoPg0igqQXprzfR</t>
-  </si>
-  <si>
-    <t>0gsiszk6JWYwAyGvaTTud4</t>
-  </si>
-  <si>
-    <t>52AeC4gwbxDfFlLHgK1ByD</t>
-  </si>
-  <si>
-    <t>6d5tBL8NLw1Jdhr8D2w3PF</t>
-  </si>
-  <si>
-    <t>6vC3YjRy755VljFSemBUu7</t>
-  </si>
-  <si>
-    <t>32iAEBstCjauDhyKpGjTuq</t>
-  </si>
-  <si>
-    <t>7bFYkItFQOcnBYAwgrcVy1</t>
-  </si>
-  <si>
-    <t>2rQ135imvelvp89D8eEZOi</t>
-  </si>
-  <si>
-    <t>10aiDpdFGyfCFEcqpx6XTq</t>
-  </si>
-  <si>
-    <t>3FiplT4vIgWCRwLZSn0EDd</t>
-  </si>
-  <si>
-    <t>5W9OT0a5iZlBr83a9WMKFY</t>
-  </si>
-  <si>
-    <t>78hVLZZJhaXgrnfXKc6yxF</t>
-  </si>
-  <si>
-    <t>6P3Fqm7z9wr5GeatpVZ5ut</t>
-  </si>
-  <si>
-    <t>1qwlxZTNLe1jq3b0iidlue</t>
-  </si>
-  <si>
-    <t>5gdoRB1AUsGnScCuZ8gmPp</t>
-  </si>
-  <si>
-    <t>3uQMzfrf4kUNGsCtmTtjPh</t>
-  </si>
-  <si>
-    <t>5G5rgQHzdQnw32SI0WjIo5</t>
-  </si>
-  <si>
-    <t>2YRKb8nnxH7FFe9Vwtd0Ql</t>
-  </si>
-  <si>
-    <t>13BmLGhVCLBn3XzKB8HIai</t>
-  </si>
-  <si>
-    <t>7gkfkNVykbrbob7D0VlalU</t>
-  </si>
-  <si>
-    <t>3FCGXFULVQiKJkFvo6hMFo</t>
-  </si>
-  <si>
-    <t>2xg7iIKoSqaDNpDbJnyCjY</t>
-  </si>
-  <si>
-    <t>2qmrRoUZQemrKFr9PBMDHd</t>
-  </si>
-  <si>
-    <t>6VIiHu2RCwWo4151YCG7ND</t>
-  </si>
-  <si>
-    <t>5kkPOwoE9ItngbGIF6m3A4</t>
-  </si>
-  <si>
-    <t>4PgleR09JVnm3zY1fW3XBA</t>
-  </si>
-  <si>
-    <t>0BvoIfpCiKSobLiXF7QOvN</t>
-  </si>
-  <si>
-    <t>6gmA371eyifTAne65ebsw7</t>
-  </si>
-  <si>
-    <t>Dangerous</t>
+    <t>0xHHJdnDNOUDmIKqBZnHV9</t>
+  </si>
+  <si>
+    <t>35s58BRTGAEWztPo9WqCIs</t>
+  </si>
+  <si>
+    <t>5oXBmKbyJeQftWMo87cQ9F</t>
+  </si>
+  <si>
+    <t>5a9ALw6xk6jtluuCektmMU</t>
+  </si>
+  <si>
+    <t>Daniel Powter</t>
+  </si>
+  <si>
+    <t>Levels</t>
+  </si>
+  <si>
+    <t>Greatest Hits</t>
+  </si>
+  <si>
+    <t>We Started Nothing</t>
+  </si>
+  <si>
+    <t>Best Of (Epsom Mad Funkers)</t>
+  </si>
+  <si>
+    <t>Heartbeat City (Expanded Edition)</t>
+  </si>
+  <si>
+    <t>Boom, Boom, Boom, Boom!!</t>
+  </si>
+  <si>
+    <t>The Most Beautiful Moment in Life: Young Forever</t>
+  </si>
+  <si>
+    <t>Concrete and Gold</t>
   </si>
   <si>
     <t>Chinese Wall</t>
   </si>
   <si>
-    <t>Back In Black</t>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Back Together</t>
+  </si>
+  <si>
+    <t>Still Got The Blues</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>thank u, next</t>
+  </si>
+  <si>
+    <t>Beastie Boys Music</t>
+  </si>
+  <si>
+    <t>In The City</t>
+  </si>
+  <si>
+    <t>Stars: The Best Of The Cranberries 1992-2002</t>
+  </si>
+  <si>
+    <t>Sweetener</t>
+  </si>
+  <si>
+    <t>Odelay (Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>The Joshua Tree (Super Deluxe)</t>
+  </si>
+  <si>
+    <t>Love Angel Music Baby</t>
+  </si>
+  <si>
+    <t>My Head Is An Animal</t>
+  </si>
+  <si>
+    <t>This Is Acting</t>
+  </si>
+  <si>
+    <t>Crystal Visions...The Very Best of Stevie Nicks</t>
+  </si>
+  <si>
+    <t>Life Thru A Lens</t>
+  </si>
+  <si>
+    <t>Born In The U.S.A.</t>
+  </si>
+  <si>
+    <t>Adrenalize (Deluxe)</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Smack My Bitch Up</t>
+  </si>
+  <si>
+    <t>Exodus (Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>One Hot Minute (Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>Nothing but the Beat (Ultimate Edition)</t>
+  </si>
+  <si>
+    <t>Back To Black (Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>13 Reasons Why (Season 3)</t>
+  </si>
+  <si>
+    <t>Have A Nice Day</t>
+  </si>
+  <si>
+    <t>Sublime</t>
+  </si>
+  <si>
+    <t>Too Weird to Live, Too Rare to Die!</t>
+  </si>
+  <si>
+    <t>Summer Sound Waves</t>
+  </si>
+  <si>
+    <t>To The Faithful Departed</t>
+  </si>
+  <si>
+    <t>Out Of Time (25th Anniversary Edition)</t>
+  </si>
+  <si>
+    <t>Chronicles</t>
+  </si>
+  <si>
+    <t>The Best Of Men At Work: Contraband</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>Don't You Worry Child</t>
+  </si>
+  <si>
+    <t>Shut Up!</t>
+  </si>
+  <si>
+    <t>#SELFIE</t>
+  </si>
+  <si>
+    <t>Reload</t>
+  </si>
+  <si>
+    <t>Bananarama (Collector's Edition)</t>
+  </si>
+  <si>
+    <t>DMBX2</t>
+  </si>
+  <si>
+    <t>Eat To The Beat</t>
+  </si>
+  <si>
+    <t>God Shuffled His Feet</t>
+  </si>
+  <si>
+    <t>Notorious (Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>SOUR</t>
+  </si>
+  <si>
+    <t>Facelift</t>
+  </si>
+  <si>
+    <t>Cornerstone</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>Reggatta De Blanc (Remastered 2003)</t>
+  </si>
+  <si>
+    <t>Audioslave</t>
+  </si>
+  <si>
+    <t>Lust For Life</t>
+  </si>
+  <si>
+    <t>Number Ones</t>
+  </si>
+  <si>
+    <t>Bad 25th Anniversary</t>
+  </si>
+  <si>
+    <t>Before the Storm, Special Edition</t>
+  </si>
+  <si>
+    <t>Hot Fuss</t>
+  </si>
+  <si>
+    <t>All About That Bass</t>
+  </si>
+  <si>
+    <t>Loud</t>
+  </si>
+  <si>
+    <t>Funk Wav Bounces Vol.1</t>
+  </si>
+  <si>
+    <t>Kisstory Presents Old Skool &amp; Anthems</t>
+  </si>
+  <si>
+    <t>Wheatus</t>
+  </si>
+  <si>
+    <t>RECHARGED</t>
+  </si>
+  <si>
+    <t>Backstreet Boys</t>
+  </si>
+  <si>
+    <t>Roadtrip Hits</t>
+  </si>
+  <si>
+    <t>A Little Bit of Mambo</t>
+  </si>
+  <si>
+    <t>Villains</t>
+  </si>
+  <si>
+    <t>Future Nostalgia (The Moonlight Edition)</t>
+  </si>
+  <si>
+    <t>Nellyville</t>
+  </si>
+  <si>
+    <t>Mylo Xyloto</t>
+  </si>
+  <si>
+    <t>Different Class</t>
+  </si>
+  <si>
+    <t>death bed (coffee for your head)</t>
+  </si>
+  <si>
+    <t>lovehatetragedy</t>
+  </si>
+  <si>
+    <t>The Ultimate Dinner Party Album</t>
+  </si>
+  <si>
+    <t>The Fame</t>
+  </si>
+  <si>
+    <t>Dark Before Dawn</t>
+  </si>
+  <si>
+    <t>Dua Lipa (Deluxe)</t>
+  </si>
+  <si>
+    <t>dont smile at me</t>
+  </si>
+  <si>
+    <t>Highway to Hell</t>
+  </si>
+  <si>
+    <t>Konk</t>
+  </si>
+  <si>
+    <t>Monkey Business</t>
+  </si>
+  <si>
+    <t>Come What(ever) May [10th Anniversary Edition]</t>
+  </si>
+  <si>
+    <t>Hot Mess</t>
+  </si>
+  <si>
+    <t>Heathen Chemistry</t>
   </si>
   <si>
     <t>The Cloud Room</t>
   </si>
   <si>
-    <t>Death Valley</t>
-  </si>
-  <si>
-    <t>Summer Pack</t>
-  </si>
-  <si>
-    <t>Bohemian Rhapsody (The Original Soundtrack)</t>
-  </si>
-  <si>
-    <t>Infest</t>
-  </si>
-  <si>
-    <t>Father of All...</t>
-  </si>
-  <si>
-    <t>DECEMBERUNDERGROUND</t>
-  </si>
-  <si>
-    <t>Favourite Worst Nightmare</t>
-  </si>
-  <si>
-    <t>Angles</t>
-  </si>
-  <si>
-    <t>Burn</t>
-  </si>
-  <si>
-    <t>Love Song Dedications</t>
-  </si>
-  <si>
-    <t>Throwing Copper</t>
-  </si>
-  <si>
-    <t>Best of 2001-2009</t>
-  </si>
-  <si>
-    <t>The Platinum Collection</t>
-  </si>
-  <si>
-    <t>Essential - 80's Love</t>
-  </si>
-  <si>
-    <t>So Much For The Afterglow</t>
-  </si>
-  <si>
-    <t>everything i wanted</t>
-  </si>
-  <si>
-    <t>Animalize</t>
-  </si>
-  <si>
-    <t>Splinter</t>
-  </si>
-  <si>
-    <t>Fanmail</t>
-  </si>
-  <si>
-    <t>Summer: The Original Hits</t>
-  </si>
-  <si>
-    <t>Life Thru A Lens</t>
-  </si>
-  <si>
-    <t>So (Remastered)</t>
-  </si>
-  <si>
-    <t>Pure... Dance Party</t>
-  </si>
-  <si>
-    <t>90s Mixtape</t>
-  </si>
-  <si>
-    <t>Shock Value</t>
-  </si>
-  <si>
-    <t>Vienna Greatest Hits</t>
-  </si>
-  <si>
-    <t>Viva Hate (2011 Remaster)</t>
-  </si>
-  <si>
-    <t>Backstreet's Back</t>
-  </si>
-  <si>
-    <t>Fashion Nugget</t>
-  </si>
-  <si>
-    <t>Slowhand 35th Anniversary</t>
-  </si>
-  <si>
-    <t>Untouchables</t>
-  </si>
-  <si>
-    <t>I'm an Albatraoz</t>
-  </si>
-  <si>
-    <t>Dua Lipa (Deluxe)</t>
-  </si>
-  <si>
-    <t>Millennium</t>
-  </si>
-  <si>
-    <t>Mama Africa</t>
-  </si>
-  <si>
-    <t>Global Warming: Meltdown (Deluxe Version)</t>
-  </si>
-  <si>
-    <t>death bed (coffee for your head)</t>
-  </si>
-  <si>
-    <t>In Silico</t>
-  </si>
-  <si>
-    <t>Norman Fucking Rockwell!</t>
-  </si>
-  <si>
-    <t>The Eminem Show</t>
-  </si>
-  <si>
-    <t>No Way Out (2014 Remaster)</t>
-  </si>
-  <si>
-    <t>Don't Worry About Me</t>
-  </si>
-  <si>
-    <t>Night Visions</t>
+    <t>Dancing Shoes</t>
+  </si>
+  <si>
+    <t>Meteora (Bonus Edition)</t>
   </si>
   <si>
     <t>The Seeds Of Love (Super Deluxe)</t>
   </si>
   <si>
-    <t>Bang Bang</t>
-  </si>
-  <si>
-    <t>The Invisible Band</t>
-  </si>
-  <si>
-    <t>Skiing Workout Mix</t>
-  </si>
-  <si>
-    <t>Viva La Vida or Death and All His Friends</t>
-  </si>
-  <si>
-    <t>Best Of (English Version)</t>
-  </si>
-  <si>
-    <t>High Voltage</t>
-  </si>
-  <si>
-    <t>Von Anfang An...Bis Jetzt !</t>
-  </si>
-  <si>
-    <t>West Ryder Pauper Lunatic Asylum</t>
-  </si>
-  <si>
-    <t>Rock n Roll Jesus</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>7/27 (Deluxe)</t>
-  </si>
-  <si>
-    <t>Closer</t>
-  </si>
-  <si>
-    <t>Greatest Hits</t>
-  </si>
-  <si>
-    <t>Uptown Special</t>
-  </si>
-  <si>
-    <t>May Death Never Stop You</t>
-  </si>
-  <si>
-    <t>Sunshine on Leith</t>
-  </si>
-  <si>
-    <t>Greatest Hits: My Prerogative</t>
-  </si>
-  <si>
-    <t>Move Along</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>More Monsters and Sprites EP</t>
-  </si>
-  <si>
-    <t>Nine Track Mind</t>
-  </si>
-  <si>
-    <t>The Open Door</t>
-  </si>
-  <si>
-    <t>Woodstock</t>
-  </si>
-  <si>
-    <t>Midnite Vultures</t>
-  </si>
-  <si>
-    <t>Follow The Leader</t>
-  </si>
-  <si>
-    <t>Urban Hymns (Remastered 2016)</t>
-  </si>
-  <si>
-    <t>Youthquake</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>I Love Rock'n'Roll!</t>
-  </si>
-  <si>
-    <t>One Hot Minute (Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>Supernatural (Remastered)</t>
-  </si>
-  <si>
-    <t>Sheryl Crow</t>
-  </si>
-  <si>
-    <t>Synchronicity (Remastered 2003)</t>
-  </si>
-  <si>
-    <t>Nena</t>
-  </si>
-  <si>
-    <t>Out of the Cellar</t>
-  </si>
-  <si>
-    <t>The Fame</t>
-  </si>
-  <si>
-    <t>Heartbreak Weather</t>
-  </si>
-  <si>
-    <t>Raise Your Glass</t>
-  </si>
-  <si>
-    <t>Get Rich Or Die Tryin'</t>
-  </si>
-  <si>
-    <t>A Collection Of Great Dance Songs</t>
-  </si>
-  <si>
-    <t>A Little Bit of Mambo</t>
-  </si>
-  <si>
-    <t>Dead End in Tokyo</t>
-  </si>
-  <si>
-    <t>Words</t>
-  </si>
-  <si>
-    <t>Moving Pictures (2011 Remaster)</t>
-  </si>
-  <si>
-    <t>Kernkraft 400 Single Mixes</t>
-  </si>
-  <si>
-    <t>Pelican West Plus</t>
-  </si>
-  <si>
-    <t>Shaman</t>
-  </si>
-  <si>
-    <t>24K Magic</t>
-  </si>
-  <si>
-    <t>Blondie 4(0)-Ever: Greatest Hits Deluxe Redux / Ghosts Of Download</t>
-  </si>
-  <si>
-    <t>Chun-Li</t>
+    <t>Another Night</t>
+  </si>
+  <si>
+    <t>Spider-Man: Into the Spider-Verse (Soundtrack From &amp; Inspired by the Motion Picture)</t>
+  </si>
+  <si>
+    <t>Vampire Weekend</t>
+  </si>
+  <si>
+    <t>Lenny</t>
+  </si>
+  <si>
+    <t>7xTcuBOIAAIGDOSvwYFPzk</t>
+  </si>
+  <si>
+    <t>1vCWHaC5f2uS3yhpwWbIA6</t>
+  </si>
+  <si>
+    <t>3qm84nBOXUEQ2vnTfUTTFC</t>
+  </si>
+  <si>
+    <t>2wvUfjKGoXvcnDHq7GgMOa</t>
+  </si>
+  <si>
+    <t>39oSLGo3HkaeYXzUEGgAGQ</t>
+  </si>
+  <si>
+    <t>6DCIj8jNaNpBz8e5oKFPtp</t>
+  </si>
+  <si>
+    <t>0cwmNvclzPd8mQnoHuIksj</t>
+  </si>
+  <si>
+    <t>3Nrfpe0tUJi4K4DXYWgMUX</t>
+  </si>
+  <si>
+    <t>7jy3rLJdDQY21OgRLCZ9sD</t>
+  </si>
+  <si>
+    <t>6ZNeppgfBLPUyugks9Yn1u</t>
+  </si>
+  <si>
+    <t>3RNrq3jvMZxD9ZyoOZbQOD</t>
+  </si>
+  <si>
+    <t>0ZrpamOxcZybMHGg1AYtHP</t>
+  </si>
+  <si>
+    <t>23wr9RJZg0PmYvVFyNkQ4j</t>
+  </si>
+  <si>
+    <t>7oPftvlwr6VrsViSDV7fJY</t>
+  </si>
+  <si>
+    <t>66CXWjxzNUsdJxJ2JdwvnR</t>
+  </si>
+  <si>
+    <t>03r4iKL2g2442PT9n2UKsx</t>
+  </si>
+  <si>
+    <t>0Chxmm4XMM87mJOHvyiUzL</t>
+  </si>
+  <si>
+    <t>7t0rwkOPGlDPEhaOcVtOt9</t>
+  </si>
+  <si>
+    <t>3vbKDsSS70ZX9D2OcvbZmS</t>
+  </si>
+  <si>
+    <t>51Blml2LZPmy7TTiAg47vQ</t>
+  </si>
+  <si>
+    <t>4yiQZ8tQPux8cPriYMWUFP</t>
+  </si>
+  <si>
+    <t>4dwdTW1Lfiq0cM8nBAqIIz</t>
+  </si>
+  <si>
+    <t>5WUlDfRSoLAfcVSX1WnrxN</t>
+  </si>
+  <si>
+    <t>7crPfGd2k81ekOoSqQKWWz</t>
+  </si>
+  <si>
+    <t>2HcwFjNelS49kFbfvMxQYw</t>
+  </si>
+  <si>
+    <t>3eqjTLE0HfPfh78zjh6TqT</t>
+  </si>
+  <si>
+    <t>6H1RjVyNruCmrBEWRbD0VZ</t>
+  </si>
+  <si>
+    <t>3MZsBdqDrRTJihTHQrO6Dq</t>
+  </si>
+  <si>
+    <t>4k1ELeJKT1ISyDv8JivPpB</t>
+  </si>
+  <si>
+    <t>2QsynagSdAqZj3U9HgDzjD</t>
+  </si>
+  <si>
+    <t>0L8ExT028jH3ddEcZwqJJ5</t>
+  </si>
+  <si>
+    <t>1Cs0zKBU1kc0i8ypK3B9ai</t>
+  </si>
+  <si>
+    <t>6Q192DXotxtaysaqNPy5yR</t>
+  </si>
+  <si>
+    <t>5Rl15oVamLq7FbSb0NNBNy</t>
+  </si>
+  <si>
+    <t>58lV9VcRSjABbAbfWS6skp</t>
+  </si>
+  <si>
+    <t>0EdvGhlC1FkGItLOWQzG4J</t>
+  </si>
+  <si>
+    <t>20JZFwl6HVl6yg8a4H3ZqK</t>
+  </si>
+  <si>
+    <t>4hqDqHtBlgxXpLXVYf7c8L</t>
+  </si>
+  <si>
+    <t>4KWTAlx2RvbpseOGMEmROg</t>
+  </si>
+  <si>
+    <t>5gxynDEKwNDgxGJmJjZyte</t>
+  </si>
+  <si>
+    <t>0f3EsoviYnRKTkmayI3cux</t>
+  </si>
+  <si>
+    <t>6m30rs1IQqnWqV5nKMpU7U</t>
+  </si>
+  <si>
+    <t>1h6Cn3P4NGzXbaXidqURXs</t>
+  </si>
+  <si>
+    <t>2p4FqHnazRucYQHyDCdBrJ</t>
+  </si>
+  <si>
+    <t>69GGBxA162lTqCwzJG5jLp</t>
+  </si>
+  <si>
+    <t>2ye2Wgw4gimLv2eAKyk1NB</t>
+  </si>
+  <si>
+    <t>3sc7iUG1Wwpwx7bHeZolgx</t>
+  </si>
+  <si>
+    <t>762310PdDnwsDxAQxzQkfX</t>
+  </si>
+  <si>
+    <t>4tpUmLEVLCGFr93o8hFFIB</t>
+  </si>
+  <si>
+    <t>1YEGETLT2p8k97LIo3deHL</t>
+  </si>
+  <si>
+    <t>0lZoBs4Pzo7R89JM9lxwoT</t>
+  </si>
+  <si>
+    <t>1McMsnEElThX1knmY4oliG</t>
+  </si>
+  <si>
+    <t>64tNsm6TnZe2zpcMVMOoHL</t>
+  </si>
+  <si>
+    <t>4salDzkGmfycRqNUbyBphh</t>
+  </si>
+  <si>
+    <t>4W48hZAnAHVOC2c8WH8pcq</t>
+  </si>
+  <si>
+    <t>5NGO30tJxFlKixkPSgXcFE</t>
+  </si>
+  <si>
+    <t>2ziB7fzrXBoh1HUPS6sVFn</t>
+  </si>
+  <si>
+    <t>33EUXrFKGjpUSGacqEHhU4</t>
   </si>
   <si>
     <t>3fMbdgg4jU18AjLCKBhRSm</t>
   </si>
   <si>
-    <t>6ZNeppgfBLPUyugks9Yn1u</t>
+    <t>0LhHRmSd1EYM5QdNeNnCoQ</t>
+  </si>
+  <si>
+    <t>0C0XlULifJtAgn6ZNCW2eu</t>
+  </si>
+  <si>
+    <t>6JL8zeS1NmiOftqZTRgdTz</t>
+  </si>
+  <si>
+    <t>5pKCCKE2ajJHZ9KAiaK11H</t>
+  </si>
+  <si>
+    <t>7CajNmpbOovFoOoasH2HaY</t>
+  </si>
+  <si>
+    <t>5sm0jQ1mq0dusiLtDJ2b4R</t>
+  </si>
+  <si>
+    <t>6FBDaR13swtiWwGhX1WQsP</t>
+  </si>
+  <si>
+    <t>4mYFgEjpQT4IKOrjOUKyXu</t>
+  </si>
+  <si>
+    <t>6XyY86QOPPrYVGvF9ch6wz</t>
+  </si>
+  <si>
+    <t>5rSXSAkZ67PYJSvpUpkOr7</t>
+  </si>
+  <si>
+    <t>2qlAMLpUyBjZgnzuFXXZXI</t>
+  </si>
+  <si>
+    <t>46lnlnlU0dXTDpoAUmH6Qx</t>
+  </si>
+  <si>
+    <t>4pejUc4iciQfgdX6OKulQn</t>
+  </si>
+  <si>
+    <t>6M2wZ9GZgrQXHCFfjv46we</t>
+  </si>
+  <si>
+    <t>2gBjLmx6zQnFGQJCAQpRgw</t>
+  </si>
+  <si>
+    <t>4gzpq5DPGxSnKTe4SA8HAU</t>
+  </si>
+  <si>
+    <t>36E7oYfz3LLRto6l2WmDcD</t>
+  </si>
+  <si>
+    <t>6bmlMHgSheBauioMgKv2tn</t>
+  </si>
+  <si>
+    <t>4RddZ3iHvSpGV4dvATac9X</t>
+  </si>
+  <si>
+    <t>0Xf8oDAJYd2D0k3NLI19OV</t>
+  </si>
+  <si>
+    <t>1HY2Jd0NmPuamShAr6KMms</t>
+  </si>
+  <si>
+    <t>5BtHciL0e0zOP7prIHn3pP</t>
+  </si>
+  <si>
+    <t>6qqNVTkY8uBg9cP3Jd7DAH</t>
   </si>
   <si>
     <t>711MCceyCBcFnzjGY4Q7Un</t>
   </si>
   <si>
+    <t>1GLtl8uqKmnyCWxHmw9tL4</t>
+  </si>
+  <si>
+    <t>1yxSLGMDHlW21z4YXirZDS</t>
+  </si>
+  <si>
+    <t>49qiE8dj4JuNdpYGRPdKbF</t>
+  </si>
+  <si>
+    <t>2aYJ5LAta2ScCdfLhKgZOY</t>
+  </si>
+  <si>
+    <t>2DaxqgrOhkeH0fpeiQq2f4</t>
+  </si>
+  <si>
     <t>4wucqyuotyHg3kBk1aMTTN</t>
   </si>
   <si>
-    <t>0J7U24vlOOIeMpuaO6Q85A</t>
-  </si>
-  <si>
-    <t>73sIBHcqh3Z3NyqHKZ7FOL</t>
-  </si>
-  <si>
-    <t>1dfeR4HaWDbWqFHLkxsg1d</t>
-  </si>
-  <si>
-    <t>4RddZ3iHvSpGV4dvATac9X</t>
-  </si>
-  <si>
-    <t>7oPftvlwr6VrsViSDV7fJY</t>
-  </si>
-  <si>
-    <t>19I4tYiChJoxEO5EuviXpz</t>
-  </si>
-  <si>
-    <t>7Ln80lUS6He07XvHI8qqHH</t>
-  </si>
-  <si>
-    <t>0epOFNiUfyON9EYx7Tpr6V</t>
-  </si>
-  <si>
-    <t>0X2BH1fck6amBIoJhDVmmJ</t>
-  </si>
-  <si>
-    <t>3cniTumSiUysiPWXapGx1i</t>
-  </si>
-  <si>
-    <t>6eoJpTIlcuxJNjV5fDzDJH</t>
-  </si>
-  <si>
-    <t>76ptJV8617638xrpeoUtzl</t>
-  </si>
-  <si>
-    <t>3CkvROUTQ6nRi9yQOcsB50</t>
-  </si>
-  <si>
-    <t>0gxyHStUsqpMadRV0Di1Qt</t>
-  </si>
-  <si>
-    <t>694QW15WkebjcrWgQHzRYF</t>
-  </si>
-  <si>
-    <t>6qqNVTkY8uBg9cP3Jd7DAH</t>
-  </si>
-  <si>
-    <t>07XSN3sPlIlB2L2XNcTwJw</t>
-  </si>
-  <si>
-    <t>5LfGQac0EIXyAN8aUwmNAQ</t>
-  </si>
-  <si>
-    <t>0TImkz4nPqjegtVSMZnMRq</t>
-  </si>
-  <si>
-    <t>2eogQKWWoohI3BSnoG7E2U</t>
-  </si>
-  <si>
-    <t>2HcwFjNelS49kFbfvMxQYw</t>
-  </si>
-  <si>
-    <t>7C4sUpWGlTy7IANjruj02I</t>
-  </si>
-  <si>
-    <t>3bmFPbLMiLxtR9tFrTcKcP</t>
-  </si>
-  <si>
-    <t>5N5RfI8FFXk4WQ8kkjE407</t>
-  </si>
-  <si>
-    <t>5Y5TRrQiqgUO4S36tzjIRZ</t>
-  </si>
-  <si>
-    <t>0hLd40hVpRDGENe4KGZLnW</t>
-  </si>
-  <si>
-    <t>3iTsJGG39nMg9YiolUgLMQ</t>
-  </si>
-  <si>
-    <t>5rSXSAkZ67PYJSvpUpkOr7</t>
-  </si>
-  <si>
-    <t>6A43Djmhbe9100UwnI7epV</t>
-  </si>
-  <si>
-    <t>6PAt558ZEZl0DmdXlnjMgD</t>
-  </si>
-  <si>
-    <t>3RNrq3jvMZxD9ZyoOZbQOD</t>
-  </si>
-  <si>
-    <t>5vCOdeiQt9LyzdI87kt5Sh</t>
-  </si>
-  <si>
-    <t>6M2wZ9GZgrQXHCFfjv46we</t>
-  </si>
-  <si>
-    <t>0oea1hwGMfUxZbLxJc1XUN</t>
-  </si>
-  <si>
-    <t>0TnOYISbd1XYRBk9myaseg</t>
-  </si>
-  <si>
-    <t>6bmlMHgSheBauioMgKv2tn</t>
-  </si>
-  <si>
-    <t>7MqnCTCAX6SsIYYdJCQj9B</t>
-  </si>
-  <si>
-    <t>00FQb4jTyendYWaN8pK0wa</t>
-  </si>
-  <si>
-    <t>7dGJo4pcD2V6oG8kP0tJRR</t>
-  </si>
-  <si>
-    <t>59wfkuBoNyhDMQGCljbUbA</t>
-  </si>
-  <si>
-    <t>7dxF7y4hlGFazdArMsxbEx</t>
-  </si>
-  <si>
-    <t>53XhwfbYqKCa1cC15pYq2q</t>
+    <t>6VX2R9L0O0d6qPvqGuIH7b</t>
   </si>
   <si>
     <t>4bthk9UfsYUYdcFyqxmSUU</t>
   </si>
   <si>
-    <t>2gsggkzM5R49q6jpPvazou</t>
-  </si>
-  <si>
-    <t>3bUwxJgNakzYKkqAVgZLlh</t>
-  </si>
-  <si>
-    <t>6eBYLQONaYZhZNAVK061t6</t>
-  </si>
-  <si>
-    <t>4gzpq5DPGxSnKTe4SA8HAU</t>
-  </si>
-  <si>
-    <t>46aNfN89JrOQTCy97GoCHa</t>
-  </si>
-  <si>
-    <t>7ip3CWlgPZbQHvgJpmcGSS</t>
-  </si>
-  <si>
-    <t>11wRdbnoYqRddKBrpHt4Ue</t>
-  </si>
-  <si>
-    <t>7dOBabd5O4CvKrg4iriHTM</t>
-  </si>
-  <si>
-    <t>4dpARuHxo51G3z768sgnrY</t>
-  </si>
-  <si>
-    <t>1l8Fu6IkuTP0U5QetQJ5Xt</t>
-  </si>
-  <si>
-    <t>69GGBxA162lTqCwzJG5jLp</t>
-  </si>
-  <si>
-    <t>5NGO30tJxFlKixkPSgXcFE</t>
-  </si>
-  <si>
-    <t>3hv9jJF3adDNsBSIQDqcjp</t>
-  </si>
-  <si>
-    <t>7FBcuc1gsnv6Y1nwFtNRCb</t>
-  </si>
-  <si>
-    <t>1A92IAcd7A6npCA33oGM5i</t>
-  </si>
-  <si>
-    <t>26dSoYclwsYLMAKD3tpOr4</t>
-  </si>
-  <si>
-    <t>3vAaWhdBR38Q02ohXqaNHT</t>
-  </si>
-  <si>
-    <t>1vCWHaC5f2uS3yhpwWbIA6</t>
-  </si>
-  <si>
-    <t>5he5w2lnU9x7JFhnwcekXX</t>
-  </si>
-  <si>
-    <t>6VuMaDnrHyPL1p4EHjYLi7</t>
-  </si>
-  <si>
-    <t>5nGIFgo0shDenQYSE0Sn7c</t>
-  </si>
-  <si>
-    <t>4kI8Ie27vjvonwaB2ePh8T</t>
-  </si>
-  <si>
-    <t>0L8ExT028jH3ddEcZwqJJ5</t>
-  </si>
-  <si>
-    <t>3vbKDsSS70ZX9D2OcvbZmS</t>
-  </si>
-  <si>
-    <t>2cGwlqi3k18jFpUyTrsR84</t>
-  </si>
-  <si>
-    <t>5WWSL6rElJeUk3Uc1S2RyD</t>
-  </si>
-  <si>
-    <t>3MZsBdqDrRTJihTHQrO6Dq</t>
-  </si>
-  <si>
-    <t>6eUKZXaKkcviH0Ku9w2n3V</t>
-  </si>
-  <si>
-    <t>0WwSkZ7LtFUFjGjMZBMt6T</t>
-  </si>
-  <si>
-    <t>6GI52t8N5F02MxU0g5U69P</t>
-  </si>
-  <si>
-    <t>4TKTii6gnOnUXQHyuo9JaD</t>
-  </si>
-  <si>
-    <t>6Tz0QRoe083BcOo2YbG9lV</t>
-  </si>
-  <si>
-    <t>3tufWJzpCiAGleBt5TkmTn</t>
-  </si>
-  <si>
-    <t>1HY2Jd0NmPuamShAr6KMms</t>
-  </si>
-  <si>
-    <t>1Hsdzj7Dlq2I7tHP7501T4</t>
-  </si>
-  <si>
-    <t>1KCSPY1glIKqW2TotWuXOR</t>
-  </si>
-  <si>
-    <t>3q7HBObVc0L8jNeTe5Gofh</t>
-  </si>
-  <si>
-    <t>0k17h0D3J5VfsdmQ1iZtE9</t>
-  </si>
-  <si>
-    <t>46lnlnlU0dXTDpoAUmH6Qx</t>
-  </si>
-  <si>
-    <t>3NTbOmzlj2cL86XFuDVFvZ</t>
-  </si>
-  <si>
-    <t>6GnCucI2uDaYj1j39GFxkn</t>
-  </si>
-  <si>
-    <t>2Hkut4rAAyrQxRdof7FVJq</t>
-  </si>
-  <si>
-    <t>7vFpNLbCXbBFs4kFBUlkSl</t>
-  </si>
-  <si>
-    <t>6imyM8T1Xbe8v2iZe41dR7</t>
-  </si>
-  <si>
-    <t>0du5cEVh5yTK9QJze8zA0C</t>
-  </si>
-  <si>
-    <t>4tpUmLEVLCGFr93o8hFFIB</t>
-  </si>
-  <si>
-    <t>0hCNtLu0JehylgoiP8L4Gh</t>
+    <t>2vRfKzjQYJQd67X8x49MOh</t>
+  </si>
+  <si>
+    <t>246dkjvS1zLTtiykXe5h60</t>
+  </si>
+  <si>
+    <t>5BvJzeQpmsdsFp4HGUYUEx</t>
+  </si>
+  <si>
+    <t>5gznATMVO85ZcLTkE9ULU7</t>
+  </si>
+  <si>
+    <t>Avicii</t>
+  </si>
+  <si>
+    <t>Guns N' Roses</t>
+  </si>
+  <si>
+    <t>The Ting Tings</t>
+  </si>
+  <si>
+    <t>EMF</t>
+  </si>
+  <si>
+    <t>The Cars</t>
+  </si>
+  <si>
+    <t>Vengaboys</t>
+  </si>
+  <si>
+    <t>BTS</t>
+  </si>
+  <si>
+    <t>Foo Fighters</t>
+  </si>
+  <si>
+    <t>Philip Bailey</t>
+  </si>
+  <si>
+    <t>Korn</t>
+  </si>
+  <si>
+    <t>Robin Thicke</t>
+  </si>
+  <si>
+    <t>Gary Moore</t>
+  </si>
+  <si>
+    <t>Green Day</t>
+  </si>
+  <si>
+    <t>Ariana Grande</t>
+  </si>
+  <si>
+    <t>Beastie Boys</t>
+  </si>
+  <si>
+    <t>Kevin Rudolf</t>
+  </si>
+  <si>
+    <t>The Cranberries</t>
+  </si>
+  <si>
+    <t>Beck</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>Gwen Stefani</t>
+  </si>
+  <si>
+    <t>Of Monsters and Men</t>
+  </si>
+  <si>
+    <t>Sia</t>
+  </si>
+  <si>
+    <t>Stevie Nicks</t>
+  </si>
+  <si>
+    <t>Robbie Williams</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Def Leppard</t>
+  </si>
+  <si>
+    <t>Joji</t>
+  </si>
+  <si>
+    <t>The Prodigy</t>
+  </si>
+  <si>
+    <t>Bob Marley &amp; The Wailers</t>
+  </si>
+  <si>
+    <t>Red Hot Chili Peppers</t>
+  </si>
+  <si>
+    <t>David Guetta</t>
+  </si>
+  <si>
+    <t>Amy Winehouse</t>
+  </si>
+  <si>
+    <t>5 Seconds of Summer</t>
+  </si>
+  <si>
+    <t>Bon Jovi</t>
+  </si>
+  <si>
+    <t>Panic! At The Disco</t>
+  </si>
+  <si>
+    <t>Ashlee Simpson</t>
+  </si>
+  <si>
+    <t>R.E.M.</t>
+  </si>
+  <si>
+    <t>Steve Winwood</t>
+  </si>
+  <si>
+    <t>Men At Work</t>
+  </si>
+  <si>
+    <t>Ohio Players</t>
+  </si>
+  <si>
+    <t>Swedish House Mafia</t>
+  </si>
+  <si>
+    <t>Simple Plan</t>
+  </si>
+  <si>
+    <t>The Chainsmokers</t>
+  </si>
+  <si>
+    <t>Metallica</t>
+  </si>
+  <si>
+    <t>Bananarama</t>
+  </si>
+  <si>
+    <t>Depeche Mode</t>
+  </si>
+  <si>
+    <t>Blondie</t>
+  </si>
+  <si>
+    <t>Crash Test Dummies</t>
+  </si>
+  <si>
+    <t>Duran Duran</t>
+  </si>
+  <si>
+    <t>Olivia Rodrigo</t>
+  </si>
+  <si>
+    <t>Alice In Chains</t>
+  </si>
+  <si>
+    <t>Styx</t>
+  </si>
+  <si>
+    <t>The Temper Trap</t>
+  </si>
+  <si>
+    <t>The Police</t>
+  </si>
+  <si>
+    <t>Iggy Pop</t>
   </si>
   <si>
     <t>Michael Jackson</t>
   </si>
   <si>
-    <t>Philip Bailey</t>
+    <t>Darude</t>
+  </si>
+  <si>
+    <t>The Killers</t>
+  </si>
+  <si>
+    <t>Meghan Trainor</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Calvin Harris</t>
+  </si>
+  <si>
+    <t>Eric Prydz</t>
+  </si>
+  <si>
+    <t>blink-182</t>
+  </si>
+  <si>
+    <t>Linkin Park</t>
+  </si>
+  <si>
+    <t>Klaxons</t>
+  </si>
+  <si>
+    <t>Lou Bega</t>
+  </si>
+  <si>
+    <t>Queens of the Stone Age</t>
+  </si>
+  <si>
+    <t>Dua Lipa</t>
+  </si>
+  <si>
+    <t>Nelly</t>
+  </si>
+  <si>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>Pulp</t>
+  </si>
+  <si>
+    <t>Powfu</t>
+  </si>
+  <si>
+    <t>Papa Roach</t>
+  </si>
+  <si>
+    <t>CHIC</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Breaking Benjamin</t>
+  </si>
+  <si>
+    <t>Billie Eilish</t>
   </si>
   <si>
     <t>AC/DC</t>
   </si>
   <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Childish Gambino</t>
-  </si>
-  <si>
-    <t>Queen</t>
-  </si>
-  <si>
-    <t>Papa Roach</t>
-  </si>
-  <si>
-    <t>Green Day</t>
-  </si>
-  <si>
-    <t>AFI</t>
-  </si>
-  <si>
-    <t>Arctic Monkeys</t>
-  </si>
-  <si>
-    <t>The Strokes</t>
-  </si>
-  <si>
-    <t>Ellie Goulding</t>
-  </si>
-  <si>
-    <t>Cutting Crew</t>
-  </si>
-  <si>
-    <t>Live</t>
-  </si>
-  <si>
-    <t>The Rasmus</t>
-  </si>
-  <si>
-    <t>Genesis</t>
-  </si>
-  <si>
-    <t>Rick Astley</t>
-  </si>
-  <si>
-    <t>Everclear</t>
-  </si>
-  <si>
-    <t>Billie Eilish</t>
-  </si>
-  <si>
-    <t>KISS</t>
-  </si>
-  <si>
-    <t>The Offspring</t>
-  </si>
-  <si>
-    <t>TLC</t>
-  </si>
-  <si>
-    <t>Donna Summer</t>
-  </si>
-  <si>
-    <t>Robbie Williams</t>
-  </si>
-  <si>
-    <t>Peter Gabriel</t>
-  </si>
-  <si>
-    <t>Matthew Wilder</t>
-  </si>
-  <si>
-    <t>Deep Blue Something</t>
-  </si>
-  <si>
-    <t>Timbaland</t>
-  </si>
-  <si>
-    <t>Falco</t>
-  </si>
-  <si>
-    <t>Morrissey</t>
-  </si>
-  <si>
-    <t>Backstreet Boys</t>
-  </si>
-  <si>
-    <t>CAKE</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>Korn</t>
-  </si>
-  <si>
-    <t>AronChupa</t>
-  </si>
-  <si>
-    <t>Dua Lipa</t>
-  </si>
-  <si>
-    <t>Peter Tosh</t>
-  </si>
-  <si>
-    <t>Pitbull</t>
-  </si>
-  <si>
-    <t>Powfu</t>
-  </si>
-  <si>
-    <t>Pendulum</t>
-  </si>
-  <si>
-    <t>Lana Del Rey</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Diddy</t>
-  </si>
-  <si>
-    <t>Joey Ramone</t>
-  </si>
-  <si>
-    <t>Imagine Dragons</t>
+    <t>The Kooks</t>
+  </si>
+  <si>
+    <t>Black Eyed Peas</t>
+  </si>
+  <si>
+    <t>Stone Sour</t>
+  </si>
+  <si>
+    <t>Cobra Starship</t>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
+    <t>September</t>
   </si>
   <si>
     <t>Tears For Fears</t>
   </si>
   <si>
-    <t>Jessie J</t>
-  </si>
-  <si>
-    <t>Travis</t>
-  </si>
-  <si>
-    <t>Nina Sky</t>
-  </si>
-  <si>
-    <t>Coldplay</t>
-  </si>
-  <si>
-    <t>Tokio Hotel</t>
-  </si>
-  <si>
-    <t>Peter Schilling</t>
-  </si>
-  <si>
-    <t>Kasabian</t>
-  </si>
-  <si>
-    <t>Kid Rock</t>
-  </si>
-  <si>
-    <t>Adele</t>
-  </si>
-  <si>
-    <t>Fifth Harmony</t>
-  </si>
-  <si>
-    <t>The Chainsmokers</t>
-  </si>
-  <si>
-    <t>The Police</t>
-  </si>
-  <si>
-    <t>Mark Ronson</t>
-  </si>
-  <si>
-    <t>My Chemical Romance</t>
-  </si>
-  <si>
-    <t>The Proclaimers</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>The All-American Rejects</t>
-  </si>
-  <si>
-    <t>Avicii</t>
-  </si>
-  <si>
-    <t>Skrillex</t>
-  </si>
-  <si>
-    <t>Charlie Puth</t>
-  </si>
-  <si>
-    <t>Evanescence</t>
-  </si>
-  <si>
-    <t>Portugal. The Man</t>
-  </si>
-  <si>
-    <t>Red Hot Chili Peppers</t>
-  </si>
-  <si>
-    <t>Beck</t>
-  </si>
-  <si>
-    <t>The Verve</t>
-  </si>
-  <si>
-    <t>Dead Or Alive</t>
-  </si>
-  <si>
-    <t>Joji</t>
-  </si>
-  <si>
-    <t>Ed Sheeran</t>
-  </si>
-  <si>
-    <t>Dire Straits</t>
-  </si>
-  <si>
-    <t>Santana</t>
-  </si>
-  <si>
-    <t>Ratt</t>
-  </si>
-  <si>
-    <t>Lady Gaga</t>
-  </si>
-  <si>
-    <t>Niall Horan</t>
-  </si>
-  <si>
-    <t>P!nk</t>
-  </si>
-  <si>
-    <t>50 Cent</t>
-  </si>
-  <si>
-    <t>Pink Floyd</t>
-  </si>
-  <si>
-    <t>Lou Bega</t>
-  </si>
-  <si>
-    <t>MAN WITH A MISSION</t>
-  </si>
-  <si>
-    <t>F.R. David</t>
-  </si>
-  <si>
-    <t>Rush</t>
-  </si>
-  <si>
-    <t>Zombie Nation</t>
-  </si>
-  <si>
-    <t>Haircut 100</t>
-  </si>
-  <si>
-    <t>Bruno Mars</t>
-  </si>
-  <si>
-    <t>Blondie</t>
-  </si>
-  <si>
-    <t>Nicki Minaj</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Michael-jackson/Dangerous', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Dangerous&lt;/em&gt; is Michael Jackson’s eighth studio album, released in 1991, and the first since &lt;a href="https://genius.com/albums/Michael-jackson/Forever-michael" rel="noopener" data-api_path="/albums/39261"&gt;&lt;em&gt;Forever, Michael&lt;/em&gt;&lt;/a&gt; not to be produced by &lt;a href="https://genius.com/artists/Quincy-jones" rel="noopener" data-api_path="/artists/2726"&gt;Quincy Jones&lt;/a&gt;. Instead, Jones had recommended New Jack Swing creator &lt;a href="https://genius.com/artists/Teddy-riley" rel="noopener" data-api_path="/artists/3540"&gt;Teddy Riley&lt;/a&gt; to produce the album for Michael, alongside Bruce Sweiden and Bill Bottrell.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Dangerous&lt;/em&gt; would also be the final album during Michael’s lifetime to sell over 30 million units, as the first wave of child abuse allegations occurred two years after the album’s release, and permanently stained his public reputation.&lt;/p&gt;\n\n&lt;p&gt;Fun Fact: “&lt;a href="https://genius.com/Michael-jackson-she-drives-me-wild-lyrics" rel="noopener" data-api_path="/songs/32777"&gt;She Drives Me Wild&lt;/a&gt;”, “&lt;a href="https://genius.com/Michael-jackson-remember-the-time-lyrics" rel="noopener" data-api_path="/songs/188401"&gt;Remember The Time&lt;/a&gt;”, “&lt;a href="https://genius.com/Michael-jackson-cant-let-her-get-away-lyrics" rel="noopener" data-api_path="/songs/188403"&gt;Can’t Let Her Get Away&lt;/a&gt;” were all inspired by Sali Richardson. Teddy speaks about these things in a interview below.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/u4zfoAviNuo?modestbranding=1&amp;amp;start=372&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Bruce Swedien', 'url': 'https://genius.com/artists/Bruce-swedien'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Teddy Riley', 'url': 'https://genius.com/artists/Teddy-riley'}], 'writers': [{'name': 'Aqil Davidson', 'url': 'https://genius.com/artists/Aqil-davidson'}, {'name': 'Bernard Belle', 'url': 'https://genius.com/artists/Bernard-belle'}, {'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Bruce Swedien', 'url': 'https://genius.com/artists/Bruce-swedien'}, {'name': 'Buz Kohan', 'url': 'https://genius.com/artists/Buz-kohan'}, {'name': 'Glen Ballard', 'url': 'https://genius.com/artists/Glen-ballard'}, {'name': 'Larry Grossman', 'url': 'https://genius.com/artists/Larry-grossman'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'René Moore', 'url': 'https://genius.com/artists/Rene-moore'}, {'name': 'Siedah Garrett', 'url': 'https://genius.com/artists/Siedah-garrett'}, {'name': 'Teddy Riley', 'url': 'https://genius.com/artists/Teddy-riley'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+    <t>Real McCoy</t>
+  </si>
+  <si>
+    <t>Post Malone</t>
+  </si>
+  <si>
+    <t>Lenny Kravitz</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Daniel-powter/Daniel-powter-the-essential-collection', 'annotations': {'description': '', 'producers': [{'name': 'Jeff Dawson', 'url': 'https://genius.com/artists/Jeff-dawson'}, {'name': 'Kevin Griffin', 'url': 'https://genius.com/artists/Kevin-griffin'}, {'name': 'Linda Perry', 'url': 'https://genius.com/artists/Linda-perry'}, {'name': 'Mitchell Froom', 'url': 'https://genius.com/artists/Mitchell-froom'}, {'name': 'Warren Huart', 'url': 'https://genius.com/artists/Warren-huart'}], 'writers': [{'name': 'Brendan James', 'url': 'https://genius.com/artists/Brendan-james'}, {'name': 'Daniel Powter', 'url': 'https://genius.com/artists/Daniel-powter'}, {'name': 'John Lennon', 'url': 'https://genius.com/artists/John-lennon'}, {'name': 'Kevin Griffin', 'url': 'https://genius.com/artists/Kevin-griffin'}, {'name': 'Linda Perry', 'url': 'https://genius.com/artists/Linda-perry'}, {'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}, {'name': 'Yoko Ono', 'url': 'https://genius.com/artists/Yoko-ono'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Avicii/Levels', 'annotations': {'description': '', 'producers': [{'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}], 'writers': [{'name': 'Arash Pournouri', 'url': 'https://genius.com/artists/Arash-pournouri'}, {'name': 'Ash Pournouri', 'url': 'https://genius.com/artists/Ash-pournouri'}, {'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}, {'name': 'Etta James', 'url': 'https://genius.com/artists/Etta-james'}, {'name': 'Leroy Kirkland', 'url': 'https://genius.com/artists/Leroy-kirkland'}, {'name': 'Pearl Woods', 'url': 'https://genius.com/artists/Pearl-woods'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Guns-n-roses/Greatest-hits', 'annotations': {'description': "&lt;p&gt;&lt;em&gt;Greatest Hits&lt;/em&gt; is a compilation album by the American hard rock band Guns N' Roses, released on March 23, 2004.&lt;/p&gt;\n\n&lt;p&gt;Although the album received mainly positive reviews and sold well, fans criticized the track listing, citing lack of some popular songs and too many covers, as reason for complaint. Axl Rose immediately tried to block the release by suing Geffen, saying it would ruin his focus on &lt;em&gt;Chinese Democracy&lt;/em&gt; and if he were to get the album finished and released sooner, the &lt;em&gt;Greatest Hits&lt;/em&gt; album would be selling more, leaving the album unnoticed. Former bandmates Slash and Duff McKagan helped Rose file the lawsuit against Geffen, although they did not speak to each other in person. This failed and the album was released under Geffen Records' rights.&lt;/p&gt;", 'producers': [{'name': 'Duff McKagan', 'url': 'https://genius.com/artists/Duff-mckagan'}, {'name': 'Guns N’ Roses', 'url': 'https://genius.com/artists/Guns-n-roses'}, {'name': 'Jim Mitchell', 'url': 'https://genius.com/artists/Jim-mitchell'}, {'name': 'Matthias Gohl', 'url': 'https://genius.com/artists/Matthias-gohl'}, {'name': 'Mike Clink', 'url': 'https://genius.com/artists/Mike-clink'}], 'writers': [{'name': 'Axl Rose', 'url': 'https://genius.com/artists/Axl-rose'}, {'name': 'Billy McCloud', 'url': 'https://genius.com/artists/Billy-mccloud'}, {'name': 'Bob Dylan', 'url': 'https://genius.com/artists/Bob-dylan'}, {'name': 'Cheetah Chrome', 'url': 'https://genius.com/artists/Cheetah-chrome'}, {'name': 'Del James', 'url': 'https://genius.com/artists/Del-james'}, {'name': 'Duff McKagan', 'url': 'https://genius.com/artists/Duff-mckagan'}, {'name': 'Izzy Stradlin', 'url': 'https://genius.com/artists/Izzy-stradlin'}, {'name': 'Jackie Taylor', 'url': 'https://genius.com/artists/Jackie-taylor'}, {'name': 'James Beaumont', 'url': 'https://genius.com/artists/James-beaumont'}, {'name': 'Janet Vogel', 'url': 'https://genius.com/artists/Janet-vogel'}, {'name': 'Joe VanScharnen', 'url': 'https://genius.com/artists/Joe-vanscharnen'}, {'name': 'Joseph Rock', 'url': 'https://genius.com/artists/Joseph-rock'}, {'name': 'Keith Richards', 'url': 'https://genius.com/artists/Keith-richards'}, {'name': 'Lennie Martin', 'url': 'https://genius.com/artists/Lennie-martin'}, {'name': 'Linda McCartney', 'url': 'https://genius.com/artists/Linda-mccartney'}, {'name': 'Mick Jagger', 'url': 'https://genius.com/artists/Mick-jagger'}, {'name': 'Paul McCartney', 'url': 'https://genius.com/artists/Paul-mccartney'}, {'name': 'Peter Laughner', 'url': 'https://genius.com/artists/Peter-laughner'}, {'name': 'Slash', 'url': 'https://genius.com/artists/Slash'}, {'name': 'Steven Adler', 'url': 'https://genius.com/artists/Steven-adler'}, {'name': 'Wally Lester', 'url': 'https://genius.com/artists/Wally-lester'}, {'name': 'West Arkeen', 'url': 'https://genius.com/artists/West-arkeen'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-ting-tings/We-started-nothing', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;We Started Nothing&lt;/em&gt; is the debut studio album by English pop duo The Ting Tings, released on May 16, 2008 via Columbia Records. The United States edition of the album features different color covers in red, yellow, green, and blue. The album was also released in the UK, and features a &lt;a href="https://upload.wikimedia.org/wikipedia/en/b/bf/The_Ting_Tings_We_Started_Nothing_album_cover.png" rel="noopener nofollow"&gt;different cover&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;A total of six singles were released from the album: &lt;a href="https://genius.com/The-ting-tings-fruit-machine-lyrics" rel="noopener" data-api_path="/songs/1369561"&gt;“Fruit Machine”&lt;/a&gt;, &lt;a href="https://genius.com/The-ting-tings-great-dj-lyrics" rel="noopener" data-api_path="/songs/661228"&gt;“Great DJ”&lt;/a&gt;, &lt;a href="https://genius.com/The-ting-tings-thats-not-my-name-lyrics" rel="noopener" data-api_path="/songs/141942"&gt;“That’s Not My Name”&lt;/a&gt;, &lt;a href="https://genius.com/The-ting-tings-shut-up-and-let-me-go-lyrics" rel="noopener" data-api_path="/songs/479776"&gt;“Shut Up and Let Me Go”&lt;/a&gt;, &lt;a href="https://genius.com/The-ting-tings-be-the-one-lyrics" rel="noopener" data-api_path="/songs/1418450"&gt;“Be the One”&lt;/a&gt;, and &lt;a href="https://genius.com/The-ting-tings-we-walk-lyrics" rel="noopener" data-api_path="/songs/1704519"&gt;“We Walk”&lt;/a&gt;. All six singles charted on the UK singles chart. Only two singles, “That’s Not My Name” and “Shut Up and Let Me Go”, charted on the US Billboard Hot 100 chart at #39 and #55, respectively.&lt;/p&gt;', 'producers': [{'name': 'Jules De Martino', 'url': 'https://genius.com/artists/Jules-de-martino'}], 'writers': [{'name': 'Jules De Martino', 'url': 'https://genius.com/artists/Jules-de-martino'}, {'name': 'Katie White', 'url': 'https://genius.com/artists/Katie-white'}, {'name': 'The Ting Tings', 'url': 'https://genius.com/artists/The-ting-tings'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'Switchflicker records', 'url': 'https://genius.com/artists/Switchflicker-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-cars/Heartbeat-city', 'annotations': {'description': '&lt;p&gt;I thought it is interesting:&lt;/p&gt;\n\n&lt;p&gt;The album was produced by Robert John “Mutt” Lange. His commitment to the Cars album meant that he told Def Leppard he could not work on their album, Hysteria. However, due to delays in that album’s recording, Lange was eventually able to produce it.&lt;/p&gt;', 'producers': [{'name': 'The Cars', 'url': 'https://genius.com/artists/The-cars'}, {'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}], 'writers': [{'name': 'Greg Hawkes', 'url': 'https://genius.com/artists/Greg-hawkes'}, {'name': 'Ric Ocasek', 'url': 'https://genius.com/artists/Ric-ocasek'}], 'labels': [{'name': 'Elektra Records', 'url': 'https://genius.com/artists/Elektra-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Bts/Young-forever-the-most-beautiful-moment-in-life-young-forever', 'annotations': {'description': '&lt;p&gt;BTS’s May 2, 2016 2-disc repackage of 2015 Mini-Albums &lt;a href="https://genius.com/albums/Bts/The-most-beautiful-moment-in-life-pt-1" rel="noopener" data-api_path="/albums/127642"&gt;&lt;em&gt;화양연화 The Most Beautiful Moment In Life Pt.1&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Bts/The-most-beautiful-moment-in-life-pt-2" rel="noopener" data-api_path="/albums/139000"&gt;&lt;em&gt;화양연화 The Most Beautiful Moment In Life Pt.2&lt;/em&gt;&lt;/a&gt; with bonus tracks &lt;a href="https://genius.com/Bts-fire-lyrics" rel="noopener" data-api_path="/songs/2465553"&gt;“FIRE (불타오르네)”&lt;/a&gt; &lt;a href="https://genius.com/Bts-save-me-lyrics" rel="noopener" data-api_path="/songs/2475150"&gt;“Save ME”&lt;/a&gt;, and &lt;a href="https://genius.com/Bts-epilogue-young-forever-lyrics" rel="noopener" data-api_path="/songs/2475518"&gt;“EPILOGUE: Young Forever”&lt;/a&gt; and various remastered and remixed versions of 2015 hits.&lt;/p&gt;', 'producers': [{'name': '“hitman” Bang', 'url': 'https://genius.com/artists/Hitman-bang'}, {'name': 'Jung Kook (정국)', 'url': 'https://genius.com/artists/Jung-kook'}, {'name': 'Pdogg', 'url': 'https://genius.com/artists/Pdogg'}, {'name': 'RM', 'url': 'https://genius.com/artists/Rm'}, {'name': 'SHAUN (숀)', 'url': 'https://genius.com/artists/Shaun'}, {'name': 'Slow Rabbit', 'url': 'https://genius.com/artists/Slow-rabbit'}, {'name': 'SUGA (BTS)', 'url': 'https://genius.com/artists/Suga-bts'}, {'name': 'V (뷔)', 'url': 'https://genius.com/artists/V'}], 'writers': [{'name': 'Ashton Foster', 'url': 'https://genius.com/artists/Ashton-foster'}, {'name': '브라더수 (Brother Su)', 'url': 'https://genius.com/artists/Brother-su'}, {'name': 'Devine Channel', 'url': 'https://genius.com/artists/Devine-channel'}, {'name': '\u200bearattack', 'url': 'https://genius.com/artists/Earattack'}, {'name': '“hitman” Bang', 'url': 'https://genius.com/artists/Hitman-bang'}, {'name': '\u200bj-hope', 'url': 'https://genius.com/artists/J-hope'}, {'name': 'JIN (진)', 'url': 'https://genius.com/artists/Jin'}, {'name': 'Jung Kook (정국)', 'url': 'https://genius.com/artists/Jung-kook'}, {'name': 'Pdogg', 'url': 'https://genius.com/artists/Pdogg'}, {'name': 'Ray Michael Djan Jr.', 'url': 'https://genius.com/artists/Ray-michael-djan-jr'}, {'name': 'RM', 'url': 'https://genius.com/artists/Rm'}, {'name': 'Samantha Harper', 'url': 'https://genius.com/artists/Samantha-harper'}, {'name': 'Slow Rabbit', 'url': 'https://genius.com/artists/Slow-rabbit'}, {'name': 'SUGA (BTS)', 'url': 'https://genius.com/artists/Suga-bts'}, {'name': 'Supreme Boi', 'url': 'https://genius.com/artists/Supreme-boi'}, {'name': 'V (뷔)', 'url': 'https://genius.com/artists/V'}], 'labels': [{'name': 'BIGHIT MUSIC', 'url': 'https://genius.com/artists/Bighit-music'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Foo-fighters/Concrete-and-gold', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Concrete and Gold&lt;/em&gt; is the ninth studio album by Foo Fighters, released on September 15, 2017. It was secretly recorded by the band after their &lt;a href="https://www.spin.com/2016/03/foo-fighters-indefinite-hiatus-dave-grohl-taylor-hawkins/" rel="noopener nofollow"&gt;alleged break-up&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/0f679528db46366dc76e3b37b031c2a3.951x1000x1.jpg" alt="" width="951" height="1000" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;The album incorporates different musical styles and was &lt;a href="https://en.wikipedia.org/wiki/Concrete_and_Gold" rel="noopener nofollow"&gt;described by the band&lt;/a&gt; as combining heavy guitar riffs with lush harmonic complexities, where “hard rock extremes and pop sensibilities collide”. Most of this variated musical influences are thanks to the producer and friend of Dave Grohl, &lt;a href="https://genius.com/artists/Greg-kurstin" rel="noopener" data-api_path="/artists/55444"&gt;Greg Kurstin&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The full backstory of the album was released in a series of videos where Dave narrates the whole recording process the band went through.&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/XTeDhSypRgY?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Greg Kurstin', 'url': 'https://genius.com/artists/Greg-kurstin'}], 'writers': [{'name': 'Chris Shiflett', 'url': 'https://genius.com/artists/Chris-shiflett'}, {'name': 'Dave Grohl', 'url': 'https://genius.com/artists/Dave-grohl'}, {'name': 'Nate Mendel', 'url': 'https://genius.com/artists/Nate-mendel'}, {'name': 'Pat Smear', 'url': 'https://genius.com/artists/Pat-smear'}, {'name': 'Rami Jaffee', 'url': 'https://genius.com/artists/Rami-jaffee'}, {'name': 'Taylor Hawkins', 'url': 'https://genius.com/artists/Taylor-hawkins'}], 'labels': []}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/albums/Philip-bailey/Chinese-wall', 'annotations': {'description': '', 'producers': [{'name': 'Phil Collins', 'url': 'https://genius.com/artists/Phil-collins'}], 'writers': [{'name': 'Barry Blue', 'url': 'https://genius.com/artists/Barry-blue'}, {'name': 'Billie Hughes', 'url': 'https://genius.com/artists/Billie-hughes'}, {'name': 'Chris Amoo', 'url': 'https://genius.com/artists/Chris-amoo'}, {'name': 'Clif Magness', 'url': 'https://genius.com/artists/Clif-magness'}, {'name': 'Davitt Sigerson', 'url': 'https://genius.com/artists/Davitt-sigerson'}, {'name': 'Eddie Amoo', 'url': 'https://genius.com/artists/Eddie-amoo'}, {'name': 'Gary Skardina', 'url': 'https://genius.com/artists/Gary-skardina'}, {'name': 'Glen Ballard', 'url': 'https://genius.com/artists/Glen-ballard'}, {'name': 'Jerry Knight', 'url': 'https://genius.com/artists/Jerry-knight'}, {'name': 'Julian Littman', 'url': 'https://genius.com/artists/Julian-littman'}, {'name': 'Lillie Mae Clarke', 'url': 'https://genius.com/artists/Lillie-mae-clarke'}, {'name': 'Marcella Detroit', 'url': 'https://genius.com/artists/Marcella-detroit'}, {'name': 'Marti Sharron', 'url': 'https://genius.com/artists/Marti-sharron'}, {'name': 'Nathan East', 'url': 'https://genius.com/artists/Nathan-east'}, {'name': 'Phil Collins', 'url': 'https://genius.com/artists/Phil-collins'}, {'name': 'Philip Bailey', 'url': 'https://genius.com/artists/Philip-bailey'}, {'name': 'Ralph Johnson', 'url': 'https://genius.com/artists/Ralph-johnson'}, {'name': 'Robin Smith', 'url': 'https://genius.com/artists/Robin-smith'}, {'name': 'Roxanne Joy Seeman', 'url': 'https://genius.com/artists/Roxanne-joy-seeman'}, {'name': 'Steven Mitchell', 'url': 'https://genius.com/artists/Steven-mitchell'}], 'labels': []}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/albums/Ac-dc/Back-in-black', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Back in Black&lt;/em&gt; is an album by Australian hard rock band AC/DC. It is the 7th Australian and 6th internationally released studio album by the band.&lt;br&gt;\nReleased on 25 July 1980, &lt;em&gt;Back in Black&lt;/em&gt; was the first AC/DC album recorded without their former lead singer Bon Scott, who died on 19 February 1980 at the age of 33, and was dedicated to him. The band considered disbanding following Scott’s death, but they ultimately decided to continue and shortly thereafter hired Brian Johnson as their new lead singer and lyricist. Producer Robert John “Mutt” Lange, who had previously worked with AC/DC on &lt;em&gt;Highway to Hell&lt;/em&gt;, was again brought back in to produce.&lt;/p&gt;\n\n&lt;p&gt;Prominent singles include &lt;a href="https://genius.com/Ac-dc-hells-bells-lyrics" rel="noopener" data-api_path="/songs/75945"&gt;“Hells Bells,”&lt;/a&gt; &lt;a href="https://genius.com/Ac-dc-shoot-to-thrill-lyrics" rel="noopener" data-api_path="/songs/75946"&gt;“Shoot To Thrill,”&lt;/a&gt; &lt;a href="https://genius.com/Ac-dc-you-shook-me-all-night-long-lyrics" rel="noopener" data-api_path="/songs/75951"&gt;“You Shook Me All Night Long,”&lt;/a&gt; and of course &lt;a href="https://genius.com/Ac-dc-back-in-black-lyrics" rel="noopener" data-api_path="/songs/73849"&gt;“Back in Black.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The album was &lt;a href="http://www.riaa.com/goldandplatinum.php?content_selector=top-100-albums" rel="noopener nofollow"&gt;certified platinum 22x by the RIAA&lt;/a&gt;, which ranks the sixth highest on the all-time list.&lt;/p&gt;', 'producers': [{'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}], 'writers': [{'name': 'Angus Young', 'url': 'https://genius.com/artists/Angus-young'}, {'name': 'Brian Johnson', 'url': 'https://genius.com/artists/Brian-johnson'}, {'name': 'Malcolm Young', 'url': 'https://genius.com/artists/Malcolm-young'}], 'labels': [{'name': 'Albert Productions', 'url': 'https://genius.com/artists/Albert-productions'}, {'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'J. Albert and Son', 'url': 'https://genius.com/artists/J-albert-and-son'}, {'name': 'Leidseplein Presse', 'url': 'https://genius.com/artists/Leidseplein-presse'}]}}</t>
+    <t>{'url': 'https://genius.com/albums/Korn/Issues', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Issues&lt;/em&gt; was the band’s fourth studio album, and to date it has sold over 11 millions albums worldwide.&lt;/p&gt;\n\n&lt;p&gt;Released on November 16th, 1999.&lt;/p&gt;\n\n&lt;p&gt;For the album’s cover art, the band and MTV hosted a fan challenge. There were 4 finalists, 3 of which saw limited release, the “rag doll” being the final selection.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;2nd place:&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/0f8bd00b0c3f6c8456f44459a3171082.213x212x1.jpg" alt="" width="213" height="212" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;em&gt;3rd place:&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/48664938072ad925f3d339b203a13d67.211x210x1.jpg" alt="" width="211" height="210" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;em&gt;4th place:&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/df97baf2b65c223540acef79e67c6302.211x212x1.jpg" alt="" width="211" height="212" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;More unknown, the band selected a fifth place finalist for their CDs on the tour to promote the album:&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/f4a2ef89c296321e1d54e6fb934606ab.449x449x1.jpg" alt="" width="449" height="449" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Gary-moore/Still-got-the-blues', 'annotations': {'description': '', 'producers': [{'name': 'Gary Moore', 'url': 'https://genius.com/artists/Gary-moore'}, {'name': 'Ian Taylor', 'url': 'https://genius.com/artists/Ian-taylor'}], 'writers': [{'name': 'A.C. Williams', 'url': 'https://genius.com/artists/Ac-williams'}, {'name': 'Alphonso “Sonny” Thompson', 'url': 'https://genius.com/artists/Alphonso-sonny-thompson'}, {'name': 'Clifford Adams', 'url': 'https://genius.com/artists/Clifford-adams'}, {'name': 'Don Robey', 'url': 'https://genius.com/artists/Don-robey'}, {'name': 'Elmore James', 'url': 'https://genius.com/artists/Elmore-james'}, {'name': 'Freddie King', 'url': 'https://genius.com/artists/Freddie-king'}, {'name': 'Gary Moore', 'url': 'https://genius.com/artists/Gary-moore'}, {'name': 'George Harrison', 'url': 'https://genius.com/artists/George-harrison'}, {'name': 'Jimmy Rogers', 'url': 'https://genius.com/artists/Jimmy-rogers'}, {'name': 'Joe Medwick', 'url': 'https://genius.com/artists/Joe-medwick'}, {'name': 'Johnny “Guitar” Watson', 'url': 'https://genius.com/artists/Johnny-guitar-watson'}, {'name': 'Maxwell Davis', 'url': 'https://genius.com/artists/Maxwell-davis'}, {'name': 'Otis Rush', 'url': 'https://genius.com/artists/Otis-rush'}, {'name': 'Peter Green', 'url': 'https://genius.com/artists/Peter-green'}, {'name': 'Saul Bihari', 'url': 'https://genius.com/artists/Saul-bihari'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Ariana-grande/Thank-u-next', 'annotations': {'description': '&lt;p&gt;&lt;i&gt;thank u, next&lt;/i&gt; is Ariana Grande’s fifth studio album, which arrives just 5 months and 22 days  after the release of her fourth studio album, &lt;a href="https://genius.com/albums/Ariana-grande/Sweetener" rel="noopener" data-api_path="/albums/393916"&gt;&lt;em&gt;Sweetener&lt;/em&gt;&lt;/a&gt;. Coincidentally, 5/22 was the date in which the &lt;a href="https://www.bbc.co.uk/news/uk-england-manchester-40007886" rel="noopener nofollow"&gt;Manchester arena bombing&lt;/a&gt; occurred. The album revolves around its &lt;a href="https://genius.com/Ariana-grande-thank-u-next-lyrics" rel="noopener" data-api_path="/songs/4063065"&gt;lead single and titular track&lt;/a&gt;, which is based on a since-deleted &lt;a href="https://s3.amazonaws.com/filepicker-images-rapgenius/Xp822AXRRleGCya5dLEV_screen-shot-2018-11-01-at-8-42-32-pm_nx7kkf%20-%20Edited.png" rel="noopener nofollow"&gt;tweet&lt;/a&gt; Ariana made in response to a joke Pete Davidson made on the two’s failed engagement in &lt;a href="https://twitter.com/nbcsnl/status/1058109405848190977" rel="noopener nofollow"&gt;a promotional clip for &lt;em&gt;Saturday Night Live&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;This is Ariana’s first album in which she co-wrote every track, and that doesn’t include any features.&lt;/p&gt;\n\n&lt;p&gt;On October 4th, 2018, Ari tweeted &lt;a href="https://twitter.com/twitter/statuses/1048037746189553664" rel="noopener nofollow"&gt;a snippet&lt;/a&gt;, for the song &lt;a href="https://genius.com/Ariana-grande-needy-lyrics" rel="noopener" data-api_path="/songs/4000336"&gt;“Needy,”&lt;/a&gt; and the following weeks, she continued to tease pieces from the album.&lt;/p&gt;\n\n&lt;p&gt;On November 3rd, 2018, the same day &lt;a href="https://twitter.com/ArianaGrande/status/1058732858531958789?s=20" rel="noopener nofollow"&gt;she confirmed the album’s name on Twitter&lt;/a&gt;, Ariana released the album’s title track, &lt;a href="https://genius.com/Ariana-grande-thank-u-next-lyrics" rel="noopener" data-api_path="/songs/4063065"&gt;“thank u, next.”&lt;/a&gt; The song was released 30 minutes before the airing of &lt;em&gt;Saturday Night Live&lt;/em&gt;—in response to where her ex-fiancé &lt;a href="https://www.imdb.com/name/nm0203457/" rel="noopener nofollow"&gt;Pete Davidson&lt;/a&gt; works.&lt;/p&gt;\n\n&lt;p&gt;On November 7th, 2018, Ari released the &lt;a href="https://www.youtube.com/watch?v=kN0iD0pI3o0" rel="noopener nofollow"&gt;official video&lt;/a&gt; for &lt;a href="https://genius.com/Ariana-grande-breathin-lyrics" rel="noopener" data-api_path="/songs/3681287"&gt;“breathin,”&lt;/a&gt; a song from her previous studio album, &lt;a href="https://genius.com/albums/Ariana-grande/Sweetener" rel="noopener" data-api_path="/albums/393916"&gt;&lt;em&gt;Sweetener&lt;/em&gt;&lt;/a&gt;. In the video, &lt;a href="https://www.thefader.com/2018/11/07/ariana-grande-ag5-tracklist-teaser" rel="noopener nofollow"&gt;she teased this album’s tracklist&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On November 30th, 2018, Ariana released the &lt;a href="https://www.youtube.com/watch?v=gl1aHhXnN1k" rel="noopener nofollow"&gt;official video&lt;/a&gt; for “thank u, next.” The video interpolated several 2000s movies including &lt;a href="https://www.imdb.com/title/tt0377092/" rel="noopener nofollow"&gt;&lt;em&gt;Mean Girls&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://www.imdb.com/title/tt0204946/?ref_=nv_sr_1" rel="noopener nofollow"&gt;&lt;em&gt;Bring It On&lt;/em&gt;&lt;/a&gt; and featured cameo appearances from several celebrities like Kris Jenner and &lt;a href="https://genius.com/artists/Troye-sivan" rel="noopener" data-api_path="/artists/161507"&gt;Troye Sivan&lt;/a&gt;. This video broke two YouTube records, &lt;a href="https://www.billboard.com/video/bbnews120518adamariana-8488789" rel="noopener nofollow"&gt;becoming the biggest global-debut&lt;/a&gt; and &lt;a href="https://www.straitstimes.com/lifestyle/buzzing-ariana-grandes-video-fastest-to-reach-100-million-views" rel="noopener nofollow"&gt;becoming the fastest video to reach 100 million views&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On December 13th, 2018, Ariana &lt;a href="https://twitter.com/ArianaGrande/status/1073275718103121921" rel="noopener nofollow"&gt;annouced on Twitter&lt;/a&gt; that there would be thirteen tracks on the album. A day later, she released the album’s first promotional single, &lt;a href="https://genius.com/Ariana-grande-imagine-lyrics" rel="noopener" data-api_path="/songs/4067749"&gt;“imagine.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;On January 3rd, 2019, &lt;a href="https://genius.com/Ariana-grande-7-rings-lyrics" rel="noopener" data-api_path="/songs/4067762"&gt;“7 rings”&lt;/a&gt; was &lt;a href="https://twitter.com/ArianaGrande/status/1080966889868873728" rel="noopener nofollow"&gt;announced on Twitter&lt;/a&gt; to be the second single from the album. A week later, she &lt;a href="https://www.instagram.com/p/Bsd2eNhA1NS/" rel="noopener nofollow"&gt;announced the track’s release date&lt;/a&gt; along with its cover art. “7 rings” was eventually released on January 18th.&lt;/p&gt;\n\n&lt;p&gt;On January 21st, 2019, Ariana held a &lt;a href="https://www.nme.com/news/music/ariana-grande-hints-february-release-date-new-album-thank-u-next-2436202" rel="noopener nofollow"&gt;Q&amp;amp;A&lt;/a&gt; on her Twitter. There, &lt;a href="https://twitter.com/arianagrande/status/1087440752135725056?s=21" rel="noopener nofollow"&gt;she confirmed&lt;/a&gt; that the pre-order would be available that Friday, and that she would reveal the cover art and official tracklist. Additionally, she confirmed the album would have &lt;a href="https://twitter.com/arianagrande/status/1087440389378793473?s=21" rel="noopener nofollow"&gt;no features&lt;/a&gt;. A fan then &lt;a href="https://twitter.com/arianagrande/status/1087441225496420352?s=21" rel="noopener nofollow"&gt;tweeted&lt;/a&gt; stating that he hopes the album would be released in February, to which Ari replied “hbd” meaning Happy Birthday. Finally, Ariana &lt;a href="https://twitter.com/arianagrande/status/1087441907037364228?s=21" rel="noopener nofollow"&gt;confirmed&lt;/a&gt; the final release date to be February 8th.&lt;/p&gt;\n\n&lt;p&gt;The track list and cover art were eventually revealed on the &lt;a href="https://www.instagram.com/sweetener/" rel="noopener nofollow"&gt;‘Sweetener’ Instagram account&lt;/a&gt; on January 22nd, 2019.&lt;/p&gt;\n\n&lt;p&gt;Two days before the album’s release, on February 5th, 2019, she revealed the third single would be the newly added final track, &lt;a href="https://twitter.com/ArianaGrande/status/1092873810053804032" rel="noopener nofollow"&gt;“break up with your girlfriend, i’m bored.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The day before the album’s release, the full album &lt;a href="https://www.reddit.com/r/popheads/comments/ao3fiv/ariana_grande_thank_u_next_leak/" rel="noopener nofollow"&gt;leaked online&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Brian Malik Baptiste', 'url': 'https://genius.com/artists/Brian-malik-baptiste'}, {'name': 'Happy Perez', 'url': 'https://genius.com/artists/Happy-perez'}, {'name': 'ILYA', 'url': 'https://genius.com/artists/Ilya'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Michael “Mikey” Foster', 'url': 'https://genius.com/artists/Michael-mikey-foster'}, {'name': 'NOVA WAV', 'url': 'https://genius.com/artists/Nova-wav'}, {'name': 'Pop Wansel', 'url': 'https://genius.com/artists/Pop-wansel'}, {'name': 'Scootie', 'url': 'https://genius.com/artists/Scootie'}, {'name': 'Tayla Parx', 'url': 'https://genius.com/artists/Tayla-parx'}, {'name': 'TBHits', 'url': 'https://genius.com/artists/Tbhits'}, {'name': 'Victoria Monét', 'url': 'https://genius.com/artists/Victoria-monet'}], 'writers': [{'name': 'Ariana Grande', 'url': 'https://genius.com/artists/Ariana-grande'}, {'name': 'Blu June', 'url': 'https://genius.com/artists/Blu-june'}, {'name': 'Brian Malik Baptiste', 'url': 'https://genius.com/artists/Brian-malik-baptiste'}, {'name': 'Brittany Coney', 'url': 'https://genius.com/artists/Brittany-coney'}, {'name': 'Fred Ball', 'url': 'https://genius.com/artists/Fred-ball'}, {'name': 'Happy Perez', 'url': 'https://genius.com/artists/Happy-perez'}, {'name': 'ILYA', 'url': 'https://genius.com/artists/Ilya'}, {'name': 'Joseph Frierson', 'url': 'https://genius.com/artists/Joseph-frierson'}, {'name': 'JProof', 'url': 'https://genius.com/artists/Jproof'}, {'name': 'Justin Tranter', 'url': 'https://genius.com/artists/Justin-tranter'}, {'name': 'Kandi', 'url': 'https://genius.com/artists/Kandi'}, {'name': 'Kaydence', 'url': 'https://genius.com/artists/Kaydence'}, {'name': 'Kennedi', 'url': 'https://genius.com/artists/Kennedi'}, {'name': 'Kevin Briggs', 'url': 'https://genius.com/artists/Kevin-briggs'}, {'name': 'Lindel Deon Nelson', 'url': 'https://genius.com/artists/Lindel-deon-nelson'}, {'name': 'Mary Frierson', 'url': 'https://genius.com/artists/Mary-frierson'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Michael “Mikey” Foster', 'url': 'https://genius.com/artists/Michael-mikey-foster'}, {'name': 'Njomza', 'url': 'https://genius.com/artists/Njomza'}, {'name': 'Oscar Hammerstein II', 'url': 'https://genius.com/artists/Oscar-hammerstein-ii'}, {'name': 'Peter Svensson', 'url': 'https://genius.com/artists/Peter-svensson'}, {'name': 'Pop Wansel', 'url': 'https://genius.com/artists/Pop-wansel'}, {'name': 'Priscilla Renea', 'url': 'https://genius.com/artists/Priscilla-renea'}, {'name': 'Richard Rodgers', 'url': 'https://genius.com/artists/Richard-rodgers'}, {'name': 'Savan Kotecha', 'url': 'https://genius.com/artists/Savan-kotecha'}, {'name': 'Scootie', 'url': 'https://genius.com/artists/Scootie'}, {'name': 'Tayla Parx', 'url': 'https://genius.com/artists/Tayla-parx'}, {'name': 'TBHits', 'url': 'https://genius.com/artists/Tbhits'}, {'name': 'Victoria Monét', 'url': 'https://genius.com/artists/Victoria-monet'}, {'name': 'Wendy Rene', 'url': 'https://genius.com/artists/Wendy-rene'}], 'labels': [{'name': 'Republic Records', 'url': 'https://genius.com/artists/Republic-records'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Beastie-boys/Beastie-boys-music', 'annotations': {'description': '', 'producers': [{'name': 'Ad-Rock', 'url': 'https://genius.com/artists/Ad-rock'}, {'name': 'Beastie Boys', 'url': 'https://genius.com/artists/Beastie-boys'}, {'name': 'Dust Brothers', 'url': 'https://genius.com/artists/Dust-brothers'}, {'name': 'Mario Caldato Jr.', 'url': 'https://genius.com/artists/Mario-caldato-jr'}, {'name': 'MCA', 'url': 'https://genius.com/artists/Mca'}, {'name': 'Mike D', 'url': 'https://genius.com/artists/Mike-d'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Ad-Rock', 'url': 'https://genius.com/artists/Ad-rock'}, {'name': 'Beastie Boys', 'url': 'https://genius.com/artists/Beastie-boys'}, {'name': 'DJ Hurricane', 'url': 'https://genius.com/artists/Dj-hurricane'}, {'name': 'D.M.C.', 'url': 'https://genius.com/artists/Dmc'}, {'name': 'Dust Brothers', 'url': 'https://genius.com/artists/Dust-brothers'}, {'name': 'Mario Caldato Jr.', 'url': 'https://genius.com/artists/Mario-caldato-jr'}, {'name': 'MCA', 'url': 'https://genius.com/artists/Mca'}, {'name': 'MCA (Rom)', 'url': 'https://genius.com/artists/Mca-rom'}, {'name': 'Mike D', 'url': 'https://genius.com/artists/Mike-d'}, {'name': 'Q-Tip', 'url': 'https://genius.com/artists/Q-tip'}, {'name': 'Rev Run', 'url': 'https://genius.com/artists/Rev-run'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}, {'name': 'Santigold', 'url': 'https://genius.com/artists/Santigold'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'Def Jam Recordings', 'url': 'https://genius.com/artists/Def-jam-recordings'}, {'name': 'Grand Royal Records', 'url': 'https://genius.com/artists/Grand-royal-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Kevin-rudolf/In-the-city', 'annotations': {'description': '', 'producers': [{'name': 'Chad Hugo', 'url': 'https://genius.com/artists/Chad-hugo'}, {'name': 'Kevin Rudolf', 'url': 'https://genius.com/artists/Kevin-rudolf'}], 'writers': [{'name': '\u200b\u200bill Factor', 'url': 'https://genius.com/artists/Ill-factor'}, {'name': 'Jacob Kasher', 'url': 'https://genius.com/artists/Jacob-kasher'}, {'name': 'Kevin Rudolf', 'url': 'https://genius.com/artists/Kevin-rudolf'}, {'name': 'Lil Wayne', 'url': 'https://genius.com/artists/Lil-wayne'}, {'name': 'Rick Ross', 'url': 'https://genius.com/artists/Rick-ross'}], 'labels': [{'name': 'Cash Money Records', 'url': 'https://genius.com/artists/Cash-money-records'}, {'name': 'Republic Records', 'url': 'https://genius.com/artists/Republic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-cranberries/Stars-the-best-of-1992-2002', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Stars: The Best of 1992-2002&lt;/em&gt; is a compilation album by the Irish band, The Cranberries. Some of the tracks on the album are different versions of the songs released on earlier albums. The album also features two new tracks: &lt;a href="https://genius.com/The-cranberries-new-new-york-lyrics" rel="noopener" data-api_path="/songs/1243691"&gt;“New New York”&lt;/a&gt; and &lt;a href="https://genius.com/The-cranberries-stars-lyrics" rel="noopener" data-api_path="/songs/1168555"&gt;“Stars”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Benedict Fenner', 'url': 'https://genius.com/artists/Benedict-fenner'}, {'name': 'Bruce Fairbairn', 'url': 'https://genius.com/artists/Bruce-fairbairn'}, {'name': 'The Cranberries', 'url': 'https://genius.com/artists/The-cranberries'}, {'name': 'Julie Gardner', 'url': 'https://genius.com/artists/Julie-gardner'}, {'name': 'Stephen Street', 'url': 'https://genius.com/artists/Stephen-street'}], 'writers': [{'name': 'Dolores O’Riordan', 'url': 'https://genius.com/artists/Dolores-oriordan'}, {'name': 'Noel Hogan', 'url': 'https://genius.com/artists/Noel-hogan'}], 'labels': [{'name': 'Def Jam Recordings', 'url': 'https://genius.com/artists/Def-jam-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Ariana-grande/Sweetener', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Sweetener&lt;/em&gt; is the fourth studio album by American singer &lt;a href="https://genius.com/artists/Ariana-grande" rel="noopener" data-api_path="/artists/26507"&gt;Ariana Grande&lt;/a&gt;.  It was released on August 17, 2018 via Republic Records. It is her first official studio project in over two years, since the release of her 2016 album &lt;a href="https://genius.com/albums/Ariana-grande/Dangerous-woman" rel="noopener" data-api_path="/albums/125387"&gt;&lt;em&gt;Dangerous Woman&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Frequent producers, such as &lt;a href="https://genius.com/artists/Max-martin" rel="noopener" data-api_path="/artists/27835"&gt;Max Martin&lt;/a&gt;, &lt;a href="https://genius.com/artists/Pharrell-williams" rel="noopener" data-api_path="/artists/110"&gt;Pharrell Williams&lt;/a&gt;, &lt;a href="https://genius.com/artists/Ilya-salmanzadeh" rel="noopener" data-api_path="/artists/155062"&gt;Ilya Salmanzadeh&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Savan-kotecha" rel="noopener" data-api_path="/artists/179206"&gt;Savan Kotecha&lt;/a&gt; all took part in the album, mostly Williams being the producer of seven tracks from the record.&lt;/p&gt;\n\n&lt;p&gt;The album consists of fifteen tracks, three collaborations, and a colored album art, which breaks off from the habitual black &amp;amp; white aesthetics of &lt;a href="https://genius.com/Ariana-grande-yours-truly-tracklist-album-art-lyrics" rel="noopener"&gt;&lt;em&gt;Yours Truly&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Ariana-grande/My-everything" rel="noopener" data-api_path="/albums/107154"&gt;&lt;em&gt;My Everything&lt;/em&gt;&lt;/a&gt; and &lt;em&gt;Dangerous Woman&lt;/em&gt;. Grande herself explained how the concept was made, telling one of her fans:&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;blockquote class="twitter-tweet"&gt;&lt;a href="https://twitter.com/arianagrande/status/1008517165832654848?ref_src=embedly"&gt;&lt;/a&gt;&lt;/blockquote&gt;\n&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;\n&lt;/div&gt;\n\n&lt;p&gt;On December 31st, 2017, Ariana &lt;a href="https://www.instagram.com/p/BdZINXLHo9T/" rel="noopener nofollow"&gt;shared a snippet&lt;/a&gt;, with the caption:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;see you next year&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Ari was silent on all social medias until April 17, 2018, where she shared a teaser for the album’s lead single, “no tears left to cry”, which was then released three days later, along with &lt;a href="https://www.youtube.com/watch?v=ffxKSjUwKdU" rel="noopener nofollow"&gt;the music video&lt;/a&gt;. The song debuted at number three on the Billboard Hot 100. The video became Ari’s most viewed video in its first day of being uploaded and in the first week of release.&lt;/p&gt;\n\n&lt;p&gt;On June 20th, 2018, Ariana released the album’s first promotional single, “the light is coming”.&lt;/p&gt;\n\n&lt;p&gt;On July 13, 2018, Ari released the album’s second single, “God is a woman”, which debuted at number eleven and peaked at number eight on the US Billboard Hot 100.&lt;/p&gt;\n\n&lt;p&gt;On November 7th, 2018, the official &lt;a href="https://www.youtube.com/watch?v=kN0iD0pI3o0" rel="noopener nofollow"&gt;music video for “Breathin”&lt;/a&gt; was released, 5 days after she released &lt;a href="https://genius.com/Ariana-grande-thank-u-next-lyrics" rel="noopener" data-api_path="/songs/4063065"&gt;the lead single&lt;/a&gt; for her 5th studio album, &lt;a href="https://genius.com/albums/ariana-grande/thank-u-next" rel="noopener" data-api_path="/albums/467250"&gt;&lt;em&gt;thank u, next&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Brian Malik Baptiste', 'url': 'https://genius.com/artists/Brian-malik-baptiste'}, {'name': 'Hit-Boy', 'url': 'https://genius.com/artists/Hit-boy'}, {'name': 'ILYA', 'url': 'https://genius.com/artists/Ilya'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Pharrell Williams', 'url': 'https://genius.com/artists/Pharrell-williams'}, {'name': 'Scootie', 'url': 'https://genius.com/artists/Scootie'}, {'name': 'Social House', 'url': 'https://genius.com/artists/Social-house'}, {'name': 'TBHits', 'url': 'https://genius.com/artists/Tbhits'}], 'writers': [{'name': 'Ariana Grande', 'url': 'https://genius.com/artists/Ariana-grande'}, {'name': 'Bob Gaudio', 'url': 'https://genius.com/artists/Bob-gaudio'}, {'name': 'Brian Malik Baptiste', 'url': 'https://genius.com/artists/Brian-malik-baptiste'}, {'name': 'Hit-Boy', 'url': 'https://genius.com/artists/Hit-boy'}, {'name': 'ILYA', 'url': 'https://genius.com/artists/Ilya'}, {'name': 'Imogen Heap', 'url': 'https://genius.com/artists/Imogen-heap'}, {'name': 'Kaydence', 'url': 'https://genius.com/artists/Kaydence'}, {'name': 'Maxine Ashley', 'url': 'https://genius.com/artists/Maxine-ashley'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Michael “Mikey” Foster', 'url': 'https://genius.com/artists/Michael-mikey-foster'}, {'name': 'Missy Elliott', 'url': 'https://genius.com/artists/Missy-elliott'}, {'name': 'Nicki Minaj', 'url': 'https://genius.com/artists/Nicki-minaj'}, {'name': 'Peter Svensson', 'url': 'https://genius.com/artists/Peter-svensson'}, {'name': 'Pharrell Williams', 'url': 'https://genius.com/artists/Pharrell-williams'}, {'name': 'Rickard Göransson', 'url': 'https://genius.com/artists/Rickard-goransson'}, {'name': 'Savan Kotecha', 'url': 'https://genius.com/artists/Savan-kotecha'}, {'name': 'Scootie', 'url': 'https://genius.com/artists/Scootie'}, {'name': 'TBHits', 'url': 'https://genius.com/artists/Tbhits'}, {'name': 'Victoria Monét', 'url': 'https://genius.com/artists/Victoria-monet'}], 'labels': [{'name': 'Republic Records', 'url': 'https://genius.com/artists/Republic-records'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Beck/Odelay', 'annotations': {'description': '&lt;p&gt;With its sonic fusion, samples, and experimental talent, &lt;em&gt;Odelay&lt;/em&gt; takes a massive step back and quickly propels ahead, as if &lt;em&gt;Mellow Gold&lt;/em&gt; wasn’t the weirdest thing on his discography.&lt;/p&gt;\n\n&lt;p&gt;The Midnight Cowboy-esque “Devil’s Haircut” opens the show, while “Where It’s At” mixes Napoleon Dynamite synths with a backtrack “two turntables and a microphone” lyric and catchy tunes. “The New Pollution” mixes a party with some urban jungle tunes, and “Ramshackle” gives us a wild closer.&lt;/p&gt;\n\n&lt;p&gt;All in all, the most sold and successful album Beck has ever produced.&lt;/p&gt;', 'producers': [{'name': 'Beck', 'url': 'https://genius.com/artists/Beck'}, {'name': 'Brian Paulson', 'url': 'https://genius.com/artists/Brian-paulson'}, {'name': 'Dust Brothers', 'url': 'https://genius.com/artists/Dust-brothers'}, {'name': 'Mario Caldato Jr.', 'url': 'https://genius.com/artists/Mario-caldato-jr'}, {'name': 'Rob Schnapf', 'url': 'https://genius.com/artists/Rob-schnapf'}, {'name': 'Tom Rothrock', 'url': 'https://genius.com/artists/Tom-rothrock'}], 'writers': [{'name': 'Beck', 'url': 'https://genius.com/artists/Beck'}, {'name': 'E.Z. Mike', 'url': 'https://genius.com/artists/Ez-mike'}, {'name': 'King Gizmo', 'url': 'https://genius.com/artists/King-gizmo'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/U2/The-joshua-tree', 'annotations': {'description': '&lt;p&gt;Even following 1984’s &lt;a href="https://genius.com/albums/U2/The-unforgettable-fire" rel="noopener" data-api_path="/albums/31418"&gt;&lt;em&gt;The Unforgettable Fire&lt;/em&gt;&lt;/a&gt;, few could have guessed that U2 would drop one of the greatest rock albums of all time. 1987’s &lt;em&gt;The Joshua Tree&lt;/em&gt; was a record concerned with the state of America, being informed by &lt;a href="https://genius.com/U2-one-tree-hill-lyrics" rel="noopener" data-api_path="/songs/107995"&gt;personal tragedy&lt;/a&gt;, &lt;a href="https://genius.com/U2-red-hill-mining-town-lyrics" rel="noopener" data-api_path="/songs/132490"&gt;political upheaval&lt;/a&gt; and &lt;a href="https://genius.com/U2-mothers-of-the-disappeared-lyrics" rel="noopener" data-api_path="/songs/132495"&gt;Bono’s own experiences volunteering in South America&lt;/a&gt;. Their second collaboration with influential producer &lt;a href="https://genius.com/artists/Brian-eno" rel="noopener" data-api_path="/artists/29972"&gt;Brian Eno&lt;/a&gt;, the album contained some of U2’s most enduring hits, such as &lt;a href="https://genius.com/U2-with-or-without-you-lyrics" rel="noopener" data-api_path="/songs/132487"&gt;“With Or Without You”&lt;/a&gt;, &lt;a href="https://genius.com/U2-i-still-havent-found-what-im-looking-for-lyrics" rel="noopener" data-api_path="/songs/132486"&gt;“I Still Haven’t Found What I’m Looking For”&lt;/a&gt;, and &lt;a href="https://genius.com/U2-where-the-streets-have-no-name-lyrics" rel="noopener" data-api_path="/songs/132482"&gt;“Where The Streets Have No Name”&lt;/a&gt;. It went on to win Album of the Year at the 1988 Annual Grammy Awards, and remains to this day one of the best-selling albums of all time, having sold over 25 million copies. In 2014, the Library of Congress selected the album for preservation as a “culturally, historically or aesthetically significant” work.&lt;/p&gt;', 'producers': [{'name': 'Arthur Baker', 'url': 'https://genius.com/artists/Arthur-baker'}, {'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}, {'name': 'Daniel Lanois', 'url': 'https://genius.com/artists/Daniel-lanois'}, {'name': 'Little Steven', 'url': 'https://genius.com/artists/Little-steven'}, {'name': 'Steve Lillywhite', 'url': 'https://genius.com/artists/Steve-lillywhite'}, {'name': 'U2', 'url': 'https://genius.com/artists/U2'}], 'writers': [{'name': 'Adam Clayton', 'url': 'https://genius.com/artists/Adam-clayton'}, {'name': 'Allen Ginsberg', 'url': 'https://genius.com/artists/Allen-ginsberg'}, {'name': 'Bono', 'url': 'https://genius.com/artists/Bono'}, {'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}, {'name': 'The Edge (Guitarist)', 'url': 'https://genius.com/artists/The-edge-guitarist'}, {'name': 'Larry Mullen Jr.', 'url': 'https://genius.com/artists/Larry-mullen-jr'}, {'name': 'U2', 'url': 'https://genius.com/artists/U2'}, {'name': 'William Blake', 'url': 'https://genius.com/artists/William-blake'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Gwen-stefani/Love-angel-music-baby', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Love. Angel. Music. Baby.&lt;/em&gt; is the debut solo studio album by American singer Gwen Stefani, released on November 12, 2004, via Interscope Records. During the album’s release, it &lt;a href="https://www.billboard.com/articles/news/65450/u2s-bomb-explodes-at-no-1" rel="noopener nofollow"&gt;debuted&lt;/a&gt; at number five on the US Billboard 200, selling 309,000 copies in its first week.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Gwen-stefani-what-you-waiting-for-lyrics" rel="noopener" data-api_path="/songs/284592"&gt;“What You Waiting For?”&lt;/a&gt; was released as the lead single from &lt;em&gt;Love. Angel. Music. Baby.&lt;/em&gt; The song became her first single as a solo artist to appear on the Billboard Hot 100 chart, peaking at #47. &lt;a href="https://genius.com/Gwen-stefani-rich-girl-lyrics" rel="noopener" data-api_path="/songs/32729"&gt;“Rich Girl”&lt;/a&gt;, featuring Eve, was released as the album’s second single and became Stefani’s first top-10 entry as a solo artist in the US, peaking at number seven on the Billboard Hot 100. &lt;a href="https://genius.com/Gwen-stefani-hollaback-girl-lyrics" rel="noopener" data-api_path="/songs/4385"&gt;“Hollaback Girl”&lt;/a&gt; was released as the third single, becoming Stefani’s biggest hit on the Hot 100 and her only number one single. &lt;a href="https://genius.com/Gwen-stefani-cool-lyrics" rel="noopener" data-api_path="/songs/273786"&gt;“Cool”&lt;/a&gt; was released as the fourth single from the album, reaching a peak of #13. &lt;a href="https://genius.com/Gwen-stefani-luxurious-remix-lyrics" rel="noopener" data-api_path="/songs/32565"&gt;“Luxurious”&lt;/a&gt;, reaching a peak of #21, was released as the fifth single, with the [single version] featuring rapper Slim Thug. &lt;a href="https://genius.com/Gwen-stefani-crash-lyrics" rel="noopener" data-api_path="/songs/422894"&gt;“Crash”&lt;/a&gt; became Stefani’s final single from the album. The song did not match the previous success of the previous singles, peaking at #49.&lt;/p&gt;', 'producers': [{'name': 'André 3000', 'url': 'https://genius.com/artists/Andre-3000'}, {'name': 'Dallas Austin', 'url': 'https://genius.com/artists/Dallas-austin'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Jimmy Jam &amp; Terry Lewis', 'url': 'https://genius.com/artists/Jimmy-jam-and-terry-lewis'}, {'name': 'Nellee Hooper', 'url': 'https://genius.com/artists/Nellee-hooper'}, {'name': 'The Neptunes', 'url': 'https://genius.com/artists/The-neptunes'}, {'name': 'Tony Kanal', 'url': 'https://genius.com/artists/Tony-kanal'}], 'writers': [{'name': 'André 3000', 'url': 'https://genius.com/artists/Andre-3000'}, {'name': 'Bobby Ross Avila', 'url': 'https://genius.com/artists/Bobby-ross-avila'}, {'name': 'Chad Hugo', 'url': 'https://genius.com/artists/Chad-hugo'}, {'name': 'Chantal Kreviazuk', 'url': 'https://genius.com/artists/Chantal-kreviazuk'}, {'name': 'Chris Jasper', 'url': 'https://genius.com/artists/Chris-jasper'}, {'name': 'Dallas Austin', 'url': 'https://genius.com/artists/Dallas-austin'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Eve', 'url': 'https://genius.com/artists/Eve'}, {'name': 'Gavin Rossdale', 'url': 'https://genius.com/artists/Gavin-rossdale'}, {'name': 'Gwen Stefani', 'url': 'https://genius.com/artists/Gwen-stefani'}, {'name': 'The Isley Brothers', 'url': 'https://genius.com/artists/The-isley-brothers'}, {'name': 'Iz Avila', 'url': 'https://genius.com/artists/Iz-avila'}, {'name': 'James “Big Jim” Wright', 'url': 'https://genius.com/artists/James-big-jim-wright'}, {'name': 'Jerry Bock', 'url': 'https://genius.com/artists/Jerry-bock'}, {'name': 'Jimmy Jam', 'url': 'https://genius.com/artists/Jimmy-jam'}, {'name': 'Kara DioGuardi', 'url': 'https://genius.com/artists/Kara-dioguardi'}, {'name': 'Linda Perry', 'url': 'https://genius.com/artists/Linda-perry'}, {'name': 'Mark Batson', 'url': 'https://genius.com/artists/Mark-batson'}, {'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}, {'name': 'Pharrell Williams', 'url': 'https://genius.com/artists/Pharrell-williams'}, {'name': 'Seven Benjamin', 'url': 'https://genius.com/artists/Seven-benjamin'}, {'name': 'Sheldon Harnick', 'url': 'https://genius.com/artists/Sheldon-harnick'}, {'name': 'Terry Lewis', 'url': 'https://genius.com/artists/Terry-lewis'}, {'name': 'Tony Kanal', 'url': 'https://genius.com/artists/Tony-kanal'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Of-monsters-and-men/My-head-is-an-animal', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;My Head Is An Animal&lt;/em&gt; is the debut studio album by Icelandic alternative folk band &lt;a href="https://genius.com/artists/Of-monsters-and-men" rel="noopener" data-api_path="/artists/18453"&gt;Of Monsters and Men&lt;/a&gt;, it was first released on Iceland through Record Records. By April 2012, &lt;a href="https://genius.com/albums/Of-monsters-and-men/My-head-is-an-animal-reissue" rel="noopener" data-api_path="/albums/15605"&gt;the album was reissued&lt;/a&gt; worldwide by Universal Music Group, with a new cover art, remastered versions of the songs and a different tracklist.&lt;/p&gt;\n\n&lt;p&gt;Each of the 14 tracks from both versions of the album has a lyric video of its own. Except for the “Mountain Sound” music video, all the music and lyric videos were produced and directed by Canadian duo &lt;a href="https://wwm.productions/" rel="noopener nofollow"&gt;WeWereMonkeys&lt;/a&gt;. The videos of the record were inspired by Nordic Mythologhy, WeWereMonkeys\' team even traveled to Iceland to study the country’s landscapes. The music video for “Little Talks” was &lt;a href="https://en.wikipedia.org/wiki/2012_MTV_Video_Music_Awards#Best_Art_Direction" rel="noopener nofollow"&gt;nominated at the 2012 MTV Video Music Awards&lt;/a&gt; for the “Best Art Direction” prize.&lt;/p&gt;\n\n&lt;p&gt;Three singles were released from the record: “Little Talks”, “Mountain Sound” (track absent from the original release) and “King And Lionheart”. “Little Talks”‘ huge success was the reason why the band signed with Universal: the single had sold a million copies in the US and &lt;a href="https://www.billboard.com/music/of-monsters-and-men/chart-history/HSI/song/714225" rel="noopener nofollow"&gt;peaked at #20&lt;/a&gt; on the Hot 100. In the UK and Ireland, the track “Dirty Paws” was released as the second single and “Six Weeks” as a promotional one.&lt;/p&gt;\n\n&lt;p&gt;The reissue of &lt;em&gt;My Head Is An Animal&lt;/em&gt; &lt;a href="https://www.billboard.com/charts/billboard-200/2012-04-21" rel="noopener nofollow"&gt;debuted and peaked at #6&lt;/a&gt; on the Billboard 200, being the best chart performance for an Icelandic musical artist in US history until then. In January 2014 the album achieved platinum certification in the US, and by 2015 it had sold 1.1 million copies in the country.&lt;/p&gt;', 'producers': [{'name': 'Aron Þór Arnarsson', 'url': 'https://genius.com/artists/Aron-or-arnarsson'}, {'name': 'Jacquire King', 'url': 'https://genius.com/artists/Jacquire-king'}, {'name': 'Of Monsters and Men', 'url': 'https://genius.com/artists/Of-monsters-and-men'}], 'writers': [{'name': 'Arnar Rósenkranz Hilmarsson', 'url': 'https://genius.com/artists/Arnar-rosenkranz-hilmarsson'}, {'name': 'Brynjar Leifsson', 'url': 'https://genius.com/artists/Brynjar-leifsson'}, {'name': 'Nanna Bryndís Hilmarsdóttir', 'url': 'https://genius.com/artists/Nanna-bryndis-hilmarsdottir'}, {'name': 'Ragnar Þórhallsson', 'url': 'https://genius.com/artists/Ragnar-orhallsson'}, {'name': 'Stephen Mann', 'url': 'https://genius.com/artists/Stephen-mann'}], 'labels': [{'name': 'Universal Records', 'url': 'https://genius.com/artists/Universal-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Sia/This-is-acting', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;This Is Acting&lt;/em&gt; is the seventh studio album by Sia Furler. During an interview with &lt;a href="http://www.nme.com/news/various-artists/82961?utm_source=twitter&amp;amp;utm_medium=social&amp;amp;utm_campaign=mag#JSddo3yvMC7SwVHo.99" rel="noopener nofollow"&gt;&lt;em&gt;NME&lt;/em&gt;,&lt;/a&gt; Sia explained the title:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’m calling it &lt;em&gt;This Is Acting&lt;/em&gt; because they are songs I was writing for other people, so I didn’t go in thinking ‘this is something I would say’. It’s more like play-acting. It’s fun."&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The first single “Alive” was released on 25 September 2015, and charted in 21 countries, picking up a platinum status in Australia and Poland. Second single &lt;a href="https://genius.com/Sia-cheap-thrills-lyrics" rel="noopener" data-api_path="/songs/2391084"&gt;“Cheap Thrills,”&lt;/a&gt; released in February 2016, was wildly successful, making it into the top 10 in 33 countries, and number 1 in the US. It was certified platinum or higher in 12 countries, and helped propel the record to number 4 in the US.&lt;/p&gt;\n\n&lt;p&gt;The album is made up of records Sia wrote for other artists, but weren’t accepted. These include &lt;a href="https://genius.com/artists/Adele" rel="noopener" data-api_path="/artists/2300"&gt;Adele&lt;/a&gt;, &lt;a href="https://genius.com/artists/Rihanna" rel="noopener" data-api_path="/artists/89"&gt;Rihanna&lt;/a&gt;, &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Christina-aguilera" rel="noopener" data-api_path="/artists/1211"&gt;Christina Aguilera&lt;/a&gt;, although the identities of all the artists are not confirmed.&lt;/p&gt;', 'producers': [{'name': '88-Keys', 'url': 'https://genius.com/artists/88-keys'}, {'name': 'Cameron Deyell', 'url': 'https://genius.com/artists/Cameron-deyell'}, {'name': 'Chris Braide', 'url': 'https://genius.com/artists/Chris-braide'}, {'name': 'Dom Solo', 'url': 'https://genius.com/artists/Dom-solo'}, {'name': 'Greg Kurstin', 'url': 'https://genius.com/artists/Greg-kurstin'}, {'name': 'Jack Antonoff', 'url': 'https://genius.com/artists/Jack-antonoff'}, {'name': 'Jake Sinclair', 'url': 'https://genius.com/artists/Jake-sinclair'}, {'name': 'Jesse Shatkin', 'url': 'https://genius.com/artists/Jesse-shatkin'}, {'name': 'Kanye West', 'url': 'https://genius.com/artists/Kanye-west'}, {'name': 'Nikhil Seetharam', 'url': 'https://genius.com/artists/Nikhil-seetharam'}, {'name': 'Noah Goldstein', 'url': 'https://genius.com/artists/Noah-goldstein'}, {'name': 'T-Minus', 'url': 'https://genius.com/artists/T-minus'}, {'name': 'Vaiyeh', 'url': 'https://genius.com/artists/Vaiyeh'}], 'writers': [{'name': '88-Keys', 'url': 'https://genius.com/artists/88-keys'}, {'name': 'Adele', 'url': 'https://genius.com/artists/Adele'}, {'name': 'Bob Robinson', 'url': 'https://genius.com/artists/Bob-robinson'}, {'name': 'Chris Braide', 'url': 'https://genius.com/artists/Chris-braide'}, {'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'Dom Solo', 'url': 'https://genius.com/artists/Dom-solo'}, {'name': 'Draco Rosa', 'url': 'https://genius.com/artists/Draco-rosa'}, {'name': 'Greg Kurstin', 'url': 'https://genius.com/artists/Greg-kurstin'}, {'name': 'Jack Antonoff', 'url': 'https://genius.com/artists/Jack-antonoff'}, {'name': 'Jasper Leak', 'url': 'https://genius.com/artists/Jasper-leak'}, {'name': 'Jesse Shatkin', 'url': 'https://genius.com/artists/Jesse-shatkin'}, {'name': 'Kanye West', 'url': 'https://genius.com/artists/Kanye-west'}, {'name': 'Marquis Collins', 'url': 'https://genius.com/artists/Marquis-collins'}, {'name': 'Nikhil Seetharam', 'url': 'https://genius.com/artists/Nikhil-seetharam'}, {'name': 'Noah Goldstein', 'url': 'https://genius.com/artists/Noah-goldstein'}, {'name': 'Pal Joey', 'url': 'https://genius.com/artists/Pal-joey'}, {'name': 'Sia', 'url': 'https://genius.com/artists/Sia'}, {'name': 'SisQó', 'url': 'https://genius.com/artists/Sisqo'}, {'name': 'Tim Kelley', 'url': 'https://genius.com/artists/Tim-kelley'}, {'name': 'T-Minus', 'url': 'https://genius.com/artists/T-minus'}, {'name': 'Tobias Jesso Jr.', 'url': 'https://genius.com/artists/Tobias-jesso-jr'}, {'name': 'Vaiyeh', 'url': 'https://genius.com/artists/Vaiyeh'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Stevie-nicks/Crystal-visions-the-very-best-of-stevie-nicks', 'annotations': {'description': '', 'producers': [{'name': 'Chas Sandford', 'url': 'https://genius.com/artists/Chas-sandford'}, {'name': 'Dubfire', 'url': 'https://genius.com/artists/Dubfire'}, {'name': 'Fleetwood Mac', 'url': 'https://genius.com/artists/Fleetwood-mac'}, {'name': 'Jimmy Iovine', 'url': 'https://genius.com/artists/Jimmy-iovine'}, {'name': 'John Shanks', 'url': 'https://genius.com/artists/John-shanks'}, {'name': 'Ken Caillat', 'url': 'https://genius.com/artists/Ken-caillat'}, {'name': 'Richard Dashut', 'url': 'https://genius.com/artists/Richard-dashut'}, {'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}, {'name': 'Rupert Hine', 'url': 'https://genius.com/artists/Rupert-hine'}, {'name': 'Sharam', 'url': 'https://genius.com/artists/Sharam'}, {'name': 'Sheryl Crow', 'url': 'https://genius.com/artists/Sheryl-crow'}, {'name': 'Stevie Nicks', 'url': 'https://genius.com/artists/Stevie-nicks'}, {'name': 'Tom Petty', 'url': 'https://genius.com/artists/Tom-petty'}, {'name': 'Waddy Wachtel', 'url': 'https://genius.com/artists/Waddy-wachtel'}], 'writers': [{'name': 'Chas Sandford', 'url': 'https://genius.com/artists/Chas-sandford'}, {'name': 'Eric Pressly', 'url': 'https://genius.com/artists/Eric-pressly'}, {'name': 'Jimmy Page', 'url': 'https://genius.com/artists/Jimmy-page'}, {'name': 'John Bonham', 'url': 'https://genius.com/artists/John-bonham'}, {'name': 'John Paul Jones', 'url': 'https://genius.com/artists/John-paul-jones'}, {'name': 'Mike W. Campbell', 'url': 'https://genius.com/artists/Mike-w-campbell'}, {'name': 'Prince', 'url': 'https://genius.com/artists/Prince'}, {'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}, {'name': 'Robert Plant', 'url': 'https://genius.com/artists/Robert-plant'}, {'name': 'Sandy Stewart', 'url': 'https://genius.com/artists/Sandy-stewart'}, {'name': 'Stevie Nicks', 'url': 'https://genius.com/artists/Stevie-nicks'}, {'name': 'Tom Petty', 'url': 'https://genius.com/artists/Tom-petty'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Robbie-williams/Life-thru-a-lens', 'annotations': {'description': '&lt;p&gt;Robbie’s first solo album, released September 29, 1997.&lt;/p&gt;\n\n&lt;p&gt;Although doing moderately well at first, after the hit success of &lt;a href="https://genius.com/Robbie-williams-angels-lyrics" rel="noopener" data-api_path="/songs/122487"&gt;“Angels”,&lt;/a&gt; the album steadily climbed to number one in the UK charts. Nowadays, it’s Robbie’s fourth best-selling album.&lt;/p&gt;\n\n&lt;p&gt;Other singles are &lt;a href="https://genius.com/Robbie-williams-lazy-days-lyrics" rel="noopener" data-api_path="/songs/1215059"&gt;“Lazy Days”,&lt;/a&gt; &lt;a href="https://genius.com/Robbie-williams-south-of-the-border-lyrics" rel="noopener" data-api_path="/songs/1528234"&gt;“South of the Border”,&lt;/a&gt; &lt;a href="https://genius.com/Robbie-williams-old-before-i-die-lyrics" rel="noopener" data-api_path="/songs/1629181"&gt;“Old Before I Die”&lt;/a&gt; and &lt;a href="https://genius.com/Robbie-williams-let-me-entertain-you-lyrics" rel="noopener" data-api_path="/songs/124111"&gt;“Let Me Entertain You”.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}, {'name': 'Steve Power', 'url': 'https://genius.com/artists/Steve-power'}], 'writers': [{'name': 'Antony Genn', 'url': 'https://genius.com/artists/Antony-genn'}, {'name': 'Chris Lowe', 'url': 'https://genius.com/artists/Chris-lowe'}, {'name': 'Colin Moulding', 'url': 'https://genius.com/artists/Colin-moulding'}, {'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'Eric Bazilian', 'url': 'https://genius.com/artists/Eric-bazilian'}, {'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}, {'name': 'Martin Slattery', 'url': 'https://genius.com/artists/Martin-slattery'}, {'name': 'Neil Tennant', 'url': 'https://genius.com/artists/Neil-tennant'}, {'name': 'Pablo Cook', 'url': 'https://genius.com/artists/Pablo-cook'}, {'name': 'Ray Heffernan', 'url': 'https://genius.com/artists/Ray-heffernan'}, {'name': 'Richard Hawley', 'url': 'https://genius.com/artists/Richard-hawley'}, {'name': 'Robbie Williams', 'url': 'https://genius.com/artists/Robbie-williams'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Bruce-springsteen/Born-in-the-u-s-a', 'annotations': {'description': '&lt;p&gt;Considered an essential to the folk-rock genre, &lt;em&gt;Born in the U.S.A.&lt;/em&gt; is Bruce Springsteen’s seventh studio album and often referred to as his most impactful.&lt;/p&gt;\n\n&lt;p&gt;The album is also his &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;se=Bruce+Springsteen+Born+In+The+USA#search_section" rel="noopener nofollow"&gt;best selling, as it was certified 15x diamond as of 2000&lt;/a&gt;. &lt;em&gt;Born in the U.S.A.&lt;/em&gt; was recorded at &lt;a href="http://powerstation.nyc/" rel="noopener nofollow"&gt;The Power Station&lt;/a&gt; and the &lt;a href="https://www.facebook.com/pages/category/Music-Production-Studio/The-Hit-Factory-Criteria-Recording-Studios-142433409128998/" rel="noopener nofollow"&gt;Hit Factory&lt;/a&gt; studios located in New York.&lt;/p&gt;\n\n&lt;p&gt;While Springsteen stuck to his roots for the majority of the record, his seventh LP saw him closing in on more early pop-rock elements, with accessible songs such as the &lt;a href="https://genius.com/Bruce-springsteen-born-in-the-usa-lyrics" rel="noopener" data-api_path="/songs/70448"&gt;title track&lt;/a&gt; as well as &lt;a href="https://genius.com/Bruce-springsteen-im-on-fire-lyrics" rel="noopener" data-api_path="/songs/356968"&gt;“I’m on Fire”.&lt;/a&gt; The album also covers politics heavily – many of the songs are considered patriotic anthems. For example, the title track references those lost in the Vietnam War. The political tunes mainly lean towards conservative views, although the cover represents that, at the end of the day, Springsteen and his supporters believed in unity within the nation, as that was the true concept of the album.&lt;/p&gt;\n\n&lt;p&gt;He spoke on the creation of his album and his views on the success of the record in an &lt;a href="https://www.rollingstone.com/music/music-news/the-rolling-stone-interview-bruce-springsteen-on-born-in-the-u-s-a-184690/" rel="noopener nofollow"&gt;interview with &lt;em&gt;Rolling Stone&lt;/em&gt;&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Yeah, there’s a change. It doesn’t make living easier, but it does make certain aspects of your life easier. You don’t have to worry about rent, you can buy things for your folks and help out your friends, and you can have a good time, you know? There were moments where it was very confusing, because I realized that I was a rich man, but I felt like a poor man inside.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Bruce Springsteen', 'url': 'https://genius.com/artists/Bruce-springsteen'}, {'name': 'Chuck Plotkin', 'url': 'https://genius.com/artists/Chuck-plotkin'}, {'name': 'Jon Landau', 'url': 'https://genius.com/artists/Jon-landau'}, {'name': 'Little Steven', 'url': 'https://genius.com/artists/Little-steven'}], 'writers': [{'name': 'Bruce Springsteen', 'url': 'https://genius.com/artists/Bruce-springsteen'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Def-leppard/Adrenalize', 'annotations': {'description': '&lt;p&gt;Adrenalize is the fifth studio album by English rock band Def Leppard, released on 31 March 1992 through Mercury Records. The album was the first by the band following the 1991 death of guitarist Steve Clark. It was produced by Mike Shipley and Def Leppard, with Robert John “Mutt” Lange as executive producer. The album debuted at No. 1 on the U.S. Billboard 200 and peaked at No. 1 on the UK Albums Chart.&lt;/p&gt;', 'producers': [{'name': 'Def Leppard', 'url': 'https://genius.com/artists/Def-leppard'}, {'name': 'Mike Shipley', 'url': 'https://genius.com/artists/Mike-shipley'}], 'writers': [{'name': 'Brian May', 'url': 'https://genius.com/artists/Brian-may'}, {'name': 'Jimi Hendrix', 'url': 'https://genius.com/artists/Jimi-hendrix'}, {'name': 'Joe Elliott', 'url': 'https://genius.com/artists/Joe-elliott'}, {'name': 'Keith Richards', 'url': 'https://genius.com/artists/Keith-richards'}, {'name': 'Mick Jagger', 'url': 'https://genius.com/artists/Mick-jagger'}, {'name': 'Phil Collen', 'url': 'https://genius.com/artists/Phil-collen'}, {'name': 'Richard Savage', 'url': 'https://genius.com/artists/Richard-savage'}, {'name': 'Rick Allen', 'url': 'https://genius.com/artists/Rick-allen'}, {'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}, {'name': 'Steve Clark', 'url': 'https://genius.com/artists/Steve-clark'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-prodigy/Smack-my-bitch-up', 'annotations': {'description': '', 'producers': [{'name': 'Liam Howlett', 'url': 'https://genius.com/artists/Liam-howlett'}], 'writers': [{'name': 'Ced-Gee', 'url': 'https://genius.com/artists/Ced-gee'}, {'name': 'DJ Moe Love', 'url': 'https://genius.com/artists/Dj-moe-love'}, {'name': 'Kool Keith', 'url': 'https://genius.com/artists/Kool-keith'}, {'name': 'Liam Howlett', 'url': 'https://genius.com/artists/Liam-howlett'}, {'name': 'Tom Morello', 'url': 'https://genius.com/artists/Tom-morello'}, {'name': 'TR Love', 'url': 'https://genius.com/artists/Tr-love'}], 'labels': [{'name': 'Maverick Recording Company', 'url': 'https://genius.com/artists/Maverick-recording-company'}, {'name': 'XL Recordings', 'url': 'https://genius.com/artists/Xl-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Bob-marley-and-the-wailers/Exodus', 'annotations': {'description': '&lt;p&gt;During the recording of &lt;em&gt;Exodus&lt;/em&gt;, Marley was in exile in London, England. Just before his exile, Bob survived &lt;a href="https://www.theguardian.com/music/2006/jul/16/urban.worldmusic" rel="noopener nofollow"&gt;an assassination attempt&lt;/a&gt; while in Jamaica.&lt;/p&gt;\n\n&lt;p&gt;A shooter entered his home in Kingston, injuring Bob, his wife, Rita, and his manager, Don Taylor. Marley survived, and performed in a free &lt;a href="https://www.youtube.com/watch?v=0qARbHzRA1A" rel="noopener nofollow"&gt;&lt;em&gt;Smile Jamaica&lt;/em&gt;&lt;/a&gt; concert two days later.&lt;/p&gt;\n\n&lt;p&gt;Marley spent two years in exile in London, putting out the albums &lt;em&gt;Exodus&lt;/em&gt; and &lt;a href="https://genius.com/albums/Bob-marley-and-the-wailers/Kaya" rel="noopener" data-api_path="/albums/142286"&gt;&lt;em&gt;Kaya&lt;/em&gt;&lt;/a&gt;. &lt;em&gt;Exodus&lt;/em&gt; went gold in the US, UK, and Canada.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Exodus&lt;/em&gt; stands out from other albums by Bob Marley &amp;amp; the Wailers for its usage of sounds and instrumentation borrowed from Rock &amp;amp; Roll and other modern genres and artists.&lt;/p&gt;', 'producers': [{'name': 'Bob Marley &amp; The Wailers', 'url': 'https://genius.com/artists/Bob-marley-and-the-wailers'}], 'writers': [{'name': 'Bob Marley', 'url': 'https://genius.com/artists/Bob-marley'}, {'name': 'Curtis Mayfield', 'url': 'https://genius.com/artists/Curtis-mayfield'}, {'name': 'I Threes', 'url': 'https://genius.com/artists/I-threes'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}, {'name': 'Tuff Gong', 'url': 'https://genius.com/artists/Tuff-gong'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Red-hot-chili-peppers/One-hot-minute', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;One Hot Minute&lt;/em&gt; is the sixth RHCP studio album, their only with &lt;a href="https://genius.com/artists/Dave-navarro" rel="noopener" data-api_path="/artists/27020"&gt;Dave Navarro&lt;/a&gt;, who had replaced &lt;a href="https://genius.com/artists/John-frusciante" rel="noopener" data-api_path="/artists/1695"&gt;John Frusciante&lt;/a&gt; –  which made a considerable difference in the sound of the band. It contains fewer sexual themes than previous records and explores darker subject matters, such as drug use, depression, anguish, and grief.&lt;br&gt;\nIt also re-integrated use of heavy metal guitar riffs.&lt;/p&gt;\n\n&lt;p&gt;It was released on September 12, 1995, on Warner Bros. Records, and marked a reunion with &lt;a href="https://genius.com/artists/Rick-rubin" rel="noopener" data-api_path="/artists/27794"&gt;Rick Rubin&lt;/a&gt;, producer of their breakthrough smash &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Blood-sugar-sex-magik" rel="noopener" data-api_path="/albums/16011"&gt;Blood Sugar Sex Magik&lt;/a&gt;&lt;/em&gt; – whose worldwide sucess led to Frusciante’s departure in the first place.&lt;br&gt;\nThe vocalist &lt;a href="https://genius.com/artists/Anthony-kiedis" rel="noopener" data-api_path="/artists/582309"&gt;Anthony Kiedis&lt;/a&gt;, who had resumed addictions to cocaine and heroin in 1994 after being sober for more than five years, approached his lyricism with a reflective outlook on drugs and their harsh effects.&lt;/p&gt;\n\n&lt;p&gt;Overall, &lt;em&gt;One Hot Minute&lt;/em&gt; was a commercial disappointment, despite producing three hit singles and reaching number four on the Billboard 200 chart. It sold less than half as many copies as its predecessor and received much less critical acclaim. Navarro was ultimately fired from the band in 1998, due to creative differences.&lt;/p&gt;', 'producers': [{'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Anthony Kiedis', 'url': 'https://genius.com/artists/Anthony-kiedis'}, {'name': 'Chad Smith', 'url': 'https://genius.com/artists/Chad-smith'}, {'name': 'Dave Navarro', 'url': 'https://genius.com/artists/Dave-navarro'}, {'name': 'Flea', 'url': 'https://genius.com/artists/Flea'}], 'labels': [{'name': 'Megaforce Records', 'url': 'https://genius.com/artists/Megaforce-records'}, {'name': 'Nuclear Blast', 'url': 'https://genius.com/artists/Nuclear-blast'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/David-guetta/Nothing-but-the-beat', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Nothing but the Beat&lt;/em&gt; is the fifth studio album by French DJ and record producer David Guetta, which was first released as a &lt;a href="https://www.digitalspy.com/music/a329993/jessie-j-chris-brown-for-david-guettas-nothing-but-the-beat-album/" rel="noopener nofollow"&gt;double-album&lt;/a&gt; on August 16, 2011 via EMI. Since the release of the album, different editions were made available, such as &lt;em&gt;Nothing But the Beat Ultimate&lt;/em&gt;, &lt;em&gt;Nothing But the Beat (Deluxe Version)&lt;/em&gt;, which feature extra tracks not found on the &lt;a href="https://genius.com/albums/David-guetta/Nothing-but-the-beat" rel="noopener" data-api_path="/albums/12108"&gt;standard edition&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;From the standard edition, tracks “&lt;a href="https://genius.com/David-guetta-where-them-girls-at-lyrics" rel="noopener" data-api_path="/songs/6280"&gt;Where Them Girls At&lt;/a&gt;”, “&lt;a href="https://genius.com/David-guetta-without-you-lyrics" rel="noopener" data-api_path="/songs/110785"&gt;Without You&lt;/a&gt;”, “&lt;a href="https://genius.com/David-guetta-turn-me-on-lyrics" rel="noopener" data-api_path="/songs/54628"&gt;Turn Me On&lt;/a&gt;” and “&lt;a href="https://genius.com/David-guetta-titanium-lyrics" rel="noopener" data-api_path="/songs/64869"&gt;Titanium&lt;/a&gt;” were single releases, and attained success on the Billboard 100 chart.&lt;/p&gt;', 'producers': [{'name': 'Afrojack', 'url': 'https://genius.com/artists/Afrojack'}, {'name': 'Daddy’s Groove', 'url': 'https://genius.com/artists/Daddys-groove'}, {'name': 'David Guetta', 'url': 'https://genius.com/artists/David-guetta'}, {'name': 'Fabian Lenssen', 'url': 'https://genius.com/artists/Fabian-lenssen'}, {'name': 'Frédéric Riesterer', 'url': 'https://genius.com/artists/Frederic-riesterer'}, {'name': 'Giorgio Tuinfort', 'url': 'https://genius.com/artists/Giorgio-tuinfort'}, {'name': 'Mike Caren', 'url': 'https://genius.com/artists/Mike-caren'}, {'name': 'Sandy Vee', 'url': 'https://genius.com/artists/Sandy-vee'}, {'name': 'Silvio Ecomo', 'url': 'https://genius.com/artists/Silvio-ecomo'}], 'writers': [{'name': 'Afrojack', 'url': 'https://genius.com/artists/Afrojack'}, {'name': 'Akon', 'url': 'https://genius.com/artists/Akon'}, {'name': 'Ali Tennant', 'url': 'https://genius.com/artists/Ali-tennant'}, {'name': 'Amy Kaup', 'url': 'https://genius.com/artists/Amy-kaup'}, {'name': 'Anthony Preston', 'url': 'https://genius.com/artists/Anthony-preston'}, {'name': 'Campa', 'url': 'https://genius.com/artists/Campa'}, {'name': 'Cassio Ware', 'url': 'https://genius.com/artists/Cassio-ware'}, {'name': 'Cheri Williams', 'url': 'https://genius.com/artists/Cheri-williams'}, {'name': 'Chris Brown', 'url': 'https://genius.com/artists/Chris-brown'}, {'name': 'Crystal Nicole', 'url': 'https://genius.com/artists/Crystal-nicole'}, {'name': 'David Guetta', 'url': 'https://genius.com/artists/David-guetta'}, {'name': 'Derek Jenkins', 'url': 'https://genius.com/artists/Derek-jenkins'}, {'name': 'Dwayne Richardson', 'url': 'https://genius.com/artists/Dwayne-richardson'}, {'name': 'Ester Dean', 'url': 'https://genius.com/artists/Ester-dean'}, {'name': 'Flo Rida', 'url': 'https://genius.com/artists/Flo-rida'}, {'name': 'Frédéric Riesterer', 'url': 'https://genius.com/artists/Frederic-riesterer'}, {'name': 'Giorgio Tuinfort', 'url': 'https://genius.com/artists/Giorgio-tuinfort'}, {'name': 'The Invisible Men', 'url': 'https://genius.com/artists/The-invisible-men'}, {'name': 'Jacob Lustre ll', 'url': 'https://genius.com/artists/Jacob-lustre-ll'}, {'name': 'Jacob Luttrell', 'url': 'https://genius.com/artists/Jacob-luttrell'}, {'name': 'Jessica Sarangay', 'url': 'https://genius.com/artists/Jessica-sarangay'}, {'name': 'Jessie J', 'url': 'https://genius.com/artists/Jessie-j'}, {'name': 'Juan Salinas', 'url': 'https://genius.com/artists/Juan-salinas'}, {'name': 'KSHMR', 'url': 'https://genius.com/artists/Kshmr'}, {'name': 'Lil Wayne', 'url': 'https://genius.com/artists/Lil-wayne'}, {'name': 'Ludacris', 'url': 'https://genius.com/artists/Ludacris'}, {'name': 'Mike Caren', 'url': 'https://genius.com/artists/Mike-caren'}, {'name': 'Nasri', 'url': 'https://genius.com/artists/Nasri'}, {'name': 'Nicki Minaj', 'url': 'https://genius.com/artists/Nicki-minaj'}, {'name': 'Oscar Salinas', 'url': 'https://genius.com/artists/Oscar-salinas'}, {'name': 'Pierre-Luc Rioux', 'url': 'https://genius.com/artists/Pierre-luc-rioux'}, {'name': 'Play-N-Skillz', 'url': 'https://genius.com/artists/Play-n-skillz'}, {'name': 'Rico Love', 'url': 'https://genius.com/artists/Rico-love'}, {'name': 'Sandy Vee', 'url': 'https://genius.com/artists/Sandy-vee'}, {'name': 'Sia', 'url': 'https://genius.com/artists/Sia'}, {'name': 'Snoop Dogg', 'url': 'https://genius.com/artists/Snoop-dogg'}, {'name': 'Taio Cruz', 'url': 'https://genius.com/artists/Taio-cruz'}, {'name': 'Usher', 'url': 'https://genius.com/artists/Usher'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'labels': [{'name': 'What a Music', 'url': 'https://genius.com/artists/What-a-music'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Amy-winehouse/Back-to-black', 'annotations': {'description': '&lt;p&gt;With its &lt;a href="http://www.spin.com/2007/12/40-best-albums-2007/amy-winehouse-back-to-black/" rel="noopener nofollow"&gt;commercial success and accompanying controversies&lt;/a&gt;, Amy Winehouse’s second studio album (and final release before her &lt;a href="http://www.cnn.com/2011/SHOWBIZ/celebrity.news.gossip/07/23/amy.winehouse.dies/" rel="noopener nofollow"&gt;drug-related death in 2011&lt;/a&gt;) cemented her reputation as a beloved musical innovator and tragic pop icon.&lt;/p&gt;\n\n&lt;p&gt;Influenced sonically by girl groups from the Motown era, the lyrical content of the album was inspired by Winehouse’s torrid and intermingled relationships with both substance abuse and her on-again-off-again partner in excess and marriage, &lt;a href="http://www.rollingstone.com/music/news/the-diva-and-her-demons-rolling-stones-2007-amy-winehouse-cover-story-20070614?page=3" rel="noopener nofollow"&gt;Blake Fielder-Civil&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;According to Amy’s mother, Janis, Amy planned on using the content throughout &lt;em&gt;Back to Black&lt;/em&gt; as a way to heal, not only herself, but Blake, too. Janis elaborated on how she personally saw the album affect Amy during a December 2016 interview with &lt;a href="https://www.thesoberworld.com/2016/12/19/interview-janis-winehouse/" rel="noopener nofollow"&gt;&lt;em&gt;The Sober World&lt;/em&gt;&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The album is about their breakup. It’s like something bad bites back and that’s what he did unfortunately, hmmm…shame…She created a story about him. It really is a story, like &lt;a href="https://www.imdb.com/title/tt0091954/" rel="noopener nofollow"&gt;&lt;em&gt;Sid and Nancy&lt;/em&gt;&lt;/a&gt; all over again. Amy was like this hot, broken lover trying to help her poor addicted husband.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Despite its dark thematic content of loss, addiction, and hopelessness, the album garnered both critical and commercial acclaim, gaining &lt;a href="http://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=Amy+Winehouse&amp;amp;ti=Back+to+Black#search_section" rel="noopener nofollow"&gt;multi-platinum status&lt;/a&gt; and &lt;a href="http://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=Amy+Winehouse&amp;amp;ti=Back+to+Black#search_section" rel="noopener nofollow"&gt;winning a Grammy for Best Pop Vocal Artist.&lt;/a&gt; As of July 2016, the album is listed as the &lt;a href="https://www.officialcharts.com/chart-news/the-best-selling-albums-of-all-time-on-the-official-uk-chart__15551/" rel="noopener nofollow"&gt;13th highest selling album&lt;/a&gt; of all time in the United Kingdom.&lt;/p&gt;', 'producers': [{'name': 'John P*Nut Harrison', 'url': 'https://genius.com/artists/John-pnut-harrison'}, {'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}, {'name': 'Salaam Remi', 'url': 'https://genius.com/artists/Salaam-remi'}], 'writers': [{'name': 'Amy Winehouse', 'url': 'https://genius.com/artists/Amy-winehouse'}, {'name': 'John P*Nut Harrison', 'url': 'https://genius.com/artists/John-pnut-harrison'}, {'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}, {'name': 'Nickolas Ashford', 'url': 'https://genius.com/artists/Nickolas-ashford'}, {'name': 'Paul Staveley O’Duffy', 'url': 'https://genius.com/artists/Paul-staveley-oduffy'}, {'name': 'Richard Poindexter', 'url': 'https://genius.com/artists/Richard-poindexter'}, {'name': 'Robert Poindexter', 'url': 'https://genius.com/artists/Robert-poindexter'}, {'name': 'Valerie Simpson', 'url': 'https://genius.com/artists/Valerie-simpson'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Bon-jovi/Have-a-nice-day', 'annotations': {'description': '', 'producers': [{'name': 'Dann Huff', 'url': 'https://genius.com/artists/Dann-huff'}, {'name': 'John Shanks', 'url': 'https://genius.com/artists/John-shanks'}, {'name': 'Jon Bon Jovi', 'url': 'https://genius.com/artists/Jon-bon-jovi'}, {'name': 'Richie Sambora', 'url': 'https://genius.com/artists/Richie-sambora'}, {'name': 'Rick Parashar', 'url': 'https://genius.com/artists/Rick-parashar'}], 'writers': [{'name': 'Billy Falcon', 'url': 'https://genius.com/artists/Billy-falcon'}, {'name': 'David Bryan', 'url': 'https://genius.com/artists/David-bryan'}, {'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'John Shanks', 'url': 'https://genius.com/artists/John-shanks'}, {'name': 'Jon Bon Jovi', 'url': 'https://genius.com/artists/Jon-bon-jovi'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Richie Sambora', 'url': 'https://genius.com/artists/Richie-sambora'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Sublime/Sublime-deluxe-edition', 'annotations': {'description': '&lt;p&gt;This record is a tenth-aniversary rerelease of Sublime’s &lt;a href="https://genius.com/albums/Sublime/Sublime" rel="noopener" data-api_path="/albums/12579"&gt;self-titled 1996 album.&lt;/a&gt; The release is separated into two discs, with the second disc starting at &lt;a href="https://genius.com/Sublime-i-love-my-dog-lyrics" rel="noopener" data-api_path="/songs/554157"&gt;“I Love My Dog.”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Bradley Nowell', 'url': 'https://genius.com/artists/Bradley-nowell'}, {'name': 'David Kahne', 'url': 'https://genius.com/artists/David-kahne'}, {'name': 'Marshall Goodman', 'url': 'https://genius.com/artists/Marshall-goodman'}, {'name': 'Michael “Miguel” Happoldt', 'url': 'https://genius.com/artists/Michael-miguel-happoldt'}, {'name': 'Paul Leary', 'url': 'https://genius.com/artists/Paul-leary'}, {'name': 'Sublime', 'url': 'https://genius.com/artists/Sublime'}], 'writers': [{'name': 'Ad-Rock', 'url': 'https://genius.com/artists/Ad-rock'}, {'name': 'Barrington Levy', 'url': 'https://genius.com/artists/Barrington-levy'}, {'name': 'Bradley Nowell', 'url': 'https://genius.com/artists/Bradley-nowell'}, {'name': 'Bud Gaugh', 'url': 'https://genius.com/artists/Bud-gaugh'}, {'name': 'DuBose Heyward', 'url': 'https://genius.com/artists/Dubose-heyward'}, {'name': 'Eric Wilson', 'url': 'https://genius.com/artists/Eric-wilson'}, {'name': 'Floyd Gaugh', 'url': 'https://genius.com/artists/Floyd-gaugh'}, {'name': 'George Gershwin', 'url': 'https://genius.com/artists/George-gershwin'}, {'name': 'Half Pint', 'url': 'https://genius.com/artists/Half-pint'}, {'name': 'Ira Gershwin', 'url': 'https://genius.com/artists/Ira-gershwin'}, {'name': 'Kevin Roach', 'url': 'https://genius.com/artists/Kevin-roach'}, {'name': 'KRS-One', 'url': 'https://genius.com/artists/Krs-one'}, {'name': 'Linton Kwesi Johnson', 'url': 'https://genius.com/artists/Linton-kwesi-johnson'}, {'name': 'Lloyd McDonald', 'url': 'https://genius.com/artists/Lloyd-mcdonald'}, {'name': 'Marshall Goodman', 'url': 'https://genius.com/artists/Marshall-goodman'}, {'name': 'MCA', 'url': 'https://genius.com/artists/Mca'}, {'name': 'Michael “Miguel” Happoldt', 'url': 'https://genius.com/artists/Michael-miguel-happoldt'}, {'name': 'Mike Davis', 'url': 'https://genius.com/artists/Mike-davis'}, {'name': 'The Pharcyde', 'url': 'https://genius.com/artists/The-pharcyde'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}, {'name': 'Rick Selga', 'url': 'https://genius.com/artists/Rick-selga'}, {'name': 'Sublime', 'url': 'https://genius.com/artists/Sublime'}, {'name': 'Winston Matthews', 'url': 'https://genius.com/artists/Winston-matthews'}], 'labels': [{'name': 'MCA Records', 'url': 'https://genius.com/artists/Mca-records'}, {'name': 'Skunk Records', 'url': 'https://genius.com/artists/Skunk-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Panic-at-the-disco/Too-weird-to-live-too-rare-to-die', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://www.mtv.com/news/1710610/panic-at-the-disco-too-weird-to-live-rare-to-die/" rel="noopener nofollow"&gt;Named after a quote from the book “Fear and Loathing in Las Vegas”&lt;/a&gt;, &lt;em&gt;Too Weird to Live, Too Rare to Die!&lt;/em&gt; is the fourth studio album by American rock band Panic! at the Disco.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;TWTLTRTD&lt;/em&gt; is largely inspired by, and features thematic nods to Urie and Smith’s hometown, Las Vegas. Prior to this album, the band had expressed ambivalence toward their hometown; however, &lt;em&gt;TWTLTRTD&lt;/em&gt; displayed a shift in their mentality. Urie discusses this shift in an interview.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;From our first record we were pretty bitter towards Vegas… because we couldn’t play any shows. Every venue was 21 and older. We were 16 / 17; we couldn’t really do anything. That made us really mad, so we wanted to get out … and see the world to really get a new perspective and if you can really appreciate it… Having gone back in more recent years […] I have a fresh new point of view and a new appreciation for Vegas … I don’t carry that bitterness anymore and I wanted to celebrate it.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The album carries a darkly, romantic tone throughout, and Brendon Urie discusses the influence that brought this about an &lt;a href="https://www.youtube.com/watch?v=BJ_OZi_MtKc" rel="noopener nofollow"&gt;interview&lt;/a&gt; with Radio.com, expounding on how his new found happiness caused him to reflect on the darker aspects of his past.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I was just preparing to get married so I was… in a different place altogether with my now wife. […] I thought about how in retrospect I’ve never had this before. [I thought] what was different about that. I’d never talked about it. […] Being able to reach back and be kind of nostalgic in a way, but also reaching back in memories the way I remembered them, and trying to recall exactly what happened (and exaggerating in some points here and there), but for the most part … [I was] just talking about things I had gone through as opposed to how everything was so great now […] It was nice to get it off my chest.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;It is the first and only album to feature bassist Dallon Weekes as an official member and the last to feature drummer Spencer Smith.&lt;/p&gt;', 'producers': [{'name': 'Butch Walker', 'url': 'https://genius.com/artists/Butch-walker'}], 'writers': [{'name': 'Alex Goose', 'url': 'https://genius.com/artists/Alex-goose'}, {'name': 'Azeem', 'url': 'https://genius.com/artists/Azeem'}, {'name': 'Brendon Urie', 'url': 'https://genius.com/artists/Brendon-urie'}, {'name': 'Butch Walker', 'url': 'https://genius.com/artists/Butch-walker'}, {'name': 'Dallon Weekes', 'url': 'https://genius.com/artists/Dallon-weekes'}, {'name': 'Jake Sinclair', 'url': 'https://genius.com/artists/Jake-sinclair'}, {'name': 'Lauren Pritchard', 'url': 'https://genius.com/artists/Lauren-pritchard'}, {'name': 'Spencer Smith', 'url': 'https://genius.com/artists/Spencer-smith'}], 'labels': [{'name': 'DCD2', 'url': 'https://genius.com/artists/Dcd2'}, {'name': 'Fueled By Ramen', 'url': 'https://genius.com/artists/Fueled-by-ramen'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-cranberries/To-the-faithful-departed', 'annotations': {'description': '', 'producers': [{'name': 'Bruce Fairbairn', 'url': 'https://genius.com/artists/Bruce-fairbairn'}, {'name': 'The Cranberries', 'url': 'https://genius.com/artists/The-cranberries'}], 'writers': [{'name': 'Dolores O’Riordan', 'url': 'https://genius.com/artists/Dolores-oriordan'}, {'name': 'Noel Hogan', 'url': 'https://genius.com/artists/Noel-hogan'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Rem/Out-of-time', 'annotations': {'description': '&lt;p&gt;“Out of Time” is the seventh studio album from R.E.M. It won three Grammys including two for the single “Losing My Religion.”&lt;/p&gt;', 'producers': [{'name': 'R.E.M.', 'url': 'https://genius.com/artists/Rem'}, {'name': 'Scott Litt', 'url': 'https://genius.com/artists/Scott-litt'}], 'writers': [{'name': 'Bill Berry', 'url': 'https://genius.com/artists/Bill-berry'}, {'name': 'Michael Stipe', 'url': 'https://genius.com/artists/Michael-stipe'}, {'name': 'Mike Mills (R.E.M.)', 'url': 'https://genius.com/artists/Mike-mills-rem'}, {'name': 'Peter Buck', 'url': 'https://genius.com/artists/Peter-buck'}], 'labels': [{'name': 'Craft Recordings', 'url': 'https://genius.com/artists/Craft-recordings'}, {'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Steve-winwood/Chronicles', 'annotations': {'description': '', 'producers': [{'name': 'Chris Blackwell', 'url': 'https://genius.com/artists/Chris-blackwell'}, {'name': 'Russ Titelman', 'url': 'https://genius.com/artists/Russ-titelman'}, {'name': 'Steve Winwood', 'url': 'https://genius.com/artists/Steve-winwood'}, {'name': 'Tom Lord‐Alge', 'url': 'https://genius.com/artists/Tom-lordalge'}], 'writers': [{'name': 'Richard Thompson', 'url': 'https://genius.com/artists/Richard-thompson'}, {'name': 'Steve Winwood', 'url': 'https://genius.com/artists/Steve-winwood'}, {'name': 'Vivian Stanshall', 'url': 'https://genius.com/artists/Vivian-stanshall'}, {'name': 'Will Jennings', 'url': 'https://genius.com/artists/Will-jennings'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Men-at-work/Contraband-the-best-of-men-at-work', 'annotations': {'description': '', 'producers': [{'name': 'Colin Hay', 'url': 'https://genius.com/artists/Colin-hay'}, {'name': 'Greg Ham', 'url': 'https://genius.com/artists/Greg-ham'}, {'name': 'Peter McIan', 'url': 'https://genius.com/artists/Peter-mcian'}], 'writers': [{'name': 'Colin Hay', 'url': 'https://genius.com/artists/Colin-hay'}, {'name': 'Greg Ham', 'url': 'https://genius.com/artists/Greg-ham'}, {'name': 'Jerry Speiser', 'url': 'https://genius.com/artists/Jerry-speiser'}, {'name': 'Ron Strykert', 'url': 'https://genius.com/artists/Ron-strykert'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Ohio-players/Honey', 'annotations': {'description': '', 'producers': [{'name': 'Ohio Players', 'url': 'https://genius.com/artists/Ohio-players'}], 'writers': [{'name': 'Billy Beck', 'url': 'https://genius.com/artists/Billy-beck'}, {'name': 'Clarence “Satch” Satchell', 'url': 'https://genius.com/artists/Clarence-satch-satchell'}, {'name': 'James Roger Williams', 'url': 'https://genius.com/artists/James-roger-williams'}, {'name': 'Marshall “Rock” Jones', 'url': 'https://genius.com/artists/Marshall-rock-jones'}, {'name': 'Marvin Pierce', 'url': 'https://genius.com/artists/Marvin-pierce'}, {'name': 'Ralph Middlebrooks', 'url': 'https://genius.com/artists/Ralph-middlebrooks'}, {'name': 'Sugarfoot', 'url': 'https://genius.com/artists/Sugarfoot'}], 'labels': [{'name': 'Mercury Records', 'url': 'https://genius.com/artists/Mercury-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Swedish-house-mafia/Don-t-you-worry-child-ep', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Don’t You Worry Child – EP&lt;/em&gt; was &lt;a href="https://itunes.apple.com/us/album/dont-you-worry-child-feat-john-martin-ep/716018055" rel="noopener nofollow"&gt;officially released&lt;/a&gt; on October 5th, 2012, via EMI Records. The tracklisting features the original version of the song, an extended mix, an acoustic version, and a &lt;a href="https://genius.com/artists/Zedd" rel="noopener" data-api_path="/artists/24215"&gt;Zedd&lt;/a&gt; remix of Swedish House Mafia’s song &lt;a href="https://genius.com/Swedish-house-mafia-save-the-world-lyrics" rel="noopener" data-api_path="/songs/110846"&gt;&lt;em&gt;Save The World&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Axwell', 'url': 'https://genius.com/artists/Axwell'}, {'name': 'John Martin', 'url': 'https://genius.com/artists/John-martin'}, {'name': 'Michel Zitron', 'url': 'https://genius.com/artists/Michel-zitron'}, {'name': 'Sebastian Ingrosso', 'url': 'https://genius.com/artists/Sebastian-ingrosso'}, {'name': 'Steve Angello', 'url': 'https://genius.com/artists/Steve-angello'}, {'name': 'Swedish House Mafia', 'url': 'https://genius.com/artists/Swedish-house-mafia'}, {'name': 'Zedd', 'url': 'https://genius.com/artists/Zedd'}], 'writers': [{'name': 'Axwell', 'url': 'https://genius.com/artists/Axwell'}, {'name': 'John Martin', 'url': 'https://genius.com/artists/John-martin'}, {'name': 'Michel Zitron', 'url': 'https://genius.com/artists/Michel-zitron'}, {'name': 'Sebastian Ingrosso', 'url': 'https://genius.com/artists/Sebastian-ingrosso'}, {'name': 'Steve Angello', 'url': 'https://genius.com/artists/Steve-angello'}, {'name': 'VCATION', 'url': 'https://genius.com/artists/Vcation'}, {'name': 'Vincent Pontare', 'url': 'https://genius.com/artists/Vincent-pontare'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-chainsmokers/Selfie-remixes', 'annotations': {'description': '', 'producers': [{'name': 'Botnek', 'url': 'https://genius.com/artists/Botnek'}, {'name': 'Caked Up', 'url': 'https://genius.com/artists/Caked-up'}, {'name': 'Will Sparks', 'url': 'https://genius.com/artists/Will-sparks'}], 'writers': [{'name': 'Alex Pall', 'url': 'https://genius.com/artists/Alex-pall'}, {'name': 'Andrew Taggart', 'url': 'https://genius.com/artists/Andrew-taggart'}], 'labels': [{'name': 'Dim Mak Records', 'url': 'https://genius.com/artists/Dim-mak-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Metallica/Reload', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Reload&lt;/em&gt; is Metallica’s seventh studio album, released on November 18th, 1997. Originally planned to be released alongside &lt;a href="https://genius.com/albums/Metallica/Load" rel="noopener" data-api_path="/albums/41512"&gt;&lt;em&gt;Load&lt;/em&gt;&lt;/a&gt; as part of a &lt;a href="https://en.wikipedia.org/wiki/Double_album" rel="noopener nofollow"&gt;double album,&lt;/a&gt; &lt;em&gt;ReLoad&lt;/em&gt; was released one year later. &lt;em&gt;ReLoad&lt;/em&gt; was the final album that bassist Jason Newsted appeared on. The album was also produced by Bob Rock, who produced &lt;em&gt;Load&lt;/em&gt; and &lt;a href="https://genius.com/albums/Metallica/Metallica" rel="noopener" data-api_path="/albums/10852"&gt;&lt;em&gt;Metallica&lt;/em&gt;&lt;/a&gt; prior.&lt;/p&gt;\n\n&lt;p&gt;Following their touring cycle in support of &lt;em&gt;Load&lt;/em&gt; in 1996, Metallica returned to the studio to finish &lt;em&gt;Reload&lt;/em&gt;, and many of the songs on the album were already written and in various stages of production. Regarding the approach to recording &lt;em&gt;Reload&lt;/em&gt;, &lt;a href="http://loudwire.com/metallica-reload-anniversary/" rel="noopener nofollow"&gt;James Hetfield said:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The good news was we still liked them, and we wanted to put them out. It’s important to point out that those songs weren’t the rejects from the first session and I think because of the extra time we had to put into them there’s a little more extremeness to them, which I like.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;em&gt;Reload&lt;/em&gt; debuted at #1 on the Billboard 200, and as of 2009, &lt;a href="http://www.blabbermouth.net/news/metallica-s-black-lp-is-top-selling-album-of-soundscan-era/" rel="noopener nofollow"&gt;it has sold more than four million copies&lt;/a&gt; in the United States. The album garnered mixed reviews from fans and critics alike; &lt;a href="https://www.allmusic.com/album/reload-mw0000029057" rel="noopener nofollow"&gt;AllMusic gave the album 3/5 stars,&lt;/a&gt; while fans of the band were disappointed that &lt;em&gt;ReLoad&lt;/em&gt; was yet another departure from the band’s thrash metal roots.&lt;/p&gt;\n\n&lt;p&gt;Musically, the album continued the southern rock inspired metal from &lt;em&gt;Load&lt;/em&gt;, but featured more experimental sounds. &lt;a href="https://genius.com/Metallica-low-mans-lyric-lyrics" rel="noopener" data-api_path="/songs/307365"&gt;“Low Man’s Lyric”&lt;/a&gt; featured a &lt;a href="https://en.wikipedia.org/wiki/Hurdy-gurdy" rel="noopener nofollow"&gt;hurdy gurdy&lt;/a&gt; passage, and &lt;a href="https://genius.com/Metallica-the-memory-remains-lyrics" rel="noopener" data-api_path="/songs/307244"&gt;“The Memory Remains”&lt;/a&gt; featured guest vocals from &lt;a href="https://genius.com/artists/Marianne-faithfull" rel="noopener" data-api_path="/artists/184051"&gt;Marianne Faithfull&lt;/a&gt;. Most songs were written in E-flat tuning, while &lt;a href="https://genius.com/Metallica-bad-seed-lyrics" rel="noopener" data-api_path="/songs/307281"&gt;“Bad Seed”&lt;/a&gt; had D-flat tuning and &lt;a href="https://genius.com/Metallica-devils-dance-lyrics" rel="noopener" data-api_path="/songs/307248"&gt;“Devil’s Dance”&lt;/a&gt; was tuned in D.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Reload&lt;/em&gt; spawned one of Metallica’s most well-known songs, &lt;a href="https://genius.com/Metallica-fuel-lyrics" rel="noopener" data-api_path="/songs/307228"&gt;“Fuel”&lt;/a&gt;, and five other songs from the album &lt;a href="https://www.setlist.fm/stats/metallica-3bd680c8.html" rel="noopener nofollow"&gt;have been played live:&lt;/a&gt; “The Memory Remains”, “Devil’s Dance”, &lt;a href="https://genius.com/Metallica-the-unforgiven-ii-lyrics" rel="noopener" data-api_path="/songs/196942"&gt;“The Unforgiven II”&lt;/a&gt;, &lt;a href="https://genius.com/Metallica-carpe-diem-baby-lyrics" rel="noopener" data-api_path="/songs/307262"&gt;“Carpe Diem Baby”&lt;/a&gt;, and “Low Man’s Lyric”.&lt;/p&gt;', 'producers': [{'name': 'Bob Rock', 'url': 'https://genius.com/artists/Bob-rock'}, {'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}, {'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}], 'writers': [{'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}, {'name': 'Jason Newsted', 'url': 'https://genius.com/artists/Jason-newsted'}, {'name': 'Kirk Hammett', 'url': 'https://genius.com/artists/Kirk-hammett'}, {'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Bananarama/Bananarama', 'annotations': {'description': '&lt;p&gt;Bananarama is the eponymous self-titled second album by the British girl group Bananarama.&lt;/p&gt;\n\n&lt;p&gt;The album was well known for the hit Cruel Summer which peaked on the Billboard Hot 100 at #9.&lt;/p&gt;\n\n&lt;p&gt;Other singles include “Robert DeNiro’s Waiting…, Hot Line to Heaven, and Rough Justice.&lt;/p&gt;', 'producers': [{'name': 'Steve Jolley', 'url': 'https://genius.com/artists/Steve-jolley'}, {'name': 'Tony Swain', 'url': 'https://genius.com/artists/Tony-swain'}], 'writers': [{'name': 'Cindy Ecstasy', 'url': 'https://genius.com/artists/Cindy-ecstasy'}, {'name': 'John Sandosa', 'url': 'https://genius.com/artists/John-sandosa'}, {'name': 'Keren Woodward', 'url': 'https://genius.com/artists/Keren-woodward'}, {'name': 'Rick Holliday', 'url': 'https://genius.com/artists/Rick-holliday'}, {'name': 'Sara Dallin', 'url': 'https://genius.com/artists/Sara-dallin'}, {'name': 'Siobhan Fahey', 'url': 'https://genius.com/artists/Siobhan-fahey'}, {'name': 'Steve Jolley', 'url': 'https://genius.com/artists/Steve-jolley'}, {'name': 'Tony Swain', 'url': 'https://genius.com/artists/Tony-swain'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Depeche-mode/Dmbx2-singles-7-12', 'annotations': {'description': '', 'producers': [{'name': 'Daniel Miller', 'url': 'https://genius.com/artists/Daniel-miller'}, {'name': 'Depeche Mode', 'url': 'https://genius.com/artists/Depeche-mode'}, {'name': 'Gareth Jones', 'url': 'https://genius.com/artists/Gareth-jones'}], 'writers': [{'name': 'Alan Wilder', 'url': 'https://genius.com/artists/Alan-wilder'}, {'name': 'Martin L. Gore', 'url': 'https://genius.com/artists/Martin-l-gore'}], 'labels': [{'name': '****duplicate delete', 'url': 'https://genius.com/artists/Duplicate-delete'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Blondie/Eat-to-the-beat', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://s3.amazonaws.com/filepicker-images-rapgenius/4VXnwsLQZal4wZ60LaA0_Eat%20To%20The%20Beat%20%282001%20Remaster%29.jpg" alt=""&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Eat To The Beat&lt;/em&gt; is the fourth studio album by Blondie. It was released in 1979, following on from their best selling album &lt;em&gt;Parallel Lines&lt;/em&gt;. &lt;em&gt;Eat To The Beat&lt;/em&gt; was the band’s second album produced by Mike Chapman.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Eat To The Beat&lt;/em&gt; is also one of the first albums to also be released as a video album: in 1980 the video album was released on Betamax and VHS formats, in 1982 on LaserDisc, and in 2007 it was remastered and reissued on DVD along with a CD of the album.&lt;/p&gt;', 'producers': [{'name': 'Mike Chapman', 'url': 'https://genius.com/artists/Mike-chapman'}], 'writers': [{'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}, {'name': 'Brian Holland', 'url': 'https://genius.com/artists/Brian-holland'}, {'name': 'Chris Stein', 'url': 'https://genius.com/artists/Chris-stein'}, {'name': 'David Bowie', 'url': 'https://genius.com/artists/David-bowie'}, {'name': 'Debbie Harry', 'url': 'https://genius.com/artists/Debbie-harry'}, {'name': 'Eddie Holland', 'url': 'https://genius.com/artists/Eddie-holland'}, {'name': 'Frank Infante', 'url': 'https://genius.com/artists/Frank-infante'}, {'name': 'Jimmy Destri', 'url': 'https://genius.com/artists/Jimmy-destri'}, {'name': 'June Carter Cash', 'url': 'https://genius.com/artists/June-carter-cash'}, {'name': 'Lamont Dozier', 'url': 'https://genius.com/artists/Lamont-dozier'}, {'name': 'Laura Davis', 'url': 'https://genius.com/artists/Laura-davis'}, {'name': 'Merle Kilgore', 'url': 'https://genius.com/artists/Merle-kilgore'}, {'name': 'Nigel Harrison', 'url': 'https://genius.com/artists/Nigel-harrison'}], 'labels': [{'name': 'Chrysalis Records', 'url': 'https://genius.com/artists/Chrysalis-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Crash-test-dummies/God-shuffled-his-feet', 'annotations': {'description': '', 'producers': [{'name': 'Crash Test Dummies', 'url': 'https://genius.com/artists/Crash-test-dummies'}, {'name': 'Jerry Harrison', 'url': 'https://genius.com/artists/Jerry-harrison'}], 'writers': [{'name': 'Brad Roberts', 'url': 'https://genius.com/artists/Brad-roberts'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Duran-duran/Notorious', 'annotations': {'description': '&lt;p&gt;Notorious was released by Duran Duran on November 18, 1986. It is their fourth studio album and peaked at #12 in the United States.&lt;/p&gt;', 'producers': [{'name': 'Duran Duran', 'url': 'https://genius.com/artists/Duran-duran'}, {'name': 'Nile Rodgers', 'url': 'https://genius.com/artists/Nile-rodgers'}], 'writers': [{'name': 'John Taylor', 'url': 'https://genius.com/artists/John-taylor'}, {'name': 'Nick Rhodes', 'url': 'https://genius.com/artists/Nick-rhodes'}, {'name': 'Simon Le Bon', 'url': 'https://genius.com/artists/Simon-le-bon'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Olivia-rodrigo/Sour', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;SOUR&lt;/em&gt; is the debut studio album by Olivia Rodrigo, released through &lt;a href="https://genius.com/artists/Geffen-records" rel="noopener" data-api_path="/artists/32167"&gt;Geffen Records&lt;/a&gt; and &lt;a href="https://genius.com/artists/Interscope-records" rel="noopener" data-api_path="/artists/143490"&gt;Interscope Records&lt;/a&gt;. Initially &lt;a href="https://i-d.vice.com/en_uk/article/pkdmz8/olivia-rodrigo-interview-about-drivers-license-taylor-swift-and-disney-hsmtmts" rel="noopener nofollow"&gt;envisioned&lt;/a&gt; as an EP, &lt;em&gt;SOUR&lt;/em&gt; was later expanded to a full-length album due to the breakout success of her debut single, &lt;a href="https://genius.com/Olivia-rodrigo-drivers-license-lyrics" rel="noopener" data-api_path="/songs/5795230"&gt;“drivers license,”&lt;/a&gt; released on January 8, 2021.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://variety.com/2021/music/news/olivia-rodrigo-new-single-deja-vu-1234942090/" rel="noopener nofollow"&gt;announcement&lt;/a&gt; of the album on April 1, 2021 also coincided with the release of her second single, &lt;a href="https://genius.com/Olivia-rodrigo-deja-vu-lyrics" rel="noopener" data-api_path="/songs/6649389"&gt;“deja vu.”&lt;/a&gt; On April 13, 2021, Olivia revealed the album’s title, cover art, and tracklist through an &lt;a href="https://www.instagram.com/p/CNnSB-7L80g/" rel="noopener nofollow"&gt;Instagram post.&lt;/a&gt; The third single, &lt;a href="https://genius.com/Olivia-rodrigo-good-4-u-lyrics" rel="noopener" data-api_path="/songs/6702232"&gt;“good 4 u,”&lt;/a&gt; was released on May 14, 2021, a week before the album’s full release.&lt;/p&gt;', 'producers': [{'name': 'Alexander 23', 'url': 'https://genius.com/artists/Alexander-23'}, {'name': 'Dan Nigro', 'url': 'https://genius.com/artists/Dan-nigro'}, {'name': 'Jam City', 'url': 'https://genius.com/artists/Jam-city'}, {'name': 'Olivia Rodrigo', 'url': 'https://genius.com/artists/Olivia-rodrigo'}], 'writers': [{'name': 'Casey Smith', 'url': 'https://genius.com/artists/Casey-smith'}, {'name': 'Dan Nigro', 'url': 'https://genius.com/artists/Dan-nigro'}, {'name': 'Hayley Williams', 'url': 'https://genius.com/artists/Hayley-williams'}, {'name': 'Jack Antonoff', 'url': 'https://genius.com/artists/Jack-antonoff'}, {'name': 'Josh Farro', 'url': 'https://genius.com/artists/Josh-farro'}, {'name': 'Olivia Rodrigo', 'url': 'https://genius.com/artists/Olivia-rodrigo'}, {'name': 'St. Vincent', 'url': 'https://genius.com/artists/St-vincent'}, {'name': 'Taylor Swift', 'url': 'https://genius.com/artists/Taylor-swift'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Alice-in-chains/Facelift', 'annotations': {'description': '', 'producers': [{'name': 'Dave Jerden', 'url': 'https://genius.com/artists/Dave-jerden'}], 'writers': [{'name': 'Jerry Cantrell', 'url': 'https://genius.com/artists/Jerry-cantrell'}, {'name': 'Layne Staley', 'url': 'https://genius.com/artists/Layne-staley'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Styx/Cornerstone', 'annotations': {'description': '', 'producers': [{'name': 'Chuck Panozzo', 'url': 'https://genius.com/artists/Chuck-panozzo'}, {'name': 'Dennis DeYoung', 'url': 'https://genius.com/artists/Dennis-deyoung'}, {'name': 'James Young', 'url': 'https://genius.com/artists/James-young'}, {'name': 'John Panozzo', 'url': 'https://genius.com/artists/John-panozzo'}, {'name': 'Tommy Shaw', 'url': 'https://genius.com/artists/Tommy-shaw'}], 'writers': [{'name': 'Dennis DeYoung', 'url': 'https://genius.com/artists/Dennis-deyoung'}, {'name': 'James Young', 'url': 'https://genius.com/artists/James-young'}, {'name': 'Tommy Shaw', 'url': 'https://genius.com/artists/Tommy-shaw'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-temper-trap/Conditions', 'annotations': {'description': '&lt;p&gt;Conditions is the debut album of the Australian rock band The Temper Trap. It was released June 19, 2009.&lt;/p&gt;', 'producers': [{'name': 'Jim Abbiss', 'url': 'https://genius.com/artists/Jim-abbiss'}, {'name': 'Scott Horscroft', 'url': 'https://genius.com/artists/Scott-horscroft'}], 'writers': [{'name': 'Dougy Mandagi', 'url': 'https://genius.com/artists/Dougy-mandagi'}, {'name': 'Lorenzo Sillitto', 'url': 'https://genius.com/artists/Lorenzo-sillitto'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-police/Reggatta-de-blanc', 'annotations': {'description': '&lt;p&gt;The second album from &lt;a href="https://genius.com/artists/The-police" rel="noopener" data-api_path="/artists/16735"&gt;The Police&lt;/a&gt;, &lt;em&gt;Reggatta de Blanc&lt;/em&gt; loosely translates to “white reggae,” even though there is no French word for “reggae.” Released in 1979, the album is filled with a set of songs that were mostly written in the studio. The previous album, &lt;a href="http://rock.genius.com/albums/The-police/Outlandos-d-amour" rel="noopener" data-api_path="/albums/30048"&gt;&lt;em&gt;Outlandos d\'Amour&lt;/em&gt;&lt;/a&gt;, exhausted the songs that were written before the formation of The Police, so they now were forced to write songs as a group. The result is a consistent, focused, and rocking album that is still considered one of the band’s finest moments.&lt;/p&gt;', 'producers': [{'name': 'Nigel Gray', 'url': 'https://genius.com/artists/Nigel-gray'}, {'name': 'The Police', 'url': 'https://genius.com/artists/The-police'}], 'writers': [{'name': 'Andy Summers', 'url': 'https://genius.com/artists/Andy-summers'}, {'name': 'Stewart Copeland', 'url': 'https://genius.com/artists/Stewart-copeland'}, {'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Audioslave/Audioslave', 'annotations': {'description': '&lt;p&gt;Certified &lt;a href="https://en.wikipedia.org/wiki/RIAA_certification" rel="noopener nofollow"&gt;3x Platinum&lt;/a&gt; by the &lt;a href="https://en.wikipedia.org/wiki/Recording_Industry_Association_of_America" rel="noopener nofollow"&gt;RIAA&lt;/a&gt;, &lt;em&gt;Audioslave&lt;/em&gt; is the debut studio album of the namesake band. Featuring the singles &lt;a href="https://genius.com/Audioslave-cochise-lyrics" rel="noopener" data-api_path="/songs/432832"&gt;“Cochise,”&lt;/a&gt; &lt;a href="https://genius.com/Audioslave-like-a-stone-lyrics" rel="noopener" data-api_path="/songs/121557"&gt;“Like a Stone,”&lt;/a&gt; &lt;a href="https://genius.com/Audioslave-show-me-how-to-live-lyrics" rel="noopener" data-api_path="/songs/198681"&gt;“Show Me How To Live,”&lt;/a&gt; &lt;a href="https://genius.com/Audioslave-i-am-the-highway-lyrics" rel="noopener" data-api_path="/songs/327574"&gt;“I am the Highway,”&lt;/a&gt; &lt;a href="https://genius.com/Audioslave-what-you-are-lyrics" rel="noopener" data-api_path="/songs/460799"&gt;“What You Are,”&lt;/a&gt; and &lt;a href="https://genius.com/Audioslave-gasoline-lyrics" rel="noopener" data-api_path="/songs/460791"&gt;“Gasoline.”&lt;/a&gt; The album was even nominated for the &lt;a href="https://en.wikipedia.org/wiki/Grammy_Award_for_Best_Hard_Rock_Performance" rel="noopener nofollow"&gt;Best Hard Rock Performance&lt;/a&gt; &lt;a href="https://en.wikipedia.org/wiki/46th_Grammy_Awards" rel="noopener nofollow"&gt;2004&lt;/a&gt; &lt;a href="https://en.wikipedia.org/wiki/Grammy_Award" rel="noopener nofollow"&gt;Grammy Award&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Much to the dismay of guitarist &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt;, the album was leaked to some file-sharing networks on May 16, 2002, months before the release of the album. Tom said that the songs were not in their finished form and that in some cases “they weren’t even the same lyrics, guitar solos, performances of any kind.” For an album which sold 162,000 copies in its first week, this truly was a disappointment.&lt;/p&gt;', 'producers': [{'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Brad Wilk', 'url': 'https://genius.com/artists/Brad-wilk'}, {'name': 'Chris Cornell', 'url': 'https://genius.com/artists/Chris-cornell'}, {'name': 'Tim Commerford', 'url': 'https://genius.com/artists/Tim-commerford'}, {'name': 'Tom Morello', 'url': 'https://genius.com/artists/Tom-morello'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Iggy-pop/Lust-for-life', 'annotations': {'description': '', 'producers': [{'name': 'The Bewley Brothers', 'url': 'https://genius.com/artists/The-bewley-brothers'}, {'name': 'David Bowie', 'url': 'https://genius.com/artists/David-bowie'}, {'name': 'Iggy Pop', 'url': 'https://genius.com/artists/Iggy-pop'}, {'name': 'Mike Thorne', 'url': 'https://genius.com/artists/Mike-thorne'}], 'writers': [{'name': 'David Bowie', 'url': 'https://genius.com/artists/David-bowie'}, {'name': 'Hunt Sales', 'url': 'https://genius.com/artists/Hunt-sales'}, {'name': 'Iggy Pop', 'url': 'https://genius.com/artists/Iggy-pop'}, {'name': 'Ricky Gardiner', 'url': 'https://genius.com/artists/Ricky-gardiner'}, {'name': 'Tony Sales', 'url': 'https://genius.com/artists/Tony-sales'}, {'name': 'Walter Lacey', 'url': 'https://genius.com/artists/Walter-lacey'}, {'name': 'Warren Peace', 'url': 'https://genius.com/artists/Warren-peace'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Michael-jackson/Number-ones', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Number Ones&lt;/em&gt; is Michael Jackson’s 2003 greatest hits compilation album, his first under Epic Records (owned and operated by Sony Entertainent). It featured all of Michael’s chart-topping songs throughout his career at that point  (“Thriller” and “Smooth Criminal” only went #1 outside America) in addition to the bonus track “Break of Dawn” from his preceding studio album, &lt;a href="https://images.genius.com/a0f0f8bb47b0955f4e7678b61f8f38ab.300x300x1.jpg" rel="noopener"&gt;&lt;em&gt;Invincible&lt;/em&gt;&lt;/a&gt; and the exclusive, &lt;a href="https://genius.com/artists/R-Kelly" rel="noopener" data-api_path="/artists/535"&gt;R. Kelly&lt;/a&gt;-written “One More Chance”, which would be the last new material officially released during The King of Pop’s life. Unlike other compilations, the songs were compiled in their single or radio fashions:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;“Don’t Stop ‘Til You Get Enough” (7" Edit)&lt;/li&gt;\n&lt;li&gt;“Thriller” (New 2003 edit)&lt;/li&gt;\n&lt;li&gt;“Black or White” (Single Edit)&lt;/li&gt;\n&lt;li&gt;“You Are Not Alone” (Radio Edit)&lt;/li&gt;\n&lt;li&gt;“Earth Song” (Radio Edit)&lt;/li&gt;\n&lt;li&gt;“You Rock My World” (Radio Edit)&lt;/li&gt;\n&lt;li&gt;“Man in the Mirror” (Single Edit)&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;p&gt;&lt;em&gt;Number Ones&lt;/em&gt; the album was released on November 17, 2003 on CD, and &lt;a href="https://en.wikipedia.org/wiki/Number_Ones_%28video%29" rel="noopener nofollow"&gt;the video compilation DVD&lt;/a&gt; the following day. The American editions unexplainably omits “Human Nature”, and instead a 1981 live rendition of “Ben” is included as Track 18. International versions also included “Blood on the Dance Floor”, but &lt;a href="https://genius.com/Michael-jackson-man-in-the-mirror-lyrics" rel="noopener" data-api_path="/songs/1777"&gt;“Man in the Mirror”&lt;/a&gt; replaces it in the Western Hemisphere.&lt;/p&gt;', 'producers': [{'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'David Foster', 'url': 'https://genius.com/artists/David-foster'}, {'name': 'Dr. Freeze', 'url': 'https://genius.com/artists/Dr-freeze'}, {'name': 'The Jacksons', 'url': 'https://genius.com/artists/The-jacksons'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Quincy Jones', 'url': 'https://genius.com/artists/Quincy-jones'}, {'name': 'R. Kelly', 'url': 'https://genius.com/artists/R-kelly'}, {'name': 'Rodney Jerkins', 'url': 'https://genius.com/artists/Rodney-jerkins'}, {'name': 'Teddy Riley', 'url': 'https://genius.com/artists/Teddy-riley'}], 'writers': [{'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Don Black', 'url': 'https://genius.com/artists/Don-black'}, {'name': 'Dr. Freeze', 'url': 'https://genius.com/artists/Dr-freeze'}, {'name': 'Fred Jerkins III', 'url': 'https://genius.com/artists/Fred-jerkins-iii'}, {'name': 'Glen Ballard', 'url': 'https://genius.com/artists/Glen-ballard'}, {'name': 'Greg Phillinganes', 'url': 'https://genius.com/artists/Greg-phillinganes'}, {'name': 'John Bettis', 'url': 'https://genius.com/artists/John-bettis'}, {'name': 'LaShawn Daniels', 'url': 'https://genius.com/artists/Lashawn-daniels'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Nora Payne', 'url': 'https://genius.com/artists/Nora-payne'}, {'name': 'R. Kelly', 'url': 'https://genius.com/artists/R-kelly'}, {'name': 'Rodney Jerkins', 'url': 'https://genius.com/artists/Rodney-jerkins'}, {'name': 'Rod Temperton', 'url': 'https://genius.com/artists/Rod-temperton'}, {'name': 'Siedah Garrett', 'url': 'https://genius.com/artists/Siedah-garrett'}, {'name': 'Steve Porcaro', 'url': 'https://genius.com/artists/Steve-porcaro'}, {'name': 'Teddy Riley', 'url': 'https://genius.com/artists/Teddy-riley'}, {'name': 'Walter Scharf', 'url': 'https://genius.com/artists/Walter-scharf'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'MJJ Productions', 'url': 'https://genius.com/artists/Mjj-productions'}, {'name': 'Sony Music Entertainment', 'url': 'https://genius.com/artists/Sony-music-entertainment'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Michael-jackson/Bad', 'annotations': {'description': '&lt;p&gt;Bad is the seventh studio album by &lt;a href="https://genius.com/artists/Michael-jackson" rel="noopener" data-api_path="/artists/835"&gt;Michael Jackson&lt;/a&gt;. It was released on August 31, 1987 by Epic Records, nearly five years after Jackson’s previous studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/Michael-jackson/Thriller" rel="noopener" data-api_path="/albums/11769"&gt;Thriller&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;As of 2012, &lt;em&gt;Bad&lt;/em&gt; has sold between 30 to 45 million copies worldwide, was certified 9 times Platinum in the United States alone, and has been cited as one of the 30 best-selling albums of all time.&lt;/p&gt;\n\n&lt;p&gt;The album produced a record five &lt;em&gt;Billboard Hot 100&lt;/em&gt; #1 singles, the first and one of only two albums to do so; the second one is &lt;a href="https://genius.com/artists/Katy-perry" rel="noopener" data-api_path="/artists/1195"&gt;Katy Perry&lt;/a&gt;’s 2010 album &lt;em&gt;&lt;a href="https://genius.com/albums/Katy-perry/Teenage-dream" rel="noopener" data-api_path="/albums/6088"&gt;Teenage Dream&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Quincy Jones', 'url': 'https://genius.com/artists/Quincy-jones'}], 'writers': [{'name': 'Glen Ballard', 'url': 'https://genius.com/artists/Glen-ballard'}, {'name': 'Graham Lyle', 'url': 'https://genius.com/artists/Graham-lyle'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Siedah Garrett', 'url': 'https://genius.com/artists/Siedah-garrett'}, {'name': 'Terry Britten', 'url': 'https://genius.com/artists/Terry-britten'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-killers/Hot-fuss', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://en.wikipedia.org/wiki/Hot_Fuss" rel="noopener nofollow"&gt;&lt;em&gt;Hot Fuss&lt;/em&gt;&lt;/a&gt; is the debut effort from American alt-rock group &lt;a href="https://genius.com/artists/The-killers" rel="noopener" data-api_path="/artists/599"&gt;The Killers&lt;/a&gt;. A ‘&lt;a href="https://genius.com/Oasis-morning-glory-lyrics" rel="noopener" data-api_path="/songs/131322"&gt;Morning Glory&lt;/a&gt;’-esque helicopter intro gives way to funky &lt;a href="https://genius.com/artists/Duran-duran" rel="noopener" data-api_path="/artists/22720"&gt;Duran Duran&lt;/a&gt; basslines and obvious &lt;a href="https://genius.com/artists/New-order" rel="noopener" data-api_path="/artists/37694"&gt;New Order&lt;/a&gt; influences, ultimately combining to create one of the best albums of 2004.&lt;/p&gt;\n\n&lt;p&gt;Notable in the collection are two parts of the ‘Murder Trilogy’ – &lt;a href="https://genius.com/The-killers-midnight-show-lyrics" rel="noopener" data-api_path="/songs/1164"&gt;“Midnight Show”&lt;/a&gt; and &lt;a href="https://genius.com/The-killers-jenny-was-a-friend-of-mine-lyrics" rel="noopener" data-api_path="/songs/1163"&gt;“Jenny Was A Friend Of Mine”&lt;/a&gt;. As the trilogy title suggests, both songs concern murder and deception. The first track in the trilogy, &lt;a href="https://genius.com/The-killers-leave-the-bourbon-on-the-shelf-lyrics" rel="noopener" data-api_path="/songs/1165"&gt;“Leave The Bourbon On The Shelf”&lt;/a&gt;, appears on the 2007 b-side complication &lt;a href="https://genius.com/albums/The-killers/Sawdust" rel="noopener" data-api_path="/albums/43205"&gt;&lt;em&gt;Sawdust&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Hot Fuss&lt;/em&gt; spawned four successful singles: &lt;a href="https://genius.com/The-killers-mr-brightside-lyrics" rel="noopener" data-api_path="/songs/5139"&gt;“Mr Brightside”&lt;/a&gt;, &lt;a href="https://genius.com/The-killers-somebody-told-me-lyrics" rel="noopener" data-api_path="/songs/88230"&gt;“Somebody Told Me”&lt;/a&gt;, &lt;a href="https://genius.com/The-killers-all-these-things-that-ive-done-lyrics" rel="noopener" data-api_path="/songs/85039"&gt;“All These Things That I’ve Done”&lt;/a&gt; and &lt;a href="https://genius.com/The-killers-smile-like-you-mean-it-lyrics" rel="noopener" data-api_path="/songs/94101"&gt;“Smile Like You Mean It”&lt;/a&gt;. The second of these, “Somebody Told Me”, was nominated for a Grammy.&lt;/p&gt;\n\n&lt;p&gt;Despite achieving only &lt;a href="http://www.metacritic.com/music/hot-fuss/the-killers" rel="noopener nofollow"&gt;general critical success&lt;/a&gt; on release, &lt;em&gt;Hot Fuss&lt;/em&gt; has &lt;a href="http://www.gigwise.com/news/79179/the-killers-hot-fuss-named-best-debut-album-ever" rel="noopener nofollow"&gt;been&lt;/a&gt; &lt;a href="http://www.rollingstone.com/music/lists/the-100-greatest-debut-albums-of-all-time-20130322/hot-fuss-19691231" rel="noopener nofollow"&gt;called&lt;/a&gt; one of the greatest debut albums of all time.&lt;/p&gt;', 'producers': [{'name': 'Brandon Flowers', 'url': 'https://genius.com/artists/Brandon-flowers'}, {'name': 'Jeff Saltzman', 'url': 'https://genius.com/artists/Jeff-saltzman'}, {'name': 'The Killers', 'url': 'https://genius.com/artists/The-killers'}], 'writers': [{'name': 'Brandon Flowers', 'url': 'https://genius.com/artists/Brandon-flowers'}, {'name': 'Dave Keuning', 'url': 'https://genius.com/artists/Dave-keuning'}, {'name': 'Mark Stoermer', 'url': 'https://genius.com/artists/Mark-stoermer'}, {'name': 'Ronnie Vannucci Jr.', 'url': 'https://genius.com/artists/Ronnie-vannucci-jr'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}, {'name': 'Lizard King Records', 'url': 'https://genius.com/artists/Lizard-king-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Rihanna/Loud', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Loud&lt;/em&gt; is the fifth studio album by Barbadian recording artist Rihanna, released on November 12, 2010. The album was recorded between February and August 2010, during the singer’s “Last Girl on Earth Tour” and the filming of her first feature film, &lt;em&gt;Battleship&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Loud&lt;/em&gt; features up-tempo and pop genres, ranging from R&amp;amp;B and rock to dance-pop, electro, and reggae. It also marks her return to dancehall; a genre prominent on Rihanna’s first two albums.&lt;/p&gt;', 'producers': [{'name': 'Alex da Kid', 'url': 'https://genius.com/artists/Alex-da-kid'}, {'name': 'The Ambassadorz [Darnell Dalton x Lamar Taylor]', 'url': 'https://genius.com/artists/The-ambassadorz-darnell-dalton-x-lamar-taylor'}, {'name': 'Ester Dean', 'url': 'https://genius.com/artists/Ester-dean'}, {'name': 'Kuk Harrell', 'url': 'https://genius.com/artists/Kuk-harrell'}, {'name': 'Mel &amp; Mus', 'url': 'https://genius.com/artists/Mel-and-mus'}, {'name': 'Polow da Don', 'url': 'https://genius.com/artists/Polow-da-don'}, {'name': 'The Runners', 'url': 'https://genius.com/artists/The-runners'}, {'name': 'SAK PASE', 'url': 'https://genius.com/artists/Sak-pase'}, {'name': 'Sandy Vee', 'url': 'https://genius.com/artists/Sandy-vee'}, {'name': 'Soundz', 'url': 'https://genius.com/artists/Soundz'}, {'name': 'StarGate', 'url': 'https://genius.com/artists/Stargate'}, {'name': 'Tricky Stewart', 'url': 'https://genius.com/artists/Tricky-stewart'}, {'name': 'Willy Will (Producer)', 'url': 'https://genius.com/artists/Willy-will-producer'}], 'writers': [{'name': 'Alex Delicata', 'url': 'https://genius.com/artists/Alex-delicata'}, {'name': 'Alex Gazaway', 'url': 'https://genius.com/artists/Alex-gazaway'}, {'name': 'Alex da Kid', 'url': 'https://genius.com/artists/Alex-da-kid'}, {'name': 'Andrew Harr', 'url': 'https://genius.com/artists/Andrew-harr'}, {'name': 'Avril Lavigne', 'url': 'https://genius.com/artists/Avril-lavigne'}, {'name': 'Chris Ivery', 'url': 'https://genius.com/artists/Chris-ivery'}, {'name': 'Corey Gibson', 'url': 'https://genius.com/artists/Corey-gibson'}, {'name': 'Crystal Nicole', 'url': 'https://genius.com/artists/Crystal-nicole'}, {'name': 'Drake', 'url': 'https://genius.com/artists/Drake'}, {'name': 'Eminem', 'url': 'https://genius.com/artists/Eminem'}, {'name': 'Ester Dean', 'url': 'https://genius.com/artists/Ester-dean'}, {'name': 'Graham Edwards', 'url': 'https://genius.com/artists/Graham-edwards'}, {'name': 'Lauren Christy', 'url': 'https://genius.com/artists/Lauren-christy'}, {'name': 'LP', 'url': 'https://genius.com/artists/Lp'}, {'name': 'Mayne Zane', 'url': 'https://genius.com/artists/Mayne-zane'}, {'name': 'Melvin Hough', 'url': 'https://genius.com/artists/Melvin-hough'}, {'name': 'Nicki Minaj', 'url': 'https://genius.com/artists/Nicki-minaj'}, {'name': 'Priscilla Renea', 'url': 'https://genius.com/artists/Priscilla-renea'}, {'name': 'Q. Amey', 'url': 'https://genius.com/artists/Q-amey'}, {'name': 'R. City', 'url': 'https://genius.com/artists/R-city'}, {'name': 'Rivelino', 'url': 'https://genius.com/artists/Rivelino'}, {'name': 'SAK PASE', 'url': 'https://genius.com/artists/Sak-pase'}, {'name': 'Sandy Vee', 'url': 'https://genius.com/artists/Sandy-vee'}, {'name': 'Scott Spock', 'url': 'https://genius.com/artists/Scott-spock'}, {'name': 'Shontelle', 'url': 'https://genius.com/artists/Shontelle'}, {'name': 'Skylar Grey', 'url': 'https://genius.com/artists/Skylar-grey'}, {'name': 'Soundz', 'url': 'https://genius.com/artists/Soundz'}, {'name': 'Stacy Barthe', 'url': 'https://genius.com/artists/Stacy-barthe'}, {'name': 'StarGate', 'url': 'https://genius.com/artists/Stargate'}, {'name': 'Theron Thomas', 'url': 'https://genius.com/artists/Theron-thomas'}, {'name': 'Timothy Thomas', 'url': 'https://genius.com/artists/Timothy-thomas'}, {'name': 'Traci Hale', 'url': 'https://genius.com/artists/Traci-hale'}, {'name': 'Tricky Stewart', 'url': 'https://genius.com/artists/Tricky-stewart'}, {'name': 'Ursula Yancy', 'url': 'https://genius.com/artists/Ursula-yancy'}, {'name': 'William Hodge Jr', 'url': 'https://genius.com/artists/William-hodge-jr'}], 'labels': [{'name': 'Def Jam Recordings', 'url': 'https://genius.com/artists/Def-jam-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Calvin-harris/Funk-wav-bounces-vol-1', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Funk Wav Bounces Vol. 1&lt;/em&gt; is the fifth studio album by Scottish DJ &lt;a href="https://genius.com/artists/Calvin-harris" rel="noopener" data-api_path="/artists/2069"&gt;Calvin Harris&lt;/a&gt;. The album contains collaborations from today’s hot artists, such as &lt;a href="https://genius.com/Calvin-harris-rollin-lyrics" rel="noopener" data-api_path="/songs/3081091"&gt;Khalid&lt;/a&gt;, &lt;a href="https://genius.com/Calvin-harris-slide-lyrics" rel="noopener" data-api_path="/songs/2997826"&gt;Migos&lt;/a&gt;, &lt;a href="https://genius.com/artists/Nicki-minaj" rel="noopener" data-api_path="/artists/92"&gt;Nicki Minaj&lt;/a&gt;, &lt;a href="https://genius.com/Calvin-harris-feels-lyrics" rel="noopener" data-api_path="/songs/3120234"&gt;Katy Perry&lt;/a&gt;, and many others. It was released on June 30, 2017.&lt;/p&gt;\n\n&lt;p&gt;A “WAV bounce” refers to the process of exporting/creating a lossless audio file. Artists need to do this when they submit songs to retailers.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;blockquote class="twitter-tweet"&gt;&lt;a href="https://twitter.com/calvinharris/status/861988911203012608"&gt;&lt;/a&gt;&lt;/blockquote&gt;\n&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}, {'name': 'Nick Cooper', 'url': 'https://genius.com/artists/Nick-cooper'}, {'name': 'Pharrell Williams', 'url': 'https://genius.com/artists/Pharrell-williams'}], 'writers': [{'name': 'Big Sean', 'url': 'https://genius.com/artists/Big-sean'}, {'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}, {'name': 'Frank Ocean', 'url': 'https://genius.com/artists/Frank-ocean'}, {'name': 'Future', 'url': 'https://genius.com/artists/Future'}, {'name': 'Jessie Reyez', 'url': 'https://genius.com/artists/Jessie-reyez'}, {'name': 'John Legend', 'url': 'https://genius.com/artists/John-legend'}, {'name': 'Katy Perry', 'url': 'https://genius.com/artists/Katy-perry'}, {'name': 'Khalid', 'url': 'https://genius.com/artists/Khalid'}, {'name': 'Lil Yachty', 'url': 'https://genius.com/artists/Lil-yachty'}, {'name': 'Nicki Minaj', 'url': 'https://genius.com/artists/Nicki-minaj'}, {'name': 'Offset', 'url': 'https://genius.com/artists/Offset'}, {'name': 'Pharrell Williams', 'url': 'https://genius.com/artists/Pharrell-williams'}, {'name': 'Quavo', 'url': 'https://genius.com/artists/Quavo'}, {'name': 'Rogét Chahayed', 'url': 'https://genius.com/artists/Roget-chahayed'}, {'name': 'ScHoolboy Q', 'url': 'https://genius.com/artists/Schoolboy-q'}, {'name': 'Shelley FKA DRAM', 'url': 'https://genius.com/artists/Shelley-fka-dram'}, {'name': 'Snoop Dogg', 'url': 'https://genius.com/artists/Snoop-dogg'}, {'name': 'Starrah', 'url': 'https://genius.com/artists/Starrah'}, {'name': 'Takeoff', 'url': 'https://genius.com/artists/Takeoff'}, {'name': 'Travis Scott', 'url': 'https://genius.com/artists/Travis-scott'}, {'name': 'Young Thug', 'url': 'https://genius.com/artists/Young-thug'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Blink-182/Greatest-hits', 'annotations': {'description': '&lt;p&gt;Greatest Hits is the first greatest hits album of Blink-182, released October 31, 2005. The album features the band’s most successful singles from their albums “Cheshire Cat” (1995) to “Blink-182” (2003).&lt;/p&gt;\n\n&lt;p&gt;“Not Now”, which was recorded during the “Blink-182” sessions, was released on the compilation album as its lead single, making its first appearance. The band’s cover of “Another Girl, Another Planet” by The Only Ones appears on the album as well.&lt;/p&gt;', 'producers': [{'name': '\u200b\u200bblink-182', 'url': 'https://genius.com/artists/Blink-182'}, {'name': 'Jerry Finn', 'url': 'https://genius.com/artists/Jerry-finn'}, {'name': 'Mark Hoppus', 'url': 'https://genius.com/artists/Mark-hoppus'}, {'name': 'Mark Trombino', 'url': 'https://genius.com/artists/Mark-trombino'}, {'name': 'Otis “O” Barthoulameu', 'url': 'https://genius.com/artists/Otis-o-barthoulameu'}, {'name': 'Tom DeLonge', 'url': 'https://genius.com/artists/Tom-delonge'}, {'name': 'Travis Barker', 'url': 'https://genius.com/artists/Travis-barker'}], 'writers': [{'name': 'Mark Hoppus', 'url': 'https://genius.com/artists/Mark-hoppus'}, {'name': 'Peter Perrett', 'url': 'https://genius.com/artists/Peter-perrett'}, {'name': 'Scott Raynor', 'url': 'https://genius.com/artists/Scott-raynor'}, {'name': 'Tom DeLonge', 'url': 'https://genius.com/artists/Tom-delonge'}, {'name': 'Travis Barker', 'url': 'https://genius.com/artists/Travis-barker'}], 'labels': [{'name': 'Cargo Music', 'url': 'https://genius.com/artists/Cargo-music'}, {'name': 'Grilled Cheese', 'url': 'https://genius.com/artists/Grilled-cheese'}, {'name': 'MCA Records', 'url': 'https://genius.com/artists/Mca-records'}, {'name': 'MCA (Rom)', 'url': 'https://genius.com/artists/Mca-rom'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Wheatus/Wheatus', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Wheatus&lt;/em&gt; is the self-titled debut album of the band Wheatus, released mid-2000. Including the hit &lt;em&gt;Teenage Dirtbag&lt;/em&gt; which reached no. 2 on the UK charts, &lt;em&gt;Wheatus&lt;/em&gt; is possibly the band’s most popular album ever released.&lt;/p&gt;', 'producers': [{'name': 'Brendan B. Brown', 'url': 'https://genius.com/artists/Brendan-b-brown'}, {'name': 'Philip A. Jimenez', 'url': 'https://genius.com/artists/Philip-a-jimenez'}, {'name': 'Wheatus', 'url': 'https://genius.com/artists/Wheatus'}], 'writers': [{'name': 'Andy Bell', 'url': 'https://genius.com/artists/Andy-bell'}, {'name': 'Brendan B. Brown', 'url': 'https://genius.com/artists/Brendan-b-brown'}, {'name': 'David Thoener', 'url': 'https://genius.com/artists/David-thoener'}, {'name': 'Rich Liegey', 'url': 'https://genius.com/artists/Rich-liegey'}, {'name': 'Vince Clarke', 'url': 'https://genius.com/artists/Vince-clarke'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Linkin-park/Recharged', 'annotations': {'description': '&lt;p&gt;Recharged, stylized as RECHARGED, is the second remix album of recordings by American rock band Linkin Park. The album, which includes remixes of songs from the band’s fifth studio album, &lt;a href="https://genius.com/albums/linkin-park-living-things" rel="noopener"&gt;Living Things&lt;/a&gt; (2012), released on October 29, 2013 through &lt;a href="http://wiki.lpassociation.com/index.php?title=Warner_Bros." rel="noopener nofollow"&gt;Warner Bros&lt;/a&gt; and &lt;a href="http://wiki.lpassociation.com/index.php?title=Machine_Shop" rel="noopener nofollow"&gt;Machine Shop.&lt;/a&gt; The album was released on vinyl  December 10, 2013.&lt;/p&gt;\n\n&lt;p&gt;“Recharged was officially announced on the band’s Facebook page on September 12, 2013, the same day that their new game, LP Recharge, was released. The band revealed that the album is a remix album, featuring reinterpretations of the songs from Living Things. The band also announced that there will be a limited-edition version of the album, available exclusively from their website. It features an interactive 3D sculpture based on the Living Things album artwork, a 48-page art booklet, both Living Things and Recharged albums, and a magnetic stylus that can interact with the liquid solution in the 3D sculpture to create unique patterns and designs will be included. Pre-orders began on September 16.&lt;br&gt;\nIn regards to the new song "A Light That Never Comes” and the album, Mike Shinoda, the co-vocalist of Linkin Park, said:&lt;br&gt;\n“I think this song and release show where we’re at right now. Making the song with Steve, premiering it through the Recharge Facebook game, and debuting it via Microsoft’s Xbox Music—I think it’s all indicative of our band’s commitment to experimentation and pushing boundaries.”&lt;br&gt;\nOn September 13, Shinoda made another post on the band’s Facebook page revealing the track list and talking about the album:&lt;br&gt;\n“After Reanimation I told many people I would never put together another album of remixes…but as I began to hear all the amazing reinterpretations of LIVING THINGS, I had to change my mind. The result, RECHARGED, is definitely worth it. I can’t wait for you guys to hear this amazing project, with contributions by Pusha T., DATSIK, KillSonik, Bun B, Money Mark, and others. Our new song with Steve Aoki, A LIGHT THAT NEVER COMES is on the album as well, plus a special remix of the new song by the inimitable Rick Rubin.”&lt;br&gt;\nIn that same post, Shinoda revealed that pre-orders from the band’s website will receive an exclusive digital download of Paul van Dyk’s remix of “Burn It Down”.&lt;/p&gt;', 'producers': [{'name': 'Brad Delson', 'url': 'https://genius.com/artists/Brad-delson'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}, {'name': 'Steve Aoki', 'url': 'https://genius.com/artists/Steve-aoki'}], 'writers': [{'name': 'Chester Bennington', 'url': 'https://genius.com/artists/Chester-bennington'}, {'name': 'Cody B. Ware', 'url': 'https://genius.com/artists/Cody-b-ware'}, {'name': 'Linkin Park', 'url': 'https://genius.com/artists/Linkin-park'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Pusha T', 'url': 'https://genius.com/artists/Pusha-t'}, {'name': 'Ryu', 'url': 'https://genius.com/artists/Ryu'}, {'name': 'Steve Aoki', 'url': 'https://genius.com/artists/Steve-aoki'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Backstreet-boys/The-essential-backstreet-boys', 'annotations': {'description': '', 'producers': [{'name': 'BeatGeek', 'url': 'https://genius.com/artists/Beatgeek'}, {'name': 'Bülent Aris', 'url': 'https://genius.com/artists/Bulent-aris'}, {'name': 'Dan Muckala', 'url': 'https://genius.com/artists/Dan-muckala'}, {'name': 'Denniz PoP', 'url': 'https://genius.com/artists/Denniz-pop'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}, {'name': 'Emanuel Kiriakou', 'url': 'https://genius.com/artists/Emanuel-kiriakou'}, {'name': 'Franciz &amp; LePont', 'url': 'https://genius.com/artists/Franciz-and-lepont'}, {'name': 'Gregg Wattenberg', 'url': 'https://genius.com/artists/Gregg-wattenberg'}, {'name': 'John Fields', 'url': 'https://genius.com/artists/John-fields'}, {'name': 'John Shanks', 'url': 'https://genius.com/artists/John-shanks'}, {'name': 'Kristian Lundin', 'url': 'https://genius.com/artists/Kristian-lundin'}, {'name': 'Larry “Rock” Campbell', 'url': 'https://genius.com/artists/Larry-rock-campbell'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'P.M. Dawn', 'url': 'https://genius.com/artists/Pm-dawn'}, {'name': 'Rami', 'url': 'https://genius.com/artists/Rami'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Shellback', 'url': 'https://genius.com/artists/Shellback'}, {'name': 'Soulshock &amp; Karlin', 'url': 'https://genius.com/artists/Soulshock-and-karlin'}, {'name': 'Timmy Allen', 'url': 'https://genius.com/artists/Timmy-allen'}, {'name': 'Toni Cottura', 'url': 'https://genius.com/artists/Toni-cottura'}, {'name': 'Veit Renn', 'url': 'https://genius.com/artists/Veit-renn'}], 'writers': [{'name': 'Adam Anders', 'url': 'https://genius.com/artists/Adam-anders'}, {'name': 'Aimee Mayo', 'url': 'https://genius.com/artists/Aimee-mayo'}, {'name': 'A.J. Jannusi', 'url': 'https://genius.com/artists/Aj-jannusi'}, {'name': 'A.J. McLean', 'url': 'https://genius.com/artists/Aj-mclean'}, {'name': 'Albert Manno', 'url': 'https://genius.com/artists/Albert-manno'}, {'name': 'Andreas Carlsson', 'url': 'https://genius.com/artists/Andreas-carlsson'}, {'name': 'Attrell Stephen Cordes', 'url': 'https://genius.com/artists/Attrell-stephen-cordes'}, {'name': 'BeatGeek', 'url': 'https://genius.com/artists/Beatgeek'}, {'name': 'Bilal “The Chef” Hajji', 'url': 'https://genius.com/artists/Bilal-the-chef-hajji'}, {'name': 'Blair Daly', 'url': 'https://genius.com/artists/Blair-daly'}, {'name': 'Bülent Aris', 'url': 'https://genius.com/artists/Bulent-aris'}, {'name': 'Brett James', 'url': 'https://genius.com/artists/Brett-james'}, {'name': 'Brian Littrell', 'url': 'https://genius.com/artists/Brian-littrell'}, {'name': 'Chris Farren (Producer)', 'url': 'https://genius.com/artists/Chris-farren-producer'}, {'name': 'Chris Lindsey', 'url': 'https://genius.com/artists/Chris-lindsey'}, {'name': 'Claude Kelly', 'url': 'https://genius.com/artists/Claude-kelly'}, {'name': 'Dan Muckala', 'url': 'https://genius.com/artists/Dan-muckala'}, {'name': 'Denniz PoP', 'url': 'https://genius.com/artists/Denniz-pop'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}, {'name': 'Emanuel Kiriakou', 'url': 'https://genius.com/artists/Emanuel-kiriakou'}, {'name': 'Eugene Wilde', 'url': 'https://genius.com/artists/Eugene-wilde'}, {'name': 'Five for Fighting', 'url': 'https://genius.com/artists/Five-for-fighting'}, {'name': 'Franciz &amp; LePont', 'url': 'https://genius.com/artists/Franciz-and-lepont'}, {'name': 'Full Force', 'url': 'https://genius.com/artists/Full-force'}, {'name': 'Gary Baker', 'url': 'https://genius.com/artists/Gary-baker'}, {'name': 'Herbie Crichlow', 'url': 'https://genius.com/artists/Herbie-crichlow'}, {'name': 'Howie D', 'url': 'https://genius.com/artists/Howie-d'}, {'name': 'James Bedford', 'url': 'https://genius.com/artists/James-bedford'}, {'name': 'Jess Cates', 'url': 'https://genius.com/artists/Jess-cates'}, {'name': 'Kinnda', 'url': 'https://genius.com/artists/Kinnda'}, {'name': 'Kristian Lundin', 'url': 'https://genius.com/artists/Kristian-lundin'}, {'name': 'Linda Thompson', 'url': 'https://genius.com/artists/Linda-thompson'}, {'name': 'Lindy Robbins', 'url': 'https://genius.com/artists/Lindy-robbins'}, {'name': 'Lisa Miskovsky', 'url': 'https://genius.com/artists/Lisa-miskovsky'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Nick Carter', 'url': 'https://genius.com/artists/Nick-carter'}, {'name': 'Rami', 'url': 'https://genius.com/artists/Rami'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Roy Ayers', 'url': 'https://genius.com/artists/Roy-ayers'}, {'name': 'Shellback', 'url': 'https://genius.com/artists/Shellback'}, {'name': 'Shelly Peiken', 'url': 'https://genius.com/artists/Shelly-peiken'}, {'name': 'Soulshock &amp; Karlin', 'url': 'https://genius.com/artists/Soulshock-and-karlin'}, {'name': 'Sylvia Bedford Striplin', 'url': 'https://genius.com/artists/Sylvia-bedford-striplin'}, {'name': 'Tiffany Amber', 'url': 'https://genius.com/artists/Tiffany-amber'}, {'name': 'Toni Cottura', 'url': 'https://genius.com/artists/Toni-cottura'}, {'name': 'Troy Verges', 'url': 'https://genius.com/artists/Troy-verges'}, {'name': 'Wally Gagel', 'url': 'https://genius.com/artists/Wally-gagel'}, {'name': 'Wayne Perry', 'url': 'https://genius.com/artists/Wayne-perry'}, {'name': 'Xander Barry', 'url': 'https://genius.com/artists/Xander-barry'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Lou-bega/A-little-bit-of-mambo', 'annotations': {'description': '', 'producers': [{'name': 'D. Fact', 'url': 'https://genius.com/artists/D-fact'}, {'name': 'Donald Fact', 'url': 'https://genius.com/artists/Donald-fact'}, {'name': 'Frank Lio', 'url': 'https://genius.com/artists/Frank-lio'}, {'name': 'Goar B', 'url': 'https://genius.com/artists/Goar-b'}], 'writers': [{'name': 'D. Fact', 'url': 'https://genius.com/artists/D-fact'}, {'name': 'Donald Fact', 'url': 'https://genius.com/artists/Donald-fact'}, {'name': 'Frank Lio', 'url': 'https://genius.com/artists/Frank-lio'}, {'name': 'Lou Bega', 'url': 'https://genius.com/artists/Lou-bega'}, {'name': 'Pérez Prado', 'url': 'https://genius.com/artists/Perez-prado'}, {'name': 'Zippy Davids', 'url': 'https://genius.com/artists/Zippy-davids'}], 'labels': [{'name': 'BMG', 'url': 'https://genius.com/artists/Bmg'}, {'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Queens-of-the-stone-age/Villains', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Villains&lt;/em&gt; is the seventh album from Queens of the Stone Age, released August 25, 2017 via Matador Records.&lt;/p&gt;\n\n&lt;p&gt;Frontman &lt;a href="https://genius.com/artists/Josh-homme" rel="noopener" data-api_path="/artists/71988"&gt;Josh Homme&lt;/a&gt; talked about the meaning behind the title, &lt;em&gt;Villains&lt;/em&gt;, &lt;a href="http://daily.plaympe.com/queens-of-the-stone-age-the-way-you-used-to-do/" rel="noopener nofollow"&gt;in a press release&lt;/a&gt; stating that it had nothing to do with our current political situation.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The title &lt;em&gt;Villains&lt;/em&gt; isn’t a political statement. It has nothing to do with Trump or any of that shit. It’s simply 1) a word that looks fantastic and 2) a comment on the three versions of every scenario: yours, mine and what actually happened… Everyone needs someone or something to rail against—their villain—same as it ever was. You can’t control that. The only thing you can really control is when you let go.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Speaking with the &lt;em&gt;&lt;a href="https://www.nytimes.com/2017/08/16/arts/music/josh-homme-queens-stone-age-villains.html" rel="noopener nofollow"&gt;New York Times&lt;/a&gt;&lt;/em&gt; in August 2017, Josh had this to say about the band’s sound:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;This is our seventh record, and we’re lucky enough — forget lucky, we’ve worked hard enough to have our own sound. But I worry about being too static, that it becomes a parody of itself. So I just was, like, we need to burn the effigies of things we would normally do, and to hang on to the idea of who we are but redefine our sound for modern days. For this record, it was like, man, we should risk our own reputations. We should take our old sound and screw it over.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In an August 2017 interview with &lt;em&gt;&lt;a href="http://diymag.com/2017/08/16/queens-of-the-stone-age-new-video-the-way-you-used-to-do-watch" rel="noopener nofollow"&gt;DIY Magazine&lt;/a&gt;&lt;/em&gt;, Josh spoke about the music video for &lt;em&gt;&lt;a href="https://genius.com/Queens-of-the-stone-age-the-way-you-used-to-do-lyrics" rel="noopener" data-api_path="/songs/3122975"&gt;The Way You Used To Do&lt;/a&gt;&lt;/em&gt; as well as the new direction the band’s music is taking.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I fully realize that may be a little more than some are open to, and that’s perfectly fine with me. There’s the door. If some of the more close-minded are gently pruned, that just leaves more room on the dance floor for the open-minded ones to get loose. That’s been the spirit of Queens Of The Stone Age and the space we’ve worked to create from day one."&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}], 'writers': [{'name': 'Dean Fertita', 'url': 'https://genius.com/artists/Dean-fertita'}, {'name': 'Josh Homme', 'url': 'https://genius.com/artists/Josh-homme'}, {'name': 'Michael Shuman', 'url': 'https://genius.com/artists/Michael-shuman'}, {'name': 'Troy Van Leeuwen', 'url': 'https://genius.com/artists/Troy-van-leeuwen'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Dua-lipa/Future-nostalgia', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Future Nostalgia&lt;/em&gt; is &lt;a href="https://genius.com/artists/Dua-lipa" rel="noopener" data-api_path="/artists/555561"&gt;Dua Lipa’s&lt;/a&gt; second studio album, released on March 27, 2020 via &lt;a href="https://genius.com/artists/Warner-records" rel="noopener" data-api_path="/artists/1865634"&gt;Warner Records&lt;/a&gt; (Universal Music in Germany, Austria and Switzerland). The project is the follow-up to her highly successful &lt;a href="https://genius.com/albums/Dua-lipa/Dua-lipa-deluxe" rel="noopener" data-api_path="/albums/513697"&gt;self-titled debut album&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Lipa &lt;a href="https://www.msn.com/en-us/lifestyle/lifestyle-buzz/dua-lipa-my-new-album-feels-like-dancercise-class/vp-AADU5ku" rel="noopener nofollow"&gt;described&lt;/a&gt; the record as “disco-orientated,” “nostalgic” and “[feeling] like a dancercise class.” She further detailed the inspiration for the album in a &lt;a href="https://mcd.ie/artists/dua-lipa/" rel="noopener nofollow"&gt;press release&lt;/a&gt; for its associated tour:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;What I wanted to do with this album was to break out of my comfort zone and challenge myself to make music that felt like it could sit alongside some of my favourite classic pop songs, whilst still feeling fresh and uniquely mine. I was inspired by so many artists on the new record from Gwen Stefani to Madonna to Moloko to Blondie and Outkast, to name just a few. Because of the time that I’d spent on the road touring with my band I wanted ‘Future Nostalgia’ to have a lot more of a live element, but mixed together with modern electronic production. My sound has naturally matured a bit as I’ve grown up but I wanted to keep the same pop sensibility as I had on the first record. I remember that I was on my way to a radio show in Las Vegas thinking about the direction for this new record and I realised that what I wanted to make was something that felt nostalgic but had something fresh and futuristic about it too.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The disco-inspired lead single, &lt;a href="https://genius.com/Dua-lipa-dont-start-now-lyrics" rel="noopener" data-api_path="/songs/4547279"&gt;“Don’t Start Now,”&lt;/a&gt; was released on October 31, 2019. The title track followed as a promotional single on December 13. &lt;a href="https://genius.com/Dua-lipa-physical-lyrics" rel="noopener" data-api_path="/songs/5153374"&gt;“Physical”&lt;/a&gt; was released as the second single on January 30.  &lt;a href="https://genius.com/Dua-lipa-break-my-heart-lyrics" rel="noopener" data-api_path="/songs/5122410"&gt;“Break My Heart”&lt;/a&gt; was released on March 25, two days before the release of the album. &lt;em&gt;Future Nostalgia&lt;/em&gt; received universal acclaim and a near-perfect score of &lt;a href="https://www.metacritic.com/music/future-nostalgia/dua-lipa" rel="noopener nofollow"&gt;88 on Metacritic&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Ariza', 'url': 'https://genius.com/artists/Ariza'}, {'name': 'Drew Jurecka', 'url': 'https://genius.com/artists/Drew-jurecka'}, {'name': 'Gian Stone', 'url': 'https://genius.com/artists/Gian-stone'}, {'name': 'Ian Kirkpatrick', 'url': 'https://genius.com/artists/Ian-kirkpatrick'}, {'name': 'Jason Evigan', 'url': 'https://genius.com/artists/Jason-evigan'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'KOZ', 'url': 'https://genius.com/artists/Koz'}, {'name': 'Lauren D’Elia', 'url': 'https://genius.com/artists/Lauren-delia'}, {'name': 'Lorna Blackwood', 'url': 'https://genius.com/artists/Lorna-blackwood'}, {'name': 'Michel “Lindgren” Schulz', 'url': 'https://genius.com/artists/Michel-lindgren-schulz'}, {'name': 'The Monsters &amp; Strangerz', 'url': 'https://genius.com/artists/The-monsters-and-strangerz'}, {'name': 'Rupert Christie', 'url': 'https://genius.com/artists/Rupert-christie'}, {'name': 'SG Lewis', 'url': 'https://genius.com/artists/Sg-lewis'}, {'name': 'Skylar Mones', 'url': 'https://genius.com/artists/Skylar-mones'}, {'name': 'Stuart Price', 'url': 'https://genius.com/artists/Stuart-price'}, {'name': 'Take a Daytrip', 'url': 'https://genius.com/artists/Take-a-daytrip'}, {'name': 'TMS', 'url': 'https://genius.com/artists/Tms'}, {'name': '\u200bwatt', 'url': 'https://genius.com/artists/Watt'}], 'writers': [{'name': 'Ali Tamposi', 'url': 'https://genius.com/artists/Ali-tamposi'}, {'name': 'Andrew Farriss', 'url': 'https://genius.com/artists/Andrew-farriss'}, {'name': 'Ben Kohn', 'url': 'https://genius.com/artists/Ben-kohn'}, {'name': 'Bing Crosby', 'url': 'https://genius.com/artists/Bing-crosby'}, {'name': 'Caroline Ailin', 'url': 'https://genius.com/artists/Caroline-ailin'}, {'name': 'Chelcee Grimes', 'url': 'https://genius.com/artists/Chelcee-grimes'}, {'name': 'Clarence Coffee Jr.', 'url': 'https://genius.com/artists/Clarence-coffee-jr'}, {'name': 'David Biral', 'url': 'https://genius.com/artists/David-biral'}, {'name': 'Denzel Baptiste', 'url': 'https://genius.com/artists/Denzel-baptiste'}, {'name': 'Dua Lipa', 'url': 'https://genius.com/artists/Dua-lipa'}, {'name': 'Emily Warren', 'url': 'https://genius.com/artists/Emily-warren'}, {'name': 'Frances', 'url': 'https://genius.com/artists/Frances'}, {'name': 'Ian Kirkpatrick', 'url': 'https://genius.com/artists/Ian-kirkpatrick'}, {'name': 'Irving Wallman', 'url': 'https://genius.com/artists/Irving-wallman'}, {'name': 'Jason Evigan', 'url': 'https://genius.com/artists/Jason-evigan'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Jordan K. Johnson', 'url': 'https://genius.com/artists/Jordan-k-johnson'}, {'name': 'Julia Michaels', 'url': 'https://genius.com/artists/Julia-michaels'}, {'name': 'Justin Tranter', 'url': 'https://genius.com/artists/Justin-tranter'}, {'name': 'KAMILLE', 'url': 'https://genius.com/artists/Kamille'}, {'name': 'Kennedi', 'url': 'https://genius.com/artists/Kennedi'}, {'name': 'KOZ', 'url': 'https://genius.com/artists/Koz'}, {'name': 'Max Wartell', 'url': 'https://genius.com/artists/Max-wartell'}, {'name': 'Melanie Joy Fontana', 'url': 'https://genius.com/artists/Melanie-joy-fontana'}, {'name': 'Michael Hutchence', 'url': 'https://genius.com/artists/Michael-hutchence'}, {'name': 'Michel “Lindgren” Schulz', 'url': 'https://genius.com/artists/Michel-lindgren-schulz'}, {'name': 'Pete Kelleher', 'url': 'https://genius.com/artists/Pete-kelleher'}, {'name': 'Sarah Hudson', 'url': 'https://genius.com/artists/Sarah-hudson'}, {'name': 'SG Lewis', 'url': 'https://genius.com/artists/Sg-lewis'}, {'name': 'Shakka Philip', 'url': 'https://genius.com/artists/Shakka-philip'}, {'name': 'Stefan Johnson', 'url': 'https://genius.com/artists/Stefan-johnson'}, {'name': 'Tom Barnes', 'url': 'https://genius.com/artists/Tom-barnes'}, {'name': 'Tove Lo', 'url': 'https://genius.com/artists/Tove-lo'}, {'name': 'UPSAHL', 'url': 'https://genius.com/artists/Upsahl'}, {'name': '\u200bwatt', 'url': 'https://genius.com/artists/Watt'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Nelly/Nellyville', 'annotations': {'description': '&lt;p&gt;Nelly’s second studio album was even more successful than &lt;a href="https://genius.com/albums/Nelly/Country-grammar" rel="noopener" data-api_path="/albums/7126"&gt;his first,&lt;/a&gt; debuting at number one on the &lt;em&gt;US Billboard Charts&lt;/em&gt;, selling 714k first week on it’s way to being certified 6 times platinum in the US.&lt;/p&gt;\n\n&lt;p&gt;The record featured a total of six singles: &lt;a href="https://genius.com/Nelly-1-lyrics" rel="noopener" data-api_path="/songs/35295"&gt;“#1”,&lt;/a&gt; smash hit &lt;a href="https://genius.com/Nelly-hot-in-herre-lyrics" rel="noopener" data-api_path="/songs/35301"&gt;“Hot In Herre”,&lt;/a&gt; even bigger smash hit &lt;a href="https://genius.com/Nelly-dilemma-lyrics" rel="noopener" data-api_path="/songs/35293"&gt;“Dilemma,”&lt;/a&gt; posse cut &lt;a href="https://genius.com/Nelly-air-force-ones-lyrics" rel="noopener" data-api_path="/songs/3368"&gt;“Air Force Ones,”&lt;/a&gt; &lt;a href="https://genius.com/Nelly-work-it-lyrics" rel="noopener" data-api_path="/songs/35304"&gt;“Work It,”&lt;/a&gt; and &lt;a href="https://genius.com/Nelly-pimp-juice-lyrics" rel="noopener" data-api_path="/songs/35299"&gt;“Pimp Juice.”&lt;/a&gt; The album was nominated for 3 Grammy’s in 2003: Album of the Year, Best Male Rap Solo Performance and Best Rap/Sung Collaboration. “Hot In Herre” and “Dilemma” both won their categories.&lt;/p&gt;\n\n&lt;p&gt;The album is a loose concept based on a fictitious city named “Nellyville.” The &lt;a href="https://genius.com/Nelly-nellyville-lyrics" rel="noopener" data-api_path="/songs/35296"&gt;title track&lt;/a&gt; pulls the entire thing together, before Nelly begins to extrapolate on his own position inside the community, chasing girls, spending money, going to the club, and selling pimp juice.&lt;/p&gt;\n\n&lt;p&gt;In 2014 Nelly used the name to create his own reality TV show &lt;a href="http://www.imdb.com/title/tt4319956/" rel="noopener nofollow"&gt;based around his family.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Antoine “Bam” Macon', 'url': 'https://genius.com/artists/Antoine-bam-macon'}, {'name': 'Jay E (Producer)', 'url': 'https://genius.com/artists/Jay-e-producer'}, {'name': 'Just Blaze', 'url': 'https://genius.com/artists/Just-blaze'}, {'name': 'Nelly', 'url': 'https://genius.com/artists/Nelly'}, {'name': 'The Neptunes', 'url': 'https://genius.com/artists/The-neptunes'}, {'name': 'Ryan Bowser', 'url': 'https://genius.com/artists/Ryan-bowser'}, {'name': 'Trackboyz', 'url': 'https://genius.com/artists/Trackboyz'}, {'name': 'Waiel “Wally” Yaghnam', 'url': 'https://genius.com/artists/Waiel-wally-yaghnam'}], 'writers': [{'name': 'Ali Jones', 'url': 'https://genius.com/artists/Ali-jones'}, {'name': 'Antoine “Bam” Macon', 'url': 'https://genius.com/artists/Antoine-bam-macon'}, {'name': 'Beanie Sigel', 'url': 'https://genius.com/artists/Beanie-sigel'}, {'name': 'Bunny Sigler', 'url': 'https://genius.com/artists/Bunny-sigler'}, {'name': 'Cedric The Entertainer', 'url': 'https://genius.com/artists/Cedric-the-entertainer'}, {'name': 'Chad Hugo', 'url': 'https://genius.com/artists/Chad-hugo'}, {'name': 'Chuck Brown', 'url': 'https://genius.com/artists/Chuck-brown'}, {'name': 'Freeway', 'url': 'https://genius.com/artists/Freeway'}, {'name': 'Jay E (Producer)', 'url': 'https://genius.com/artists/Jay-e-producer'}, {'name': 'Just Blaze', 'url': 'https://genius.com/artists/Just-blaze'}, {'name': 'Justin Timberlake', 'url': 'https://genius.com/artists/Justin-timberlake'}, {'name': 'Kelly Rowland', 'url': 'https://genius.com/artists/Kelly-rowland'}, {'name': 'Kenneth Gamble', 'url': 'https://genius.com/artists/Kenneth-gamble'}, {'name': 'King Jacob', 'url': 'https://genius.com/artists/King-jacob'}, {'name': 'Kyjuan', 'url': 'https://genius.com/artists/Kyjuan'}, {'name': 'La La Anthony', 'url': 'https://genius.com/artists/La-la-anthony'}, {'name': 'Murphy Lee', 'url': 'https://genius.com/artists/Murphy-lee'}, {'name': 'Nelly', 'url': 'https://genius.com/artists/Nelly'}, {'name': 'Pharrell Williams', 'url': 'https://genius.com/artists/Pharrell-williams'}, {'name': 'Ryan Bowser', 'url': 'https://genius.com/artists/Ryan-bowser'}, {'name': 'Trackboyz', 'url': 'https://genius.com/artists/Trackboyz'}, {'name': 'Waiel “Wally” Yaghnam', 'url': 'https://genius.com/artists/Waiel-wally-yaghnam'}], 'labels': [{'name': 'Fo’ Reel', 'url': 'https://genius.com/artists/Fo-reel'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'Universal Recordings', 'url': 'https://genius.com/artists/Universal-recordings'}, {'name': 'Universal Records', 'url': 'https://genius.com/artists/Universal-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Coldplay/Mylo-xyloto', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Mylo Xyloto&lt;/em&gt; is the fifth studio album by British alt-rock group Coldplay. Though the album was a commercial hit, both fans and critics were divided about the new, electronic-heavy direction taken by the band (most likely due to the influence of producer Brian Eno, who also produced &lt;em&gt;Viva la Vida or Death and All His Friends&lt;/em&gt;).&lt;/p&gt;', 'producers': [{'name': 'Dan Green', 'url': 'https://genius.com/artists/Dan-green'}, {'name': 'Daniel Green', 'url': 'https://genius.com/artists/Daniel-green'}, {'name': 'Markus Dravs', 'url': 'https://genius.com/artists/Markus-dravs'}, {'name': 'Rik Simpson', 'url': 'https://genius.com/artists/Rik-simpson'}], 'writers': [{'name': 'Adrienne Anderson', 'url': 'https://genius.com/artists/Adrienne-anderson'}, {'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}, {'name': 'Chris Martin', 'url': 'https://genius.com/artists/Chris-martin'}, {'name': 'Georg Hólm', 'url': 'https://genius.com/artists/Georg-holm'}, {'name': 'Guy Berryman', 'url': 'https://genius.com/artists/Guy-berryman'}, {'name': 'Jónsi', 'url': 'https://genius.com/artists/Jonsi'}, {'name': 'Jonny Buckland', 'url': 'https://genius.com/artists/Jonny-buckland'}, {'name': 'Kjartan Sveinsson', 'url': 'https://genius.com/artists/Kjartan-sveinsson'}, {'name': 'Orri Páll Dýrason', 'url': 'https://genius.com/artists/Orri-pall-dyrason'}, {'name': 'Peter Allen', 'url': 'https://genius.com/artists/Peter-allen'}, {'name': 'Will Champion', 'url': 'https://genius.com/artists/Will-champion'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Pulp/Different-class', 'annotations': {'description': '&lt;p&gt;This is the fifth album by Pulp. It was released in 1995, at the peak of the Britpop movement, and transformed them into an essential part of the British musical scene. This record received a stellar reception from critics, and it has grown to be recognised not only as one of the most iconic albums of Britpop, but as one of the best albums ever released. “Different Class” was awarded the Mercury Music Prize in 1996.&lt;/p&gt;\n\n&lt;p&gt;The album has a sleeve note which explains the title rather well : “Please understand – we don’t want no trouble. We just want the right to be different. That’s all.”&lt;/p&gt;', 'producers': [{'name': 'Anne Dudley', 'url': 'https://genius.com/artists/Anne-dudley'}, {'name': 'Chris Thomas', 'url': 'https://genius.com/artists/Chris-thomas'}], 'writers': [{'name': 'Candida Doyle', 'url': 'https://genius.com/artists/Candida-doyle'}, {'name': 'Jarvis Cocker', 'url': 'https://genius.com/artists/Jarvis-cocker'}, {'name': 'Mark Webber', 'url': 'https://genius.com/artists/Mark-webber'}, {'name': 'Nick Banks', 'url': 'https://genius.com/artists/Nick-banks'}, {'name': 'Russell Senior', 'url': 'https://genius.com/artists/Russell-senior'}, {'name': 'Steve Mackey', 'url': 'https://genius.com/artists/Steve-mackey'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Papa-roach/Lovehatetragedy', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Lovehatetragedy&lt;/em&gt; is the third album by the rock band Papa Roach. It was released on June 18, 2002. The album failed to catch the success of the band’s previous album Infest.&lt;br&gt;\nThe album did not sell as well as its 2000 predecessor, Infest, selling more than 700,000 units, achieving gold certification in the U.S.&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'Dave Buckner', 'url': 'https://genius.com/artists/Dave-buckner'}, {'name': 'David Buckner', 'url': 'https://genius.com/artists/David-buckner'}, {'name': 'Frank Black', 'url': 'https://genius.com/artists/Frank-black'}, {'name': 'Jacoby Shaddix', 'url': 'https://genius.com/artists/Jacoby-shaddix'}, {'name': 'Jerry Horton', 'url': 'https://genius.com/artists/Jerry-horton'}, {'name': 'Mike Patton', 'url': 'https://genius.com/artists/Mike-patton'}, {'name': 'Tobin Esperance', 'url': 'https://genius.com/artists/Tobin-esperance'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Lady-gaga/The-fame', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Fame&lt;/em&gt; is the debut studio album by &lt;a href="https://genius.com/artists/Lady-gaga" rel="noopener" data-api_path="/artists/447"&gt;Lady Gaga&lt;/a&gt;, released on August 19th, 2008.&lt;/p&gt;\n\n&lt;p&gt;The first two singles released, “&lt;a href="https://genius.com/lady-gaga-just-dance-lyrics" rel="noopener" data-api_path="/songs/51012"&gt;Just Dance&lt;/a&gt;” and “&lt;a href="https://genius.com/Lady-gaga-poker-face" rel="noopener"&gt;Poker Face&lt;/a&gt;” were highly acclaimed as international successes, topping the charts around the world.&lt;/p&gt;\n\n&lt;p&gt;With influences of 80’s pop music, &lt;em&gt;The Fame&lt;/em&gt;’s synth- and dance-pop musicality cannot be ignored. The album is the ultimate personification of the adoration of fame, with other subjects incorporated into its message such as sex, drugs, and love.&lt;/p&gt;\n\n&lt;p&gt;In 2013, &lt;em&gt;The Fame&lt;/em&gt; grabbed the last place on the list of the &lt;a href="http://www.rollingstone.com/music/lists/the-100-greatest-debut-albums-of-all-time-20130322/the-fame-19691231" rel="noopener nofollow"&gt;“100 Greatest Debut Albums of All-Time”&lt;/a&gt; by Rolling Stone. The LP has won several awards since its release, and was nominated for five Grammy Awards at the 52nd Grammy Awards, taking home the award for Best Electronic/Dance Album and the Best Dance Recording for “Poker Face.” At the &lt;a href="http://news.bbc.co.uk/2/hi/entertainment/8519276.stm" rel="noopener nofollow"&gt;BRIT Awards&lt;/a&gt;, it was named the Best International Album.&lt;/p&gt;\n\n&lt;p&gt;According to &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8497475/lady-gaga-sales-streams-ariana-grande-ask-billboard" rel="noopener nofollow"&gt;Billboard&lt;/a&gt;, as of February 10, 2019, &lt;em&gt;The Fame&lt;/em&gt; has sold a total of 4.8 million copies in the United States.&lt;/p&gt;', 'producers': [{'name': 'Brian Kierulf', 'url': 'https://genius.com/artists/Brian-kierulf'}, {'name': 'Joshua Schwartz', 'url': 'https://genius.com/artists/Joshua-schwartz'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'Martin Kierszenbaum', 'url': 'https://genius.com/artists/Martin-kierszenbaum'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Rob Fusari', 'url': 'https://genius.com/artists/Rob-fusari'}, {'name': 'Space Cowboy', 'url': 'https://genius.com/artists/Space-cowboy'}], 'writers': [{'name': 'Akon', 'url': 'https://genius.com/artists/Akon'}, {'name': 'Bilal “The Chef” Hajji', 'url': 'https://genius.com/artists/Bilal-the-chef-hajji'}, {'name': 'Brian Kierulf', 'url': 'https://genius.com/artists/Brian-kierulf'}, {'name': 'Calvin Gaines', 'url': 'https://genius.com/artists/Calvin-gaines'}, {'name': 'Charlotte Thersen', 'url': 'https://genius.com/artists/Charlotte-thersen'}, {'name': 'Flo Rida', 'url': 'https://genius.com/artists/Flo-rida'}, {'name': 'Joshua Schwartz', 'url': 'https://genius.com/artists/Joshua-schwartz'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'Martin Kierszenbaum', 'url': 'https://genius.com/artists/Martin-kierszenbaum'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Rob Fusari', 'url': 'https://genius.com/artists/Rob-fusari'}, {'name': 'Space Cowboy', 'url': 'https://genius.com/artists/Space-cowboy'}, {'name': 'Tom Kafafian', 'url': 'https://genius.com/artists/Tom-kafafian'}], 'labels': [{'name': 'Cherrytree Records', 'url': 'https://genius.com/artists/Cherrytree-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'KonLive', 'url': 'https://genius.com/artists/Konlive'}, {'name': 'Konvict Muzik', 'url': 'https://genius.com/artists/Konvict-muzik'}, {'name': 'Streamline', 'url': 'https://genius.com/artists/Streamline'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Breaking-benjamin/Dark-before-dawn', 'annotations': {'description': '&lt;p&gt;&lt;i&gt;Dark Before Dawn&lt;/i&gt; is the fifth full-length studio album by American rock band Breaking Benjamin, released on 23rd June 2015 through Hollywood Records.&lt;/p&gt;\n\n&lt;p&gt;It is the band’s first album since their hiatus from early 2010 to late 2014, along with a different lineup alongside lead vocalist and rhythm guitarist Benjamin Burnley.&lt;/p&gt;\n\n&lt;p&gt;The album debuted at Number 1 on the Billboard 200, and earned them 141,000 album-equivalent units in its first week.&lt;/p&gt;\n\n&lt;p&gt;There are five singles on the album, which include &lt;a href="https://genius.com/Breaking-benjamin-failure-lyrics" rel="noopener" data-api_path="/songs/729854"&gt;“Failure”&lt;/a&gt;, &lt;a href="https://genius.com/Breaking-benjamin-angels-fall-lyrics" rel="noopener" data-api_path="/songs/749892"&gt;“Angels Fall”&lt;/a&gt;, &lt;a href="https://genius.com/Breaking-benjamin-defeated-lyrics" rel="noopener" data-api_path="/songs/2037979"&gt;“Defeated”&lt;/a&gt;, &lt;a href="https://genius.com/Breaking-benjamin-ashes-of-eden-lyrics" rel="noopener" data-api_path="/songs/2142077"&gt;“Ashes of Eden”&lt;/a&gt;, and &lt;a href="https://genius.com/Breaking-benjamin-never-again-lyrics" rel="noopener" data-api_path="/songs/2149663"&gt;“Never Again”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'writers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}, {'name': 'Jasen Rauch', 'url': 'https://genius.com/artists/Jasen-rauch'}, {'name': 'Keith Wallen', 'url': 'https://genius.com/artists/Keith-wallen'}], 'labels': [{'name': 'Hollywood Records', 'url': 'https://genius.com/artists/Hollywood-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Dua-lipa/Dua-lipa', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Dua Lipa&lt;/em&gt; is the self-titled debut record by English singer-songwriter Dua Lipa.&lt;/p&gt;\n\n&lt;p&gt;In 2015, &lt;a href="https://genius.com/dua-lipa-new-love-lyrics" rel="noopener" data-api_path="/songs/2289661"&gt;“New Love”&lt;/a&gt; and &lt;a href="https://genius.com/dua-lipa-be-the-one-lyrics" rel="noopener" data-api_path="/songs/2342780"&gt;“Be the One”&lt;/a&gt; were released, with the latter eventually becoming a hit and hitting the top 10 in multiple international countries.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/dua-lipa-hotter-than-hell-lyrics" rel="noopener" data-api_path="/songs/2456408"&gt;“Hotter Than Hell”&lt;/a&gt; &lt;a href="http://attitude.co.uk/interview-dua-lipa-talks-dark-pop-gay-fans-and-her-secret-weapon/" rel="noopener nofollow"&gt;helped&lt;/a&gt; her get signed to Warner Bros. Records, and propelled her into her first appearance in the UK Singles Chart.&lt;/p&gt;\n\n&lt;p&gt;On August 26th, 2016, &lt;em&gt;Dua Lipa&lt;/em&gt; became available for pre-order with an instant download of &lt;a href="https://genius.com/dua-lipa-blow-your-mind-lyrics" rel="noopener" data-api_path="/songs/2845808"&gt;“Blow Your Mind (Mwah).”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In an interview with &lt;a href="http://www.digitalspy.com/music/new-music/interviews/a776876/meet-your-new-favourite-popstar-dua-lipa-just-dont-call-her-the-new-lana-del-rey/" rel="noopener nofollow"&gt;&lt;em&gt;Digital Spy&lt;/em&gt;&lt;/a&gt;, Dua Lipa spoke about wanting to be “as truthful as possible” with this record:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I want people to see a piece of me. I want people to have an insight into everything that’s happened over the last few years while I was writing the album and actually really get to know me. I want people to know that they’re not alone in all this and that we all go through the same fucking shit. That’s the main goal.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Axident', 'url': 'https://genius.com/artists/Axident'}, {'name': 'Big Taste', 'url': 'https://genius.com/artists/Big-taste'}, {'name': 'Bill Rahko', 'url': 'https://genius.com/artists/Bill-rahko'}, {'name': 'Cameron Gower Poole', 'url': 'https://genius.com/artists/Cameron-gower-poole'}, {'name': 'Digital Farm Animals', 'url': 'https://genius.com/artists/Digital-farm-animals'}, {'name': 'GRADES', 'url': 'https://genius.com/artists/Grades'}, {'name': 'Greg Wells', 'url': 'https://genius.com/artists/Greg-wells'}, {'name': 'Ian Kirkpatrick', 'url': 'https://genius.com/artists/Ian-kirkpatrick'}, {'name': 'Jack Tarrant', 'url': 'https://genius.com/artists/Jack-tarrant'}, {'name': 'James Flannigan', 'url': 'https://genius.com/artists/James-flannigan'}, {'name': 'Jay Reynolds', 'url': 'https://genius.com/artists/Jay-reynolds'}, {'name': 'Jon Levine', 'url': 'https://genius.com/artists/Jon-levine'}, {'name': 'KOZ', 'url': 'https://genius.com/artists/Koz'}, {'name': 'Larzz Principato', 'url': 'https://genius.com/artists/Larzz-principato'}, {'name': 'Lorna Blackwood', 'url': 'https://genius.com/artists/Lorna-blackwood'}, {'name': 'Miguel', 'url': 'https://genius.com/artists/Miguel'}, {'name': 'Suzy Shinn', 'url': 'https://genius.com/artists/Suzy-shinn'}, {'name': 'Ten Ven', 'url': 'https://genius.com/artists/Ten-ven'}], 'writers': [{'name': 'Adam Argyle', 'url': 'https://genius.com/artists/Adam-argyle'}, {'name': 'Adam Midgley', 'url': 'https://genius.com/artists/Adam-midgley'}, {'name': 'Axident', 'url': 'https://genius.com/artists/Axident'}, {'name': 'Cara Salimando', 'url': 'https://genius.com/artists/Cara-salimando'}, {'name': 'Caroline Ailin', 'url': 'https://genius.com/artists/Caroline-ailin'}, {'name': 'Chris Martin', 'url': 'https://genius.com/artists/Chris-martin'}, {'name': 'Christy “Zee” Zakarias', 'url': 'https://genius.com/artists/Christy-zee-zakarias'}, {'name': 'Clarence Coffee Jr.', 'url': 'https://genius.com/artists/Clarence-coffee-jr'}, {'name': 'Diamond D', 'url': 'https://genius.com/artists/Diamond-d'}, {'name': 'Digital Farm Animals', 'url': 'https://genius.com/artists/Digital-farm-animals'}, {'name': 'Dua Lipa', 'url': 'https://genius.com/artists/Dua-lipa'}, {'name': 'Emily Warren', 'url': 'https://genius.com/artists/Emily-warren'}, {'name': 'Ferras', 'url': 'https://genius.com/artists/Ferras'}, {'name': 'Gabe Simon', 'url': 'https://genius.com/artists/Gabe-simon'}, {'name': 'Gerard O’Connell', 'url': 'https://genius.com/artists/Gerard-oconnell'}, {'name': 'GRADES', 'url': 'https://genius.com/artists/Grades'}, {'name': 'Greg Wells', 'url': 'https://genius.com/artists/Greg-wells'}, {'name': 'Ian Kirkpatrick', 'url': 'https://genius.com/artists/Ian-kirkpatrick'}, {'name': 'Ilsey', 'url': 'https://genius.com/artists/Ilsey'}, {'name': 'Jack Tarrant', 'url': 'https://genius.com/artists/Jack-tarrant'}, {'name': 'James Flannigan', 'url': 'https://genius.com/artists/James-flannigan'}, {'name': 'Jon Levine', 'url': 'https://genius.com/artists/Jon-levine'}, {'name': 'Larzz Principato', 'url': 'https://genius.com/artists/Larzz-principato'}, {'name': 'Lauren Christy', 'url': 'https://genius.com/artists/Lauren-christy'}, {'name': 'Lindy Robbins', 'url': 'https://genius.com/artists/Lindy-robbins'}, {'name': 'Miguel', 'url': 'https://genius.com/artists/Miguel'}, {'name': 'MNEK', 'url': 'https://genius.com/artists/Mnek'}, {'name': 'Pawws', 'url': 'https://genius.com/artists/Pawws'}, {'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}, {'name': 'Sarah Hudson', 'url': 'https://genius.com/artists/Sarah-hudson'}, {'name': 'Sean Douglas', 'url': 'https://genius.com/artists/Sean-douglas'}, {'name': 'Skyler Stonestreet', 'url': 'https://genius.com/artists/Skyler-stonestreet'}, {'name': 'Tommy Baxter', 'url': 'https://genius.com/artists/Tommy-baxter'}, {'name': 'Whiskey Water', 'url': 'https://genius.com/artists/Whiskey-water'}], 'labels': [{'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Billie-eilish/Dont-smile-at-me', 'annotations': {'description': '&lt;p&gt;&lt;i&gt;dont smile at me&lt;/i&gt; is Billie Eilish’s debut EP, initially released with 8 tracks on August 9, 2017 by &lt;a href="https://genius.com/artists/Interscope-records" rel="noopener" data-api_path="/artists/143490"&gt;Interscope Records&lt;/a&gt;. The EP was later re-released with “&lt;a href="https://genius.com/Billie-eilish-burn-lyrics" rel="noopener" data-api_path="/songs/3319054"&gt;&amp;amp;burn&lt;/a&gt;” featuring &lt;a href="https://genius.com/artists/Vince-staples" rel="noopener" data-api_path="/artists/941"&gt;Vince Staples&lt;/a&gt; on December 22, 2017. The &lt;a href="https://twitter.com/FinneasOConnell/status/894359626287783936" rel="noopener nofollow"&gt;bedroom project&lt;/a&gt; was completed on &lt;a href="https://twitter.com/FinneasOConnell/status/878561093005660161" rel="noopener nofollow"&gt;June 24, 2017&lt;/a&gt; with the entire project produced by her brother, &lt;a href="https://genius.com/artists/Finneas-oconnell" rel="noopener" data-api_path="/artists/615565"&gt;Finneas O\'Connell&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The creation of the EP initially began with the release of “&lt;a href="https://genius.com/Billie-eilish-ocean-eyes-lyrics" rel="noopener" data-api_path="/songs/2403346"&gt;ocean eyes&lt;/a&gt;” on November 18, 2016. After receiving overwhelming critical acclaim, the track began to gain massive traction, although it was released with &lt;a href="https://www.teenvogue.com/story/how-billie-eilishs-ocean-eyes-turned-her-into-an-overnight-sensation" rel="noopener nofollow"&gt;no intentions&lt;/a&gt; to do so. The next singles, “&lt;a href="https://genius.com/Billie-eilish-bellyache-lyrics" rel="noopener" data-api_path="/songs/3001600"&gt;bellyache&lt;/a&gt;”, “&lt;a href="https://genius.com/Billie-eilish-watch-lyrics" rel="noopener" data-api_path="/songs/3138202"&gt;watch&lt;/a&gt;”, and “&lt;a href="https://genius.com/Billie-eilish-burn-lyrics" rel="noopener" data-api_path="/songs/3319054"&gt;&amp;amp;burn&lt;/a&gt;,” were released on February 24, June 30, and December 15 of 2017, respectively.&lt;/p&gt;\n\n&lt;p&gt;&lt;i&gt;dont smile at me&lt;/i&gt; peaked at &lt;a href="https://www.billboard.com/music/billie-eilish/chart-history/billboard-200/song/1039179" rel="noopener nofollow"&gt;#14 on the Billboard 200&lt;/a&gt; on January 26th, 2019.&lt;/p&gt;\n\n&lt;p&gt;The Japanese import of &lt;i&gt;dont smile at me&lt;/i&gt; contains six bonus tracks, four of which are remixes.&lt;/p&gt;', 'producers': [{'name': 'FINNEAS', 'url': 'https://genius.com/artists/Finneas'}], 'writers': [{'name': 'Billie Eilish', 'url': 'https://genius.com/artists/Billie-eilish'}, {'name': 'FINNEAS', 'url': 'https://genius.com/artists/Finneas'}, {'name': 'Vince Staples', 'url': 'https://genius.com/artists/Vince-staples'}], 'labels': [{'name': 'Darkroom Records', 'url': 'https://genius.com/artists/Darkroom-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Ac-dc/Highway-to-hell', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Highway to Hell&lt;/em&gt; was the band’s fifth internationally released studio album and is the final album AC/DC recorded with lead singer Bon Scott who died six months after its release, in 1979, from acute alcohol poisoning.&lt;/p&gt;\n\n&lt;p&gt;It currently sits at #200 on Rolling Stone’s &lt;a href="http://www.rollingstone.com/music/lists/500-greatest-albums-of-all-time-20120531/ac-dc-highway-to-hell-20120524" rel="noopener nofollow"&gt;“500 Greatest Albums of All Time”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}], 'writers': [{'name': 'Angus Young', 'url': 'https://genius.com/artists/Angus-young'}, {'name': 'Bon Scott', 'url': 'https://genius.com/artists/Bon-scott'}, {'name': 'Malcolm Young', 'url': 'https://genius.com/artists/Malcolm-young'}], 'labels': [{'name': 'Albert Productions', 'url': 'https://genius.com/artists/Albert-productions'}, {'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-kooks/Konk', 'annotations': {'description': '&lt;p&gt;Konk is the second album by British indie rock band The Kooks, released on 14 April 2008 on Virgin Records. Produced by Tony Hoffer, the album is named after the London studio where it was recorded, which is the property of Ray Davies.&lt;/p&gt;', 'producers': [{'name': 'Dan Grech-Marguerat', 'url': 'https://genius.com/artists/Dan-grech-marguerat'}, {'name': 'Tony Hoffer', 'url': 'https://genius.com/artists/Tony-hoffer'}], 'writers': [{'name': 'Dan Grech-Marguerat', 'url': 'https://genius.com/artists/Dan-grech-marguerat'}, {'name': 'Hugh Harris', 'url': 'https://genius.com/artists/Hugh-harris'}, {'name': 'Luke Pritchard', 'url': 'https://genius.com/artists/Luke-pritchard'}, {'name': 'Max Rafferty', 'url': 'https://genius.com/artists/Max-rafferty'}, {'name': 'Paul Garred', 'url': 'https://genius.com/artists/Paul-garred'}, {'name': 'Tony Hoffer', 'url': 'https://genius.com/artists/Tony-hoffer'}], 'labels': [{'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Black-eyed-peas/Monkey-business', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Monkey Business&lt;/strong&gt; is the fourth studio album by American group, &lt;a href="https://genius.com/artists/The-black-eyed-peas" rel="noopener" data-api_path="/artists/425"&gt;&lt;strong&gt;The Black Eyed Peas&lt;/strong&gt;&lt;/a&gt;. It was released on May 25, 2005, by the &lt;a href="https://en.wikipedia.org/wiki/Will.i.am_Music_Group" rel="noopener nofollow"&gt;will.i.am Music Group&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/A%26M_Records" rel="noopener nofollow"&gt;A&amp;amp;M Records&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The album was certified 3x Platinum by the &lt;a href="https://en.wikipedia.org/wiki/Recording_Industry_Association_of_America" rel="noopener nofollow"&gt;RIAA&lt;/a&gt; in the U.S. and has sold over 11 million copies worldwide.  &lt;a href="https://en.wikipedia.org/wiki/Canadian_Recording_Industry_Association" rel="noopener nofollow"&gt;CRIA&lt;/a&gt; has certified Monkey Business 6× Platinum, with sales of over 600,000 copies throughout Canada. &lt;a href="https://en.wikipedia.org/wiki/Australian_Recording_Industry_Association" rel="noopener nofollow"&gt;ARIA&lt;/a&gt; has also certified Monkey Business 6× Platinum, denoting sales of over 420,000 copies in Australia. The album’s tracks earned the group four 2006 Grammy Award nominations and they won the Grammy for &lt;a href="https://en.wikipedia.org/wiki/Grammy_Award_for_Best_Rap_Performance_by_a_Duo_or_Group" rel="noopener nofollow"&gt;Best Rap Performance by a Duo or Group&lt;/a&gt; for &lt;a href="https://genius.com/The-black-eyed-peas-dont-phunk-with-my-heart-lyrics" rel="noopener" data-api_path="/songs/10711"&gt;&lt;em&gt;Don’t Phunk with My Heart&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Four Singles were released for this album and all peaked within the Top 20 on the &lt;a href="https://en.wikipedia.org/wiki/Billboard_Hot_100" rel="noopener nofollow"&gt;Billboard Hottest 100&lt;/a&gt;. &lt;a href="https://genius.com/The-black-eyed-peas-dont-phunk-with-my-heart-lyrics" rel="noopener" data-api_path="/songs/10711"&gt;&lt;em&gt;Don’t Phunk with My Heart&lt;/em&gt;&lt;/a&gt; was the first and reached no. 3. &lt;a href="https://genius.com/The-black-eyed-peas-dont-lie-lyrics" rel="noopener" data-api_path="/songs/10714"&gt;&lt;em&gt;Don’t Lie&lt;/em&gt;&lt;/a&gt; was second reached no. 14. &lt;a href="https://genius.com/The-black-eyed-peas-my-humps-lyrics" rel="noopener" data-api_path="/songs/4054"&gt;&lt;em&gt;My Humps&lt;/em&gt;&lt;/a&gt; was the third single for summer 2005. The song was released after it became an unsolicited hit on mainstream radio across the US. The track, even with lack of promotion, surpassed the highly promoted track &lt;a href="https://genius.com/The-black-eyed-peas-dont-lie-lyrics" rel="noopener" data-api_path="/songs/10714"&gt;&lt;em&gt;Don’t Lie&lt;/em&gt;&lt;/a&gt;, it reached no. 3. &lt;a href="https://genius.com/The-black-eyed-peas-pump-it-lyrics" rel="noopener" data-api_path="/songs/10726"&gt;&lt;em&gt;Pump It&lt;/em&gt;&lt;/a&gt; was the fourth single and peaked at no. 18.&lt;/p&gt;', 'producers': [{'name': '\u200bapl.de.ap', 'url': 'https://genius.com/artists/Apldeap'}, {'name': 'Black Eyed Peas', 'url': 'https://genius.com/artists/Black-eyed-peas'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'Noize Trip', 'url': 'https://genius.com/artists/Noize-trip'}, {'name': 'Printz Board', 'url': 'https://genius.com/artists/Printz-board'}, {'name': 'Ron Fair', 'url': 'https://genius.com/artists/Ron-fair'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'writers': [{'name': 'Anthony Newley', 'url': 'https://genius.com/artists/Anthony-newley'}, {'name': 'Anthony Tidd', 'url': 'https://genius.com/artists/Anthony-tidd'}, {'name': '\u200bapl.de.ap', 'url': 'https://genius.com/artists/Apldeap'}, {'name': 'Benjamin Brown', 'url': 'https://genius.com/artists/Benjamin-brown'}, {'name': 'Black Eyed Peas', 'url': 'https://genius.com/artists/Black-eyed-peas'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'David Payton', 'url': 'https://genius.com/artists/David-payton'}, {'name': 'Fergie', 'url': 'https://genius.com/artists/Fergie'}, {'name': 'Fitzroy Simpson', 'url': 'https://genius.com/artists/Fitzroy-simpson'}, {'name': 'Free School', 'url': 'https://genius.com/artists/Free-school'}, {'name': 'Full Force', 'url': 'https://genius.com/artists/Full-force'}, {'name': 'George Bennett', 'url': 'https://genius.com/artists/George-bennett'}, {'name': 'George Pajon Jr.', 'url': 'https://genius.com/artists/George-pajon-jr'}, {'name': 'Greg Nice', 'url': 'https://genius.com/artists/Greg-nice'}, {'name': 'Indeewar', 'url': 'https://genius.com/artists/Indeewar'}, {'name': 'Jackie Mittoo', 'url': 'https://genius.com/artists/Jackie-mittoo'}, {'name': 'Jack Johnson', 'url': 'https://genius.com/artists/Jack-johnson'}, {'name': 'James Brown', 'url': 'https://genius.com/artists/James-brown'}, {'name': 'Justin Timberlake', 'url': 'https://genius.com/artists/Justin-timberlake'}, {'name': 'Kalyanji–Anandji', 'url': 'https://genius.com/artists/Kalyanjianandji'}, {'name': 'Keith Harris', 'url': 'https://genius.com/artists/Keith-harris'}, {'name': 'Larry Blackmon', 'url': 'https://genius.com/artists/Larry-blackmon'}, {'name': 'Leroy Sibbles', 'url': 'https://genius.com/artists/Leroy-sibbles'}, {'name': 'Leslie Bricusse', 'url': 'https://genius.com/artists/Leslie-bricusse'}, {'name': 'Lloyd Ferguson', 'url': 'https://genius.com/artists/Lloyd-ferguson'}, {'name': 'Melvin “Chaos” Lewis', 'url': 'https://genius.com/artists/Melvin-chaos-lewis'}, {'name': 'Michael Matthews', 'url': 'https://genius.com/artists/Michael-matthews'}, {'name': 'Nicholas Roubanis', 'url': 'https://genius.com/artists/Nicholas-roubanis'}, {'name': 'Peters Peters', 'url': 'https://genius.com/artists/Peters-peters'}, {'name': 'Printz Board', 'url': 'https://genius.com/artists/Printz-board'}, {'name': 'Q-Tip', 'url': 'https://genius.com/artists/Q-tip'}, {'name': 'Ray Brady', 'url': 'https://genius.com/artists/Ray-brady'}, {'name': 'Rick James', 'url': 'https://genius.com/artists/Rick-james'}, {'name': 'Robbie Lyn', 'url': 'https://genius.com/artists/Robbie-lyn'}, {'name': 'Slick Rick', 'url': 'https://genius.com/artists/Slick-rick'}, {'name': 'Smooth B', 'url': 'https://genius.com/artists/Smooth-b'}, {'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}, {'name': 'Taboo', 'url': 'https://genius.com/artists/Taboo'}, {'name': 'Talib Kweli', 'url': 'https://genius.com/artists/Talib-kweli'}, {'name': 'Thomas Jenkins', 'url': 'https://genius.com/artists/Thomas-jenkins'}, {'name': 'Thomas Van Musser', 'url': 'https://genius.com/artists/Thomas-van-musser'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Timothy Grindgreff', 'url': 'https://genius.com/artists/Timothy-grindgreff'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Will.i.am Music Group', 'url': 'https://genius.com/artists/William-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Stone-sour/Come-what-ever-may', 'annotations': {'description': '', 'producers': [{'name': 'Nick Raskulinecz', 'url': 'https://genius.com/artists/Nick-raskulinecz'}], 'writers': [{'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}, {'name': 'Jim Root', 'url': 'https://genius.com/artists/Jim-root'}, {'name': 'Josh Rand', 'url': 'https://genius.com/artists/Josh-rand'}, {'name': 'Shawn Economaki', 'url': 'https://genius.com/artists/Shawn-economaki'}, {'name': 'Stone Sour', 'url': 'https://genius.com/artists/Stone-sour'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Cobra-starship/Hot-mess', 'annotations': {'description': '', 'producers': [{'name': 'Alex Suarez', 'url': 'https://genius.com/artists/Alex-suarez'}, {'name': 'Cash Cash', 'url': 'https://genius.com/artists/Cash-cash'}, {'name': 'Cobra Starship', 'url': 'https://genius.com/artists/Cobra-starship'}, {'name': 'Gabe Saporta', 'url': 'https://genius.com/artists/Gabe-saporta'}, {'name': 'Jayson DeZuzio', 'url': 'https://genius.com/artists/Jayson-dezuzio'}, {'name': 'Kara DioGuardi', 'url': 'https://genius.com/artists/Kara-dioguardi'}, {'name': 'Kevin Rudolf', 'url': 'https://genius.com/artists/Kevin-rudolf'}, {'name': 'Mike Caren', 'url': 'https://genius.com/artists/Mike-caren'}, {'name': 'Nate Novarro', 'url': 'https://genius.com/artists/Nate-novarro'}, {'name': 'Oligee', 'url': 'https://genius.com/artists/Oligee'}, {'name': 'Ryland Blackinton', 'url': 'https://genius.com/artists/Ryland-blackinton'}, {'name': 'Vicky-T', 'url': 'https://genius.com/artists/Vicky-t'}], 'writers': [{'name': 'Alex Suarez', 'url': 'https://genius.com/artists/Alex-suarez'}, {'name': 'Bruno Mars', 'url': 'https://genius.com/artists/Bruno-mars'}, {'name': 'Cobra Starship', 'url': 'https://genius.com/artists/Cobra-starship'}, {'name': 'Daryl Hall', 'url': 'https://genius.com/artists/Daryl-hall'}, {'name': 'Gabe Saporta', 'url': 'https://genius.com/artists/Gabe-saporta'}, {'name': 'Jacob Kasher', 'url': 'https://genius.com/artists/Jacob-kasher'}, {'name': 'John Oates', 'url': 'https://genius.com/artists/John-oates'}, {'name': 'Kara DioGuardi', 'url': 'https://genius.com/artists/Kara-dioguardi'}, {'name': 'Kevin Rudolf', 'url': 'https://genius.com/artists/Kevin-rudolf'}, {'name': 'Michael Caren', 'url': 'https://genius.com/artists/Michael-caren'}, {'name': 'Mike Caren', 'url': 'https://genius.com/artists/Mike-caren'}, {'name': 'Nate Novarro', 'url': 'https://genius.com/artists/Nate-novarro'}, {'name': 'Nikesha Briscoe', 'url': 'https://genius.com/artists/Nikesha-briscoe'}, {'name': 'Oligee', 'url': 'https://genius.com/artists/Oligee'}, {'name': 'Patrick Stump', 'url': 'https://genius.com/artists/Patrick-stump'}, {'name': 'Philip Lawrence', 'url': 'https://genius.com/artists/Philip-lawrence'}, {'name': 'Rafael Akinyemi', 'url': 'https://genius.com/artists/Rafael-akinyemi'}, {'name': 'Ron Wood', 'url': 'https://genius.com/artists/Ron-wood'}, {'name': 'Ryland Blackinton', 'url': 'https://genius.com/artists/Ryland-blackinton'}, {'name': 'Sara Allen', 'url': 'https://genius.com/artists/Sara-allen'}, {'name': 'Vicky-T', 'url': 'https://genius.com/artists/Vicky-t'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Oasis/Heathen-chemistry', 'annotations': {'description': "&lt;p&gt;Heathen Chemistry is Oasis' fifth studio album, released in July 2002. However, most listeners knew the songs before that date, as the album was leaked around three months prior.&lt;/p&gt;\n\n&lt;p&gt;Teasing the album at Coachella, Liam Gallagher said it was “so good it will make you gay without having to be with a man”. Later, in an interview with Spin Magazine, he claimed he didn’t know what he was referring to, affirming “I say a load of  fucking shit.”&lt;/p&gt;", 'producers': [{'name': 'Oasis', 'url': 'https://genius.com/artists/Oasis'}], 'writers': [{'name': 'Andrew Bell', 'url': 'https://genius.com/artists/Andrew-bell'}, {'name': 'Gem Archer', 'url': 'https://genius.com/artists/Gem-archer'}, {'name': 'Liam Gallagher', 'url': 'https://genius.com/artists/Liam-gallagher'}, {'name': 'Noel Gallagher', 'url': 'https://genius.com/artists/Noel-gallagher'}], 'labels': [{'name': 'Big Brother Recordings', 'url': 'https://genius.com/artists/Big-brother-recordings'}]}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/albums/The-cloud-room/The-cloud-room', 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/albums/Lp/Death-valley-ep', 'annotations': {'description': '', 'producers': [{'name': 'Ben Romans', 'url': 'https://genius.com/artists/Ben-romans'}, {'name': 'David Thomas', 'url': 'https://genius.com/artists/David-thomas'}, {'name': 'Mike Del Rio', 'url': 'https://genius.com/artists/Mike-del-rio'}], 'writers': [{'name': 'Ben Romans', 'url': 'https://genius.com/artists/Ben-romans'}, {'name': 'David Thomas', 'url': 'https://genius.com/artists/David-thomas'}, {'name': 'Josh Record', 'url': 'https://genius.com/artists/Josh-record'}, {'name': 'LP', 'url': 'https://genius.com/artists/Lp'}, {'name': 'Mike Del Rio', 'url': 'https://genius.com/artists/Mike-del-rio'}, {'name': 'Nate Campany', 'url': 'https://genius.com/artists/Nate-campany'}], 'labels': [{'name': 'Vagrant Records', 'url': 'https://genius.com/artists/Vagrant-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Childish-gambino/Summer-pack', 'annotations': {'description': '&lt;p&gt;Early on July 11, without warning, Gambino shared &lt;a href="https://genius.com/Childish-gambino-summertime-magic-lyrics" rel="noopener" data-api_path="/songs/3831975"&gt;“Summertime Magic”&lt;/a&gt; and &lt;a href="https://genius.com/Childish-gambino-feels-like-summer-lyrics" rel="noopener" data-api_path="/songs/3831972"&gt;“Feels Like Summer.”&lt;/a&gt; The date is significant as it was released exactly in the middle of the summer.&lt;/p&gt;\n\n&lt;p&gt;The track “Summertime Magic” is the first official single from Gambino’s upcoming album that will be released through Wolf+Rothstein/RCA Records, and both records were co-written and co-produced by Gambino and longtime collaborator &lt;a href="https://genius.com/artists/Ludwig-goransson" rel="noopener" data-api_path="/artists/27935"&gt;Ludwig Göransson&lt;/a&gt;. The summer-centric cuts are bundled together on streaming services as a two-song single pack titled &lt;em&gt;Summer Pack&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Childish Gambino', 'url': 'https://genius.com/artists/Childish-gambino'}, {'name': 'Ludwig Göransson', 'url': 'https://genius.com/artists/Ludwig-goransson'}], 'writers': [{'name': 'Childish Gambino', 'url': 'https://genius.com/artists/Childish-gambino'}, {'name': 'Ludwig Göransson', 'url': 'https://genius.com/artists/Ludwig-goransson'}], 'labels': [{'name': '\u200bmcDJ Recording', 'url': 'https://genius.com/artists/Mcdj-recording'}, {'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}, {'name': 'Wolf + Rothstein', 'url': 'https://genius.com/artists/Wolf-rothstein'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Queen/Bohemian-rhapsody-the-original-soundtrack', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/14039054" rel="noopener" data-api_path="/referents/14039054"&gt;&lt;em&gt;Bohemian Rhapsody&lt;/em&gt;&lt;/a&gt; is the Oscar Award-winning &lt;a href="https://genius.com/artists/Freddie-mercury" rel="noopener" data-api_path="/artists/60493"&gt;Freddie Mercury&lt;/a&gt; biopic, released in the United Kingdom on October 23 and 24, 2018, and on November 2, 2018, in the United States. It captures the band’s original &lt;a href="https://genius.com/albums/Queen/Greatest-hits-uk" rel="noopener" data-api_path="/albums/128310"&gt;&lt;em&gt;Greatest Hits&lt;/em&gt;&lt;/a&gt; and landmark performances throughout their 20-year career. The major motion picture and accompanying soundtrack ignited a resurgence in the popularity of Queen’s music, driving the titular classic hit, 1975’s &lt;a href="https://genius.com/Queen-bohemian-rhapsody-lyrics" rel="noopener" data-api_path="/songs/1063"&gt;“Bohemian Rhapsody,”&lt;/a&gt; into its place as the &lt;a href="https://www.billboard.com/articles/business/streaming/8489673/queen-bohemian-rhapsody-20th-century-most-streamed-song" rel="noopener nofollow"&gt;20th Century’s most-streamed song&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Given Queen’s history of globe-trotting stadium spectacle, the movie shines a heavy spotlight on numbers culled from Queen’s live show. For example, mid-way through the film, a rendition of 1977’s &lt;a href="https://genius.com/Queen-we-will-rock-you-movie-mix-lyrics" rel="noopener" data-api_path="/songs/4006436"&gt;“We Will Rock You”&lt;/a&gt; morphs from its studio recording session into a live performance, augmenting the audience participation-factor that the group was famous for. The film’s centerpiece comprises &lt;a href="https://www.youtube.com/watch?v=pM2W7Kmnk_E" rel="noopener nofollow"&gt;cut scenes&lt;/a&gt; that detail the making of “Bohemian Rhapsody,” culminating in a &lt;a href="https://www.thewrap.com/bohemian-rhapsody-fact-check-label-resist-release-single/" rel="noopener nofollow"&gt;fictionalized encounter&lt;/a&gt; with a label executive who attempts to stifle the track’s release.&lt;/p&gt;\n\n&lt;p&gt;The soundtrack closes with one of Queen’s most beloved songs, 1979’s &lt;a href="https://genius.com/Queen-dont-stop-me-now-revisited-lyrics" rel="noopener" data-api_path="/songs/4006432"&gt;“Don’t Stop Me Now”&lt;/a&gt;—complete with new &lt;a href="https://genius.com/artists/Brian-may" rel="noopener" data-api_path="/artists/16631"&gt;Brian May&lt;/a&gt; guitar flourishes. The final track, &lt;a href="https://genius.com/Queen-the-show-must-go-on-2011-remaster-lyrics" rel="noopener" data-api_path="/songs/4006453"&gt;“The Show Must Go On,"&lt;/a&gt; is the appropriately anthemic coda to Mercury’s life; as well as the final cut on Queen’s last album, 1991’s &lt;a href="https://genius.com/albums/Queen/Innuendo" rel="noopener" data-api_path="/albums/16382"&gt;&lt;em&gt;Innuendo&lt;/em&gt;&lt;/a&gt;. Freddie Mercury succumbed to &lt;a href="https://www.theguardian.com/century/1990-1999/Story/0,,112639,00.html" rel="noopener nofollow"&gt;AIDS symptoms&lt;/a&gt; on November 24, 1991.&lt;/p&gt;', 'producers': [{'name': 'Brian May', 'url': 'https://genius.com/artists/Brian-may'}, {'name': 'David Bowie', 'url': 'https://genius.com/artists/David-bowie'}, {'name': 'David Richards', 'url': 'https://genius.com/artists/David-richards'}, {'name': 'Joshua J Macrae', 'url': 'https://genius.com/artists/Joshua-j-macrae'}, {'name': 'Justin Shirley-Smith', 'url': 'https://genius.com/artists/Justin-shirley-smith'}, {'name': 'Kris Fredriksson', 'url': 'https://genius.com/artists/Kris-fredriksson'}, {'name': 'Queen', 'url': 'https://genius.com/artists/Queen'}, {'name': 'Reinhold Mack', 'url': 'https://genius.com/artists/Reinhold-mack'}, {'name': 'Roberto Medina', 'url': 'https://genius.com/artists/Roberto-medina'}, {'name': 'Roger Taylor', 'url': 'https://genius.com/artists/Roger-taylor'}, {'name': 'Roy Thomas Baker', 'url': 'https://genius.com/artists/Roy-thomas-baker'}], 'writers': [{'name': 'Alfred Newman', 'url': 'https://genius.com/artists/Alfred-newman'}, {'name': 'Brian May', 'url': 'https://genius.com/artists/Brian-may'}, {'name': 'David Bowie', 'url': 'https://genius.com/artists/David-bowie'}, {'name': 'Freddie Mercury', 'url': 'https://genius.com/artists/Freddie-mercury'}, {'name': 'John Deacon', 'url': 'https://genius.com/artists/John-deacon'}, {'name': 'Roger Taylor', 'url': 'https://genius.com/artists/Roger-taylor'}, {'name': 'Tim Staffell', 'url': 'https://genius.com/artists/Tim-staffell'}], 'labels': [{'name': 'Elektra Records', 'url': 'https://genius.com/artists/Elektra-records'}, {'name': 'EMI Group Limited', 'url': 'https://genius.com/artists/Emi-group-limited'}, {'name': 'EMI UK', 'url': 'https://genius.com/artists/Emi-uk'}, {'name': 'Hollywood Records', 'url': 'https://genius.com/artists/Hollywood-records'}, {'name': 'Parlophone Records', 'url': 'https://genius.com/artists/Parlophone-records'}, {'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Papa-roach/Infest', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Infest&lt;/em&gt;, released on April 25, 2000, is the sophomore album by Vacaville, CA natives Papa Roach.&lt;/p&gt;\n\n&lt;p&gt;Much of the album contains rapping over Hard Rock and Metal melodies. This sub-genre has come to be known as nu-metal.&lt;/p&gt;\n\n&lt;p&gt;This album was nominated for a Best New Artist Grammy. &lt;em&gt;Infest&lt;/em&gt; sold over three million copies in U.S., making it the 20th highest-selling album of 2000 in the United States. It sold seven million copies worldwide, peaking at #5 on the Billboard charts.&lt;/p&gt;', 'producers': [{'name': 'Jay Baumgardner', 'url': 'https://genius.com/artists/Jay-baumgardner'}], 'writers': [{'name': 'Dave Buckner', 'url': 'https://genius.com/artists/Dave-buckner'}, {'name': 'Jacoby Shaddix', 'url': 'https://genius.com/artists/Jacoby-shaddix'}, {'name': 'Jerry Horton', 'url': 'https://genius.com/artists/Jerry-horton'}, {'name': 'Tobin Esperance', 'url': 'https://genius.com/artists/Tobin-esperance'}], 'labels': [{'name': 'DreamWorks Records', 'url': 'https://genius.com/artists/Dreamworks-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Green-day/Father-of-all-motherfuckers', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Father of All Motherfuckers&lt;/em&gt; (often shortened to &lt;em&gt;Father of All…&lt;/em&gt; as a &lt;a href="https://www.merriam-webster.com/dictionary/G-rated" rel="noopener nofollow"&gt;G rated&lt;/a&gt; title for media and promotion), Green Day’s thirteenth studio album, comes after the critically acclaimed 2016 &lt;a href="https://genius.com/albums/Green-day/Revolution-radio" rel="noopener" data-api_path="/albums/163170"&gt;&lt;em&gt;Revolution Radio&lt;/em&gt;&lt;/a&gt;. Lyrically, &lt;a href="https://www.youtube.com/watch?v=9xtAYY04_p0" rel="noopener nofollow"&gt;according to Armstrong&lt;/a&gt;, the record holds no specific theme; it’s a conglomerate mess of ‘not giving a fuck’. The first single &lt;a href="https://genius.com/Green-day-father-of-all-lyrics" rel="noopener" data-api_path="/songs/4856630"&gt;“Father of All…”&lt;/a&gt; was released on September 10, 2019, alongside the announcement of the &lt;a href="https://www.billboard.com/articles/business/8529565/hella-mega-tour-green-day-fall-out-boy-weezer-dates" rel="noopener nofollow"&gt;&lt;em&gt;Hella Mega Tour&lt;/em&gt;&lt;/a&gt; with &lt;a href="https://genius.com/artists/Fall-out-boy" rel="noopener" data-api_path="/artists/7811"&gt;Fall Out Boy&lt;/a&gt; and &lt;a href="https://genius.com/artists/Weezer" rel="noopener" data-api_path="/artists/12925"&gt;Weezer&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The album was originally believed to be a “fuck you” to &lt;a href="https://genius.com/artists/Warner-music-group-nashville" rel="noopener" data-api_path="/artists/1112276"&gt;Warner Music&lt;/a&gt; and &lt;a href="https://genius.com/artists/Reprise-records" rel="noopener" data-api_path="/artists/1096096"&gt;Reprise&lt;/a&gt;, the labels Green Day have been signed to for several years since their breakout album &lt;a href="https://genius.com/albums/Green-day/Dookie" rel="noopener" data-api_path="/albums/14245"&gt;&lt;i&gt;Dookie&lt;/i&gt;&lt;/a&gt;. Apparently, they had one last album in their contract, so they decided to release this record, a 26-minute exit statement (since an album is considered an LP when it’s over 25 minutes) with only 10 tracks, and then release something else on their own. This all started after several leaks and snipped apparently showed Green Day in the studio recording an album titled &lt;a href="https://genius.com/albums/Panicland/Magnum-opus-of-the-inglorious-kind" rel="noopener" data-api_path="/albums/598931"&gt;&lt;em&gt;Magnum Opus of the Inglorious Kind&lt;/em&gt;&lt;/a&gt;. This was actually a prank made by the band &lt;a href="https://genius.com/artists/Panicland" rel="noopener" data-api_path="/artists/1015328"&gt;Panicland&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/HgbAAuDLutY?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;The second single &lt;a href="https://genius.com/Green-day-fire-ready-aim-lyrics" rel="noopener" data-api_path="/songs/4911310"&gt;“Fire, Ready, Aim,”&lt;/a&gt; which debuted on October 10&lt;sup&gt;th&lt;/sup&gt;, sees the band’s entrance into a &lt;a href="https://www.nhl.com/news/nhl-green-day-two-year-partnership/c-309587012" rel="noopener nofollow"&gt;2-year-partnership contract with the NHL&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The third single &lt;a href="https://genius.com/Green-day-oh-yeah-lyrics" rel="noopener" data-api_path="/songs/5157354"&gt;“Oh Yeah!,”&lt;/a&gt; which was originally titled “Bulletproof Backpack”, released January 16&lt;sup&gt;th&lt;/sup&gt;.&lt;/p&gt;', 'producers': [{'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}, {'name': 'Butch Walker', 'url': 'https://genius.com/artists/Butch-walker'}, {'name': 'Chris Dugan', 'url': 'https://genius.com/artists/Chris-dugan'}, {'name': 'Green Day', 'url': 'https://genius.com/artists/Green-day'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}], 'writers': [{'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Afi/Decemberunderground', 'annotations': {'description': '&lt;p&gt;“Decemberunderground” is the seventh studio album by &lt;a href="https://genius.com/artists/Afi" rel="noopener" data-api_path="/artists/36520"&gt;AFI&lt;/a&gt;, which was released on June 6, 2006 through &lt;a href="https://genius.com/artists/Interscope-records" rel="noopener" data-api_path="/artists/143490"&gt;Interscope Records&lt;/a&gt;. There are three singles featured in the album, which include &lt;a href="https://genius.com/Afi-miss-murder-lyrics" rel="noopener" data-api_path="/songs/221444"&gt;Miss Murder&lt;/a&gt;, &lt;a href="https://genius.com/Afi-love-like-winter-lyrics" rel="noopener" data-api_path="/songs/748583"&gt;Love Like Winter&lt;/a&gt;, and &lt;a href="https://genius.com/Afi-the-missing-frame-lyrics" rel="noopener" data-api_path="/songs/775292"&gt;The Missing Frame&lt;/a&gt;. The album debuted number one on the &lt;a href="https://genius.com/artists/Billboard" rel="noopener" data-api_path="/artists/34510"&gt;Billboard&lt;/a&gt; 200, which had 182,000 copies sold by the first week. Decemberunderground was certified gold by RIAA (Recording Industry Association of America) on August 30, 2006. In March 2007, AFI went on a short west coast tour based on the album. Also, as of September 2009, there were about 993,000 copies sold of the album in the United States. To add along, Decemberunderground hit platinum in April 2013.&lt;/p&gt;', 'producers': [{'name': 'Jerry Finn', 'url': 'https://genius.com/artists/Jerry-finn'}], 'writers': [{'name': 'Adam Carson', 'url': 'https://genius.com/artists/Adam-carson'}, {'name': 'AFI', 'url': 'https://genius.com/artists/Afi'}, {'name': 'Davey Havok', 'url': 'https://genius.com/artists/Davey-havok'}, {'name': 'Hunter Burgan', 'url': 'https://genius.com/artists/Hunter-burgan'}, {'name': 'Jade Puget', 'url': 'https://genius.com/artists/Jade-puget'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Arctic-monkeys/Favourite-worst-nightmare', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Favourite Worst Nightmare&lt;/em&gt; is Arctic Monkeys\' second studio album, and a follow up to the grimy, uncut &lt;a href="https://genius.com/albums/Arctic-monkeys/Whatever-people-say-i-am-that-s-what-i-m-not" rel="noopener" data-api_path="/albums/13108"&gt;&lt;em&gt;Whatever People Say I Am, That’s What I’m Not&lt;/em&gt;&lt;/a&gt;. The album was an ambitious step forward from their debut, with much cleaner sounds and tighter hooks. The melodies are reminiscent of influences from &lt;a href="https://genius.com/artists/The-strokes" rel="noopener" data-api_path="/artists/12524"&gt;The Strokes&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-smiths" rel="noopener" data-api_path="/artists/16669"&gt;The Smiths&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Frontman Alex Turner explained the album title &lt;a href="https://www.uncut.co.uk/features/alex-turner-q-a-42884/" rel="noopener nofollow"&gt;during an interview for UNCUT&lt;/a&gt;.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;This time it’s from a lyric in one of the songs. I’ve been finding it hard to describe, actually. But there’s a lyric in the ’D is for Dangerous\' song, and it seemed to tick all the boxes for what we were after in a title. As far as concerns what is your favourite worst nightmare, I think I’d describe it by saying it’s like someone with a gambling addiction – they get something out of it, but they know it’s bad for them. But in the song it’s more to do with… a woman.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In the same interview, he described the recording process:&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;The recording of the first one was a swift thing, because we had all the songs and the order and everything all planned. We’d also played all of those songs live, and we’d had some of them for a year, even then. With these songs, we hadn’t played the before recording them – we’ve played them at three gigs so far, six of the ones off the record and one B-side.&lt;/p&gt;\n\n&lt;p&gt;We spent a bit more time, because we’re a bit more into sounds – there’d be bits, or guitar sounds that we liked, and wanted to do bits like that. The drum sounds we wanted to get sounding really fat. We did a session with [producers] James Ford and Mike Crossley on the last record and got on really well, and wanted to do something else – all year round I was thinking, ‘I want to try with them two…’. They were very involved in getting the sounds.&lt;/p&gt;\n&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;em&gt;Favourite Worst Nightmare&lt;/em&gt; &lt;a href="https://www.billboard.com/music/arctic-monkeys/chart-history/billboard-200/song/527331" rel="noopener nofollow"&gt;peaked at #7&lt;/a&gt; on the Billboard 200, about three weeks after its initial release. The LP stayed on the chart for 8 weeks.&lt;/p&gt;', 'producers': [{'name': 'James Ford', 'url': 'https://genius.com/artists/James-ford'}, {'name': 'Mike Crossey', 'url': 'https://genius.com/artists/Mike-crossey'}], 'writers': [{'name': 'Alex Turner', 'url': 'https://genius.com/artists/Alex-turner'}, {'name': 'Johanna Bennett', 'url': 'https://genius.com/artists/Johanna-bennett'}, {'name': 'Jon McClure', 'url': 'https://genius.com/artists/Jon-mcclure'}], 'labels': [{'name': 'Domino Recording Company', 'url': 'https://genius.com/artists/Domino-recording-company'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/The-strokes/Angles', 'annotations': {'description': '&lt;p&gt;Angles is the fourth studio album by The Strokes, released on March 18, 2011.&lt;/p&gt;\n\n&lt;p&gt;5 years following the polarizing and raw First Impressions of Earth in 2006, The Strokes take a more pop direction with a lot of variety between tracks on Angles.&lt;/p&gt;\n\n&lt;p&gt;The recording during Angles proved to be difficult. Julian Casablancas who previously had written most of the Strokes material had stepped back a bit to allow the rest of the band pick up songwriting duties. .He did this by recording vocals separately in New York and sending them to the band electronically. Nick Valensi is quoted describing the situation as incredibly frustrating, and that he wouldn’t do another record if it was done again. Albert Hammond Jr. drug abuse and resulting rehab was also another hurdle in recording.&lt;/p&gt;\n\n&lt;p&gt;It was generally well received by the media and contains many fan favorites such as “Machu Picchu”, “Under Cover of Darkness, "Taken For a Fool”, and “Life Is Simple In the Moonlight.&lt;/p&gt;', 'producers': [{'name': 'Gus Oberg', 'url': 'https://genius.com/artists/Gus-oberg'}, {'name': 'Joe Chiccarelli', 'url': 'https://genius.com/artists/Joe-chiccarelli'}, {'name': 'The Strokes', 'url': 'https://genius.com/artists/The-strokes'}], 'writers': [{'name': 'Albert Hammond Jr.', 'url': 'https://genius.com/artists/Albert-hammond-jr'}, {'name': 'Fabrizio Moretti', 'url': 'https://genius.com/artists/Fabrizio-moretti'}, {'name': 'Julian Casablancas', 'url': 'https://genius.com/artists/Julian-casablancas'}, {'name': 'Nick Valensi', 'url': 'https://genius.com/artists/Nick-valensi'}, {'name': 'Nikolai Fraiture', 'url': 'https://genius.com/artists/Nikolai-fraiture'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Ellie-goulding/Burn-remixes', 'annotations': {'description': '', 'producers': [{'name': 'Magic Man', 'url': 'https://genius.com/artists/Magic-man'}, {'name': 'Maths Time Joy', 'url': 'https://genius.com/artists/Maths-time-joy'}, {'name': 'Mat Zo', 'url': 'https://genius.com/artists/Mat-zo'}, {'name': 'Tiësto', 'url': 'https://genius.com/artists/Tiesto'}], 'writers': [{'name': 'Brent Kutzle', 'url': 'https://genius.com/artists/Brent-kutzle'}, {'name': 'Ellie Goulding', 'url': 'https://genius.com/artists/Ellie-goulding'}, {'name': 'Greg Kurstin', 'url': 'https://genius.com/artists/Greg-kurstin'}, {'name': 'Noel Zancanella', 'url': 'https://genius.com/artists/Noel-zancanella'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Live-band/Throwing-copper', 'annotations': {'description': '&lt;p&gt;Produced by Jerry Harrison of &lt;a href="https://genius.com/artists/Talking-heads" rel="noopener" data-api_path="/artists/13347"&gt;Talking Heads&lt;/a&gt;, to date the album has sold over eight million copies. Purchase your’s &lt;a href="http://www.amazon.com/Throwing-Copper-Live/dp/B000003BR4" rel="noopener nofollow"&gt;here&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Jerry Harrison', 'url': 'https://genius.com/artists/Jerry-harrison'}, {'name': 'LIVE (Band)', 'url': 'https://genius.com/artists/Live-band'}], 'writers': [{'name': 'Chad Gracey', 'url': 'https://genius.com/artists/Chad-gracey'}, {'name': 'Chad Taylor', 'url': 'https://genius.com/artists/Chad-taylor'}, {'name': 'Ed Kowalczyk', 'url': 'https://genius.com/artists/Ed-kowalczyk'}, {'name': 'LIVE (Band)', 'url': 'https://genius.com/artists/Live-band'}, {'name': 'Patrick Dahlheimer', 'url': 'https://genius.com/artists/Patrick-dahlheimer'}], 'labels': [{'name': 'Radioactive Records', 'url': 'https://genius.com/artists/Radioactive-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/The-rasmus/Best-of-the-rasmus-20012009', 'annotations': {'description': '', 'producers': [{'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'Harry Sommerdahl', 'url': 'https://genius.com/artists/Harry-sommerdahl'}, {'name': 'Martin Hansen', 'url': 'https://genius.com/artists/Martin-hansen'}, {'name': 'Mikael Nord', 'url': 'https://genius.com/artists/Mikael-nord'}], 'writers': [{'name': 'Aki Hakala', 'url': 'https://genius.com/artists/Aki-hakala'}, {'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'Eero Heinonen', 'url': 'https://genius.com/artists/Eero-heinonen'}, {'name': 'Harry Sommerdahl', 'url': 'https://genius.com/artists/Harry-sommerdahl'}, {'name': 'James Michael', 'url': 'https://genius.com/artists/James-michael'}, {'name': 'Lauri', 'url': 'https://genius.com/artists/Lauri'}, {'name': 'Pauli Rantasalmi', 'url': 'https://genius.com/artists/Pauli-rantasalmi'}, {'name': 'The Rasmus', 'url': 'https://genius.com/artists/The-rasmus'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Everclear/So-much-for-the-afterglow', 'annotations': {'description': '&lt;p&gt;Everclear’s third studio album remains their best-selling album to date, likely because it launched the band into mainstream air and video play, attracting many new fans. The band toned down their heavy sound slightly, but so many of the lyrics could be interpreted in ways that made a number of people relate to them, making them willing to shout along with songs that may have been slightly louder and crunchier than what they normally listened to.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;So Much for the Afterglow&lt;/em&gt; delivered a number of popular, relatable singles: “&lt;a href="https://genius.com/Everclear-everything-to-everyone-lyrics" rel="noopener" data-api_path="/songs/2141204"&gt;Everything to Everyone&lt;/a&gt;”, “&lt;a href="https://genius.com/Everclear-i-will-buy-you-a-new-life-lyrics" rel="noopener" data-api_path="/songs/416685"&gt;I Will Buy You a New Life&lt;/a&gt;”, “&lt;a href="https://genius.com/Everclear-father-of-mine-lyrics" rel="noopener" data-api_path="/songs/85560"&gt;Father of Mine&lt;/a&gt;”, “&lt;a href="https://genius.com/Everclear-so-much-for-the-afterglow-lyrics" rel="noopener" data-api_path="/songs/738298"&gt;So Much for the Afterglow&lt;/a&gt;”, and “&lt;a href="https://genius.com/Everclear-one-hit-wonder-lyrics" rel="noopener" data-api_path="/songs/939402"&gt;One Hit Wonder&lt;/a&gt;.”&lt;/p&gt;', 'producers': [{'name': 'Art Alexakis', 'url': 'https://genius.com/artists/Art-alexakis'}, {'name': 'Neal Avron', 'url': 'https://genius.com/artists/Neal-avron'}], 'writers': [{'name': 'Art Alexakis', 'url': 'https://genius.com/artists/Art-alexakis'}, {'name': 'Craig Montoya', 'url': 'https://genius.com/artists/Craig-montoya'}, {'name': 'Greg Eklund', 'url': 'https://genius.com/artists/Greg-eklund'}, {'name': 'Nobuyoshi Koshibe', 'url': 'https://genius.com/artists/Nobuyoshi-koshibe'}, {'name': 'Peter Fernandez', 'url': 'https://genius.com/artists/Peter-fernandez'}, {'name': 'Rick Nielsen', 'url': 'https://genius.com/artists/Rick-nielsen'}, {'name': 'Tom Petersson', 'url': 'https://genius.com/artists/Tom-petersson'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Kiss/Animalize', 'annotations': {'description': '', 'producers': [{'name': 'Paul Stanley', 'url': 'https://genius.com/artists/Paul-stanley'}], 'writers': [{'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'Eric Carr', 'url': 'https://genius.com/artists/Eric-carr'}, {'name': 'Gene Simmons', 'url': 'https://genius.com/artists/Gene-simmons'}, {'name': 'Jean Beauvoir', 'url': 'https://genius.com/artists/Jean-beauvoir'}, {'name': 'Mitch Weissman', 'url': 'https://genius.com/artists/Mitch-weissman'}, {'name': 'Paul Stanley', 'url': 'https://genius.com/artists/Paul-stanley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/The-offspring/Splinter', 'annotations': {'description': '&lt;p&gt;“Splinter” is the seventh studio released album by &lt;a href="https://genius.com/artists/The-offspring" rel="noopener" data-api_path="/artists/8353"&gt;The Offspring&lt;/a&gt;, Released on December 9, 2003.&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'Dexter Holland', 'url': 'https://genius.com/artists/Dexter-holland'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Tlc/Fanmail', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;FanMail&lt;/em&gt; is TLC’s third studio album. It was released on February 23, 1999 by LaFace Records. The title of the album is a tribute to their fans who sent them fan mail during their five year gap between their previous album, &lt;em&gt;CrazySexyCool&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;FanMail&lt;/em&gt; debuted at number one on the US Billboard 200, selling approximately 318,000 copies in its first week of release, and spent five weeks at number one.&lt;/p&gt;\n\n&lt;p&gt;The album received 8 Grammy nominations at the 42nd Annual Grammy Awards, including one for Album of the Year, and won three. As of 2000, the album has been certified 6× Platinum by the RIAA, and has sold over 14 million copies worldwide.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;FanMail&lt;/em&gt; is TLC’s second best-selling album after 1994’s &lt;em&gt;CrazySexyCool&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Babyface', 'url': 'https://genius.com/artists/Babyface'}, {'name': 'Dallas Austin', 'url': 'https://genius.com/artists/Dallas-austin'}, {'name': 'Daryl Simmons', 'url': 'https://genius.com/artists/Daryl-simmons'}, {'name': 'Debra Killings', 'url': 'https://genius.com/artists/Debra-killings'}, {'name': 'Jermaine Dupri', 'url': 'https://genius.com/artists/Jermaine-dupri'}, {'name': 'Jimmy Jam &amp; Terry Lewis', 'url': 'https://genius.com/artists/Jimmy-jam-and-terry-lewis'}, {'name': 'Kevin Briggs', 'url': 'https://genius.com/artists/Kevin-briggs'}, {'name': 'Rico Lumpkins', 'url': 'https://genius.com/artists/Rico-lumpkins'}], 'writers': [{'name': 'Babyface', 'url': 'https://genius.com/artists/Babyface'}, {'name': 'Chilli', 'url': 'https://genius.com/artists/Chilli'}, {'name': 'Dallas Austin', 'url': 'https://genius.com/artists/Dallas-austin'}, {'name': 'Daryl Simmons', 'url': 'https://genius.com/artists/Daryl-simmons'}, {'name': 'Diane Warren', 'url': 'https://genius.com/artists/Diane-warren'}, {'name': 'Donna Summer', 'url': 'https://genius.com/artists/Donna-summer'}, {'name': 'Giorgio Moroder', 'url': 'https://genius.com/artists/Giorgio-moroder'}, {'name': 'Jermaine Dupri', 'url': 'https://genius.com/artists/Jermaine-dupri'}, {'name': 'Jimmy Jam &amp; Terry Lewis', 'url': 'https://genius.com/artists/Jimmy-jam-and-terry-lewis'}, {'name': 'Kandi', 'url': 'https://genius.com/artists/Kandi'}, {'name': 'Kevin Briggs', 'url': 'https://genius.com/artists/Kevin-briggs'}, {'name': 'Lisa “Left Eye” Lopes', 'url': 'https://genius.com/artists/Lisa-left-eye-lopes'}, {'name': 'Marshall Lorenzo Martin', 'url': 'https://genius.com/artists/Marshall-lorenzo-martin'}, {'name': 'Pete Bellotte', 'url': 'https://genius.com/artists/Pete-bellotte'}, {'name': 'Rick James', 'url': 'https://genius.com/artists/Rick-james'}, {'name': 'Tamara Savage', 'url': 'https://genius.com/artists/Tamara-savage'}, {'name': 'Tameka “Tiny” Harris', 'url': 'https://genius.com/artists/Tameka-tiny-harris'}, {'name': 'T-Boz', 'url': 'https://genius.com/artists/T-boz'}, {'name': 'Tony “Prof-T” Tolbert', 'url': 'https://genius.com/artists/Tony-prof-t-tolbert'}, {'name': 'War', 'url': 'https://genius.com/artists/War'}], 'labels': [{'name': 'LaFace Records', 'url': 'https://genius.com/artists/Laface-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Robbie-williams/Life-thru-a-lens', 'annotations': {'description': '&lt;p&gt;Robbie’s first solo album, released September 29, 1997.&lt;/p&gt;\n\n&lt;p&gt;Although doing moderately well at first, after the hit success of &lt;a href="https://genius.com/Robbie-williams-angels-lyrics" rel="noopener" data-api_path="/songs/122487"&gt;“Angels”,&lt;/a&gt; the album steadily climbed to number one in the UK charts. Nowadays, it’s Robbie’s fourth best-selling album.&lt;/p&gt;\n\n&lt;p&gt;Other singles are &lt;a href="https://genius.com/Robbie-williams-lazy-days-lyrics" rel="noopener" data-api_path="/songs/1215059"&gt;“Lazy Days”,&lt;/a&gt; &lt;a href="https://genius.com/Robbie-williams-south-of-the-border-lyrics" rel="noopener" data-api_path="/songs/1528234"&gt;“South of the Border”,&lt;/a&gt; &lt;a href="https://genius.com/Robbie-williams-old-before-i-die-lyrics" rel="noopener" data-api_path="/songs/1629181"&gt;“Old Before I Die”&lt;/a&gt; and &lt;a href="https://genius.com/Robbie-williams-let-me-entertain-you-lyrics" rel="noopener" data-api_path="/songs/124111"&gt;“Let Me Entertain You”.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}, {'name': 'Steve Power', 'url': 'https://genius.com/artists/Steve-power'}], 'writers': [{'name': 'Antony Genn', 'url': 'https://genius.com/artists/Antony-genn'}, {'name': 'Chris Lowe', 'url': 'https://genius.com/artists/Chris-lowe'}, {'name': 'Colin Moulding', 'url': 'https://genius.com/artists/Colin-moulding'}, {'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'Eric Bazilian', 'url': 'https://genius.com/artists/Eric-bazilian'}, {'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}, {'name': 'Martin Slattery', 'url': 'https://genius.com/artists/Martin-slattery'}, {'name': 'Neil Tennant', 'url': 'https://genius.com/artists/Neil-tennant'}, {'name': 'Pablo Cook', 'url': 'https://genius.com/artists/Pablo-cook'}, {'name': 'Ray Heffernan', 'url': 'https://genius.com/artists/Ray-heffernan'}, {'name': 'Richard Hawley', 'url': 'https://genius.com/artists/Richard-hawley'}, {'name': 'Robbie Williams', 'url': 'https://genius.com/artists/Robbie-williams'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Timbaland/Shock-value', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Shock Value&lt;/em&gt; is the second studio album by American producer, &lt;a href="https://genius.com/artists/Timbaland" rel="noopener" data-api_path="/artists/112"&gt;Timbaland&lt;/a&gt;, released on April 3, 2007 by &lt;a href="http://mosleymusicgroup.com/about/" rel="noopener nofollow"&gt;Mosley Music Group&lt;/a&gt; (distributed by Interscope Records) and Blackground Records. It features a variety of artists such as &lt;a href="https://genius.com/artists/Fall-out-boy" rel="noopener" data-api_path="/artists/7811"&gt;Fall Out Boy&lt;/a&gt;, Justin Timberlake, &lt;a href="https://genius.com/artists/The-hives" rel="noopener" data-api_path="/artists/7812"&gt;The Hives&lt;/a&gt;, Keri Hilson, Nelly Furtado, &lt;a href="https://genius.com/artists/Missy-elliott" rel="noopener" data-api_path="/artists/1529"&gt;Missy Elliott&lt;/a&gt;, &lt;a href="https://genius.com/artists/50-cent" rel="noopener" data-api_path="/artists/108"&gt;50 Cent&lt;/a&gt;, &lt;a href="https://genius.com/artists/Tony-yayo" rel="noopener" data-api_path="/artists/556"&gt;Tony Yayo&lt;/a&gt;, &lt;a href="https://genius.com/artists/Dr-dre" rel="noopener" data-api_path="/artists/123"&gt;Dr. Dre&lt;/a&gt;, OneRepublic, &lt;a href="https://genius.com/artists/Elton-john" rel="noopener" data-api_path="/artists/560"&gt;Elton John&lt;/a&gt;, &lt;a href="https://genius.com/artists/Magoo" rel="noopener" data-api_path="/artists/7793"&gt;Magoo&lt;/a&gt; and &lt;a href="https://genius.com/artists/Nicole-scherzinger" rel="noopener" data-api_path="/artists/2829"&gt;Nicole Scherzinger&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The project became a phenomenon in the musician’s career, reaching at its peak number five in United States, number two in the United Kingdom and Canada, and number four in Poland, Denmark and New Zealand. It also topped the Australian, Austrian and Irish album charts.&lt;/p&gt;\n\n&lt;p&gt;Five singles were released to promote &lt;em&gt;Shock Value&lt;/em&gt;.&lt;br&gt;\nThe &lt;a href="https://www.grammy.com/grammys/artists/tim-mosley" rel="noopener nofollow"&gt;Grammy-nominated&lt;/a&gt; &lt;a href="https://genius.com/Timbaland-give-it-to-me-lyrics" rel="noopener" data-api_path="/songs/30280"&gt;“Give It to Me”&lt;/a&gt; featured frequent collaborators &lt;a href="https://genius.com/artists/Justin-timberlake" rel="noopener" data-api_path="/artists/334"&gt;Justin Timberlake&lt;/a&gt; and &lt;a href="https://genius.com/artists/Nelly-furtado" rel="noopener" data-api_path="/artists/1505"&gt;Nelly Furtado&lt;/a&gt; and was released on February 6, 2007. It became his only #1 single in the US to date, but &lt;a href="http://www.mtv.com/news/1554268/i-had-to-speak-up-scott-storch-responds-to-timbalands-jabs/" rel="noopener nofollow"&gt;spawned a controversy&lt;/a&gt; between the producer and &lt;a href="https://genius.com/artists/Scott-storch" rel="noopener" data-api_path="/artists/10233"&gt;Scott Storch&lt;/a&gt;, saying in his verse:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’m a real producer and you just a piano man&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The fan-favourite second single, &lt;a href="https://genius.com/Timbaland-the-way-i-are-lyrics" rel="noopener" data-api_path="/songs/30290"&gt;“The Way I Are”&lt;/a&gt; featured vocals from &lt;a href="https://genius.com/artists/Keri-hilson" rel="noopener" data-api_path="/artists/759"&gt;Keri Hillson&lt;/a&gt; and &lt;a href="https://genius.com/artists/Doe" rel="noopener" data-api_path="/artists/1788989"&gt;D.O.E.&lt;/a&gt;. It made its official premiere at the beginning of July the same year, reaching #1 in the United Kingdom, Scotland, Australia, Canada, Hungary, Denmark, Norway, and the Top 5 in 14 countries.&lt;/p&gt;\n\n&lt;p&gt;The soul-ish inspired third single featuring &lt;a href="https://genius.com/artists/Onerepublic" rel="noopener" data-api_path="/artists/934"&gt;OneRepublic&lt;/a&gt;, &lt;a href="https://genius.com/Timbaland-apologize-lyrics" rel="noopener" data-api_path="/songs/1830"&gt;“Apologize,”&lt;/a&gt; dropped in September, receiving major commercial success and peaking at #1 on 16 charts.&lt;/p&gt;\n\n&lt;p&gt;The final two, albeit less popular, singles were &lt;a href="https://genius.com/Timbaland-scream-lyrics" rel="noopener" data-api_path="/songs/75683"&gt;“Scream”&lt;/a&gt; and &lt;a href="https://genius.com/Timbaland-throw-it-on-me-lyrics" rel="noopener" data-api_path="/songs/30285"&gt;“Throw It on Me,”&lt;/a&gt; dropping shortly before the release of the album.&lt;/p&gt;', 'producers': [{'name': 'Boss Beats', 'url': 'https://genius.com/artists/Boss-beats'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'Elton John', 'url': 'https://genius.com/artists/Elton-john'}, {'name': 'Greg Wells', 'url': 'https://genius.com/artists/Greg-wells'}, {'name': 'Hannon Lane', 'url': 'https://genius.com/artists/Hannon-lane'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Walter Millsap III', 'url': 'https://genius.com/artists/Walter-millsap-iii'}], 'writers': [{'name': '50 Cent', 'url': 'https://genius.com/artists/50-cent'}, {'name': 'Adam Bravin', 'url': 'https://genius.com/artists/Adam-bravin'}, {'name': 'Amar', 'url': 'https://genius.com/artists/Amar'}, {'name': 'Attitude', 'url': 'https://genius.com/artists/Attitude'}, {'name': 'Candice Nelson', 'url': 'https://genius.com/artists/Candice-nelson'}, {'name': 'Claydes Smith', 'url': 'https://genius.com/artists/Claydes-smith'}, {'name': 'The Clutch (Songwriting Team)', 'url': 'https://genius.com/artists/The-clutch-songwriting-team'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'D.O.E. (Rapper)', 'url': 'https://genius.com/artists/Doe-rapper'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Dwight Watson', 'url': 'https://genius.com/artists/Dwight-watson'}, {'name': 'Elton John', 'url': 'https://genius.com/artists/Elton-john'}, {'name': 'Eumir Deodato', 'url': 'https://genius.com/artists/Eumir-deodato'}, {'name': 'Frank Greenfield', 'url': 'https://genius.com/artists/Frank-greenfield'}, {'name': 'Garland “Sebastian” Mosley', 'url': 'https://genius.com/artists/Garland-sebastian-mosley'}, {'name': 'George Brown', 'url': 'https://genius.com/artists/George-brown'}, {'name': 'Hannon Lane', 'url': 'https://genius.com/artists/Hannon-lane'}, {'name': 'James “J.T.” Taylor', 'url': 'https://genius.com/artists/James-jt-taylor'}, {'name': 'James Moore', 'url': 'https://genius.com/artists/James-moore'}, {'name': 'JAY-Z', 'url': 'https://genius.com/artists/Jay-z'}, {'name': 'Jim Beanz', 'url': 'https://genius.com/artists/Jim-beanz'}, {'name': 'Justin Timberlake', 'url': 'https://genius.com/artists/Justin-timberlake'}, {'name': 'Justin Warfield', 'url': 'https://genius.com/artists/Justin-warfield'}, {'name': 'Keri Hilson', 'url': 'https://genius.com/artists/Keri-hilson'}, {'name': 'Khalis Bayyan', 'url': 'https://genius.com/artists/Khalis-bayyan'}, {'name': 'Kurtis Blow', 'url': 'https://genius.com/artists/Kurtis-blow'}, {'name': 'Lamar Van Sciver', 'url': 'https://genius.com/artists/Lamar-van-sciver'}, {'name': '“Legs” Larry Smith (musician)', 'url': 'https://genius.com/artists/Legs-larry-smith-musician'}, {'name': 'Magoo', 'url': 'https://genius.com/artists/Magoo'}, {'name': 'M.I.A.', 'url': 'https://genius.com/artists/Mia'}, {'name': 'Missy Elliott', 'url': 'https://genius.com/artists/Missy-elliott'}, {'name': 'Nelly Furtado', 'url': 'https://genius.com/artists/Nelly-furtado'}, {'name': 'Nina Simone', 'url': 'https://genius.com/artists/Nina-simone'}, {'name': 'Patrick Stump', 'url': 'https://genius.com/artists/Patrick-stump'}, {'name': 'Pete Wentz', 'url': 'https://genius.com/artists/Pete-wentz'}, {'name': 'Randy Fitzsimmons', 'url': 'https://genius.com/artists/Randy-fitzsimmons'}, {'name': 'Robert Ford Jr.', 'url': 'https://genius.com/artists/Robert-ford-jr'}, {'name': 'Robert “Kool” Bell', 'url': 'https://genius.com/artists/Robert-kool-bell'}, {'name': 'Robert Spike Mickens', 'url': 'https://genius.com/artists/Robert-spike-mickens'}, {'name': 'Russell Simmons', 'url': 'https://genius.com/artists/Russell-simmons'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Six2', 'url': 'https://genius.com/artists/Six2'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Tony Yayo', 'url': 'https://genius.com/artists/Tony-yayo'}, {'name': 'Walter Millsap III', 'url': 'https://genius.com/artists/Walter-millsap-iii'}], 'labels': [{'name': 'Blackground Records', 'url': 'https://genius.com/artists/Blackground-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Mosley Music Group', 'url': 'https://genius.com/artists/Mosley-music-group'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'XL Recordings', 'url': 'https://genius.com/artists/Xl-recordings'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Morrissey/Viva-hate', 'annotations': {'description': '&lt;p&gt;After his former band &lt;a href="https://genius.com/artists/The-smiths" rel="noopener" data-api_path="/artists/16669"&gt;The Smiths&lt;/a&gt; split, Morrissey found himself alone. He contacted former Smiths producers: Stephen Street, Vini Reilly, and Andrew Paresi, and recorded the album &lt;em&gt;Viva Hate&lt;/em&gt; to be released just six months after the final Smiths\' album. &lt;em&gt;Viva Hate&lt;/em&gt; peaked number #1 in the UK.&lt;/p&gt;\n\n&lt;p&gt;The album was re-issued twice, in 1997 with eight added bonus tracks and a new cover and again in 2012, with the original tracklist bar one track, which had been changed at the request of Morrissey.&lt;/p&gt;', 'producers': [{'name': 'Alan Winstanley', 'url': 'https://genius.com/artists/Alan-winstanley'}, {'name': 'Clive Langer', 'url': 'https://genius.com/artists/Clive-langer'}, {'name': 'Mick Ronson', 'url': 'https://genius.com/artists/Mick-ronson'}, {'name': 'Stephen Street', 'url': 'https://genius.com/artists/Stephen-street'}, {'name': 'Steve Lillywhite', 'url': 'https://genius.com/artists/Steve-lillywhite'}], 'writers': [{'name': 'Alain Whyte', 'url': 'https://genius.com/artists/Alain-whyte'}, {'name': 'Andy Rourke', 'url': 'https://genius.com/artists/Andy-rourke'}, {'name': 'Gary Day', 'url': 'https://genius.com/artists/Gary-day'}, {'name': 'Mark E. Nevin', 'url': 'https://genius.com/artists/Mark-e-nevin'}, {'name': 'Morrissey', 'url': 'https://genius.com/artists/Morrissey'}, {'name': 'Stephen Street', 'url': 'https://genius.com/artists/Stephen-street'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Backstreet-boys/Backstreets-back', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;&lt;em&gt;Backstreet’s Back&lt;/em&gt;&lt;/strong&gt; is the second studio album by the &lt;a href="https://genius.com/artists/Backstreet-boys" rel="noopener" data-api_path="/artists/8415"&gt;Backstreet Boys&lt;/a&gt;, released internationally August 11, 1997 by &lt;a href="https://genius.com/artists/Jive-records" rel="noopener" data-api_path="/artists/649293"&gt;Jive Records&lt;/a&gt; and Trans Continental Records, with the exception of United States. It was a follow-up to their successful &lt;a href="https://genius.com/albums/Backstreet-boys/Backstreet-boys-int" rel="noopener" data-api_path="/albums/73506"&gt;&lt;em&gt;self-titled international debut&lt;/em&gt;&lt;/a&gt;. Some songs from this album and the debut album were compiled into a &lt;a href="https://genius.com/albums/Backstreet-boys/Backstreet-boys-u-s" rel="noopener" data-api_path="/albums/386526"&gt;&lt;em&gt;second self-titled album&lt;/em&gt;&lt;/a&gt; released only in the US.&lt;/p&gt;\n\n&lt;p&gt;There were a few differences between the versions of songs released on this album and the American album. The album also contained the same enhanced section as the American release. The first track recorded for the album was a cover of “&lt;a href="https://genius.com/Backstreet-boys-set-adrift-on-memory-bliss-lyrics" rel="noopener" data-api_path="/songs/328812"&gt;Set Adrift on Memory Bliss&lt;/a&gt;”, which was recorded alongside a new song, “&lt;a href="https://genius.com/Backstreet-boys-if-you-stay-lyrics" rel="noopener" data-api_path="/songs/329037"&gt;If You Stay&lt;/a&gt;”, which did not make the final track listing of the album. “Who Do You Love” was performed live but never released as a studio track. The three singles released from this album became three of their most successful and remembered singles.&lt;/p&gt;', 'producers': [{'name': 'Brian Littrell', 'url': 'https://genius.com/artists/Brian-littrell'}, {'name': 'David Kreuger', 'url': 'https://genius.com/artists/David-kreuger'}, {'name': 'Denniz PoP', 'url': 'https://genius.com/artists/Denniz-pop'}, {'name': '“Fitz” Gerald Scott', 'url': 'https://genius.com/artists/Fitz-gerald-scott'}, {'name': 'Full Force', 'url': 'https://genius.com/artists/Full-force'}, {'name': 'Kristian Lundin', 'url': 'https://genius.com/artists/Kristian-lundin'}, {'name': 'Larry “Rock” Campbell', 'url': 'https://genius.com/artists/Larry-rock-campbell'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Mookie', 'url': 'https://genius.com/artists/Mookie'}, {'name': 'Per Magnusson', 'url': 'https://genius.com/artists/Per-magnusson'}, {'name': 'P.M. Dawn', 'url': 'https://genius.com/artists/Pm-dawn'}, {'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}, {'name': 'Timmy Allen', 'url': 'https://genius.com/artists/Timmy-allen'}], 'writers': [{'name': 'Brian Littrell', 'url': 'https://genius.com/artists/Brian-littrell'}, {'name': 'Denniz PoP', 'url': 'https://genius.com/artists/Denniz-pop'}, {'name': '“Fitz” Gerald Scott', 'url': 'https://genius.com/artists/Fitz-gerald-scott'}, {'name': 'Full Force', 'url': 'https://genius.com/artists/Full-force'}, {'name': 'Gary Baker', 'url': 'https://genius.com/artists/Gary-baker'}, {'name': 'Gary Kemp', 'url': 'https://genius.com/artists/Gary-kemp'}, {'name': 'Herbie Crichlow', 'url': 'https://genius.com/artists/Herbie-crichlow'}, {'name': 'Jolyon Skinner', 'url': 'https://genius.com/artists/Jolyon-skinner'}, {'name': 'Larry Campbell', 'url': 'https://genius.com/artists/Larry-campbell'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Prince Be', 'url': 'https://genius.com/artists/Prince-be'}, {'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}, {'name': 'Tetsuya Komuro', 'url': 'https://genius.com/artists/Tetsuya-komuro'}, {'name': 'Timmy Allen', 'url': 'https://genius.com/artists/Timmy-allen'}, {'name': 'Wayne Perry', 'url': 'https://genius.com/artists/Wayne-perry'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Cake/Fashion-nugget', 'annotations': {'description': '&lt;p&gt;Fashion Nugget is the second studio album by Cake, an alternative rock band from Sacramento, California. It was released in 1996, and contains 14 songs. “The Distance” became one of the band’s biggest hits. On December 9, 1996, the album was certified gold by the RIAA, and the next year, the album was certified platinum for shipments of one million copies&lt;/p&gt;', 'producers': [{'name': 'CAKE', 'url': 'https://genius.com/artists/Cake'}], 'writers': [{'name': 'Dino Fekaris', 'url': 'https://genius.com/artists/Dino-fekaris'}, {'name': 'Freddie Perren', 'url': 'https://genius.com/artists/Freddie-perren'}, {'name': 'Greg Brown', 'url': 'https://genius.com/artists/Greg-brown'}, {'name': 'Joe Davis', 'url': 'https://genius.com/artists/Joe-davis'}, {'name': 'John McCrea', 'url': 'https://genius.com/artists/John-mccrea'}, {'name': 'Osvaldo Farrés', 'url': 'https://genius.com/artists/Osvaldo-farres'}, {'name': 'Todd Roper', 'url': 'https://genius.com/artists/Todd-roper'}, {'name': 'Victor Damiani', 'url': 'https://genius.com/artists/Victor-damiani'}, {'name': 'Vincent DiFiore', 'url': 'https://genius.com/artists/Vincent-difiore'}, {'name': 'Willie Nelson', 'url': 'https://genius.com/artists/Willie-nelson'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Eric-clapton/Slowhand', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Slowhand&lt;/em&gt; is Clapton’s fifth solo studio album and was released in 1977.&lt;/p&gt;\n\n&lt;p&gt;The album was named after Eric Clapton’s nickname, which he got fom Giorgio Gomelsky, manager of &lt;a href="https://genius.com/artists/The-yardbirds" rel="noopener" data-api_path="/artists/134224"&gt;The Yardbirds&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;On my guitar I used light-gauge guitar strings, with a very thin first string, which made it easier to bend the notes, and it was not uncommon during the most frenetic bits of playing for me to break at least one string. During the pause while I was changing my string, the frenzied audience would often break into a slow handclap, inspiring Giorgio to dream up the nickname of ‘Slowhand’ Clapton.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Two hit singles were released from the album (‘Wonderful Tonigt’ and ‘Lay Down Sally’) and a deluxe version of the album was released in 2012.&lt;/p&gt;\n\n&lt;p&gt;Eric looks back on the making of the album in an &lt;a href="http://www.rollingstone.com/music/features/eric-clapton-talks-making-of-slowhand-spontaneous-new-lp-20160517" rel="noopener nofollow"&gt;interview&lt;/a&gt; with Rolling Stone Magazine from 2016:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was a haven, a sanctuary. The music counterbalanced the difficulty in my personal life. The strength of Slowhand was in the people playing together – [bassist] Carl Radle, [drummer] Dickie Sims, [guitarist] Jamie Oldaker. That unit was on fire. That was the power of Slowhand. And it was Glyn seeing that energy in the room and harnessing it, making it work as a recording session.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Eric Clapton', 'url': 'https://genius.com/artists/Eric-clapton'}, {'name': 'Glyn Johns', 'url': 'https://genius.com/artists/Glyn-johns'}, {'name': 'Simon Climie', 'url': 'https://genius.com/artists/Simon-climie'}, {'name': 'Tom Dowd', 'url': 'https://genius.com/artists/Tom-dowd'}], 'writers': [{'name': 'Albhy Galuten', 'url': 'https://genius.com/artists/Albhy-galuten'}, {'name': 'Arthur “Big Boy” Crudup', 'url': 'https://genius.com/artists/Arthur-big-boy-crudup'}, {'name': 'Bobby Whitlock', 'url': 'https://genius.com/artists/Bobby-whitlock'}, {'name': 'Bob Dylan', 'url': 'https://genius.com/artists/Bob-dylan'}, {'name': 'Bob Marley', 'url': 'https://genius.com/artists/Bob-marley'}, {'name': 'Don Robey', 'url': 'https://genius.com/artists/Don-robey'}, {'name': 'Don Williams', 'url': 'https://genius.com/artists/Don-williams'}, {'name': 'Eric Clapton', 'url': 'https://genius.com/artists/Eric-clapton'}, {'name': 'George Harrison', 'url': 'https://genius.com/artists/George-harrison'}, {'name': 'George Terry', 'url': 'https://genius.com/artists/George-terry'}, {'name': 'Gordon Lightfoot', 'url': 'https://genius.com/artists/Gordon-lightfoot'}, {'name': 'Jim Gordon', 'url': 'https://genius.com/artists/Jim-gordon'}, {'name': 'J.J. Cale', 'url': 'https://genius.com/artists/Jj-cale'}, {'name': 'Joe Medwick Veasey', 'url': 'https://genius.com/artists/Joe-medwick-veasey'}, {'name': 'John Martyn', 'url': 'https://genius.com/artists/John-martyn'}, {'name': 'Marcella Detroit', 'url': 'https://genius.com/artists/Marcella-detroit'}, {'name': 'Steve Winwood', 'url': 'https://genius.com/artists/Steve-winwood'}, {'name': 'T-Bone Walker', 'url': 'https://genius.com/artists/T-bone-walker'}, {'name': 'Traditional', 'url': 'https://genius.com/artists/Traditional'}], 'labels': [{'name': '\u200bBushbranch Productions', 'url': 'https://genius.com/artists/Bushbranch-productions'}, {'name': 'Mercury Studios', 'url': 'https://genius.com/artists/Mercury-studios'}, {'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}, {'name': 'RSO Records, Inc.', 'url': 'https://genius.com/artists/Rso-records-inc'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Korn/Untouchables', 'annotations': {'description': '&lt;p&gt;Fifth studio album from the band and to date has sold over 5 million copies worldwide. The album debuted at number 2 on the Billboard 200 (beat only by Eminem’s &lt;em&gt;The Eminem Show&lt;/em&gt;) and showed a decline in the band’s overall sales. The group, as well as record label, blamed an internet leak for the decline.&lt;/p&gt;\n\n&lt;p&gt;One of the more interesting facts about the album is that it took well over a year to write and the total cost of the album was around $750,000 to pay for the recording and to keep their crew on retainer for two years.&lt;/p&gt;', 'producers': [{'name': 'Michael Beinhorn', 'url': 'https://genius.com/artists/Michael-beinhorn'}], 'writers': [{'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Backstreet-boys/Millennium', 'annotations': {'description': "&lt;p&gt;&lt;em&gt;Millennium&lt;/em&gt; is the Backstreet Boys' second U.S. album (and third overall). It was released on May 18, 1999. It includes hits like “Larger Than Life”, “Show Me the Meaning of Being Lonely” and their signature song, “I Want It That Way”.&lt;/p&gt;\n\n&lt;p&gt;The album shipped 11 million copies in the U.S. alone in 1999, ultimately going on to sell over 40 million worldwide.&lt;/p&gt;", 'producers': [{'name': 'A.J. McLean', 'url': 'https://genius.com/artists/Aj-mclean'}, {'name': 'Billy Chapin', 'url': 'https://genius.com/artists/Billy-chapin'}, {'name': 'Brian Bennett', 'url': 'https://genius.com/artists/Brian-bennett'}, {'name': 'Edwin “Tony” Nicholas', 'url': 'https://genius.com/artists/Edwin-tony-nicholas'}, {'name': '“Fitz” Gerald Scott', 'url': 'https://genius.com/artists/Fitz-gerald-scott'}, {'name': 'Full Force', 'url': 'https://genius.com/artists/Full-force'}, {'name': 'Kristian Lundin', 'url': 'https://genius.com/artists/Kristian-lundin'}, {'name': 'Larry “Rock” Campbell', 'url': 'https://genius.com/artists/Larry-rock-campbell'}, {'name': 'Mattias Gustafsson', 'url': 'https://genius.com/artists/Mattias-gustafsson'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Rami', 'url': 'https://genius.com/artists/Rami'}, {'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}, {'name': 'Stephen Lipson', 'url': 'https://genius.com/artists/Stephen-lipson'}, {'name': 'Timmy Allen', 'url': 'https://genius.com/artists/Timmy-allen'}], 'writers': [{'name': 'A.J. McLean', 'url': 'https://genius.com/artists/Aj-mclean'}, {'name': 'Andreas Carlsson', 'url': 'https://genius.com/artists/Andreas-carlsson'}, {'name': 'Andrew Fromm', 'url': 'https://genius.com/artists/Andrew-fromm'}, {'name': 'Billy Chapin', 'url': 'https://genius.com/artists/Billy-chapin'}, {'name': 'Brian Bennett', 'url': 'https://genius.com/artists/Brian-bennett'}, {'name': 'Brian Littrell', 'url': 'https://genius.com/artists/Brian-littrell'}, {'name': 'Butch Johnson', 'url': 'https://genius.com/artists/Butch-johnson'}, {'name': 'Full Force', 'url': 'https://genius.com/artists/Full-force'}, {'name': 'Gary Baker', 'url': 'https://genius.com/artists/Gary-baker'}, {'name': 'Herbie Crichlow', 'url': 'https://genius.com/artists/Herbie-crichlow'}, {'name': 'Jason Blume', 'url': 'https://genius.com/artists/Jason-blume'}, {'name': 'Joe Thomas', 'url': 'https://genius.com/artists/Joe-thomas'}, {'name': 'Kevin Richardson', 'url': 'https://genius.com/artists/Kevin-richardson'}, {'name': 'Kristian Lundin', 'url': 'https://genius.com/artists/Kristian-lundin'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Nick Carter', 'url': 'https://genius.com/artists/Nick-carter'}, {'name': 'Rami', 'url': 'https://genius.com/artists/Rami'}, {'name': 'Sandy Linzer', 'url': 'https://genius.com/artists/Sandy-linzer'}, {'name': 'Thomas Smith', 'url': 'https://genius.com/artists/Thomas-smith'}, {'name': 'Timmy Allen', 'url': 'https://genius.com/artists/Timmy-allen'}, {'name': 'Wayne Perry', 'url': 'https://genius.com/artists/Wayne-perry'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Peter-tosh/Mama-africa', 'annotations': {'description': '', 'producers': [{'name': 'Chris Kimsey', 'url': 'https://genius.com/artists/Chris-kimsey'}, {'name': 'Peter Tosh', 'url': 'https://genius.com/artists/Peter-tosh'}], 'writers': [{'name': 'Chuck Berry', 'url': 'https://genius.com/artists/Chuck-berry'}, {'name': 'Jellybean', 'url': 'https://genius.com/artists/Jellybean'}, {'name': 'Peter Tosh', 'url': 'https://genius.com/artists/Peter-tosh'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Pitbull/Global-warming-meltdown', 'annotations': {'description': '&lt;p&gt;&lt;i&gt;Global Warming: Meltdown&lt;/i&gt; is the reissued version of Pitbull’s seventh studio album, &lt;a href="https://genius.com/albums/Pitbull/Global-warming" rel="noopener" data-api_path="/albums/360279"&gt;&lt;em&gt;Global Warming&lt;/em&gt;&lt;/a&gt;, which was originally released a year prior on November 13, 2012. The reissued version found its release on November 22, 2013 via RCA Records.&lt;/p&gt;\n\n&lt;p&gt;The album features both a new cover art, along with a combination of both the original version of &lt;em&gt;Global Warming&lt;/em&gt;, as well as &lt;a href="https://genius.com/albums/Pitbull/Meltdown-ep" rel="noopener" data-api_path="/albums/177690"&gt;&lt;em&gt;Meltdown&lt;/em&gt;&lt;/a&gt;, an extended play released on the same day. The five songs on the EP (tracks 13-17) replaced the last four tracks of the original album.&lt;/p&gt;', 'producers': [{'name': 'Adam Messinger', 'url': 'https://genius.com/artists/Adam-messinger'}, {'name': 'Afrojack', 'url': 'https://genius.com/artists/Afrojack'}, {'name': 'Bass ill Euro', 'url': 'https://genius.com/artists/Bass-ill-euro'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Big Syphe', 'url': 'https://genius.com/artists/Big-syphe'}, {'name': 'Buddha (Producer)', 'url': 'https://genius.com/artists/Buddha-producer'}, {'name': 'BURNS', 'url': 'https://genius.com/artists/Burns'}, {'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}, {'name': 'Cirkut', 'url': 'https://genius.com/artists/Cirkut'}, {'name': 'Danny Mercer', 'url': 'https://genius.com/artists/Danny-mercer'}, {'name': 'DJ Class', 'url': 'https://genius.com/artists/Dj-class'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}, {'name': 'The Messengers', 'url': 'https://genius.com/artists/The-messengers'}, {'name': 'MK', 'url': 'https://genius.com/artists/Mk'}, {'name': 'Nasri', 'url': 'https://genius.com/artists/Nasri'}, {'name': 'Nick Seeley', 'url': 'https://genius.com/artists/Nick-seeley'}, {'name': 'Pitbull', 'url': 'https://genius.com/artists/Pitbull'}, {'name': 'Polow da Don', 'url': 'https://genius.com/artists/Polow-da-don'}, {'name': 'RL Grime', 'url': 'https://genius.com/artists/Rl-grime'}, {'name': 'Sermstyle', 'url': 'https://genius.com/artists/Sermstyle'}, {'name': 'Sir Nolan', 'url': 'https://genius.com/artists/Sir-nolan'}, {'name': 'SoFLY &amp; Nius', 'url': 'https://genius.com/artists/Sofly-and-nius'}, {'name': 'StarGate', 'url': 'https://genius.com/artists/Stargate'}, {'name': 'TJR', 'url': 'https://genius.com/artists/Tjr'}, {'name': 'Tuxedo', 'url': 'https://genius.com/artists/Tuxedo'}], 'writers': [{'name': 'Aaron Davis Arnold', 'url': 'https://genius.com/artists/Aaron-davis-arnold'}, {'name': 'Adam Messinger', 'url': 'https://genius.com/artists/Adam-messinger'}, {'name': 'Afrojack', 'url': 'https://genius.com/artists/Afrojack'}, {'name': 'Antonio Romero Monge', 'url': 'https://genius.com/artists/Antonio-romero-monge'}, {'name': 'Bebe Black', 'url': 'https://genius.com/artists/Bebe-black'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Breyan Isaac', 'url': 'https://genius.com/artists/Breyan-isaac'}, {'name': 'Buddha (Producer)', 'url': 'https://genius.com/artists/Buddha-producer'}, {'name': 'Buddy Hankerson', 'url': 'https://genius.com/artists/Buddy-hankerson'}, {'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}, {'name': 'Chantal Kreviazuk', 'url': 'https://genius.com/artists/Chantal-kreviazuk'}, {'name': 'Charles Carter', 'url': 'https://genius.com/artists/Charles-carter'}, {'name': 'Chris Brown', 'url': 'https://genius.com/artists/Chris-brown'}, {'name': 'Christina Aguilera', 'url': 'https://genius.com/artists/Christina-aguilera'}, {'name': 'Christopher Jackson', 'url': 'https://genius.com/artists/Christopher-jackson'}, {'name': 'Cirkut', 'url': 'https://genius.com/artists/Cirkut'}, {'name': 'Daniel Woods', 'url': 'https://genius.com/artists/Daniel-woods'}, {'name': 'Danny Mercer', 'url': 'https://genius.com/artists/Danny-mercer'}, {'name': 'David Baerwald', 'url': 'https://genius.com/artists/David-baerwald'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}, {'name': 'Enrique Iglesias', 'url': 'https://genius.com/artists/Enrique-iglesias'}, {'name': 'Ester Dean', 'url': 'https://genius.com/artists/Ester-dean'}, {'name': 'Greg Errico', 'url': 'https://genius.com/artists/Greg-errico'}, {'name': 'Jake One', 'url': 'https://genius.com/artists/Jake-one'}, {'name': 'Jennifer Lopez', 'url': 'https://genius.com/artists/Jennifer-lopez'}, {'name': 'Keri Oskar', 'url': 'https://genius.com/artists/Keri-oskar'}, {'name': 'Kesha', 'url': 'https://genius.com/artists/Kesha'}, {'name': 'Kevin Gilbert', 'url': 'https://genius.com/artists/Kevin-gilbert'}, {'name': 'Lee Oskar', 'url': 'https://genius.com/artists/Lee-oskar'}, {'name': 'Magne Furuholmen', 'url': 'https://genius.com/artists/Magne-furuholmen'}, {'name': 'Mayer Hawthorne', 'url': 'https://genius.com/artists/Mayer-hawthorne'}, {'name': 'MK', 'url': 'https://genius.com/artists/Mk'}, {'name': 'Monica Rustgi', 'url': 'https://genius.com/artists/Monica-rustgi'}, {'name': 'Morten Harket', 'url': 'https://genius.com/artists/Morten-harket'}, {'name': 'Nasri', 'url': 'https://genius.com/artists/Nasri'}, {'name': 'Nius', 'url': 'https://genius.com/artists/Nius'}, {'name': 'Omar Tavarez', 'url': 'https://genius.com/artists/Omar-tavarez'}, {'name': 'Paul Waaktaar-Savoy', 'url': 'https://genius.com/artists/Paul-waaktaar-savoy'}, {'name': 'Pebe Sebert', 'url': 'https://genius.com/artists/Pebe-sebert'}, {'name': 'Pitbull', 'url': 'https://genius.com/artists/Pitbull'}, {'name': 'Priscilla Renea', 'url': 'https://genius.com/artists/Priscilla-renea'}, {'name': 'Rafael Ruiz', 'url': 'https://genius.com/artists/Rafael-ruiz'}, {'name': 'Roger Parker', 'url': 'https://genius.com/artists/Roger-parker'}, {'name': 'Schowi', 'url': 'https://genius.com/artists/Schowi'}, {'name': 'Sensato', 'url': 'https://genius.com/artists/Sensato'}, {'name': 'Sermstyle', 'url': 'https://genius.com/artists/Sermstyle'}, {'name': 'Shellback', 'url': 'https://genius.com/artists/Shellback'}, {'name': 'Sheryl Crow', 'url': 'https://genius.com/artists/Sheryl-crow'}, {'name': 'Shylton Fernandes', 'url': 'https://genius.com/artists/Shylton-fernandes'}, {'name': 'Sir Nolan', 'url': 'https://genius.com/artists/Sir-nolan'}, {'name': 'SoFLY', 'url': 'https://genius.com/artists/Sofly'}, {'name': 'StarGate', 'url': 'https://genius.com/artists/Stargate'}, {'name': 'Steve Arrington', 'url': 'https://genius.com/artists/Steve-arrington'}, {'name': 'TJR', 'url': 'https://genius.com/artists/Tjr'}, {'name': 'Tommy Swish', 'url': 'https://genius.com/artists/Tommy-swish'}, {'name': 'Urales Vargas', 'url': 'https://genius.com/artists/Urales-vargas'}, {'name': 'Usher', 'url': 'https://genius.com/artists/Usher'}, {'name': 'Wyn Cooper', 'url': 'https://genius.com/artists/Wyn-cooper'}, {'name': 'Özgür Yelmen', 'url': 'https://genius.com/artists/Ozgur-yelmen'}], 'labels': [{'name': 'Mr. 305 Records', 'url': 'https://genius.com/artists/Mr-305-records'}, {'name': 'Polo Grounds Music', 'url': 'https://genius.com/artists/Polo-grounds-music'}, {'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Pendulum/In-silico', 'annotations': {'description': '&lt;p&gt;The expression “in silico”, from which the album title is derived, is used to mean “performed on computer or via computer simulation”, however group member Gareth McGrillen also commented on the way it plays upon Nirvana’s well-known album title In Utero (meaning “born naturally” or “of the uterus”) and thus carries extra shades of meaning related to being “born synthetically”,[2] thus explaining the album’s cover motif of a baby or fetus displayed inside a circular design representing a synthetic ovum. – from &lt;a href="https://en.wikipedia.org/wiki/In_Silico_%28Pendulum_album%29" rel="noopener nofollow"&gt;Wikipedia&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Gareth McGrillen', 'url': 'https://genius.com/artists/Gareth-mcgrillen'}, {'name': 'Pendulum', 'url': 'https://genius.com/artists/Pendulum'}, {'name': 'Rob Swire', 'url': 'https://genius.com/artists/Rob-swire'}], 'writers': [{'name': 'Bernd Burhoff', 'url': 'https://genius.com/artists/Bernd-burhoff'}, {'name': 'Jens Oettrich', 'url': 'https://genius.com/artists/Jens-oettrich'}, {'name': 'Oliver Froning', 'url': 'https://genius.com/artists/Oliver-froning'}, {'name': 'Pendulum', 'url': 'https://genius.com/artists/Pendulum'}, {'name': 'Rob Swire', 'url': 'https://genius.com/artists/Rob-swire'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Lana-del-rey/Norman-fucking-rockwell', 'annotations': {'description': '&lt;p&gt;Lana Del Rey announced her sixth studio album during an interview with Annie Mac after the premiere of &lt;a href="https://genius.com/Lana-del-rey-mariners-apartment-complex-lyrics" rel="noopener" data-api_path="/songs/3945416"&gt;“Mariners Apartment Complex,”&lt;/a&gt; the lead single for her upcoming project, on September 12th, 2018. She later confirmed the title of the record in a conversation with Zane Lowe after the premiere of her second single &lt;a href="https://genius.com/Lana-del-rey-venice-bitch-lyrics" rel="noopener" data-api_path="/songs/3953493"&gt;“Venice Bitch,”&lt;/a&gt; on September 18th.&lt;/p&gt;\n\n&lt;p&gt;Lana has allegedly been working on the album since December 2017, with new collaborator and producer &lt;a href="https://genius.com/artists/Jack-antonoff" rel="noopener" data-api_path="/artists/264329"&gt;Jack Antonoff&lt;/a&gt;. She said that the album might be released in the first quarter of 2019, after publishing a little poetry book she’s been working on titled &lt;em&gt;Violet Bent Backwards Over the Grass&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Del Rey mentioned that the new album experiments with surf elements, electric guitars and Laurel Canyon sounds, adding that she was inspired by the &lt;a href="https://genius.com/artists/Red-hot-chili-peppers" rel="noopener" data-api_path="/artists/1460"&gt;Red Hot Chili Peppers&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Lana spoke about the story/inspiration behind the album and its &lt;a href="https://genius.com/Lana-del-rey-norman-fucking-rockwell-lyrics" rel="noopener" data-api_path="/songs/3965734"&gt;title track&lt;/a&gt; during her interview with Beats Radio 1’s Zane Lowe:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s called &lt;em&gt;Norman Fucking Rockwell!&lt;/em&gt;, it was the album title since March. I mean, working with Jack I was in a little bit of a lighter mood ‘cause he’s so funny, so the &lt;a href="https://genius.com/Lana-del-rey-norman-fucking-rockwell-lyrics" rel="noopener" data-api_path="/songs/3965734"&gt;title track&lt;/a&gt; and it are kind of about this guy who like, he is such a genius artist but he thinks he’s the shit and he knows it, and like he won’t shut talking about it. The narrative goes on and on. It’s so awesome I ended up with, you know, like, being creative on a pipe story or whatever. I just like the title track so much, that I was like, \'Okay, definitely want the record to be called that.’&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In an interview with Vanity Fair, Lana talked about the concept of the album saying:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was weird how that actual title came to me. I was riffing over a couple of chords that Jack was playing for the title track, which ended up being called “Norman Fucking Rockwell.” It was kind of an exclamation mark: so this is the American dream, right now. This is where we’re at—Norman fucking Rockwell. We’re going to go to Mars, and Trump is president, all right. Me and Jack, we just joke around constantly about all the random headlines we might see that week, so it’s a slight cultural reference. But it’s not a cynical thing, really. To me, it’s hopeful, to see everything as a little bit funnier. The chaos of the culture is interesting, and I’m hopeful that there’s room for there to be some movement and excitement within it.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;On July 31st, she officially announced that &lt;em&gt;Norman Fucking Rockwell!&lt;/em&gt; would be released on August 30th, 2019, in multiple posts on her social media platforms. She also released the &lt;a href="https://www.instagram.com/p/B0lnEZIh0DZ/?utm_source=ig_web_button_share_sheet" rel="noopener nofollow"&gt;tracklist&lt;/a&gt; along with the album cover.&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;blockquote class="twitter-tweet"&gt;&lt;a href="https://twitter.com/lanadelrey/status/1156597134239531008?ref_src=embedly"&gt;&lt;/a&gt;&lt;/blockquote&gt;\n&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Dean Reid', 'url': 'https://genius.com/artists/Dean-reid'}, {'name': 'Happy Perez', 'url': 'https://genius.com/artists/Happy-perez'}, {'name': 'Jack Antonoff', 'url': 'https://genius.com/artists/Jack-antonoff'}, {'name': 'Kieron Menzies', 'url': 'https://genius.com/artists/Kieron-menzies'}, {'name': 'Lana Del Rey', 'url': 'https://genius.com/artists/Lana-del-rey'}, {'name': 'Louis Bell', 'url': 'https://genius.com/artists/Louis-bell'}, {'name': 'Mighty Mike', 'url': 'https://genius.com/artists/Mighty-mike'}, {'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}, {'name': '\u200bwatt', 'url': 'https://genius.com/artists/Watt'}, {'name': 'Zach Dawes', 'url': 'https://genius.com/artists/Zach-dawes'}], 'writers': [{'name': 'Ad-Rock', 'url': 'https://genius.com/artists/Ad-rock'}, {'name': 'Bradley Nowell', 'url': 'https://genius.com/artists/Bradley-nowell'}, {'name': 'Dorothy Heyward', 'url': 'https://genius.com/artists/Dorothy-heyward'}, {'name': 'DuBose Heyward', 'url': 'https://genius.com/artists/Dubose-heyward'}, {'name': 'George Gershwin', 'url': 'https://genius.com/artists/George-gershwin'}, {'name': 'Ira Gershwin', 'url': 'https://genius.com/artists/Ira-gershwin'}, {'name': 'Jack Antonoff', 'url': 'https://genius.com/artists/Jack-antonoff'}, {'name': 'Lana Del Rey', 'url': 'https://genius.com/artists/Lana-del-rey'}, {'name': 'Louis Bell', 'url': 'https://genius.com/artists/Louis-bell'}, {'name': 'Marshall Goodman', 'url': 'https://genius.com/artists/Marshall-goodman'}, {'name': 'MCA', 'url': 'https://genius.com/artists/Mca'}, {'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}, {'name': '\u200bwatt', 'url': 'https://genius.com/artists/Watt'}, {'name': 'Zach Dawes', 'url': 'https://genius.com/artists/Zach-dawes'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Polydor Records', 'url': 'https://genius.com/artists/Polydor-records'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Eminem/The-eminem-show', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Eminem Show&lt;/em&gt; is the 4th studio album from the Detroit MC, and the third and final of his “Persona Trilogy” which started with &lt;a href="https://genius.com/albums/Eminem/The-slim-shady-lp" rel="noopener" data-api_path="/albums/11166"&gt;&lt;em&gt;The Slim Shady LP&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The Slim Shady LP saw Eminem taking on a cartoonish, immature and ultra violent persona. The follow up, &lt;a href="https://genius.com/albums/Eminem/The-marshall-mathers-lp" rel="noopener" data-api_path="/albums/2873"&gt;&lt;em&gt;Marshall Mathers LP&lt;/em&gt;&lt;/a&gt; spoke more about how he as a person (i.e. Marshall Mathers) was being characterized by the media, politicians, and the general public, some of whom interpreted his music as literal.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;The Eminem Show&lt;/em&gt; sees Em taking a step back, looking at the wild success of his first two albums and the impact that they had on him and on others. It shows Em for the first time embracing himself as the super-star he’d become, and all the issues this caused. In &lt;a href="http://www1.excite.com/home/music/music_artFeat/0,16111,artFeat_launch_209795,00.html" rel="noopener nofollow"&gt;his own words&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I was watching some interviews that I had did back last year, and I was talking about how my life is kind of like &lt;em&gt;The Jerry Springer Show&lt;/em&gt; and my life is like a show and this and that. And I just hit me like, “Huh, why not? &lt;em&gt;The Eminem Show&lt;/em&gt;!”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;15 years later Eminem expanded further on this, &lt;a href="https://genius.com/a/eminem-explains-how-the-truman-show-helped-inspire-the-eminem-show" rel="noopener" data-api_path="/articles/2394"&gt;explaining&lt;/a&gt; how inspiration for the album also came from the 1998 film &lt;a href="https://www.imdb.com/title/tt0120382/" rel="noopener nofollow"&gt;&lt;em&gt;The Truman Show&lt;/em&gt;&lt;/a&gt;, the premise of which being a man unaware that he is living his life on a fictional television show.&lt;/p&gt;\n\n&lt;p&gt;For the first time Eminem made it clear to the public that he was conscious as to the effect his music was having on others, detailing this on tracks like &lt;a href="https://genius.com/Eminem-white-america-lyrics" rel="noopener" data-api_path="/songs/1931"&gt;“White America”&lt;/a&gt;, &lt;a href="https://genius.com/Eminem-without-me-lyrics" rel="noopener" data-api_path="/songs/811"&gt;“Without Me”&lt;/a&gt; and &lt;a href="https://genius.com/Eminem-sing-for-the-moment-lyrics" rel="noopener" data-api_path="/songs/1010"&gt;“Sing for the Moment”&lt;/a&gt;. This showcased Em’s growth into a more mature, introspective artist. The inclusion of &lt;a href="https://genius.com/Eminem-hailies-song-lyrics" rel="noopener" data-api_path="/songs/1202"&gt;a love song to his daughter&lt;/a&gt; further cemented this growth.&lt;/p&gt;\n\n&lt;p&gt;Notably absent from the album are songs designed to shock, or incite controversy for the sake of it. Eminem dialed back the antics to prove that he was capable of making a more serious, thought provoking album. However plenty of anger and lyrical wit spilled-over from his previous albums, best exemplified on &lt;a href="https://genius.com/Eminem-soldier-lyrics" rel="noopener" data-api_path="/songs/2069"&gt;“Soldier”&lt;/a&gt;, &lt;a href="https://genius.com/Eminem-till-i-collapse-lyrics" rel="noopener" data-api_path="/songs/440"&gt;“Till I Collapse”&lt;/a&gt;, and &lt;a href="https://genius.com/Eminem-superman-lyrics" rel="noopener" data-api_path="/songs/564"&gt;“Superman”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Another departure from his previous two records is the production. Em relied less on Dr. Dre and had a greater hand in the albums production, notably on tracks like &lt;a href="https://genius.com/Eminem-sing-for-the-moment-lyrics" rel="noopener" data-api_path="/songs/1010"&gt;“Sing for the Moment”&lt;/a&gt; and &lt;a href="https://genius.com/Eminem-square-dance-lyrics" rel="noopener" data-api_path="/songs/1373"&gt;“Square Dance”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Sales wise the album picked up where &lt;em&gt;The Marshall Mathers LP&lt;/em&gt; left off, shipping over a million copies in its first official week and eventually going diamond: one of only &lt;a href="https://www.complex.com/music/ranking-the-7-diamond-selling-rap-albums/mc-hammer-please-hammer-dont-hurt-em" rel="noopener nofollow"&gt;seven rap albums to achieve this accolade&lt;/a&gt;, and Eminem’s second entry. The album also received the &lt;a href="http://www.metacritic.com/music/the-marshall-mathers-lp/eminem" rel="noopener nofollow"&gt;highest praise from critics&lt;/a&gt; relative to the rest of his work.&lt;/p&gt;', 'producers': [{'name': '\u200bdEnAun', 'url': 'https://genius.com/artists/Denaun'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Eminem', 'url': 'https://genius.com/artists/Eminem'}, {'name': 'Jeff Bass', 'url': 'https://genius.com/artists/Jeff-bass'}], 'writers': [{'name': 'Anne Dudley', 'url': 'https://genius.com/artists/Anne-dudley'}, {'name': 'Bizarre', 'url': 'https://genius.com/artists/Bizarre'}, {'name': 'Brian May', 'url': 'https://genius.com/artists/Brian-may'}, {'name': '\u200bdEnAun', 'url': 'https://genius.com/artists/Denaun'}, {'name': 'DJ Head', 'url': 'https://genius.com/artists/Dj-head'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Eminem', 'url': 'https://genius.com/artists/Eminem'}, {'name': 'Jeff Bass', 'url': 'https://genius.com/artists/Jeff-bass'}, {'name': 'Kuniva', 'url': 'https://genius.com/artists/Kuniva'}, {'name': 'Luis Resto', 'url': 'https://genius.com/artists/Luis-resto'}, {'name': 'Malcolm McLaren', 'url': 'https://genius.com/artists/Malcolm-mclaren'}, {'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}, {'name': 'Nate Dogg', 'url': 'https://genius.com/artists/Nate-dogg'}, {'name': 'Obie Trice', 'url': 'https://genius.com/artists/Obie-trice'}, {'name': 'Paul Rosenberg', 'url': 'https://genius.com/artists/Paul-rosenberg'}, {'name': 'Proof', 'url': 'https://genius.com/artists/Proof'}, {'name': 'Ron “NEFF-U” Feemster', 'url': 'https://genius.com/artists/Ron-neff-u-feemster'}, {'name': 'Shawn Baumgardner', 'url': 'https://genius.com/artists/Shawn-baumgardner'}, {'name': 'Steve Berman', 'url': 'https://genius.com/artists/Steve-berman'}, {'name': 'Steve King', 'url': 'https://genius.com/artists/Steve-king'}, {'name': 'Steven Tyler', 'url': 'https://genius.com/artists/Steven-tyler'}, {'name': 'Swifty McVay', 'url': 'https://genius.com/artists/Swifty-mcvay'}, {'name': 'Trevor Horn', 'url': 'https://genius.com/artists/Trevor-horn'}, {'name': 'Urban Kris', 'url': 'https://genius.com/artists/Urban-kris'}], 'labels': [{'name': 'Aftermath Entertainment', 'url': 'https://genius.com/artists/Aftermath-entertainment'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Shady Records', 'url': 'https://genius.com/artists/Shady-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Diddy/No-way-out', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;No Way Out&lt;/em&gt; is the debut studio album by American hip-hop artist Puff Daddy, released on July 22, 1997 through record label Bad Boy Records. The label also receives official crediting on the album as “The Family”, and the album’s guest appearances are largely made up of the label’s artists. Production is largely handled by Puff Daddy (real name Sean Combs) and various members of production group The Hitmen.&lt;/p&gt;\n\n&lt;p&gt;The album, executively produced by Combs himself, &lt;a href="https://genius.com/artists/The-notorious-b-i-g" rel="noopener" data-api_path="/artists/22"&gt;The Notorious B.I.G.&lt;/a&gt; and Deric &lt;a href="https://genius.com/artists/D-dot" rel="noopener" data-api_path="/artists/6708"&gt;“D-Dot”&lt;/a&gt; Angelettie of The Hitmen, is predominantly rap-based, although it features generally introspective content, largely focused on close friend The Notorious B.I.G.’s killing on March 9, 1997: however, the album features several more aggressive and positive songs recorded before the shooting. Originally titled “Hell Up In Harlem,” the album underwent several changes after the death of his close friend emotionally affected Combs, who postponed the album in order to record several of the album’s more emotional songs.&lt;/p&gt;\n\n&lt;p&gt;Upon its release, &lt;em&gt;No Way Out&lt;/em&gt; was a significant commercial success, particularly in the United States where it reached number one on the Billboard 200 in its first week of release, selling 561,000 copies. It also produced five commercially successful singles, the most successful of these being the worldwide hit &lt;a href="https://genius.com/Puff-daddy-ill-be-missing-you-lyrics" rel="noopener" data-api_path="/songs/1360"&gt;“I’ll Be Missing You”&lt;/a&gt;, a tribute song aimed at The Notorious B.I.G., which became the first rap song ever to debut at number one on the Billboard Hot 100, and remained at the top of the chart for eleven consecutive weeks, whilst topping several other charts worldwide. The other four singles, the Billboard hits “Can’t Nobody Hold Me Down,” “It’s All About the Benjamins,” “Been Around the World” and “Victory,” were also commercially successful, with all of them, except for the latter, peaking in the top two positions of the Billboard Hot 100.&lt;/p&gt;\n\n&lt;p&gt;The album also received generally mixed to positive reviews from music critics, who generally wrote positively about its emotional feel and its production, but were divided in their reviews towards Puff Daddy’s rapping and songwriting.&lt;/p&gt;\n\n&lt;p&gt;On September 7, 2000, the album was certified septuple platinum by the Recording Industry Association of America for sales of 7,000,000+ copies: to date, it remains Combs\' most commercially successful album. The album earned Combs five nominations at the 40th Grammy Awards in 1998, where he won the Grammy Award for Best Rap Album.&lt;/p&gt;', 'producers': [{'name': 'Carlos “6 July” Broady', 'url': 'https://genius.com/artists/Carlos-6-july-broady'}, {'name': 'Deric “D-Dot” Angelettie', 'url': 'https://genius.com/artists/Deric-d-dot-angelettie'}, {'name': 'Diddy', 'url': 'https://genius.com/artists/Diddy'}, {'name': 'Havoc', 'url': 'https://genius.com/artists/Havoc'}, {'name': 'Jay Waxx', 'url': 'https://genius.com/artists/Jay-waxx'}, {'name': 'Jaz-O', 'url': 'https://genius.com/artists/Jaz-o'}, {'name': 'J-Dub', 'url': 'https://genius.com/artists/J-dub'}, {'name': 'Nashiem Myrick', 'url': 'https://genius.com/artists/Nashiem-myrick'}, {'name': 'Rashad Smith', 'url': 'https://genius.com/artists/Rashad-smith'}, {'name': 'Ron “Amen-Ra” Lawrence', 'url': 'https://genius.com/artists/Ron-amen-ra-lawrence'}, {'name': 'Stevie J', 'url': 'https://genius.com/artists/Stevie-j'}, {'name': 'Yogi (hip-hop producer)', 'url': 'https://genius.com/artists/Yogi-hip-hop-producer'}], 'writers': [{'name': 'Albert E. Brumley', 'url': 'https://genius.com/artists/Albert-e-brumley'}, {'name': 'Alisa Peoples', 'url': 'https://genius.com/artists/Alisa-peoples'}, {'name': 'Andy Morris', 'url': 'https://genius.com/artists/Andy-morris'}, {'name': 'Bill Conti', 'url': 'https://genius.com/artists/Bill-conti'}, {'name': 'Billy Beck', 'url': 'https://genius.com/artists/Billy-beck'}, {'name': 'Black Rob', 'url': 'https://genius.com/artists/Black-rob'}, {'name': 'Carlos “6 July” Broady', 'url': 'https://genius.com/artists/Carlos-6-july-broady'}, {'name': 'Carl Thomas', 'url': 'https://genius.com/artists/Carl-thomas'}, {'name': 'Cavin Yarbrough', 'url': 'https://genius.com/artists/Cavin-yarbrough'}, {'name': 'Clarence “Satch” Satchell', 'url': 'https://genius.com/artists/Clarence-satch-satchell'}, {'name': 'Clifton ‘’Jiggs’’ Chase', 'url': 'https://genius.com/artists/Clifton-jiggs-chase'}, {'name': 'Daron Jones', 'url': 'https://genius.com/artists/Daron-jones'}, {'name': 'Deric “D-Dot” Angelettie', 'url': 'https://genius.com/artists/Deric-d-dot-angelettie'}, {'name': 'Diddy', 'url': 'https://genius.com/artists/Diddy'}, {'name': 'Duke Bootee', 'url': 'https://genius.com/artists/Duke-bootee'}, {'name': 'Ed Townsend', 'url': 'https://genius.com/artists/Ed-townsend'}, {'name': 'Faith Evans', 'url': 'https://genius.com/artists/Faith-evans'}, {'name': 'Foxy Brown', 'url': 'https://genius.com/artists/Foxy-brown'}, {'name': 'Gerry Goffin', 'url': 'https://genius.com/artists/Gerry-goffin'}, {'name': 'Grandmaster Melle Mel', 'url': 'https://genius.com/artists/Grandmaster-melle-mel'}, {'name': 'Greg Prestopino', 'url': 'https://genius.com/artists/Greg-prestopino'}, {'name': 'Ian Devaney', 'url': 'https://genius.com/artists/Ian-devaney'}, {'name': 'Jadakiss', 'url': 'https://genius.com/artists/Jadakiss'}, {'name': 'James Roger Williams', 'url': 'https://genius.com/artists/James-roger-williams'}, {'name': 'Janis Ian', 'url': 'https://genius.com/artists/Janis-ian'}, {'name': 'JAY-Z', 'url': 'https://genius.com/artists/Jay-z'}, {'name': 'Jonah Ellis', 'url': 'https://genius.com/artists/Jonah-ellis'}, {'name': 'Jon Astrop', 'url': 'https://genius.com/artists/Jon-astrop'}, {'name': 'Larry Johnson', 'url': 'https://genius.com/artists/Larry-johnson'}, {'name': 'Les Baxter', 'url': 'https://genius.com/artists/Les-baxter'}, {'name': 'Lil’ Kim', 'url': 'https://genius.com/artists/Lil-kim'}, {'name': 'Linda Laurie', 'url': 'https://genius.com/artists/Linda-laurie'}, {'name': 'Lisa Stansfield', 'url': 'https://genius.com/artists/Lisa-stansfield'}, {'name': 'Lonnie Simmons', 'url': 'https://genius.com/artists/Lonnie-simmons'}, {'name': 'Marshall “Rock” Jones', 'url': 'https://genius.com/artists/Marshall-rock-jones'}, {'name': 'Marvin Gaye', 'url': 'https://genius.com/artists/Marvin-gaye'}, {'name': 'Marvin Pierce', 'url': 'https://genius.com/artists/Marvin-pierce'}, {'name': 'Ma$e', 'url': 'https://genius.com/artists/Ma-e'}, {'name': 'Matthew Wilder', 'url': 'https://genius.com/artists/Matthew-wilder'}, {'name': 'Michael Jonzun', 'url': 'https://genius.com/artists/Michael-jonzun'}, {'name': 'Michael Masser', 'url': 'https://genius.com/artists/Michael-masser'}, {'name': 'Nashiem Myrick', 'url': 'https://genius.com/artists/Nashiem-myrick'}, {'name': 'The Notorious', 'url': 'https://genius.com/artists/The-notorious'}, {'name': 'The Notorious B.I.G.', 'url': 'https://genius.com/artists/The-notorious-big'}, {'name': 'Ralph Middlebrooks', 'url': 'https://genius.com/artists/Ralph-middlebrooks'}, {'name': 'Rashad Smith', 'url': 'https://genius.com/artists/Rashad-smith'}, {'name': 'Ron “Amen-Ra” Lawrence', 'url': 'https://genius.com/artists/Ron-amen-ra-lawrence'}, {'name': 'Ron Lawrence', 'url': 'https://genius.com/artists/Ron-lawrence'}, {'name': 'Sauce Money', 'url': 'https://genius.com/artists/Sauce-money'}, {'name': 'Sheek Louch', 'url': 'https://genius.com/artists/Sheek-louch'}, {'name': 'Stevie J', 'url': 'https://genius.com/artists/Stevie-j'}, {'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}, {'name': 'Styles P', 'url': 'https://genius.com/artists/Styles-p'}, {'name': 'Sugarfoot', 'url': 'https://genius.com/artists/Sugarfoot'}, {'name': 'Sylvia Robinson', 'url': 'https://genius.com/artists/Sylvia-robinson'}, {'name': 'Terri Etlinger', 'url': 'https://genius.com/artists/Terri-etlinger'}, {'name': 'Twista', 'url': 'https://genius.com/artists/Twista'}, {'name': 'Wilson Turbinton', 'url': 'https://genius.com/artists/Wilson-turbinton'}], 'labels': [{'name': 'Arista Records', 'url': 'https://genius.com/artists/Arista-records'}, {'name': 'Bad Boy Entertainment', 'url': 'https://genius.com/artists/Bad-boy-entertainment'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Joey-ramone/Dont-worry-about-me', 'annotations': {'description': '', 'producers': [{'name': 'Daniel Rey', 'url': 'https://genius.com/artists/Daniel-rey'}], 'writers': [{'name': 'Bob Thiele', 'url': 'https://genius.com/artists/Bob-thiele'}, {'name': 'George David Weiss', 'url': 'https://genius.com/artists/George-david-weiss'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Imagine-dragons/Night-visions', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Night Visions&lt;/em&gt; is the debut studio album for American alt-rock band, Imagine Dragons. The album is defined by the success of hit singles &lt;a href="https://genius.com/Imagine-dragons-radioactive-lyrics" rel="noopener" data-api_path="/songs/98754"&gt;“Radioactive”&lt;/a&gt; and &lt;a href="https://genius.com/Imagine-dragons-demons-lyrics" rel="noopener" data-api_path="/songs/109206"&gt;“Demons”&lt;/a&gt;, the former of which held the record for the &lt;a href="https://www.billboard.com/articles/columns/rock/9615436/dan-reynolds-imagine-dragons-radioactive-weeknd" rel="noopener nofollow"&gt;longest song to chart on the Hot 100 in Billboard history&lt;/a&gt; for seven years. The band’s debut effort is also one of the ten longest-charting albums on the Billboard 200 at &lt;a href="https://www.billboard.com/music/imagine-dragons/chart-history/billboard-200/song/757410" rel="noopener nofollow"&gt;over 300 weeks&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The album, along with its singles, are defined by genre-blurring, anthemic tracks, complete with quiet verses and soaring &lt;a href="https://genius.com/Imagine-dragons-on-top-of-the-world-lyrics" rel="noopener" data-api_path="/songs/109209"&gt;choruses of triumph&lt;/a&gt; and &lt;a href="https://genius.com/Imagine-dragons-bleeding-out-lyrics" rel="noopener" data-api_path="/songs/110210"&gt;anguish&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Alex da Kid', 'url': 'https://genius.com/artists/Alex-da-kid'}, {'name': 'Brandon Darner', 'url': 'https://genius.com/artists/Brandon-darner'}, {'name': 'Daniel Platzman', 'url': 'https://genius.com/artists/Daniel-platzman'}, {'name': 'Dan Reynolds', 'url': 'https://genius.com/artists/Dan-reynolds'}, {'name': 'Imagine Dragons', 'url': 'https://genius.com/artists/Imagine-dragons'}, {'name': 'Wayne Sermon', 'url': 'https://genius.com/artists/Wayne-sermon'}], 'writers': [{'name': 'Alex da Kid', 'url': 'https://genius.com/artists/Alex-da-kid'}, {'name': 'Andrew Tolman', 'url': 'https://genius.com/artists/Andrew-tolman'}, {'name': 'Ben McKee', 'url': 'https://genius.com/artists/Ben-mckee'}, {'name': 'Brittany Tolman', 'url': 'https://genius.com/artists/Brittany-tolman'}, {'name': 'Daniel Platzman', 'url': 'https://genius.com/artists/Daniel-platzman'}, {'name': 'Dan Reynolds', 'url': 'https://genius.com/artists/Dan-reynolds'}, {'name': 'Imagine Dragons', 'url': 'https://genius.com/artists/Imagine-dragons'}, {'name': 'Josh Mosser', 'url': 'https://genius.com/artists/Josh-mosser'}, {'name': 'Wayne Sermon', 'url': 'https://genius.com/artists/Wayne-sermon'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'KIDinaKORNER', 'url': 'https://genius.com/artists/Kidinakorner'}]}}</t>
+    <t>{'url': 'https://genius.com/albums/September/Dancing-shoes', 'annotations': {'description': '', 'producers': [{'name': 'Jonas von der Burg', 'url': 'https://genius.com/artists/Jonas-von-der-burg'}], 'writers': [{'name': 'Anoo Bhagavan', 'url': 'https://genius.com/artists/Anoo-bhagavan'}, {'name': 'Jonas von der Burg', 'url': 'https://genius.com/artists/Jonas-von-der-burg'}, {'name': 'Niclas von der Burg', 'url': 'https://genius.com/artists/Niclas-von-der-burg'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Linkin-park/Meteora', 'annotations': {'description': '&lt;p&gt;Having sold over 27 million copies worldwide and being seven times platinum-certified by the RIAA, &lt;em&gt;Meteora&lt;/em&gt; is just Linkin Park’s second studio album. It features five singles, namely “&lt;a href="https://genius.com/Linkin-park-somewhere-i-belong-lyrics" rel="noopener" data-api_path="/songs/85506"&gt;Somewhere I Belong&lt;/a&gt;,” “&lt;a href="https://genius.com/Linkin-park-faint-lyrics" rel="noopener" data-api_path="/songs/134095"&gt;Faint&lt;/a&gt;,” “&lt;a href="https://genius.com/Linkin-park-breaking-the-habit-lyrics" rel="noopener" data-api_path="/songs/56658"&gt;Breaking the Habit&lt;/a&gt;,” “&lt;a href="https://genius.com/Linkin-park-from-the-inside-lyrics" rel="noopener" data-api_path="/songs/167791"&gt;From the Inside&lt;/a&gt;,” and the chart-breaking single “&lt;a href="https://genius.com/Linkin-park-numb-lyrics" rel="noopener" data-api_path="/songs/74998"&gt;Numb&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.artistdirect.com/entertainment-news/article/chester-bennington-of-linkin-park-looks-back-on-meteora/10784064" rel="noopener nofollow"&gt;Chester Bennington said about the album&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We knew what we wanted, and we knew how to execute to a certain degree. However, we were also just going for it. We didn’t really care about what anybody else was doing. We also didn’t care whether or not the songs fit together stylistically as a whole or a collection of songs. It was more like, “This riff is sick!” Then, we’d just scream over it, and the next song would be a mid-tempo ballad and you’d sing the way that song needed to be sang. We were testing. We were students in college. We were in the lab, and we happened to stumble across something everybody liked and it worked. I think Meteora was an extension of that.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;He also said in &lt;a href="https://web.archive.org/web/20151017030709/http://www.mtv.com/bands/l/linkin_park/news_feature_030404/index2.jhtml" rel="noopener nofollow"&gt;another interview&lt;/a&gt; with &lt;a href="https://en.wikipedia.org/wiki/MTV" rel="noopener nofollow"&gt;MTV&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We don’t talk about situations, we talk about the emotions behind the situations. Mike and I are two different people, so we can’t sing about the same things, but we both know about frustration and anger and loneliness and love and happiness, and we can relate on that level.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Released in 2003, many songs from &lt;em&gt;Meteora&lt;/em&gt; seem to have developed new meaning after &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennington&lt;/a&gt;’s &lt;a href="https://genius.com/a/linkin-park-singer-chester-bennington-has-passed-away" rel="noopener" data-api_path="/articles/2842"&gt;suicide&lt;/a&gt; in July 2017. It is only now that we notice the elements of depression and anger present throughout the album. Who cares about the price until we have to pay anyways?&lt;/p&gt;', 'producers': [{'name': 'Don Gilmore', 'url': 'https://genius.com/artists/Don-gilmore'}, {'name': 'Linkin Park', 'url': 'https://genius.com/artists/Linkin-park'}], 'writers': [{'name': 'Brad Delson', 'url': 'https://genius.com/artists/Brad-delson'}, {'name': 'Chester Bennington', 'url': 'https://genius.com/artists/Chester-bennington'}, {'name': 'Dave Farrell', 'url': 'https://genius.com/artists/Dave-farrell'}, {'name': 'Linkin Park', 'url': 'https://genius.com/artists/Linkin-park'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Mr. Hahn', 'url': 'https://genius.com/artists/Mr-hahn'}, {'name': 'Rob Bourdon', 'url': 'https://genius.com/artists/Rob-bourdon'}], 'labels': [{'name': 'Machine Shop Records', 'url': 'https://genius.com/artists/Machine-shop-records'}, {'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/albums/Tears-for-fears/The-seeds-of-love', 'annotations': {'description': '', 'producers': [{'name': 'Dave Bascombe', 'url': 'https://genius.com/artists/Dave-bascombe'}, {'name': 'Tears for Fears', 'url': 'https://genius.com/artists/Tears-for-fears'}], 'writers': [{'name': 'Curt Smith', 'url': 'https://genius.com/artists/Curt-smith'}, {'name': 'Dave Bascombe', 'url': 'https://genius.com/artists/Dave-bascombe'}, {'name': 'Ian Stanley', 'url': 'https://genius.com/artists/Ian-stanley'}, {'name': 'Nicky Holland', 'url': 'https://genius.com/artists/Nicky-holland'}, {'name': 'Roland Orzabal', 'url': 'https://genius.com/artists/Roland-orzabal'}], 'labels': []}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/albums/Jessie-j-ariana-grande-and-nicki-minaj/Bang-bang-remixes', 'annotations': {'description': '&lt;p&gt;These are the official remixes of Bang Bang as appeared on Spotify and Apple Music.&lt;/p&gt;', 'producers': [{'name': '3LAU', 'url': 'https://genius.com/artists/3lau'}, {'name': 'Dada Life', 'url': 'https://genius.com/artists/Dada-life'}, {'name': 'Gramercy', 'url': 'https://genius.com/artists/Gramercy'}, {'name': 'Imanos', 'url': 'https://genius.com/artists/Imanos'}, {'name': 'Kat Krazy', 'url': 'https://genius.com/artists/Kat-krazy'}, {'name': 'Super Stylers', 'url': 'https://genius.com/artists/Super-stylers'}], 'writers': [{'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Nicki Minaj', 'url': 'https://genius.com/artists/Nicki-minaj'}, {'name': 'Rickard Göransson', 'url': 'https://genius.com/artists/Rickard-goransson'}, {'name': 'Savan Kotecha', 'url': 'https://genius.com/artists/Savan-kotecha'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Travis/The-invisible-band', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Invisible Band&lt;/em&gt; is the third studio album by Scottish rock band Travis. It was first released on 11 June 2001 in the United Kingdom by Independiente and a day later in the United States by Epic Records.&lt;br&gt;\nThe title of the album makes reference to the band’s feelings regarding ‘music being more important than the band making it’. Band frontman &lt;a href="https://genius.com/artists/Fran-healy" rel="noopener" data-api_path="/artists/354157"&gt;Fran Healy&lt;/a&gt; stated in an interview that the album’s title referred to the band’s status in ‘having famous songs, but not being famous themselves’. The album spent four weeks at the top of the UK Albums Chart, selling more copies in that time than The Man Who managed in half a year.&lt;/p&gt;', 'producers': [{'name': 'Nigel Godrich', 'url': 'https://genius.com/artists/Nigel-godrich'}, {'name': 'Steve Orchard', 'url': 'https://genius.com/artists/Steve-orchard'}, {'name': 'Travis', 'url': 'https://genius.com/artists/Travis'}], 'writers': [{'name': 'Andy Dunlop', 'url': 'https://genius.com/artists/Andy-dunlop'}, {'name': 'Dougie Payne', 'url': 'https://genius.com/artists/Dougie-payne'}, {'name': 'Fran Healy', 'url': 'https://genius.com/artists/Fran-healy'}], 'labels': [{'name': 'Independiente', 'url': 'https://genius.com/artists/Independiente'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Coldplay/Viva-la-vida-or-death-and-all-his-friends', 'annotations': {'description': '&lt;p&gt;The fourth studio album of Coldplay, released June 2008, and debuting at number 1 on the &lt;em&gt;US Billboard 200&lt;/em&gt;. In fact, it made it to number 1 in twenty three separate countries, on its way to selling 11 million copies worldwide.  This was helped by the huge smash hit singles &lt;a href="https://genius.com/Coldplay-viva-la-vida-lyrics" rel="noopener" data-api_path="/songs/49192"&gt;“Viva La Vida,”&lt;/a&gt; &lt;a href="https://genius.com/Coldplay-lovers-in-japan-lyrics" rel="noopener" data-api_path="/songs/77991"&gt;“Lovers In Japan,”&lt;/a&gt; and &lt;a href="https://genius.com/Coldplay-lost-lyrics" rel="noopener" data-api_path="/songs/78578"&gt;“Lost.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In Spanish, the phrase translates to “Long Live Life,” and the theme of the record settles closely to this statement. The lyrics trace lead singer Chris Martin’s journey across the globe, both through love and his physical footprint. “Lovers In Japan,” &lt;a href="https://genius.com/Coldplay-chinese-sleep-chant-lyrics" rel="noopener" data-api_path="/songs/78836"&gt;“Chinese Sleep Chant”&lt;/a&gt; and &lt;a href="https://genius.com/Coldplay-cemeteries-of-london-lyrics" rel="noopener" data-api_path="/songs/78838"&gt;“Cemeteries of London”&lt;/a&gt; all make use of geographic locations, while the opening track &lt;a href="https://genius.com/Coldplay-life-in-technicolor-lyrics" rel="noopener" data-api_path="/songs/436577"&gt;“Life in Technicolor”&lt;/a&gt; is basically a blueprint for the ensuing songs and albums in Coldplay’s career.&lt;/p&gt;\n\n&lt;p&gt;Legend &lt;a href="https://genius.com/artists/Brian-eno" rel="noopener" data-api_path="/artists/29972"&gt;Brian Eno&lt;/a&gt; was on hand for the production, and all of the songs were written by the Coldplay members. A “tour edition DVD” was released alongisde the record, which included videos for all five singles.&lt;/p&gt;\n\n&lt;p&gt;Coldplay weren’t coy on the meanings behind each track, providing &lt;a href="http://www.mtv.com/news/1589032/coldplay-give-track-by-track-tour-of-viva-la-vida-explain-handclaps-tack-pianos-and-the-number-42/" rel="noopener nofollow"&gt;&lt;em&gt;MTV&lt;/em&gt;&lt;/a&gt; with a track-by-track break down of the record. In a &lt;a href="https://www.youtube.com/watch?v=ru8iY_sIHf0" rel="noopener nofollow"&gt;&lt;em&gt;CBC&lt;/em&gt; interview Chris says:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The sound of this record to me is the sound of Guy, Will and Jonny taking back the glory. Which makes me very happy. We reached the stage where we thought we can’t get much bigger so we had to get better. Quality over quantity, we need to practise a bit and improve.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The title of the album is, interestingly enough, inspired by an artwork of the same name by Frida Kahlo, whom Chris Martin adores. The painting of watermelons was discovered by the band in Mexico in early 2007, and found great admiration by the group.&lt;/p&gt;', 'producers': [{'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}, {'name': 'Jon Hopkins', 'url': 'https://genius.com/artists/Jon-hopkins'}, {'name': 'Markus Dravs', 'url': 'https://genius.com/artists/Markus-dravs'}, {'name': 'Rik Simpson', 'url': 'https://genius.com/artists/Rik-simpson'}], 'writers': [{'name': 'Chris Martin', 'url': 'https://genius.com/artists/Chris-martin'}, {'name': 'Guy Berryman', 'url': 'https://genius.com/artists/Guy-berryman'}, {'name': 'Jon Hopkins', 'url': 'https://genius.com/artists/Jon-hopkins'}, {'name': 'Jonny Buckland', 'url': 'https://genius.com/artists/Jonny-buckland'}, {'name': 'Will Champion', 'url': 'https://genius.com/artists/Will-champion'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'Parlophone Records', 'url': 'https://genius.com/artists/Parlophone-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Peter-schilling/Von-anfang-an-bis-jetzt-das-ultimativ-beste', 'annotations': {'description': '', 'producers': [{'name': 'Armin Sabol', 'url': 'https://genius.com/artists/Armin-sabol'}, {'name': 'Peter Schilling', 'url': 'https://genius.com/artists/Peter-schilling'}], 'writers': [{'name': 'Peter Schilling', 'url': 'https://genius.com/artists/Peter-schilling'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Kasabian/West-ryder-pauper-lunatic-asylum', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;West Ryder Pauper Lunatic Asylum&lt;/em&gt; is the third studio album by British indie rock band Kasabian, which was released on 5 June 2009. It is also the first album by the band to not feature &lt;a href="https://genius.com/artists/Christopher-karloff" rel="noopener" data-api_path="/artists/385451"&gt;Christopher Karloff&lt;/a&gt;, the band’s leading songwriter, following his departure during the writing stages of Kasabian’s second album, &lt;a href="https://genius.com/albums/Kasabian/Empire" rel="noopener" data-api_path="/albums/84290"&gt;&lt;em&gt;Empire&lt;/em&gt;&lt;/a&gt;. Lead guitarist &lt;a href="https://genius.com/artists/Sergio-pizzorno" rel="noopener" data-api_path="/artists/152469"&gt;Sergio Pizzorno&lt;/a&gt; took over as the main force behind the band’s song writing.&lt;/p&gt;\n\n&lt;p&gt;The album was nominated for the 2009 Mercury Prize. In October 2009, it was voted the best album of the year by Q Magazine.&lt;/p&gt;', 'producers': [{'name': 'Automator', 'url': 'https://genius.com/artists/Automator'}, {'name': 'Dan the Automator', 'url': 'https://genius.com/artists/Dan-the-automator'}, {'name': 'Sergio Pizzorno', 'url': 'https://genius.com/artists/Sergio-pizzorno'}], 'writers': [{'name': 'Sergio Pizzorno', 'url': 'https://genius.com/artists/Sergio-pizzorno'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Kid-rock/Rock-n-roll-jesus', 'annotations': {'description': '', 'producers': [{'name': 'Kid Rock', 'url': 'https://genius.com/artists/Kid-rock'}, {'name': 'Marlon Young', 'url': 'https://genius.com/artists/Marlon-young'}, {'name': 'Mike E. Clark', 'url': 'https://genius.com/artists/Mike-e-clark'}, {'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}], 'writers': [{'name': 'Bobcat', 'url': 'https://genius.com/artists/Bobcat'}, {'name': 'David Allan Coe', 'url': 'https://genius.com/artists/David-allan-coe'}, {'name': 'Dwayne Simon', 'url': 'https://genius.com/artists/Dwayne-simon'}, {'name': 'Ed King', 'url': 'https://genius.com/artists/Ed-king'}, {'name': 'Gary Rossington', 'url': 'https://genius.com/artists/Gary-rossington'}, {'name': 'Jason Krause', 'url': 'https://genius.com/artists/Jason-krause'}, {'name': 'John Eddie', 'url': 'https://genius.com/artists/John-eddie'}, {'name': 'Johnny Van Zant', 'url': 'https://genius.com/artists/Johnny-van-zant'}, {'name': 'Kenny Tudrick', 'url': 'https://genius.com/artists/Kenny-tudrick'}, {'name': 'Kid Rock', 'url': 'https://genius.com/artists/Kid-rock'}, {'name': 'LeRoy Marinell', 'url': 'https://genius.com/artists/Leroy-marinell'}, {'name': 'LL Cool J', 'url': 'https://genius.com/artists/Ll-cool-j'}, {'name': 'Marlon Young', 'url': 'https://genius.com/artists/Marlon-young'}, {'name': 'Uncle Kracker', 'url': 'https://genius.com/artists/Uncle-kracker'}, {'name': 'Waddy Wachtel', 'url': 'https://genius.com/artists/Waddy-wachtel'}, {'name': 'Warren Zevon', 'url': 'https://genius.com/artists/Warren-zevon'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Top Dog Records', 'url': 'https://genius.com/artists/Top-dog-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Adele/21', 'annotations': {'description': '&lt;p&gt;The once-in-a-lifetime smash success, &lt;em&gt;21&lt;/em&gt; signifies the return of the ballad into popular favor. It’s the most sucessful and arguably the most significant record of the ‘10s. &lt;em&gt;21&lt;/em&gt; is an essential breakup album; the &lt;a href="https://genius.com/albums/Carole-king/Tapestry" rel="noopener" data-api_path="/albums/33366"&gt;&lt;em&gt;Tapestry&lt;/em&gt;&lt;/a&gt; of the modern day.&lt;/p&gt;\n\n&lt;p&gt;It’s loaded with record-setting, ultra memorable tracks. The genre-crossing &lt;a href="https://genius.com/Adele-rolling-in-the-deep-lyrics" rel="noopener" data-api_path="/songs/61289"&gt;“Rolling In The Deep”&lt;/a&gt;, sentimental &lt;a href="https://genius.com/Adele-someone-like-you-lyrics" rel="noopener" data-api_path="/songs/51294"&gt;“Someone Like You”&lt;/a&gt;, vocally challenging &lt;a href="https://genius.com/Adele-set-fire-to-the-rain-lyrics" rel="noopener" data-api_path="/songs/62493"&gt;“Set Fire to the Rain”&lt;/a&gt;, the regretful &lt;a href="https://genius.com/Adele-turning-tables-lyrics" rel="noopener" data-api_path="/songs/61580"&gt;“Turning Tables”&lt;/a&gt;, bluesy &lt;a href="https://genius.com/Adele-take-it-all-lyrics" rel="noopener" data-api_path="/songs/57210"&gt;“Take It All”&lt;/a&gt;, a cover of &lt;a href="https://genius.com/artists/The-cure" rel="noopener" data-api_path="/artists/15758"&gt;The Cure’s&lt;/a&gt; &lt;a href="https://genius.com/The-cure-lovesong-lyrics" rel="noopener" data-api_path="/songs/61506"&gt;“Lovesong”&lt;/a&gt;…&lt;em&gt;21&lt;/em&gt; is heartbreak at its finest.&lt;/p&gt;\n\n&lt;p&gt;The personal record has clearly translated from person to person. Reigning as one of the best selling albums of all time and the highest selling album of the decade with a reported 31 million copies sold, &lt;em&gt;21&lt;/em&gt; continues to touch hearts &amp;amp; conjure melancholy to this day. It is truly the definition of a timeless record.&lt;/p&gt;', 'producers': [{'name': 'Adele', 'url': 'https://genius.com/artists/Adele'}, {'name': 'Dan Wilson', 'url': 'https://genius.com/artists/Dan-wilson'}, {'name': 'Fraser T. Smith', 'url': 'https://genius.com/artists/Fraser-t-smith'}, {'name': 'Jim Abbiss', 'url': 'https://genius.com/artists/Jim-abbiss'}, {'name': 'Paul Epworth', 'url': 'https://genius.com/artists/Paul-epworth'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}], 'writers': [{'name': 'Adele', 'url': 'https://genius.com/artists/Adele'}, {'name': 'The Cure', 'url': 'https://genius.com/artists/The-cure'}, {'name': 'Dan Wilson', 'url': 'https://genius.com/artists/Dan-wilson'}, {'name': 'Eg White', 'url': 'https://genius.com/artists/Eg-white'}, {'name': 'Fraser T. Smith', 'url': 'https://genius.com/artists/Fraser-t-smith'}, {'name': 'Greg Wells', 'url': 'https://genius.com/artists/Greg-wells'}, {'name': 'Paul Epworth', 'url': 'https://genius.com/artists/Paul-epworth'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'XL Recordings', 'url': 'https://genius.com/artists/Xl-recordings'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Fifth-harmony/7-27', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;7/27&lt;/em&gt; is the second studio album by American girl group Fifth Harmony. It was originally scheduled to be released on May 20th, 2016 but was later pushed back to May 27 to match the “27” part of the release date.&lt;/p&gt;\n\n&lt;p&gt;The album’s lead single, &lt;a href="https://genius.com/Fifth-harmony-work-from-home-lyrics" rel="noopener" data-api_path="/songs/2427392"&gt;“Work from Home”&lt;/a&gt;, was released on February 26, 2016, and peaked at #4 on the Billboard Hot 100, surpassing the #12 peak of &lt;a href="https://genius.com/Fifth-harmony-worth-it-lyrics" rel="noopener" data-api_path="/songs/669122"&gt;“Worth It”&lt;/a&gt; to become their highest-peaking single ever.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.ew.com/article/2016/03/25/fifth-harmony-727-interview-1" rel="noopener nofollow"&gt;In an interview with &lt;em&gt;Entertainment Weekly&lt;/em&gt;&lt;/a&gt;, Normani said the album was more “personal” and that they had “a lot more creative say” in it than their debut, &lt;a href="https://genius.com/albums/Fifth-harmony/Reflection" rel="noopener" data-api_path="/albums/117788"&gt;&lt;em&gt;Reflection.&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The album features guest vocals from &lt;a href="https://genius.com/artists/Ty-dolla-sign" rel="noopener" data-api_path="/artists/25005"&gt;Ty Dolla $ign&lt;/a&gt;, &lt;a href="https://genius.com/artists/Fetty-wap" rel="noopener" data-api_path="/artists/216609"&gt;Fetty Wap&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Missy-elliot" rel="noopener"&gt;Missy Elliott.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Aaron Pearce', 'url': 'https://genius.com/artists/Aaron-pearce'}, {'name': 'Alexander Kronlund', 'url': 'https://genius.com/artists/Alexander-kronlund'}, {'name': 'Ammo', 'url': 'https://genius.com/artists/Ammo'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'BloodPop®', 'url': 'https://genius.com/artists/Bloodpop'}, {'name': 'DallasK', 'url': 'https://genius.com/artists/Dallask'}, {'name': 'German (Producer)', 'url': 'https://genius.com/artists/German-producer'}, {'name': 'Gladius', 'url': 'https://genius.com/artists/Gladius'}, {'name': 'Jack Antonoff', 'url': 'https://genius.com/artists/Jack-antonoff'}, {'name': 'Kygo', 'url': 'https://genius.com/artists/Kygo'}, {'name': 'Lukas “Lulou” Loules', 'url': 'https://genius.com/artists/Lukas-lulou-loules'}, {'name': 'The Monsters &amp; Strangerz', 'url': 'https://genius.com/artists/The-monsters-and-strangerz'}, {'name': 'Play Picasso', 'url': 'https://genius.com/artists/Play-picasso'}, {'name': 'StarGate', 'url': 'https://genius.com/artists/Stargate'}, {'name': 'TBHits', 'url': 'https://genius.com/artists/Tbhits'}], 'writers': [{'name': 'Aaron Pearce', 'url': 'https://genius.com/artists/Aaron-pearce'}, {'name': 'Alexander Kronlund', 'url': 'https://genius.com/artists/Alexander-kronlund'}, {'name': 'Ally Brooke', 'url': 'https://genius.com/artists/Ally-brooke'}, {'name': 'Ammo', 'url': 'https://genius.com/artists/Ammo'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'BloodPop®', 'url': 'https://genius.com/artists/Bloodpop'}, {'name': 'Brian Gold', 'url': 'https://genius.com/artists/Brian-gold'}, {'name': 'Brian Lee', 'url': 'https://genius.com/artists/Brian-lee'}, {'name': 'Camila Cabello', 'url': 'https://genius.com/artists/Camila-cabello'}, {'name': 'Cass Lowe', 'url': 'https://genius.com/artists/Cass-lowe'}, {'name': 'Clifton Dillon', 'url': 'https://genius.com/artists/Clifton-dillon'}, {'name': 'DallasK', 'url': 'https://genius.com/artists/Dallask'}, {'name': 'Dinah Jane', 'url': 'https://genius.com/artists/Dinah-jane'}, {'name': 'Eskeerdo', 'url': 'https://genius.com/artists/Eskeerdo'}, {'name': 'Fetty Wap', 'url': 'https://genius.com/artists/Fetty-wap'}, {'name': 'German (Producer)', 'url': 'https://genius.com/artists/German-producer'}, {'name': 'Gladius', 'url': 'https://genius.com/artists/Gladius'}, {'name': 'Handel Tucker', 'url': 'https://genius.com/artists/Handel-tucker'}, {'name': 'Herbert Harris', 'url': 'https://genius.com/artists/Herbert-harris'}, {'name': 'Jack Antonoff', 'url': 'https://genius.com/artists/Jack-antonoff'}, {'name': 'Jared Cotter', 'url': 'https://genius.com/artists/Jared-cotter'}, {'name': 'JHart', 'url': 'https://genius.com/artists/Jhart'}, {'name': 'Jordan K. Johnson', 'url': 'https://genius.com/artists/Jordan-k-johnson'}, {'name': 'Jude Demorest', 'url': 'https://genius.com/artists/Jude-demorest'}, {'name': 'Julia Michaels', 'url': 'https://genius.com/artists/Julia-michaels'}, {'name': 'Justin Tranter', 'url': 'https://genius.com/artists/Justin-tranter'}, {'name': 'Kygo', 'url': 'https://genius.com/artists/Kygo'}, {'name': 'Lauren Jauregui', 'url': 'https://genius.com/artists/Lauren-jauregui'}, {'name': 'Leroy Romans', 'url': 'https://genius.com/artists/Leroy-romans'}, {'name': 'Linton “TJ” White', 'url': 'https://genius.com/artists/Linton-tj-white'}, {'name': 'LSR', 'url': 'https://genius.com/artists/Lsr'}, {'name': 'Lukas “Lulou” Loules', 'url': 'https://genius.com/artists/Lukas-lulou-loules'}, {'name': 'Mad Cobra', 'url': 'https://genius.com/artists/Mad-cobra'}, {'name': 'MarcLo', 'url': 'https://genius.com/artists/Marclo'}, {'name': 'Mario Antonia Dunwell', 'url': 'https://genius.com/artists/Mario-antonia-dunwell'}, {'name': 'Mikkel Storleer Eriksen', 'url': 'https://genius.com/artists/Mikkel-storleer-eriksen'}, {'name': 'Missy Elliott', 'url': 'https://genius.com/artists/Missy-elliott'}, {'name': 'Negin Djafari', 'url': 'https://genius.com/artists/Negin-djafari'}, {'name': 'Normani', 'url': 'https://genius.com/artists/Normani'}, {'name': 'Peoples', 'url': 'https://genius.com/artists/Peoples'}, {'name': 'Play Picasso', 'url': 'https://genius.com/artists/Play-picasso'}, {'name': 'Priscilla Renea', 'url': 'https://genius.com/artists/Priscilla-renea'}, {'name': 'Richard Foulks', 'url': 'https://genius.com/artists/Richard-foulks'}, {'name': 'Simon Wilcox', 'url': 'https://genius.com/artists/Simon-wilcox'}, {'name': 'Sir Nolan', 'url': 'https://genius.com/artists/Sir-nolan'}, {'name': 'Sly Dunbar', 'url': 'https://genius.com/artists/Sly-dunbar'}, {'name': 'StarGate', 'url': 'https://genius.com/artists/Stargate'}, {'name': 'Stefan Johnson', 'url': 'https://genius.com/artists/Stefan-johnson'}, {'name': 'Tinashe', 'url': 'https://genius.com/artists/Tinashe'}, {'name': 'Tor Erik Hermansen', 'url': 'https://genius.com/artists/Tor-erik-hermansen'}, {'name': 'Tory Lanez', 'url': 'https://genius.com/artists/Tory-lanez'}, {'name': 'Ty Dolla $ign', 'url': 'https://genius.com/artists/Ty-dolla-sign'}, {'name': 'Victoria Monét', 'url': 'https://genius.com/artists/Victoria-monet'}, {'name': 'Vybz Kartel', 'url': 'https://genius.com/artists/Vybz-kartel'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/The-chainsmokers/Closer-remixes', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Closer (feat. Halsey) (Remixes)&lt;/em&gt; were released on iTunes on September 23rd 2016. Remixers include: Wuki, Shaun Frank, R3hab, and Robotaki.&lt;/p&gt;', 'producers': [{'name': 'ARMNHMR', 'url': 'https://genius.com/artists/Armnhmr'}, {'name': 'R3HAB', 'url': 'https://genius.com/artists/R3hab'}, {'name': 'Robotaki', 'url': 'https://genius.com/artists/Robotaki'}, {'name': 'Shaun Frank', 'url': 'https://genius.com/artists/Shaun-frank'}, {'name': 'T-Mass', 'url': 'https://genius.com/artists/T-mass'}, {'name': 'Wuki', 'url': 'https://genius.com/artists/Wuki'}], 'writers': [{'name': 'Alex Pall', 'url': 'https://genius.com/artists/Alex-pall'}, {'name': 'Andrew Taggart', 'url': 'https://genius.com/artists/Andrew-taggart'}, {'name': 'The Chainsmokers', 'url': 'https://genius.com/artists/The-chainsmokers'}, {'name': 'Frederic Kennett', 'url': 'https://genius.com/artists/Frederic-kennett'}, {'name': 'Halsey', 'url': 'https://genius.com/artists/Halsey'}, {'name': 'Isaac Slade', 'url': 'https://genius.com/artists/Isaac-slade'}, {'name': 'Joe King', 'url': 'https://genius.com/artists/Joe-king'}, {'name': 'Shaun Frank', 'url': 'https://genius.com/artists/Shaun-frank'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/The-police/Greatest-hits', 'annotations': {'description': '', 'producers': [{'name': 'Hugh Padgham', 'url': 'https://genius.com/artists/Hugh-padgham'}, {'name': 'Nigel Gray', 'url': 'https://genius.com/artists/Nigel-gray'}, {'name': 'The Police', 'url': 'https://genius.com/artists/The-police'}], 'writers': [{'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Mark-ronson/Uptown-special', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Uptown Special&lt;/em&gt; will be remembered for one of the all time great pop singles, &lt;a href="https://genius.com/Mark-ronson-uptown-funk-lyrics" rel="noopener" data-api_path="/songs/576123"&gt;“Uptown Funk”&lt;/a&gt; featuring Bruno Mars. Ronson’s sound isn’t always so maximalist, and the record revels in its more understated tones and melodies, hugely informed by 70’s Jazz and 80’s Disco.&lt;/p&gt;\n\n&lt;p&gt;But you can’t deny the pull of a genuine classic single. The album was helped to number 5 on the &lt;em&gt;US Billboard 200&lt;/em&gt;, easily Mark’s most successful US release. It’s also the first time he’d struck number 1 in the UK.&lt;/p&gt;\n\n&lt;p&gt;Ronson &lt;a href="http://www.spin.com/g00/2015/01/mark-ronson-uptown-special-funk-bruno-mars-interview/?i10c.referrer=https%3A%2F%2Fwww.google.com.au%2F" rel="noopener nofollow"&gt;told &lt;em&gt;Spin&lt;/em&gt;:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I always come back to: Stevie Wonder, Chaka Khan, great late-’70s, early-’80s R&amp;amp;B.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Boys Noize', 'url': 'https://genius.com/artists/Boys-noize'}, {'name': 'Bruno Mars', 'url': 'https://genius.com/artists/Bruno-mars'}, {'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'James Ford', 'url': 'https://genius.com/artists/James-ford'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}, {'name': 'Riton', 'url': 'https://genius.com/artists/Riton'}], 'writers': [{'name': 'Alex Greenwald', 'url': 'https://genius.com/artists/Alex-greenwald'}, {'name': 'Andrew Wyatt', 'url': 'https://genius.com/artists/Andrew-wyatt'}, {'name': 'Brody Brown', 'url': 'https://genius.com/artists/Brody-brown'}, {'name': 'Bruno Mars', 'url': 'https://genius.com/artists/Bruno-mars'}, {'name': 'Charlie Wilson', 'url': 'https://genius.com/artists/Charlie-wilson'}, {'name': 'Chris Vatalaro', 'url': 'https://genius.com/artists/Chris-vatalaro'}, {'name': 'Devon Gallaspy', 'url': 'https://genius.com/artists/Devon-gallaspy'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'Homer Steinweiss', 'url': 'https://genius.com/artists/Homer-steinweiss'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Kevin Parker', 'url': 'https://genius.com/artists/Kevin-parker'}, {'name': 'Kurupt', 'url': 'https://genius.com/artists/Kurupt'}, {'name': 'Lonnie Simmons', 'url': 'https://genius.com/artists/Lonnie-simmons'}, {'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}, {'name': 'Michael Chabon', 'url': 'https://genius.com/artists/Michael-chabon'}, {'name': 'Mystikal', 'url': 'https://genius.com/artists/Mystikal'}, {'name': 'Nate Dogg', 'url': 'https://genius.com/artists/Nate-dogg'}, {'name': 'Nick Movshon', 'url': 'https://genius.com/artists/Nick-movshon'}, {'name': 'Pal Joey', 'url': 'https://genius.com/artists/Pal-joey'}, {'name': 'Philip Lawrence', 'url': 'https://genius.com/artists/Philip-lawrence'}, {'name': 'Robert Wilson (The Gap Band)', 'url': 'https://genius.com/artists/Robert-wilson-the-gap-band'}, {'name': 'Ronnie Wilson', 'url': 'https://genius.com/artists/Ronnie-wilson'}, {'name': 'Rudy Taylor', 'url': 'https://genius.com/artists/Rudy-taylor'}, {'name': 'Rufus Wainwright', 'url': 'https://genius.com/artists/Rufus-wainwright'}, {'name': 'Snoop Dogg', 'url': 'https://genius.com/artists/Snoop-dogg'}, {'name': 'Thomas Brenneck', 'url': 'https://genius.com/artists/Thomas-brenneck'}, {'name': 'Trinidad James', 'url': 'https://genius.com/artists/Trinidad-james'}, {'name': 'Warren\xa0G', 'url': 'https://genius.com/artists/Warren-g'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/My-chemical-romance/May-death-never-stop-you', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;May Death Never Stop You&lt;/em&gt; is a compilation of My Chemical Romance’s greatest hits, spanning the band’s career from 2002-2013. It was released on March 25, 2014, over a year after the band announced their breakup.&lt;/p&gt;\n\n&lt;p&gt;The album opens with the previously unrelased track &lt;a href="https://genius.com/my-chemical-romance-fake-your-death-lyrics" rel="noopener" data-api_path="/songs/366546"&gt;“Fake Your Death,”&lt;/a&gt; which is followed by fifteen of their greatest hits and three demo recordings. &lt;a href="https://genius.com/my-chemical-romance-skylines-and-turnstiles-lyrics" rel="noopener" data-api_path="/songs/91304"&gt;“Skylines and Turnstiles”&lt;/a&gt; and &lt;a href="https://genius.com/my-chemical-romance-cubicles-lyrics" rel="noopener" data-api_path="/songs/320090"&gt;“Cubicles”&lt;/a&gt; retained their names, while &lt;a href="https://genius.com/my-chemical-romance-knives-sorrow-demo-lyrics" rel="noopener" data-api_path="/songs/1630829"&gt;“Knives / Sorrow”&lt;/a&gt; became &lt;a href="https://genius.com/my-chemical-romance-our-lady-of-sorrows-lyrics" rel="noopener" data-api_path="/songs/91302"&gt;“Our Lady of Sorrows.”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Alex Saavedra', 'url': 'https://genius.com/artists/Alex-saavedra'}, {'name': 'Doug McKean', 'url': 'https://genius.com/artists/Doug-mckean'}, {'name': 'Eyeball Records', 'url': 'https://genius.com/artists/Eyeball-records'}, {'name': 'Geoff Rickly', 'url': 'https://genius.com/artists/Geoff-rickly'}, {'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}, {'name': 'My Chemical Romance', 'url': 'https://genius.com/artists/My-chemical-romance'}, {'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}], 'writers': [{'name': 'Bob Bryar', 'url': 'https://genius.com/artists/Bob-bryar'}, {'name': 'Frank Iero', 'url': 'https://genius.com/artists/Frank-iero'}, {'name': 'Gerard Way', 'url': 'https://genius.com/artists/Gerard-way'}, {'name': 'James Dewees', 'url': 'https://genius.com/artists/James-dewees'}, {'name': 'Matt Pelissier', 'url': 'https://genius.com/artists/Matt-pelissier'}, {'name': 'Mikey Way', 'url': 'https://genius.com/artists/Mikey-way'}, {'name': 'My Chemical Romance', 'url': 'https://genius.com/artists/My-chemical-romance'}, {'name': 'Ray Toro', 'url': 'https://genius.com/artists/Ray-toro'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/The-proclaimers/Sunshine-on-leith', 'annotations': {'description': '', 'producers': [{'name': 'Pete Wingfield', 'url': 'https://genius.com/artists/Pete-wingfield'}], 'writers': [{'name': 'Charlie Reid', 'url': 'https://genius.com/artists/Charlie-reid'}, {'name': 'Craig Reid', 'url': 'https://genius.com/artists/Craig-reid'}, {'name': 'Danny Dill, Marijohn Wilkin', 'url': 'https://genius.com/artists/Danny-dill-marijohn-wilkin'}, {'name': 'Roger Miller', 'url': 'https://genius.com/artists/Roger-miller'}, {'name': 'Steve Earle', 'url': 'https://genius.com/artists/Steve-earle'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Britney-spears/Greatest-hits-my-prerogative', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;“Greatest Hits: My Prerogative”&lt;/em&gt; is the first greatest hits album by Britney Spears. It was released on November 8, 2004. The compilation was released in two different formats, a standard edition and a limited edition containing a bonus disc with remixes.&lt;/p&gt;\n\n&lt;p&gt;The album includes three new tracks, a cover of Bobby Brown’s &lt;a href="https://genius.com/Britney-spears-my-prerogative-lyrics" rel="noopener" data-api_path="/songs/193864"&gt;&lt;em&gt;“My Prerogative”&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/Britney-spears-do-somethin-lyrics" rel="noopener" data-api_path="/songs/193768"&gt;&lt;em&gt;“Do Somethin\'”&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/Britney-spears-ive-just-begun-having-my-fun-lyrics" rel="noopener" data-api_path="/songs/193663"&gt;&lt;em&gt;“I’ve Just Begun (Having My Fun)”&lt;/em&gt;&lt;/a&gt;, which was released digitally in August 2004.&lt;/p&gt;', 'producers': [{'name': 'Bloodshy &amp; Avant', 'url': 'https://genius.com/artists/Bloodshy-and-avant'}, {'name': 'David Kreuger', 'url': 'https://genius.com/artists/David-kreuger'}, {'name': 'Guy Sigsworth', 'url': 'https://genius.com/artists/Guy-sigsworth'}, {'name': 'Jörgen Elofsson', 'url': 'https://genius.com/artists/Jorgen-elofsson'}, {'name': 'Kristian Lundin', 'url': 'https://genius.com/artists/Kristian-lundin'}, {'name': 'Mark Taylor', 'url': 'https://genius.com/artists/Mark-taylor'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'The Neptunes', 'url': 'https://genius.com/artists/The-neptunes'}, {'name': 'Per Magnusson', 'url': 'https://genius.com/artists/Per-magnusson'}, {'name': 'Rami', 'url': 'https://genius.com/artists/Rami'}, {'name': 'R. Kelly', 'url': 'https://genius.com/artists/R-kelly'}, {'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}, {'name': 'Rodney Jerkins', 'url': 'https://genius.com/artists/Rodney-jerkins'}, {'name': 'Tricky Stewart', 'url': 'https://genius.com/artists/Tricky-stewart'}], 'writers': [{'name': 'Alan Merrill', 'url': 'https://genius.com/artists/Alan-merrill'}, {'name': 'Alexander Kronlund', 'url': 'https://genius.com/artists/Alexander-kronlund'}, {'name': 'Andreas Carlsson', 'url': 'https://genius.com/artists/Andreas-carlsson'}, {'name': 'Angela Hunte', 'url': 'https://genius.com/artists/Angela-hunte'}, {'name': 'Annette Stamatelatos', 'url': 'https://genius.com/artists/Annette-stamatelatos'}, {'name': 'Bloodshy', 'url': 'https://genius.com/artists/Bloodshy'}, {'name': 'Bloodshy &amp; Avant', 'url': 'https://genius.com/artists/Bloodshy-and-avant'}, {'name': 'Bobby Brown', 'url': 'https://genius.com/artists/Bobby-brown'}, {'name': 'Britney Spears', 'url': 'https://genius.com/artists/Britney-spears'}, {'name': 'Cathy Dennis', 'url': 'https://genius.com/artists/Cathy-dennis'}, {'name': 'Chad Hugo', 'url': 'https://genius.com/artists/Chad-hugo'}, {'name': 'David Kreuger', 'url': 'https://genius.com/artists/David-kreuger'}, {'name': 'Dido', 'url': 'https://genius.com/artists/Dido'}, {'name': 'Gary O’Brien', 'url': 'https://genius.com/artists/Gary-obrien'}, {'name': 'Gene Griffin', 'url': 'https://genius.com/artists/Gene-griffin'}, {'name': 'Henrik Jonback', 'url': 'https://genius.com/artists/Henrik-jonback'}, {'name': 'Jake Hooker', 'url': 'https://genius.com/artists/Jake-hooker'}, {'name': 'Jörgen Elofsson', 'url': 'https://genius.com/artists/Jorgen-elofsson'}, {'name': 'Keith Scott', 'url': 'https://genius.com/artists/Keith-scott'}, {'name': 'Kristian Lundin', 'url': 'https://genius.com/artists/Kristian-lundin'}, {'name': 'Lisa Greene', 'url': 'https://genius.com/artists/Lisa-greene'}, {'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Michelle Bell', 'url': 'https://genius.com/artists/Michelle-bell'}, {'name': 'Penelope Magnet', 'url': 'https://genius.com/artists/Penelope-magnet'}, {'name': 'Per Magnusson', 'url': 'https://genius.com/artists/Per-magnusson'}, {'name': 'Pharrell Williams', 'url': 'https://genius.com/artists/Pharrell-williams'}, {'name': 'Pontus Winnberg', 'url': 'https://genius.com/artists/Pontus-winnberg'}, {'name': 'Rami', 'url': 'https://genius.com/artists/Rami'}, {'name': 'R. Kelly', 'url': 'https://genius.com/artists/R-kelly'}, {'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}, {'name': 'Shania Twain', 'url': 'https://genius.com/artists/Shania-twain'}, {'name': 'Stephen Lee', 'url': 'https://genius.com/artists/Stephen-lee'}, {'name': 'Steve Anderson [Brothers In Rhythm]', 'url': 'https://genius.com/artists/Steve-anderson-brothers-in-rhythm'}, {'name': 'Thabiso “Tab” Nkhereanye', 'url': 'https://genius.com/artists/Thabiso-tab-nkhereanye'}, {'name': 'The-Dream', 'url': 'https://genius.com/artists/The-dream'}, {'name': 'Tricky Stewart', 'url': 'https://genius.com/artists/Tricky-stewart'}], 'labels': [{'name': 'Jive Records', 'url': 'https://genius.com/artists/Jive-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/The-all-american-rejects/Move-along', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Move Along&lt;/em&gt; is the second album by the American pop punk band The All-American Rejects, released on July 12, 2005 via Interscope Records. Writing for the album &lt;a href="http://www.mtv.com/news/1479678/all-american-rejects-make-the-honeymoon-last-on-time-stands-still/" rel="noopener nofollow"&gt;began&lt;/a&gt; in 2003.&lt;/p&gt;\n\n&lt;p&gt;The album produced a total of three singles: &lt;a href="https://genius.com/The-all-american-rejects-dirty-little-secret-lyrics" rel="noopener" data-api_path="/songs/77010"&gt;“Dirty Little Secret”&lt;/a&gt;, &lt;a href="https://genius.com/The-all-american-rejects-move-along-lyrics" rel="noopener" data-api_path="/songs/116101"&gt;“Move Along”&lt;/a&gt;, and &lt;a href="https://genius.com/The-all-american-rejects-it-ends-tonight-lyrics" rel="noopener" data-api_path="/songs/397654"&gt;“It Ends Tonight”&lt;/a&gt;, which all peaked within the top 15 of the Billboard Hot 100.&lt;/p&gt;', 'producers': [{'name': 'The All-American Rejects', 'url': 'https://genius.com/artists/The-all-american-rejects'}, {'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Nick Wheeler', 'url': 'https://genius.com/artists/Nick-wheeler'}, {'name': 'Tyson Ritter', 'url': 'https://genius.com/artists/Tyson-ritter'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Avicii/True-avicii-by-avicii', 'annotations': {'description': '&lt;p&gt;This is an album Tim made with remixes of his own original songs.&lt;/p&gt;', 'producers': [{'name': 'Ash Pournouri', 'url': 'https://genius.com/artists/Ash-pournouri'}, {'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}, {'name': 'CAZZETTE', 'url': 'https://genius.com/artists/Cazzette'}, {'name': 'Jens Siverstedt', 'url': 'https://genius.com/artists/Jens-siverstedt'}, {'name': 'Nile Rodgers', 'url': 'https://genius.com/artists/Nile-rodgers'}], 'writers': [{'name': 'Adam Lambert', 'url': 'https://genius.com/artists/Adam-lambert'}, {'name': 'Aloe Blacc', 'url': 'https://genius.com/artists/Aloe-blacc'}, {'name': 'ANOHNI', 'url': 'https://genius.com/artists/Anohni'}, {'name': 'Arash Pournouri', 'url': 'https://genius.com/artists/Arash-pournouri'}, {'name': 'Ash Pournouri', 'url': 'https://genius.com/artists/Ash-pournouri'}, {'name': 'Audra Mae', 'url': 'https://genius.com/artists/Audra-mae'}, {'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}, {'name': 'Bruce Driscoll', 'url': 'https://genius.com/artists/Bruce-driscoll'}, {'name': 'Egbert Nathaniel Dawkins', 'url': 'https://genius.com/artists/Egbert-nathaniel-dawkins'}, {'name': 'Erica Driscoll', 'url': 'https://genius.com/artists/Erica-driscoll'}, {'name': 'Jonas Knutsson', 'url': 'https://genius.com/artists/Jonas-knutsson'}, {'name': 'Josh Krajcik', 'url': 'https://genius.com/artists/Josh-krajcik'}, {'name': 'MØ', 'url': 'https://genius.com/artists/M'}, {'name': 'Mac Davis', 'url': 'https://genius.com/artists/Mac-davis'}, {'name': 'Mike Einziger', 'url': 'https://genius.com/artists/Mike-einziger'}, {'name': 'Nile Rodgers', 'url': 'https://genius.com/artists/Nile-rodgers'}, {'name': 'Peter Dyer', 'url': 'https://genius.com/artists/Peter-dyer'}, {'name': 'Salem Al Fakir', 'url': 'https://genius.com/artists/Salem-al-fakir'}, {'name': 'Sterling Fox', 'url': 'https://genius.com/artists/Sterling-fox'}, {'name': 'Veronica Maggio', 'url': 'https://genius.com/artists/Veronica-maggio'}, {'name': 'Vincent Pontare', 'url': 'https://genius.com/artists/Vincent-pontare'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Charlie-puth/Nine-track-mind', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Nine Track Mind&lt;/em&gt; is the debut album by singer-songwriter &lt;a href="https://genius.com/artists/Charlie-puth" rel="noopener" data-api_path="/artists/250301"&gt;Charlie Puth&lt;/a&gt;. It was originally set to drop on November 6th, 2015, but its release date was moved to January 29th, 2016. It includes the nearly-top-twenty single &lt;a href="https://genius.com/Charlie-puth-marvin-gaye-lyrics" rel="noopener" data-api_path="/songs/706298"&gt;“Marvin Gaye,”&lt;/a&gt; a duet with Charlie’s friend &lt;a href="https://genius.com/artists/Meghan-trainor" rel="noopener" data-api_path="/artists/201194"&gt;Meghan Trainor,&lt;/a&gt; which peaked at 21.&lt;/p&gt;\n\n&lt;p&gt;The title is a play on the phrase &lt;a href="http://www.urbandictionary.com/define.php?term=one-track%20mind" rel="noopener nofollow"&gt;“one track mind,”&lt;/a&gt; which means that someone concentrates on one thing and allow it to replace all other thoughts. Ironically, the album has twelve songs on it.&lt;/p&gt;\n\n&lt;p&gt;Deluxe tracks &lt;a href="https://genius.com/charlie-puth-does-it-feel-lyrics" rel="noopener" data-api_path="/songs/2905476"&gt;“Does It Feel”&lt;/a&gt; and &lt;a href="https://genius.com/charlie-puth-river-lyrics" rel="noopener" data-api_path="/songs/2905473"&gt;“River”&lt;/a&gt; were released the night of November 10th, 2016.&lt;/p&gt;', 'producers': [{'name': 'Andrew Cedar', 'url': 'https://genius.com/artists/Andrew-cedar'}, {'name': 'Charlie Puth', 'url': 'https://genius.com/artists/Charlie-puth'}, {'name': 'DJ Frank E', 'url': 'https://genius.com/artists/Dj-frank-e'}, {'name': 'Geoffro Cause', 'url': 'https://genius.com/artists/Geoffro-cause'}, {'name': 'Infamous', 'url': 'https://genius.com/artists/Infamous'}, {'name': 'Jesse Shatkin', 'url': 'https://genius.com/artists/Jesse-shatkin'}, {'name': 'Johan Carlsson', 'url': 'https://genius.com/artists/Johan-carlsson'}, {'name': 'J.R. Rotem', 'url': 'https://genius.com/artists/Jr-rotem'}, {'name': 'Kevin Weaver', 'url': 'https://genius.com/artists/Kevin-weaver'}, {'name': 'Matt Prime', 'url': 'https://genius.com/artists/Matt-prime'}, {'name': 'Mike Caren', 'url': 'https://genius.com/artists/Mike-caren'}, {'name': 'Red Triangle', 'url': 'https://genius.com/artists/Red-triangle'}], 'writers': [{'name': 'Andrew Cedar', 'url': 'https://genius.com/artists/Andrew-cedar'}, {'name': 'Bonnie McKee', 'url': 'https://genius.com/artists/Bonnie-mckee'}, {'name': 'Breyan Isaac', 'url': 'https://genius.com/artists/Breyan-isaac'}, {'name': 'Charlie Puth', 'url': 'https://genius.com/artists/Charlie-puth'}, {'name': 'Dann Hume', 'url': 'https://genius.com/artists/Dann-hume'}, {'name': 'David Brook', 'url': 'https://genius.com/artists/David-brook'}, {'name': 'DJ Frank E', 'url': 'https://genius.com/artists/Dj-frank-e'}, {'name': 'Eskeerdo', 'url': 'https://genius.com/artists/Eskeerdo'}, {'name': 'Geoffro Cause', 'url': 'https://genius.com/artists/Geoffro-cause'}, {'name': 'Giorgio Tuinfort', 'url': 'https://genius.com/artists/Giorgio-tuinfort'}, {'name': 'Infamous', 'url': 'https://genius.com/artists/Infamous'}, {'name': 'Jack Martello', 'url': 'https://genius.com/artists/Jack-martello'}, {'name': 'Jacob Kasher', 'url': 'https://genius.com/artists/Jacob-kasher'}, {'name': 'Jacob Luttrell', 'url': 'https://genius.com/artists/Jacob-luttrell'}, {'name': 'JHart', 'url': 'https://genius.com/artists/Jhart'}, {'name': 'Johan Carlsson', 'url': 'https://genius.com/artists/Johan-carlsson'}, {'name': 'Josh Hardy', 'url': 'https://genius.com/artists/Josh-hardy'}, {'name': 'Josh Kear', 'url': 'https://genius.com/artists/Josh-kear'}, {'name': 'J.R. Rotem', 'url': 'https://genius.com/artists/Jr-rotem'}, {'name': 'Julie Frost', 'url': 'https://genius.com/artists/Julie-frost'}, {'name': 'Marc E. Bassy', 'url': 'https://genius.com/artists/Marc-e-bassy'}, {'name': 'Matt Prime', 'url': 'https://genius.com/artists/Matt-prime'}, {'name': 'MoZella', 'url': 'https://genius.com/artists/Mozella'}, {'name': 'Nick Seeley', 'url': 'https://genius.com/artists/Nick-seeley'}, {'name': 'Phoebe Lou', 'url': 'https://genius.com/artists/Phoebe-lou'}, {'name': 'PJ', 'url': 'https://genius.com/artists/Pj'}, {'name': 'Red Triangle', 'url': 'https://genius.com/artists/Red-triangle'}, {'name': 'Ross Golan', 'url': 'https://genius.com/artists/Ross-golan'}, {'name': 'Ruby Pickens Tartt', 'url': 'https://genius.com/artists/Ruby-pickens-tartt'}, {'name': 'Selena Gomez', 'url': 'https://genius.com/artists/Selena-gomez'}, {'name': 'Shy Carter', 'url': 'https://genius.com/artists/Shy-carter'}, {'name': 'Thomas Troelsen', 'url': 'https://genius.com/artists/Thomas-troelsen'}, {'name': 'Vera Hall', 'url': 'https://genius.com/artists/Vera-hall'}, {'name': 'Wiz Khalifa', 'url': 'https://genius.com/artists/Wiz-khalifa'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Evanescence/The-open-door', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Open Door&lt;/em&gt; is the second studio album by Evanescence. It was released on 25 September 2006.&lt;/p&gt;\n\n&lt;p&gt;Musically, it’s heavier than the band’s debut album, &lt;a href="https://genius.com/albums/Evanescence/Fallen" rel="noopener" data-api_path="/albums/15242"&gt;&lt;em&gt;Fallen&lt;/em&gt;&lt;/a&gt;. Most of the songs were written by &lt;a href="https://genius.com/artists/Amy-lee" rel="noopener" data-api_path="/artists/30669"&gt;Amy Lee&lt;/a&gt; and &lt;a href="https://genius.com/artists/Terry-balsamo" rel="noopener" data-api_path="/artists/990390"&gt;Terry Balsamo&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In an interview, Lee said:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I feel like I’ve got that out of my system. I’m happy. I feel good now. I feel free. That’s why the album is called &lt;em&gt;The Open Door&lt;/em&gt; because I feel like all the doors in my life I pushed open, and now I can do whatever I want.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The initial date for the record to be made available for purchase was in March 2006, but was changed as a result of Balsamo’s stroke.&lt;/p&gt;\n\n&lt;p&gt;More than a “break up record”, Lee &lt;a href="http://evanescencecrew.wixsite.com/evanescencecrew/single-post/2016/12/02/Amy-Lee-talks-about-Evanescences-The-Open-Door-on-Kerrang-Magazine" rel="noopener nofollow"&gt;sees&lt;/a&gt; it as “[a] breaking up with lots of things and a lot of people. I hear myself singing for freedom, and standing up for myself instead of being a broken little girl sitting in the corner, crying about how hard life is, which you can hear a little bit of on &lt;em&gt;Fallen&lt;/em&gt;. It’s me standing up and taking control.”&lt;/p&gt;\n\n&lt;p&gt;The album was preceded by the number-one singles &lt;a href="https://genius.com/Evanescence-call-me-when-youre-sober-lyrics" rel="noopener" data-api_path="/songs/218580"&gt;“Call Me When You’re Sober”&lt;/a&gt; and &lt;a href="https://genius.com/Evanescence-lithium-lyrics" rel="noopener" data-api_path="/songs/183356"&gt;“Lithium.”&lt;/a&gt; It has three B-sides: &lt;a href="https://genius.com/Evanescence-the-last-song-im-wasting-on-you-lyrics" rel="noopener" data-api_path="/songs/218591"&gt;“The Last Song I’m Wasting on You”&lt;/a&gt;, &lt;a href="https://genius.com/Evanescence-together-again-lyrics" rel="noopener" data-api_path="/songs/218628"&gt;“Together Again”&lt;/a&gt;, and &lt;a href="https://genius.com/Evanescence-if-you-dont-mind-lyrics" rel="noopener" data-api_path="/songs/218619"&gt;“If You Don’t Mind”.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}], 'writers': [{'name': 'Amy Lee', 'url': 'https://genius.com/artists/Amy-lee'}, {'name': 'John LeCompt', 'url': 'https://genius.com/artists/John-lecompt'}, {'name': 'Terry Balsamo', 'url': 'https://genius.com/artists/Terry-balsamo'}, {'name': 'Wolfgang Amadeus Mozart', 'url': 'https://genius.com/artists/Wolfgang-amadeus-mozart'}], 'labels': [{'name': 'Craft Recordings', 'url': 'https://genius.com/artists/Craft-recordings'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Portugal-the-man/Woodstock', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Portugal-the-man" rel="noopener" data-api_path="/artists/52078"&gt;Portugal. The Man&lt;/a&gt;’s much-anticipated 8th album, &lt;em&gt;Woodstock&lt;/em&gt;, dropped on June 16th, 2017. It is their third album since signing to Atlantic, following &lt;a href="https://genius.com/albums/Portugal-the-man/Evil-friends" rel="noopener" data-api_path="/albums/34587"&gt;&lt;em&gt;Evil Friends&lt;/em&gt;&lt;/a&gt; (2013) and their label debut &lt;a href="https://genius.com/albums/Portugal-the-man/In-the-mountain-in-the-cloud" rel="noopener" data-api_path="/albums/40183"&gt;&lt;em&gt;In the Mountain, In the Cloud&lt;/em&gt;&lt;/a&gt; (2011).&lt;/p&gt;\n\n&lt;p&gt;The inspiration for the title came from &lt;a href="https://genius.com/artists/John-baldwin-gourley" rel="noopener" data-api_path="/artists/1052731"&gt;Gourley&lt;/a&gt;’s interest in Woodstock, the revolutionary music festival from 1969, &lt;a href="http://www.billboard.com/articles/columns/rock/7832910/portugal-the-man-woodstock-interview" rel="noopener nofollow"&gt;kindled by finding his father’s original ticket stub&lt;/a&gt;. This influenced him to make protest music akin to the kind that so powerfully emerged in the mid-late ‘60s in response to the  Vietnam War. Gourley stated that he was “trying to write music that would help people feel they’re not alone, even if they’re angry or feeling lost. This video is our way of saying that we’re all in this together.”&lt;/p&gt;\n\n&lt;p&gt;This appeal to our common humanity is reflected on the single “&lt;a href="https://genius.com/Portugal-the-man-number-one-lyrics" rel="noopener" data-api_path="/songs/3070304"&gt;Number One ft. Son Little and Richie Havens&lt;/a&gt;,” which samples the very song that opened Woodstock, and became one of its most iconic performances, &lt;a href="https://genius.com/artists/Richie-havens" rel="noopener" data-api_path="/artists/47243"&gt;Richie Haven&lt;/a&gt;’s “&lt;a href="https://genius.com/Richie-havens-freedom-lyrics" rel="noopener" data-api_path="/songs/143833"&gt;Freedom (Motherless Child)&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;Musically, this record contains a remarkable diversity of genres: psych-rock, radio-friendly pop, funk rock, programmed beats, hip-hop and rap (sampling on “&lt;a href="https://genius.com/Portugal-the-man-number-one-lyrics" rel="noopener" data-api_path="/songs/3070304"&gt;Number One&lt;/a&gt;,” a rap verse by &lt;a href="https://genius.com/artists/Fatlip" rel="noopener" data-api_path="/artists/63"&gt;Fatlip&lt;/a&gt; on “&lt;a href="https://genius.com/Portugal-the-man-mr-lonely-lyrics" rel="noopener" data-api_path="/songs/3123017"&gt;Mr. Lonely&lt;/a&gt;”). “&lt;a href="https://genius.com/Portugal-the-man-noise-pollution-version-a-vocal-up-mix-13-lyrics" rel="noopener" data-api_path="/songs/2922120"&gt;Noise Pollution&lt;/a&gt;” features &lt;a href="https://genius.com/artists/John-baldwin-gourley" rel="noopener" data-api_path="/artists/1052731"&gt;Gourley&lt;/a&gt; rapping his verses and was produced by &lt;a href="https://genius.com/artists/Mike-d" rel="noopener" data-api_path="/artists/109644"&gt;Mike D&lt;/a&gt; of &lt;a href="https://genius.com/artists/Beastie-boys" rel="noopener" data-api_path="/artists/329"&gt;Beastie Boys&lt;/a&gt;, a group that &lt;a href="https://genius.com/artists/John-baldwin-gourley" rel="noopener" data-api_path="/artists/1052731"&gt;Gourley&lt;/a&gt; and &lt;a href="https://genius.com/artists/Zachary-carothers" rel="noopener" data-api_path="/artists/1127179"&gt;Zach Carothers&lt;/a&gt; bonded around growing up in Alaska (“&lt;a href="https://genius.com/Portugal-the-man-feel-it-still-lyrics" rel="noopener" data-api_path="/songs/3008446"&gt;Feel It Still&lt;/a&gt;” references 1986, the year &lt;a href="https://genius.com/albums/Beastie-boys/Licensed-to-ill" rel="noopener" data-api_path="/albums/659"&gt;&lt;em&gt;Licensed to Ill&lt;/em&gt;&lt;/a&gt; came out). The band continued to benefit from the creative direction of &lt;a href="https://genius.com/artists/Danger-mouse" rel="noopener" data-api_path="/artists/8957"&gt;Danger Mouse&lt;/a&gt;, and the sound they cultivated with him on &lt;a href="https://genius.com/albums/Portugal-the-man/Evil-friends" rel="noopener" data-api_path="/albums/34587"&gt;&lt;em&gt;Evil Friends&lt;/em&gt;&lt;/a&gt; can be heard on a number of tracks (e.g. the orchestral/choral outro to “&lt;a href="https://genius.com/Portugal-the-man-number-one-lyrics" rel="noopener" data-api_path="/songs/3070304"&gt;Number One&lt;/a&gt;.”) It’s worth noting as well that &lt;a href="https://genius.com/artists/Zoe-manville" rel="noopener" data-api_path="/artists/1040125"&gt;Zoe Manville&lt;/a&gt; contributes a significant amount of vocals, perhaps the most on a &lt;a href="https://genius.com/artists/Portugal-the-man" rel="noopener" data-api_path="/artists/52078"&gt;Portugal. The Man&lt;/a&gt; record since &lt;a href="https://genius.com/albums/Portugal-the-man/The-satanic-satanist" rel="noopener" data-api_path="/albums/40073"&gt;&lt;em&gt;The Satanic Satanist&lt;/em&gt;&lt;/a&gt; or &lt;a href="https://genius.com/albums/Portugal-the-man/American-ghetto" rel="noopener" data-api_path="/albums/40184"&gt;&lt;em&gt;American Ghetto&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Lyrically, the album tackles a variety of topics, from the pains of growing up (“&lt;a href="https://genius.com/Portugal-the-man-easy-tiger-lyrics" rel="noopener" data-api_path="/songs/3122955"&gt;Easy Tiger&lt;/a&gt;”), to climate change (“&lt;a href="https://genius.com/Portugal-the-man-tidal-wave-lyrics" rel="noopener" data-api_path="/songs/3123057"&gt;Tidal Wave&lt;/a&gt;”), to our celebrity culture (&lt;a href="https://genius.com/Portugal-the-man-rich-friends-lyrics" rel="noopener" data-api_path="/songs/3121114"&gt;Rich Friends&lt;/a&gt;,“  ”&lt;a href="https://genius.com/Portugal-the-man-keep-on-lyrics" rel="noopener" data-api_path="/songs/3122978"&gt;Keep On&lt;/a&gt;“), to the Charlie Hebdo massacre in Paris in 2015 (”&lt;a href="https://genius.com/Portugal-the-man-noise-pollution-version-a-vocal-up-mix-13-lyrics" rel="noopener" data-api_path="/songs/2922120"&gt;Noise Pollution&lt;/a&gt;“), and to courageous optimism in the face of all this adversity (”&lt;a href="https://genius.com/Portugal-the-man-number-one-lyrics" rel="noopener" data-api_path="/songs/3070304"&gt;Number One&lt;/a&gt;“).&lt;/p&gt;\n\n&lt;p&gt;To mark the release of the album, &lt;a href="https://www.instagram.com/p/BVZzsN3BeEQ/" rel="noopener nofollow"&gt;the band posted the cover art with the following caption to their Instagram&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Friends. We know, we get it, 4 years and 10 days have gone by since we put a record out. 35280 hours. A. Fucking. Eternity. We’ve been growing, getting stronger, claws sharper. We wanted to give you our best. So here it is- WOODSTOCK, our ten finest. From us to you. THANK YOU for riding along with us. We’re all in this together…&lt;br&gt;\nLove, P.TM&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Asa Taccone', 'url': 'https://genius.com/artists/Asa-taccone'}, {'name': 'Casey Bates', 'url': 'https://genius.com/artists/Casey-bates'}, {'name': 'Danger Mouse', 'url': 'https://genius.com/artists/Danger-mouse'}, {'name': 'John Gourley', 'url': 'https://genius.com/artists/John-gourley'}, {'name': 'John Hill', 'url': 'https://genius.com/artists/John-hill'}, {'name': 'Mickey Hart', 'url': 'https://genius.com/artists/Mickey-hart'}, {'name': 'Mike D', 'url': 'https://genius.com/artists/Mike-d'}, {'name': 'Sonny DiPerri', 'url': 'https://genius.com/artists/Sonny-diperri'}, {'name': 'STINT', 'url': 'https://genius.com/artists/Stint'}], 'writers': [{'name': 'Ammar Malik', 'url': 'https://genius.com/artists/Ammar-malik'}, {'name': 'Asa Taccone', 'url': 'https://genius.com/artists/Asa-taccone'}, {'name': 'Brian Holland', 'url': 'https://genius.com/artists/Brian-holland'}, {'name': 'Carla Azar', 'url': 'https://genius.com/artists/Carla-azar'}, {'name': 'Casper', 'url': 'https://genius.com/artists/Casper'}, {'name': 'Danger Mouse', 'url': 'https://genius.com/artists/Danger-mouse'}, {'name': 'Eric Howk', 'url': 'https://genius.com/artists/Eric-howk'}, {'name': 'Eugene Goreshter', 'url': 'https://genius.com/artists/Eugene-goreshter'}, {'name': 'Fatlip', 'url': 'https://genius.com/artists/Fatlip'}, {'name': 'Freddie Gorman', 'url': 'https://genius.com/artists/Freddie-gorman'}, {'name': 'Greg Edwards', 'url': 'https://genius.com/artists/Greg-edwards'}, {'name': 'Jason Kreher', 'url': 'https://genius.com/artists/Jason-kreher'}, {'name': 'Jason Sechrist', 'url': 'https://genius.com/artists/Jason-sechrist'}, {'name': 'John Gourley', 'url': 'https://genius.com/artists/John-gourley'}, {'name': 'John Hill', 'url': 'https://genius.com/artists/John-hill'}, {'name': 'Kalenna', 'url': 'https://genius.com/artists/Kalenna'}, {'name': 'Kid Harpoon', 'url': 'https://genius.com/artists/Kid-harpoon'}, {'name': 'Kyle O’Quin', 'url': 'https://genius.com/artists/Kyle-oquin'}, {'name': 'Mickey Hart', 'url': 'https://genius.com/artists/Mickey-hart'}, {'name': 'Nick Koenig', 'url': 'https://genius.com/artists/Nick-koenig'}, {'name': 'Portugal. The Man', 'url': 'https://genius.com/artists/Portugal-the-man'}, {'name': 'Richie Havens', 'url': 'https://genius.com/artists/Richie-havens'}, {'name': 'Robert Bateman', 'url': 'https://genius.com/artists/Robert-bateman'}, {'name': 'Rodney Jerkins', 'url': 'https://genius.com/artists/Rodney-jerkins'}, {'name': 'STINT', 'url': 'https://genius.com/artists/Stint'}, {'name': 'Zachary Carothers', 'url': 'https://genius.com/artists/Zachary-carothers'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Red-hot-chili-peppers/Greatest-hits', 'annotations': {'description': '&lt;p&gt;The &lt;a href="https://genius.com/artists/Red-hot-chili-peppers" rel="noopener" data-api_path="/artists/1460"&gt;Red Hot Chili Peppers&lt;/a&gt;‘ &lt;em&gt;Greatest Hits&lt;/em&gt; album was released in 2003, featuring most, but not all, of their Warner Records singles since &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Blood-sugar-sex-magik" rel="noopener" data-api_path="/albums/16011"&gt;Blood Sugar Sex Magic&lt;/a&gt;&lt;/em&gt; (1991), along with two new songs, and one track from the EMI days, the &lt;a href="https://genius.com/artists/Stevie-wonder" rel="noopener" data-api_path="/artists/1602"&gt;Stevie Wonder&lt;/a&gt; cover “Higher Ground”. The last one is the only track not produced by  &lt;a href="https://genius.com/artists/Rick-rubin" rel="noopener" data-api_path="/artists/27794"&gt;Rick Rubin&lt;/a&gt;, a longtime friend and producer of Chili Pepper albums.&lt;/p&gt;\n\n&lt;p&gt;Some of the absences in the CD are featured in the DVD version with the music videos from the period:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;&lt;p&gt;From &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/One-hot-minute" rel="noopener" data-api_path="/albums/19418"&gt;One Hot Minute&lt;/a&gt;&lt;/em&gt; (1995):&lt;br&gt;\n&lt;a href="https://genius.com/Red-hot-chili-peppers-aeroplane-lyrics" rel="noopener" data-api_path="/songs/198205"&gt;“Aeroplane”&lt;/a&gt;&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;From &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Californication" rel="noopener" data-api_path="/albums/11888"&gt;Californication&lt;/a&gt;&lt;/em&gt; (1999):&lt;br&gt;\n&lt;a href="https://genius.com/Red-hot-chili-peppers-around-the-world-lyrics" rel="noopener" data-api_path="/songs/54310"&gt;“Around the World”&lt;/a&gt;&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;From &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/By-the-way" rel="noopener" data-api_path="/albums/20513"&gt;By the Way&lt;/a&gt;&lt;/em&gt; (2002): &lt;a href="https://genius.com/Red-hot-chili-peppers-cant-stop-lyrics" rel="noopener" data-api_path="/songs/3228"&gt;“Can’t Stop”&lt;/a&gt;, &lt;a href="https://genius.com/Red-hot-chili-peppers-the-zephyr-song-lyrics" rel="noopener" data-api_path="/songs/110634"&gt;“The Zephyr Song”&lt;/a&gt;&lt;/p&gt;&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;p&gt;Two songs recorded for the record were also included, with &lt;a href="https://genius.com/Red-hot-chili-peppers-fortune-faded-lyrics" rel="noopener" data-api_path="/songs/372222"&gt;“Fortune Faded”&lt;/a&gt; becoming a minor chart hit internationally, and &lt;a href="https://genius.com/Red-hot-chili-peppers-fortune-faded-lyrics" rel="noopener" data-api_path="/songs/372222"&gt;“Save The Population”&lt;/a&gt; added as a non-single. There were allegedly part of an &lt;a href="http://www.moderndrummer.com/site/current-issue-2/" rel="noopener nofollow"&gt;entire album&lt;/a&gt; of material that was meant to be released, but that the band felt was too outdated.&lt;/p&gt;\n\n&lt;p&gt;The compilation was a huge international success, going Platinum in 10 different regions, including 6x platinum in Australia. It only made it to number 18 on the US &lt;em&gt;Billboard&lt;/em&gt; album charts.&lt;/p&gt;', 'producers': [{'name': 'Michael Beinhorn', 'url': 'https://genius.com/artists/Michael-beinhorn'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Anthony Kiedis', 'url': 'https://genius.com/artists/Anthony-kiedis'}, {'name': 'Chad Smith', 'url': 'https://genius.com/artists/Chad-smith'}, {'name': 'Dave Navarro', 'url': 'https://genius.com/artists/Dave-navarro'}, {'name': 'Flea', 'url': 'https://genius.com/artists/Flea'}, {'name': 'John Frusciante', 'url': 'https://genius.com/artists/John-frusciante'}, {'name': 'Stevie Wonder', 'url': 'https://genius.com/artists/Stevie-wonder'}], 'labels': [{'name': 'EMI America', 'url': 'https://genius.com/artists/Emi-america'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}, {'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Beck/Midnite-vultures', 'annotations': {'description': '&lt;p&gt;Taking a wild turn from psychedelia, &lt;em&gt;Midnite Vultures&lt;/em&gt; is all about funk, electronica, and soul, with a dash of &lt;a href="https://genius.com/artists/Beck" rel="noopener" data-api_path="/artists/2073"&gt;Beck&lt;/a&gt;’s high voice. It’s about as crazy as you can get in El Lay.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Beck-sexx-laws-lyrics" rel="noopener" data-api_path="/songs/87531"&gt;“Sexx Laws”&lt;/a&gt;, the opener, blares fat brass soul and funk, with Beck’s psychedelic, high voice. &lt;a href="https://genius.com/Beck-get-real-paid-lyrics" rel="noopener" data-api_path="/songs/461983"&gt;“Get Real Paid”&lt;/a&gt;, a sampled, bubbly electronica track, mixes dance and nonsense like an ice cream, while &lt;a href="https://genius.com/Beck-nicotine-and-gravy-lyrics" rel="noopener" data-api_path="/songs/461967"&gt;“Nicotine &amp;amp; Gravy”&lt;/a&gt; is a funky back-road of psychedelia and drugs, &lt;a href="https://genius.com/Beck-pressure-zone-lyrics" rel="noopener" data-api_path="/songs/462011"&gt;“Pressure Zone”&lt;/a&gt; is a rocky road of hard rock and weird life. The closer, &lt;a href="https://genius.com/Beck-debra-lyrics" rel="noopener" data-api_path="/songs/269970"&gt;“Debra”&lt;/a&gt;, makes Beck want to grab &lt;a href="https://genius.com/artists/Prince" rel="noopener" data-api_path="/artists/660"&gt;Prince&lt;/a&gt;’s crown of funk, and closes on his signature falsetto.&lt;/p&gt;', 'producers': [{'name': 'Beck', 'url': 'https://genius.com/artists/Beck'}, {'name': 'Dust Brothers', 'url': 'https://genius.com/artists/Dust-brothers'}, {'name': 'Fernando Garibay', 'url': 'https://genius.com/artists/Fernando-garibay'}, {'name': 'Mickey Petralia', 'url': 'https://genius.com/artists/Mickey-petralia'}, {'name': 'Tony Hoffer', 'url': 'https://genius.com/artists/Tony-hoffer'}], 'writers': [{'name': 'Beck', 'url': 'https://genius.com/artists/Beck'}, {'name': 'Buzz Clifford', 'url': 'https://genius.com/artists/Buzz-clifford'}, {'name': 'Ed Greene', 'url': 'https://genius.com/artists/Ed-greene'}, {'name': 'E.Z. Mike', 'url': 'https://genius.com/artists/Ez-mike'}, {'name': 'King Gizmo', 'url': 'https://genius.com/artists/King-gizmo'}, {'name': 'Tony Hoffer', 'url': 'https://genius.com/artists/Tony-hoffer'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Korn/Follow-the-leader', 'annotations': {'description': '&lt;p&gt;In early 1998, Korn began work on their third album &lt;em&gt;Follow The Leader&lt;/em&gt; in an atmosphere &lt;a href="http://www.blabbermouth.net/news/korn-interviewed-by-u-k-s-scuzz-video/" rel="noopener nofollow"&gt;loaded with&lt;/a&gt; excessive alcohol, drugs and sex. Instead of using producer Ross Robinson as they’d done on their first two albums, the band chose Steve Thompson and Toby Wright and recorded at NRG Recording Studios in LA.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Follow The Leader&lt;/em&gt;, featuring cover art by award-winning comic book artist Todd MacFarlane, debuted at #1 in the US on the strength of the band’s already-established following combined with the success of the new album’s lead single “Got The Life”. Despite the track only &lt;a href="https://www.billboard.com/music/Korn/chart-history/hot-mainstream-rock-tracks/3" rel="noopener nofollow"&gt;reaching #15&lt;/a&gt; on the Rock Chart, it became so popular on MTV’s fan-fueled &lt;em&gt;Total Request Live&lt;/em&gt; that the channel eventually &lt;a href="http://exclaim.ca/music/article/korn-its_still_on" rel="noopener nofollow"&gt;forcibly retired it&lt;/a&gt; from the show.&lt;/p&gt;\n\n&lt;p&gt;The album’s second single “Freak On A Leash” surpassed its first single, &lt;a href="https://www.billboard.com/music/Korn/chart-history/hot-mainstream-rock-tracks" rel="noopener nofollow"&gt;reaching #10&lt;/a&gt; on the Rock Chart. The track was &lt;a href="https://www.grammy.com/grammys/artists/korn" rel="noopener nofollow"&gt;nominated for a Grammy&lt;/a&gt; for Best Metal Performance that year and its video, featuring more artwork by MacFarlane, won for Best Short Form Music Video.&lt;/p&gt;\n\n&lt;p&gt;Both singles reached the top 30 &lt;a href="http://www.officialcharts.com/artist/355/korn/" rel="noopener nofollow"&gt;in the UK&lt;/a&gt; and were &lt;a href="http://www.aria.com.au/pages/aria-charts-accreditations-singles-1999.htm" rel="noopener nofollow"&gt;certified gold in Australia&lt;/a&gt;, pushing the band into international stardom and moving them out of clubs and into packed arenas. Frontman Jonathan Davis &lt;a href="http://exclaim.ca/music/article/korn-its_still_on" rel="noopener nofollow"&gt;commented&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;(The album’s success) freaked everyone in the band out. We went through a crazy adjustment period. We used to be able to go out in the crowd and talk to people and suddenly I needed a bodyguard to go anywhere.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In the fall of 1998, Korn set out on their first annual Family Values Tour with openers Limp Bizkit, Ice Cube, Rammstein, Incubus and Orgy. It is credited with helping &lt;em&gt;Follow The Leader&lt;/em&gt; reach 5x platinum in the US. As of 2016, the album had &lt;a href="http://exclaim.ca/music/article/korn-its_still_on" rel="noopener nofollow"&gt;sold over 14 million copies&lt;/a&gt; worldwide.&lt;/p&gt;', 'producers': [{'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Steve Thompson', 'url': 'https://genius.com/artists/Steve-thompson'}, {'name': 'Toby Wright', 'url': 'https://genius.com/artists/Toby-wright'}], 'writers': [{'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'Cheech Marin', 'url': 'https://genius.com/artists/Cheech-marin'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Fred Durst', 'url': 'https://genius.com/artists/Fred-durst'}, {'name': 'Gaye Delorme', 'url': 'https://genius.com/artists/Gaye-delorme'}, {'name': 'Ice Cube', 'url': 'https://genius.com/artists/Ice-cube'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Slimkid3', 'url': 'https://genius.com/artists/Slimkid3'}, {'name': 'Tommy Chong', 'url': 'https://genius.com/artists/Tommy-chong'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/The-verve/Urban-hymns', 'annotations': {'description': '&lt;p&gt;1997 is considered to be the end of Britpop’s popularity, with Oasis\' &lt;em&gt;&lt;a href="https://genius.com/albums/Oasis/Be-here-now" rel="noopener" data-api_path="/albums/22543"&gt;Be Here Now&lt;/a&gt;&lt;/em&gt; bombing and Blur changing their sound with their self-titled album. The release of this album can be considered to be a fantastic close to one of Britain’s most beloved music genres.&lt;/p&gt;', 'producers': [{'name': 'Chris Potter', 'url': 'https://genius.com/artists/Chris-potter'}, {'name': 'Martin Glover', 'url': 'https://genius.com/artists/Martin-glover'}, {'name': 'The Verve', 'url': 'https://genius.com/artists/The-verve'}], 'writers': [{'name': 'Nick McCabe', 'url': 'https://genius.com/artists/Nick-mccabe'}, {'name': 'Peter Salisbury', 'url': 'https://genius.com/artists/Peter-salisbury'}, {'name': 'Richard Ashcroft', 'url': 'https://genius.com/artists/Richard-ashcroft'}, {'name': 'Simon Jones', 'url': 'https://genius.com/artists/Simon-jones'}], 'labels': [{'name': 'Hut Records', 'url': 'https://genius.com/artists/Hut-records'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Dead-or-alive/Youthquake', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Youthquake&lt;/em&gt; was Dead or Alive’s second album, and their breakthrough into commercial success.&lt;/p&gt;\n\n&lt;p&gt;It was anchored by the international dance hit &lt;a href="https://genius.com/Dead-or-alive-you-spin-me-round-like-a-record-lyrics" rel="noopener" data-api_path="/songs/787799"&gt;You Spin Me Round (Like A Record)&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Stock Aitken &amp; Waterman', 'url': 'https://genius.com/artists/Stock-aitken-and-waterman'}, {'name': 'Matt Aitken', 'url': 'https://genius.com/artists/Matt-aitken'}, {'name': 'Mike Stock', 'url': 'https://genius.com/artists/Mike-stock'}, {'name': 'Pete Waterman', 'url': 'https://genius.com/artists/Pete-waterman'}], 'writers': [{'name': 'Mike Percy', 'url': 'https://genius.com/artists/Mike-percy'}, {'name': 'Pete Burns', 'url': 'https://genius.com/artists/Pete-burns'}, {'name': 'Steve Coy', 'url': 'https://genius.com/artists/Steve-coy'}, {'name': 'Tim Lever', 'url': 'https://genius.com/artists/Tim-lever'}, {'name': 'Wayne Hussey', 'url': 'https://genius.com/artists/Wayne-hussey'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Red-hot-chili-peppers/One-hot-minute', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;One Hot Minute&lt;/em&gt; is the sixth RHCP studio album, their only with &lt;a href="https://genius.com/artists/Dave-navarro" rel="noopener" data-api_path="/artists/27020"&gt;Dave Navarro&lt;/a&gt;, who had replaced &lt;a href="https://genius.com/artists/John-frusciante" rel="noopener" data-api_path="/artists/1695"&gt;John Frusciante&lt;/a&gt; –  which made a considerable difference in the sound of the band. It contains fewer sexual themes than previous records and explores darker subject matters, such as drug use, depression, anguish, and grief.&lt;br&gt;\nIt also re-integrated use of heavy metal guitar riffs.&lt;/p&gt;\n\n&lt;p&gt;It was released on September 12, 1995, on Warner Bros. Records, and marked a reunion with &lt;a href="https://genius.com/artists/Rick-rubin" rel="noopener" data-api_path="/artists/27794"&gt;Rick Rubin&lt;/a&gt;, producer of their breakthrough smash &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Blood-sugar-sex-magik" rel="noopener" data-api_path="/albums/16011"&gt;Blood Sugar Sex Magik&lt;/a&gt;&lt;/em&gt; – whose worldwide sucess led to Frusciante’s departure in the first place.&lt;br&gt;\nThe vocalist &lt;a href="https://genius.com/artists/Anthony-kiedis" rel="noopener" data-api_path="/artists/582309"&gt;Anthony Kiedis&lt;/a&gt;, who had resumed addictions to cocaine and heroin in 1994 after being sober for more than five years, approached his lyricism with a reflective outlook on drugs and their harsh effects.&lt;/p&gt;\n\n&lt;p&gt;Overall, &lt;em&gt;One Hot Minute&lt;/em&gt; was a commercial disappointment, despite producing three hit singles and reaching number four on the Billboard 200 chart. It sold less than half as many copies as its predecessor and received much less critical acclaim. Navarro was ultimately fired from the band in 1998, due to creative differences.&lt;/p&gt;', 'producers': [{'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Anthony Kiedis', 'url': 'https://genius.com/artists/Anthony-kiedis'}, {'name': 'Chad Smith', 'url': 'https://genius.com/artists/Chad-smith'}, {'name': 'Dave Navarro', 'url': 'https://genius.com/artists/Dave-navarro'}, {'name': 'Flea', 'url': 'https://genius.com/artists/Flea'}], 'labels': [{'name': 'Megaforce Records', 'url': 'https://genius.com/artists/Megaforce-records'}, {'name': 'Nuclear Blast', 'url': 'https://genius.com/artists/Nuclear-blast'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Sheryl-crow/The-very-best-of-sheryl-crow', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Very Best of Sheryl Crow&lt;/em&gt; is a greatest hits album by American singer-songwriter Sheryl Crow, first released on October 13, 2003 in the United Kingdom and November 4, 2003 in the United States.&lt;/p&gt;\n\n&lt;p&gt;The compilation features some of her biggest hits from her four previous albums &lt;a href="https://genius.com/albums/Sheryl-crow/Tuesday-night-music-club" rel="noopener" data-api_path="/albums/108147"&gt;&lt;em&gt;Tuesday Night Music Club&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Sheryl-crow/Sheryl-crow" rel="noopener" data-api_path="/albums/112320"&gt;&lt;em&gt;Sheryl Crow&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Sheryl-crow/The-globe-sessions" rel="noopener" data-api_path="/albums/118344"&gt;&lt;em&gt;The Globe Sessions&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/Sheryl-crow/C-mon-c-mon" rel="noopener" data-api_path="/albums/110758"&gt;&lt;em&gt;C\'mon, C\'mon&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Jeff Trott', 'url': 'https://genius.com/artists/Jeff-trott'}, {'name': 'John Shanks', 'url': 'https://genius.com/artists/John-shanks'}, {'name': 'Kid Rock', 'url': 'https://genius.com/artists/Kid-rock'}, {'name': 'Sheryl Crow', 'url': 'https://genius.com/artists/Sheryl-crow'}], 'writers': [{'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Brian MacLeod', 'url': 'https://genius.com/artists/Brian-macleod'}, {'name': 'Cat Stevens', 'url': 'https://genius.com/artists/Cat-stevens'}, {'name': 'David Baerwald', 'url': 'https://genius.com/artists/David-baerwald'}, {'name': 'David Ricketts', 'url': 'https://genius.com/artists/David-ricketts'}, {'name': 'Jeff Trott', 'url': 'https://genius.com/artists/Jeff-trott'}, {'name': 'John Shanks', 'url': 'https://genius.com/artists/John-shanks'}, {'name': 'Kevin Gilbert', 'url': 'https://genius.com/artists/Kevin-gilbert'}, {'name': 'Kid Rock', 'url': 'https://genius.com/artists/Kid-rock'}, {'name': 'Sheryl Crow', 'url': 'https://genius.com/artists/Sheryl-crow'}, {'name': 'Wyn Cooper', 'url': 'https://genius.com/artists/Wyn-cooper'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/The-police/Synchronicity', 'annotations': {'description': '&lt;p&gt;1983’s &lt;em&gt;Synchronicity&lt;/em&gt; catapulted The Police into the arenas of the world on the strength of amazing singles like &lt;a href="http://rock.genius.com/The-police-every-breath-you-take-lyrics" rel="noopener" data-api_path="/songs/129806"&gt;“Every Breath You Take”&lt;/a&gt; and &lt;a href="http://rock.genius.com/The-police-king-of-pain-lyrics" rel="noopener" data-api_path="/songs/239726"&gt;“King of Pain.”&lt;/a&gt; The making of the album was a rough process, with drummer Stewart Copeland and guitarist Andy Summers playing session musicians to main songwriter Sting’s compositions, and the turmoil caused by this change in band dynamics would ultimately cause them to go on an indefinite hiatus after touring for the album.&lt;/p&gt;', 'producers': [{'name': 'Hugh Padgham', 'url': 'https://genius.com/artists/Hugh-padgham'}, {'name': 'Jeff Ayeroff', 'url': 'https://genius.com/artists/Jeff-ayeroff'}, {'name': 'Norman Moore', 'url': 'https://genius.com/artists/Norman-moore'}, {'name': 'The Police', 'url': 'https://genius.com/artists/The-police'}], 'writers': [{'name': 'Andy Summers', 'url': 'https://genius.com/artists/Andy-summers'}, {'name': 'Stewart Copeland', 'url': 'https://genius.com/artists/Stewart-copeland'}, {'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Nena/Nena', 'annotations': {'description': '', 'producers': [{'name': 'Manne Praeker', 'url': 'https://genius.com/artists/Manne-praeker'}, {'name': 'Reinhold Heil', 'url': 'https://genius.com/artists/Reinhold-heil'}], 'writers': [{'name': 'Carlo Karges', 'url': 'https://genius.com/artists/Carlo-karges'}, {'name': 'Jürgen Dehmel', 'url': 'https://genius.com/artists/Jurgen-dehmel'}, {'name': 'Jörn-Uwe Fahrenkrog-Petersen', 'url': 'https://genius.com/artists/Jorn-uwe-fahrenkrog-petersen'}, {'name': 'Manne Praeker', 'url': 'https://genius.com/artists/Manne-praeker'}, {'name': 'Nena', 'url': 'https://genius.com/artists/Nena'}, {'name': 'Nena Kerner', 'url': 'https://genius.com/artists/Nena-kerner'}, {'name': 'Rolf Brendel', 'url': 'https://genius.com/artists/Rolf-brendel'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Sony Music Entertainment', 'url': 'https://genius.com/artists/Sony-music-entertainment'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Ratt/Out-of-the-cellar', 'annotations': {'description': '', 'producers': [{'name': 'Beau Hill', 'url': 'https://genius.com/artists/Beau-hill'}], 'writers': [{'name': 'Beau Hill', 'url': 'https://genius.com/artists/Beau-hill'}, {'name': 'Joey Cristofanilli', 'url': 'https://genius.com/artists/Joey-cristofanilli'}, {'name': 'Juan Croucier', 'url': 'https://genius.com/artists/Juan-croucier'}, {'name': 'Robbin Crosby', 'url': 'https://genius.com/artists/Robbin-crosby'}, {'name': 'Stephen Pearcy', 'url': 'https://genius.com/artists/Stephen-pearcy'}, {'name': 'Warren DeMartini', 'url': 'https://genius.com/artists/Warren-demartini'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Lady-gaga/The-fame', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Fame&lt;/em&gt; is the debut studio album by &lt;a href="https://genius.com/artists/Lady-gaga" rel="noopener" data-api_path="/artists/447"&gt;Lady Gaga&lt;/a&gt;, released on August 19th, 2008.&lt;/p&gt;\n\n&lt;p&gt;The first two singles released, “&lt;a href="https://genius.com/lady-gaga-just-dance-lyrics" rel="noopener" data-api_path="/songs/51012"&gt;Just Dance&lt;/a&gt;” and “&lt;a href="https://genius.com/Lady-gaga-poker-face" rel="noopener"&gt;Poker Face&lt;/a&gt;” were highly acclaimed as international successes, topping the charts around the world.&lt;/p&gt;\n\n&lt;p&gt;With influences of 80’s pop music, &lt;em&gt;The Fame&lt;/em&gt;’s synth- and dance-pop musicality cannot be ignored. The album is the ultimate personification of the adoration of fame, with other subjects incorporated into its message such as sex, drugs, and love.&lt;/p&gt;\n\n&lt;p&gt;In 2013, &lt;em&gt;The Fame&lt;/em&gt; grabbed the last place on the list of the &lt;a href="http://www.rollingstone.com/music/lists/the-100-greatest-debut-albums-of-all-time-20130322/the-fame-19691231" rel="noopener nofollow"&gt;“100 Greatest Debut Albums of All-Time”&lt;/a&gt; by Rolling Stone. The LP has won several awards since its release, and was nominated for five Grammy Awards at the 52nd Grammy Awards, taking home the award for Best Electronic/Dance Album and the Best Dance Recording for “Poker Face.” At the &lt;a href="http://news.bbc.co.uk/2/hi/entertainment/8519276.stm" rel="noopener nofollow"&gt;BRIT Awards&lt;/a&gt;, it was named the Best International Album.&lt;/p&gt;\n\n&lt;p&gt;According to &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8497475/lady-gaga-sales-streams-ariana-grande-ask-billboard" rel="noopener nofollow"&gt;Billboard&lt;/a&gt;, as of February 10, 2019, &lt;em&gt;The Fame&lt;/em&gt; has sold a total of 4.8 million copies in the United States.&lt;/p&gt;', 'producers': [{'name': 'Brian Kierulf', 'url': 'https://genius.com/artists/Brian-kierulf'}, {'name': 'Joshua Schwartz', 'url': 'https://genius.com/artists/Joshua-schwartz'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'Martin Kierszenbaum', 'url': 'https://genius.com/artists/Martin-kierszenbaum'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Rob Fusari', 'url': 'https://genius.com/artists/Rob-fusari'}, {'name': 'Space Cowboy', 'url': 'https://genius.com/artists/Space-cowboy'}], 'writers': [{'name': 'Akon', 'url': 'https://genius.com/artists/Akon'}, {'name': 'Bilal “The Chef” Hajji', 'url': 'https://genius.com/artists/Bilal-the-chef-hajji'}, {'name': 'Brian Kierulf', 'url': 'https://genius.com/artists/Brian-kierulf'}, {'name': 'Calvin Gaines', 'url': 'https://genius.com/artists/Calvin-gaines'}, {'name': 'Charlotte Thersen', 'url': 'https://genius.com/artists/Charlotte-thersen'}, {'name': 'Flo Rida', 'url': 'https://genius.com/artists/Flo-rida'}, {'name': 'Joshua Schwartz', 'url': 'https://genius.com/artists/Joshua-schwartz'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'Martin Kierszenbaum', 'url': 'https://genius.com/artists/Martin-kierszenbaum'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Rob Fusari', 'url': 'https://genius.com/artists/Rob-fusari'}, {'name': 'Space Cowboy', 'url': 'https://genius.com/artists/Space-cowboy'}, {'name': 'Tom Kafafian', 'url': 'https://genius.com/artists/Tom-kafafian'}], 'labels': [{'name': 'Cherrytree Records', 'url': 'https://genius.com/artists/Cherrytree-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'KonLive', 'url': 'https://genius.com/artists/Konlive'}, {'name': 'Konvict Muzik', 'url': 'https://genius.com/artists/Konvict-muzik'}, {'name': 'Streamline', 'url': 'https://genius.com/artists/Streamline'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Niall-horan/Heartbreak-weather', 'annotations': {'description': '&lt;p&gt;Heartbreak Weather is the second solo album from former &lt;a href="https://genius.com/artists/One-direction" rel="noopener" data-api_path="/artists/19657"&gt;One Direction&lt;/a&gt; band member Niall Horan, released on March 13, 2020. According to Niall’s &lt;a href="https://www.instagram.com/p/B9qNzywnw0K/" rel="noopener nofollow"&gt;Instagram post&lt;/a&gt; , the writing for this album began in October 2018.&lt;/p&gt;\n\n&lt;p&gt;“&lt;a href="https://genius.com/Niall-horan-nice-to-meet-ya-lyrics" rel="noopener" data-api_path="/songs/4764371"&gt;Nice to Meet Ya&lt;/a&gt;” was the first single released from this album on October 4, 2019. “&lt;a href="https://genius.com/Niall-horan-put-a-little-love-on-me-lyrics" rel="noopener" data-api_path="/songs/4764373"&gt;Put a Little Love On Me&lt;/a&gt;” was the second single, released in December of 2019. The third single, “&lt;a href="https://genius.com/Niall-horan-no-judgement-lyrics" rel="noopener" data-api_path="/songs/4919970"&gt;No Judgement&lt;/a&gt;”, was released on February 7, 2020. On April 21, “&lt;a href="https://genius.com/Niall-horan-black-and-white-lyrics" rel="noopener" data-api_path="/songs/5242549"&gt;Black and White&lt;/a&gt;” was released as fourth and final single.&lt;/p&gt;\n\n&lt;p&gt;In October 2019, Niall &lt;a href="https://www.rollingstone.com/music/music-news/niall-horan-nice-to-meet-ya-north-american-tour-dates-906067" rel="noopener nofollow"&gt;announced&lt;/a&gt; the Nice to Meet Ya Tour to promote the album. Scheduled to run North America, Europe, Latin America and Oceania throughout, &lt;a href="https://www.soundhealthandlastingwealth.com/health-news/niall-horan-has-cancelled-his-world-tour" rel="noopener nofollow"&gt;it was postponed&lt;/a&gt; due to the COVID-19 pandemic.&lt;/p&gt;', 'producers': [{'name': 'AFTERHRS', 'url': 'https://genius.com/artists/Afterhrs'}, {'name': 'Daniel Bryer', 'url': 'https://genius.com/artists/Daniel-bryer'}, {'name': 'Greg Kurstin', 'url': 'https://genius.com/artists/Greg-kurstin'}, {'name': 'Jamie Scott', 'url': 'https://genius.com/artists/Jamie-scott'}, {'name': 'John Ryan', 'url': 'https://genius.com/artists/John-ryan'}, {'name': 'Julian Bunetta', 'url': 'https://genius.com/artists/Julian-bunetta'}, {'name': 'Noah Conrad', 'url': 'https://genius.com/artists/Noah-conrad'}, {'name': 'Teddy Geiger', 'url': 'https://genius.com/artists/Teddy-geiger'}, {'name': 'Tobias Jesso Jr.', 'url': 'https://genius.com/artists/Tobias-jesso-jr'}], 'writers': [{'name': 'Amy Allen', 'url': 'https://genius.com/artists/Amy-allen'}, {'name': 'Daniel Bryer', 'url': 'https://genius.com/artists/Daniel-bryer'}, {'name': 'Eskeerdo', 'url': 'https://genius.com/artists/Eskeerdo'}, {'name': 'Greg Kurstin', 'url': 'https://genius.com/artists/Greg-kurstin'}, {'name': 'Jamie Scott', 'url': 'https://genius.com/artists/Jamie-scott'}, {'name': 'John Ryan', 'url': 'https://genius.com/artists/John-ryan'}, {'name': 'Julian Bunetta', 'url': 'https://genius.com/artists/Julian-bunetta'}, {'name': 'Mike Needle', 'url': 'https://genius.com/artists/Mike-needle'}, {'name': 'MoZella', 'url': 'https://genius.com/artists/Mozella'}, {'name': 'Niall Horan', 'url': 'https://genius.com/artists/Niall-horan'}, {'name': 'Noah Conrad', 'url': 'https://genius.com/artists/Noah-conrad'}, {'name': 'RuthAnne', 'url': 'https://genius.com/artists/Ruthanne'}, {'name': 'Scott Harris', 'url': 'https://genius.com/artists/Scott-harris'}, {'name': 'Teddy Geiger', 'url': 'https://genius.com/artists/Teddy-geiger'}, {'name': 'Tobias Jesso Jr.', 'url': 'https://genius.com/artists/Tobias-jesso-jr'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/50-cent/Get-rich-or-die-tryin', 'annotations': {'description': '&lt;p&gt;Debuting atop the Billboard 200, 50 Cent’s debut album is a Grammy-nominated, multi-platinum-selling smash that showcases his hypnotic singsong flow, accentuated with both New York and southern drawls, and propelled him to be one of the biggest rap and pop stars in the world.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/50-cent-in-da-club-lyrics" rel="noopener" data-api_path="/songs/233"&gt;“In Da Club,”&lt;/a&gt; the chart-topping, platinum, lead single produced by &lt;a href="https://genius.com/artists/Dr-Dre" rel="noopener" data-api_path="/artists/123"&gt;Dr. Dre&lt;/a&gt; and &lt;a href="https://genius.com/artists/Mike-Elizondo" rel="noopener" data-api_path="/artists/34793"&gt;Mike Elizondo&lt;/a&gt; would, within two months, became the most listened to song in radio history.&lt;/p&gt;\n\n&lt;p&gt;Featuring all-star production by &lt;a href="https://genius.com/artists/Eminem" rel="noopener" data-api_path="/artists/45"&gt;Eminem&lt;/a&gt;, &lt;a href="https://genius.com/artists/Rockwilder" rel="noopener" data-api_path="/artists/27816"&gt;Rockwilder&lt;/a&gt;, &lt;a href="https://genius.com/artists/Megahertz" rel="noopener" data-api_path="/artists/33267"&gt;Megahertz&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Mr-porter" rel="noopener" data-api_path="/artists/509"&gt;Mr. Porter&lt;/a&gt;, among others. &lt;em&gt;Get Rich or Die Tryin\'&lt;/em&gt; also spawned the #1 hits “&lt;a href="https://genius.com/50-cent-21-questions-lyrics" rel="noopener" data-api_path="/songs/168"&gt;21 Questions&lt;/a&gt;,” featuring &lt;a href="https://genius.com/artists/Nate-dogg" rel="noopener" data-api_path="/artists/149"&gt;Nate Dogg&lt;/a&gt;, and “&lt;a href="https://genius.com/50-cent-pimp-lyrics" rel="noopener" data-api_path="/songs/634"&gt;P.I.M.P.&lt;/a&gt;,” featuring &lt;a href="https://genius.com/artists/Snoop%20Dogg" rel="noopener" data-api_path="/artists/46"&gt;Snoop-Dogg&lt;/a&gt;, &lt;a href="https://genius.com/artists/Lloyd-banks" rel="noopener" data-api_path="/artists/255"&gt;Lloyd Banks&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Young-Buck" rel="noopener" data-api_path="/artists/402"&gt;Young Buck&lt;/a&gt;. It also contained the hit singles, &lt;a href="https://genius.com/50-cent-patiently-waiting-lyrics" rel="noopener" data-api_path="/songs/335"&gt;“Patiently Waiting,”&lt;/a&gt; &lt;a href="https://genius.com/50-cent-if-i-cant-lyrics" rel="noopener" data-api_path="/songs/1098"&gt;“If I Can’t,”&lt;/a&gt; and the bluesy, reggae-esque &lt;a href="https://genius.com/50-cent-many-men-wish-death-lyrics" rel="noopener" data-api_path="/songs/1684"&gt;“Many Men (Wish Death).”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Darrell “Digga” Branch', 'url': 'https://genius.com/artists/Darrell-digga-branch'}, {'name': '\u200bdEnAun', 'url': 'https://genius.com/artists/Denaun'}, {'name': 'Dirty Swift', 'url': 'https://genius.com/artists/Dirty-swift'}, {'name': 'DJ Quik', 'url': 'https://genius.com/artists/Dj-quik'}, {'name': 'DJ Rad', 'url': 'https://genius.com/artists/Dj-rad'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Eminem', 'url': 'https://genius.com/artists/Eminem'}, {'name': 'J-Praize', 'url': 'https://genius.com/artists/J-praize'}, {'name': 'Luis Resto', 'url': 'https://genius.com/artists/Luis-resto'}, {'name': 'Megahertz', 'url': 'https://genius.com/artists/Megahertz'}, {'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}, {'name': 'Rashad Smith', 'url': 'https://genius.com/artists/Rashad-smith'}, {'name': 'Red Spyda', 'url': 'https://genius.com/artists/Red-spyda'}, {'name': 'Rob “Reef” Tewlow', 'url': 'https://genius.com/artists/Rob-reef-tewlow'}, {'name': 'Rockwilder', 'url': 'https://genius.com/artists/Rockwilder'}, {'name': 'Sean Blaze', 'url': 'https://genius.com/artists/Sean-blaze'}, {'name': 'Sha Money XL', 'url': 'https://genius.com/artists/Sha-money-xl'}, {'name': 'Terence Dudley', 'url': 'https://genius.com/artists/Terence-dudley'}], 'writers': [{'name': '50 Cent', 'url': 'https://genius.com/artists/50-cent'}, {'name': 'Brandon Parrott', 'url': 'https://genius.com/artists/Brandon-parrott'}, {'name': 'Brian Kierulf', 'url': 'https://genius.com/artists/Brian-kierulf'}, {'name': 'Carl Hampton', 'url': 'https://genius.com/artists/Carl-hampton'}, {'name': 'Conrad Almonacy', 'url': 'https://genius.com/artists/Conrad-almonacy'}, {'name': 'Darrell “Digga” Branch', 'url': 'https://genius.com/artists/Darrell-digga-branch'}, {'name': '\u200bdEnAun', 'url': 'https://genius.com/artists/Denaun'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Eminem', 'url': 'https://genius.com/artists/Eminem'}, {'name': 'Freddie Perren', 'url': 'https://genius.com/artists/Freddie-perren'}, {'name': 'Homer Banks', 'url': 'https://genius.com/artists/Homer-banks'}, {'name': 'Jimmie Cameron', 'url': 'https://genius.com/artists/Jimmie-cameron'}, {'name': 'Joshua Schwartz', 'url': 'https://genius.com/artists/Joshua-schwartz'}, {'name': 'J-Praize', 'url': 'https://genius.com/artists/J-praize'}, {'name': 'Keni St. Lewis', 'url': 'https://genius.com/artists/Keni-st-lewis'}, {'name': 'Kevin Risto', 'url': 'https://genius.com/artists/Kevin-risto'}, {'name': 'Lloyd Banks', 'url': 'https://genius.com/artists/Lloyd-banks'}, {'name': 'Luis Resto', 'url': 'https://genius.com/artists/Luis-resto'}, {'name': 'Megahertz', 'url': 'https://genius.com/artists/Megahertz'}, {'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}, {'name': 'Rashad Smith', 'url': 'https://genius.com/artists/Rashad-smith'}, {'name': 'Raymond Jackson', 'url': 'https://genius.com/artists/Raymond-jackson'}, {'name': 'Red Spyda', 'url': 'https://genius.com/artists/Red-spyda'}, {'name': 'Rob “Reef” Tewlow', 'url': 'https://genius.com/artists/Rob-reef-tewlow'}, {'name': 'Rockwilder', 'url': 'https://genius.com/artists/Rockwilder'}, {'name': 'Ron “NEFF-U” Feemster', 'url': 'https://genius.com/artists/Ron-neff-u-feemster'}, {'name': 'Sean Henderson', 'url': 'https://genius.com/artists/Sean-henderson'}, {'name': 'Sha Money XL', 'url': 'https://genius.com/artists/Sha-money-xl'}, {'name': 'Snoop Dogg', 'url': 'https://genius.com/artists/Snoop-dogg'}, {'name': 'Terence Dudley', 'url': 'https://genius.com/artists/Terence-dudley'}, {'name': 'Tommy Coster', 'url': 'https://genius.com/artists/Tommy-coster'}, {'name': 'Tony Yayo', 'url': 'https://genius.com/artists/Tony-yayo'}, {'name': 'Vella M. Cameron', 'url': 'https://genius.com/artists/Vella-m-cameron'}, {'name': 'Young Buck', 'url': 'https://genius.com/artists/Young-buck'}], 'labels': [{'name': 'Aftermath Entertainment', 'url': 'https://genius.com/artists/Aftermath-entertainment'}, {'name': 'G-Unit', 'url': 'https://genius.com/artists/G-unit'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Shady Records', 'url': 'https://genius.com/artists/Shady-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Pink-floyd/A-collection-of-great-dance-songs', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;A Collection of Great Dance Songs&lt;/em&gt; is a compilation album by &lt;a href="https://genius.com/artists/Pink-floyd" rel="noopener" data-api_path="/artists/694"&gt;Pink Floyd&lt;/a&gt; released on 23 November 1981. It was hastily compiled by &lt;a href="https://genius.com/artists/David-gilmour" rel="noopener" data-api_path="/artists/33622"&gt;David Gilmour&lt;/a&gt; &lt;a href="https://books.google.com.br/books?id=kob468t1j6oC&amp;amp;pg=PT188" rel="noopener nofollow"&gt;to fulfill a contractual demand, as the label wanted to release something for Christmas.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The title is facetious, given that Pink Floyd are not known for making particularly danceable music. This is perhaps evidenced by the album art, which featured a photograph of ballroom dancers anchored to the ground so they cannot move.&lt;/p&gt;\n\n&lt;p&gt;The album contains alternative mixes of &lt;a href="https://genius.com/Pink-floyd-shine-on-you-crazy-diamond-parts-1-5-lyrics" rel="noopener" data-api_path="/songs/1394"&gt;“Shine On You Crazy Diamond”&lt;/a&gt; (which comprises parts 1, 2, 4 and 7) edited down for time reasons, and &lt;a href="https://genius.com/Pink-floyd-another-brick-in-the-wall-part-ii-lyrics" rel="noopener" data-api_path="/songs/106641"&gt;“Another Brick in the Wall (Part 2)”&lt;/a&gt; (which combines the intro from the single mix with the album version which fades out during the “if you don’t eat your meat” ending). Also, the track &lt;a href="https://genius.com/Pink-floyd-money-lyrics" rel="noopener" data-api_path="/songs/72193"&gt;“Money”&lt;/a&gt; was re-recorded as Capitol Records refused to license the track to Columbia/CBS Records. &lt;a href="https://genius.com/artists/David-gilmour" rel="noopener" data-api_path="/artists/33622"&gt;David Gilmour&lt;/a&gt; re-recorded the track himself playing all of the drums, guitars, keyboards, bass guitar and vocals and co-producing the song with &lt;a href="https://genius.com/artists/James-guthrie" rel="noopener" data-api_path="/artists/33623"&gt;James Guthrie&lt;/a&gt;. &lt;a href="https://genius.com/artists/Dick-parry" rel="noopener" data-api_path="/artists/988791"&gt;Dick Parry&lt;/a&gt; reprised his saxophone role on the track. There are some differences between the re-recorded version and the original; mainly in the saxophone and guitar solos and the overall use of reverb and Gilmour repeating “away” at the end instead of the high pitch scat singing on the original. The drumming is noticeably different from &lt;a href="https://genius.com/artists/Nick-mason" rel="noopener" data-api_path="/artists/174898"&gt;Nick Mason’s&lt;/a&gt;, especially during the guitar solo, with very little of the tom-tom fills heard on the original.&lt;/p&gt;', 'producers': [{'name': 'Pink Floyd', 'url': 'https://genius.com/artists/Pink-floyd'}], 'writers': [{'name': 'David Gilmour', 'url': 'https://genius.com/artists/David-gilmour'}, {'name': 'Nick Mason', 'url': 'https://genius.com/artists/Nick-mason'}, {'name': 'Richard Wright', 'url': 'https://genius.com/artists/Richard-wright'}, {'name': 'Roger Waters', 'url': 'https://genius.com/artists/Roger-waters'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Lou-bega/A-little-bit-of-mambo', 'annotations': {'description': '', 'producers': [{'name': 'D. Fact', 'url': 'https://genius.com/artists/D-fact'}, {'name': 'Donald Fact', 'url': 'https://genius.com/artists/Donald-fact'}, {'name': 'Frank Lio', 'url': 'https://genius.com/artists/Frank-lio'}, {'name': 'Goar B', 'url': 'https://genius.com/artists/Goar-b'}], 'writers': [{'name': 'D. Fact', 'url': 'https://genius.com/artists/D-fact'}, {'name': 'Donald Fact', 'url': 'https://genius.com/artists/Donald-fact'}, {'name': 'Frank Lio', 'url': 'https://genius.com/artists/Frank-lio'}, {'name': 'Lou Bega', 'url': 'https://genius.com/artists/Lou-bega'}, {'name': 'Pérez Prado', 'url': 'https://genius.com/artists/Perez-prado'}, {'name': 'Zippy Davids', 'url': 'https://genius.com/artists/Zippy-davids'}], 'labels': [{'name': 'BMG', 'url': 'https://genius.com/artists/Bmg'}, {'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Man-with-a-mission/Dead-end-in-tokyo', 'annotations': {'description': '', 'producers': [{'name': 'DJ Santa Monica', 'url': 'https://genius.com/artists/Dj-santa-monica'}, {'name': 'Jean-Ken Johnny', 'url': 'https://genius.com/artists/Jean-ken-johnny'}, {'name': 'MAN WITH A MISSION', 'url': 'https://genius.com/artists/Man-with-a-mission'}, {'name': '中野雅之 (Masayuki Nakano)', 'url': 'https://genius.com/artists/Masayuki-nakano'}, {'name': 'Patrick Stump', 'url': 'https://genius.com/artists/Patrick-stump'}, {'name': 'ソニーミュージック (Sony Music Japan)', 'url': 'https://genius.com/artists/Sony-music-japan'}], 'writers': [{'name': 'Jean-Ken Johnny', 'url': 'https://genius.com/artists/Jean-ken-johnny'}, {'name': 'Kamikaze Boy', 'url': 'https://genius.com/artists/Kamikaze-boy'}, {'name': 'Patrick Stump', 'url': 'https://genius.com/artists/Patrick-stump'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Fr-david/Words', 'annotations': {'description': '', 'producers': [{'name': 'Frédéric Leibovitz', 'url': 'https://genius.com/artists/Frederic-leibovitz'}], 'writers': [{'name': 'F.R. David', 'url': 'https://genius.com/artists/Fr-david'}, {'name': 'Richelle Dassin', 'url': 'https://genius.com/artists/Richelle-dassin'}, {'name': 'Robert Fitoussi', 'url': 'https://genius.com/artists/Robert-fitoussi'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Rush/Moving-pictures', 'annotations': {'description': '&lt;p&gt;After going on a tour in the U.S., Canada, and the U.K. in support of &lt;em&gt;&lt;a href="https://genius.com/albums/Rush/Permanent-waves" rel="noopener" data-api_path="/albums/39667"&gt;Permanent Waves&lt;/a&gt;&lt;/em&gt;, the band wanted to work on a follow-up instead of a live album, which is what they were scheduled to do. The bulk of the instrumentals were written and composed during sound checks while on tour, with Peart writing the lyrics while in the studio. That album, titled &lt;em&gt;Moving Pictures&lt;/em&gt;, would become the band’s best selling album, and feature some of their most iconic songs including “&lt;a href="https://genius.com/Rush-tom-sawyer-lyrics" rel="noopener" data-api_path="/songs/73033"&gt;Tom Sawyer&lt;/a&gt;” and the instrumental track “&lt;a href="https://genius.com/Rush-yyz-lyrics" rel="noopener" data-api_path="/songs/142069"&gt;YYZ&lt;/a&gt;”.&lt;/p&gt;', 'producers': [{'name': 'Rush', 'url': 'https://genius.com/artists/Rush'}, {'name': 'Terry Brown', 'url': 'https://genius.com/artists/Terry-brown'}], 'writers': [{'name': 'Alex Lifeson', 'url': 'https://genius.com/artists/Alex-lifeson'}, {'name': 'Geddy Lee', 'url': 'https://genius.com/artists/Geddy-lee'}, {'name': 'Neil Peart', 'url': 'https://genius.com/artists/Neil-peart'}, {'name': 'Pye Dubois', 'url': 'https://genius.com/artists/Pye-dubois'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Santana/Shaman', 'annotations': {'description': '', 'producers': [{'name': 'Anders Bagge', 'url': 'https://genius.com/artists/Anders-bagge'}, {'name': 'Andrés Munera', 'url': 'https://genius.com/artists/Andres-munera'}, {'name': 'Arnthor Birgisson', 'url': 'https://genius.com/artists/Arnthor-birgisson'}, {'name': 'Carlos Santana', 'url': 'https://genius.com/artists/Carlos-santana'}, {'name': 'Citizen Cope', 'url': 'https://genius.com/artists/Citizen-cope'}, {'name': 'Clive Davis', 'url': 'https://genius.com/artists/Clive-davis'}, {'name': 'Cory Rooney', 'url': 'https://genius.com/artists/Cory-rooney'}, {'name': 'Dallas Austin', 'url': 'https://genius.com/artists/Dallas-austin'}, {'name': 'Dan Shea', 'url': 'https://genius.com/artists/Dan-shea'}, {'name': 'Dido', 'url': 'https://genius.com/artists/Dido'}, {'name': 'Fernando “Toby” Tobon', 'url': 'https://genius.com/artists/Fernando-toby-tobon'}, {'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}, {'name': 'J. B. Eckl', 'url': 'https://genius.com/artists/J-b-eckl'}, {'name': 'Jean-Yves “Jeeve” Ducornet', 'url': 'https://genius.com/artists/Jean-yves-jeeve-ducornet'}, {'name': 'Jerry Duplessis', 'url': 'https://genius.com/artists/Jerry-duplessis'}, {'name': 'José Gaviria', 'url': 'https://genius.com/artists/Jose-gaviria'}, {'name': 'KC Porter', 'url': 'https://genius.com/artists/Kc-porter'}, {'name': 'Kike Santander', 'url': 'https://genius.com/artists/Kike-santander'}, {'name': 'Klaus Derendorf', 'url': 'https://genius.com/artists/Klaus-derendorf'}, {'name': 'Lester Mendez', 'url': 'https://genius.com/artists/Lester-mendez'}, {'name': 'Michael Shrieve', 'url': 'https://genius.com/artists/Michael-shrieve'}, {'name': 'P.O.D.', 'url': 'https://genius.com/artists/Pod'}, {'name': 'Rollo Armstrong', 'url': 'https://genius.com/artists/Rollo-armstrong'}, {'name': 'Wyclef Jean', 'url': 'https://genius.com/artists/Wyclef-jean'}], 'writers': [{'name': 'Alejandro Lerner', 'url': 'https://genius.com/artists/Alejandro-lerner'}, {'name': 'Anders Bagge', 'url': 'https://genius.com/artists/Anders-bagge'}, {'name': 'Angélique Kidjo', 'url': 'https://genius.com/artists/Angelique-kidjo'}, {'name': 'Arnthor Birgisson', 'url': 'https://genius.com/artists/Arnthor-birgisson'}, {'name': 'Carlos Santana', 'url': 'https://genius.com/artists/Carlos-santana'}, {'name': 'Chad Kroeger', 'url': 'https://genius.com/artists/Chad-kroeger'}, {'name': 'Citizen Cope', 'url': 'https://genius.com/artists/Citizen-cope'}, {'name': 'Claude Jean', 'url': 'https://genius.com/artists/Claude-jean'}, {'name': 'Cory Rooney', 'url': 'https://genius.com/artists/Cory-rooney'}, {'name': 'Dallas Austin', 'url': 'https://genius.com/artists/Dallas-austin'}, {'name': 'Dido', 'url': 'https://genius.com/artists/Dido'}, {'name': 'Gabo Szabó', 'url': 'https://genius.com/artists/Gabo-szabo'}, {'name': 'Governor Washington', 'url': 'https://genius.com/artists/Governor-washington'}, {'name': 'Greg DiGiovine', 'url': 'https://genius.com/artists/Greg-digiovine'}, {'name': 'Gregg Alexander', 'url': 'https://genius.com/artists/Gregg-alexander'}, {'name': 'Hermann Nau', 'url': 'https://genius.com/artists/Hermann-nau'}, {'name': 'Javier Vázquez', 'url': 'https://genius.com/artists/Javier-vazquez'}, {'name': 'J. B. Eckl', 'url': 'https://genius.com/artists/J-b-eckl'}, {'name': 'Jean-Yves “Jeeve” Ducornet', 'url': 'https://genius.com/artists/Jean-yves-jeeve-ducornet'}, {'name': 'Jerry Duplessis', 'url': 'https://genius.com/artists/Jerry-duplessis'}, {'name': 'J. Hebrail', 'url': 'https://genius.com/artists/J-hebrail'}, {'name': 'John P*Nut Harrison', 'url': 'https://genius.com/artists/John-pnut-harrison'}, {'name': 'Karl Perazzo', 'url': 'https://genius.com/artists/Karl-perazzo'}, {'name': 'KC Porter', 'url': 'https://genius.com/artists/Kc-porter'}, {'name': 'Klaus Derendorf', 'url': 'https://genius.com/artists/Klaus-derendorf'}, {'name': 'Lester Mendez', 'url': 'https://genius.com/artists/Lester-mendez'}, {'name': 'Macy Gray', 'url': 'https://genius.com/artists/Macy-gray'}, {'name': 'Marcos Curiel', 'url': 'https://genius.com/artists/Marcos-curiel'}, {'name': 'Michael Shrieve', 'url': 'https://genius.com/artists/Michael-shrieve'}, {'name': 'Raul Rekow', 'url': 'https://genius.com/artists/Raul-rekow'}, {'name': 'Richie Rome', 'url': 'https://genius.com/artists/Richie-rome'}, {'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}, {'name': 'Rob Thomas', 'url': 'https://genius.com/artists/Rob-thomas'}, {'name': 'Roger Eugene', 'url': 'https://genius.com/artists/Roger-eugene'}, {'name': 'Rollo Armstrong', 'url': 'https://genius.com/artists/Rollo-armstrong'}, {'name': 'Simon Climie', 'url': 'https://genius.com/artists/Simon-climie'}, {'name': 'Sonny Sandoval', 'url': 'https://genius.com/artists/Sonny-sandoval'}, {'name': 'Traa Daniels', 'url': 'https://genius.com/artists/Traa-daniels'}, {'name': 'Walter Afanasieff', 'url': 'https://genius.com/artists/Walter-afanasieff'}, {'name': 'Wuv Bernardo', 'url': 'https://genius.com/artists/Wuv-bernardo'}, {'name': 'Wyclef Jean', 'url': 'https://genius.com/artists/Wyclef-jean'}, {'name': 'Yves Joseph', 'url': 'https://genius.com/artists/Yves-joseph'}, {'name': 'Yvon Andre', 'url': 'https://genius.com/artists/Yvon-andre'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Bruno-mars/24k-magic', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;24K Magic&lt;/em&gt;, released November 18, 2016, is Bruno’s third album, and his first in the four years since 2012’s &lt;a href="https://genius.com/albums/Bruno-mars/Unorthodox-jukebox" rel="noopener" data-api_path="/albums/493008"&gt;&lt;em&gt;Unorthodox Jukebox&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The 80’s funk inspired, lead single is the album’s title track “24K Magic.” Being more-rapped-than-sung, it has a lot in common with Bruno’s swaggy 2014 hit &lt;a href="https://genius.com/Mark-ronson-uptown-funk-lyrics" rel="noopener" data-api_path="/songs/576123"&gt;“Uptown Funk”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Mark-ronson" rel="noopener" data-api_path="/artists/8231"&gt;Mark Ronson&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In an interview with Zane Lowe for Radio Beats 1 Bruno admitted, “You hear these ’90s influences on the whole album,” but &lt;em&gt;24K Magic&lt;/em&gt; spends more time revisiting the ‘80s than anything else, revisiting the styles of &lt;a href="https://genius.com/artists/New-edition" rel="noopener" data-api_path="/artists/2030"&gt;New Edition&lt;/a&gt;, &lt;a href="https://genius.com/artists/Bobby-brown" rel="noopener" data-api_path="/artists/3542"&gt;Bobby Brown&lt;/a&gt;, &lt;a href="https://genius.com/artists/Babyface" rel="noopener" data-api_path="/artists/1336"&gt;Babyface&lt;/a&gt;, and &lt;a href="https://genius.com/artists/The-gap-band" rel="noopener" data-api_path="/artists/55371"&gt;The Gap Band&lt;/a&gt; on many of the tracks. The album even restricts its tracklist to a lean 9 songs, which was the standard for albums in the early \'80s.&lt;/p&gt;\n\n&lt;p&gt;Bruno refers multiple times to the album as a whole organic work that has to be listened together, all the songs are connected to each other, on the same wave. Bruno also talked about making a film:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;With this album, I wanted to make a movie,” he said. “A real movie. I told myself, ‘We’re gonna have a screenplay and we’re gonna go to that.\'&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;em&gt;24K Magic&lt;/em&gt; won the Grammy Awards for Best R&amp;amp;B Album and the Album of the Year at the &lt;a href="https://www.grammy.com/grammys/news/2018-grammy-awards-complete-winners-list-updated" rel="noopener nofollow"&gt;2018 Grammys&lt;/a&gt; held on Jan. 28, 2018.&lt;/p&gt;', 'producers': [{'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Shampoo Press &amp; Curl', 'url': 'https://genius.com/artists/Shampoo-press-and-curl'}, {'name': 'The Stereotypes', 'url': 'https://genius.com/artists/The-stereotypes'}], 'writers': [{'name': 'Babyface', 'url': 'https://genius.com/artists/Babyface'}, {'name': 'Brody Brown', 'url': 'https://genius.com/artists/Brody-brown'}, {'name': 'Bruno Mars', 'url': 'https://genius.com/artists/Bruno-mars'}, {'name': 'Carl “Groove” Martin', 'url': 'https://genius.com/artists/Carl-groove-martin'}, {'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'Homer Steinweiss', 'url': 'https://genius.com/artists/Homer-steinweiss'}, {'name': 'James Fauntleroy', 'url': 'https://genius.com/artists/James-fauntleroy'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Jeremy Reeves', 'url': 'https://genius.com/artists/Jeremy-reeves'}, {'name': 'Jonathan Yip', 'url': 'https://genius.com/artists/Jonathan-yip'}, {'name': 'Marc Gay', 'url': 'https://genius.com/artists/Marc-gay'}, {'name': 'Philip Lawrence', 'url': 'https://genius.com/artists/Philip-lawrence'}, {'name': 'Ra Charm', 'url': 'https://genius.com/artists/Ra-charm'}, {'name': 'Ray Romulus', 'url': 'https://genius.com/artists/Ray-romulus'}, {'name': 'T-Pain', 'url': 'https://genius.com/artists/T-pain'}, {'name': 'Trevor Lawrence Jr.', 'url': 'https://genius.com/artists/Trevor-lawrence-jr'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Dangerous_(Michael_Jackson_album)', 'album_name': 'Dangerous (album Michael Jackson)', 'artist': 'http://dbpedia.org/resource/Michael_Jackson', 'artist_name': 'Michael Jackson', 'wiki': 'http://en.wikipedia.org/wiki/Dangerous_(Michael_Jackson_album)', 'abstract': 'Dangerous is the eighth studio album by American singer Michael Jackson. It was released by Epic Records on November 26, 1991. Co-produced by Jackson, Bill Bottrell, Teddy Riley, and Bruce Swedien, the album was Jackson\'s first since Forever, Michael (1975) to not be produced by longtime collaborator Quincy Jones. Featured appearances include Heavy D, Princess Stéphanie of Monaco, Slash and Wreckx-n-Effect. The album incorporates R&amp;B, pop and new jack swing, a new genre in vogue at the time. Elements of industrial, funk, hip hop, electronic, gospel, classical and rock are also featured. Twelve of the album\'s fourteen songs were written or co-written by Jackson, discussing topics like racism, poverty, romance, self-improvement, and the welfare of children and the world. An experimental work, Dangerous is considered an artistic change for Jackson, with his music focusing to more socially conscious material, and a broader range of sounds and styles. It features catchy pop hooks and choruses while also introducing underground sounds to a mainstream audience. The album\'s tone is noted by critics as gritty and urban, with sounds including synthetic basslines, scratching, and drum machine percussion, as well as unconventional sounds like honking vehicle horns, sliding chains, swinging gates, breaking glass, and clanking metal. Throughout the album Jackson also implements beatboxing, scat singing, and finger snapping. Dangerous debuted at number one on the US Billboard 200 Top Albums chart and in thirteen other countries, selling 5 million copies worldwide in its first week and was the best-selling album worldwide of 1992. Nine singles premiered between November 1991 and December 1993, including two exclusively released outside the United States. The album produced four singles that reached the top ten of the Billboard Hot 100: "Remember the Time", "In the Closet", "Will You Be There" and the number-one single "Black or White". The Dangerous World Tour grossed $100 million (equivalent to $177 million in 2019), making it one of the highest-grossing tours of the 1990s. Dangerous is one of the best-selling albums of all time having sold over 32 million copies worldwide, and was certified 8× platinum by the Recording Industry Association of America (RIAA) in August 2018. Dangerous received worldwide critical acclaim, and it influenced contemporary pop and R&amp;B artists. It has been included in several publications\' lists of the greatest albums of all time. At the 1993 Grammy Awards, it received four Grammy Award nominations, winning Best Engineered Album, Non-Classical, while Jackson was awarded the Grammy Legend Award. Jackson won three American Music Awards at the 1993 American Music Awards, including the inaugural International Artist Award. Jackson also received Billboard Music Awards for Best Worldwide Album and Best Worldwide Single for "Black or White".'}</t>
+    <t>{'url': 'https://genius.com/albums/Real-mccoy/Another-night', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Another Night&lt;/em&gt; is the third album by German group Real McCoy, released on March 14, 1995, via Arista Records. Commercially, the album peaked at #13 on the &lt;a href="https://www.billboard.com/music/Real-McCoy/chart-history/TLP" rel="noopener nofollow"&gt;&lt;em&gt;US Billboard 200&lt;/em&gt;&lt;/a&gt;, becoming their only album to peak within the top 13.&lt;/p&gt;\n\n&lt;p&gt;A total of five singles were released from the album: &lt;a href="https://genius.com/Real-mccoy-another-night-lyrics" rel="noopener" data-api_path="/songs/965672"&gt;“Another Night,”&lt;/a&gt; &lt;a href="https://genius.com/Real-mccoy-automatic-lover-call-for-love-lyrics" rel="noopener" data-api_path="/songs/1576349"&gt;“Automatic Lover (Call for Love),”&lt;/a&gt; &lt;a href="https://genius.com/Real-mccoy-run-away-lyrics" rel="noopener" data-api_path="/songs/992539"&gt;“Run Away,”&lt;/a&gt; &lt;a href="https://genius.com/Real-mccoy-love-and-devotion-development-coroporation-mix-lyrics" rel="noopener" data-api_path="/songs/6347439"&gt;“Love &amp;amp; Devotion (Development Coroporation Mix)”&lt;/a&gt; and &lt;a href="https://genius.com/Real-mccoy-come-and-get-your-love-lyrics" rel="noopener" data-api_path="/songs/1154561"&gt;“Come and Get Your Love.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;“Another Night” was the highest peaking single from the album in the United States, with #3 position on the &lt;a href="https://www.billboard.com/music/The-Real-McCoy/chart-history/HSI" rel="noopener nofollow"&gt;&lt;em&gt;Billboard Hot 100&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'The Berman Brothers', 'url': 'https://genius.com/artists/The-berman-brothers'}, {'name': 'Billy Steinberg', 'url': 'https://genius.com/artists/Billy-steinberg'}, {'name': 'David Brunner', 'url': 'https://genius.com/artists/David-brunner'}, {'name': 'Douglas Carr', 'url': 'https://genius.com/artists/Douglas-carr'}, {'name': 'Frank “Quickmix” Hassas', 'url': 'https://genius.com/artists/Frank-quickmix-hassas'}, {'name': 'Jürgen Wind', 'url': 'https://genius.com/artists/Jurgen-wind'}, {'name': 'MC Sar', 'url': 'https://genius.com/artists/Mc-sar'}, {'name': 'O-Jay', 'url': 'https://genius.com/artists/O-jay'}, {'name': 'Per Adebratt', 'url': 'https://genius.com/artists/Per-adebratt'}, {'name': 'Real McCoy', 'url': 'https://genius.com/artists/Real-mccoy'}, {'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}, {'name': 'Shep Pettibone', 'url': 'https://genius.com/artists/Shep-pettibone'}, {'name': 'Tommy Ekman', 'url': 'https://genius.com/artists/Tommy-ekman'}], 'writers': [{'name': 'Billy Steinberg', 'url': 'https://genius.com/artists/Billy-steinberg'}, {'name': 'Frank “Quickmix” Hassas', 'url': 'https://genius.com/artists/Frank-quickmix-hassas'}, {'name': 'Fred Jerkins III', 'url': 'https://genius.com/artists/Fred-jerkins-iii'}, {'name': 'Jürgen Wind', 'url': 'https://genius.com/artists/Jurgen-wind'}, {'name': 'Lolly Vegas', 'url': 'https://genius.com/artists/Lolly-vegas'}, {'name': 'Norman Whitfield', 'url': 'https://genius.com/artists/Norman-whitfield'}, {'name': 'Olaf “O-Jay” Jeglitza', 'url': 'https://genius.com/artists/Olaf-o-jay-jeglitza'}, {'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}, {'name': 'Shep Pettibone', 'url': 'https://genius.com/artists/Shep-pettibone'}, {'name': 'Steven Feldman', 'url': 'https://genius.com/artists/Steven-feldman'}, {'name': 'Val Young', 'url': 'https://genius.com/artists/Val-young'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Vampire-weekend/Vampire-weekend-japanese-version', 'annotations': {'description': '', 'producers': [{'name': 'Rostam', 'url': 'https://genius.com/artists/Rostam'}], 'writers': [{'name': 'Ezra Koenig', 'url': 'https://genius.com/artists/Ezra-koenig'}, {'name': 'Rostam', 'url': 'https://genius.com/artists/Rostam'}], 'labels': [{'name': 'XL Recordings', 'url': 'https://genius.com/artists/Xl-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Lenny-kravitz/Lenny', 'annotations': {'description': '', 'producers': [{'name': 'Craig Ross', 'url': 'https://genius.com/artists/Craig-ross'}, {'name': 'Lenny Kravitz', 'url': 'https://genius.com/artists/Lenny-kravitz'}], 'writers': [{'name': 'Craig Ross', 'url': 'https://genius.com/artists/Craig-ross'}, {'name': 'Lenny Kravitz', 'url': 'https://genius.com/artists/Lenny-kravitz'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Daniel_Powter_(album)', 'album_name': 'Daniel Powter (album)', 'artist': 'http://dbpedia.org/resource/Daniel_Powter', 'artist_name': 'Daniel Powter', 'wiki': 'http://en.wikipedia.org/wiki/Daniel_Powter_(album)', 'abstract': 'Daniel Powter (also known as DP) is the self-titled second studio album by Canadian singer-songwriter Daniel Powter, released on July 26, 2005, in Canada and on April 11, 2006, in the United States. The album debuted at No. 9 on the Billboard 200 with 89,213 copies sold that week. As of July 12, 2006, Daniel Powter has sold 464,136 copies in the U.S. The album debuted on the Japanese Oricon charts at an extremely low No. 242. However, the album slowly climbed the charts and peaked at No. 4. The album eventually became the No. 18 album of 2006 in Japan with 583,611 copies sold and the highest Western artist on the yearly charts. The album was certified Gold in the U.S. on May 24, 2006.'}</t>
+  </si>
+  <si>
+    <t>{'album': "http://dbpedia.org/resource/Greatest_Hits_(Guns_N'_Roses_album)", 'album_name': "Greatest Hits (álbum de Guns N' Roses)", 'artist': "http://dbpedia.org/resource/Guns_N'_Roses", 'artist_name': "Guns N' Roses", 'wiki': "http://en.wikipedia.org/wiki/Greatest_Hits_(Guns_N'_Roses_album)", 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'abstract': "Greatest Hits is a compilation album by the American hard rock band Guns N' Roses, released on March 23, 2004. Released by Geffen Records in part because of the delay in the making of Chinese Democracy, the album was subject to lawsuits by band member Axl Rose and former band members, in an attempt to block its release due to its track listing. Despite the album having almost no promotion, it reached number one on the UK Albums Chart and number three on the Billboard 200 chart upon its release. Greatest Hits re-entered the Billboard 200 at number three in March 2012, selling about 85,000 copies as part of a promotion by both Amazon and Google Play that saw the album sold for 25 cents for one day. The album has proven a popular seller, selling over six million copies in the United States by 2018. Greatest Hits is one of the longest charting albums in the Billboard 200 era, being one of only seven albums to notch at least 400 weeks on the chart by June 2017. As of July 2018, it has spent 441 weeks on the chart."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/We_Started_Nothing', 'album_name': 'We Started Nothing', 'artist': 'http://dbpedia.org/resource/The_Ting_Tings', 'artist_name': 'The Ting Tings', 'wiki': 'http://en.wikipedia.org/wiki/We_Started_Nothing', 'hometown': 'http://dbpedia.org/resource/Salford', 'abstract': 'We Started Nothing is the debut studio album by English indie pop duo The Ting Tings. It was released on 16 May 2008 by Columbia Records. The US edition has a different cover image in several background colours. The album was also released in the United Kingdom on red vinyl limited to 2,000 copies. The US vinyl version is a standard black vinyl pressing. As of November 2014, We Started Nothing had sold 639,876 copies in the United Kingdom.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Epsom_Mad_Funkers:_The_Best_of_EMF', 'album_name': 'Epsom Mad Funkers: The Best of EMF', 'artist': 'http://dbpedia.org/resource/EMF_(band)', 'artist_name': 'EMF', 'wiki': 'http://en.wikipedia.org/wiki/Epsom_Mad_Funkers:_The_Best_of_EMF', 'hometown': 'http://dbpedia.org/resource/Cinderford', 'abstract': 'Epsom Mad Funkers: The Best of EMF is a compilation and the final album by Gloucestershire alternative dance band EMF, released in 2001. It contains their last two singles "Incredible" and "Let\'s Go".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Heartbeat_City', 'album_name': 'Heartbeat City', 'artist': 'http://dbpedia.org/resource/The_Cars', 'artist_name': 'The Cars', 'wiki': 'http://en.wikipedia.org/wiki/Heartbeat_City', 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'abstract': 'Heartbeat City is the fifth studio album by American rock band the Cars, released on March 13, 1984, by Elektra Records. The band produced the album with Robert John "Mutt" Lange. This marks the band\'s first album not produced by long-time producer Roy Thomas Baker. It also represented a return to the success of the band\'s self-titled debut album, with critic Robert Christgau noting that "the glossy approach the Cars invented has made this the best year for pure pop in damn near twenty years, and it\'s only fair that they should return so confidently to form." Numerous tracks from the album received airplay on modern rock and AOR stations, with the singles "Drive" and "You Might Think" reaching the top 10 of the Billboard Hot 100, while the album peaked at number three on the Billboard 200.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Most_Beautiful_Moment_in_Life:_Young_Forever', 'album_name': 'The Most Beautiful Moment in Life: Young Forever', 'artist': 'http://dbpedia.org/resource/BTS', 'artist_name': 'BTS', 'wiki': 'http://en.wikipedia.org/wiki/The_Most_Beautiful_Moment_in_Life:_Young_Forever', 'hometown': 'http://dbpedia.org/resource/Seoul', 'abstract': 'The Most Beautiful Moment in Life: Young Forever (Korean: 화양연화 Young Forever; Hanja: 花樣年華 Young Forever; RR: Hwayangyeonhwa Young Forever) is the first Korean-language compilation album by South Korean boy band BTS. The album was released on May 2, 2016, in two physical configurations, a day version and a night version. The album contains twenty-three tracks, including three new singles ("Epilogue: Young Forever", "Fire" and "Save Me"), and most tracks from The Most Beautiful Moment in Life, Pt. 1 and The Most Beautiful Moment in Life, Pt. 2, as well as several remixes.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Concrete_and_Gold', 'album_name': 'Concrete and Gold', 'artist': 'http://dbpedia.org/resource/Foo_Fighters', 'artist_name': 'Foo Fighters', 'wiki': 'http://en.wikipedia.org/wiki/Concrete_and_Gold', 'hometown': 'http://dbpedia.org/resource/Seattle', 'abstract': 'Concrete and Gold is the ninth studio album by American rock band Foo Fighters, released on September 15, 2017, through Roswell and RCA Records. It is the band\'s first album to be produced alongside Greg Kurstin. Described by the band as an album where "hard rock extremes and pop sensibilities collide", Concrete and Gold concerns the future of the United States from the viewpoint of the band\'s frontman and lead songwriter Dave Grohl, with the heated atmosphere of the 2016 elections and the presidency of Donald Trump cited as major influences by Grohl. Juxtapositions serve as a common motif in both the album\'s lyrical and musical composition, with Grohl further describing the album\'s overall theme as "hope and desperation". Writing and recording of Concrete and Gold started in late 2016, after Grohl ended a self-imposed six-month hiatus from music while recovering from an injury sustained on the Sonic Highways World Tour. Working off a set of twelve or thirteen ideas for songs conceived by Grohl, the band enlisted the help of Kurstin, a pop music producer, who had never worked on a heavy rock record previously. The studio at which the band chose to record Concrete and Gold, EastWest Studios in Hollywood, California, fostered collaborations with various other artists who were also working at the studio at the time, including Shawn Stockman of Boyz II Men, Justin Timberlake, and Paul McCartney. It is the first Foo Fighters studio album to feature long-time session and touring keyboardist Rami Jaffee as a permanent member. Concrete and Gold was received positively by music critics, who praised the album\'s more expansive feel, both musically and lyrically. Modest criticism was aimed at the perceived lack of musical deviation from the band\'s previous albums. The album became the band\'s second to debut at number one on the Billboard 200, moving 127,000 album-equivalent units and selling 120,000 copies in its first week in the United States. The album also debuted at number one on twelve other national album charts, such as the United Kingdom Official Albums Chart and Australian ARIA Albums Chart. Singles from the album also found success; "Run" and "The Sky Is a Neighborhood" both peaked at number one at the Billboard Mainstream Rock Songs chart. An eponymous headlining tour to promote the album ran through the second half of 2017.'}</t>
   </si>
   <si>
     <t>{'album': 'http://dbpedia.org/resource/Chinese_Wall_(album)', 'album_name': 'Chinese Wall', 'artist': 'http://dbpedia.org/resource/Philip_Bailey', 'artist_name': 'Philip Bailey', 'wiki': 'http://en.wikipedia.org/wiki/Chinese_Wall_(album)', 'abstract': 'Chinese Wall is the third solo album by American singer Philip Bailey, released on the Columbia Records label in October 1984. Chinese Wall has been certified gold in the US on March 11, 1985. The album reached number 22 and number 10 on the Billboard 200 and Top R&amp;B/Hip-Hop Albums charts respectively and it was ranked as the 63rd most successful album of 1985 on the Billboard 200. In 1986 the album gave Bailey a Grammy Award nomination for Best R&amp;B Vocal Performance, Male, while "Easy Lover", the duet with Phil Collins (who produced the album), earned a nomination for Best Pop Performance by a Duo or Group With Vocals.'}</t>
   </si>
   <si>
-    <t>{'album': 'http://dbpedia.org/resource/Back_in_Black', 'album_name': 'Back in Black', 'artist': 'http://dbpedia.org/resource/AC/DC', 'artist_name': 'AC/DC', 'wiki': 'http://en.wikipedia.org/wiki/Back_in_Black', 'hometown': 'http://dbpedia.org/resource/New_South_Wales', 'abstract': 'Back in Black is the seventh studio album by Australian rock band AC/DC. It was released on 25 July 1980 by Albert Productions and Atlantic Records. It is the band\'s first album to feature lead singer Brian Johnson, following the death of previous lead singer Bon Scott. After the commercial breakthrough of their 1979 album Highway to Hell, AC/DC was planning to record a follow-up, but in February 1980, Scott died from alcohol poisoning after a drinking binge. Instead of disbanding, they decided to continue on and recruited Johnson, who was previously vocalist for Geordie. The album was composed by Johnson, Angus and Malcolm Young, and recorded over seven weeks in the Bahamas from April to May 1980 with producer Robert John "Mutt" Lange, who had worked on their previous album. Following its completion, the group mixed Back in Black at Electric Lady Studios in New York City. The album\'s all-black cover was designed as a "sign of mourning" for Scott. As their sixth international studio release, Back in Black was an unprecedented success. It has sold an estimated 50 million copies worldwide, and is the second best-selling album in music history. The band supported the album with a yearlong world tour, cementing them among the most popular music acts of the early 1980s. The album also received positive critical reception during its initial release, and it has since been included on numerous lists of "greatest" albums. Since its original release, the album has been reissued and remastered multiple times, most recently for digital distribution. On 9 December 2019, it was certified 25x Platinum by the Recording Industry Association of America (RIAA).'}</t>
+    <t>{'album': 'http://dbpedia.org/resource/Issues_(Korn_album)', 'album_name': 'Issues', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Issues_(Korn_album)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': "Issues is the fourth studio album by American nu metal band Korn. It was released on November 16, 1999 through Immortal Records. The album was promoted throughout 2000 by the band's highly successful Sick and Twisted Tour."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Still_Got_the_Blues', 'album_name': 'Still Got the Blues', 'artist': 'http://dbpedia.org/resource/Gary_Moore', 'artist_name': 'Gary Moore', 'wiki': 'http://en.wikipedia.org/wiki/Still_Got_the_Blues', 'abstract': "Still Got the Blues is the eighth solo studio album by Northern Irish guitarist Gary Moore, released in 1990. It marked a substantial change in style for Moore, who had been predominantly known for rock and hard rock music with Skid Row, Thin Lizzy, G-Force, Greg Lake and during his own extensive solo career, as well as his jazz-fusion work with Colosseum II. As indicated by its title, Still Got the Blues saw him delve into an electric blues style. The album features guest contributions from Albert King, Albert Collins and George Harrison. The title track was released as a single and reached No. 97 on the Billboard Hot 100 on 16 February 1991. It is the only single of Moore's to chart on the Billboard Hot 100. The album reached No. 83 on the Billboard 200 on 16 February 1991, then was certified gold by the RIAA on November 1995. This was Moore's most successful album both in terms of sales and chart position in the US."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Thank_U,_Next', 'album_name': 'Thank U, Next', 'artist': 'http://dbpedia.org/resource/Ariana_Grande', 'artist_name': 'Ariana Grande', 'wiki': 'http://en.wikipedia.org/wiki/Thank_U,_Next', 'abstract': 'Thank U, Next (stylized in all lowercase) is the fifth studio album by American singer Ariana Grande, released on February 8, 2019, by Republic Records. It was released six months after her fourth studio album Sweetener (2018), created in the midst of Grande\'s personal struggles, including the death of ex-boyfriend Mac Miller and her breakup with then-fiancé Pete Davidson. Grande began working on the album in October 2018, enlisting writers and producers such as Tommy Brown, Max Martin, Ilya Salmanzadeh and Pop Wansel. With Thank U, Next, Grande distanced herself from the traditional promotion cycle that she employed for her previous album releases. Musically, Thank U, Next is a pop, R&amp;B, and trap album, taking influences from hip hop. The album was preceded by two singles, the title track and "7 Rings", both of which debuted atop the United States Billboard Hot 100 chart, becoming Grande\'s first two number-one songs in the US. "Break Up with Your Girlfriend, I\'m Bored" became the third single on the day of the album\'s release, peaking at number two on the Hot 100. All of the album\'s 12 tracks entered the Hot 100, with the singles occupying the top three spots, making Grande the first soloist to achieve it. The album topped the charts in various countries, and broke many streaming records upon release, including the records for the largest weekly streams for a pop album and a female album in the United States. It was certified double platinum by the Recording Industry Association of America, and landed at number two on the US Billboard 200 Year-End chart of 2019. Globally, it was the eighth best-selling album of 2019, and fourth best-selling album by a female artist. Upon its release, Thank U, Next received critical acclaim, with compliments on the cohesive production and Grande\'s showcase of her personal and vulnerable side. In support of both Sweetener and Thank U, Next, Grande embarked on the Sweetener World Tour, beginning on March 18, 2019. The concert tour grossed $146.4 million from 97 shows. At the 62nd Annual Grammy Awards, Thank U, Next was nominated for Album of the Year and Best Pop Vocal Album, while "7 Rings" was nominated for Record of the Year and Best Pop Solo Performance. The album was ranked in several year-end and decade-end best music lists.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Beastie_Boys_Music', 'album_name': 'Beastie Boys Music', 'artist': 'http://dbpedia.org/resource/Beastie_Boys', 'artist_name': 'Beastie Boys', 'wiki': 'http://en.wikipedia.org/wiki/Beastie_Boys_Music', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'abstract': 'Beastie Boys Music is a compilation album from American hip hop/rap rock group Beastie Boys, released on October 23, 2020.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/In_the_City_(Kevin_Rudolf_album)', 'album_name': 'In the City', 'artist': 'http://dbpedia.org/resource/Kevin_Rudolf', 'artist_name': 'Kevin Rudolf', 'wiki': 'http://en.wikipedia.org/wiki/In_the_City_(Kevin_Rudolf_album)', 'hometown': 'http://dbpedia.org/resource/United_States', 'abstract': 'In the City is the second studio album by American singer-songwriter and producer Kevin Rudolf. It was released nationwide, physically and digitally, on November 24, 2008, via Cash Money Records and Universal Republic. Every song on the album was produced and written by Rudolf. "She Can Get It" was a production collaboration between Rudolf and Chad Hugo of The Neptunes. "Let It Rock" was the first single released from the album. The song "NYC" was featured on an episode of CSI: NY and "Let It Rock" was featured on the Melrose Place pilot and The Hills as well as being featured as the theme song for the 2009 WWE Royal Rumble. The album has sold 102,000 copies in the US. The album\'s first single, "Let It Rock" reached number 2 on the Canadian Hot 100, number 5 on the U.S. Billboard Hot 100, number 3 on the Australian ARIA charts and number 4 on the Irish Singles Chart. "Welcome to the World", the version featuring Kid Cudi, is the second single released in February 2009, and reached number 58 on the US Hot 100 and peaked at number 42 on Australia\'s Aria Singles Chart.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Sweetener_(album)', 'album_name': 'Sweetener', 'artist': 'http://dbpedia.org/resource/Ariana_Grande', 'artist_name': 'Ariana Grande', 'wiki': 'http://en.wikipedia.org/wiki/Sweetener_(album)', 'abstract': 'Sweetener is the fourth studio album by American singer Ariana Grande. It was released on August 17, 2018, through Republic Records. Its production was handled by Pharrell Williams, Charles Anderson, Hit-Boy, Ilya Salmanzadeh, and Max Martin, with guest features from Williams, Nicki Minaj and Missy Elliott. The album explores themes of romance, sexual intimacy, unhealthy relationships, womanhood, anxiety, and perseverance through hardships. Essentially a pop, R&amp;B and trap record, the album incorporates elements of house, funk, neo soul and hip hop music, primarily consisting of uptempo tunes and downtempo ballads, which heavily incorporate harmonies. Sweetener earned critical acclaim upon its release, favoring the experimental nature of its production. Some critics considered it a vital record in Grande\'s career due to its subject matter. It won Best Pop Vocal Album at the 61st Annual Grammy Awards, scoring Grande her first Grammy Award. Sweetener featured in numerous publications\' year-end music lists of the best albums of 2018, and was subsequently inducted in decade-end lists of the 2010s. Three singles were released from Sweetener, all of which reached the top-twenty of the US Billboard Hot 100: The lead single, "No Tears Left to Cry", debuted and peaked at number three, while the second and third singles, "God Is a Woman" and "Breathin", reached numbers eight and twelve, respectively. Sweetener debuted at number-one on the US Billboard 200, making it Grande\'s third album to reach the summit. It was certified platinum by the Recording Industry Association of America (RIAA), and topped charts in many other countries, including in Australia, Canada, Ireland, New Zealand and the United Kingdom. Grande ventured on a four-show promotional tour, entitled The Sweetener Sessions, after the album\'s release. Launched in further support of both Sweetener and its successor, Thank U, Next (2019), Grande embarked on the Sweetener World Tour in 2019. A concert film centered on the tour, titled Ariana Grande: Excuse Me, I Love You, was released on Netflix on December 21, 2020.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Odelay', 'album_name': 'Odelay', 'artist': 'http://dbpedia.org/resource/Beck', 'artist_name': 'Beck', 'wiki': 'http://en.wikipedia.org/wiki/Odelay', 'abstract': 'Odelay is the fifth studio album by American musician Beck, released on June 18, 1996, by DGC Records. The album featured several successful singles, including "Where It\'s At", "Devils Haircut", and "The New Pollution", and peaked at number sixteen on the Billboard 200. As of July 2008, the album had sold 2.3 million copies in the United States, making Odelay Beck\'s most successful album to date. Since its release, the album has appeared in numerous publications\' lists of the greatest of the 1990s and of all time.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Joshua_Tree', 'album_name': 'The Joshua Tree', 'artist': 'http://dbpedia.org/resource/U2', 'artist_name': 'U2', 'wiki': 'http://en.wikipedia.org/wiki/The_Joshua_Tree', 'hometown': 'http://dbpedia.org/resource/Dublin', 'abstract': 'The Joshua Tree is the fifth studio album by Irish rock band U2. It was produced by Daniel Lanois and Brian Eno, and was released on 9 March 1987 on Island Records. In contrast to the ambient experimentation of their 1984 release, The Unforgettable Fire, the band aimed for a harder-hitting sound within the limitation of conventional song structures on The Joshua Tree. The album is influenced by American and Irish roots music, and through sociopolitically conscious lyrics embellished with spiritual imagery, it contrasts the group\'s antipathy for the "real America" with their fascination with the "mythical America". Inspired by American experiences, literature, and politics, U2 chose America as a theme for the record. Recording began in January 1986 in Ireland, and to foster a relaxed, creative atmosphere, the group primarily recorded in two houses. Several events during the sessions helped shape the conscious tone of the album, including the band\'s participation in the Conspiracy of Hope benefit concerts for Amnesty International, the death of roadie Greg Carroll, and lead vocalist Bono\'s travels to Central America. Recording was completed in November 1986; additional production continued into January 1987. Throughout the sessions, U2 sought a "cinematic" quality for the record, one that would evoke a sense of location, in particular, the open spaces of the United States. They represented this in the sleeve photography depicting them in American desert landscapes. The Joshua Tree received critical acclaim, topped the charts in over 20 countries, and became the fastest-selling album in British history. According to Rolling Stone, the album increased the band\'s stature "from heroes to superstars". It produced the hit singles "With or Without You", "I Still Haven\'t Found What I\'m Looking For", and "Where the Streets Have No Name", the first two of which became the group\'s only number-one singles in the US. The album won Grammy Awards for Album of the Year and Best Rock Performance by a Duo or Group with Vocal in 1988. The group supported the record with the Joshua Tree Tour throughout 1987, during which they began to perform in stadiums for the first time in their career. Frequently listed among the greatest albums of all time, The Joshua Tree is one of the world\'s best-selling albums, with over 25 million copies sold. U2 commemorated the record\'s 20th anniversary with a remastered re-release, and its 30th anniversary with concert tours and a reissue. In 2014, The Joshua Tree was selected for preservation in the US National Recording Registry, having been deemed "culturally, historically, or aesthetically significant" by the Library of Congress.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/My_Head_Is_an_Animal', 'album_name': 'My Head Is an Animal', 'artist': 'http://dbpedia.org/resource/Of_Monsters_and_Men', 'artist_name': 'Of Monsters and Men', 'wiki': 'http://en.wikipedia.org/wiki/My_Head_Is_an_Animal', 'hometown': 'http://dbpedia.org/resource/Iceland', 'abstract': 'My Head Is an Animal is the debut studio album by the Icelandic indie folk band Of Monsters and Men, released through Record Records in Iceland on 20 September 2011. After their success, topping the Icelandic charts with their debut single, "Little Talks", the band signed with Universal Music Group and the album was released internationally through Republic Records on 3 April 2012. The title of the album comes from the second line in "Dirty Paws".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/This_Is_Acting', 'album_name': 'This Is Acting', 'artist': 'http://dbpedia.org/resource/Sia_(musician)', 'artist_name': 'Sia', 'wiki': 'http://en.wikipedia.org/wiki/This_Is_Acting', 'abstract': 'This Is Acting is the seventh studio album by Australian singer and songwriter Sia. It was released on 29 January 2016 by Inertia, Monkey Puzzle and RCA Records. The album is mostly composed of songs written by Sia for other pop artists that were not included on their albums. Sia described songwriting for others as "play-acting," hence the title This Is Acting. "Alive", the album\'s lead single, was released on 24 September 2015. The second single, "Cheap Thrills", was released on 11 February 2016. It reached the top 5 in a number of markets and marked Sia\'s first number one on the US Billboard Hot 100. A remix of the track featuring guest vocals from Sean Paul was also released. A deluxe edition of This Is Acting was released on 21 October 2016 featuring seven new tracks, including solo and Kendrick Lamar-assisted versions of the single "The Greatest". The album\'s fourth and final single, "Move Your Body", was released on 6 January 2017. The album received generally positive reviews from music critics, who complimented Sia\'s vocals and deemed it a concept album. However, some criticized the impersonal and indirect nature of the songs. The album debuted at number one in Australia, and also reached number four on the US Billboard 200, selling 81,000 album equivalent units in its first week—of which 68,000 were from pure album sales, becoming Sia\'s highest first week sales in the country. To further promote the album, Sia embarked on the accompanying Nostalgic for the Present Tour in September 2016. This Is Acting was nominated for the Grammy Award for Best Pop Vocal Album.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Crystal_Visions_–_The_Very_Best_of_Stevie_Nicks', 'album_name': 'Crystal Visions - The Very Best of Stevie Nicks', 'artist': 'http://dbpedia.org/resource/Stevie_Nicks', 'artist_name': 'Stevie Nicks', 'wiki': 'http://en.wikipedia.org/wiki/Crystal_Visions_–_The_Very_Best_of_Stevie_Nicks', 'abstract': 'Crystal Visions... The Very Best of Stevie Nicks is a compilation album released by the American singer-songwriter and Fleetwood Mac vocalist Stevie Nicks. It features songs from her solo career, as well as her career with Fleetwood Mac. It includes her hit singles, a dance remix, and one new track, a live version of Led Zeppelin\'s "Rock and Roll". Three singles were culled from the album: "Rock and Roll", "Landslide", and a remixed version of "Stand Back". There are two versions of this album, one with just the audio CD and another version with an included DVD featuring all of Nicks\' music videos with audio commentary from Nicks, as well as rare footage from the Bella Donna recording sessions. The album debuted and peaked at No. 21 in the US selling 33,944 copies in its first week. The album spent a total of 12 weeks on the Billboard 200 chart, and had sold 348,000 copies as of February 2011. The album is certified gold in Australia and the UK. The title refers to a lyric from "Dreams".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Born_in_the_U.S.A.', 'album_name': 'Born in the U.S.A.', 'artist': 'http://dbpedia.org/resource/Bruce_Springsteen', 'artist_name': 'Bruce Springsteen', 'wiki': 'http://en.wikipedia.org/wiki/Born_in_the_U.S.A.', 'abstract': "Born in the U.S.A. is the seventh studio album by American rock singer-songwriter Bruce Springsteen. It was released by Columbia Records on June 4, 1984. The album's music was written by Springsteen and recorded with his E Street Band and producers Chuck Plotkin and Jon Landau at The Power Station and The Hit Factory in New York City. Born in the U.S.A. was met with positive reviews and massive commercial success. It produced seven top-10 hit singles and was promoted with a worldwide concert tour by Springsteen. Born in the U.S.A. became his most commercially successful album and one of the highest-selling records ever, having sold 30 million copies by 2012. It has also been cited by critics as one of the greatest albums of all time. The album received a nomination for Album of the Year at the 1985 Grammy Awards."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Adrenalize', 'album_name': 'Adrenalize', 'artist': 'http://dbpedia.org/resource/Def_Leppard', 'artist_name': 'Def Leppard', 'wiki': 'http://en.wikipedia.org/wiki/Adrenalize', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'abstract': 'Adrenalize is the fifth studio album by English rock band Def Leppard, released on 31 March 1992 through Mercury Records. The album was the first by the band following the death of guitarist Steve Clark in 1991. Instead of replacing him with a new member, the band recorded the album as a four-piece. "We had recorded demos on multitrack," recalled fellow guitarist Phil Collen. "I was sitting there with him when he played the original parts. I could relay that. But it was like playing along to a ghost." This was also the band\'s first album recorded without their longtime producer Robert John "Mutt" Lange. Instead, the band took matters in their own hands and produced the album themselves along with longtime engineer Mike Shipley; with Lange credited as executive producer. The album spawned seven singles, three of which – "Let\'s Get Rocked", "Make Love Like a Man" and "Have You Ever Needed Someone So Bad" – were major hits. One of the tracks on the album, "White Lightning", is dedicated to the memory of Clark, who has writing credits on six of the album\'s 10 tracks.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/One_Hot_Minute', 'album_name': 'One Hot Minute', 'artist': 'http://dbpedia.org/resource/Red_Hot_Chili_Peppers', 'artist_name': 'Red Hot Chili Peppers', 'wiki': 'http://en.wikipedia.org/wiki/One_Hot_Minute', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': 'One Hot Minute is the sixth studio album by American rock band Red Hot Chili Peppers, released on September 12, 1995 by Warner Bros. Records. The worldwide success of the band\'s previous album Blood Sugar Sex Magik (1991) caused guitarist John Frusciante to become uncomfortable with their popularity, eventually quitting mid-tour in 1992. Vocalist Anthony Kiedis, who had resumed addictions to cocaine and heroin in 1994 after being sober for more than five years, approached his lyricism with a reflective outlook on drugs and their harsh effects. It is the only studio album to feature Dave Navarro as the band\'s guitarist; Navarro joined the band in 1993 after a series of short-term replacements for Frusciante. The album was produced by Rick Rubin, who had also produced the band\'s previous album. One Hot Minute sold more than two million copies and was certified multi-platinum, and reached number four on the US Billboard 200. It also spawned three hit singles: "Warped", "My Friends" and "Aeroplane". Nevertheless, it was considered a commercial disappointment, because it sold fewer than half as many copies as Blood Sugar Sex Magik and received much less acclaim. Navarro was fired in 1998 due to his drug use.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Back_to_Black', 'album_name': 'Back to Black', 'artist': 'http://dbpedia.org/resource/Amy_Winehouse', 'artist_name': 'Amy Winehouse', 'wiki': 'http://en.wikipedia.org/wiki/Back_to_Black', 'abstract': 'Back to Black is the second and final studio album by English singer and songwriter Amy Winehouse, released on 27 October 2006 by Island Records. Winehouse predominantly based the album on her tumultuous relationship with then-ex-boyfriend and future husband Blake Fielder-Civil, who temporarily left her to pursue his previous ex-girlfriend. Their short-lived separation spurred her to create an album that explores themes of guilt, grief, infidelity and heartbreak in a relationship. Influenced by the pop and soul music of 1960s girl groups, Winehouse collaborated with producers Salaam Remi and Mark Ronson, along with Sharon Jones\' band The Dap-Kings, to assist her on capturing the sounds from that time period while blending them with contemporary R&amp;B and neo-soul music. Between 2005 and 2006, she recorded the album\'s songs with Remi at Instrumental Zoo Studios in Miami and then with Ronson and the Dap-Kings at Chung King Studios and Daptone Records in New York. Tom Elmhirst mixed the album at Metropolis Studios in London. Back to Black was acclaimed by music critics, who praised Winehouse\'s songwriting and emotive singing style as well as Remi and Ronson\'s production. The album spawned five singles: "Rehab", "You Know I\'m No Good", "Back to Black", "Tears Dry on Their Own" and "Love Is a Losing Game". It has also been cited as being a key influence to the widespread popularity of British soul throughout the late 2000s, paving the musical landscape for artists such as Adele, Duffy, and Estelle. At the 2008 Grammy Awards, Back to Black won Best Pop Vocal Album and was also nominated for Album of the Year. At the same ceremony, Winehouse won four additional awards, tying her with five other artists as the second-most awarded female in a single ceremony. The album was also nominated at the 2007 Brit Awards for MasterCard British Album and was shortlisted for the 2007 Mercury Prize. Back to Black sold 3.58 million copies in the UK alone, becoming the UK\'s second best-selling album of the 21st century so far. The album has sold over 16 million copies worldwide. A deluxe edition of Back to Black was released in November 2007, containing a bonus disc of B-sides and live tracks. Winehouse\'s debut DVD I Told You I Was Trouble: Live in London, released that same month, includes a live set recorded at Shepherd\'s Bush Empire in London and a 50-minute documentary detailing the singer\'s career over the previous four years. In 2020, Back to Black was ranked at number 33 on Rolling Stone\'s list of the "500 Greatest Albums of All Time".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Have_a_Nice_Day_(Bon_Jovi_album)', 'album_name': 'Have A Nice Day', 'artist': 'http://dbpedia.org/resource/Bon_Jovi', 'artist_name': 'Bon Jovi', 'wiki': 'http://en.wikipedia.org/wiki/Have_a_Nice_Day_(Bon_Jovi_album)', 'hometown': 'http://dbpedia.org/resource/Sayreville,_New_Jersey', 'abstract': 'Have a Nice Day is the ninth studio album by American rock band Bon Jovi, released on September 20, 2005. Produced by John Shanks, the album was recorded at Sanctuary Sound II in New Jersey, and Ocean Way Recording in Hollywood, California. Have a Nice Day was originally recorded in the summer of 2004 and planned for release in early 2005. However, due to misunderstandings between the band and its record company, the album was delayed. The band wanted to write and record more songs, remove others from the original track list, and in the process, altered existing album tracks. Have a Nice Day reached number one on its debut in 15 countries. The album also peaked at number two in both the US and UK. In the US, it sold over 202,000 copies in the first week, making it Bon Jovi\'s best first-week sales in the band\'s history at that time. The album was eventually certified platinum by the RIAA. The album produced the hit singles "Have a Nice Day" and "Who Says You Can\'t Go Home". Have a Nice Day has received mixed reviews by music critics. It was commonly commented that Jon Bon Jovi was "stretching" his lyrical abilities.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Sublime_discography', 'album_name': 'Sublime discography', 'artist': 'http://dbpedia.org/resource/Sublime_(band)', 'artist_name': 'Sublime', 'wiki': 'http://en.wikipedia.org/wiki/Sublime_discography', 'hometown': 'http://dbpedia.org/resource/Long_Beach,_California', 'abstract': "This is the discography of Sublime, an American ska punk band formed in Long Beach, California that consisted of Bradley Nowell (vocals and guitar), Bud Gaugh (drums) and Eric Wilson (bass guitar). Over the band's eight-year career, they released three studio albums, as well as a live album, five compilation albums, three EPs, one box set, five official singles and four tribute albums. In total, the band sold 14.9 million albums in the United States. The band disbanded after singer Bradley Nowell's death in 1996."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Too_Weird_to_Live,_Too_Rare_to_Die!', 'album_name': 'Too Weird to Live, Too Rare to Die!', 'artist': 'http://dbpedia.org/resource/Panic!_at_the_Disco', 'artist_name': 'Panic! at the Disco', 'wiki': 'http://en.wikipedia.org/wiki/Too_Weird_to_Live,_Too_Rare_to_Die!', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': 'Too Weird to Live, Too Rare to Die! is the fourth studio album by American pop rock band Panic! at the Disco. The album was released on October 8, 2013 on Decaydance and Fueled by Ramen. Recorded as a trio, the album was produced by Butch Walker, and is the only album to feature bassist Dallon Weekes since he officially joined the band in 2010. This was also the final album to feature drummer Spencer Smith, thus making this Panic!\'s final album as a rock band, with further releases being made as a solo project fronted by Brendon Urie. Described as a "party record", Too Weird to Live, Too Rare to Die! was preceded by the singles "Miss Jackson" and "This Is Gospel", with "Girls / Girls / Boys" and Nicotine EP following after its release. The album\'s overall aesthetic is influenced by dance music, electronica and hip hop. Too Weird to Live, Too Rare to Die! debuted at number two on the US Billboard 200, earning the band their second career number two. The song Vegas Lights would later be used as the Vegas Golden Knights\' goal song.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/To_the_Faithful_Departed', 'album_name': 'To the Faithful Departed', 'artist': 'http://dbpedia.org/resource/The_Cranberries', 'artist_name': 'The Cranberries', 'wiki': 'http://en.wikipedia.org/wiki/To_the_Faithful_Departed', 'hometown': 'http://dbpedia.org/resource/Limerick', 'abstract': "To the Faithful Departed is the third studio album by Irish alternative rock band the Cranberries, released on 30 April 1996. The album was made in memory of Denny Cordell who signed the band to Island Records and Joe O'Riordan (vocalist Dolores O'Riordan's grandfather), who had both died that year. The album reached number one in four countries and became the band's highest-charting album on the US Billboard 200, where it peaked at number four."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Out_of_Time_(album)', 'album_name': 'Out of Time (àlbum)', 'artist': 'http://dbpedia.org/resource/R.E.M.', 'artist_name': 'R.E.M.', 'wiki': 'http://en.wikipedia.org/wiki/Out_of_Time_(album)', 'hometown': 'http://dbpedia.org/resource/Athens,_Georgia', 'abstract': 'Out of Time is the seventh studio album by American alternative rock band R.E.M., released on March 12, 1991, by Warner Bros. Records. With Out of Time, R.E.M.\'s status grew from that of a cult band to a massive international act. The record topped the album sales charts in both the United States and the United Kingdom, spending 109 weeks on U.S. album charts and enjoying two separate spells at the summit, and spending 183 weeks on the British charts and a single week at the top. The album has sold more than four and a half million copies in the United States and more than 18 million copies worldwide. The album won three Grammy Awards in 1992: one as Best Alternative Music Album, and two for the first single, "Losing My Religion."'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Chronicles_(Steve_Winwood_album)', 'album_name': 'Chronicles (Steve Winwood)', 'artist': 'http://dbpedia.org/resource/Steve_Winwood', 'artist_name': 'Steve Winwood', 'wiki': 'http://en.wikipedia.org/wiki/Chronicles_(Steve_Winwood_album)', 'abstract': 'Chronicles is the first compilation album by Steve Winwood as a solo artist. The album contains some of his major hits up to this point and new remixes produced by Tom Lord-Alge, who had helped commercialize Winwood\'s sound on his previous album Back in the High Life. One track, "Valerie", was originally released as a single for Winwood\'s 1982 album, Talking Back to the Night. Despite the original single being a commercial flop, the remix of the song included in this album peaked at No. 9 on the US charts and No. 19 in the UK. The album peaked at No. 26 on the Billboard 200 album chart and No. 12 in the UK. It was his last release with Island Records, before his departure to Virgin Records.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Honey_(Ohio_Players_album)', 'album_name': 'Honey (Ohio Players album)', 'artist': 'http://dbpedia.org/resource/Ohio_Players', 'artist_name': 'Ohio Players', 'wiki': 'http://en.wikipedia.org/wiki/Honey_(Ohio_Players_album)', 'hometown': 'http://dbpedia.org/resource/Dayton,_Ohio', 'abstract': "Honey is the seventh studio album by American band the Ohio Players. Released on August 16, 1975 by Mercury Records. It is generally regarded as a classic, the band's best album, and the last great full-length release of their dominant era in the mid-1970s. Like previous albums by the band, Honey is known for a racy cover photo. In this case image is a nude woman holding a sticky jar of honey in one hand while lasciviously swallowing a spoonful of it with the other. The inside cover photo shows the nude woman lying on her back with honey poured all over her body, and the Players looking at her with sheer delight and amazement. The model was Playboy magazine's October 1974 Playmate of the Month, Ester Cordet. The album won a Grammy Award for Best Album Cover Art. The cover image also gained mild notoriety from urban legends involving one of the singles, Love Rollercoaster, one to the effect that the honey injured Cordet’s skin, ruining her career as a model, and another claiming that she was stabbed to death in the recording booth, with her scream captured on the song. These stories are false. The album was recorded and mixed at Paragon Recording Studios in Chicago, with Barry Mraz as the recording engineer. Marty Link, Steve Kusiciel, Rob Kingsland, and Paul Johnson are credited as tape operators. Gilbert Kong mastered the final mix at Masterdisk in New York City. The album peaked at #2 on the Billboard 200 during the week of September 27, 1975, kept out of the top spot by Jefferson Starship's Red Octopus. In addition, it was the third album from the band to top the Soul/Black Albums chart, where it spent three weeks."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Reload_(Metallica_album)', 'album_name': 'Reload', 'artist': 'http://dbpedia.org/resource/Metallica', 'artist_name': 'Metallica', 'wiki': 'http://en.wikipedia.org/wiki/Reload_(Metallica_album)', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'abstract': "Reload is the seventh studio album by American heavy metal band Metallica, released on November 18, 1997 via Elektra Records. The album is a follow-up to Load, released the previous year, and Metallica's last studio album to feature the ...And Justice for All-era lineup, with bassist Jason Newsted leaving the band in January 2001, though it was not his last release with the band. Reload debuted at number one on the Billboard 200, selling 436,000 copies in its first week. It was certified 3× platinum by the Recording Industry Association of America (RIAA) for shipping three million copies in the United States."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Exotica_(Bananarama_album)', 'album_name': 'Exotica (Bananarama album)', 'artist': 'http://dbpedia.org/resource/Bananarama', 'artist_name': 'Bananarama', 'wiki': 'http://en.wikipedia.org/wiki/Exotica_(Bananarama_album)', 'abstract': 'Exotica is the eighth studio album released by the British female vocal duo Bananarama. This is Bananarama\'s third album as a duo, and was produced by Pascal Caubet and issued only in France in 2001 on the M6 Interactions label. The work is a combination of new compositions along with re-recordings of past Bananarama hits, including a Latin pop version of the U.S. and UK Top 10 hit, "Cruel Summer". Two promo-only singles were released from the album: "If" (which was abandoned mostly before release) and a cover version of George Michael\'s "Careless Whisper". The album was not a commercial or critical success for Bananarama, but the few copies of "If" which made it to the French market have become one of the rarest items ever by the band, heavily sought after by fans and collectors.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Eat_to_the_Beat', 'album_name': 'Eat to the Beat', 'artist': 'http://dbpedia.org/resource/Blondie_(band)', 'artist_name': 'Blondie', 'wiki': 'http://en.wikipedia.org/wiki/Eat_to_the_Beat', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'abstract': "Eat to the Beat is the fourth studio album by American band Blondie. It was released on September 28, 1979, by Chrysalis Records. The album was certified Platinum in the US, where it spent a year on the Billboard album chart. Peaking at No.\u200a17, it was one of Billboard's top 10 albums of 1980. It also reached No.\u200a1 on the UK album chart in October 1979 and was certified Platinum by the BPI."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/God_Shuffled_His_Feet', 'album_name': 'God Shuffled His Feet', 'artist': 'http://dbpedia.org/resource/Crash_Test_Dummies', 'artist_name': 'Crash Test Dummies', 'wiki': 'http://en.wikipedia.org/wiki/God_Shuffled_His_Feet', 'hometown': 'http://dbpedia.org/resource/Manitoba', 'abstract': 'God Shuffled His Feet is the second album by Canadian band the Crash Test Dummies, released in 1993. It features their most popular single, "Mmm Mmm Mmm Mmm". The cover art superimposes the band members\' faces over the figures of Titian\'s painting Bacchus and Ariadne. It was their most successful album commercially, as it sold over eight million copies worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Notorious_(Duran_Duran_album)', 'album_name': 'Notorious (Duran Duran album)', 'artist': 'http://dbpedia.org/resource/Duran_Duran', 'artist_name': 'Duran Duran', 'wiki': 'http://en.wikipedia.org/wiki/Notorious_(Duran_Duran_album)', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'abstract': 'Notorious is the fourth studio album by English new wave band Duran Duran. It was released on 21 November 1986 by EMI. The album peaked at number 16 on the UK Albums Chart and at number 12 on the US Billboard 200. Produced by the band with Nile Rodgers, the album showcased a new \'funk-pop\' musical direction for the band, emphasizing bass and brass, as exemplified by the singles "Notorious" and "Skin Trade". In 2010, EMI released a raft of material surrounding the Notorious reissue consisting of a two-disc set, a deluxe three-disc set, a digital only EP and a digital only live album. The box set also includes remixes, live tracks and the Working for the Skin Trade live video (for the first time on DVD).'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Live_Facelift', 'album_name': 'Live Facelift', 'artist': 'http://dbpedia.org/resource/Alice_in_Chains', 'artist_name': 'Alice in Chains', 'wiki': 'http://en.wikipedia.org/wiki/Live_Facelift', 'hometown': 'http://dbpedia.org/resource/Seattle', 'abstract': "Live Facelift is a concert video and live album by the American rock band Alice in Chains, originally released on VHS on July 30, 1991, containing live footage of songs from their debut album, Facelift, recorded at The Moore Theatre in Seattle on December 22, 1990. The video has been certified gold by the RIAA with excess sales of 50,000 copies. Live Facelift was released on vinyl for the first time on November 25, 2016, as part of Record Store Day's Black Friday event. Only 5000 copies were issued. On September 15, 2017, the concert was released on red vinyl on a limited edition of only 1000 copies, each coming with a special commemorative poster."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Cornerstone_(Styx_album)', 'album_name': 'Cornerstone (álbum)', 'artist': 'http://dbpedia.org/resource/Styx_(band)', 'artist_name': 'Styx', 'wiki': 'http://en.wikipedia.org/wiki/Cornerstone_(Styx_album)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': 'Cornerstone is the ninth studio album by the American rock band Styx, released in 1979. Styx\'s third straight multi-platinum selling album, Cornerstone was Styx\'s first album to earn a Grammy nomination, which was for Best Rock Performance by a Duo or Group. Like the four previous Styx albums, the band produced the album themselves. Styx recorded the album at Pumpkin Studios in Oak Lawn, Illinois. Cornerstone is best known for including the group\'s only #1 Billboard Hot 100 Single, the power ballad "Babe". The album also includes the folk rock song "Boat on the River", which was a hit in Europe, though it failed to chart in the United States. Cornerstone became Styx\'s first US Top 5 album, peaking at #2 on the Billboard album chart.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Conditions_(album)', 'album_name': 'Conditions', 'artist': 'http://dbpedia.org/resource/The_Temper_Trap', 'artist_name': 'The Temper Trap', 'wiki': 'http://en.wikipedia.org/wiki/Conditions_(album)', 'hometown': 'http://dbpedia.org/resource/Melbourne', 'abstract': 'Conditions is the debut studio album by Australian rock band The Temper Trap, released in Australia through Liberation Music on 19 June 2009. It was later released in the United Kingdom on 10 August 2009. The album debuted at number nine on the Australian Albums Chart, where it has been certified platinum, and peaked at number 25 on the UK Albums Chart, largely due to the success of the debut single "Sweet Disposition", which peaked at number six on the singles chart. The song "Science of Fear" was featured in the EA Sports video game FIFA 10 and the Codemasters racing game DiRT 2.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Reggatta_de_Blanc', 'album_name': 'Reggatta de Blanc', 'artist': 'http://dbpedia.org/resource/The_Police', 'artist_name': 'The Police', 'wiki': 'http://en.wikipedia.org/wiki/Reggatta_de_Blanc', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': 'Reggatta de Blanc is the second studio album by English rock band the Police, released on 2 October 1979 by A&amp;M Records. It was the band\'s first release to top the UK Albums Chart and features their first two UK number-one singles: "Message in a Bottle" and "Walking on the Moon". In early 1980, the album was reissued in the United States on two 10" discs, one album side per disc, and as a collector\'s edition with a poster of the band. The music features the Police\'s distinctive appropriation of reggae and frontman Sting\'s Caribbean vocal inflections. The album\'s title loosely translates in French to "White Reggae". It was the band\'s second album to bear a Franglais title, after their 1978 debut album Outlandos d\'Amour. Reggatta de Blanc proved more popular and successful than its predecessor. The title track earned the band their first Grammy Award for Best Rock Instrumental Performance. In 2003, Reggatta de Blanc was ranked at number 369 on Rolling Stone magazine\'s list of the 500 greatest albums of all time.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Audioslave_(album)', 'album_name': 'Audioslave (album)', 'artist': 'http://dbpedia.org/resource/Audioslave', 'artist_name': 'Audioslave', 'wiki': 'http://en.wikipedia.org/wiki/Audioslave_(album)', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'abstract': 'Audioslave is the debut studio album by American rock supergroup Audioslave. It was first released on November 18, 2002, through Epic Records and Interscope Records. The album features the hit singles "Cochise", "Show Me How to Live", "What You Are", "Like a Stone", and "I Am the Highway". The album was later certified 3x platinum by the Recording Industry Association of America in the United States. "Like a Stone" was nominated for a 2004 Grammy Award for Best Hard Rock Performance.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Lust_for_Life_(Iggy_Pop_album)', 'album_name': 'Lust for Life', 'artist': 'http://dbpedia.org/resource/Iggy_Pop', 'artist_name': 'Iggy Pop', 'wiki': 'http://en.wikipedia.org/wiki/Lust_for_Life_(Iggy_Pop_album)', 'abstract': 'Lust for Life is the second solo studio album by American musician Iggy Pop, released on September 9, 1977, by RCA Records. It was his second collaboration with English musician and friend David Bowie after The Idiot, released in March the same year. Shortly after Bowie released his own album Low in January, Pop went on a tour to support The Idiot with Bowie as his keyboardist. At the tour\'s conclusion, Pop and Bowie regrouped in Berlin to record the former\'s next solo album. Lust for Life was recorded at Hansa Studio by the Wall in West Berlin from May to June 1977, with production being handled by Bowie, Pop, and engineer Colin Thurston. The touring band of Pop, Bowie, guitarist Ricky Gardiner, and brothers Tony Fox and Hunt Sales on bass and drums, respectively, comprised the primary lineup for the album. After The Idiot was mostly composed by Bowie, Pop was adamant about having more control over Lust for Life, often composing his own arrangements, including for "Sixteen". This resulted in a hard rock and proto-punk sound more akin to his older style with the band the Stooges. Pop would use Bowie\'s arrangements for some songs, including the well-known title track. Upon release, Lust for Life received little promotion from RCA but nevertheless peaked at number 28 on the UK Albums Chart and would remain Pop\'s highest-charting album there until 2016\'s Post Pop Depression. It also peaked at number 8 in the Netherlands and number 120 on the US Billboard Top LPs &amp; Tape chart. Critically, Lust for Life was well-received, with many praising Pop\'s energetic performance throughout and his greater role compared to The Idiot; the former would later be regarded as one of his best works and has appeared on several best album lists. It also marked Pop and Bowie\'s final collaboration until the mid-1980s.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Number_Ones_(video)', 'album_name': 'Number Ones (vídeo)', 'artist': 'http://dbpedia.org/resource/Michael_Jackson', 'artist_name': 'Michael Jackson', 'wiki': 'http://en.wikipedia.org/wiki/Number_Ones_(video)', 'abstract': 'Number Ones is a video album by American recording artist Michael Jackson. It was released on DVD on November 13, 2003 under the Epic Records record label, in conjunction with the promotion for Jackson\'s greatest hits album, of the same name (although the album and DVD have different songs). The DVD, which is Jackson\'s fourth DVD album, contained fifteen music videos, which were directed and produced by various people. It consists of music videos filmed and released by Jackson from 1979\'s Off the Wall to 2001\'s Invincible. As with the album, the DVD has four different covers. Notable music videos included on the DVD were "Beat It", "Billie Jean" and Thriller—which received heavy rotation on MTV in the 1980s, and are credited as having transformed the music video from a promotional tool and into an art form, and "Black or White" which was also prominent on channels like MTV in the 1990s. Number Ones received praise from contemporary music critics and was commercially successful internationally. The DVD peaked at number one on the Australian Top 40 Music DVD in Australia. Number Ones has been certified twenty two times platinum in Australia by the Australian Recording Industry Association and is the best selling music DVD ever by a male solo artist in Australia. It is also thirteen times platinum in the United States by the Recording Industry Association of America.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Bad_(album)', 'album_name': 'Bad (album)', 'artist': 'http://dbpedia.org/resource/Michael_Jackson', 'artist_name': 'Michael Jackson', 'wiki': 'http://en.wikipedia.org/wiki/Bad_(album)', 'abstract': 'Bad is the seventh studio album by American singer and songwriter Michael Jackson. It was released on August 31, 1987, by Epic Records, nearly five years after Jackson\'s previous album, Thriller (1982). Written and recorded between January 1985 and July 1987, Bad was the third and final collaboration between Jackson and producer Quincy Jones, with Jackson co-producing and composing all but two tracks. With Bad, Jackson departed from his signature groove-based style and high-pitched vocals. The album\'s edgier sound incorporates pop, rock, funk, R&amp;B, dance, soul, and hard rock styles. Jackson also experimented with newer recording technology, including digital synthesizers and drum machines, resulting in a sleeker and more aggressive sound. Lyrical themes on the album include media bias, paranoia, racial profiling, romance, self-improvement, and world peace. The album features appearances from Siedah Garrett and Stevie Wonder. One of the most anticipated albums of its time, Bad debuted at number one on the Billboard Top Pop Albums chart, selling over 2 million copies in its first week in the US. The album also reached number one in 24 other countries, including the UK, where it sold 500,000 copies in its first five days and became the country\'s best-selling album of 1987. It was the best-selling album worldwide of 1987 and 1988. Nine songs were released as official singles, and one as a promotional single. Seven charted in the top 20 on the Billboard Hot 100, including a record-breaking five number ones: "I Just Can\'t Stop Loving You", "Bad", "The Way You Make Me Feel", "Man in the Mirror" and "Dirty Diana". By 1991 it was the second-best selling album of all time at the time, behind Thriller, having sold 25 million copies worldwide. The album was promoted with the film, Moonwalker (1988), which included the music videos of songs from the album, including "Speed Demon", "Leave Me Alone", "Man in the Mirror" and "Smooth Criminal". The film became the best-selling home video of all time. The Bad tour, which was Jackson\'s first solo world tour, grossed $125 million (equivalent to more than $291 million in 2021) making it the highest-grossing solo concert tour of the 1980s. Jackson performed 123 concerts in 15 countries to an audience of 4.4 million including a record seven sold-out shows at Wembley Stadium. It was also Jackson\'s last tour where he performed in the United States. With sales of over 35 million copies sold worldwide, Bad is one of the best-selling albums of all time. In 2021, it was certified 11× platinum by the Recording Industry Association of America (RIAA). The album has been named by several publications as one of the greatest albums of all time. It was nominated for six Grammy Awards, winning Best Engineered Recording – Non Classical and Best Music Video (for "Leave Me Alone"). In 1988, Jackson received the first Billboard Spotlight Award, in recognition of the record-breaking chart success on the Billboard Hot 100. For his Bad videos and previous videos throughout the 1980s, Jackson received the MTV Video Vanguard Award. To celebrate its 25th anniversary, the documentary film, Bad 25 (2012), was released on August 31, 2012. A 25th anniversary album, Bad 25 (2012), was also released on September 18, 2012.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Loud_(Rihanna_album)', 'album_name': 'Loud', 'artist': 'http://dbpedia.org/resource/Rihanna', 'artist_name': 'Rihanna', 'wiki': 'http://en.wikipedia.org/wiki/Loud_(Rihanna_album)', 'abstract': 'Loud is the fifth studio album by Barbadian singer Rihanna. It was released on November 12, 2010, by Def Jam Recordings and SRP Records. The album was recorded between February and August 2010, during the singer\'s Last Girl on Earth tour and the filming of her first feature film Battleship (2012). Rihanna and L.A. Reid were the executive producers of Loud and worked with various record producers, including Stargate, Sandy Vee, The Runners, Tricky Stewart and Alex da Kid. The album features several guest vocalists, including rappers Drake, Nicki Minaj and Eminem, who is featured on the sequel to "Love the Way You Lie", titled "Love the Way You Lie (Part II)". A dance-pop and R&amp;B album, Loud differs from Rihanna\'s previous record, Rated R (2009), which incorporates a prominently foreboding and angry tone and dark themes. Loud features up-tempo songs, and marks the return to dancehall; a genre prominent on her first two albums Music of the Sun (2005) and A Girl like Me (2006). It also uses rock in "California King Bed" and reggae in the Caribbean-inspired "Man Down". Loud received generally positive reviews from music critics, who complimented its upbeat material and Rihanna\'s vocal performances, while others stated that although the songs were solid, they were unfocused to each other. The album was a commercial success; it debuted at number three on the US Billboard 200 chart, with sales of 207,000 copies, the highest first-week sales of her career at the time. The album peaked at number one on the Canadian, Swiss and the UK album charts. According to the International Federation of the Phonographic Industry (IFPI), Loud was the eighth global best-selling album of 2011. Since its release, it has sold over 8 million copies worldwide. The album produced seven singles, including the international hits "Only Girl (In the World)", "What\'s My Name?", and "S&amp;M". All three singles reached number one on the US Billboard Hot 100 chart. "S&amp;M" was Rihanna\'s tenth number one song in the US, making Rihanna the youngest recording artist to accumulate the plateau in the shortest time, surpassing Mariah Carey. "Only Girl (In the World)" won the Grammy Award for Best Dance Recording in February 2011; additionally, the album was nominated for three more Grammy Awards, including for Album of the Year. To support the album, Rihanna embarked on her third worldwide concert tour, entitled the Loud Tour.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Greatest_Hits_(Blink-182_album)', 'album_name': 'Greatest Hits (álbum de Blink-182)', 'artist': 'http://dbpedia.org/resource/Blink-182', 'artist_name': 'Blink-182', 'wiki': 'http://en.wikipedia.org/wiki/Greatest_Hits_(Blink-182_album)', 'hometown': 'http://dbpedia.org/resource/Poway,_California', 'abstract': 'Greatest Hits is the first greatest hits album of American rock band Blink-182. It was released on October 31, 2005 by Geffen Records. Greatest Hits was created by Geffen shortly after the band\'s February 2005 breakup, termed an "indefinite hiatus" by the label. Tensions had risen in the group and guitarist Tom DeLonge desired to take time off. Bassist Mark Hoppus and Travis Barker argued with DeLonge regarding the band\'s future and their possible next album, and heated exchanges led to DeLonge\'s exit. In the interim, Hoppus and Barker continued playing together in +44, and DeLonge formed his new outfit Angels &amp; Airwaves. The compilation collects the band\'s most successful singles with one new song and a non-album track. The collection covers tracks from the band\'s debut album Cheshire Cat (1995) to their self-titled album (2003). Greatest Hits features numerous hit singles by the band, including "Dammit", "What\'s My Age Again?", "All the Small Things", "The Rock Show", "First Date", "Feeling This" and "I Miss You". "Not Now", which was recorded during the Blink-182 sessions (and originally released as a bonus track on the UK edition of Blink-182), featured on the compilation and was released as its lead single; a cover of "Another Girl, Another Planet" by the Only Ones was sent to radio as an airplay single. Greatest Hits peaked at number six on the Billboard 200 album chart. Critics were generally very positive regarding Greatest Hits, viewing it a suitable, reflective compilation of the band\'s hits. Andy Greenwald of Blender called it a "flawless compilation," covering the group\'s transition from "nudists to near-geniuses." The compilation was released alongside a DVD of the same name, a collection of the trio\'s music videos to that point in time. Greatest Hits has been certified platinum in Canada and triple platinum in Australia.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Wheatus_(album)', 'album_name': 'Wheatus (album)', 'artist': 'http://dbpedia.org/resource/Wheatus', 'artist_name': 'Wheatus', 'wiki': 'http://en.wikipedia.org/wiki/Wheatus_(album)', 'hometown': 'http://dbpedia.org/resource/Northport,_New_York', 'abstract': 'Wheatus is the self-titled debut studio album by American rock band Wheatus, released by Columbia Records on August 15, 2000. Written mostly by guitarist and vocalist Brendan B. Brown, it was recorded in the basement of Brown\'s mother\'s house, and self-produced by the band with the help of multiple mixing engineers and George Marino as master. In July 2000, "Teenage Dirtbag" was released as the album\'s first single, and peaked at number 7 on the Billboard Alternative Airplay Chart and number 2 on the UK Singles Chart. "A Little Respect", an Erasure cover, was released as the second single in July 2001. "Wannabe Gangstar"/"Leroy", a double A-side single, was released in January 2002 as the final single.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Unbreakable_(Backstreet_Boys_album)', 'album_name': 'Unbreakable (álbum de Backstreet Boys)', 'artist': 'http://dbpedia.org/resource/Backstreet_Boys', 'artist_name': 'Backstreet Boys', 'wiki': 'http://en.wikipedia.org/wiki/Unbreakable_(Backstreet_Boys_album)', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'abstract': "Unbreakable is the Backstreet Boys' sixth studio album (fifth in the United States). It was released on October 24, 2007, in Japan and October 30 in the United States by Jive Records. This was the first of two consecutive Backstreet Boys albums as a quartet without Kevin Richardson (who departed from the group in 2006 to pursue other interests rejoining in 2012 for their 2013 album In a World Like This) and without involvement from longtime producers and friends Max Martin and Kristian Lundin, who have worked on all of the group's previous albums."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/A_Little_Bit_of_Mambo', 'album_name': 'A Little Bit of Mambo', 'artist': 'http://dbpedia.org/resource/Lou_Bega', 'artist_name': 'Lou Bega', 'wiki': 'http://en.wikipedia.org/wiki/A_Little_Bit_of_Mambo', 'abstract': 'A Little Bit of Mambo is the debut album by Lou Bega released in 1999, propelled by the success of the single "Mambo No. 5 (A Little Bit of...)".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Villains_(Queens_of_the_Stone_Age_album)', 'album_name': 'Villains (Queens of the Stone Age)', 'artist': 'http://dbpedia.org/resource/Queens_of_the_Stone_Age', 'artist_name': 'Queens of the Stone Age', 'wiki': 'http://en.wikipedia.org/wiki/Villains_(Queens_of_the_Stone_Age_album)', 'hometown': 'http://dbpedia.org/resource/Palm_Desert,_California', 'abstract': 'Villains is the seventh studio album by American rock band Queens of the Stone Age, released on August 25, 2017 through Matador. The album was announced on June 14, with a teaser trailer taking the form of a comedy skit featuring the band performing a polygraph test with Liam Lynch. The first single, "The Way You Used to Do", was released the following day along with the announcement of a world tour. Villains is the first Queens of the Stone Age album to not feature any special guest musicians, the second to not feature Mark Lanegan, and the first to feature Jon Theodore as full time member of the band. The album received widely positive reviews and performed well commercially, topping Billboard\'s Top Alternative Albums and Top Rock Albums charts. At the 2018 Grammy Awards ceremony, it was nominated for Best Rock Album, losing to The War on Drugs\' A Deeper Understanding.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Future_Nostalgia', 'album_name': 'Future Nostalgia', 'artist': 'http://dbpedia.org/resource/Dua_Lipa', 'artist_name': 'Dua Lipa', 'wiki': 'http://en.wikipedia.org/wiki/Future_Nostalgia', 'abstract': 'Future Nostalgia is the second studio album by English singer Dua Lipa, released on 27 March 2020 by Warner Records. Lipa enlisted writers and producers such as Jeff Bhasker, Ian Kirkpatrick, Stuart Price, the Monsters &amp; Strangerz, and Koz in order to create a "nostalgic" pop and disco record with influences from dance-pop and electronic music, inspired by the music that Lipa enjoyed during her childhood. The album spawned six singles, along with the title track as a promotional single. "Don\'t Start Now" was released on 31 October 2019, as the album\'s lead single, attaining both critical and commercial success. The song peaked at number 2 on the Billboard Hot 100 chart. "Physical" and "Break My Heart" were released as the second and third singles, respectively, both reaching the top 10 on the UK Singles Chart. "Hallucinate" and a remix of "Levitating" featuring DaBaby were released as the fourth and fifth singles on 17 July and 1 October 2020, respectively; the latter earned the album its second top-two single on the Hot 100 and the third top-ten of Lipa\'s career, following "New Rules" (2017), and would go on to become the most played song of 2021 in the United States."Love Again" was released as the sixth single in France on 11 March 2021 and globally on 4 June 2021. The album was originally scheduled to be released on 3 April 2020, but was moved forward after leaking in its entirety two weeks earlier. To promote the album, Lipa is slated to embark on the Future Nostalgia Tour, commencing in February 2022 after being postponed three times due to the COVID-19 pandemic. Upon its release, Future Nostalgia received universal acclaim from music critics, many of whom praised the production and its cohesion. Commercially, the album topped the charts in fifteen countries and reached the top ten in thirty-one countries. In the United Kingdom, it peaked atop the UK Albums Chart for four non-consecutive weeks, becoming her first album to do so as well as garnering her first ever nomination for the Mercury Prize, and earning the Brit Award for British Album of the Year. At the 63rd Annual Grammy Awards, Future Nostalgia was nominated for Album of the Year and won Best Pop Vocal Album, whilst "Don\'t Start Now" was nominated for Record of the Year, Song of the Year and Best Pop Solo Performance. Future Nostalgia was succeeded by its remix album, Club Future Nostalgia, released on 28 August 2020. A French edition of Future Nostalgia was released on 27 November 2020, which yielded the single "Fever". A reissue of the album, subtitled , was released through Warner on 11 February 2021, along with its lead single, "We\'re Good".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Nellyville', 'album_name': 'Nellyville', 'artist': 'http://dbpedia.org/resource/Nelly', 'artist_name': 'Nelly', 'wiki': 'http://en.wikipedia.org/wiki/Nellyville', 'abstract': 'Nellyville is the second studio album by American rapper Nelly. It was released on June 25, 2002, by Universal Records and Fo\' Reel Entertainment. The album\'s production was handled by Waiel Yaghnam, the Neptunes, Jay E, Trackboyz, Ryan Bowser, and Just Blaze. Two singles from Nellyville, "Hot in Herre" and "Dilemma", both topped the US Billboard Hot 100 for seven and ten weeks respectively. The album received generally favorable reviews from music critics, who praised the production. Nellyville debuted at the top of the US Billboard 200, with sales of 715,000 equivalent-units in the opening week of the country. It remained at number one for four non-consecutive weeks and was eventually certified six-times platinum by the Recording Industry Association of America (RIAA) for shipments of over six million equivalent-units in sales, which allowed Nellyville to become Nelly\'s second number-one, multi-platinum, and top-10 album in the United States following his debut album Country Grammar in 2000. As of March 16, 2011, Nellyville sold 6,488,000 copies in the United States, and it became the 14th best-selling rap album of all time. Internationally, it peaked at number two on the album charts in the United Kingdom, Australia, Canada, Germany, and New Zealand.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Mylo_Xyloto', 'album_name': 'Mylo Xyloto', 'artist': 'http://dbpedia.org/resource/Coldplay', 'artist_name': 'Coldplay', 'wiki': 'http://en.wikipedia.org/wiki/Mylo_Xyloto', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': 'Mylo Xyloto (pronounced /ˈmaɪloʊ ˈzaɪlətoʊ/ MY-loh ZY-lə-toh) is the fifth studio album by British rock band Coldplay, released in late October 2011. The band worked closely with producer Brian Eno following their successful collaboration on Viva la Vida, the band\'s previous album. Mylo Xyloto is a concept album and a thematic rock opera. The album tells the story of a war against sound and colour by a supremacist government, set in the world of Silencia, an Orwellian society. Silencia has been overtaken by a government led by Major Minus, who controls the population through media and propaganda. His aim is to take sound and colour off the streets in hope to draw away "feeders", creatures that use such energy to hunt its prey. The album follows Mylo Xyloto, a "silencer", a soldier in an army tasked to hunt and track down "sparkers", people who harness light and energy and use it to create sparks, comparable to graffiti in real life. He encounters Fly, the sparker most wanted by Major Minus. Through Fly, Mylo discovers his sparker abilities and his affiliation with the Car Kids, a major sparker faction founded by Mylo\'s parents, Aiko and Lela. Drummer Will Champion has noted that the album is a story of the characters "falling in love and trying to escape together", with a general theme of "love conquering all".. In interviews the band have said that the album follows a love story between Mylo and Xyloto, with them being separate characters . In the comics based on album however, Mylo Xyloto is the main protagonist and Fly is the sparker girl he encounters. The album received generally positive reviews from critics, who praised its uplifting tone and new electronic sound; however, some found its material overproduced. "Paradise" and "Every Teardrop Is a Waterfall" received a total of three Grammy Award nominations in 2012, while the album and "Charlie Brown" received two further Grammy nominations in 2013. Internationally, Mylo Xyloto charted at number one in 34 countries. In the United Kingdom, Mylo Xyloto became Coldplay\'s fifth album to debut at number one, selling 208,000 units in its first week, and setting a one-week digital sales record with 83,000 copies sold. Mylo Xyloto broke an iTunes record for digital downloads sales by selling over 500,000 digital copies in a week. (Adele\'s 25 album topped this record in 2015.) Mylo Xyloto became Coldplay\'s third album to debut at number one on the US Billboard 200, selling 447,000 units in its first week of sales. It was the UK\'s best-selling rock album of 2011, selling 908,000 copies. As of 2013, it has sold over 8 million copies worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Different_Class', 'album_name': 'Different Class', 'artist': 'http://dbpedia.org/resource/Pulp_(band)', 'artist_name': 'Pulp', 'wiki': 'http://en.wikipedia.org/wiki/Different_Class', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'abstract': 'Different Class (released in Japan as Common People) is the fifth studio album by English rock band Pulp, released on 30 October 1995 by Island Records. The album was a critical and commercial success, entering the UK Albums Chart at number one and winning the 1996 Mercury Music Prize. It has been certified four times platinum, and had sold 1.33 million copies in the United Kingdom as of 2020. In 2013, NME ranked the album at number six in its list of the 500 greatest albums of all time.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Lovehatetragedy', 'album_name': 'Lovehatetragedy', 'artist': 'http://dbpedia.org/resource/Papa_Roach', 'artist_name': 'Papa Roach', 'wiki': 'http://en.wikipedia.org/wiki/Lovehatetragedy', 'hometown': 'http://dbpedia.org/resource/Vacaville,_California', 'abstract': 'Lovehatetragedy is the third and second major label studio album by the American rock band Papa Roach. It was released on June 18, 2002.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Fame', 'album_name': 'The Fame', 'artist': 'http://dbpedia.org/resource/Lady_Gaga', 'artist_name': 'Lady Gaga', 'wiki': 'http://en.wikipedia.org/wiki/The_Fame', 'abstract': 'The Fame is the debut studio album by American singer Lady Gaga. It was released on August 19, 2008, by Interscope Records. After joining Kon Live Distribution and Cherrytree Records in 2008, Gaga began working on the album with different producers, primarily RedOne, Martin Kierszenbaum, and Rob Fusari. Musically, The Fame is an electropop, synth-pop, and dance-pop album that displays influences from 1980s music. Lyrically, it visualizes Gaga\'s love of fame in general, while also dealing with subjects such as love, sex, money, drugs, and sexual identity. The album was primarily promoted through The Fame Ball Tour and multiple television appearances, and was reissued as a deluxe edition with The Fame Monster on November 18, 2009. The album received generally favorable reviews from critics, who commended its lyrical content, Gaga\'s musicianship and vocal ability. It was a commercial success, topping the charts in several countries including the United Kingdom, Canada, Germany, Ireland, Poland, and Switzerland. In the United States, it peaked at number two on the Billboard 200, and also topped the Dance/Electronic Albums chart for 150 non-consecutive weeks, the most time on top in history. The Fame became the fifth best-selling album of 2009, and has sold over 4.9 million copies in the United States as of January 2019. Combined with The Fame Monster, the album had sold over 18 million copies worldwide as of August 2019. Gaga promoted the album with many television performances, award shows and also in her first headlining tour, The Fame Ball Tour in 2009. The first two singles "Just Dance" and "Poker Face" gained international success, topping the charts in several countries worldwide including the United States, the United Kingdom, and Australia. The subsequent singles "LoveGame" and "Paparazzi" were commercial successes as well, charting within the top-ten of over ten countries worldwide. "Eh, Eh (Nothing Else I Can Say)" had a limited single release, while "Beautiful, Dirty, Rich" and "Boys Boys Boys" served as promotional singles. The Fame has won multiple awards since its release. In the United States, the album was nominated for a total of five Grammy Awards at the 52nd Grammy Awards, including the Grammy Award for Album of the Year. It won the Grammy Award for Best Electronic/Dance Album and the Grammy Award for Best Dance Recording for the single "Poker Face", and also won Best International Album at the 2010 Brit Awards. In 2013, Rolling Stone named The Fame as one of the "100 Greatest Debut Albums of All-Time". As of 2018, it is the 12th biggest album of all time on the Billboard 200 in the United States.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Dark_Before_Dawn', 'album_name': 'Dark Before Dawn', 'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/Dark_Before_Dawn', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'abstract': 'Dark Before Dawn is the fifth studio album by American rock band Breaking Benjamin, released on June 23, 2015, by Hollywood Records. It is the group\'s first studio album following the band\'s hiatus lasting from early 2010 to late 2014, and the first album to feature an entirely different lineup alongside founder and frontman Benjamin Burnley. Produced and composed by Burnley, the album took shape towards the end of the hiatus and was mostly written before the new lineup "even played a single note together." The recording process took place afterwards at both a personal studio of Burnley\'s and at the same studio Phobia (2006) was recorded, with all of the band members performing their respective instruments, including background vocals performed by guitarist Keith Wallen and bassist Aaron Bruch, making the record their first to feature vocals other than Burnley\'s. The album was a critical and commercial success. It garnered mostly positive reception, with many critics praising the album for staying true to the group\'s established sound, although others criticized it for sounding derivative and formulaic. Burnley described that he did not want to "reinvent the wheel" with the album. It debuted at number one on the Billboard 200, the group\'s first in their catalog, earning 141,000 album-equivalent units in its first week, making it heretofore the group\'s most successful sales effort. The album was released to much greater international chart success than previous albums; until Dark Before Dawn, the band had never charted outside North America or New Zealand. The album\'s lead single is "Failure", which was announced alongside the album on March 18, 2015.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Dua_Lipa_(album)', 'album_name': 'Dua Lipa', 'artist': 'http://dbpedia.org/resource/Dua_Lipa', 'artist_name': 'Dua Lipa', 'wiki': 'http://en.wikipedia.org/wiki/Dua_Lipa_(album)', 'abstract': 'Dua Lipa is the debut studio album by the English singer Dua Lipa. Originally intended to be released in September 2016, the album was released through Warner Bros. Records on 2 June 2017, following several delays in order to add new songs. Lipa had relocated from Kosovo to London at the age of fifteen to pursue a career in music. She took a gap year after finishing school and used social media as a platform to begin, influenced by the discovery of Justin Bieber. After working as a model and waitress, she was introduced to Ben Mawson of TAP Management, who signed the singer to a management and publishing deal which led her to signing a record deal with Warner Bros. Work on the album began with Lipa partaking in an artist development phase in 2013. Of the 25 songs included on all editions of the album, Lipa co-wrote 21. She worked with a variety of writers and producers, finding a kindred spirit with Stephen "Koz" Kozmeniuk who produced several tracks. Work on the album took place between London, Los Angeles, Toronto and New York, and was finished in 2017. Described by Lipa as dark pop, progressive pop and "dance-crying", Dua Lipa is a dance-pop, electropop and R&amp;B record with elements of disco, hip hop and tropical house. This sound features hip hop-influenced verses with heavy flow and truthful lyrics, alongside a pop chorus. The album is very diverse and balances between stripped-back ballads and upbeat tracks. It features electronic instrumentation and rock vocals. The album\'s lyrics are inspired by sadness and include themes of female empowerment, relationships and heartbreak and has several biblical references. Lipa was inspired by several artists on the album, originally intending to create a sound merging that of J. Cole and Nelly Furtado. The album includes guest appearances from Miguel and Coldplay frontman Chris Martin. Dua Lipa was supported by eight singles, including the UK top 10 singles "Be the One" and "IDGAF" as well as the UK number one single and US top 10 single, "New Rules". Lipa promoted the album with appearances at several award shows, television programs and festivals. Additionally, the singer embarked on 2016 UK Tour, Hotter than Hell tour, US and Europe Tour and the Self-Titled Tour throughout 2016, 2017 and 2018, while also supporting Troye Sivan, Bruno Mars and Coldplay on their respective tours. In October 2018, Lipa reissued the album, subtitled the Complete Edition, adding seven B-sides. Of these included Lipa\'s previously released, UK top 15 collaborations, "One Kiss" with Calvin Harris, "Electricity" with Silk City, "Scared to Be Lonely" with Martin Garrix and "No Lie" by Sean Paul featuring the singer. The former of the four spent eight weeks atop the UK Singles Chart. It also added Blackpink collaboration "Kiss and Make Up" which was released as a promotional single. Dua Lipa was met with generally favourable reviews from music critics. Many praised Lipa\'s vocals and the album\'s high-quality sound. It appeared on numerous year-end lists, including ones published by Billboard and Rolling Stone. The album was nominated for British Album of the Year at the Brit Awards, whilst "New Rules", "IDGAF" and "One Kiss" were all nominated for British Single of the Year, the latter of which won. The album also helped Lipa win the Grammy Award for Best New Artist. "Electricity" won the Grammy Award for Best Dance Recording. Dua Lipa was a commercially successful sleeper hit, reaching peak popularity in 2018. It reached the top 10 of charts in fourteen countries including the UK, where it reached the third position. Additionally, it is certified multi-platinum in six countries, including being awarded a double platinum certification in the UK. As of February 2021, Dua Lipa has sales figures of six million units worldwide. It is the most-streamed album by a female artist on Spotify.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Highway_to_Hell', 'album_name': 'Highway to Hell (album)', 'artist': 'http://dbpedia.org/resource/AC/DC', 'artist_name': 'AC/DC', 'wiki': 'http://en.wikipedia.org/wiki/Highway_to_Hell', 'hometown': 'http://dbpedia.org/resource/New_South_Wales', 'abstract': 'Highway to Hell is the sixth studio album by Australian hard rock band AC/DC, released on 27 July 1979. It was the last album featuring lead singer Bon Scott, who would die early the following year on 19 February 1980.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Konk_(album)', 'album_name': 'Konk (album)', 'artist': 'http://dbpedia.org/resource/The_Kooks', 'artist_name': 'The Kooks', 'wiki': 'http://en.wikipedia.org/wiki/Konk_(album)', 'hometown': 'http://dbpedia.org/resource/Brighton', 'abstract': 'Konk is the second album by British indie rock band The Kooks, released on 14 April 2008 on Virgin Records. Produced by Tony Hoffer, the album is named after the London studio where it was recorded, which is the property of Ray Davies. This was the last album to feature original bassist Max Rafferty.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Come_What(ever)_May', 'album_name': 'Come What(ever) May', 'artist': 'http://dbpedia.org/resource/Stone_Sour', 'artist_name': 'Stone Sour', 'wiki': 'http://en.wikipedia.org/wiki/Come_What(ever)_May', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'abstract': 'Come What(ever) May is the second studio album by American rock band Stone Sour. It was recorded and produced by the band and Nick Raskulinecz at Studio 606 in Los Angeles, California, and was released on August 1, 2006, by Roadrunner Records. Writing for the album began as early as 2003 when vocalist Corey Taylor and guitarist James Root were writing material for their other band, Slipknot. In January 2006, Stone Sour began recording their second album, during which time drummer Joel Ekman left the band because of family constraints. He was eventually replaced by ex-Soulfly drummer Roy Mayorga who played on all but two tracks on the album. Following the release of the album, Stone Sour promoted it for over a year, releasing five singles and touring in the United States, Canada, Japan and several countries in Europe. The album received generally positive reviews. It was praised for showing a progression in the band\'s song writing ability and musical style. It was also certified Platinum in the United States and the single "30/30-150" was nominated for Best Metal Performance at the 49th Grammy Awards. On June 26, 2007, Stone Sour released a special edition version of the album; it included six previously unreleased tracks and a bonus DVD with three music videos and a complete live performance by the band in Moscow. It remains their best-selling album to date, mostly due to the success of the single "Through Glass". As proof of this, the album became their first to be certified Platinum by the RIAA which occurred on July 21, 2017.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Hot_Mess', 'album_name': 'Hot Mess', 'artist': 'http://dbpedia.org/resource/Cobra_Starship', 'artist_name': 'Cobra Starship', 'wiki': 'http://en.wikipedia.org/wiki/Hot_Mess', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'abstract': 'Hot Mess is the third studio album by the American musical ensemble Cobra Starship, released through Fueled by Ramen and Decaydance Records on August 11, 2009. The album is the follow-up to 2007\'s ¡Viva la Cobra!. It debuted at #4 on the Billboard 200 albums chart on sales of more than 42,000, by far their best chart performance ever. The first single from the album, "Good Girls Go Bad", features actress Leighton Meester and was released on May 11, 2009. The song peaked in the top ten of the Billboard Hot 100 and at number two on the New Zealand Singles Chart.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Heathen_Chemistry', 'album_name': 'Heathen Chemistry', 'artist': 'http://dbpedia.org/resource/Oasis_(band)', 'artist_name': 'Oasis', 'wiki': 'http://en.wikipedia.org/wiki/Heathen_Chemistry', 'hometown': 'http://dbpedia.org/resource/Manchester', 'abstract': "Heathen Chemistry is the fifth studio album by English rock band Oasis. It was released on 1 July 2002 by Big Brother Recordings. It is the first Oasis album recorded with guitarist Gem Archer and bassist Andy Bell, who both joined the band after work on previous album Standing on the Shoulder of Giants had been completed. It would also prove to be last album to feature the band's longtime drummer, Alan White, who left in early 2004, with Noel Gallagher claiming White's commitment to the band was not adequate."}</t>
   </si>
   <si>
     <t>{'album': 'http://dbpedia.org/resource/The_Cloud_Room_(album)', 'album_name': 'The Cloud Room (album)', 'artist': 'http://dbpedia.org/resource/The_Cloud_Room', 'artist_name': 'The Cloud Room', 'wiki': 'http://en.wikipedia.org/wiki/The_Cloud_Room_(album)', 'hometown': 'http://dbpedia.org/resource/Brooklyn', 'abstract': 'The Cloud Room is the first album by The Cloud Room, released in 2005. The album track, "Hey Now Now", was used in advertising for the carbonated drink Pepsi, which helped the band win a large group of fans.'}</t>
   </si>
   <si>
-    <t>{'album': 'http://dbpedia.org/resource/Infest_(album)', 'album_name': 'Infest (album)', 'artist': 'http://dbpedia.org/resource/Papa_Roach', 'artist_name': 'Papa Roach', 'wiki': 'http://en.wikipedia.org/wiki/Infest_(album)', 'hometown': 'http://dbpedia.org/resource/Vacaville,_California', 'abstract': 'Infest is the second studio album and major-label debut by the American rock band Papa Roach. It was released on April 25, 2000, through DreamWorks Records, and became the 20th highest-selling album of 2000 in the United States. The sound of the album is nu metal and rap metal. Many of the album songs contains rapping and hip hop influences. It was certified 3× Platinum in the U.S. on July 18, 2001, and peaked at No. 5 on the Billboard 200 chart. This album earned the band a Grammy nomination for Best New Artist. It is their best-selling album to date. Papa Roach got together and performed the album live in studio to stream worldwide on June 20, 2020. The whole performance was released on YouTube on September 15, 2020.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Decemberunderground', 'album_name': 'Decemberunderground', 'artist': 'http://dbpedia.org/resource/AFI_(band)', 'artist_name': 'AFI', 'wiki': 'http://en.wikipedia.org/wiki/Decemberunderground', 'hometown': 'http://dbpedia.org/resource/Ukiah,_California', 'abstract': 'Decemberunderground (stylized in all caps; read as December Underground) is the seventh studio album by American rock band AFI. The album was released on June 6, 2006, through Interscope Records. The album was supported by three singles, "Miss Murder", "Love Like Winter" and "The Missing Frame".'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Favourite_Worst_Nightmare', 'album_name': 'Favourite Worst Nightmare', 'artist': 'http://dbpedia.org/resource/Arctic_Monkeys', 'artist_name': 'Arctic Monkeys', 'wiki': 'http://en.wikipedia.org/wiki/Favourite_Worst_Nightmare', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'abstract': 'Favourite Worst Nightmare is the second studio album by English rock band Arctic Monkeys, released on 18 April 2007 by Domino Recording Company. Recorded in east London\'s Miloco Studios with producers James Ford and Mike Crossey, the album was preceded by the release of "Brianstorm" on 16 April 2007. This is the band\'s first album with bassist Nick O\'Malley, replacing their previous bassist Andy Nicholson, who left the band before the North America tour of the band\'s debut studio album. In comparison to the band\'s debut album Whatever People Say I Am, That\'s What I\'m Not, the album is considered more ambitious, with ambient sounds and expanded drum rhythms being introduced. Like Arctic Monkey\'s debut, Favourite Worst Nightmare was a widespread critical success, with critics highlighting the band\'s new emotional depth and Turner\'s matured songwriting. NME and Uncut ranked it the second-best album of 2007, while Dutch publication OOR named it the best of 2007. In retrospect, the album is considered the start of the band\'s change of sound with each of their albums after their debut. In its first week of release, the album sold over 227,000 copies, going straight to number one in the UK Albums Chart. "Brianstorm" and "Fluorescent Adolescent" were also both hits on the UK Singles Chart, with the former reaching number two on the chart. In the United States, the album debuted at number seven on the Billboard 200, selling around 44,000 copies in its first week. The album has since gone 3× platinum in the UK. It was nominated for the 2007 Mercury Prize and won Best British Album at the 2008 BRIT Awards.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Angles_(The_Strokes_album)', 'album_name': 'Angles (album)', 'artist': 'http://dbpedia.org/resource/The_Strokes', 'artist_name': 'The Strokes', 'wiki': 'http://en.wikipedia.org/wiki/Angles_(The_Strokes_album)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'abstract': "Angles is the fourth studio album by American rock band The Strokes. It was released on March 18, 2011, through RCA Records. It was the group's first album in over five years, following First Impressions of Earth (2005)."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Throwing_Copper', 'album_name': 'Throwing Copper', 'artist': 'http://dbpedia.org/resource/Live_(band)', 'artist_name': 'Live', 'wiki': 'http://en.wikipedia.org/wiki/Throwing_Copper', 'hometown': 'http://dbpedia.org/resource/York,_Pennsylvania', 'abstract': "Throwing Copper is the third studio album by American alternative rock band Live, released on April 26, 1994, on former MCA Records subsidiary Radioactive Records. It was produced by Jerry Harrison of Talking Heads and was recorded at Pachyderm Recording Studio. Throwing Copper has generally been regarded as Live's best album, having sold over 8 million copies and certified 8× platinum by the Recording Industry Association of America."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Best_of_The_Rasmus_2001–2009', 'album_name': 'Best of 2001-2009', 'artist': 'http://dbpedia.org/resource/The_Rasmus', 'artist_name': 'The Rasmus', 'wiki': 'http://en.wikipedia.org/wiki/Best_of_The_Rasmus_2001–2009', 'hometown': 'http://dbpedia.org/resource/Finland', 'abstract': 'Best of The Rasmus 2001–2009, also referred to as Best of.. 2001-2009 is a compilation album by the Finnish alternative rock band The Rasmus, it was released on November 2, 2009.The album contains the best songs between 2001 and 2009. While most of the songs were already released, it features a new unreleased song called "October &amp; April" which features vocals by Anette Olzon from Nightwish. This song was recorded during the same time as the other songs from the band\'s latest studio album Black Roses, but wasn\'t included as it didn\'t follow the album concept. "Open My Eyes", appearing in acoustic live version on this album, is a b-side of the single Shot and originally taken from the UK edition of the album Hide from the Sun (2005).'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/So_Much_for_the_Afterglow', 'album_name': 'So Much for the Afterglow', 'artist': 'http://dbpedia.org/resource/Everclear_(band)', 'artist_name': 'Everclear', 'wiki': 'http://en.wikipedia.org/wiki/So_Much_for_the_Afterglow', 'hometown': 'http://dbpedia.org/resource/Portland,_Oregon', 'abstract': 'So Much for the Afterglow is the third studio album by American alternative rock band Everclear, released on October 7, 1997. It contained the singles "Everything to Everyone", "I Will Buy You a New Life", "Father of Mine", "So Much for the Afterglow", and "One Hit Wonder". "Everything to Everyone", "I Will Buy You A New Life" and "Father of Mine," received heavy rotation on MTV\'s Total Request Live and launched Everclear into mainstream popularity in the late-90s. So Much for the Afterglow provided Everclear with their only Grammy nomination to date, a Best Rock Instrumental nod in 1998 for "El Distorto de Melodica." So Much for the Afterglow remains Everclear\'s best selling album with a 2x Platinum certification by the RIAA in 1998. In January 2016, independent record label Intervention Records released a vinyl reissue of So Much for the Afterglow. The reissue was the first time that the album was mastered using high-resolution archives and was pressed on 180-gram vinyl at record pressing plant RTI then packaged in a gate-fold jacket that was printed at Stoughton Printing Company.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Animalize', 'album_name': 'Animalize', 'artist': 'http://dbpedia.org/resource/Kiss_(band)', 'artist_name': 'Kiss', 'wiki': 'http://en.wikipedia.org/wiki/Animalize', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'abstract': 'Animalize is the twelfth studio album by American rock band Kiss. It was released on September 13, 1984, by Mercury Records. The album marked the only appearance by lead guitarist Mark St. John, who replaced Vinnie Vincent in April 1984.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Splinter_(Offspring_album)', 'album_name': 'Splinter', 'artist': 'http://dbpedia.org/resource/The_Offspring', 'artist_name': 'The Offspring', 'wiki': 'http://en.wikipedia.org/wiki/Splinter_(Offspring_album)', 'hometown': 'http://dbpedia.org/resource/Garden_Grove,_California', 'abstract': 'Splinter is the seventh studio album by American punk rock band the Offspring, released on December 9, 2003, by Columbia Records. It was the first album the band released without drummer Ron Welty. Although not as successful as the Offspring\'s previous albums, Splinter received gold certification two months after its release. The album received average reviews, but still sold reasonably well, debuting at number 30 on the US Billboard 200 with around 87,000 copies sold in its first week. "Hit That" and "(Can\'t Get My) Head Around You" were the only two singles to accompany the album; "Spare Me the Details" was also released as a single, but charted only in New Zealand.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/FanMail', 'album_name': 'FanMail', 'artist': 'http://dbpedia.org/resource/TLC_(group)', 'artist_name': 'TLC', 'wiki': 'http://en.wikipedia.org/wiki/FanMail', 'hometown': 'http://dbpedia.org/resource/Atlanta', 'abstract': 'FanMail is the third studio album by American girl group TLC. It was released on February 23, 1999, by LaFace and Arista Records. The album title is a tribute to TLC\'s fans who sent them fan mail during their hiatus. FanMail debuted at number one on the US Billboard 200, selling 318,000 copies in its first week of release, and spent five weeks at number one. The album received eight nominations at the 42nd Annual Grammy Awards, including one for Album of the Year, winning three. It has been certified six-times platinum by the Recording Industry Association of America (RIAA), and has sold 10 million copies worldwide. FanMail is TLC\'s second best-selling album after their 1994 studio album CrazySexyCool. To promote the album, TLC embarked on their first concert tour titled the FanMail Tour. It was the group\'s final album released in Lisa "Left Eye" Lopes\' lifetime before she died on April 25, 2002, as she was killed in a car crash prior to the release of their fourth studio album 3D (2002).'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Shock_Value_II', 'album_name': 'Shock Value II', 'artist': 'http://dbpedia.org/resource/Timbaland', 'artist_name': 'Timbaland', 'wiki': 'http://en.wikipedia.org/wiki/Shock_Value_II', 'abstract': 'Shock Value II is the third studio album by American record producer and rapper Timbaland. It serves as the sequel of the platinum-selling album Shock Value (2007) which topped charts worldwide and received 16 platinum certifications. Initially slated for a 2008 release, the project was pushed into 2009 and tentatively confirmed for November 23, 2009 through Blackground Records, however, it was pushed back once more and finally released on December 7, 2009 in the UK and December 8 in the US.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Viva_Hate', 'album_name': 'Viva Hate', 'artist': 'http://dbpedia.org/resource/Morrissey', 'artist_name': 'Morrissey', 'wiki': 'http://en.wikipedia.org/wiki/Viva_Hate', 'abstract': 'Viva Hate is the debut solo studio album by English singer Morrissey. It was released on 14 March 1988 by HMV, six months after the final album by the Smiths, Strangeways, Here We Come.'}</t>
-  </si>
-  <si>
-    <t>{'album': "http://dbpedia.org/resource/Backstreet's_Back", 'album_name': "Backstreet's Back", 'artist': 'http://dbpedia.org/resource/Backstreet_Boys', 'artist_name': 'Backstreet Boys', 'wiki': "http://en.wikipedia.org/wiki/Backstreet's_Back", 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'abstract': 'Backstreet\'s Back is the second studio album by the Backstreet Boys, released internationally August 11, 1997 by Jive Records and Trans Continental Records, with the exception of United States. It was a follow-up to their successful debut album Backstreet Boys (1996). Some songs from this album and the debut album were compiled into a second self-titled album, Backstreet Boys (1997), which was released only in the US. There were a few differences between the versions of songs released on this album and the American album. The album also contained the same enhanced section as the American release. The first track recorded for the album was a cover of "Set Adrift on Memory Bliss", which was recorded alongside a new song, "If You Stay", which did not make the final track listing of the album. "Who Do You Love" was performed live but never released as a studio track. The three singles released from this album became three of their most successful and remembered singles.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Slowhand', 'album_name': 'Slowhand', 'artist': 'http://dbpedia.org/resource/Eric_Clapton', 'artist_name': 'Eric Clapton', 'wiki': 'http://en.wikipedia.org/wiki/Slowhand', 'abstract': 'Slowhand is the fifth full-length studio album by Eric Clapton. Released on 25 November 1977 by RSO Records, and titled after Clapton\'s nickname, it is one of his most commercially and critically successful studio albums. Slowhand produced the two hit singles "Lay Down Sally" and "Wonderful Tonight", reached various international music charts and was honoured with numerous awards and recording certifications. In 2012, a deluxe edition was released to celebrate the album\'s 35th anniversary.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Untouchables_(album)', 'album_name': 'Untouchables', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Untouchables_(album)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': 'Untouchables is the fifth studio album by American nu metal band Korn. The album was officially released on June 11, 2002 and featured the Grammy-winning single "Here to Stay". Untouchables debuted at number two on the Billboard 200 with 434,000 copies sold during its first week, second only to Eminem\'s The Eminem Show. The album received positive reviews from music critics. It was certified platinum on July 11, 2002, and has sold at least 1.4 million copies in the United States.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Dua_Lipa_(album)', 'album_name': 'Dua Lipa', 'artist': 'http://dbpedia.org/resource/Dua_Lipa', 'artist_name': 'Dua Lipa', 'wiki': 'http://en.wikipedia.org/wiki/Dua_Lipa_(album)', 'abstract': 'Dua Lipa is the debut studio album by the English singer Dua Lipa. Originally intended to be released in September 2016, the album was released through Warner Bros. Records on 2 June 2017, following several delays in order to add new songs. Lipa had relocated from Kosovo to London at the age of fifteen to pursue a career in music. She took a gap year after finishing school and used social media as a platform to begin, influenced by the discovery of Justin Bieber. After working as a model and waitress, she was introduced to Ben Mawson of TAP Management, who signed the singer to a management and publishing deal which led her to signing a record deal with Warner Bros. Work on the album began with Lipa partaking in an artist development phase in 2013. Of the 25 songs included on all editions of the album, Lipa co-wrote 21. She worked with a variety of writers and producers, finding a kindred spirit with Stephen "Koz" Kozmeniuk who produced several tracks. Work on the album took place between London, Los Angeles, Toronto and New York, and was finished in 2017. Described by Lipa as dark pop, progressive pop and "dance-crying", Dua Lipa is a dance-pop, electropop and R&amp;B record with elements of disco, hip hop and tropical house. This sound features hip hop-influenced verses with heavy flow and truthful lyrics, alongside a pop chorus. The album is very diverse and balances between stripped-back ballads and upbeat tracks. It features electronic instrumentation and rock vocals. The album\'s lyrics are inspired by sadness and include themes of female empowerment, relationships and heartbreak and has several biblical references. Lipa was inspired by several artists on the album, originally intending to create a sound merging that of J. Cole and Nelly Furtado. The album includes guest appearances from Miguel and Coldplay frontman Chris Martin. Dua Lipa was supported by eight singles, including the UK top 10 singles "Be the One" and "IDGAF" as well as the UK number one single and US top 10 single, "New Rules". Lipa promoted the album with appearances at several award shows, television programs and festivals. Additionally, the singer embarked on 2016 UK Tour, Hotter than Hell tour, US and Europe Tour and the Self-Titled Tour throughout 2016, 2017 and 2018, while also supporting Troye Sivan, Bruno Mars and Coldplay on their respective tours. In October 2018, Lipa reissued the album, subtitled the Complete Edition, adding seven B-sides. Of these included Lipa\'s previously released, UK top 15 collaborations, "One Kiss" with Calvin Harris, "Electricity" with Silk City, "Scared to Be Lonely" with Martin Garrix and "No Lie" by Sean Paul featuring the singer. The former of the four spent eight weeks atop the UK Singles Chart. It also added Blackpink collaboration "Kiss and Make Up" which was released as a promotional single. Dua Lipa was met with generally favourable reviews from music critics. Many praised Lipa\'s vocals and the album\'s high-quality sound. It appeared on numerous year-end lists, including ones published by Billboard and Rolling Stone. The album was nominated for British Album of the Year at the Brit Awards, whilst "New Rules", "IDGAF" and "One Kiss" were all nominated for British Single of the Year, the latter of which won. The album also helped Lipa win the Grammy Award for Best New Artist. "Electricity" won the Grammy Award for Best Dance Recording. Dua Lipa was a commercially successful sleeper hit, reaching peak popularity in 2018. It reached the top 10 of charts in fourteen countries including the UK, where it reached the third position. Additionally, it is certified multi-platinum in six countries, including being awarded a double platinum certification in the UK. As of February 2021, Dua Lipa has sales figures of six million units worldwide. It is the most-streamed album by a female artist on Spotify.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Millennium_(Backstreet_Boys_album)', 'album_name': 'Millennium (álbum de Backstreet Boys)', 'artist': 'http://dbpedia.org/resource/Backstreet_Boys', 'artist_name': 'Backstreet Boys', 'wiki': 'http://en.wikipedia.org/wiki/Millennium_(Backstreet_Boys_album)', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'abstract': 'Millennium is the third studio album (second in the United States) by American boy band Backstreet Boys, released by Jive Records on May 18, 1999. It was a highly anticipated follow-up to both their US debut album, and their second internationally released album. It was their first album to be released in both the US and internationally in the same form, at the same time. Millennium held the record for most shipments in one year, with 11 million shipments sold in the United States in 1999. It was nominated for five Grammy Awards and became one of the best-selling albums of all time, selling 24 million copies worldwide. The Backstreet Boys promoted Millennium through the Into the Millennium Tour, which became one of the fastest-grossing tours of all time.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/In_Silico_(Pendulum_album)', 'album_name': 'In Silico (album)', 'artist': 'http://dbpedia.org/resource/Pendulum_(Australian_band)', 'artist_name': 'Pendulum', 'wiki': 'http://en.wikipedia.org/wiki/In_Silico_(Pendulum_album)', 'hometown': 'http://dbpedia.org/resource/Perth', 'abstract': 'In Silico is the second studio album by Australian drum and bass band Pendulum, released in Australia and Europe on 12 May 2008 by Warner Bros. Records and in the United States a day later by Atlantic Records. The album represents a change in sound for the band from their debut album Hold Your Colour away from drum and bass, incorporating more rock and electronic influences. The album peaked at number 2 on the UK Albums Chart on 18 May 2008. Singles from the album include "Granite", "Propane Nightmares", "The Other Side" and "Showdown". Mini discs of the song "The Tempest" were thrown out to the audience of the "Project Rev" live show. The expression "in silico", from which the album\'s title is derived, means performed on computer or via computer simulation. However group member Gareth McGrillen also commented on the way it plays upon Nirvana\'s well-known album title In Utero (which means born naturally or of the uterus) and thus carries extra shades of meaning related to being "born synthetically", thus explaining the album\'s cover design of a baby or fetus displayed inside a circular design representing a synthetic ovum.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Norman_Fucking_Rockwell!', 'album_name': 'Norman Fucking Rockwell!', 'artist': 'http://dbpedia.org/resource/Lana_Del_Rey', 'artist_name': 'Lana Del Rey', 'wiki': 'http://en.wikipedia.org/wiki/Norman_Fucking_Rockwell!', 'abstract': 'Norman Fucking Rockwell! is the sixth studio album by American singer-songwriter Lana Del Rey. It was released on August 30, 2019, by Polydor and Interscope Records. The album was primarily produced by Del Rey and Jack Antonoff, with additional contributions from Zach Dawes, Andrew Watt and longtime Del Rey collaborator Rick Nowels. Musically, Norman Fucking Rockwell! features a soft rock sound consisting of psych-rock jams and piano ballads, and features references to various classic rock artists. The name of the album is a reference to the painter and illustrator Norman Rockwell. The first singles from the album, "Mariners Apartment Complex" and "Venice Bitch", were released in September 2018, followed by "Hope Is a Dangerous Thing for a Woman like Me to Have – but I Have It", "Doin\' Time", "The Greatest", and "Norman Fucking Rockwell" in 2019. Norman Fucking Rockwell! received widespread critical acclaim, and was nominated for Album of the Year at the 62nd Annual Grammy Awards, while the title track was nominated for Song of the Year. It was listed by several publications as one of the best albums of the decade, and in the years following its release, of all time. To promote the album, Del Rey embarked on a concert tour, titled The Norman Fucking Rockwell! Tour.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/The_Eminem_Show', 'album_name': 'The Eminem Show', 'artist': 'http://dbpedia.org/resource/Eminem', 'artist_name': 'Eminem', 'wiki': 'http://en.wikipedia.org/wiki/The_Eminem_Show', 'abstract': 'The Eminem Show is the fourth studio album by American rapper Eminem. After it had originally scheduled for release on June 4, 2002, the album was released on May 26, 2002, by Aftermath Entertainment, Shady Records, and Interscope Records due to pirating and bootlegging of it. The album saw Eminem take a substantially more predominant production role; most of it was self-produced, with his longtime collaborator Jeff Bass, and Dr. Dre being the album\'s executive producer. It features guest appearances from Obie Trice, D12, Dr. Dre, Nate Dogg, Dina Rae and Eminem\'s daughter Hailie Jade Scott-Mathers. The album incorporates a heavier use of rap rock than Eminem\'s previous albums, and its themes are predominantly based on Eminem\'s prominence in hip hop culture, as well as his ambivalent thoughts of fame. The album also features political commentary on the United States, including references to 9/11, Osama bin Laden, the War on terror, President George W. Bush, Lynne Cheney and Tipper Gore. Due to its less satirical and shock factor lyrical approach, The Eminem Show was regarded as Eminem\'s most personal album at the time and a step back from the Slim Shady alter ego. Widely considered the most anticipated album of 2002, The Eminem Show debuted at number one on the Billboard 200 and stood there for six non-consecutive weeks. It sold over 1.3 million copies in its second week in the US, where it registered a full week of sales. It also topped the UK Albums Chart for five consecutive weeks. It produced four commercially successful singles, "Without Me", "Cleanin\' Out My Closet", "Superman", and "Sing for the Moment". The album was met with positive critical reviews, with praise directed at Eminem\'s mature, introspective lyricism and the album\'s experimental production. The Eminem Show was both the best-selling album of 2002 in the United States and the best-selling album worldwide of 2002. It was certified Diamond by the Recording Industry Association of America (RIAA), and its worldwide sales of 27 million copies make it one of the best-selling albums of all time and the second best-selling album of the 21st century. At the 2003 Grammy Awards, it was nominated for Album of the Year and won Best Rap Album, while "Without Me" won Best Music Video. Blender, Muzik and LAUNCH named it the best album of 2002, and several publications named it among the best albums of the 2000s decade.'}</t>
-  </si>
-  <si>
-    <t>{'album': "http://dbpedia.org/resource/Don't_Worry_About_Me", 'album_name': "Don't Worry About Me", 'artist': 'http://dbpedia.org/resource/Joey_Ramone', 'artist_name': 'Joey Ramone', 'wiki': "http://en.wikipedia.org/wiki/Don't_Worry_About_Me", 'abstract': 'Don\'t Worry About Me is the debut album released by Joey Ramone as a solo artist. It was released posthumously in 2002, less than a year after his death. The album was produced by Daniel Rey, who also did most of the guitar work. Rey had previously produced three of the Ramones\' albums, between 1987 and 1995. The album includes two covers: "What a Wonderful World," originally performed by Louis Armstrong, and "1969," originally performed by the Stooges. "What a Wonderful World" was used for the ending credits of Michael Moore\'s film Bowling for Columbine. A DualDisc version of the album was released on November 19, 2002. It included the album in the DVD-Audio format, which is in 5.1 surround sound, as well as the music video for "What a Wonderful World" (directed by Debbie Harry) and other material. Don\'t Worry About Me peaked at #21 on the Billboard 200.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Night_Visions', 'album_name': 'Night Visions', 'artist': 'http://dbpedia.org/resource/Imagine_Dragons', 'artist_name': 'Imagine Dragons', 'wiki': 'http://en.wikipedia.org/wiki/Night_Visions', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': "Night Visions is the debut studio album by American pop rock band Imagine Dragons. It was released on September 4, 2012, through KIDinaKORNER and Interscope Records. The extended version was released on February 12, 2013, adding three more songs and the UK release of the album was on March 26, 2013. Recorded between 2010 and 2012, the album was primarily produced by the band themselves, as well as English hip-hop producer Alex da Kid and Brandon Darner from the American indie rock group The Envy Corps. It was mastered by Joe LaPorta. According to frontman Dan Reynolds, the album took three years to finish, with six of the album's tracks being previously released on multiple EPs. Musically, Night Visions exhibits influences of folk, hip hop and pop. The album received generally mixed reviews from music critics upon release. However, it debuted at number two on the Billboard 200 in the United States, selling more than 83,000 copies within its first week where it has since been certified double Platinum. It also peaked at the summit of the Billboard Alternative Albums and Rock Albums charts, as well as in the top ten albums in Australia, Austria, Canada, Germany, Ireland, Mexico, Netherlands, New Zealand, Norway, Portugal, Sweden, Switzerland, and United Kingdom. Night Visions appeared in the Billboard 200 top 10 in 2012, 2013, and 2014. The album became the fourth best-selling album of 2013 in the US. It was nominated for the Juno Award for International Album of the Year (2014) and won the Billboard Music Award for Top Rock Album (2014)."}</t>
-  </si>
-  <si>
     <t>{'album': 'http://dbpedia.org/resource/The_Seeds_of_Love', 'album_name': 'The Seeds of Love', 'artist': 'http://dbpedia.org/resource/Tears_for_Fears', 'artist_name': 'Tears for Fears', 'wiki': 'http://en.wikipedia.org/wiki/The_Seeds_of_Love', 'hometown': 'http://dbpedia.org/resource/England', 'abstract': 'The Seeds of Love is the third studio album by the British rock/pop band Tears for Fears, released on 25 September 1989. The album, which reportedly cost over £1 million (GBP) to produce (equivalent to £2.5 million in 2020), retained the band\'s epic sound while incorporating influences ranging from jazz and soul to Beatlesque pop, of which the latter is most evident on the hit single "Sowing the Seeds of Love". Further singles from the album include "Woman in Chains", a duet with Oleta Adams; and "Advice for the Young at Heart", both of which reached the top 40 in several countries. The Seeds of Love was an international success, entering the UK Albums Chart at number one and reaching the top ten in numerous other countries including the US. It has been certified Gold or Platinum in several territories including the United Kingdom, the United States, France, Germany, Canada, and the Netherlands. Despite its success, personal tensions during recording led to band members Curt Smith and Roland Orzabal splitting up at the conclusion of their 1990 world tour, with Orzabal remaining as the band\'s sole official member until the two reunited in the early 2000s.'}</t>
   </si>
   <si>
-    <t>{'album': 'http://dbpedia.org/resource/The_Invisible_Band', 'album_name': 'The Invisible Band', 'artist': 'http://dbpedia.org/resource/Travis_(band)', 'artist_name': 'Travis', 'wiki': 'http://en.wikipedia.org/wiki/The_Invisible_Band', 'hometown': 'http://dbpedia.org/resource/Glasgow', 'abstract': "The Invisible Band is the third studio album by Scottish rock band Travis. It was first released on 11 June 2001 in the United Kingdom by Independiente and a day later in the United States by Epic Records. The title of the album makes reference to the band's feelings regarding music being more important than the band making it. Band frontman Fran Healy stated in an interview that the album's title referred to the band's status of having famous songs, but not being famous themselves. The album spent four weeks at the top of the UK Albums Chart, selling more copies in that time than their previous album, The Man Who, managed in half a year. The Invisible Band was another strong seller from the band following their previous album, The Man Who, eventually becoming with 97th best-selling album of the 2000s decade in the United Kingdom."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Viva_la_Vida_or_Death_and_All_His_Friends', 'album_name': 'Viva la Vida or Death and All His Friends', 'artist': 'http://dbpedia.org/resource/Coldplay', 'artist_name': 'Coldplay', 'wiki': 'http://en.wikipedia.org/wiki/Viva_la_Vida_or_Death_and_All_His_Friends', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': 'Viva la Vida or Death and All His Friends, often referred to as simply Viva la Vida, is the fourth studio album by British rock band Coldplay, released on 12 June 2008 on the Parlophone label. The album was named after a Spanish phrase that best translates into English as "Long live life". Lyrically, the album contains references to love, life, death and war. Recording sessions for the album took place during June 2007 to April 2008 and featured production by Jon Hopkins, Rik Simpson, Markus Dravs, and Brian Eno. The album was Coldplay\'s first to be produced by Eno, and also their first album to not be produced by long-time Coldplay producer, Ken Nelson. The band forced themselves to explore new styles, as Eno required every song on the album to sound different. Development of the album delayed the release date several times. The album cover of Viva la Vida is the 1830 painting Liberty Leading the People by Eugène Delacroix. Viva la Vida was both a critical and commercial success. Five songs were released in promotion of the album; "Violet Hill" and "Viva la Vida" in May 2008, "Lovers in Japan" and "Lost!" in November 2008, and "Strawberry Swing" in September 2009. "Viva la Vida" became the band\'s first song to reach number one in both the United States and the United Kingdom. It won Best Rock Album at the 2009 Grammy Awards and was also nominated for Album of the Year. It was the best selling album of 2008. By 2011, the album had sold more than 10 million copies worldwide.Viva la Vida was re-released on 25 November 2008 in a deluxe edition containing the original album and the Prospekt\'s March EP, which contained another hit, "Life in Technicolor II".'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Best_Of_(Tokio_Hotel_album)', 'album_name': 'Best Of (Tokio Hotel)', 'artist': 'http://dbpedia.org/resource/Tokio_Hotel', 'artist_name': 'Tokio Hotel', 'wiki': 'http://en.wikipedia.org/wiki/Best_Of_(Tokio_Hotel_album)', 'hometown': 'http://dbpedia.org/resource/Magdeburg', 'abstract': 'Best Of TH is the first compilation album by German rock band Tokio Hotel, it was released December 14, 2010 internationally, and in Germany on December 13, 2010. The album is composed of songs from their studio albums Schrei (2005), Zimmer 483 (2007), Scream (2007) and Humanoid (2009), plus two previously unreleased songs; the first, "Mädchen aus dem All", was originally recorded to be released on Schrei while the second song, "Hurricanes And Suns", was recorded in 2009. It was released in three major formats: standard edition, German and English; and a limited deluxe edition, including both German and English editions and a bonus DVD comprising the majority of Tokio Hotel\'s music videos and the "Making Of" videos for selected music videos.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/High_Voltage_(1976_album)', 'album_name': 'High Voltage', 'artist': 'http://dbpedia.org/resource/AC/DC', 'artist_name': 'AC/DC', 'wiki': 'http://en.wikipedia.org/wiki/High_Voltage_(1976_album)', 'hometown': 'http://dbpedia.org/resource/New_South_Wales', 'abstract': 'High Voltage is the first internationally released studio album by Australian hard rock band AC/DC. It contains tracks from their first two previous Australia-only issued albums: High Voltage and T.N.T. (both from 1975). Originally released internationally on 30 April 1976 on Atlantic Records and in the US on 14 May 1976 on ATCO Records, this edition of High Voltage has proven popular, selling three million units in the US alone. However, initially the album was panned by some critics upon its release, including a review by Rolling Stone magazine\'s Billy Altman that called it an "all-time low" for the hard rock genre. It was re-released in 2003 as part of the AC/DC Remasters series.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/West_Ryder_Pauper_Lunatic_Asylum', 'album_name': 'West Ryder Pauper Lunatic Asylum', 'artist': 'http://dbpedia.org/resource/Kasabian', 'artist_name': 'Kasabian', 'wiki': 'http://en.wikipedia.org/wiki/West_Ryder_Pauper_Lunatic_Asylum', 'hometown': 'http://dbpedia.org/resource/Leicester', 'abstract': 'West Ryder Pauper Lunatic Asylum is the third studio album by British indie rock band Kasabian, which was released on 5 June 2009. It was the band\'s first album not to feature Christopher Karloff, the band\'s lead guitarist and songwriter who departed during the writing stages of Empire (2006). Rhythm guitarist Sergio Pizzorno became lead songwriter and co-producer for the band. It is also their first album to feature guitar contributions from Tim Carter, who would become the band\'s touring guitarist in 2013 and a full-fledged member of the band in 2021. West Ryder Pauper Lunatic Asylum debuted at number one in the United Kingdom, giving Kasabian their second number-one album in that country, and spawned four singles: "Fire", "Where Did All the Love Go?", "Underdog" and "Vlad the Impaler". It also charted within the top 40 in countries like Australia, France, Ireland and New Zealand. The album was nominated for the 2009 Mercury Prize. In October 2009, it was voted the best album of the year by Q Magazine.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Rock_n_Roll_Jesus', 'album_name': 'Rock N Roll Jesus', 'artist': 'http://dbpedia.org/resource/Kid_Rock', 'artist_name': 'Kid Rock', 'wiki': 'http://en.wikipedia.org/wiki/Rock_n_Roll_Jesus', 'abstract': 'Rock n Roll Jesus is the seventh studio album by Kid Rock, released on October 9, 2007. Rob Cavallo co-produced the album with Rock. Mike E. Clark produced the track "All Summer Long". The album was not available at the iTunes Store in an act of protest by Kid Rock regarding a royalties dispute. It was nominated for two Grammy Awards for Best Rock Album and Best Male Vocal Performance for "All Summer Long" at the 2009 Grammy Awards. "All Summer Long" from the album was named the official theme song for WWE Backlash 2008 as well as "So Hott" for WrestleMania XXV and "New Orleans" for WrestleMania 34.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/21_(Adele_album)', 'album_name': '21 (아델의 음반)', 'artist': 'http://dbpedia.org/resource/Adele', 'artist_name': 'Adele', 'wiki': 'http://en.wikipedia.org/wiki/21_(Adele_album)', 'abstract': '21 is the second studio album by English singer-songwriter Adele. It was released on 24 January 2011 in Europe by XL Recordings and on 22 February 2011 in North America by Columbia Records. The album was named after the age of the singer during its production. 21 shares the Motown/soul influences of her 2008 debut album 19, but also draws influence from the American country and Southern blues music that Adele started listening to while on the North American leg of her tour An Evening with Adele. Composed in the aftermath of the singer\'s separation from her then partner, the album exemplifies the near dormant tradition of the confessional singer-songwriter, exploring themes of heartbreak, healing and forgiveness. Adele began writing 21 in April 2009, when still involved in the relationship that subsequently inspired the record. Looking to deviate from the brooding sound of her first album, she had intended to compose a more upbeat and contemporary follow-up. However, studio sessions ended prematurely due to a lack of inspiration. She resumed production immediately after the breakdown of her relationship, channelling her heartbreak and depression into her songs. Adele collaborated with various songwriters and producers, including Columbia Records co-president Rick Rubin, Paul Epworth, Ryan Tedder, Jim Abbiss, and Dan Wilson. A sleeper hit, 21 defied the modest commercial expectations of Adele\'s independent record label XL. It topped record charts in more than 30 countries and became the world\'s best-selling album of the year for both 2011 and 2012, helping to revitalise the lagging sales of the global music industry. In the United Kingdom, it is the best-selling album of the 21st century, the fourth best-selling album of all time, and the best-selling album by a solo artist of all time, while its 23-week tenure atop the UK Albums Chart is the longest by a female solo artist. In the United States, it is the best performing Billboard 200 album of all time, holding the top position for 24 weeks, longer than any other album since 1985 and the longest by a female solo artist in Billboard 200 history. It was certified Diamond by the Recording Industry Association of America (RIAA), denoting sales of over 10 million copies in the US. In addition, three of the five singles released in its promotion – "Rolling in the Deep", "Someone like You" and "Set Fire to the Rain" – became international number-one songs, while "Rumour Has It" charted in the top 20 in countries across Europe and North America. With sales of over 31 million copies worldwide, 21 is the best-selling album of the 21st century, and one of the best-selling albums of all time. Praised for its understated production, vintage aesthetic, and Adele\'s vocal performance, 21 was shortlisted for the 2011 Mercury Prize, and won the 2012 Grammy Award for Album of the Year and the Brit Award for British Album of the Year. It has since been ranked amongst the Rolling Stone\'s 500 Greatest Albums of All Time, and is included in the book 1001 Albums You Must Hear Before You Die.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/7/27', 'album_name': '7/27', 'artist': 'http://dbpedia.org/resource/Fifth_Harmony', 'artist_name': 'Fifth Harmony', 'wiki': 'http://en.wikipedia.org/wiki/7/27', 'hometown': 'http://dbpedia.org/resource/Miami', 'abstract': '7/27 is the second studio album by American girl group Fifth Harmony, released by Syco Music and Epic Records on May 27, 2016. The record is the follow-up to the group\'s debut studio album Reflection. Its lyrics discuss themes of female empowerment and love. It features guest appearances by American R&amp;B and hip hop artists Ty Dolla Sign, Fetty Wap and Missy Elliott, and collaborations with producers Jack Antonoff, Kygo and Norwegian duo Stargate. 7/27 is primarily a pop, tropical house and R&amp;B record that includes elements of reggae, funk, electronic dance music, hip hop and trap. Unlike the genres explored on Reflection, 7/27\'s songs incorporate new genres like tropical house. This is the final Fifth Harmony album to feature Camila Cabello before her music group retirement in December 2016 to pursue a solo career. The album debuted at number 4 on the US Billboard 200, becoming the group\'s highest charting album in the US to date, and selling 74,000 equivalent album units. 7/27 earned the group its first top-five entry in the United Kingdom, where it peaked at number 3, and a top-five entry in Canada where it peaked at number one. Elsewhere, it peaked in the top fives of sixteen other countries, reaching number one in Spain and Brazil. To further promote the album, Fifth Harmony embarked on its second headlining concert tour, The 7/27 Tour, which visited North and South America, Europe and Asia. 7/27 received generally positive reviews from contemporary music critics. "Work from Home" featuring Ty Dolla Sign, the album\'s lead single, was released on February 26, 2016. It peaked at number four on the Billboard Hot 100, becoming the group\'s highest charting single in the United States and the first top-five entry from an all-female group to chart in ten years since "Buttons" by The Pussycat Dolls. Since its release, the song has charted in the top five of twenty-two countries. The second single, "All in My Head (Flex)" featuring Fetty Wap, charted in the top 25 of the US Billboard Hot 100 and sixteen other countries. Two promotional singles, "The Life" and "Write on Me", were made available before the album\'s release. The third single from the album, "That\'s My Girl", was sent to contemporary hit radio on September 27, 2016.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Greatest_Hits_(The_Police_album)', 'album_name': 'Greatest Hits (The Police album)', 'artist': 'http://dbpedia.org/resource/The_Police', 'artist_name': 'The Police', 'wiki': 'http://en.wikipedia.org/wiki/Greatest_Hits_(The_Police_album)', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': 'Greatest Hits is a compilation album of songs by the Police, released in September 1992. It is the band\'s second compilation album following Every Breath You Take: The Singles. In contrast with its predecessor, it features all 14 original UK top 20 chart singles and five UK number-ones released by the band from 1978 to 1984, including the two missing singles from the previous 1986 compilation, "Synchronicity II" and the original version of "Don\'t Stand So Close to Me" which had been replaced with the 1986 re-recording. The album also includes two bonus album tracks, "The Bed\'s Too Big Without You" and "Tea in the Sahara". The cover photograph was by Duane Michals and it was taken at the time of the Synchronicity album. The inner sleeve featured a collage of pictures of the band shot by different photographers during their career, including Miles Copeland, Peter Baylis, Adrian Boot, Akihiro Takayama, Anton Corbijn, Danny Quatrochi, Gabor Scott, Janette Beckman, Kim Turner, Michael Ross, Watal Asanuma and Andy Summers. The album failed to chart in the US but spent 36 weeks in the UK Album Charts, where it peaked at number 10. It also peaked at number one on Official New Zealand Music Chart and at number four in Norway.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/May_Death_Never_Stop_You', 'album_name': 'May Death Never Stop You', 'artist': 'http://dbpedia.org/resource/My_Chemical_Romance', 'artist_name': 'My Chemical Romance', 'wiki': 'http://en.wikipedia.org/wiki/May_Death_Never_Stop_You', 'hometown': 'http://dbpedia.org/resource/Newark,_New_Jersey', 'abstract': 'May Death Never Stop You (or May Death Never Stop You: The Greatest Hits 2001–2013) is the first greatest hits compilation album by My Chemical Romance, spanning the band\'s entire career up to that point. It is the only album to feature keyboardist James Dewees as an official member of the band, playing on the album\'s lead single, "Fake Your Death."'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Sunshine_on_Leith_(album)', 'album_name': 'Sunshine on Leith (musikalbum)', 'artist': 'http://dbpedia.org/resource/The_Proclaimers', 'artist_name': 'The Proclaimers', 'wiki': 'http://en.wikipedia.org/wiki/Sunshine_on_Leith_(album)', 'hometown': 'http://dbpedia.org/resource/Auchtermuchty', 'abstract': 'Sunshine on Leith is the second studio album by Scottish folk rock duo The Proclaimers, released in August 1988 through Chrysalis Records. The record spawned four singles: "I\'m Gonna Be (500 Miles)", which topped charts in Australia, New Zealand and Iceland; "Sunshine on Leith", a ballad that has become an anthem for Scottish football club Hibernian F.C.; the No. 3 Australian hit "I\'m on My Way"; and the Australian-exclusive "Then I Met You". The non-single "Cap in Hand" also came to prominence in 2014 with the Scottish Independence referendum. Sunshine on Leith marked a departure from the minimalist acoustics of the group\'s 1987 debut This Is The Story, toward a rock-oriented full band sound, and was a major worldwide hit, particular in Australia where it was described as the band\'s "biggest success", reaching No. 2 in the ARIA Charts and being 1989\'s 12th highest-seller. The album peaked at No. 3 and No. 6 in New Zealand and the United Kingdom respectively, while also charting in Canada and Sweden, ultimately selling over 2 million copies worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Greatest_Hits:_My_Prerogative_(video)', 'album_name': 'Greatest Hits: My Prerogative (DVD)', 'artist': 'http://dbpedia.org/resource/Britney_Spears', 'artist_name': 'Britney Spears', 'wiki': 'http://en.wikipedia.org/wiki/Greatest_Hits:_My_Prerogative_(video)', 'abstract': 'Greatest Hits: My Prerogative is the seventh video album by American recording artist Britney Spears. Designed by Jim Swaffield, the highly interactive collection was released on November 9, 2004 through Jive Records, accompanying the greatest hits album of the same title. The collection contains all of Spears\' music videos from 1998 to 2004, including unreleased material from the shoot of "Outrageous". It also contains alternate versions of the music videos with never before seen footage. The video received positive reviews from critics, who complimented the quality of the audio and the image and also deemed Spears as the ultimate video performer. Greatest Hits: My Prerogative debuted atop of the ARIA Top 40 Music DVD, number two on Hungarian Top 20 DVD and Japanese Oricon Video Chart, and number three on the US Billboard Top Music Videos. It was also certified double platinum in Argentina by the Argentine Chamber of Phonograms and Videograms Producers (CAPIF), in Australia by the Australian Recording Industry Association (ARIA) and in the United States by the Recording Industry Association of America (RIAA).'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/True_(Avicii_album)', 'album_name': 'True (musikalbum av Avicii)', 'artist': 'http://dbpedia.org/resource/Avicii', 'artist_name': 'Avicii', 'wiki': 'http://en.wikipedia.org/wiki/True_(Avicii_album)', 'abstract': 'True is the debut studio album by Swedish electronic music producer Avicii, released on 13 September 2013 by PRMD Music and Island Records. Avicii said that sonically, the album would move away from his earlier house music sound on previous records by incorporating elements of other genres such as country music. True was preceded by the release of the Aloe Blacc-assisted "Wake Me Up" that featured a rare Marantz Enhanced Digital Stereo audio track and topped several charts around the world, and "You Make Me", which features vocals from Swedish artist Salem Al Fakir. True debuted at number two on the UK Albums Chart and peaked within the top-ten of at least ten countries; it subsequently re-peaked at number two on the chart in February 2014. On 24 March 2014, Avicii released a remixed version of the album titled True (Avicii by Avicii). A two-disc edition, comprising the standard 10-track edition alongside the remix album featuring a new album cover, was released in June 2014.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Nine_Track_Mind', 'album_name': 'Nine Track Mind', 'artist': 'http://dbpedia.org/resource/Charlie_Puth', 'artist_name': 'Charlie Puth', 'wiki': 'http://en.wikipedia.org/wiki/Nine_Track_Mind', 'abstract': 'Nine Track Mind is the debut studio album by American singer Charlie Puth. It was released on January 29, 2016, by Artist Partner Group and Atlantic Records, after being scheduled to be released on November 6, 2015. The album\'s lead single, "Marvin Gaye", which features Meghan Trainor, was originally released as Some Type of Love\'s only single on February 10, 2015, and peaked at number 21 on the Billboard Hot 100 , while topping the charts in various countries including France, Ireland, New Zealand, and the United Kingdom. The album\'s second single, "One Call Away", was released on August 20, 2015, reaching number 12 on the Billboard Hot 100. On May 24, 2016, Puth released the third and final single "We Don\'t Talk Anymore", featuring Selena Gomez, with it having peaked at number 9 on the Billboard Hot 100. A music video for "Dangerously" was released on November 2, 2016. Upon release, Nine Track Mind was a commercial success, peaking at number 6 on the Billboard 200. The album received negative reviews from critics, who criticized the simplistic production, overt focus on love ballads, and Puth\'s vocal performance. Puth himself has confessed that he was disappointed at how the album turned out.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/The_Open_Door', 'album_name': 'The Open Door', 'artist': 'http://dbpedia.org/resource/Evanescence', 'artist_name': 'Evanescence', 'wiki': 'http://en.wikipedia.org/wiki/The_Open_Door', 'hometown': 'http://dbpedia.org/resource/Little_Rock,_Arkansas', 'abstract': 'The Open Door is the second studio album by American rock band Evanescence, released on September 25, 2006, by Wind-up Records. The album was initially set to be released in March 2006, but was postponed as a result of guitarist Terry Balsamo\'s stroke, the loss of the band\'s former manager, and Will Boyd\'s and Ben Moody\'s departure from the group. The record symbolizes a new beginning for the band, incorporating new elements into their previous musical styles, including symphonic metal, as well as the use of choirs on several songs. The writing process for the album took over 18 months to complete; most of the songs were written by Amy Lee and Terry Balsamo, while production was handled by Dave Fortman. The Open Door received mostly positive reviews from music critics, who generally praised its lyrical content and the instrumentation accompanied by Lee\'s vocals. Some critics gave negative reviews regarding the band\'s sound, which differs from that of the band\'s previous album, Fallen (2003). The record was nominated at the 50th Grammy Awards for Best Hard Rock Performance for "Sweet Sacrifice". The band also won in the category of Album of the Year at the 2007 MTV Australia Video Music Awards. The Open Door debuted at number one on the Billboard 200, selling more than 447,000 copies in its first week. It topped the charts in Australia, Europe, Germany, Greece and Switzerland, and reached the top five in over 15 countries. The album was certified platinum by the Recording Industry Association of America (RIAA) just over a month after its release, and has since been certified double platinum. The record has sold more than five million copies worldwide. "Call Me When You\'re Sober" was released digitally as the album\'s lead single on September 14, 2006. It peaked at number 10 on the Billboard Hot 100 and charted in the top 20 of several charts internationally. "Lithium" was released as the second single on January 1, 2007, and "Sweet Sacrifice" was released as the third international single from the album on May 5, 2007. "Good Enough" was released on December 14, 2007. The Open Door was supported by two worldwide tours, The Open Door Tour and the Evanescence Tour.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Woodstock_(Portugal._The_Man_album)', 'album_name': 'Woodstock (Portugal. The Man album)', 'artist': 'http://dbpedia.org/resource/Portugal._The_Man', 'artist_name': 'Portugal. The Man', 'wiki': 'http://en.wikipedia.org/wiki/Woodstock_(Portugal._The_Man_album)', 'hometown': 'http://dbpedia.org/resource/Wasilla,_Alaska', 'abstract': 'Woodstock is the eighth full-length album by American rock band Portugal. The Man, released on June 16, 2017 through Atlantic Records.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Greatest_Hits_(Red_Hot_Chili_Peppers_album)', 'album_name': 'Greatest Hits (album, Red Hot Chili Peppers)', 'artist': 'http://dbpedia.org/resource/Red_Hot_Chili_Peppers', 'artist_name': 'Red Hot Chili Peppers', 'wiki': 'http://en.wikipedia.org/wiki/Greatest_Hits_(Red_Hot_Chili_Peppers_album)', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': 'Greatest Hits is the second compilation album by the Red Hot Chili Peppers. It was released on November 18, 2003, by Warner Bros. Records. Aside from their cover of "Higher Ground", all songs on the compilation are from their tenure on Warner Bros. Records from 1991 to 2002, in addition to two newly recorded songs. Greatest Hits was released along with a separately sold DVD containing most of their music videos from the same time period. The album was released with Copy Control protection system in some European markets, but not in the United States.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Midnite_Vultures', 'album_name': 'Midnite Vultures', 'artist': 'http://dbpedia.org/resource/Beck', 'artist_name': 'Beck', 'wiki': 'http://en.wikipedia.org/wiki/Midnite_Vultures', 'abstract': "Midnite Vultures is the seventh studio album by American musician Beck, released on November 23, 1999 by DGC Records. While similar to most of Beck's previous albums in its exploration of widely varying styles, it did not achieve the same blockbuster success as his breakthrough album Odelay, but was still critically acclaimed and commercially successful."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Follow_the_Leader_(Korn_album)', 'album_name': 'Follow the Leader', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Follow_the_Leader_(Korn_album)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': 'Follow the Leader (stylized as FOLLOW The LEADEЯ) is the third studio album by American nu metal band Korn. The album was released on August 18, 1998, through Immortal/Epic. This was their first album not produced by Ross Robinson. Instead, it was produced by Steve Thompson and Toby Wright. The album peaked at number one on four charts, including the Billboard 200 with 268,000 units sold in its first week of release, Follow the Leader is considered by members of Korn to be the band\'s most commercially–successful album, being certified five-times Platinum by the RIAA. Its singles "Got the Life", and "Freak on a Leash", both charted on more than three charts, and their music videos are considered to be the first music videos retired from MTV, most notably the MTV show Total Request Live. The album generally received positive reviews by critics and sold around 14 million copies worldwide. Korn was praised by AllMusic saying the album is "an effective follow-up to their first two alt-metal landmarks." The Family Values Tour promoted the album, along with its five singles. The song "Freak on a Leash" was nominated for nine MTV Video Music Awards, and won for the Best Rock Video award, as well as Best Editing. The music video for "Freak on a Leash" won Best Short Form Music Video at the 2000 Grammy Awards.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Youthquake_(album)', 'album_name': 'Youthquake', 'artist': 'http://dbpedia.org/resource/Dead_or_Alive_(band)', 'artist_name': 'Dead or Alive', 'wiki': 'http://en.wikipedia.org/wiki/Youthquake_(album)', 'hometown': 'http://dbpedia.org/resource/Liverpool', 'abstract': 'Youthquake is the second album by the British pop group Dead or Alive, released in May 1985. The album was their commercial breakthrough in Europe and the United States, due to the lead single "You Spin Me Round (Like a Record)", which was a UK number-one hit and a top 20 hit in the United States. Additional single releases from the album included "Lover Come Back to Me", "In Too Deep" and "My Heart Goes Bang (Get Me to the Doctor)". This was Dead or Alive\'s first collaboration with the Stock Aitken Waterman production team. Youthquake was re-released in the UK on compact disc in 1994, with the two bonus tracks that were previously included on the original CD and cassette versions of the album. Recent US and Japanese reissues have reverted to the original vinyl track listing. The album peaked at No. 9 in the UK and was certified Gold by the BPI for sales of over 100,000 copies. It also peaked at No. 31 in the US and was certified Gold by the RIAA for sales over 500,000.In Canada the album peaked at No. 8 and was certified platinum. The album cover was taken by fashion photographer Mario Testino.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/One_Hot_Minute', 'album_name': 'One Hot Minute', 'artist': 'http://dbpedia.org/resource/Red_Hot_Chili_Peppers', 'artist_name': 'Red Hot Chili Peppers', 'wiki': 'http://en.wikipedia.org/wiki/One_Hot_Minute', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': 'One Hot Minute is the sixth studio album by American rock band Red Hot Chili Peppers, released on September 12, 1995 by Warner Bros. Records. The worldwide success of the band\'s previous album Blood Sugar Sex Magik (1991) caused guitarist John Frusciante to become uncomfortable with their popularity, eventually quitting mid-tour in 1992. Vocalist Anthony Kiedis, who had resumed addictions to cocaine and heroin in 1994 after being sober for more than five years, approached his lyricism with a reflective outlook on drugs and their harsh effects. It is the only studio album to feature Dave Navarro as the band\'s guitarist; Navarro joined the band in 1993 after a series of short-term replacements for Frusciante. The album was produced by Rick Rubin, who had also produced the band\'s previous album. One Hot Minute sold more than two million copies and was certified multi-platinum, and reached number four on the US Billboard 200. It also spawned three hit singles: "Warped", "My Friends" and "Aeroplane". Nevertheless, it was considered a commercial disappointment, because it sold fewer than half as many copies as Blood Sugar Sex Magik and received much less acclaim. Navarro was fired in 1998 due to his drug use.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Sheryl_Crow_(album)', 'album_name': 'Sheryl Crow', 'artist': 'http://dbpedia.org/resource/Sheryl_Crow', 'artist_name': 'Sheryl Crow', 'wiki': 'http://en.wikipedia.org/wiki/Sheryl_Crow_(album)', 'abstract': 'Sheryl Crow is the second studio album by American singer Sheryl Crow, released on September 24, 1996 by A&amp;M Records. Unlike its predecessor Tuesday Night Music Club, which was written by a casual collective formed by Crow and several other musicians, Sheryl Crow was entirely produced by Crow, who wrote most of the songs alone or with only one collaborator. Most of the album was recorded at Kingsway Studios in New Orleans, Louisiana. The album covers topics of American life, relationship breakups, and moral and ethical issues, while encompassing a variety of music genres such as rock, blues, alternative rock, country, and folk. Sheryl Crow was a commercial success, being certified 3× platinum by the RIAA and 3× platinum by the BPI. It also reached No. 6 on the US Billboard Top 200 chart and produced five singles, including the international hit "If It Makes You Happy". The album received very positive reviews from critics, who praised its intricate production and Crow\'s louder and more assured singing. At the 39th Annual Grammy Awards, the album was awarded Best Rock Album and Crow received the Best Female Rock Vocal Performance award for "If It Makes You Happy". Retrospectively, it is often regarded as Crow\'s best album.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Synchronicity_(The_Police_album)', 'album_name': 'Synchronicity', 'artist': 'http://dbpedia.org/resource/The_Police', 'artist_name': 'The Police', 'wiki': 'http://en.wikipedia.org/wiki/Synchronicity_(The_Police_album)', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': 'Synchronicity is the fifth and final studio album by English rock band the Police, released on 17 June 1983 by A&amp;M Records. The band\'s most successful release, the album includes the hit singles "Every Breath You Take", "King of Pain", "Wrapped Around Your Finger", and "Synchronicity II". The album\'s title and much of the material for the songs were inspired by Arthur Koestler\'s The Roots of Coincidence. At the 1984 Grammy Awards the album was nominated for a total of five awards, including Album of the Year, and won three. At the time of its release and following its tour, the Police\'s popularity was at such a high that they were arguably, according to BBC and The Guardian, the "biggest band in the world". Synchronicity reached number one on both the UK Albums Chart and the US Billboard 200, and sold over eight million copies in the US. The album was widely acclaimed by critics. Praise centred on its cohesive merging of disparate genres and sonic experimentation. Rolling Stone described "each cut on Synchronicity [as] not simply a song but a miniature, discrete soundtrack". It has since been included in the magazine\'s lists of the "100 Best Albums of the Eighties" and the "500 Greatest Albums of All Time". In 2009, Synchronicity was inducted into the Grammy Hall of Fame.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Nena_feat._Nena', 'album_name': 'Nena feat. Nena', 'artist': 'http://dbpedia.org/resource/Nena', 'artist_name': 'Nena', 'wiki': 'http://en.wikipedia.org/wiki/Nena_feat._Nena', 'abstract': 'Nena feat. Nena, also known as 20 Jahre – Das Jubiläums-Album (20 Years – The Anniversary Album) is a studio album by German pop singer Nena. It contains new versions of her hits, some of them are duets with other singers, including Kim Wilde, Joachim Witt and Udo Lindenberg. The album was first released in 2002 with a red cover and reissued with a blue cover in 2003. Both releases exist in either standard or limited edition, the latter being supplemented with a bonus CD of live tracks. The songs on the bonus CD are also reworked, suggesting that Nena may have planned to update more of her back-catalogue, although there have been no further releases in this vein.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Out_of_the_Cellar', 'album_name': 'Out of the Cellar', 'artist': 'http://dbpedia.org/resource/Ratt', 'artist_name': 'Ratt', 'wiki': 'http://en.wikipedia.org/wiki/Out_of_the_Cellar', 'hometown': 'http://dbpedia.org/resource/San_Diego,__California', 'abstract': 'Out of the Cellar is the debut studio album by American glam metal band Ratt. Released in 1984, it was an immediate success, with wide airplay on radio and heavy rotation on MTV of its singles, especially the major hit "Round and Round". The album is certified as triple platinum by the RIAA. The album brought Ratt to the top of the glam metal scene in Los Angeles. Ratt\'s later work would never surpass the success of Out of the Cellar. According to interviews with Beau Hill that were shot for the film Hair I Go Again, Tom Allom was originally slated to produce the record, before the novice Hill was brought in.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/The_Fame', 'album_name': 'The Fame', 'artist': 'http://dbpedia.org/resource/Lady_Gaga', 'artist_name': 'Lady Gaga', 'wiki': 'http://en.wikipedia.org/wiki/The_Fame', 'abstract': 'The Fame is the debut studio album by American singer Lady Gaga. It was released on August 19, 2008, by Interscope Records. After joining Kon Live Distribution and Cherrytree Records in 2008, Gaga began working on the album with different producers, primarily RedOne, Martin Kierszenbaum, and Rob Fusari. Musically, The Fame is an electropop, synth-pop, and dance-pop album that displays influences from 1980s music. Lyrically, it visualizes Gaga\'s love of fame in general, while also dealing with subjects such as love, sex, money, drugs, and sexual identity. The album was primarily promoted through The Fame Ball Tour and multiple television appearances, and was reissued as a deluxe edition with The Fame Monster on November 18, 2009. The album received generally favorable reviews from critics, who commended its lyrical content, Gaga\'s musicianship and vocal ability. It was a commercial success, topping the charts in several countries including the United Kingdom, Canada, Germany, Ireland, Poland, and Switzerland. In the United States, it peaked at number two on the Billboard 200, and also topped the Dance/Electronic Albums chart for 150 non-consecutive weeks, the most time on top in history. The Fame became the fifth best-selling album of 2009, and has sold over 4.9 million copies in the United States as of January 2019. Combined with The Fame Monster, the album had sold over 18 million copies worldwide as of August 2019. Gaga promoted the album with many television performances, award shows and also in her first headlining tour, The Fame Ball Tour in 2009. The first two singles "Just Dance" and "Poker Face" gained international success, topping the charts in several countries worldwide including the United States, the United Kingdom, and Australia. The subsequent singles "LoveGame" and "Paparazzi" were commercial successes as well, charting within the top-ten of over ten countries worldwide. "Eh, Eh (Nothing Else I Can Say)" had a limited single release, while "Beautiful, Dirty, Rich" and "Boys Boys Boys" served as promotional singles. The Fame has won multiple awards since its release. In the United States, the album was nominated for a total of five Grammy Awards at the 52nd Grammy Awards, including the Grammy Award for Album of the Year. It won the Grammy Award for Best Electronic/Dance Album and the Grammy Award for Best Dance Recording for the single "Poker Face", and also won Best International Album at the 2010 Brit Awards. In 2013, Rolling Stone named The Fame as one of the "100 Greatest Debut Albums of All-Time". As of 2018, it is the 12th biggest album of all time on the Billboard 200 in the United States.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Heartbreak_Weather', 'album_name': 'Heartbreak Weather', 'artist': 'http://dbpedia.org/resource/Niall_Horan', 'artist_name': 'Niall Horan', 'wiki': 'http://en.wikipedia.org/wiki/Heartbreak_Weather', 'abstract': 'Heartbreak Weather is the second studio album by Irish singer Niall Horan. It was released through Capitol Records on 13 March 2020, three years after its predecessor Flicker. It was promoted with four singles: "Nice to Meet Ya", "Put a Little Love on Me", "No Judgement" and "Black and White". On the Billboard 200 chart, Heartbreak Weather debuted at number 4, marking Horan\'s second top-10 album in the United States. The album also debuted at number 1 on the Irish and UK album charts, marking Horan\'s first UK number one album as a solo artist.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/A_Collection_of_Great_Dance_Songs', 'album_name': 'A Collection of Great Dance Songs', 'artist': 'http://dbpedia.org/resource/Pink_Floyd', 'artist_name': 'Pink Floyd', 'wiki': 'http://en.wikipedia.org/wiki/A_Collection_of_Great_Dance_Songs', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': 'A Collection of Great Dance Songs is a compilation album by English rock band Pink Floyd. It was released on 23 November 1981 in the United Kingdom by Harvest Records and in the United States by Columbia Records.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/A_Little_Bit_of_Mambo', 'album_name': 'A Little Bit of Mambo', 'artist': 'http://dbpedia.org/resource/Lou_Bega', 'artist_name': 'Lou Bega', 'wiki': 'http://en.wikipedia.org/wiki/A_Little_Bit_of_Mambo', 'abstract': 'A Little Bit of Mambo is the debut album by Lou Bega released in 1999, propelled by the success of the single "Mambo No. 5 (A Little Bit of...)".'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Moving_Pictures_(Rush_album)', 'album_name': 'Moving Pictures (album)', 'artist': 'http://dbpedia.org/resource/Rush_(band)', 'artist_name': 'Rush', 'wiki': 'http://en.wikipedia.org/wiki/Moving_Pictures_(Rush_album)', 'hometown': 'http://dbpedia.org/resource/Ontario', 'abstract': 'Moving Pictures is the eighth studio album by Canadian progressive rock band Rush, released on February 12, 1981 through Anthem Records. After touring to support their previous album, Permanent Waves (1980), the band started to write and record new material in August 1980 with co-producer Terry Brown. They continued to write songs with a more radio-friendly format, featuring tighter song structures and songs of shorter length compared to their earlier albums. Moving Pictures received a positive reception from current and retrospective music critics and became an instant commercial success, reaching number one in Canada and number 3 in both the United States and the United Kingdom. It remains Rush\'s highest-selling album in the United States, with 5 million copies sold. "Limelight", "Tom Sawyer" and "Vital Signs" were released as singles across 1981, and the instrumental "YYZ" was nominated for a Grammy Award for Best Rock Instrumental Performance. Rush auditioned some of the songs on a tour before recording the album (September 11 to October 1, 1980), and supported the album on tour from February to July 1981.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Shaman_(album)', 'album_name': 'Shaman (Album)', 'artist': 'http://dbpedia.org/resource/Santana_(band)', 'artist_name': 'Santana', 'wiki': 'http://en.wikipedia.org/wiki/Shaman_(album)', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': 'Shaman is the nineteenth studio album by Santana. Shaman was released on October 22, 2002, and debuted at number 1 on the Billboard 200 with first week sales of 298,973. It was certified Double Platinum by the RIAA and Gold in Greece. The first single of the album was "The Game of Love", featuring Michelle Branch. "Why Don\'t You &amp; I", featuring Chad Kroeger of Nickelback, was also re-recorded as a single in 2003, which featured Alex Band of The Calling. Like the previous album, Supernatural, Shaman features various famous rock, hip hop, and pop artists, as well as Spanish opera star, Plácido Domingo. The album is Santana\'s longest studio release to date.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/24K_Magic_(album)', 'album_name': '24K Magic (album)', 'artist': 'http://dbpedia.org/resource/Bruno_Mars', 'artist_name': 'Bruno Mars', 'wiki': 'http://en.wikipedia.org/wiki/24K_Magic_(album)', 'abstract': '24K Magic (stylized as XXIVK Magic) is the third studio album recorded by American singer and songwriter Bruno Mars. It was released by Atlantic Records on November 18, 2016. Mars reunited with Philip Lawrence and Christopher Brody Brown, who composed the album under their joint alias Shampoo Press &amp; Curl. Mars enlisted new composers including the Stereotypes and James Fauntleroy. Recording sessions for 24K Magic took place between late 2015 and September 2016 at Glenwood Place Studios in Burbank, California. Several critics said 24K Magic was crafted from elements of R&amp;B, soul, funk, pop and new jack swing. Mars was inspired to create an album on which he could capture the sound of 1990s R&amp;B, that he listened and danced to during his childhood. He wanted to make people dance and have the same enjoyment he had. The lyrics of 24K Magic explore themes similar to those of its predecessor, Unorthodox Jukebox (2012), including money and sex. According to Mars, although he was able to convince Atlantic Records of the album\'s sound, they were initially hesitant. 24K Magic debuted at number two on the Billboard 200 chart with first-week sales of 231,000 equivalent album units and became Mars\'s first number-one album on the US Top R&amp;B/Hip-Hop Albums. It also peaked at number two in Canada, France and New Zealand, and produced five singles: "24K Magic", "That\'s What I Like", and "Finesse" (remix featuring Cardi B), which were commercially successful while "Versace on the Floor" charted moderately in various countries and "Chunky" had a limited release. "That\'s What I Like" reached number one on the Billboard Hot 100, becoming Mars\'s seventh number-one song on the US. The album was certified triple platinum by the Recording Industry Association of America (RIAA) and Recorded Music NZ (RMNZ), as well as triple platinum by Music Canada (MC) and Syndicat National de l\'Édition Phonographique (SNEP). Critical responses to 24K Magic were generally favorable; many reviewers noticed the change of style, focusing on contemporary R&amp;B and the improvement on the production. Others criticized the detachment from the casual listener and the lack of "vulnerability" from his previous ballads. At the 2018 Grammy Awards 24K Magic won seven Grammy Awards, including Album of the Year and Best R&amp;B Album, whilst the title track won Record of the Year and "That\'s What I Like" won Song of The Year at the same ceremony. Several publications listed the album as one of the best records of the year and the Associated Press named it as the tenth-best album of the 2010s. The album was also promoted through the 24K Magic World Tour (2017–2018).'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Blondie_4(0)_Ever', 'album_name': 'Blondie 4(0) Ever', 'artist': 'http://dbpedia.org/resource/Blondie_(band)', 'artist_name': 'Blondie', 'wiki': 'http://en.wikipedia.org/wiki/Blondie_4(0)_Ever', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'abstract': 'Blondie 4(0) Ever is a double album by American rock band Blondie. It was released on May 12, 2014, by Noble ID in celebration of the band\'s 40th anniversary. The two-disc package consists of Greatest Hits Deluxe Redux, a collection of re-recordings of Blondie\'s past singles, and the band\'s tenth studio album, Ghosts of Download. The latter spawned three singles: "A Rose by Any Name", "Sugar on the Side", and "I Want to Drag You Around".'}</t>
+    <t>{'album': 'http://dbpedia.org/resource/Another_Night_(Real_McCoy_album)', 'album_name': 'Another Night (Real McCoy album)', 'artist': 'http://dbpedia.org/resource/Real_McCoy_(band)', 'artist_name': 'Real McCoy', 'wiki': 'http://en.wikipedia.org/wiki/Another_Night_(Real_McCoy_album)', 'hometown': 'http://dbpedia.org/resource/Berlin', 'abstract': 'Another Night is the third album by the German Eurodance group Real McCoy (also known as M.C. Sar &amp; The Real McCoy). The album features the hit singles "Another Night", "Automatic Lover (Call for Love)", "Run Away", "Love &amp; Devotion" and the hit cover version of "Come and Get Your Love". When "Another Night" had reached No.1 on the Canadian dance charts in March 1994, Arista Records CEO Clive Davis became interested in bringing M.C. Sar &amp; The Real McCoy to the U.S. market. Once a new deal was finalized, the project name was shortened to Real McCoy and "Another Night" was released in the U.S. in the Summer of 1994. The single had peaked at No.3 in the U.S. by November 1994 and had quickly reached Platinum status. The follow-up single release of "Run Away" was also a successful hit in the U.S. reaching Gold status. Thanks to the success of the two hits, an all new U.S. release of the album release was quickly planned for 1995. The project was officially re-branded as a trio act featuring German rapper Olaf Jeglitza (O-Jay), Patricia Petersen (Patsy) and newcomer Vanessa Mason. The Space Invaders album (the European album released by the project in Summer 1994) was re-titled Another Night. The cover art, imagery and marketing for the album was completely changed to present a lighter romantic tone. Several album tracks featured on Space Invaders were removed. Davis commissioned a new team of producers to write and produce three new covers songs ("Come and Get Your Love", "Ooh Boy", "If You Should Ever Be Lonely (Deep in the Night)") and an original track (Sleeping with an Angel) for the album. The new production team included: Songwriters Billy Steinberg &amp; Rick Noweles, Producer Shep Pettibone and the Lemon Productions team (Per Adebratt, Douglas Carr &amp; Tony Ekman). Thanks to the promotional efforts of Arista along with the intense popularity of "Another Night" and "Run Away", the album reached double Platinum status and became a mainstream commercial success in 1995. "Come and Get Your Love" was then released as the third Real McCoy single and reached No.1 on the U.S. dance charts. "Automatic Lover (Call for Love)" was also released late in 1995 as a fourth single but saw lesser success peaking at No.52 on the charts. The album track "Love &amp; Devotion" was also released in Europe and Australia as single. It earned gold status in Australia and peaked at No.11 in the United Kingdom.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Baptism_(Lenny_Kravitz_album)', 'album_name': 'Baptism (álbum de Lenny Kravitz)', 'artist': 'http://dbpedia.org/resource/Lenny_Kravitz', 'artist_name': 'Lenny Kravitz', 'wiki': 'http://en.wikipedia.org/wiki/Baptism_(Lenny_Kravitz_album)', 'abstract': 'Baptism is the seventh album by American rock musician Lenny Kravitz, released on May 17, 2004, by Virgin Records. The album produced five singles and reached number 14 on the Billboard 200 and number 74 on the UK Albums Chart.'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Cinderford', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Cinderford', 'place': 'http://sws.geonames.org/2652997/', 'geo_link': 'http://www.geonames.org/2652997/cinderford.html', 'lat': '51.8225', 'long': '-2.4989', 'population': '10293'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Massachusetts', 'place': 'http://sws.geonames.org/6254926/', 'geo_link': 'http://www.geonames.org/6254926/massachusetts.html', 'lat': '42.36565', 'long': '-71.10832', 'population': '6433422'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Seoul', 'country_code': 'KR', 'wiki': 'http://en.wikipedia.org/wiki/Seoul', 'place': 'http://sws.geonames.org/1835848/', 'geo_link': 'http://www.geonames.org/1835847/seoul.html', 'lat': '37.56666666666667', 'long': '127', 'population': '10349312'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Bakersfield, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bakersfield%2C_California', 'place': 'http://sws.geonames.org/5325738/', 'postal_code': '93308', 'geo_link': 'http://www.geonames.org/5325738/bakersfield.html', 'lat': '35.36666666666667', 'long': '-119.01666666666667', 'population': '347483'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'United States', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/United_States', 'place': 'http://sws.geonames.org/6252001/', 'geo_link': 'http://www.geonames.org/6252001/united-states.html', 'lat': '40.0', 'long': '-100.0', 'population': '310232863'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Dublin', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Dublin', 'place': 'http://sws.geonames.org/7778677/', 'geo_link': 'http://www.geonames.org/2964574/dublin.html', 'lat': '53.34777777777778', 'long': '-6.259722222222222', 'population': '1024027'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Iceland', 'country_code': 'IS', 'wiki': 'http://en.wikipedia.org/wiki/Iceland', 'place': 'http://sws.geonames.org/2629691/', 'geo_link': 'http://www.geonames.org/2629691/republic-of-iceland.html', 'lat': '65', 'long': '-18', 'population': '308910'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sheffield', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Sheffield', 'place': 'http://sws.geonames.org/3333193/', 'geo_link': 'http://www.geonames.org/2638077/sheffield.html', 'lat': '53.38361111111111', 'long': '-1.4669444444444444', 'population': '447047'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sayreville, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Sayreville%2C_New_Jersey', 'place': 'http://sws.geonames.org/5104404/', 'postal_code': '08871', 'geo_link': 'http://www.geonames.org/5104404/sayreville.html', 'lat': '40.467357', 'long': '-74.319351', 'population': '42704'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Long Beach, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9B%D0%BE%D0%BD%D0%B3-%D0%91%D0%B8%D1%87_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5367929/', 'postal_code': '90853', 'geo_link': 'http://www.geonames.org/5367929/long-beach.html', 'lat': '33.76833333333333', 'long': '-118.19555555555556', 'population': '462257'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Las Vegas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Las_Vegas', 'place': 'http://sws.geonames.org/5506956/', 'postal_code': '89106', 'geo_link': 'http://www.geonames.org/5506956/las-vegas.html', 'lat': '36.175', 'long': '-115.13638888888889', 'population': '583756'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Limerick', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Limerick', 'place': 'http://sws.geonames.org/7778675/', 'geo_link': 'http://www.geonames.org/2962943/luimneach.html', 'lat': '52.6653', 'long': '-8.6238', 'population': '57106'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Athens, Georgia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Athens%2C_Georgia', 'place': 'http://sws.geonames.org/4180386/', 'postal_code': '30601', 'geo_link': 'http://www.geonames.org/4180386/athens.html', 'lat': '33.95', 'long': '-83.38333333333334', 'population': '116714'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Dayton, Ohio', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dayton%2C_Ohio', 'place': 'http://sws.geonames.org/4509884/', 'postal_code': '45420', 'geo_link': 'http://www.geonames.org/4509884/dayton.html', 'lat': '39.75944444444445', 'long': '-84.19166666666666', 'population': '141527'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Manitoba', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Manitoba', 'place': 'http://sws.geonames.org/6065171/', 'geo_link': 'http://www.geonames.org/6065171/manitoba.html', 'lat': '55.0', 'long': '-97.0', 'population': '1193566'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Birmingham', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Birmingham', 'place': 'http://sws.geonames.org/3333125/', 'geo_link': 'http://www.geonames.org/2655603/birmingham.html', 'lat': '52.48305555555555', 'long': '-1.8936111111111111', 'population': '984333'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Chicago', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Chicago', 'place': 'http://sws.geonames.org/4887398/', 'postal_code': '60633', 'geo_link': 'http://www.geonames.org/4887398/chicago.html', 'lat': '41.83694444444444', 'long': '-87.68472222222222', 'population': '2695598'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Melbourne', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Melbourne', 'place': 'http://sws.geonames.org/7839805/', 'geo_link': 'http://www.geonames.org/2158177/melbourne.html', 'lat': '37.81361111111111', 'long': '144.96305555555554', 'population': '116447'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Glendale, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Glendale%2C_California', 'place': 'http://sws.geonames.org/5352423/', 'postal_code': '91208', 'geo_link': 'http://www.geonames.org/5352423/glendale.html', 'lat': '34.14611111111111', 'long': '-118.255', 'population': '191719'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Poway, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Poway%2C_California', 'place': 'http://sws.geonames.org/5384690/', 'postal_code': '92064', 'geo_link': 'http://www.geonames.org/5384690/poway.html', 'lat': '32.97', 'long': '-117.03861111111111', 'population': '47811'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Northport, New York', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Northport%2C_New_York', 'place': 'http://sws.geonames.org/5129290/', 'postal_code': '11768', 'geo_link': 'http://www.geonames.org/5129290/northport.html', 'lat': '40.90277777777778', 'long': '-73.34416666666667', 'population': '7401'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Orlando, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Orlando%2C_Florida', 'place': 'http://sws.geonames.org/4167147/', 'postal_code': '32832', 'geo_link': 'http://www.geonames.org/4167147/orlando.html', 'lat': '28.41583333333333', 'long': '-81.29888888888888', 'population': '238300'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Palm Desert, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Palm_Desert%2C_California', 'place': 'http://sws.geonames.org/5380626/', 'postal_code': '92260', 'geo_link': 'http://www.geonames.org/5380626/palm-desert.html', 'lat': '33.72222222222222', 'long': '-116.37444444444445', 'population': '48445'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Vacaville, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Vacaville%2C_California', 'place': 'http://sws.geonames.org/5405228/', 'postal_code': '95688', 'geo_link': 'http://www.geonames.org/5405228/vacaville.html', 'lat': '38.35388888888889', 'long': '-121.97277777777778', 'population': '92428'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Wilkes-Barre, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Wilkes-Barre%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5219488/', 'geo_link': 'http://www.geonames.org/5219488/wilkes-barre.html', 'lat': '41.24444444444445', 'long': '-75.87805555555556', 'population': '41498'}</t>
   </si>
   <si>
     <t>{'place_name': 'New South Wales', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/New_South_Wales', 'place': 'http://sws.geonames.org/2155400/', 'geo_link': 'http://www.geonames.org/2155400/state-of-new-south-wales.html', 'lat': '32.16166666666667', 'long': '146', 'population': '6917658'}</t>
   </si>
   <si>
+    <t>{'place_name': 'Brighton', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Brighton', 'place': 'http://sws.geonames.org/2654710/', 'geo_link': 'http://www.geonames.org/2654710/brighton.html', 'lat': '50.842941', 'long': '-0.131312', 'population': '139001'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Des Moines, Iowa', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Des_Moines%2C_Iowa', 'place': 'http://sws.geonames.org/4853828/', 'postal_code': '50333', 'geo_link': 'http://www.geonames.org/4853828/des-moines.html', 'lat': '41.590833333333336', 'long': '-93.62083333333334', 'population': '203433'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Manchester', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Manchester', 'place': 'http://sws.geonames.org/3333169/', 'geo_link': 'http://www.geonames.org/3333169/manchester.html', 'lat': '53.46666666666667', 'long': '-2.2333333333333334'}</t>
+  </si>
+  <si>
     <t>{'place_name': 'Brooklyn', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Brooklyn', 'place': 'http://sws.geonames.org/6941775/', 'postal_code': '11217', 'geo_link': 'http://www.geonames.org/5110302/brooklyn.html', 'lat': '40.69277777777778', 'long': '-73.99027777777778', 'population': '2300664'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Vacaville, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Vacaville%2C_California', 'place': 'http://sws.geonames.org/5405228/', 'postal_code': '95688', 'geo_link': 'http://www.geonames.org/5405228/vacaville.html', 'lat': '38.35388888888889', 'long': '-121.97277777777778', 'population': '92428'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Ukiah, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Ukiah%2C_California', 'place': 'http://sws.geonames.org/5404476/', 'postal_code': '95482', 'geo_link': 'http://www.geonames.org/5404476/ukiah.html', 'lat': '39.15027777777778', 'long': '-123.20777777777778', 'population': '16075'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sheffield', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Sheffield', 'place': 'http://sws.geonames.org/3333193/', 'geo_link': 'http://www.geonames.org/2638077/sheffield.html', 'lat': '53.38361111111111', 'long': '-1.4669444444444444', 'population': '447047'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'York, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/York%2C_Pennsylvania', 'place': 'http://sws.geonames.org/4562407/', 'postal_code': '17402', 'geo_link': 'http://www.geonames.org/4562407/york.html', 'lat': '39.96277777777778', 'long': '-76.72805555555556', 'population': '43718'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Finland', 'country_code': 'FI', 'wiki': 'http://en.wikipedia.org/wiki/Finland', 'place': 'http://sws.geonames.org/660013/', 'geo_link': 'http://www.geonames.org/660013/republic-of-finland.html', 'lat': '64', 'long': '26', 'population': '5244000'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Portland, Oregon', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9F%D0%BE%D1%80%D1%82%D0%BB%D0%B5%D0%BD%D0%B4', 'place': 'http://sws.geonames.org/5746545/', 'postal_code': '97217', 'geo_link': 'http://www.geonames.org/5746545/portland.html', 'lat': '45.52', 'long': '-122.68194444444444', 'population': '583776'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Garden Grove, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Garden_Grove%2C_California', 'place': 'http://sws.geonames.org/5351515/', 'postal_code': '92844', 'geo_link': 'http://www.geonames.org/5351515/garden-grove.html', 'lat': '33.778888888888886', 'long': '-117.96027777777778', 'population': '170883'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Atlanta', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Atlanta', 'place': 'http://sws.geonames.org/4180439/', 'postal_code': '30305', 'geo_link': 'http://www.geonames.org/4180439/atlanta.html', 'lat': '33.755', 'long': '-84.39', 'population': '420003'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Orlando, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Orlando%2C_Florida', 'place': 'http://sws.geonames.org/4167147/', 'postal_code': '32832', 'geo_link': 'http://www.geonames.org/4167147/orlando.html', 'lat': '28.41583333333333', 'long': '-81.29888888888888', 'population': '238300'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bakersfield, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bakersfield%2C_California', 'place': 'http://sws.geonames.org/5325738/', 'postal_code': '93308', 'geo_link': 'http://www.geonames.org/5325738/bakersfield.html', 'lat': '35.36666666666667', 'long': '-119.01666666666667', 'population': '347483'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Perth', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Perth', 'place': 'http://sws.geonames.org/2063523/', 'geo_link': 'http://www.geonames.org/2063523/perth.html', 'lat': '31.952222222222222', 'long': '115.85888888888888', 'population': '1896548'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Las Vegas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Las_Vegas', 'place': 'http://sws.geonames.org/5506956/', 'postal_code': '89106', 'geo_link': 'http://www.geonames.org/5506956/las-vegas.html', 'lat': '36.175', 'long': '-115.13638888888889', 'population': '583756'}</t>
-  </si>
-  <si>
     <t>{'place_name': 'England', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/England', 'place': 'http://sws.geonames.org/6269131/', 'geo_link': 'http://www.geonames.org/6269131/england.html', 'lat': '51.5', 'long': '-0.11666666666666667', 'population': '50000000'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Glasgow', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Glasgow', 'place': 'http://sws.geonames.org/3333231/', 'geo_link': 'http://www.geonames.org/2648579/glasgow.html', 'lat': '55.858', 'long': '-4.259', 'population': '610268'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Magdeburg', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Magdeburg', 'place': 'http://sws.geonames.org/2874545/', 'geo_link': 'http://www.geonames.org/2874544/landeshauptstadt-magdeburg.html', 'lat': '52.13333333333333', 'long': '11.616666666666667', 'population': '229924'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Leicester', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Leicester', 'place': 'http://sws.geonames.org/3333165/', 'geo_link': 'http://www.geonames.org/2644668/leicester.html', 'lat': '52.63333333333333', 'long': '-1.1333333333333333', 'population': '339239'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Miami', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Miami', 'place': 'http://sws.geonames.org/4164138/', 'postal_code': '33176', 'geo_link': 'http://www.geonames.org/4164138/miami.html', 'lat': '25.775277777777777', 'long': '-80.2088888888889', 'population': '399457'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Newark, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Newark%2C_New_Jersey', 'place': 'http://sws.geonames.org/5101798/', 'postal_code': '07191', 'geo_link': 'http://www.geonames.org/5101798/newark.html', 'lat': '40.72422', 'long': '-74.172574', 'population': '277140'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Auchtermuchty', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Auchtermuchty', 'place': 'http://sws.geonames.org/2656799/', 'geo_link': 'http://www.geonames.org/2656799/auchtermuchty.html', 'lat': '56.289754', 'long': '-3.23745', 'population': '2023'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Little Rock, Arkansas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Little_Rock%2C_Arkansas', 'place': 'http://sws.geonames.org/4119403/', 'postal_code': '72223', 'geo_link': 'http://www.geonames.org/4119403/little-rock.html', 'lat': '34.736111111111114', 'long': '-92.33111111111111', 'population': '193524'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Wasilla, Alaska', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Wasilla%2C_Alaska', 'place': 'http://sws.geonames.org/5877641/', 'postal_code': '99654', 'geo_link': 'http://www.geonames.org/5877641/wasilla.html', 'lat': '61.58166666666666', 'long': '-149.4525', 'population': '7831'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Liverpool', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Liverpool', 'place': 'http://sws.geonames.org/3333167/', 'geo_link': 'http://www.geonames.org/2644210/liverpool.html', 'lat': '53.4', 'long': '-2.9833333333333334', 'population': '468945'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Ontario', 'place': 'http://sws.geonames.org/6093943/', 'geo_link': 'http://www.geonames.org/6093943/ontario.html', 'lat': '50.0', 'long': '-85.0', 'population': '12861940'}</t>
+    <t>{'place_name': 'Berlin', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Berlin', 'place': 'http://sws.geonames.org/6547383/', 'postal_code': '10967', 'geo_link': 'http://www.geonames.org/2950157/land-berlin.html', 'lat': '52.5', 'long': '13.145833333333334', 'population': '3426354'}</t>
   </si>
 </sst>
 </file>
@@ -2100,22 +2172,22 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G2" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="I2">
-        <v>1.858938932418823</v>
+        <v>1.124732732772827</v>
       </c>
       <c r="J2">
-        <v>16.49571347236633</v>
+        <v>4.936563968658447</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2132,22 +2204,19 @@
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G3" t="s">
-        <v>469</v>
+        <v>393</v>
       </c>
       <c r="I3">
-        <v>1.140616416931152</v>
+        <v>0.9372713565826416</v>
       </c>
       <c r="J3">
-        <v>5.029794931411743</v>
+        <v>32.08616828918457</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2164,28 +2233,28 @@
         <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G4" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="H4" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="I4">
-        <v>1.218483448028564</v>
+        <v>0.8591678142547607</v>
       </c>
       <c r="J4">
-        <v>34.36764287948608</v>
+        <v>32.69539356231689</v>
       </c>
       <c r="K4">
-        <v>0.1246824264526367</v>
+        <v>0.09373140335083008</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2199,28 +2268,25 @@
         <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>306</v>
       </c>
       <c r="F5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G5" t="s">
-        <v>471</v>
-      </c>
-      <c r="H5" t="s">
-        <v>529</v>
+        <v>479</v>
       </c>
       <c r="I5">
-        <v>1.31239914894104</v>
+        <v>1.093260288238525</v>
       </c>
       <c r="J5">
-        <v>8.732454776763916</v>
+        <v>10.8568069934845</v>
       </c>
       <c r="K5">
-        <v>0.1248507499694824</v>
+        <v>0.1093473434448242</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2234,22 +2300,25 @@
         <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
-      </c>
-      <c r="F6" t="s">
-        <v>397</v>
+        <v>307</v>
+      </c>
+      <c r="G6" t="s">
+        <v>480</v>
+      </c>
+      <c r="H6" t="s">
+        <v>544</v>
       </c>
       <c r="I6">
-        <v>1.249437808990479</v>
+        <v>0.6404790878295898</v>
       </c>
       <c r="J6">
-        <v>31.83625888824463</v>
+        <v>32.68062305450439</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1561801433563232</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2263,22 +2332,28 @@
         <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F7" t="s">
-        <v>398</v>
+        <v>396</v>
+      </c>
+      <c r="G7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H7" t="s">
+        <v>545</v>
       </c>
       <c r="I7">
-        <v>1.530887603759766</v>
+        <v>1.187219381332397</v>
       </c>
       <c r="J7">
-        <v>51.51906251907349</v>
+        <v>9.216561555862427</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1093480587005615</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2292,19 +2367,16 @@
         <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E8" t="s">
-        <v>307</v>
-      </c>
-      <c r="F8" t="s">
-        <v>399</v>
+        <v>309</v>
       </c>
       <c r="I8">
-        <v>1.749452114105225</v>
+        <v>0.4061341285705566</v>
       </c>
       <c r="J8">
-        <v>31.02481937408447</v>
+        <v>32.10179901123047</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2321,28 +2393,28 @@
         <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G9" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="H9" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="I9">
-        <v>1.171327829360962</v>
+        <v>1.390297412872314</v>
       </c>
       <c r="J9">
-        <v>11.79424023628235</v>
+        <v>12.38770461082458</v>
       </c>
       <c r="K9">
-        <v>0.124969482421875</v>
+        <v>0.124964714050293</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2356,22 +2428,28 @@
         <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F10" t="s">
-        <v>401</v>
+        <v>398</v>
+      </c>
+      <c r="G10" t="s">
+        <v>483</v>
+      </c>
+      <c r="H10" t="s">
+        <v>547</v>
       </c>
       <c r="I10">
-        <v>7.326408863067627</v>
+        <v>1.202819585800171</v>
       </c>
       <c r="J10">
-        <v>30.21163845062256</v>
+        <v>8.466747045516968</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1247649192810059</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2385,28 +2463,25 @@
         <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G11" t="s">
-        <v>473</v>
-      </c>
-      <c r="H11" t="s">
-        <v>531</v>
+        <v>484</v>
       </c>
       <c r="I11">
-        <v>1.390554666519165</v>
+        <v>1.124732255935669</v>
       </c>
       <c r="J11">
-        <v>10.02910304069519</v>
+        <v>5.467684507369995</v>
       </c>
       <c r="K11">
-        <v>0.1559717655181885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2420,28 +2495,28 @@
         <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G12" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="H12" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="I12">
-        <v>7.341856002807617</v>
+        <v>1.593335866928101</v>
       </c>
       <c r="J12">
-        <v>12.02826380729675</v>
+        <v>10.15413069725037</v>
       </c>
       <c r="K12">
-        <v>0.1094634532928467</v>
+        <v>0.10935378074646</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2455,28 +2530,19 @@
         <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>312</v>
-      </c>
-      <c r="F13" t="s">
-        <v>404</v>
-      </c>
-      <c r="G13" t="s">
-        <v>475</v>
-      </c>
-      <c r="H13" t="s">
-        <v>533</v>
+        <v>314</v>
       </c>
       <c r="I13">
-        <v>1.359286308288574</v>
+        <v>0.3904924392700195</v>
       </c>
       <c r="J13">
-        <v>7.919924736022949</v>
+        <v>30.93022227287292</v>
       </c>
       <c r="K13">
-        <v>0.09373164176940918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2490,19 +2556,22 @@
         <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E14" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F14" t="s">
-        <v>405</v>
+        <v>401</v>
+      </c>
+      <c r="G14" t="s">
+        <v>486</v>
       </c>
       <c r="I14">
-        <v>1.343462944030762</v>
+        <v>1.218461275100708</v>
       </c>
       <c r="J14">
-        <v>31.35257697105408</v>
+        <v>4.37400484085083</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2519,16 +2588,16 @@
         <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E15" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I15">
-        <v>0.3903002738952637</v>
+        <v>0.4842443466186523</v>
       </c>
       <c r="J15">
-        <v>31.97678256034851</v>
+        <v>51.90983986854553</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2545,28 +2614,25 @@
         <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E16" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F16" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H16" t="s">
-        <v>534</v>
+        <v>487</v>
       </c>
       <c r="I16">
-        <v>1.109367847442627</v>
+        <v>2.280715942382812</v>
       </c>
       <c r="J16">
-        <v>10.56024074554443</v>
+        <v>39.74129700660706</v>
       </c>
       <c r="K16">
-        <v>0.1090846061706543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2580,28 +2646,28 @@
         <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E17" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F17" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G17" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="H17" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="I17">
-        <v>1.359223127365112</v>
+        <v>1.437407493591309</v>
       </c>
       <c r="J17">
-        <v>11.41894602775574</v>
+        <v>34.02305436134338</v>
       </c>
       <c r="K17">
-        <v>0.09380722045898438</v>
+        <v>0.1093723773956299</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2615,19 +2681,28 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E18" t="s">
-        <v>317</v>
+        <v>319</v>
+      </c>
+      <c r="F18" t="s">
+        <v>404</v>
+      </c>
+      <c r="G18" t="s">
+        <v>489</v>
+      </c>
+      <c r="H18" t="s">
+        <v>550</v>
       </c>
       <c r="I18">
-        <v>0.5933821201324463</v>
+        <v>1.046332836151123</v>
       </c>
       <c r="J18">
-        <v>31.36756587028503</v>
+        <v>6.732602596282959</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1095206737518311</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2641,16 +2716,19 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E19" t="s">
-        <v>318</v>
+        <v>320</v>
+      </c>
+      <c r="F19" t="s">
+        <v>405</v>
       </c>
       <c r="I19">
-        <v>6.404762268066406</v>
+        <v>1.374678134918213</v>
       </c>
       <c r="J19">
-        <v>31.66557478904724</v>
+        <v>31.44595193862915</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2667,28 +2745,25 @@
         <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G20" t="s">
-        <v>478</v>
-      </c>
-      <c r="H20" t="s">
-        <v>536</v>
+        <v>490</v>
       </c>
       <c r="I20">
-        <v>1.171596050262451</v>
+        <v>1.890445709228516</v>
       </c>
       <c r="J20">
-        <v>10.70056319236755</v>
+        <v>16.15216422080994</v>
       </c>
       <c r="K20">
-        <v>0.1249721050262451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2705,13 +2780,19 @@
         <v>227</v>
       </c>
       <c r="E21" t="s">
-        <v>320</v>
+        <v>321</v>
+      </c>
+      <c r="F21" t="s">
+        <v>407</v>
+      </c>
+      <c r="G21" t="s">
+        <v>491</v>
       </c>
       <c r="I21">
-        <v>0.4376657009124756</v>
+        <v>1.171592950820923</v>
       </c>
       <c r="J21">
-        <v>52.73725962638855</v>
+        <v>14.5596067905426</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2731,25 +2812,25 @@
         <v>228</v>
       </c>
       <c r="E22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G22" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="H22" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="I22">
-        <v>1.062246561050415</v>
+        <v>1.327813386917114</v>
       </c>
       <c r="J22">
-        <v>10.29444074630737</v>
+        <v>8.560518264770508</v>
       </c>
       <c r="K22">
-        <v>0.09372901916503906</v>
+        <v>0.1405570507049561</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2766,25 +2847,19 @@
         <v>229</v>
       </c>
       <c r="E23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F23" t="s">
-        <v>410</v>
-      </c>
-      <c r="G23" t="s">
-        <v>480</v>
-      </c>
-      <c r="H23" t="s">
-        <v>537</v>
+        <v>409</v>
       </c>
       <c r="I23">
-        <v>0.9841516017913818</v>
+        <v>1.812303066253662</v>
       </c>
       <c r="J23">
-        <v>9.420422792434692</v>
+        <v>30.22699046134949</v>
       </c>
       <c r="K23">
-        <v>0.109328031539917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2801,25 +2876,25 @@
         <v>230</v>
       </c>
       <c r="E24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G24" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="H24" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="I24">
-        <v>1.54671049118042</v>
+        <v>0.9062471389770508</v>
       </c>
       <c r="J24">
-        <v>10.48187708854675</v>
+        <v>31.03953719139099</v>
       </c>
       <c r="K24">
-        <v>0.1090867519378662</v>
+        <v>0.124753475189209</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2836,13 +2911,19 @@
         <v>231</v>
       </c>
       <c r="E25" t="s">
-        <v>324</v>
+        <v>325</v>
+      </c>
+      <c r="F25" t="s">
+        <v>411</v>
+      </c>
+      <c r="G25" t="s">
+        <v>494</v>
       </c>
       <c r="I25">
-        <v>0.4532079696655273</v>
+        <v>0.9372749328613281</v>
       </c>
       <c r="J25">
-        <v>30.99258279800415</v>
+        <v>42.95903468132019</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2862,16 +2943,19 @@
         <v>232</v>
       </c>
       <c r="E26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F26" t="s">
         <v>412</v>
       </c>
+      <c r="G26" t="s">
+        <v>495</v>
+      </c>
       <c r="I26">
-        <v>1.328066110610962</v>
+        <v>1.624382257461548</v>
       </c>
       <c r="J26">
-        <v>31.78908395767212</v>
+        <v>18.79243755340576</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2891,13 +2975,16 @@
         <v>233</v>
       </c>
       <c r="E27" t="s">
-        <v>326</v>
+        <v>327</v>
+      </c>
+      <c r="F27" t="s">
+        <v>413</v>
       </c>
       <c r="I27">
-        <v>0.4842982292175293</v>
+        <v>1.390305519104004</v>
       </c>
       <c r="J27">
-        <v>30.55539584159851</v>
+        <v>52.76900148391724</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2917,13 +3004,19 @@
         <v>234</v>
       </c>
       <c r="E28" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c r="F28" t="s">
+        <v>414</v>
+      </c>
+      <c r="G28" t="s">
+        <v>496</v>
       </c>
       <c r="I28">
-        <v>0.4217417240142822</v>
+        <v>1.405918598175049</v>
       </c>
       <c r="J28">
-        <v>0.1874537467956543</v>
+        <v>15.15265822410583</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2943,16 +3036,25 @@
         <v>235</v>
       </c>
       <c r="E29" t="s">
-        <v>328</v>
+        <v>329</v>
+      </c>
+      <c r="F29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G29" t="s">
+        <v>497</v>
+      </c>
+      <c r="H29" t="s">
+        <v>553</v>
       </c>
       <c r="I29">
-        <v>0.4218101501464844</v>
+        <v>0.9218900203704834</v>
       </c>
       <c r="J29">
-        <v>31.25823259353638</v>
+        <v>9.107674360275269</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>0.09371376037597656</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2969,19 +3071,13 @@
         <v>236</v>
       </c>
       <c r="E30" t="s">
-        <v>329</v>
-      </c>
-      <c r="F30" t="s">
-        <v>413</v>
-      </c>
-      <c r="G30" t="s">
-        <v>482</v>
+        <v>330</v>
       </c>
       <c r="I30">
-        <v>2.327591419219971</v>
+        <v>0.5779867172241211</v>
       </c>
       <c r="J30">
-        <v>17.29275107383728</v>
+        <v>30.58651804924011</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3001,13 +3097,16 @@
         <v>237</v>
       </c>
       <c r="E31" t="s">
-        <v>330</v>
+        <v>331</v>
+      </c>
+      <c r="F31" t="s">
+        <v>416</v>
       </c>
       <c r="I31">
-        <v>0.5622186660766602</v>
+        <v>1.140351295471191</v>
       </c>
       <c r="J31">
-        <v>30.24282574653625</v>
+        <v>30.61775946617126</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3027,19 +3126,16 @@
         <v>238</v>
       </c>
       <c r="E32" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F32" t="s">
-        <v>414</v>
-      </c>
-      <c r="G32" t="s">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="I32">
-        <v>1.233855485916138</v>
+        <v>1.249931335449219</v>
       </c>
       <c r="J32">
-        <v>29.71187305450439</v>
+        <v>30.58629989624023</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3059,25 +3155,25 @@
         <v>239</v>
       </c>
       <c r="E33" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F33" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G33" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="H33" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="I33">
-        <v>1.9213707447052</v>
+        <v>1.390296697616577</v>
       </c>
       <c r="J33">
-        <v>31.82153677940369</v>
+        <v>32.19650340080261</v>
       </c>
       <c r="K33">
-        <v>0.1247568130493164</v>
+        <v>0.1093370914459229</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3094,16 +3190,16 @@
         <v>240</v>
       </c>
       <c r="E34" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F34" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="I34">
-        <v>1.234210968017578</v>
+        <v>1.484021902084351</v>
       </c>
       <c r="J34">
-        <v>31.21151447296143</v>
+        <v>30.72710919380188</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3123,19 +3219,19 @@
         <v>241</v>
       </c>
       <c r="E35" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F35" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G35" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="I35">
-        <v>1.671481609344482</v>
+        <v>1.655856370925903</v>
       </c>
       <c r="J35">
-        <v>16.30863499641418</v>
+        <v>18.82367610931396</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3155,25 +3251,16 @@
         <v>242</v>
       </c>
       <c r="E36" t="s">
-        <v>335</v>
-      </c>
-      <c r="F36" t="s">
-        <v>418</v>
-      </c>
-      <c r="G36" t="s">
-        <v>486</v>
-      </c>
-      <c r="H36" t="s">
-        <v>540</v>
+        <v>336</v>
       </c>
       <c r="I36">
-        <v>1.530887365341187</v>
+        <v>0.4061145782470703</v>
       </c>
       <c r="J36">
-        <v>8.341774702072144</v>
+        <v>31.60167503356934</v>
       </c>
       <c r="K36">
-        <v>0.1249687671661377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3190,16 +3277,25 @@
         <v>243</v>
       </c>
       <c r="E37" t="s">
-        <v>336</v>
+        <v>337</v>
+      </c>
+      <c r="F37" t="s">
+        <v>421</v>
+      </c>
+      <c r="G37" t="s">
+        <v>500</v>
+      </c>
+      <c r="H37" t="s">
+        <v>555</v>
       </c>
       <c r="I37">
-        <v>0.4061410427093506</v>
+        <v>1.21818733215332</v>
       </c>
       <c r="J37">
-        <v>30.25913715362549</v>
+        <v>10.04468107223511</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>0.1406850814819336</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3216,19 +3312,25 @@
         <v>244</v>
       </c>
       <c r="E38" t="s">
-        <v>337</v>
+        <v>146</v>
+      </c>
+      <c r="F38" t="s">
+        <v>422</v>
       </c>
       <c r="G38" t="s">
-        <v>487</v>
+        <v>501</v>
+      </c>
+      <c r="H38" t="s">
+        <v>556</v>
       </c>
       <c r="I38">
-        <v>0.5467441082000732</v>
+        <v>1.015382528305054</v>
       </c>
       <c r="J38">
-        <v>34.10131406784058</v>
+        <v>8.936081409454346</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.1093530654907227</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3242,28 +3344,28 @@
         <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E39" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F39" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G39" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="H39" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="I39">
-        <v>1.718262434005737</v>
+        <v>0.8747828006744385</v>
       </c>
       <c r="J39">
-        <v>10.34195733070374</v>
+        <v>13.55952548980713</v>
       </c>
       <c r="K39">
-        <v>0.1248211860656738</v>
+        <v>0.1874611377716064</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3277,19 +3379,16 @@
         <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E40" t="s">
-        <v>338</v>
-      </c>
-      <c r="F40" t="s">
-        <v>420</v>
+        <v>339</v>
       </c>
       <c r="I40">
-        <v>1.062222957611084</v>
+        <v>0.4061555862426758</v>
       </c>
       <c r="J40">
-        <v>0.125232458114624</v>
+        <v>30.58712363243103</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3306,22 +3405,28 @@
         <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E41" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="F41" t="s">
-        <v>421</v>
+        <v>424</v>
+      </c>
+      <c r="G41" t="s">
+        <v>503</v>
+      </c>
+      <c r="H41" t="s">
+        <v>558</v>
       </c>
       <c r="I41">
-        <v>1.609149694442749</v>
+        <v>1.109078884124756</v>
       </c>
       <c r="J41">
-        <v>31.02375388145447</v>
+        <v>10.02864098548889</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>0.1249732971191406</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3340,14 +3445,23 @@
       <c r="E42" t="s">
         <v>340</v>
       </c>
+      <c r="F42" t="s">
+        <v>425</v>
+      </c>
+      <c r="G42" t="s">
+        <v>504</v>
+      </c>
+      <c r="H42" t="s">
+        <v>559</v>
+      </c>
       <c r="I42">
-        <v>0.4840312004089355</v>
+        <v>1.280944108963013</v>
       </c>
       <c r="J42">
-        <v>53.19126462936401</v>
+        <v>9.31032395362854</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>0.1406018733978271</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3367,22 +3481,19 @@
         <v>341</v>
       </c>
       <c r="F43" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G43" t="s">
-        <v>489</v>
-      </c>
-      <c r="H43" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="I43">
-        <v>1.077906847000122</v>
+        <v>1.109110832214355</v>
       </c>
       <c r="J43">
-        <v>11.65371894836426</v>
+        <v>2.890178918838501</v>
       </c>
       <c r="K43">
-        <v>0.09373354911804199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3402,16 +3513,13 @@
         <v>342</v>
       </c>
       <c r="F44" t="s">
-        <v>423</v>
-      </c>
-      <c r="G44" t="s">
-        <v>490</v>
+        <v>427</v>
       </c>
       <c r="I44">
-        <v>2.124421358108521</v>
+        <v>0.8591625690460205</v>
       </c>
       <c r="J44">
-        <v>18.4799633026123</v>
+        <v>31.92995548248291</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3434,19 +3542,22 @@
         <v>343</v>
       </c>
       <c r="F45" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="G45" t="s">
-        <v>491</v>
+        <v>506</v>
+      </c>
+      <c r="H45" t="s">
+        <v>560</v>
       </c>
       <c r="I45">
-        <v>2.421303033828735</v>
+        <v>1.218720674514771</v>
       </c>
       <c r="J45">
-        <v>21.19818878173828</v>
+        <v>12.62250757217407</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>0.1403570175170898</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3466,13 +3577,13 @@
         <v>344</v>
       </c>
       <c r="F46" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="I46">
-        <v>1.905767917633057</v>
+        <v>1.132316112518311</v>
       </c>
       <c r="J46">
-        <v>31.80572962760925</v>
+        <v>31.63172650337219</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3494,17 +3605,11 @@
       <c r="E47" t="s">
         <v>345</v>
       </c>
-      <c r="F47" t="s">
-        <v>426</v>
-      </c>
-      <c r="G47" t="s">
-        <v>492</v>
-      </c>
       <c r="I47">
-        <v>1.07785177230835</v>
+        <v>0.4218976497650146</v>
       </c>
       <c r="J47">
-        <v>4.452084064483643</v>
+        <v>32.62600183486938</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3527,22 +3632,16 @@
         <v>346</v>
       </c>
       <c r="F48" t="s">
-        <v>427</v>
-      </c>
-      <c r="G48" t="s">
-        <v>493</v>
-      </c>
-      <c r="H48" t="s">
-        <v>542</v>
+        <v>430</v>
       </c>
       <c r="I48">
-        <v>1.671539783477783</v>
+        <v>0.937307596206665</v>
       </c>
       <c r="J48">
-        <v>0.1249728202819824</v>
+        <v>31.430180311203</v>
       </c>
       <c r="K48">
-        <v>0.1093318462371826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3562,22 +3661,22 @@
         <v>347</v>
       </c>
       <c r="F49" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G49" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="H49" t="s">
         <v>543</v>
       </c>
       <c r="I49">
-        <v>1.124739646911621</v>
+        <v>1.17155933380127</v>
       </c>
       <c r="J49">
-        <v>21.18229937553406</v>
+        <v>14.4342987537384</v>
       </c>
       <c r="K49">
-        <v>0.1094937324523926</v>
+        <v>0.2031137943267822</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3597,13 +3696,16 @@
         <v>348</v>
       </c>
       <c r="F50" t="s">
-        <v>429</v>
+        <v>432</v>
+      </c>
+      <c r="G50" t="s">
+        <v>508</v>
       </c>
       <c r="I50">
-        <v>1.124732494354248</v>
+        <v>1.18736720085144</v>
       </c>
       <c r="J50">
-        <v>30.64900016784668</v>
+        <v>9.529114723205566</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3626,22 +3728,16 @@
         <v>349</v>
       </c>
       <c r="F51" t="s">
-        <v>430</v>
-      </c>
-      <c r="G51" t="s">
-        <v>495</v>
-      </c>
-      <c r="H51" t="s">
-        <v>544</v>
+        <v>433</v>
       </c>
       <c r="I51">
-        <v>1.124746799468994</v>
+        <v>1.390300273895264</v>
       </c>
       <c r="J51">
-        <v>9.732079744338989</v>
+        <v>31.72686815261841</v>
       </c>
       <c r="K51">
-        <v>0.09372282028198242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3660,14 +3756,23 @@
       <c r="E52" t="s">
         <v>350</v>
       </c>
+      <c r="F52" t="s">
+        <v>434</v>
+      </c>
+      <c r="G52" t="s">
+        <v>509</v>
+      </c>
+      <c r="H52" t="s">
+        <v>549</v>
+      </c>
       <c r="I52">
-        <v>0.4374008178710938</v>
+        <v>1.093727588653564</v>
       </c>
       <c r="J52">
-        <v>31.82058835029602</v>
+        <v>34.32486915588379</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>0.1090865135192871</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3687,22 +3792,22 @@
         <v>351</v>
       </c>
       <c r="F53" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G53" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="H53" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="I53">
-        <v>1.718374252319336</v>
+        <v>1.244060277938843</v>
       </c>
       <c r="J53">
-        <v>11.1230788230896</v>
+        <v>10.95509719848633</v>
       </c>
       <c r="K53">
-        <v>0.1090860366821289</v>
+        <v>0.1188690662384033</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3721,20 +3826,23 @@
       <c r="E54" t="s">
         <v>352</v>
       </c>
+      <c r="F54" t="s">
+        <v>436</v>
+      </c>
       <c r="G54" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="H54" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="I54">
-        <v>0.3907742500305176</v>
+        <v>1.292960166931152</v>
       </c>
       <c r="J54">
-        <v>11.55883359909058</v>
+        <v>11.03122735023499</v>
       </c>
       <c r="K54">
-        <v>0.09375429153442383</v>
+        <v>0.109304666519165</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3748,25 +3856,22 @@
         <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="E55" t="s">
-        <v>304</v>
-      </c>
-      <c r="G55" t="s">
-        <v>498</v>
-      </c>
-      <c r="H55" t="s">
-        <v>528</v>
+        <v>353</v>
+      </c>
+      <c r="F55" t="s">
+        <v>437</v>
       </c>
       <c r="I55">
-        <v>0.5001006126403809</v>
+        <v>1.765207529067993</v>
       </c>
       <c r="J55">
-        <v>32.02374577522278</v>
+        <v>31.67220449447632</v>
       </c>
       <c r="K55">
-        <v>0.1093888282775879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3780,22 +3885,28 @@
         <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E56" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F56" t="s">
-        <v>432</v>
+        <v>438</v>
+      </c>
+      <c r="G56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H56" t="s">
+        <v>547</v>
       </c>
       <c r="I56">
-        <v>1.046893119812012</v>
+        <v>1.515273809432983</v>
       </c>
       <c r="J56">
-        <v>30.88305568695068</v>
+        <v>31.64936876296997</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>0.1093087196350098</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3809,28 +3920,28 @@
         <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E57" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F57" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="G57" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="H57" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="I57">
-        <v>1.140511274337769</v>
+        <v>1.062330007553101</v>
       </c>
       <c r="J57">
-        <v>10.68474221229553</v>
+        <v>10.55474710464478</v>
       </c>
       <c r="K57">
-        <v>0.09380292892456055</v>
+        <v>0.1094186305999756</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3844,25 +3955,28 @@
         <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E58" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F58" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G58" t="s">
-        <v>500</v>
+        <v>514</v>
+      </c>
+      <c r="H58" t="s">
+        <v>564</v>
       </c>
       <c r="I58">
-        <v>1.390296697616577</v>
+        <v>1.374797344207764</v>
       </c>
       <c r="J58">
-        <v>3.061779737472534</v>
+        <v>11.55407476425171</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>0.124842643737793</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3876,25 +3990,28 @@
         <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F59" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="G59" t="s">
-        <v>501</v>
+        <v>515</v>
+      </c>
+      <c r="H59" t="s">
+        <v>565</v>
       </c>
       <c r="I59">
-        <v>1.90655779838562</v>
+        <v>1.078136205673218</v>
       </c>
       <c r="J59">
-        <v>16.7145664691925</v>
+        <v>12.74669075012207</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>0.09372758865356445</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3908,28 +4025,28 @@
         <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E60" t="s">
-        <v>357</v>
+        <v>168</v>
       </c>
       <c r="F60" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="G60" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="H60" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="I60">
-        <v>1.671698331832886</v>
+        <v>0.937518835067749</v>
       </c>
       <c r="J60">
-        <v>9.732227087020874</v>
+        <v>10.62305307388306</v>
       </c>
       <c r="K60">
-        <v>0.1247513294219971</v>
+        <v>0.1247546672821045</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3943,19 +4060,22 @@
         <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E61" t="s">
         <v>358</v>
       </c>
       <c r="F61" t="s">
-        <v>437</v>
+        <v>443</v>
+      </c>
+      <c r="G61" t="s">
+        <v>517</v>
       </c>
       <c r="I61">
-        <v>1.124739170074463</v>
+        <v>1.374674320220947</v>
       </c>
       <c r="J61">
-        <v>31.00829339027405</v>
+        <v>18.1056067943573</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -3972,28 +4092,25 @@
         <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E62" t="s">
         <v>359</v>
       </c>
       <c r="F62" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="G62" t="s">
-        <v>503</v>
-      </c>
-      <c r="H62" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="I62">
-        <v>1.093761920928955</v>
+        <v>2.311984300613403</v>
       </c>
       <c r="J62">
-        <v>11.65328311920166</v>
+        <v>38.41303205490112</v>
       </c>
       <c r="K62">
-        <v>0.09369897842407227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4010,16 +4127,19 @@
         <v>267</v>
       </c>
       <c r="E63" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F63" t="s">
-        <v>439</v>
+        <v>445</v>
+      </c>
+      <c r="G63" t="s">
+        <v>519</v>
       </c>
       <c r="I63">
-        <v>0.9216408729553223</v>
+        <v>1.609233140945435</v>
       </c>
       <c r="J63">
-        <v>31.03952026367188</v>
+        <v>15.85166907310486</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -4039,25 +4159,16 @@
         <v>268</v>
       </c>
       <c r="E64" t="s">
-        <v>361</v>
-      </c>
-      <c r="F64" t="s">
-        <v>440</v>
-      </c>
-      <c r="G64" t="s">
-        <v>504</v>
-      </c>
-      <c r="H64" t="s">
-        <v>549</v>
+        <v>360</v>
       </c>
       <c r="I64">
-        <v>1.764985799789429</v>
+        <v>0.3905324935913086</v>
       </c>
       <c r="J64">
-        <v>12.38754081726074</v>
+        <v>31.50816488265991</v>
       </c>
       <c r="K64">
-        <v>0.1095037460327148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4074,25 +4185,19 @@
         <v>269</v>
       </c>
       <c r="E65" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F65" t="s">
-        <v>441</v>
-      </c>
-      <c r="G65" t="s">
-        <v>505</v>
-      </c>
-      <c r="H65" t="s">
-        <v>550</v>
+        <v>446</v>
       </c>
       <c r="I65">
-        <v>1.077866077423096</v>
+        <v>1.2812180519104</v>
       </c>
       <c r="J65">
-        <v>11.9043128490448</v>
+        <v>30.21636128425598</v>
       </c>
       <c r="K65">
-        <v>0.1249754428863525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4109,19 +4214,13 @@
         <v>270</v>
       </c>
       <c r="E66" t="s">
-        <v>363</v>
-      </c>
-      <c r="F66" t="s">
-        <v>442</v>
-      </c>
-      <c r="G66" t="s">
-        <v>506</v>
+        <v>362</v>
       </c>
       <c r="I66">
-        <v>2.124491214752197</v>
+        <v>0.4373927116394043</v>
       </c>
       <c r="J66">
-        <v>17.0894820690155</v>
+        <v>32.13298392295837</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4141,16 +4240,19 @@
         <v>271</v>
       </c>
       <c r="E67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F67" t="s">
-        <v>443</v>
+        <v>447</v>
+      </c>
+      <c r="G67" t="s">
+        <v>520</v>
       </c>
       <c r="I67">
-        <v>3.093012094497681</v>
+        <v>1.015565395355225</v>
       </c>
       <c r="J67">
-        <v>32.10201573371887</v>
+        <v>16.21467804908752</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -4170,19 +4272,16 @@
         <v>272</v>
       </c>
       <c r="E68" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F68" t="s">
-        <v>444</v>
-      </c>
-      <c r="G68" t="s">
-        <v>507</v>
+        <v>448</v>
       </c>
       <c r="I68">
-        <v>0.9060320854187012</v>
+        <v>4.077425479888916</v>
       </c>
       <c r="J68">
-        <v>19.23011183738708</v>
+        <v>31.00201058387756</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -4202,13 +4301,13 @@
         <v>273</v>
       </c>
       <c r="E69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I69">
-        <v>0.4217703342437744</v>
+        <v>0.4064195156097412</v>
       </c>
       <c r="J69">
-        <v>30.63338828086853</v>
+        <v>30.83677959442139</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -4222,28 +4321,31 @@
         <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
         <v>274</v>
       </c>
       <c r="E70" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F70" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G70" t="s">
-        <v>508</v>
+        <v>521</v>
+      </c>
+      <c r="H70" t="s">
+        <v>567</v>
       </c>
       <c r="I70">
-        <v>1.952654123306274</v>
+        <v>1.968282222747803</v>
       </c>
       <c r="J70">
-        <v>3.967820405960083</v>
+        <v>11.27837491035461</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>0.1095597743988037</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4254,31 +4356,31 @@
         <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D71" t="s">
         <v>275</v>
       </c>
       <c r="E71" t="s">
-        <v>368</v>
+        <v>178</v>
       </c>
       <c r="F71" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G71" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="H71" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="I71">
-        <v>1.296569585800171</v>
+        <v>1.608993053436279</v>
       </c>
       <c r="J71">
-        <v>9.092021942138672</v>
+        <v>10.15376710891724</v>
       </c>
       <c r="K71">
-        <v>0.1251847743988037</v>
+        <v>0.109433650970459</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4289,31 +4391,25 @@
         <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D72" t="s">
         <v>276</v>
       </c>
       <c r="E72" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F72" t="s">
-        <v>447</v>
-      </c>
-      <c r="G72" t="s">
-        <v>510</v>
-      </c>
-      <c r="H72" t="s">
-        <v>552</v>
+        <v>451</v>
       </c>
       <c r="I72">
-        <v>1.74984073638916</v>
+        <v>0.890411376953125</v>
       </c>
       <c r="J72">
-        <v>33.33560132980347</v>
+        <v>30.96143102645874</v>
       </c>
       <c r="K72">
-        <v>0.1250107288360596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4324,31 +4420,31 @@
         <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D73" t="s">
         <v>277</v>
       </c>
       <c r="E73" t="s">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="F73" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G73" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="H73" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="I73">
-        <v>2.03098464012146</v>
+        <v>0.9375708103179932</v>
       </c>
       <c r="J73">
-        <v>10.74742984771729</v>
+        <v>10.231853723526</v>
       </c>
       <c r="K73">
-        <v>0.09351563453674316</v>
+        <v>0.1091830730438232</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4365,19 +4461,13 @@
         <v>278</v>
       </c>
       <c r="E74" t="s">
-        <v>371</v>
-      </c>
-      <c r="F74" t="s">
-        <v>449</v>
-      </c>
-      <c r="G74" t="s">
-        <v>512</v>
+        <v>368</v>
       </c>
       <c r="I74">
-        <v>1.749585866928101</v>
+        <v>0.4686403274536133</v>
       </c>
       <c r="J74">
-        <v>15.55881786346436</v>
+        <v>31.16515803337097</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -4394,28 +4484,25 @@
         <v>182</v>
       </c>
       <c r="D75" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="E75" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="F75" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G75" t="s">
-        <v>513</v>
-      </c>
-      <c r="H75" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="I75">
-        <v>1.515533208847046</v>
+        <v>1.280936479568481</v>
       </c>
       <c r="J75">
-        <v>9.388171195983887</v>
+        <v>4.061536312103271</v>
       </c>
       <c r="K75">
-        <v>0.1093161106109619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4429,22 +4516,28 @@
         <v>183</v>
       </c>
       <c r="D76" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E76" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F76" t="s">
-        <v>451</v>
+        <v>454</v>
+      </c>
+      <c r="G76" t="s">
+        <v>525</v>
+      </c>
+      <c r="H76" t="s">
+        <v>570</v>
       </c>
       <c r="I76">
-        <v>1.499414205551147</v>
+        <v>1.937092065811157</v>
       </c>
       <c r="J76">
-        <v>30.27480149269104</v>
+        <v>9.85677695274353</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>0.1096138954162598</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4458,28 +4551,25 @@
         <v>184</v>
       </c>
       <c r="D77" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E77" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F77" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G77" t="s">
-        <v>514</v>
-      </c>
-      <c r="H77" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="I77">
-        <v>0.9215002059936523</v>
+        <v>2.796105146408081</v>
       </c>
       <c r="J77">
-        <v>0.1252002716064453</v>
+        <v>38.25656461715698</v>
       </c>
       <c r="K77">
-        <v>0.09372448921203613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4493,16 +4583,22 @@
         <v>185</v>
       </c>
       <c r="D78" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E78" t="s">
-        <v>374</v>
+        <v>372</v>
+      </c>
+      <c r="F78" t="s">
+        <v>456</v>
+      </c>
+      <c r="G78" t="s">
+        <v>527</v>
       </c>
       <c r="I78">
-        <v>0.5155036449432373</v>
+        <v>1.499658823013306</v>
       </c>
       <c r="J78">
-        <v>31.41460967063904</v>
+        <v>24.18586611747742</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -4515,24 +4611,32 @@
       <c r="B79" t="s">
         <v>87</v>
       </c>
-      <c r="C79">
-        <f/>
-        <v>0</v>
+      <c r="C79" t="s">
+        <v>186</v>
       </c>
       <c r="D79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E79" t="s">
-        <v>375</v>
+        <v>373</v>
+      </c>
+      <c r="F79" t="s">
+        <v>457</v>
+      </c>
+      <c r="G79" t="s">
+        <v>528</v>
+      </c>
+      <c r="H79" t="s">
+        <v>565</v>
       </c>
       <c r="I79">
-        <v>0.5467448234558105</v>
+        <v>1.733931303024292</v>
       </c>
       <c r="J79">
-        <v>46.37965250015259</v>
+        <v>9.622711658477783</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>0.09376120567321777</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4543,22 +4647,31 @@
         <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D80" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E80" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="F80" t="s">
+        <v>458</v>
+      </c>
+      <c r="G80" t="s">
+        <v>529</v>
+      </c>
+      <c r="H80" t="s">
+        <v>553</v>
       </c>
       <c r="I80">
-        <v>0.4374589920043945</v>
+        <v>1.186954736709595</v>
       </c>
       <c r="J80">
-        <v>52.86347246170044</v>
+        <v>13.34131836891174</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>0.1093502044677734</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4569,31 +4682,22 @@
         <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D81" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="E81" t="s">
-        <v>370</v>
-      </c>
-      <c r="F81" t="s">
-        <v>453</v>
-      </c>
-      <c r="G81" t="s">
-        <v>515</v>
-      </c>
-      <c r="H81" t="s">
-        <v>553</v>
+        <v>375</v>
       </c>
       <c r="I81">
-        <v>5.639532804489136</v>
+        <v>0.499802827835083</v>
       </c>
       <c r="J81">
-        <v>8.65416955947876</v>
+        <v>31.49267172813416</v>
       </c>
       <c r="K81">
-        <v>0.09372520446777344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4604,22 +4708,31 @@
         <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E82" t="s">
-        <v>377</v>
+        <v>376</v>
+      </c>
+      <c r="F82" t="s">
+        <v>459</v>
+      </c>
+      <c r="G82" t="s">
+        <v>530</v>
+      </c>
+      <c r="H82" t="s">
+        <v>571</v>
       </c>
       <c r="I82">
-        <v>0.4061543941497803</v>
+        <v>1.094053268432617</v>
       </c>
       <c r="J82">
-        <v>31.10201239585876</v>
+        <v>10.15411019325256</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>0.1093089580535889</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4630,25 +4743,19 @@
         <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D83" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E83" t="s">
-        <v>189</v>
-      </c>
-      <c r="F83" t="s">
-        <v>454</v>
-      </c>
-      <c r="G83" t="s">
-        <v>516</v>
+        <v>377</v>
       </c>
       <c r="I83">
-        <v>1.437162399291992</v>
+        <v>0.4217522144317627</v>
       </c>
       <c r="J83">
-        <v>3.233610391616821</v>
+        <v>32.08621668815613</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -4662,31 +4769,28 @@
         <v>92</v>
       </c>
       <c r="C84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D84" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="E84" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="F84" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="G84" t="s">
-        <v>517</v>
-      </c>
-      <c r="H84" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="I84">
-        <v>1.234315633773804</v>
+        <v>0.9219131469726562</v>
       </c>
       <c r="J84">
-        <v>8.747694492340088</v>
+        <v>18.21458864212036</v>
       </c>
       <c r="K84">
-        <v>0.09372544288635254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4697,28 +4801,31 @@
         <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D85" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E85" t="s">
-        <v>191</v>
+        <v>379</v>
       </c>
       <c r="F85" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="G85" t="s">
-        <v>518</v>
+        <v>532</v>
+      </c>
+      <c r="H85" t="s">
+        <v>572</v>
       </c>
       <c r="I85">
-        <v>1.203079700469971</v>
+        <v>1.26507306098938</v>
       </c>
       <c r="J85">
-        <v>3.358352899551392</v>
+        <v>10.76283431053162</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>0.09398365020751953</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4729,28 +4836,28 @@
         <v>94</v>
       </c>
       <c r="C86" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D86" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E86" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F86" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="G86" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="I86">
-        <v>1.09348726272583</v>
+        <v>1.977922916412354</v>
       </c>
       <c r="J86">
-        <v>9.607096195220947</v>
+        <v>33.92558407783508</v>
       </c>
       <c r="K86">
-        <v>0.09372854232788086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4761,25 +4868,22 @@
         <v>95</v>
       </c>
       <c r="C87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D87" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E87" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F87" t="s">
-        <v>458</v>
-      </c>
-      <c r="G87" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="I87">
-        <v>1.405647039413452</v>
+        <v>1.40593957901001</v>
       </c>
       <c r="J87">
-        <v>17.29282450675964</v>
+        <v>51.47216725349426</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -4793,28 +4897,31 @@
         <v>96</v>
       </c>
       <c r="C88" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D88" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E88" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F88" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="G88" t="s">
-        <v>521</v>
+        <v>534</v>
+      </c>
+      <c r="H88" t="s">
+        <v>573</v>
       </c>
       <c r="I88">
-        <v>1.499678373336792</v>
+        <v>1.280638694763184</v>
       </c>
       <c r="J88">
-        <v>16.77794480323792</v>
+        <v>9.731791019439697</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>0.1096529960632324</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4825,22 +4932,31 @@
         <v>97</v>
       </c>
       <c r="C89" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D89" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E89" t="s">
-        <v>381</v>
+        <v>382</v>
+      </c>
+      <c r="F89" t="s">
+        <v>465</v>
+      </c>
+      <c r="G89" t="s">
+        <v>535</v>
+      </c>
+      <c r="H89" t="s">
+        <v>574</v>
       </c>
       <c r="I89">
-        <v>0.4686403274536133</v>
+        <v>1.359291791915894</v>
       </c>
       <c r="J89">
-        <v>30.4773952960968</v>
+        <v>13.94993948936462</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>0.0936737060546875</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4851,22 +4967,22 @@
         <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D90" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E90" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F90" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="I90">
-        <v>1.921418428421021</v>
+        <v>1.671451330184937</v>
       </c>
       <c r="J90">
-        <v>52.23741316795349</v>
+        <v>32.05519104003906</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -4880,31 +4996,31 @@
         <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D91" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E91" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F91" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G91" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="H91" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="I91">
-        <v>2.03076958656311</v>
+        <v>1.140214443206787</v>
       </c>
       <c r="J91">
-        <v>8.810651779174805</v>
+        <v>10.32568597793579</v>
       </c>
       <c r="K91">
-        <v>0.1249692440032959</v>
+        <v>0.1093170642852783</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4915,28 +5031,31 @@
         <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D92" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E92" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F92" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="G92" t="s">
-        <v>523</v>
+        <v>537</v>
+      </c>
+      <c r="H92" t="s">
+        <v>549</v>
       </c>
       <c r="I92">
-        <v>1.078088521957397</v>
+        <v>1.640236377716064</v>
       </c>
       <c r="J92">
-        <v>4.124483823776245</v>
+        <v>10.669517993927</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>4.155272245407104</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4947,25 +5066,31 @@
         <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D93" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E93" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F93" t="s">
-        <v>463</v>
+        <v>469</v>
+      </c>
+      <c r="G93" t="s">
+        <v>538</v>
+      </c>
+      <c r="H93" t="s">
+        <v>576</v>
       </c>
       <c r="I93">
-        <v>1.062248468399048</v>
+        <v>1.124733924865723</v>
       </c>
       <c r="J93">
-        <v>30.14911603927612</v>
+        <v>9.419658660888672</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>0.1093380451202393</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4976,25 +5101,31 @@
         <v>102</v>
       </c>
       <c r="C94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D94" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E94" t="s">
-        <v>386</v>
+        <v>201</v>
       </c>
       <c r="F94" t="s">
-        <v>464</v>
+        <v>470</v>
+      </c>
+      <c r="G94" t="s">
+        <v>539</v>
+      </c>
+      <c r="H94" t="s">
+        <v>577</v>
       </c>
       <c r="I94">
-        <v>1.077881574630737</v>
+        <v>0.9526693820953369</v>
       </c>
       <c r="J94">
-        <v>30.27409267425537</v>
+        <v>30.5772225856781</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>0.1959853172302246</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5005,31 +5136,25 @@
         <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D95" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E95" t="s">
         <v>387</v>
       </c>
       <c r="F95" t="s">
-        <v>465</v>
-      </c>
-      <c r="G95" t="s">
-        <v>524</v>
-      </c>
-      <c r="H95" t="s">
-        <v>555</v>
+        <v>471</v>
       </c>
       <c r="I95">
-        <v>1.343648195266724</v>
+        <v>1.015335559844971</v>
       </c>
       <c r="J95">
-        <v>9.966379642486572</v>
+        <v>31.20886635780334</v>
       </c>
       <c r="K95">
-        <v>0.1247551441192627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5040,19 +5165,22 @@
         <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D96" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="E96" t="s">
-        <v>388</v>
+        <v>367</v>
+      </c>
+      <c r="F96" t="s">
+        <v>472</v>
       </c>
       <c r="I96">
-        <v>0.4996480941772461</v>
+        <v>1.604619026184082</v>
       </c>
       <c r="J96">
-        <v>31.96130967140198</v>
+        <v>32.07309985160828</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -5066,22 +5194,31 @@
         <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D97" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E97" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="F97" t="s">
+        <v>473</v>
+      </c>
+      <c r="G97" t="s">
+        <v>540</v>
+      </c>
+      <c r="H97" t="s">
+        <v>578</v>
       </c>
       <c r="I97">
-        <v>0.4844937324523926</v>
+        <v>1.218720197677612</v>
       </c>
       <c r="J97">
-        <v>30.3372642993927</v>
+        <v>13.47132968902588</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>0.09362363815307617</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5092,31 +5229,31 @@
         <v>106</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D98" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E98" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F98" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="G98" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="H98" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="I98">
-        <v>5.857747793197632</v>
+        <v>1.203061580657959</v>
       </c>
       <c r="J98">
-        <v>10.66936278343201</v>
+        <v>12.1687650680542</v>
       </c>
       <c r="K98">
-        <v>0.1093473434448242</v>
+        <v>0.1718380451202393</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5127,25 +5264,19 @@
         <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D99" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E99" t="s">
         <v>390</v>
       </c>
-      <c r="F99" t="s">
-        <v>467</v>
-      </c>
-      <c r="G99" t="s">
-        <v>526</v>
-      </c>
       <c r="I99">
-        <v>1.06241250038147</v>
+        <v>0.3992505073547363</v>
       </c>
       <c r="J99">
-        <v>15.16836404800415</v>
+        <v>30.66961669921875</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -5159,28 +5290,25 @@
         <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D100" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E100" t="s">
-        <v>391</v>
-      </c>
-      <c r="G100" t="s">
-        <v>527</v>
-      </c>
-      <c r="H100" t="s">
-        <v>533</v>
+        <v>207</v>
+      </c>
+      <c r="F100" t="s">
+        <v>475</v>
       </c>
       <c r="I100">
-        <v>4.374193429946899</v>
+        <v>1.441843748092651</v>
       </c>
       <c r="J100">
-        <v>12.82508444786072</v>
+        <v>31.79400444030762</v>
       </c>
       <c r="K100">
-        <v>0.1247386932373047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5191,19 +5319,25 @@
         <v>109</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D101" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E101" t="s">
-        <v>392</v>
+        <v>391</v>
+      </c>
+      <c r="F101" t="s">
+        <v>476</v>
+      </c>
+      <c r="G101" t="s">
+        <v>542</v>
       </c>
       <c r="I101">
-        <v>0.421562671661377</v>
+        <v>1.296449422836304</v>
       </c>
       <c r="J101">
-        <v>51.80091190338135</v>
+        <v>43.97680592536926</v>
       </c>
       <c r="K101">
         <v>0</v>

--- a/lod_analysis/excels/albums.xlsx
+++ b/lod_analysis/excels/albums.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fabio\Basso\Università\5° Anno 2021-2022 (Magistrale AI)\Sistemi Informativi e Web Semantico\Progetto SIWS\Music World 2.0\lod_analysis\excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4877DF47-5780-4AC5-AB9C-52F127D1D100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="albums.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1759,8 +1765,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1819,15 +1825,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1869,7 +1883,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1901,9 +1915,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1935,6 +1967,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2110,26 +2160,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="1" max="10" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2161,7 +2204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2184,16 +2227,16 @@
         <v>477</v>
       </c>
       <c r="I2">
-        <v>1.124732732772827</v>
+        <v>1.1247327327728269</v>
       </c>
       <c r="J2">
-        <v>4.936563968658447</v>
+        <v>4.9365639686584473</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2222,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2248,16 +2291,16 @@
         <v>543</v>
       </c>
       <c r="I4">
-        <v>0.8591678142547607</v>
+        <v>0.85916781425476074</v>
       </c>
       <c r="J4">
-        <v>32.69539356231689</v>
+        <v>32.695393562316887</v>
       </c>
       <c r="K4">
-        <v>0.09373140335083008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>9.3731403350830078E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2280,16 +2323,16 @@
         <v>479</v>
       </c>
       <c r="I5">
-        <v>1.093260288238525</v>
+        <v>1.0932602882385249</v>
       </c>
       <c r="J5">
-        <v>10.8568069934845</v>
+        <v>10.856806993484501</v>
       </c>
       <c r="K5">
         <v>0.1093473434448242</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2312,16 +2355,16 @@
         <v>544</v>
       </c>
       <c r="I6">
-        <v>0.6404790878295898</v>
+        <v>0.64047908782958984</v>
       </c>
       <c r="J6">
-        <v>32.68062305450439</v>
+        <v>32.680623054504387</v>
       </c>
       <c r="K6">
-        <v>0.1561801433563232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0.15618014335632319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2350,13 +2393,13 @@
         <v>1.187219381332397</v>
       </c>
       <c r="J7">
-        <v>9.216561555862427</v>
+        <v>9.2165615558624268</v>
       </c>
       <c r="K7">
         <v>0.1093480587005615</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2373,16 +2416,16 @@
         <v>309</v>
       </c>
       <c r="I8">
-        <v>0.4061341285705566</v>
+        <v>0.40613412857055659</v>
       </c>
       <c r="J8">
-        <v>32.10179901123047</v>
+        <v>32.101799011230469</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2417,7 +2460,7 @@
         <v>0.124964714050293</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2443,16 +2486,16 @@
         <v>547</v>
       </c>
       <c r="I10">
-        <v>1.202819585800171</v>
+        <v>1.2028195858001709</v>
       </c>
       <c r="J10">
-        <v>8.466747045516968</v>
+        <v>8.4667470455169678</v>
       </c>
       <c r="K10">
         <v>0.1247649192810059</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2475,16 +2518,16 @@
         <v>484</v>
       </c>
       <c r="I11">
-        <v>1.124732255935669</v>
+        <v>1.1247322559356689</v>
       </c>
       <c r="J11">
-        <v>5.467684507369995</v>
+        <v>5.4676845073699951</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2519,7 +2562,7 @@
         <v>0.10935378074646</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2536,16 +2579,16 @@
         <v>314</v>
       </c>
       <c r="I13">
-        <v>0.3904924392700195</v>
+        <v>0.39049243927001948</v>
       </c>
       <c r="J13">
-        <v>30.93022227287292</v>
+        <v>30.930222272872921</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2571,13 +2614,13 @@
         <v>1.218461275100708</v>
       </c>
       <c r="J14">
-        <v>4.37400484085083</v>
+        <v>4.3740048408508301</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2594,16 +2637,16 @@
         <v>316</v>
       </c>
       <c r="I15">
-        <v>0.4842443466186523</v>
+        <v>0.48424434661865229</v>
       </c>
       <c r="J15">
-        <v>51.90983986854553</v>
+        <v>51.909839868545532</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2626,16 +2669,16 @@
         <v>487</v>
       </c>
       <c r="I16">
-        <v>2.280715942382812</v>
+        <v>2.2807159423828121</v>
       </c>
       <c r="J16">
-        <v>39.74129700660706</v>
+        <v>39.741297006607063</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2664,13 +2707,13 @@
         <v>1.437407493591309</v>
       </c>
       <c r="J17">
-        <v>34.02305436134338</v>
+        <v>34.023054361343377</v>
       </c>
       <c r="K17">
         <v>0.1093723773956299</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2705,7 +2748,7 @@
         <v>0.1095206737518311</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2725,7 +2768,7 @@
         <v>405</v>
       </c>
       <c r="I19">
-        <v>1.374678134918213</v>
+        <v>1.3746781349182129</v>
       </c>
       <c r="J19">
         <v>31.44595193862915</v>
@@ -2734,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2757,7 +2800,7 @@
         <v>490</v>
       </c>
       <c r="I20">
-        <v>1.890445709228516</v>
+        <v>1.8904457092285161</v>
       </c>
       <c r="J20">
         <v>16.15216422080994</v>
@@ -2766,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2789,16 +2832,16 @@
         <v>491</v>
       </c>
       <c r="I21">
-        <v>1.171592950820923</v>
+        <v>1.1715929508209231</v>
       </c>
       <c r="J21">
-        <v>14.5596067905426</v>
+        <v>14.559606790542601</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2827,13 +2870,13 @@
         <v>1.327813386917114</v>
       </c>
       <c r="J22">
-        <v>8.560518264770508</v>
+        <v>8.5605182647705078</v>
       </c>
       <c r="K22">
-        <v>0.1405570507049561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>0.14055705070495611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2853,16 +2896,16 @@
         <v>409</v>
       </c>
       <c r="I23">
-        <v>1.812303066253662</v>
+        <v>1.8123030662536621</v>
       </c>
       <c r="J23">
-        <v>30.22699046134949</v>
+        <v>30.226990461349491</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2888,16 +2931,16 @@
         <v>552</v>
       </c>
       <c r="I24">
-        <v>0.9062471389770508</v>
+        <v>0.90624713897705078</v>
       </c>
       <c r="J24">
-        <v>31.03953719139099</v>
+        <v>31.039537191390991</v>
       </c>
       <c r="K24">
         <v>0.124753475189209</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2920,7 +2963,7 @@
         <v>494</v>
       </c>
       <c r="I25">
-        <v>0.9372749328613281</v>
+        <v>0.93727493286132813</v>
       </c>
       <c r="J25">
         <v>42.95903468132019</v>
@@ -2929,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2952,16 +2995,16 @@
         <v>495</v>
       </c>
       <c r="I26">
-        <v>1.624382257461548</v>
+        <v>1.6243822574615481</v>
       </c>
       <c r="J26">
-        <v>18.79243755340576</v>
+        <v>18.792437553405762</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2981,16 +3024,16 @@
         <v>413</v>
       </c>
       <c r="I27">
-        <v>1.390305519104004</v>
+        <v>1.3903055191040039</v>
       </c>
       <c r="J27">
-        <v>52.76900148391724</v>
+        <v>52.769001483917243</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3013,7 +3056,7 @@
         <v>496</v>
       </c>
       <c r="I28">
-        <v>1.405918598175049</v>
+        <v>1.4059185981750491</v>
       </c>
       <c r="J28">
         <v>15.15265822410583</v>
@@ -3022,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3051,13 +3094,13 @@
         <v>0.9218900203704834</v>
       </c>
       <c r="J29">
-        <v>9.107674360275269</v>
+        <v>9.1076743602752686</v>
       </c>
       <c r="K29">
-        <v>0.09371376037597656</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>9.3713760375976563E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3074,16 +3117,16 @@
         <v>330</v>
       </c>
       <c r="I30">
-        <v>0.5779867172241211</v>
+        <v>0.57798671722412109</v>
       </c>
       <c r="J30">
-        <v>30.58651804924011</v>
+        <v>30.586518049240109</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3106,13 +3149,13 @@
         <v>1.140351295471191</v>
       </c>
       <c r="J31">
-        <v>30.61775946617126</v>
+        <v>30.617759466171261</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3135,13 +3178,13 @@
         <v>1.249931335449219</v>
       </c>
       <c r="J32">
-        <v>30.58629989624023</v>
+        <v>30.586299896240231</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3167,16 +3210,16 @@
         <v>554</v>
       </c>
       <c r="I33">
-        <v>1.390296697616577</v>
+        <v>1.3902966976165769</v>
       </c>
       <c r="J33">
-        <v>32.19650340080261</v>
+        <v>32.196503400802612</v>
       </c>
       <c r="K33">
-        <v>0.1093370914459229</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>0.10933709144592289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3205,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3228,16 +3271,16 @@
         <v>499</v>
       </c>
       <c r="I35">
-        <v>1.655856370925903</v>
+        <v>1.6558563709259031</v>
       </c>
       <c r="J35">
-        <v>18.82367610931396</v>
+        <v>18.823676109313961</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3254,16 +3297,16 @@
         <v>336</v>
       </c>
       <c r="I36">
-        <v>0.4061145782470703</v>
+        <v>0.40611457824707031</v>
       </c>
       <c r="J36">
-        <v>31.60167503356934</v>
+        <v>31.601675033569339</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3289,16 +3332,16 @@
         <v>555</v>
       </c>
       <c r="I37">
-        <v>1.21818733215332</v>
+        <v>1.2181873321533201</v>
       </c>
       <c r="J37">
-        <v>10.04468107223511</v>
+        <v>10.044681072235109</v>
       </c>
       <c r="K37">
-        <v>0.1406850814819336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>0.14068508148193359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3324,16 +3367,16 @@
         <v>556</v>
       </c>
       <c r="I38">
-        <v>1.015382528305054</v>
+        <v>1.0153825283050539</v>
       </c>
       <c r="J38">
-        <v>8.936081409454346</v>
+        <v>8.9360814094543457</v>
       </c>
       <c r="K38">
         <v>0.1093530654907227</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3359,16 +3402,16 @@
         <v>557</v>
       </c>
       <c r="I39">
-        <v>0.8747828006744385</v>
+        <v>0.87478280067443848</v>
       </c>
       <c r="J39">
-        <v>13.55952548980713</v>
+        <v>13.559525489807131</v>
       </c>
       <c r="K39">
-        <v>0.1874611377716064</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>0.18746113777160639</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3385,7 +3428,7 @@
         <v>339</v>
       </c>
       <c r="I40">
-        <v>0.4061555862426758</v>
+        <v>0.40615558624267578</v>
       </c>
       <c r="J40">
         <v>30.58712363243103</v>
@@ -3394,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3420,7 +3463,7 @@
         <v>558</v>
       </c>
       <c r="I41">
-        <v>1.109078884124756</v>
+        <v>1.1090788841247561</v>
       </c>
       <c r="J41">
         <v>10.02864098548889</v>
@@ -3429,7 +3472,7 @@
         <v>0.1249732971191406</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3455,16 +3498,16 @@
         <v>559</v>
       </c>
       <c r="I42">
-        <v>1.280944108963013</v>
+        <v>1.2809441089630129</v>
       </c>
       <c r="J42">
         <v>9.31032395362854</v>
       </c>
       <c r="K42">
-        <v>0.1406018733978271</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>0.14060187339782709</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3496,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3516,7 +3559,7 @@
         <v>427</v>
       </c>
       <c r="I44">
-        <v>0.8591625690460205</v>
+        <v>0.85916256904602051</v>
       </c>
       <c r="J44">
         <v>31.92995548248291</v>
@@ -3525,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3557,10 +3600,10 @@
         <v>12.62250757217407</v>
       </c>
       <c r="K45">
-        <v>0.1403570175170898</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>0.14035701751708979</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3583,13 +3626,13 @@
         <v>1.132316112518311</v>
       </c>
       <c r="J46">
-        <v>31.63172650337219</v>
+        <v>31.631726503372189</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3606,16 +3649,16 @@
         <v>345</v>
       </c>
       <c r="I47">
-        <v>0.4218976497650146</v>
+        <v>0.42189764976501459</v>
       </c>
       <c r="J47">
-        <v>32.62600183486938</v>
+        <v>32.626001834869378</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3635,16 +3678,16 @@
         <v>430</v>
       </c>
       <c r="I48">
-        <v>0.937307596206665</v>
+        <v>0.93730759620666504</v>
       </c>
       <c r="J48">
-        <v>31.430180311203</v>
+        <v>31.430180311202999</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3679,7 +3722,7 @@
         <v>0.2031137943267822</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3705,13 +3748,13 @@
         <v>1.18736720085144</v>
       </c>
       <c r="J50">
-        <v>9.529114723205566</v>
+        <v>9.5291147232055664</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3731,16 +3774,16 @@
         <v>433</v>
       </c>
       <c r="I51">
-        <v>1.390300273895264</v>
+        <v>1.3903002738952639</v>
       </c>
       <c r="J51">
-        <v>31.72686815261841</v>
+        <v>31.726868152618412</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3769,13 +3812,13 @@
         <v>1.093727588653564</v>
       </c>
       <c r="J52">
-        <v>34.32486915588379</v>
+        <v>34.324869155883789</v>
       </c>
       <c r="K52">
         <v>0.1090865135192871</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3807,10 +3850,10 @@
         <v>10.95509719848633</v>
       </c>
       <c r="K53">
-        <v>0.1188690662384033</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>0.11886906623840331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3836,16 +3879,16 @@
         <v>562</v>
       </c>
       <c r="I54">
-        <v>1.292960166931152</v>
+        <v>1.2929601669311519</v>
       </c>
       <c r="J54">
-        <v>11.03122735023499</v>
+        <v>11.031227350234991</v>
       </c>
       <c r="K54">
         <v>0.109304666519165</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3865,16 +3908,16 @@
         <v>437</v>
       </c>
       <c r="I55">
-        <v>1.765207529067993</v>
+        <v>1.7652075290679929</v>
       </c>
       <c r="J55">
-        <v>31.67220449447632</v>
+        <v>31.672204494476318</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3903,13 +3946,13 @@
         <v>1.515273809432983</v>
       </c>
       <c r="J56">
-        <v>31.64936876296997</v>
+        <v>31.649368762969971</v>
       </c>
       <c r="K56">
-        <v>0.1093087196350098</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>0.10930871963500979</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3938,13 +3981,13 @@
         <v>1.062330007553101</v>
       </c>
       <c r="J57">
-        <v>10.55474710464478</v>
+        <v>10.554747104644781</v>
       </c>
       <c r="K57">
         <v>0.1094186305999756</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3970,16 +4013,16 @@
         <v>564</v>
       </c>
       <c r="I58">
-        <v>1.374797344207764</v>
+        <v>1.3747973442077639</v>
       </c>
       <c r="J58">
-        <v>11.55407476425171</v>
+        <v>11.554074764251711</v>
       </c>
       <c r="K58">
         <v>0.124842643737793</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4011,10 +4054,10 @@
         <v>12.74669075012207</v>
       </c>
       <c r="K59">
-        <v>0.09372758865356445</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>9.3727588653564453E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4040,16 +4083,16 @@
         <v>566</v>
       </c>
       <c r="I60">
-        <v>0.937518835067749</v>
+        <v>0.93751883506774902</v>
       </c>
       <c r="J60">
         <v>10.62305307388306</v>
       </c>
       <c r="K60">
-        <v>0.1247546672821045</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>0.12475466728210451</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4081,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4104,16 +4147,16 @@
         <v>518</v>
       </c>
       <c r="I62">
-        <v>2.311984300613403</v>
+        <v>2.3119843006134029</v>
       </c>
       <c r="J62">
-        <v>38.41303205490112</v>
+        <v>38.413032054901123</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4145,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4162,16 +4205,16 @@
         <v>360</v>
       </c>
       <c r="I64">
-        <v>0.3905324935913086</v>
+        <v>0.39053249359130859</v>
       </c>
       <c r="J64">
-        <v>31.50816488265991</v>
+        <v>31.508164882659909</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4191,16 +4234,16 @@
         <v>446</v>
       </c>
       <c r="I65">
-        <v>1.2812180519104</v>
+        <v>1.2812180519103999</v>
       </c>
       <c r="J65">
-        <v>30.21636128425598</v>
+        <v>30.216361284255981</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4220,13 +4263,13 @@
         <v>0.4373927116394043</v>
       </c>
       <c r="J66">
-        <v>32.13298392295837</v>
+        <v>32.132983922958367</v>
       </c>
       <c r="K66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4249,16 +4292,16 @@
         <v>520</v>
       </c>
       <c r="I67">
-        <v>1.015565395355225</v>
+        <v>1.0155653953552251</v>
       </c>
       <c r="J67">
-        <v>16.21467804908752</v>
+        <v>16.214678049087521</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4287,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4304,7 +4347,7 @@
         <v>365</v>
       </c>
       <c r="I69">
-        <v>0.4064195156097412</v>
+        <v>0.40641951560974121</v>
       </c>
       <c r="J69">
         <v>30.83677959442139</v>
@@ -4313,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4342,13 +4385,13 @@
         <v>1.968282222747803</v>
       </c>
       <c r="J70">
-        <v>11.27837491035461</v>
+        <v>11.278374910354611</v>
       </c>
       <c r="K70">
         <v>0.1095597743988037</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4374,7 +4417,7 @@
         <v>568</v>
       </c>
       <c r="I71">
-        <v>1.608993053436279</v>
+        <v>1.6089930534362791</v>
       </c>
       <c r="J71">
         <v>10.15376710891724</v>
@@ -4383,7 +4426,7 @@
         <v>0.109433650970459</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4412,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4438,16 +4481,16 @@
         <v>569</v>
       </c>
       <c r="I73">
-        <v>0.9375708103179932</v>
+        <v>0.93757081031799316</v>
       </c>
       <c r="J73">
-        <v>10.231853723526</v>
+        <v>10.231853723525999</v>
       </c>
       <c r="K73">
         <v>0.1091830730438232</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4464,16 +4507,16 @@
         <v>368</v>
       </c>
       <c r="I74">
-        <v>0.4686403274536133</v>
+        <v>0.46864032745361328</v>
       </c>
       <c r="J74">
-        <v>31.16515803337097</v>
+        <v>31.165158033370972</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4499,13 +4542,13 @@
         <v>1.280936479568481</v>
       </c>
       <c r="J75">
-        <v>4.061536312103271</v>
+        <v>4.0615363121032706</v>
       </c>
       <c r="K75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4534,13 +4577,13 @@
         <v>1.937092065811157</v>
       </c>
       <c r="J76">
-        <v>9.85677695274353</v>
+        <v>9.8567769527435303</v>
       </c>
       <c r="K76">
-        <v>0.1096138954162598</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>0.10961389541625979</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4563,16 +4606,16 @@
         <v>526</v>
       </c>
       <c r="I77">
-        <v>2.796105146408081</v>
+        <v>2.7961051464080811</v>
       </c>
       <c r="J77">
-        <v>38.25656461715698</v>
+        <v>38.256564617156982</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4595,16 +4638,16 @@
         <v>527</v>
       </c>
       <c r="I78">
-        <v>1.499658823013306</v>
+        <v>1.4996588230133061</v>
       </c>
       <c r="J78">
-        <v>24.18586611747742</v>
+        <v>24.185866117477421</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4633,13 +4676,13 @@
         <v>1.733931303024292</v>
       </c>
       <c r="J79">
-        <v>9.622711658477783</v>
+        <v>9.6227116584777832</v>
       </c>
       <c r="K79">
-        <v>0.09376120567321777</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>9.3761205673217773E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4665,7 +4708,7 @@
         <v>553</v>
       </c>
       <c r="I80">
-        <v>1.186954736709595</v>
+        <v>1.1869547367095949</v>
       </c>
       <c r="J80">
         <v>13.34131836891174</v>
@@ -4674,7 +4717,7 @@
         <v>0.1093502044677734</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4691,16 +4734,16 @@
         <v>375</v>
       </c>
       <c r="I81">
-        <v>0.499802827835083</v>
+        <v>0.49980282783508301</v>
       </c>
       <c r="J81">
-        <v>31.49267172813416</v>
+        <v>31.492671728134159</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4732,10 +4775,10 @@
         <v>10.15411019325256</v>
       </c>
       <c r="K82">
-        <v>0.1093089580535889</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>0.10930895805358889</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4755,13 +4798,13 @@
         <v>0.4217522144317627</v>
       </c>
       <c r="J83">
-        <v>32.08621668815613</v>
+        <v>32.086216688156128</v>
       </c>
       <c r="K83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4784,16 +4827,16 @@
         <v>531</v>
       </c>
       <c r="I84">
-        <v>0.9219131469726562</v>
+        <v>0.92191314697265625</v>
       </c>
       <c r="J84">
-        <v>18.21458864212036</v>
+        <v>18.214588642120361</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4819,16 +4862,16 @@
         <v>572</v>
       </c>
       <c r="I85">
-        <v>1.26507306098938</v>
+        <v>1.2650730609893801</v>
       </c>
       <c r="J85">
         <v>10.76283431053162</v>
       </c>
       <c r="K85">
-        <v>0.09398365020751953</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>9.3983650207519531E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4854,13 +4897,13 @@
         <v>1.977922916412354</v>
       </c>
       <c r="J86">
-        <v>33.92558407783508</v>
+        <v>33.925584077835083</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4883,13 +4926,13 @@
         <v>1.40593957901001</v>
       </c>
       <c r="J87">
-        <v>51.47216725349426</v>
+        <v>51.472167253494263</v>
       </c>
       <c r="K87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4918,13 +4961,13 @@
         <v>1.280638694763184</v>
       </c>
       <c r="J88">
-        <v>9.731791019439697</v>
+        <v>9.7317910194396973</v>
       </c>
       <c r="K88">
-        <v>0.1096529960632324</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>0.10965299606323239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4956,10 +4999,10 @@
         <v>13.94993948936462</v>
       </c>
       <c r="K89">
-        <v>0.0936737060546875</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>9.36737060546875E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4982,13 +5025,13 @@
         <v>1.671451330184937</v>
       </c>
       <c r="J90">
-        <v>32.05519104003906</v>
+        <v>32.055191040039063</v>
       </c>
       <c r="K90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5014,16 +5057,16 @@
         <v>575</v>
       </c>
       <c r="I91">
-        <v>1.140214443206787</v>
+        <v>1.1402144432067871</v>
       </c>
       <c r="J91">
-        <v>10.32568597793579</v>
+        <v>10.325685977935789</v>
       </c>
       <c r="K91">
-        <v>0.1093170642852783</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>0.10931706428527831</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5055,10 +5098,10 @@
         <v>10.669517993927</v>
       </c>
       <c r="K92">
-        <v>4.155272245407104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>0.109113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5084,16 +5127,16 @@
         <v>576</v>
       </c>
       <c r="I93">
-        <v>1.124733924865723</v>
+        <v>1.1247339248657231</v>
       </c>
       <c r="J93">
-        <v>9.419658660888672</v>
+        <v>9.4196586608886719</v>
       </c>
       <c r="K93">
         <v>0.1093380451202393</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5119,16 +5162,16 @@
         <v>577</v>
       </c>
       <c r="I94">
-        <v>0.9526693820953369</v>
+        <v>0.95266938209533691</v>
       </c>
       <c r="J94">
-        <v>30.5772225856781</v>
+        <v>30.577222585678101</v>
       </c>
       <c r="K94">
-        <v>0.1959853172302246</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>0.19598531723022461</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5148,16 +5191,16 @@
         <v>471</v>
       </c>
       <c r="I95">
-        <v>1.015335559844971</v>
+        <v>1.0153355598449709</v>
       </c>
       <c r="J95">
-        <v>31.20886635780334</v>
+        <v>31.208866357803341</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5180,13 +5223,13 @@
         <v>1.604619026184082</v>
       </c>
       <c r="J96">
-        <v>32.07309985160828</v>
+        <v>32.073099851608283</v>
       </c>
       <c r="K96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5212,16 +5255,16 @@
         <v>578</v>
       </c>
       <c r="I97">
-        <v>1.218720197677612</v>
+        <v>1.2187201976776121</v>
       </c>
       <c r="J97">
-        <v>13.47132968902588</v>
+        <v>13.471329689025881</v>
       </c>
       <c r="K97">
-        <v>0.09362363815307617</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>9.3623638153076172E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5250,13 +5293,13 @@
         <v>1.203061580657959</v>
       </c>
       <c r="J98">
-        <v>12.1687650680542</v>
+        <v>12.168765068054199</v>
       </c>
       <c r="K98">
-        <v>0.1718380451202393</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>0.17183804512023931</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5273,7 +5316,7 @@
         <v>390</v>
       </c>
       <c r="I99">
-        <v>0.3992505073547363</v>
+        <v>0.39925050735473627</v>
       </c>
       <c r="J99">
         <v>30.66961669921875</v>
@@ -5282,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5302,16 +5345,16 @@
         <v>475</v>
       </c>
       <c r="I100">
-        <v>1.441843748092651</v>
+        <v>1.4418437480926509</v>
       </c>
       <c r="J100">
-        <v>31.79400444030762</v>
+        <v>31.794004440307621</v>
       </c>
       <c r="K100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5334,10 +5377,10 @@
         <v>542</v>
       </c>
       <c r="I101">
-        <v>1.296449422836304</v>
+        <v>1.2964494228363039</v>
       </c>
       <c r="J101">
-        <v>43.97680592536926</v>
+        <v>43.976805925369263</v>
       </c>
       <c r="K101">
         <v>0</v>
